--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="167">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-08-28</t>
+  </si>
+  <si>
     <t>2023-08-24</t>
   </si>
   <si>
@@ -145,6 +148,9 @@
     <t>2023-07-03</t>
   </si>
   <si>
+    <t>2023-08-29</t>
+  </si>
+  <si>
     <t>2023-08-25</t>
   </si>
   <si>
@@ -175,6 +181,9 @@
     <t>2023-07-04</t>
   </si>
   <si>
+    <t>2023-09-14</t>
+  </si>
+  <si>
     <t>2023-09-07</t>
   </si>
   <si>
@@ -199,6 +208,9 @@
     <t>2023-08-11</t>
   </si>
   <si>
+    <t>상상인</t>
+  </si>
+  <si>
     <t>한화</t>
   </si>
   <si>
@@ -232,7 +244,7 @@
     <t>DB</t>
   </si>
   <si>
-    <t>삼성</t>
+    <t>상상인제4호스팩</t>
   </si>
   <si>
     <t>한화플러스제4호스팩</t>
@@ -304,7 +316,7 @@
     <t>와이랩</t>
   </si>
   <si>
-    <t>센서뷰</t>
+    <t>655.64:1</t>
   </si>
   <si>
     <t>739.65:1</t>
@@ -376,7 +388,7 @@
     <t>1821.64:1</t>
   </si>
   <si>
-    <t>1,673.33:1</t>
+    <t>-</t>
   </si>
   <si>
     <t>0.13%</t>
@@ -406,9 +418,6 @@
     <t>2.63%</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>0.66%</t>
   </si>
   <si>
@@ -448,7 +457,7 @@
     <t>14.72%</t>
   </si>
   <si>
-    <t>7.41%</t>
+    <t>합병</t>
   </si>
   <si>
     <t>기타 금융서비스업</t>
@@ -506,9 +515,6 @@
   </si>
   <si>
     <t>만화출판물의 제작 및 영상물 제작</t>
-  </si>
-  <si>
-    <t>T&amp;M 케이블, 초소형 전송선로</t>
   </si>
 </sst>
 </file>
@@ -954,22 +960,22 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F2">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="G2">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -981,7 +987,7 @@
         <v>2000</v>
       </c>
       <c r="K2">
-        <v>5060000</v>
+        <v>5220000</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -990,10 +996,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1023,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1031,22 +1037,22 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F3">
-        <v>6500000</v>
+        <v>4750000</v>
       </c>
       <c r="G3">
-        <v>6500000</v>
+        <v>4750000</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1058,7 +1064,7 @@
         <v>2000</v>
       </c>
       <c r="K3">
-        <v>7310000</v>
+        <v>5060000</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1067,10 +1073,10 @@
         <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1100,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1108,22 +1114,22 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F4">
-        <v>5000000</v>
+        <v>6500000</v>
       </c>
       <c r="G4">
-        <v>5000000</v>
+        <v>6500000</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1135,7 +1141,7 @@
         <v>2000</v>
       </c>
       <c r="K4">
-        <v>5240000</v>
+        <v>7310000</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1144,28 +1150,28 @@
         <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>-13847740</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>-27857800</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>-26031573</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>-26619749</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1177,30 +1183,30 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F5">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="G5">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1212,7 +1218,7 @@
         <v>2000</v>
       </c>
       <c r="K5">
-        <v>4230000</v>
+        <v>5240000</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1221,28 +1227,28 @@
         <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-13847740</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-27857800</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>-26031573</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>-26619749</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1254,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1265,19 +1271,19 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F6">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="G6">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1289,7 +1295,7 @@
         <v>2000</v>
       </c>
       <c r="K6">
-        <v>7035000</v>
+        <v>4230000</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1298,10 +1304,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1319,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>-12707400</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1328,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-25255133</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1339,76 +1345,76 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F7">
-        <v>1333885</v>
+        <v>6500000</v>
       </c>
       <c r="G7">
-        <v>1333885</v>
+        <v>6500000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9200</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>10600</v>
+        <v>2000</v>
       </c>
       <c r="K7">
-        <v>7911521</v>
+        <v>7035000</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P7">
-        <v>1188142585</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1918848238</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>2770382559</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>-1725238656</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>-3229064780</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>-5537591447</v>
+        <v>-12707400</v>
       </c>
       <c r="V7">
-        <v>-6204320195</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>-4650355117</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-5441928110</v>
+        <v>-25255133</v>
       </c>
       <c r="Y7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1416,76 +1422,76 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F8">
-        <v>2220000</v>
+        <v>1333885</v>
       </c>
       <c r="G8">
-        <v>2220000</v>
+        <v>1333885</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5800</v>
+        <v>9200</v>
       </c>
       <c r="J8">
-        <v>6800</v>
+        <v>10600</v>
       </c>
       <c r="K8">
-        <v>14836340</v>
+        <v>7911521</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P8">
-        <v>4679062361</v>
+        <v>1188142585</v>
       </c>
       <c r="Q8">
-        <v>3485357820</v>
+        <v>1918848238</v>
       </c>
       <c r="R8">
-        <v>4024884536</v>
+        <v>2770382559</v>
       </c>
       <c r="S8">
-        <v>-2507179686</v>
+        <v>-1725238656</v>
       </c>
       <c r="T8">
-        <v>-4556221312</v>
+        <v>-3229064780</v>
       </c>
       <c r="U8">
-        <v>-5515471027</v>
+        <v>-5537591447</v>
       </c>
       <c r="V8">
-        <v>-6337199541</v>
+        <v>-6204320195</v>
       </c>
       <c r="W8">
-        <v>-5219381024</v>
+        <v>-4650355117</v>
       </c>
       <c r="X8">
-        <v>-7737792622</v>
+        <v>-5441928110</v>
       </c>
       <c r="Y8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1493,76 +1499,76 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F9">
-        <v>7000000</v>
+        <v>2220000</v>
       </c>
       <c r="G9">
-        <v>3650000</v>
+        <v>2220000</v>
       </c>
       <c r="H9">
-        <v>3350000</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>11500</v>
+        <v>5800</v>
       </c>
       <c r="J9">
-        <v>12500</v>
+        <v>6800</v>
       </c>
       <c r="K9">
-        <v>26002000</v>
+        <v>14836340</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P9">
-        <v>214793831184</v>
+        <v>4679062361</v>
       </c>
       <c r="Q9">
-        <v>424718548060</v>
+        <v>3485357820</v>
       </c>
       <c r="R9">
-        <v>668403649813</v>
+        <v>4024884536</v>
       </c>
       <c r="S9">
-        <v>1549962921</v>
+        <v>-2507179686</v>
       </c>
       <c r="T9">
-        <v>16977488102</v>
+        <v>-4556221312</v>
       </c>
       <c r="U9">
-        <v>181300504021</v>
+        <v>-5515471027</v>
       </c>
       <c r="V9">
-        <v>-6243008019</v>
+        <v>-6337199541</v>
       </c>
       <c r="W9">
-        <v>-1128019547</v>
+        <v>-5219381024</v>
       </c>
       <c r="X9">
-        <v>144193113559</v>
+        <v>-7737792622</v>
       </c>
       <c r="Y9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1570,76 +1576,76 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F10">
-        <v>1400000</v>
+        <v>7000000</v>
       </c>
       <c r="G10">
-        <v>1400000</v>
+        <v>3650000</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3350000</v>
       </c>
       <c r="I10">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="J10">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="K10">
-        <v>8010968</v>
+        <v>26002000</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P10">
-        <v>5523</v>
+        <v>214793831184</v>
       </c>
       <c r="Q10">
-        <v>7237</v>
+        <v>424718548060</v>
       </c>
       <c r="R10">
-        <v>2152</v>
+        <v>668403649813</v>
       </c>
       <c r="S10">
-        <v>-8337</v>
+        <v>1549962921</v>
       </c>
       <c r="T10">
-        <v>-11421</v>
+        <v>16977488102</v>
       </c>
       <c r="U10">
-        <v>-2426</v>
+        <v>181300504021</v>
       </c>
       <c r="V10">
-        <v>-14525</v>
+        <v>-6243008019</v>
       </c>
       <c r="W10">
-        <v>-11498</v>
+        <v>-1128019547</v>
       </c>
       <c r="X10">
-        <v>-2030</v>
+        <v>144193113559</v>
       </c>
       <c r="Y10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1647,76 +1653,76 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F11">
-        <v>6500000</v>
+        <v>1400000</v>
       </c>
       <c r="G11">
-        <v>6500000</v>
+        <v>1400000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="K11">
-        <v>7202000</v>
+        <v>8010968</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>5523</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>7237</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>2152</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>-8337</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>-11421</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>-2426</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>-14525</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>-11498</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>-2030</v>
       </c>
       <c r="Y11" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1724,22 +1730,22 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F12">
-        <v>3000000</v>
+        <v>6500000</v>
       </c>
       <c r="G12">
-        <v>3000000</v>
+        <v>6500000</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1751,7 +1757,7 @@
         <v>2000</v>
       </c>
       <c r="K12">
-        <v>3310000</v>
+        <v>7202000</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1760,10 +1766,10 @@
         <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1793,84 +1799,84 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F13">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="G13">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="J13">
-        <v>11500</v>
+        <v>2000</v>
       </c>
       <c r="K13">
-        <v>5081792</v>
+        <v>3310000</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P13">
-        <v>24739844508</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>31898973540</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>41835502370</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>1308447665</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>2690844081</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>2785574622</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>1394814802</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>2272182540</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>2296576120</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1881,150 +1887,150 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
         <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F14">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
       <c r="G14">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>11500</v>
       </c>
       <c r="K14">
-        <v>5505000</v>
+        <v>5081792</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N14" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>24739844508</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>31898973540</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>41835502370</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1308447665</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>2690844081</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>2785574622</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1394814802</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>2272182540</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>2296576120</v>
       </c>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F15">
-        <v>6250000</v>
+        <v>5000000</v>
       </c>
       <c r="G15">
-        <v>6250000</v>
+        <v>5000000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>31000</v>
+        <v>2000</v>
       </c>
       <c r="K15">
-        <v>48052977</v>
+        <v>5505000</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>31000</v>
+        <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P15">
-        <v>5156816449</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>56401518172</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>17663847173</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>33674192798</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>1507325359</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>-4313488564</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>-43340650215</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>-227459980077</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-4104436260</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2032,76 +2038,76 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F16">
-        <v>1210000</v>
+        <v>6250000</v>
       </c>
       <c r="G16">
-        <v>1210000</v>
+        <v>6250000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>8500</v>
+        <v>26000</v>
       </c>
       <c r="J16">
-        <v>10000</v>
+        <v>31000</v>
       </c>
       <c r="K16">
-        <v>4831300</v>
+        <v>48052977</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>12000</v>
+        <v>31000</v>
       </c>
       <c r="N16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P16">
-        <v>17039669000</v>
+        <v>5156816449</v>
       </c>
       <c r="Q16">
-        <v>22295174000</v>
+        <v>56401518172</v>
       </c>
       <c r="R16">
-        <v>5651391000</v>
+        <v>17663847173</v>
       </c>
       <c r="S16">
-        <v>379731000</v>
+        <v>33674192798</v>
       </c>
       <c r="T16">
-        <v>2826779000</v>
+        <v>1507325359</v>
       </c>
       <c r="U16">
-        <v>308790000</v>
+        <v>-4313488564</v>
       </c>
       <c r="V16">
-        <v>498978000</v>
+        <v>-43340650215</v>
       </c>
       <c r="W16">
-        <v>2789878000</v>
+        <v>-227459980077</v>
       </c>
       <c r="X16">
-        <v>404342000</v>
+        <v>-4104436260</v>
       </c>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2109,76 +2115,76 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F17">
-        <v>900000</v>
+        <v>1210000</v>
       </c>
       <c r="G17">
-        <v>900000</v>
+        <v>1210000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="J17">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="K17">
-        <v>4506250</v>
+        <v>4831300</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="N17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P17">
-        <v>15494673490</v>
+        <v>17039669000</v>
       </c>
       <c r="Q17">
-        <v>14521214328</v>
+        <v>22295174000</v>
       </c>
       <c r="R17">
-        <v>3594864137</v>
+        <v>5651391000</v>
       </c>
       <c r="S17">
-        <v>-4233553078</v>
+        <v>379731000</v>
       </c>
       <c r="T17">
-        <v>-4846781071</v>
+        <v>2826779000</v>
       </c>
       <c r="U17">
-        <v>-1326574819</v>
+        <v>308790000</v>
       </c>
       <c r="V17">
-        <v>-5644511370</v>
+        <v>498978000</v>
       </c>
       <c r="W17">
-        <v>-4369020361</v>
+        <v>2789878000</v>
       </c>
       <c r="X17">
-        <v>-1357947720</v>
+        <v>404342000</v>
       </c>
       <c r="Y17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2186,76 +2192,76 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F18">
-        <v>1400000</v>
+        <v>900000</v>
       </c>
       <c r="G18">
-        <v>1400000</v>
+        <v>900000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="J18">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="K18">
-        <v>12918962</v>
+        <v>4506250</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="N18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>15494673490</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>14521214328</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>3594864137</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>-4233553078</v>
       </c>
       <c r="T18">
-        <v>-2245693698</v>
+        <v>-4846781071</v>
       </c>
       <c r="U18">
-        <v>-2229761675</v>
+        <v>-1326574819</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>-5644511370</v>
       </c>
       <c r="W18">
-        <v>-3942537108</v>
+        <v>-4369020361</v>
       </c>
       <c r="X18">
-        <v>-2032976451</v>
+        <v>-1357947720</v>
       </c>
       <c r="Y18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2263,46 +2269,46 @@
         <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F19">
-        <v>4000000</v>
+        <v>1400000</v>
       </c>
       <c r="G19">
-        <v>4000000</v>
+        <v>1400000</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="J19">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="K19">
-        <v>4540000</v>
+        <v>12918962</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="N19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -2317,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>-2245693698</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>-2229761675</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>-3942537108</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>-2032976451</v>
       </c>
       <c r="Y19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2340,218 +2346,218 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F20">
-        <v>900000</v>
+        <v>4000000</v>
       </c>
       <c r="G20">
-        <v>900000</v>
+        <v>4000000</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16700</v>
+        <v>2000</v>
       </c>
       <c r="J20">
-        <v>20500</v>
+        <v>2000</v>
       </c>
       <c r="K20">
-        <v>8489671</v>
+        <v>4540000</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="N20" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P20">
-        <v>30699181665</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>41841806894</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>44318854365</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>7122843938</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>5591579336</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>8025839545</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>9772863736</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>5681903898</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>14260090631</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F21">
-        <v>1920000</v>
+        <v>900000</v>
       </c>
       <c r="G21">
-        <v>1920000</v>
+        <v>900000</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>11500</v>
+        <v>16700</v>
       </c>
       <c r="J21">
-        <v>13600</v>
+        <v>20500</v>
       </c>
       <c r="K21">
-        <v>10869600</v>
+        <v>8489671</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="N21" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P21">
-        <v>-1450079427</v>
+        <v>30699181665</v>
       </c>
       <c r="Q21">
-        <v>-4660285609</v>
+        <v>41841806894</v>
       </c>
       <c r="R21">
-        <v>-14142263265</v>
+        <v>44318854365</v>
       </c>
       <c r="S21">
-        <v>-1532952507</v>
+        <v>7122843938</v>
       </c>
       <c r="T21">
-        <v>-8976354818</v>
+        <v>5591579336</v>
       </c>
       <c r="U21">
-        <v>-8481198407</v>
+        <v>8025839545</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>9772863736</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>5681903898</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>14260090631</v>
       </c>
       <c r="Y21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F22">
-        <v>440000</v>
+        <v>1920000</v>
       </c>
       <c r="G22">
-        <v>440000</v>
+        <v>1920000</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21000</v>
+        <v>11500</v>
       </c>
       <c r="J22">
-        <v>24000</v>
+        <v>13600</v>
       </c>
       <c r="K22">
-        <v>3534040</v>
+        <v>10869600</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="N22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>-1450079427</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-4660285609</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>-14142263265</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>-1532952507</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>-8976354818</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>-8481198407</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2563,54 +2569,54 @@
         <v>0</v>
       </c>
       <c r="Y22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
         <v>41</v>
       </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F23">
-        <v>4000000</v>
+        <v>440000</v>
       </c>
       <c r="G23">
-        <v>4000000</v>
+        <v>440000</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J23">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K23">
-        <v>5020000</v>
+        <v>3534040</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N23" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2640,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2648,153 +2654,153 @@
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F24">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="G24">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="J24">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="K24">
-        <v>15831354</v>
+        <v>5020000</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="N24" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P24">
-        <v>5371307160</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>21656372098</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>29780532001</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>-3379753305</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>-1074375321</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>-435498328</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>-1091111641</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>453696676</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-572434054</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F25">
-        <v>3900000</v>
+        <v>3000000</v>
       </c>
       <c r="G25">
-        <v>3900000</v>
+        <v>3000000</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2900</v>
+        <v>7000</v>
       </c>
       <c r="J25">
-        <v>3600</v>
+        <v>8000</v>
       </c>
       <c r="K25">
-        <v>25937910</v>
+        <v>15831354</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="N25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>5371307160</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>21656372098</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>29780532001</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>-3379753305</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>-1074375321</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>-435498328</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>-1091111641</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>453696676</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>-572434054</v>
       </c>
       <c r="Y25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="131">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -130,9 +130,6 @@
     <t>2023-08-02</t>
   </si>
   <si>
-    <t>2023-07-26</t>
-  </si>
-  <si>
     <t>2023-09-15</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>2023-08-03</t>
   </si>
   <si>
-    <t>2023-07-27</t>
-  </si>
-  <si>
     <t>2023-10-05</t>
   </si>
   <si>
@@ -193,9 +187,6 @@
     <t>2023-08-21</t>
   </si>
   <si>
-    <t>2023-08-11</t>
-  </si>
-  <si>
     <t>한국, 미래</t>
   </si>
   <si>
@@ -232,9 +223,6 @@
     <t>하나</t>
   </si>
   <si>
-    <t>SK</t>
-  </si>
-  <si>
     <t>두산로보틱스</t>
   </si>
   <si>
@@ -283,9 +271,6 @@
     <t>넥스틸</t>
   </si>
   <si>
-    <t>SK증권제10호스팩</t>
-  </si>
-  <si>
     <t>272.03:1</t>
   </si>
   <si>
@@ -334,9 +319,6 @@
     <t>235.56:1</t>
   </si>
   <si>
-    <t>1205.00:1</t>
-  </si>
-  <si>
     <t>51.60%</t>
   </si>
   <si>
@@ -383,9 +365,6 @@
   </si>
   <si>
     <t>0.60%</t>
-  </si>
-  <si>
-    <t>0.66%</t>
   </si>
   <si>
     <t>협동로봇</t>
@@ -785,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -873,16 +852,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F2">
         <v>16200000</v>
@@ -909,10 +888,10 @@
         <v>26000</v>
       </c>
       <c r="N2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="O2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="P2">
         <v>36980</v>
@@ -942,7 +921,7 @@
         <v>-9333</v>
       </c>
       <c r="Y2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -950,16 +929,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F3">
         <v>18000000</v>
@@ -986,10 +965,10 @@
         <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="O3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1019,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1030,13 +1009,13 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F4">
         <v>1500000</v>
@@ -1063,10 +1042,10 @@
         <v>12500</v>
       </c>
       <c r="N4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="O4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P4">
         <v>18408761227</v>
@@ -1096,7 +1075,7 @@
         <v>592903151</v>
       </c>
       <c r="Y4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1104,16 +1083,16 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F5">
         <v>2240000</v>
@@ -1140,10 +1119,10 @@
         <v>15000</v>
       </c>
       <c r="N5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="O5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="P5">
         <v>22818451349</v>
@@ -1173,7 +1152,7 @@
         <v>1929682988</v>
       </c>
       <c r="Y5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1181,16 +1160,16 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F6">
         <v>1580000</v>
@@ -1217,10 +1196,10 @@
         <v>14000</v>
       </c>
       <c r="N6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="P6">
         <v>7327878427</v>
@@ -1250,7 +1229,7 @@
         <v>-550600734</v>
       </c>
       <c r="Y6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1258,16 +1237,16 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F7">
         <v>1500000</v>
@@ -1294,10 +1273,10 @@
         <v>23000</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="P7">
         <v>28857</v>
@@ -1327,7 +1306,7 @@
         <v>5128</v>
       </c>
       <c r="Y7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1335,16 +1314,16 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F8">
         <v>1100000</v>
@@ -1371,10 +1350,10 @@
         <v>24000</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="P8">
         <v>32608351</v>
@@ -1404,7 +1383,7 @@
         <v>180579</v>
       </c>
       <c r="Y8" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1412,16 +1391,16 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F9">
         <v>4500000</v>
@@ -1448,10 +1427,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="O9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1481,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1489,16 +1468,16 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F10">
         <v>4750000</v>
@@ -1525,10 +1504,10 @@
         <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="O10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1558,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1566,16 +1545,16 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F11">
         <v>6500000</v>
@@ -1602,10 +1581,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="O11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1635,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1646,13 +1625,13 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F12">
         <v>5000000</v>
@@ -1679,10 +1658,10 @@
         <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1712,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1723,13 +1702,13 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F13">
         <v>4000000</v>
@@ -1756,10 +1735,10 @@
         <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="O13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1789,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1800,13 +1779,13 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F14">
         <v>6500000</v>
@@ -1833,10 +1812,10 @@
         <v>2000</v>
       </c>
       <c r="N14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="O14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1866,7 +1845,7 @@
         <v>-25255133</v>
       </c>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1874,16 +1853,16 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F15">
         <v>1333885</v>
@@ -1910,10 +1889,10 @@
         <v>12000</v>
       </c>
       <c r="N15" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P15">
         <v>1188142585</v>
@@ -1943,7 +1922,7 @@
         <v>-5441928110</v>
       </c>
       <c r="Y15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1954,13 +1933,13 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F16">
         <v>2220000</v>
@@ -1987,10 +1966,10 @@
         <v>8000</v>
       </c>
       <c r="N16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="O16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="P16">
         <v>4679062361</v>
@@ -2020,7 +1999,7 @@
         <v>-7737792622</v>
       </c>
       <c r="Y16" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2028,16 +2007,16 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F17">
         <v>7000000</v>
@@ -2064,10 +2043,10 @@
         <v>11500</v>
       </c>
       <c r="N17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="P17">
         <v>214793831184</v>
@@ -2097,84 +2076,7 @@
         <v>144193113559</v>
       </c>
       <c r="Y17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18">
-        <v>3000000</v>
-      </c>
-      <c r="G18">
-        <v>3000000</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>2000</v>
-      </c>
-      <c r="J18">
-        <v>2000</v>
-      </c>
-      <c r="K18">
-        <v>3310000</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>2000</v>
-      </c>
-      <c r="N18" t="s">
-        <v>106</v>
-      </c>
-      <c r="O18" t="s">
-        <v>123</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="137">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-09-22</t>
+  </si>
+  <si>
     <t>2023-09-11</t>
   </si>
   <si>
@@ -130,6 +133,9 @@
     <t>2023-08-02</t>
   </si>
   <si>
+    <t>2023-10-04</t>
+  </si>
+  <si>
     <t>2023-09-15</t>
   </si>
   <si>
@@ -154,12 +160,12 @@
     <t>2023-08-03</t>
   </si>
   <si>
+    <t>2023-10-19</t>
+  </si>
+  <si>
     <t>2023-10-05</t>
   </si>
   <si>
-    <t>2023-10-04</t>
-  </si>
-  <si>
     <t>2023-10-06</t>
   </si>
   <si>
@@ -187,6 +193,9 @@
     <t>2023-08-21</t>
   </si>
   <si>
+    <t>미래</t>
+  </si>
+  <si>
     <t>한국, 미래</t>
   </si>
   <si>
@@ -202,9 +211,6 @@
     <t>유안타</t>
   </si>
   <si>
-    <t>미래</t>
-  </si>
-  <si>
     <t>신영</t>
   </si>
   <si>
@@ -223,6 +229,9 @@
     <t>하나</t>
   </si>
   <si>
+    <t>신성에스티</t>
+  </si>
+  <si>
     <t>두산로보틱스</t>
   </si>
   <si>
@@ -271,6 +280,9 @@
     <t>넥스틸</t>
   </si>
   <si>
+    <t>583.50:1</t>
+  </si>
+  <si>
     <t>272.03:1</t>
   </si>
   <si>
@@ -319,6 +331,9 @@
     <t>235.56:1</t>
   </si>
   <si>
+    <t>13.57%</t>
+  </si>
+  <si>
     <t>51.60%</t>
   </si>
   <si>
@@ -365,6 +380,9 @@
   </si>
   <si>
     <t>0.60%</t>
+  </si>
+  <si>
+    <t>전기차/2차전지 Busbar 및 배터리모듈 보호 부품 등</t>
   </si>
   <si>
     <t>협동로봇</t>
@@ -764,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -852,34 +870,34 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="G2">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="J2">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K2">
-        <v>64819980</v>
+        <v>9039778</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -888,40 +906,40 @@
         <v>26000</v>
       </c>
       <c r="N2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P2">
-        <v>36980</v>
+        <v>104225113285</v>
       </c>
       <c r="Q2">
-        <v>44954</v>
+        <v>106505634411</v>
       </c>
       <c r="R2">
-        <v>23652</v>
+        <v>66424930568</v>
       </c>
       <c r="S2">
-        <v>-7085</v>
+        <v>6291020806</v>
       </c>
       <c r="T2">
-        <v>-13228</v>
+        <v>7893242769</v>
       </c>
       <c r="U2">
-        <v>-9932</v>
+        <v>7661497240</v>
       </c>
       <c r="V2">
-        <v>-7417</v>
+        <v>7319368873</v>
       </c>
       <c r="W2">
-        <v>-12548</v>
+        <v>9286891982</v>
       </c>
       <c r="X2">
-        <v>-9333</v>
+        <v>7334816490</v>
       </c>
       <c r="Y2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -929,76 +947,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F3">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="G3">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K3">
-        <v>18905000</v>
+        <v>64819980</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>36980</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>44954</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>23652</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-7085</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-13228</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-9932</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-7417</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-12548</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-9333</v>
       </c>
       <c r="Y3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1006,230 +1024,230 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F4">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="G4">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K4">
-        <v>5447675</v>
+        <v>18905000</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="P4">
-        <v>18408761227</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>21902816604</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>8176918465</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>3669182465</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1851925471</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>590566592</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>3633973594</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>2205418963</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>592903151</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F5">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="G5">
-        <v>1640000</v>
+        <v>1500000</v>
       </c>
       <c r="H5">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J5">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K5">
-        <v>10969386</v>
+        <v>5447675</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="P5">
-        <v>22818451349</v>
+        <v>18408761227</v>
       </c>
       <c r="Q5">
-        <v>30491967755</v>
+        <v>21902816604</v>
       </c>
       <c r="R5">
-        <v>18040053709</v>
+        <v>8176918465</v>
       </c>
       <c r="S5">
-        <v>2313787613</v>
+        <v>3669182465</v>
       </c>
       <c r="T5">
-        <v>4014101926</v>
+        <v>1851925471</v>
       </c>
       <c r="U5">
-        <v>1878997667</v>
+        <v>590566592</v>
       </c>
       <c r="V5">
-        <v>559427078</v>
+        <v>3633973594</v>
       </c>
       <c r="W5">
-        <v>-711183147</v>
+        <v>2205418963</v>
       </c>
       <c r="X5">
-        <v>1929682988</v>
+        <v>592903151</v>
       </c>
       <c r="Y5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F6">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="G6">
-        <v>1580000</v>
+        <v>1640000</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I6">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J6">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K6">
-        <v>7874611</v>
+        <v>10969386</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P6">
-        <v>7327878427</v>
+        <v>22818451349</v>
       </c>
       <c r="Q6">
-        <v>10756717708</v>
+        <v>30491967755</v>
       </c>
       <c r="R6">
-        <v>4113702647</v>
+        <v>18040053709</v>
       </c>
       <c r="S6">
-        <v>-588932080</v>
+        <v>2313787613</v>
       </c>
       <c r="T6">
-        <v>254042570</v>
+        <v>4014101926</v>
       </c>
       <c r="U6">
-        <v>-738698858</v>
+        <v>1878997667</v>
       </c>
       <c r="V6">
-        <v>-569358529</v>
+        <v>559427078</v>
       </c>
       <c r="W6">
-        <v>-429546963</v>
+        <v>-711183147</v>
       </c>
       <c r="X6">
-        <v>-550600734</v>
+        <v>1929682988</v>
       </c>
       <c r="Y6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1237,230 +1255,230 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F7">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="G7">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J7">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K7">
-        <v>8110389</v>
+        <v>7874611</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P7">
-        <v>28857</v>
+        <v>7327878427</v>
       </c>
       <c r="Q7">
-        <v>45830</v>
+        <v>10756717708</v>
       </c>
       <c r="R7">
-        <v>25997</v>
+        <v>4113702647</v>
       </c>
       <c r="S7">
-        <v>-14511</v>
+        <v>-588932080</v>
       </c>
       <c r="T7">
-        <v>4169</v>
+        <v>254042570</v>
       </c>
       <c r="U7">
-        <v>4958</v>
+        <v>-738698858</v>
       </c>
       <c r="V7">
-        <v>-34842</v>
+        <v>-569358529</v>
       </c>
       <c r="W7">
-        <v>13350</v>
+        <v>-429546963</v>
       </c>
       <c r="X7">
-        <v>5128</v>
+        <v>-550600734</v>
       </c>
       <c r="Y7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F8">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="G8">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H8">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>20000</v>
       </c>
       <c r="J8">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="K8">
-        <v>4901526</v>
+        <v>8110389</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P8">
-        <v>32608351</v>
+        <v>28857</v>
       </c>
       <c r="Q8">
-        <v>43629717</v>
+        <v>45830</v>
       </c>
       <c r="R8">
-        <v>14011366</v>
+        <v>25997</v>
       </c>
       <c r="S8">
-        <v>4301870</v>
+        <v>-14511</v>
       </c>
       <c r="T8">
-        <v>7039261</v>
+        <v>4169</v>
       </c>
       <c r="U8">
-        <v>316611</v>
+        <v>4958</v>
       </c>
       <c r="V8">
-        <v>4422483</v>
+        <v>-34842</v>
       </c>
       <c r="W8">
-        <v>5391712</v>
+        <v>13350</v>
       </c>
       <c r="X8">
-        <v>180579</v>
+        <v>5128</v>
       </c>
       <c r="Y8" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F9">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="G9">
-        <v>4500000</v>
+        <v>900000</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K9">
-        <v>5220000</v>
+        <v>4901526</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>32608351</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>43629717</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>14011366</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>4301870</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>7039261</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>316611</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>4422483</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>5391712</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>180579</v>
       </c>
       <c r="Y9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1468,22 +1486,22 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F10">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="G10">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1495,7 +1513,7 @@
         <v>2000</v>
       </c>
       <c r="K10">
-        <v>5060000</v>
+        <v>5220000</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1504,10 +1522,10 @@
         <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1537,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1545,22 +1563,22 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F11">
-        <v>6500000</v>
+        <v>4750000</v>
       </c>
       <c r="G11">
-        <v>6500000</v>
+        <v>4750000</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1572,7 +1590,7 @@
         <v>2000</v>
       </c>
       <c r="K11">
-        <v>7310000</v>
+        <v>5060000</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1581,10 +1599,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1614,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1622,22 +1640,22 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F12">
-        <v>5000000</v>
+        <v>6500000</v>
       </c>
       <c r="G12">
-        <v>5000000</v>
+        <v>6500000</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1649,7 +1667,7 @@
         <v>2000</v>
       </c>
       <c r="K12">
-        <v>5240000</v>
+        <v>7310000</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1658,28 +1676,28 @@
         <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>-13847740</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>-27857800</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>-26031573</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>-26619749</v>
+        <v>0</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -1691,30 +1709,30 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F13">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="G13">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1726,7 +1744,7 @@
         <v>2000</v>
       </c>
       <c r="K13">
-        <v>4230000</v>
+        <v>5240000</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1735,28 +1753,28 @@
         <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-13847740</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>-27857800</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>-26031573</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>-26619749</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -1768,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1779,19 +1797,19 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F14">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="G14">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1803,7 +1821,7 @@
         <v>2000</v>
       </c>
       <c r="K14">
-        <v>7035000</v>
+        <v>4230000</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1812,10 +1830,10 @@
         <v>2000</v>
       </c>
       <c r="N14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1833,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>-12707400</v>
+        <v>0</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -1842,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-25255133</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1853,76 +1871,76 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F15">
-        <v>1333885</v>
+        <v>6500000</v>
       </c>
       <c r="G15">
-        <v>1333885</v>
+        <v>6500000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>9200</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>10600</v>
+        <v>2000</v>
       </c>
       <c r="K15">
-        <v>7911521</v>
+        <v>7035000</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O15" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P15">
-        <v>1188142585</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1918848238</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>2770382559</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>-1725238656</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>-3229064780</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>-5537591447</v>
+        <v>-12707400</v>
       </c>
       <c r="V15">
-        <v>-6204320195</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>-4650355117</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-5441928110</v>
+        <v>-25255133</v>
       </c>
       <c r="Y15" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1930,76 +1948,76 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16">
-        <v>2220000</v>
+        <v>1333885</v>
       </c>
       <c r="G16">
-        <v>2220000</v>
+        <v>1333885</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>5800</v>
+        <v>9200</v>
       </c>
       <c r="J16">
-        <v>6800</v>
+        <v>10600</v>
       </c>
       <c r="K16">
-        <v>14836340</v>
+        <v>7911521</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O16" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P16">
-        <v>4679062361</v>
+        <v>1188142585</v>
       </c>
       <c r="Q16">
-        <v>3485357820</v>
+        <v>1918848238</v>
       </c>
       <c r="R16">
-        <v>4024884536</v>
+        <v>2770382559</v>
       </c>
       <c r="S16">
-        <v>-2507179686</v>
+        <v>-1725238656</v>
       </c>
       <c r="T16">
-        <v>-4556221312</v>
+        <v>-3229064780</v>
       </c>
       <c r="U16">
-        <v>-5515471027</v>
+        <v>-5537591447</v>
       </c>
       <c r="V16">
-        <v>-6337199541</v>
+        <v>-6204320195</v>
       </c>
       <c r="W16">
-        <v>-5219381024</v>
+        <v>-4650355117</v>
       </c>
       <c r="X16">
-        <v>-7737792622</v>
+        <v>-5441928110</v>
       </c>
       <c r="Y16" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2007,76 +2025,153 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
         <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F17">
+        <v>2220000</v>
+      </c>
+      <c r="G17">
+        <v>2220000</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>5800</v>
+      </c>
+      <c r="J17">
+        <v>6800</v>
+      </c>
+      <c r="K17">
+        <v>14836340</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>8000</v>
+      </c>
+      <c r="N17" t="s">
+        <v>103</v>
+      </c>
+      <c r="O17" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17">
+        <v>4679062361</v>
+      </c>
+      <c r="Q17">
+        <v>3485357820</v>
+      </c>
+      <c r="R17">
+        <v>4024884536</v>
+      </c>
+      <c r="S17">
+        <v>-2507179686</v>
+      </c>
+      <c r="T17">
+        <v>-4556221312</v>
+      </c>
+      <c r="U17">
+        <v>-5515471027</v>
+      </c>
+      <c r="V17">
+        <v>-6337199541</v>
+      </c>
+      <c r="W17">
+        <v>-5219381024</v>
+      </c>
+      <c r="X17">
+        <v>-7737792622</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18">
         <v>7000000</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>3650000</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>3350000</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>11500</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>12500</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>26002000</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>11500</v>
       </c>
-      <c r="N17" t="s">
-        <v>100</v>
-      </c>
-      <c r="O17" t="s">
-        <v>116</v>
-      </c>
-      <c r="P17">
+      <c r="N18" t="s">
+        <v>104</v>
+      </c>
+      <c r="O18" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18">
         <v>214793831184</v>
       </c>
-      <c r="Q17">
+      <c r="Q18">
         <v>424718548060</v>
       </c>
-      <c r="R17">
+      <c r="R18">
         <v>668403649813</v>
       </c>
-      <c r="S17">
+      <c r="S18">
         <v>1549962921</v>
       </c>
-      <c r="T17">
+      <c r="T18">
         <v>16977488102</v>
       </c>
-      <c r="U17">
+      <c r="U18">
         <v>181300504021</v>
       </c>
-      <c r="V17">
+      <c r="V18">
         <v>-6243008019</v>
       </c>
-      <c r="W17">
+      <c r="W18">
         <v>-1128019547</v>
       </c>
-      <c r="X17">
+      <c r="X18">
         <v>144193113559</v>
       </c>
-      <c r="Y17" t="s">
-        <v>130</v>
+      <c r="Y18" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="143">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
     <t>2023-09-22</t>
   </si>
   <si>
@@ -160,6 +163,9 @@
     <t>2023-08-03</t>
   </si>
   <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
     <t>2023-10-19</t>
   </si>
   <si>
@@ -193,6 +199,9 @@
     <t>2023-08-21</t>
   </si>
   <si>
+    <t>하나</t>
+  </si>
+  <si>
     <t>미래</t>
   </si>
   <si>
@@ -226,7 +235,7 @@
     <t>한국</t>
   </si>
   <si>
-    <t>하나</t>
+    <t>에스엘에스바이오</t>
   </si>
   <si>
     <t>신성에스티</t>
@@ -280,6 +289,9 @@
     <t>넥스틸</t>
   </si>
   <si>
+    <t>235.14:1</t>
+  </si>
+  <si>
     <t>583.50:1</t>
   </si>
   <si>
@@ -331,6 +343,9 @@
     <t>235.56:1</t>
   </si>
   <si>
+    <t>16.63%</t>
+  </si>
+  <si>
     <t>13.57%</t>
   </si>
   <si>
@@ -380,6 +395,9 @@
   </si>
   <si>
     <t>0.60%</t>
+  </si>
+  <si>
+    <t>의약품 품질관리, 신약개발지원, 체외진단기기</t>
   </si>
   <si>
     <t>전기차/2차전지 Busbar 및 배터리모듈 보호 부품 등</t>
@@ -782,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -870,76 +888,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F2">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="G2">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J2">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K2">
-        <v>9039778</v>
+        <v>7674103</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P2">
-        <v>104225113285</v>
+        <v>8242508010</v>
       </c>
       <c r="Q2">
-        <v>106505634411</v>
+        <v>10751900430</v>
       </c>
       <c r="R2">
-        <v>66424930568</v>
+        <v>4416778965</v>
       </c>
       <c r="S2">
-        <v>6291020806</v>
+        <v>426234451</v>
       </c>
       <c r="T2">
-        <v>7893242769</v>
+        <v>2423749751</v>
       </c>
       <c r="U2">
-        <v>7661497240</v>
+        <v>677048172</v>
       </c>
       <c r="V2">
-        <v>7319368873</v>
+        <v>57890953</v>
       </c>
       <c r="W2">
-        <v>9286891982</v>
+        <v>2826043673</v>
       </c>
       <c r="X2">
-        <v>7334816490</v>
+        <v>990121873</v>
       </c>
       <c r="Y2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -950,31 +968,31 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="G3">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="J3">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K3">
-        <v>64819980</v>
+        <v>9039778</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -983,40 +1001,40 @@
         <v>26000</v>
       </c>
       <c r="N3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P3">
-        <v>36980</v>
+        <v>104225113285</v>
       </c>
       <c r="Q3">
-        <v>44954</v>
+        <v>106505634411</v>
       </c>
       <c r="R3">
-        <v>23652</v>
+        <v>66424930568</v>
       </c>
       <c r="S3">
-        <v>-7085</v>
+        <v>6291020806</v>
       </c>
       <c r="T3">
-        <v>-13228</v>
+        <v>7893242769</v>
       </c>
       <c r="U3">
-        <v>-9932</v>
+        <v>7661497240</v>
       </c>
       <c r="V3">
-        <v>-7417</v>
+        <v>7319368873</v>
       </c>
       <c r="W3">
-        <v>-12548</v>
+        <v>9286891982</v>
       </c>
       <c r="X3">
-        <v>-9333</v>
+        <v>7334816490</v>
       </c>
       <c r="Y3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1024,76 +1042,76 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F4">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="G4">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K4">
-        <v>18905000</v>
+        <v>64819980</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>36980</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>44954</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>23652</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-7085</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-13228</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-9932</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-7417</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-12548</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>-9333</v>
       </c>
       <c r="Y4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1101,230 +1119,230 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F5">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="G5">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K5">
-        <v>5447675</v>
+        <v>18905000</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P5">
-        <v>18408761227</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>21902816604</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>8176918465</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>3669182465</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1851925471</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>590566592</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>3633973594</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>2205418963</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>592903151</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F6">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="G6">
-        <v>1640000</v>
+        <v>1500000</v>
       </c>
       <c r="H6">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J6">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K6">
-        <v>10969386</v>
+        <v>5447675</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P6">
-        <v>22818451349</v>
+        <v>18408761227</v>
       </c>
       <c r="Q6">
-        <v>30491967755</v>
+        <v>21902816604</v>
       </c>
       <c r="R6">
-        <v>18040053709</v>
+        <v>8176918465</v>
       </c>
       <c r="S6">
-        <v>2313787613</v>
+        <v>3669182465</v>
       </c>
       <c r="T6">
-        <v>4014101926</v>
+        <v>1851925471</v>
       </c>
       <c r="U6">
-        <v>1878997667</v>
+        <v>590566592</v>
       </c>
       <c r="V6">
-        <v>559427078</v>
+        <v>3633973594</v>
       </c>
       <c r="W6">
-        <v>-711183147</v>
+        <v>2205418963</v>
       </c>
       <c r="X6">
-        <v>1929682988</v>
+        <v>592903151</v>
       </c>
       <c r="Y6" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F7">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="G7">
-        <v>1580000</v>
+        <v>1640000</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I7">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J7">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K7">
-        <v>7874611</v>
+        <v>10969386</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P7">
-        <v>7327878427</v>
+        <v>22818451349</v>
       </c>
       <c r="Q7">
-        <v>10756717708</v>
+        <v>30491967755</v>
       </c>
       <c r="R7">
-        <v>4113702647</v>
+        <v>18040053709</v>
       </c>
       <c r="S7">
-        <v>-588932080</v>
+        <v>2313787613</v>
       </c>
       <c r="T7">
-        <v>254042570</v>
+        <v>4014101926</v>
       </c>
       <c r="U7">
-        <v>-738698858</v>
+        <v>1878997667</v>
       </c>
       <c r="V7">
-        <v>-569358529</v>
+        <v>559427078</v>
       </c>
       <c r="W7">
-        <v>-429546963</v>
+        <v>-711183147</v>
       </c>
       <c r="X7">
-        <v>-550600734</v>
+        <v>1929682988</v>
       </c>
       <c r="Y7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1335,227 +1353,227 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F8">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="G8">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J8">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K8">
-        <v>8110389</v>
+        <v>7874611</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P8">
-        <v>28857</v>
+        <v>7327878427</v>
       </c>
       <c r="Q8">
-        <v>45830</v>
+        <v>10756717708</v>
       </c>
       <c r="R8">
-        <v>25997</v>
+        <v>4113702647</v>
       </c>
       <c r="S8">
-        <v>-14511</v>
+        <v>-588932080</v>
       </c>
       <c r="T8">
-        <v>4169</v>
+        <v>254042570</v>
       </c>
       <c r="U8">
-        <v>4958</v>
+        <v>-738698858</v>
       </c>
       <c r="V8">
-        <v>-34842</v>
+        <v>-569358529</v>
       </c>
       <c r="W8">
-        <v>13350</v>
+        <v>-429546963</v>
       </c>
       <c r="X8">
-        <v>5128</v>
+        <v>-550600734</v>
       </c>
       <c r="Y8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F9">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="G9">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H9">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>20000</v>
       </c>
       <c r="J9">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="K9">
-        <v>4901526</v>
+        <v>8110389</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P9">
-        <v>32608351</v>
+        <v>28857</v>
       </c>
       <c r="Q9">
-        <v>43629717</v>
+        <v>45830</v>
       </c>
       <c r="R9">
-        <v>14011366</v>
+        <v>25997</v>
       </c>
       <c r="S9">
-        <v>4301870</v>
+        <v>-14511</v>
       </c>
       <c r="T9">
-        <v>7039261</v>
+        <v>4169</v>
       </c>
       <c r="U9">
-        <v>316611</v>
+        <v>4958</v>
       </c>
       <c r="V9">
-        <v>4422483</v>
+        <v>-34842</v>
       </c>
       <c r="W9">
-        <v>5391712</v>
+        <v>13350</v>
       </c>
       <c r="X9">
-        <v>180579</v>
+        <v>5128</v>
       </c>
       <c r="Y9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F10">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="G10">
-        <v>4500000</v>
+        <v>900000</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K10">
-        <v>5220000</v>
+        <v>4901526</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>32608351</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>43629717</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>14011366</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>4301870</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>7039261</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>316611</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>4422483</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>5391712</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>180579</v>
       </c>
       <c r="Y10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1566,19 +1584,19 @@
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F11">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="G11">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1590,7 +1608,7 @@
         <v>2000</v>
       </c>
       <c r="K11">
-        <v>5060000</v>
+        <v>5220000</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1599,10 +1617,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1632,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1643,19 +1661,19 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F12">
-        <v>6500000</v>
+        <v>4750000</v>
       </c>
       <c r="G12">
-        <v>6500000</v>
+        <v>4750000</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1667,7 +1685,7 @@
         <v>2000</v>
       </c>
       <c r="K12">
-        <v>7310000</v>
+        <v>5060000</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1676,10 +1694,10 @@
         <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O12" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1709,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1717,22 +1735,22 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F13">
-        <v>5000000</v>
+        <v>6500000</v>
       </c>
       <c r="G13">
-        <v>5000000</v>
+        <v>6500000</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1744,7 +1762,7 @@
         <v>2000</v>
       </c>
       <c r="K13">
-        <v>5240000</v>
+        <v>7310000</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1753,28 +1771,28 @@
         <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>-13847740</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>-27857800</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>-26031573</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>-26619749</v>
+        <v>0</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -1786,30 +1804,30 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F14">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="G14">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1821,7 +1839,7 @@
         <v>2000</v>
       </c>
       <c r="K14">
-        <v>4230000</v>
+        <v>5240000</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1830,28 +1848,28 @@
         <v>2000</v>
       </c>
       <c r="N14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-13847740</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>-27857800</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>-26031573</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>-26619749</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -1863,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1874,19 +1892,19 @@
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F15">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="G15">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1898,7 +1916,7 @@
         <v>2000</v>
       </c>
       <c r="K15">
-        <v>7035000</v>
+        <v>4230000</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1907,10 +1925,10 @@
         <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O15" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1928,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>-12707400</v>
+        <v>0</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -1937,10 +1955,10 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-25255133</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1948,76 +1966,76 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16">
-        <v>1333885</v>
+        <v>6500000</v>
       </c>
       <c r="G16">
-        <v>1333885</v>
+        <v>6500000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>9200</v>
+        <v>2000</v>
       </c>
       <c r="J16">
-        <v>10600</v>
+        <v>2000</v>
       </c>
       <c r="K16">
-        <v>7911521</v>
+        <v>7035000</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="N16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O16" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P16">
-        <v>1188142585</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1918848238</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>2770382559</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>-1725238656</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>-3229064780</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>-5537591447</v>
+        <v>-12707400</v>
       </c>
       <c r="V16">
-        <v>-6204320195</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>-4650355117</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-5441928110</v>
+        <v>-25255133</v>
       </c>
       <c r="Y16" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2025,76 +2043,76 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F17">
-        <v>2220000</v>
+        <v>1333885</v>
       </c>
       <c r="G17">
-        <v>2220000</v>
+        <v>1333885</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5800</v>
+        <v>9200</v>
       </c>
       <c r="J17">
-        <v>6800</v>
+        <v>10600</v>
       </c>
       <c r="K17">
-        <v>14836340</v>
+        <v>7911521</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O17" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P17">
-        <v>4679062361</v>
+        <v>1188142585</v>
       </c>
       <c r="Q17">
-        <v>3485357820</v>
+        <v>1918848238</v>
       </c>
       <c r="R17">
-        <v>4024884536</v>
+        <v>2770382559</v>
       </c>
       <c r="S17">
-        <v>-2507179686</v>
+        <v>-1725238656</v>
       </c>
       <c r="T17">
-        <v>-4556221312</v>
+        <v>-3229064780</v>
       </c>
       <c r="U17">
-        <v>-5515471027</v>
+        <v>-5537591447</v>
       </c>
       <c r="V17">
-        <v>-6337199541</v>
+        <v>-6204320195</v>
       </c>
       <c r="W17">
-        <v>-5219381024</v>
+        <v>-4650355117</v>
       </c>
       <c r="X17">
-        <v>-7737792622</v>
+        <v>-5441928110</v>
       </c>
       <c r="Y17" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2102,76 +2120,153 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F18">
+        <v>2220000</v>
+      </c>
+      <c r="G18">
+        <v>2220000</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>5800</v>
+      </c>
+      <c r="J18">
+        <v>6800</v>
+      </c>
+      <c r="K18">
+        <v>14836340</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>8000</v>
+      </c>
+      <c r="N18" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" t="s">
+        <v>125</v>
+      </c>
+      <c r="P18">
+        <v>4679062361</v>
+      </c>
+      <c r="Q18">
+        <v>3485357820</v>
+      </c>
+      <c r="R18">
+        <v>4024884536</v>
+      </c>
+      <c r="S18">
+        <v>-2507179686</v>
+      </c>
+      <c r="T18">
+        <v>-4556221312</v>
+      </c>
+      <c r="U18">
+        <v>-5515471027</v>
+      </c>
+      <c r="V18">
+        <v>-6337199541</v>
+      </c>
+      <c r="W18">
+        <v>-5219381024</v>
+      </c>
+      <c r="X18">
+        <v>-7737792622</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19">
         <v>7000000</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>3650000</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>3350000</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>11500</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>12500</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <v>26002000</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>11500</v>
       </c>
-      <c r="N18" t="s">
-        <v>104</v>
-      </c>
-      <c r="O18" t="s">
-        <v>121</v>
-      </c>
-      <c r="P18">
+      <c r="N19" t="s">
+        <v>108</v>
+      </c>
+      <c r="O19" t="s">
+        <v>126</v>
+      </c>
+      <c r="P19">
         <v>214793831184</v>
       </c>
-      <c r="Q18">
+      <c r="Q19">
         <v>424718548060</v>
       </c>
-      <c r="R18">
+      <c r="R19">
         <v>668403649813</v>
       </c>
-      <c r="S18">
+      <c r="S19">
         <v>1549962921</v>
       </c>
-      <c r="T18">
+      <c r="T19">
         <v>16977488102</v>
       </c>
-      <c r="U18">
+      <c r="U19">
         <v>181300504021</v>
       </c>
-      <c r="V18">
+      <c r="V19">
         <v>-6243008019</v>
       </c>
-      <c r="W18">
+      <c r="W19">
         <v>-1128019547</v>
       </c>
-      <c r="X18">
+      <c r="X19">
         <v>144193113559</v>
       </c>
-      <c r="Y18" t="s">
-        <v>136</v>
+      <c r="Y19" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="130">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -130,12 +130,6 @@
     <t>2023-08-08</t>
   </si>
   <si>
-    <t>2023-08-07</t>
-  </si>
-  <si>
-    <t>2023-08-02</t>
-  </si>
-  <si>
     <t>2023-10-04</t>
   </si>
   <si>
@@ -160,9 +154,6 @@
     <t>2023-08-09</t>
   </si>
   <si>
-    <t>2023-08-03</t>
-  </si>
-  <si>
     <t>2023-10-20</t>
   </si>
   <si>
@@ -193,12 +184,6 @@
     <t>2023-08-30</t>
   </si>
   <si>
-    <t>2023-08-22</t>
-  </si>
-  <si>
-    <t>2023-08-21</t>
-  </si>
-  <si>
     <t>하나</t>
   </si>
   <si>
@@ -283,12 +268,6 @@
     <t>시큐레터</t>
   </si>
   <si>
-    <t>스마트레이더시스템</t>
-  </si>
-  <si>
-    <t>넥스틸</t>
-  </si>
-  <si>
     <t>235.14:1</t>
   </si>
   <si>
@@ -337,12 +316,6 @@
     <t>1,544.73:1</t>
   </si>
   <si>
-    <t>1,813.42:1</t>
-  </si>
-  <si>
-    <t>235.56:1</t>
-  </si>
-  <si>
     <t>16.63%</t>
   </si>
   <si>
@@ -391,12 +364,6 @@
     <t>3.14%</t>
   </si>
   <si>
-    <t>6.98%</t>
-  </si>
-  <si>
-    <t>0.60%</t>
-  </si>
-  <si>
     <t>의약품 품질관리, 신약개발지원, 체외진단기기</t>
   </si>
   <si>
@@ -437,12 +404,6 @@
   </si>
   <si>
     <t>SLE(이메일 보안), SLF(파일 보안)</t>
-  </si>
-  <si>
-    <t>모빌리티 및 비모빌리티용 4D이미징레이다</t>
-  </si>
-  <si>
-    <t>OCTG Pipe, Line Pipe, Standard Pipe, 일반관</t>
   </si>
 </sst>
 </file>
@@ -800,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -891,13 +852,13 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F2">
         <v>770000</v>
@@ -924,10 +885,10 @@
         <v>7000</v>
       </c>
       <c r="N2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P2">
         <v>8242508010</v>
@@ -957,7 +918,7 @@
         <v>990121873</v>
       </c>
       <c r="Y2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -965,16 +926,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F3">
         <v>2000000</v>
@@ -1001,10 +962,10 @@
         <v>26000</v>
       </c>
       <c r="N3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="O3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="P3">
         <v>104225113285</v>
@@ -1034,7 +995,7 @@
         <v>7334816490</v>
       </c>
       <c r="Y3" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1042,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <v>16200000</v>
@@ -1078,10 +1039,10 @@
         <v>26000</v>
       </c>
       <c r="N4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="P4">
         <v>36980</v>
@@ -1111,7 +1072,7 @@
         <v>-9333</v>
       </c>
       <c r="Y4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1119,16 +1080,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <v>18000000</v>
@@ -1155,10 +1116,10 @@
         <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="O5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1188,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1199,13 +1160,13 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F6">
         <v>1500000</v>
@@ -1232,10 +1193,10 @@
         <v>12500</v>
       </c>
       <c r="N6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="P6">
         <v>18408761227</v>
@@ -1265,7 +1226,7 @@
         <v>592903151</v>
       </c>
       <c r="Y6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1273,16 +1234,16 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F7">
         <v>2240000</v>
@@ -1309,10 +1270,10 @@
         <v>15000</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="P7">
         <v>22818451349</v>
@@ -1342,7 +1303,7 @@
         <v>1929682988</v>
       </c>
       <c r="Y7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1350,16 +1311,16 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F8">
         <v>1580000</v>
@@ -1386,10 +1347,10 @@
         <v>14000</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="P8">
         <v>7327878427</v>
@@ -1419,7 +1380,7 @@
         <v>-550600734</v>
       </c>
       <c r="Y8" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1427,16 +1388,16 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F9">
         <v>1500000</v>
@@ -1463,10 +1424,10 @@
         <v>23000</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="P9">
         <v>28857</v>
@@ -1496,7 +1457,7 @@
         <v>5128</v>
       </c>
       <c r="Y9" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1504,16 +1465,16 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F10">
         <v>1100000</v>
@@ -1540,10 +1501,10 @@
         <v>24000</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="P10">
         <v>32608351</v>
@@ -1573,7 +1534,7 @@
         <v>180579</v>
       </c>
       <c r="Y10" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1581,16 +1542,16 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F11">
         <v>4500000</v>
@@ -1617,10 +1578,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1650,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1658,16 +1619,16 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F12">
         <v>4750000</v>
@@ -1694,10 +1655,10 @@
         <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="O12" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1727,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1735,16 +1696,16 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F13">
         <v>6500000</v>
@@ -1771,10 +1732,10 @@
         <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O13" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1804,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1815,13 +1776,13 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F14">
         <v>5000000</v>
@@ -1848,10 +1809,10 @@
         <v>2000</v>
       </c>
       <c r="N14" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1881,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1892,13 +1853,13 @@
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F15">
         <v>4000000</v>
@@ -1925,10 +1886,10 @@
         <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O15" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1958,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1969,13 +1930,13 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F16">
         <v>6500000</v>
@@ -2002,10 +1963,10 @@
         <v>2000</v>
       </c>
       <c r="N16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="O16" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2035,7 +1996,7 @@
         <v>-25255133</v>
       </c>
       <c r="Y16" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2043,16 +2004,16 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F17">
         <v>1333885</v>
@@ -2079,10 +2040,10 @@
         <v>12000</v>
       </c>
       <c r="N17" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="O17" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="P17">
         <v>1188142585</v>
@@ -2112,161 +2073,7 @@
         <v>-5441928110</v>
       </c>
       <c r="Y17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18">
-        <v>2220000</v>
-      </c>
-      <c r="G18">
-        <v>2220000</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>5800</v>
-      </c>
-      <c r="J18">
-        <v>6800</v>
-      </c>
-      <c r="K18">
-        <v>14836340</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>8000</v>
-      </c>
-      <c r="N18" t="s">
-        <v>107</v>
-      </c>
-      <c r="O18" t="s">
-        <v>125</v>
-      </c>
-      <c r="P18">
-        <v>4679062361</v>
-      </c>
-      <c r="Q18">
-        <v>3485357820</v>
-      </c>
-      <c r="R18">
-        <v>4024884536</v>
-      </c>
-      <c r="S18">
-        <v>-2507179686</v>
-      </c>
-      <c r="T18">
-        <v>-4556221312</v>
-      </c>
-      <c r="U18">
-        <v>-5515471027</v>
-      </c>
-      <c r="V18">
-        <v>-6337199541</v>
-      </c>
-      <c r="W18">
-        <v>-5219381024</v>
-      </c>
-      <c r="X18">
-        <v>-7737792622</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19">
-        <v>7000000</v>
-      </c>
-      <c r="G19">
-        <v>3650000</v>
-      </c>
-      <c r="H19">
-        <v>3350000</v>
-      </c>
-      <c r="I19">
-        <v>11500</v>
-      </c>
-      <c r="J19">
-        <v>12500</v>
-      </c>
-      <c r="K19">
-        <v>26002000</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>11500</v>
-      </c>
-      <c r="N19" t="s">
-        <v>108</v>
-      </c>
-      <c r="O19" t="s">
-        <v>126</v>
-      </c>
-      <c r="P19">
-        <v>214793831184</v>
-      </c>
-      <c r="Q19">
-        <v>424718548060</v>
-      </c>
-      <c r="R19">
-        <v>668403649813</v>
-      </c>
-      <c r="S19">
-        <v>1549962921</v>
-      </c>
-      <c r="T19">
-        <v>16977488102</v>
-      </c>
-      <c r="U19">
-        <v>181300504021</v>
-      </c>
-      <c r="V19">
-        <v>-6243008019</v>
-      </c>
-      <c r="W19">
-        <v>-1128019547</v>
-      </c>
-      <c r="X19">
-        <v>144193113559</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="124">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -127,9 +127,6 @@
     <t>2023-08-14</t>
   </si>
   <si>
-    <t>2023-08-08</t>
-  </si>
-  <si>
     <t>2023-10-04</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>2023-08-18</t>
   </si>
   <si>
-    <t>2023-08-09</t>
-  </si>
-  <si>
     <t>2023-10-20</t>
   </si>
   <si>
@@ -265,9 +259,6 @@
     <t>대신밸런스제15호스팩</t>
   </si>
   <si>
-    <t>시큐레터</t>
-  </si>
-  <si>
     <t>235.14:1</t>
   </si>
   <si>
@@ -313,9 +304,6 @@
     <t>657.16:1</t>
   </si>
   <si>
-    <t>1,544.73:1</t>
-  </si>
-  <si>
     <t>16.63%</t>
   </si>
   <si>
@@ -361,9 +349,6 @@
     <t>0.45%</t>
   </si>
   <si>
-    <t>3.14%</t>
-  </si>
-  <si>
     <t>의약품 품질관리, 신약개발지원, 체외진단기기</t>
   </si>
   <si>
@@ -401,9 +386,6 @@
   </si>
   <si>
     <t>기업인수합병</t>
-  </si>
-  <si>
-    <t>SLE(이메일 보안), SLF(파일 보안)</t>
   </si>
 </sst>
 </file>
@@ -761,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -852,13 +834,13 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F2">
         <v>770000</v>
@@ -885,10 +867,10 @@
         <v>7000</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P2">
         <v>8242508010</v>
@@ -918,7 +900,7 @@
         <v>990121873</v>
       </c>
       <c r="Y2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -926,16 +908,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3">
         <v>2000000</v>
@@ -962,10 +944,10 @@
         <v>26000</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="P3">
         <v>104225113285</v>
@@ -995,7 +977,7 @@
         <v>7334816490</v>
       </c>
       <c r="Y3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1003,16 +985,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4">
         <v>16200000</v>
@@ -1039,10 +1021,10 @@
         <v>26000</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P4">
         <v>36980</v>
@@ -1072,7 +1054,7 @@
         <v>-9333</v>
       </c>
       <c r="Y4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1080,16 +1062,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F5">
         <v>18000000</v>
@@ -1116,10 +1098,10 @@
         <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1149,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1160,13 +1142,13 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <v>1500000</v>
@@ -1193,10 +1175,10 @@
         <v>12500</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P6">
         <v>18408761227</v>
@@ -1226,7 +1208,7 @@
         <v>592903151</v>
       </c>
       <c r="Y6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1234,16 +1216,16 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F7">
         <v>2240000</v>
@@ -1270,10 +1252,10 @@
         <v>15000</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P7">
         <v>22818451349</v>
@@ -1303,7 +1285,7 @@
         <v>1929682988</v>
       </c>
       <c r="Y7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1311,16 +1293,16 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F8">
         <v>1580000</v>
@@ -1347,10 +1329,10 @@
         <v>14000</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P8">
         <v>7327878427</v>
@@ -1380,7 +1362,7 @@
         <v>-550600734</v>
       </c>
       <c r="Y8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1388,16 +1370,16 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F9">
         <v>1500000</v>
@@ -1424,10 +1406,10 @@
         <v>23000</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P9">
         <v>28857</v>
@@ -1457,7 +1439,7 @@
         <v>5128</v>
       </c>
       <c r="Y9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1465,16 +1447,16 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F10">
         <v>1100000</v>
@@ -1501,10 +1483,10 @@
         <v>24000</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P10">
         <v>32608351</v>
@@ -1534,7 +1516,7 @@
         <v>180579</v>
       </c>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1542,16 +1524,16 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F11">
         <v>4500000</v>
@@ -1578,10 +1560,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1611,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1619,16 +1601,16 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F12">
         <v>4750000</v>
@@ -1655,10 +1637,10 @@
         <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1688,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1696,16 +1678,16 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F13">
         <v>6500000</v>
@@ -1732,10 +1714,10 @@
         <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1765,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1776,13 +1758,13 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F14">
         <v>5000000</v>
@@ -1809,10 +1791,10 @@
         <v>2000</v>
       </c>
       <c r="N14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1842,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1853,13 +1835,13 @@
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F15">
         <v>4000000</v>
@@ -1886,10 +1868,10 @@
         <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1919,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1930,13 +1912,13 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16">
         <v>6500000</v>
@@ -1963,10 +1945,10 @@
         <v>2000</v>
       </c>
       <c r="N16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1996,84 +1978,7 @@
         <v>-25255133</v>
       </c>
       <c r="Y16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17">
-        <v>1333885</v>
-      </c>
-      <c r="G17">
-        <v>1333885</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>9200</v>
-      </c>
-      <c r="J17">
-        <v>10600</v>
-      </c>
-      <c r="K17">
-        <v>7911521</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>12000</v>
-      </c>
-      <c r="N17" t="s">
-        <v>99</v>
-      </c>
-      <c r="O17" t="s">
-        <v>115</v>
-      </c>
-      <c r="P17">
-        <v>1188142585</v>
-      </c>
-      <c r="Q17">
-        <v>1918848238</v>
-      </c>
-      <c r="R17">
-        <v>2770382559</v>
-      </c>
-      <c r="S17">
-        <v>-1725238656</v>
-      </c>
-      <c r="T17">
-        <v>-3229064780</v>
-      </c>
-      <c r="U17">
-        <v>-5537591447</v>
-      </c>
-      <c r="V17">
-        <v>-6204320195</v>
-      </c>
-      <c r="W17">
-        <v>-4650355117</v>
-      </c>
-      <c r="X17">
-        <v>-5441928110</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="130">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,21 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-10-19</t>
+  </si>
+  <si>
+    <t>2023-10-11</t>
+  </si>
+  <si>
+    <t>2023-10-18</t>
+  </si>
+  <si>
+    <t>2023-10-06</t>
+  </si>
+  <si>
+    <t>2023-10-05</t>
+  </si>
+  <si>
     <t>2023-09-18</t>
   </si>
   <si>
@@ -118,13 +133,13 @@
     <t>2023-08-24</t>
   </si>
   <si>
-    <t>2023-08-17</t>
-  </si>
-  <si>
-    <t>2023-08-16</t>
-  </si>
-  <si>
-    <t>2023-08-14</t>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>2023-10-17</t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
   </si>
   <si>
     <t>2023-10-04</t>
@@ -145,19 +160,16 @@
     <t>2023-08-25</t>
   </si>
   <si>
-    <t>2023-08-18</t>
-  </si>
-  <si>
-    <t>2023-10-20</t>
-  </si>
-  <si>
-    <t>2023-10-19</t>
-  </si>
-  <si>
-    <t>2023-10-05</t>
-  </si>
-  <si>
-    <t>2023-10-06</t>
+    <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-11-02</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
+    <t>2023-10-26</t>
   </si>
   <si>
     <t>2023-10-10</t>
@@ -169,13 +181,19 @@
     <t>2023-09-25</t>
   </si>
   <si>
-    <t>2023-09-04</t>
-  </si>
-  <si>
-    <t>2023-09-01</t>
-  </si>
-  <si>
-    <t>2023-08-30</t>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>신한</t>
+  </si>
+  <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>키움</t>
   </si>
   <si>
     <t>하나</t>
@@ -187,12 +205,6 @@
     <t>한국, 미래</t>
   </si>
   <si>
-    <t>신한</t>
-  </si>
-  <si>
-    <t>KB</t>
-  </si>
-  <si>
     <t>삼성</t>
   </si>
   <si>
@@ -208,10 +220,19 @@
     <t>한화</t>
   </si>
   <si>
-    <t>대신</t>
-  </si>
-  <si>
-    <t>한국</t>
+    <t>KB제27호스팩</t>
+  </si>
+  <si>
+    <t>유진테크놀로지</t>
+  </si>
+  <si>
+    <t>유투바이오</t>
+  </si>
+  <si>
+    <t>퀄리타스반도체</t>
+  </si>
+  <si>
+    <t>워트</t>
   </si>
   <si>
     <t>에스엘에스바이오</t>
@@ -247,16 +268,19 @@
     <t>한화플러스제4호스팩</t>
   </si>
   <si>
-    <t>대신밸런스제16호스팩</t>
-  </si>
-  <si>
-    <t>유안타제11호스팩</t>
-  </si>
-  <si>
-    <t>한국제12호스팩</t>
-  </si>
-  <si>
-    <t>대신밸런스제15호스팩</t>
+    <t>10.14:1</t>
+  </si>
+  <si>
+    <t>914.02:1</t>
+  </si>
+  <si>
+    <t>1,276.73:1</t>
+  </si>
+  <si>
+    <t>818.52:1</t>
+  </si>
+  <si>
+    <t>793.26:1</t>
   </si>
   <si>
     <t>235.14:1</t>
@@ -292,16 +316,19 @@
     <t>739.65:1</t>
   </si>
   <si>
-    <t>662.57:1</t>
-  </si>
-  <si>
-    <t>752.21:1</t>
-  </si>
-  <si>
-    <t>828.73:1</t>
-  </si>
-  <si>
-    <t>657.16:1</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>17.63%</t>
+  </si>
+  <si>
+    <t>2.35%</t>
+  </si>
+  <si>
+    <t>22.25%</t>
+  </si>
+  <si>
+    <t>10.06%</t>
   </si>
   <si>
     <t>16.63%</t>
@@ -331,22 +358,22 @@
     <t>7.46%</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>0.13%</t>
   </si>
   <si>
-    <t>0.67%</t>
-  </si>
-  <si>
-    <t>0.26%</t>
-  </si>
-  <si>
-    <t>0.24%</t>
-  </si>
-  <si>
-    <t>0.45%</t>
+    <t>기업인수합병</t>
+  </si>
+  <si>
+    <t>이차전지 정밀금형 외</t>
+  </si>
+  <si>
+    <t>체외진단검사서비스, 의료IT솔루션</t>
+  </si>
+  <si>
+    <t>초고속 통신용 반도체 IP</t>
+  </si>
+  <si>
+    <t>초정밀 온습도 제어장비</t>
   </si>
   <si>
     <t>의약품 품질관리, 신약개발지원, 체외진단기기</t>
@@ -377,15 +404,6 @@
   </si>
   <si>
     <t>합병</t>
-  </si>
-  <si>
-    <t>기타 금융서비스업</t>
-  </si>
-  <si>
-    <t>금융 지원 서비스업</t>
-  </si>
-  <si>
-    <t>기업인수합병</t>
   </si>
 </sst>
 </file>
@@ -743,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -831,76 +849,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F2">
-        <v>770000</v>
+        <v>12500000</v>
       </c>
       <c r="G2">
-        <v>770000</v>
+        <v>12500000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8200</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>9400</v>
+        <v>2000</v>
       </c>
       <c r="K2">
-        <v>7674103</v>
+        <v>12905000</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P2">
-        <v>8242508010</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>10751900430</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>4416778965</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>426234451</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>2423749751</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>677048172</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>57890953</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>2826043673</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>990121873</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -908,76 +926,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F3">
-        <v>2000000</v>
+        <v>1049482</v>
       </c>
       <c r="G3">
-        <v>2000000</v>
+        <v>944534</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I3">
-        <v>22000</v>
+        <v>12800</v>
       </c>
       <c r="J3">
-        <v>25000</v>
+        <v>14500</v>
       </c>
       <c r="K3">
-        <v>9039778</v>
+        <v>6261485</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="N3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P3">
-        <v>104225113285</v>
+        <v>34557425427</v>
       </c>
       <c r="Q3">
-        <v>106505634411</v>
+        <v>39824841246</v>
       </c>
       <c r="R3">
-        <v>66424930568</v>
+        <v>23231897516</v>
       </c>
       <c r="S3">
-        <v>6291020806</v>
+        <v>3011651602</v>
       </c>
       <c r="T3">
-        <v>7893242769</v>
+        <v>2384643399</v>
       </c>
       <c r="U3">
-        <v>7661497240</v>
+        <v>4436005255</v>
       </c>
       <c r="V3">
-        <v>7319368873</v>
+        <v>2755379556</v>
       </c>
       <c r="W3">
-        <v>9286891982</v>
+        <v>1176755354</v>
       </c>
       <c r="X3">
-        <v>7334816490</v>
+        <v>4046949430</v>
       </c>
       <c r="Y3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -985,76 +1003,76 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F4">
-        <v>16200000</v>
+        <v>1128720</v>
       </c>
       <c r="G4">
-        <v>16200000</v>
+        <v>1128720</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>21000</v>
+        <v>3300</v>
       </c>
       <c r="J4">
-        <v>26000</v>
+        <v>3900</v>
       </c>
       <c r="K4">
-        <v>64819980</v>
+        <v>11287196</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26000</v>
+        <v>4400</v>
       </c>
       <c r="N4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P4">
-        <v>36980</v>
+        <v>50552623684</v>
       </c>
       <c r="Q4">
-        <v>44954</v>
+        <v>69013134090</v>
       </c>
       <c r="R4">
-        <v>23652</v>
+        <v>16887814423</v>
       </c>
       <c r="S4">
-        <v>-7085</v>
+        <v>9027232647</v>
       </c>
       <c r="T4">
-        <v>-13228</v>
+        <v>15707796256</v>
       </c>
       <c r="U4">
-        <v>-9932</v>
+        <v>555562560</v>
       </c>
       <c r="V4">
-        <v>-7417</v>
+        <v>9236341465</v>
       </c>
       <c r="W4">
-        <v>-12548</v>
+        <v>13159994846</v>
       </c>
       <c r="X4">
-        <v>-9333</v>
+        <v>1236029732</v>
       </c>
       <c r="Y4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1062,76 +1080,76 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F5">
-        <v>18000000</v>
+        <v>1800000</v>
       </c>
       <c r="G5">
-        <v>18000000</v>
+        <v>1800000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="K5">
-        <v>18905000</v>
+        <v>10193520</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>3952070068</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>10789274729</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>6040367765</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>-4741577598</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>-3671026788</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>-3292521363</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>-3654889267</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>-2281074471</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1139,692 +1157,692 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F6">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="G6">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8900</v>
+        <v>5000</v>
       </c>
       <c r="J6">
-        <v>11000</v>
+        <v>5600</v>
       </c>
       <c r="K6">
-        <v>5447675</v>
+        <v>16120000</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12500</v>
+        <v>6500</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P6">
-        <v>18408761227</v>
+        <v>26691070764</v>
       </c>
       <c r="Q6">
-        <v>21902816604</v>
+        <v>22835113396</v>
       </c>
       <c r="R6">
-        <v>8176918465</v>
+        <v>7519073723</v>
       </c>
       <c r="S6">
-        <v>3669182465</v>
+        <v>6041270235</v>
       </c>
       <c r="T6">
-        <v>1851925471</v>
+        <v>6705120210</v>
       </c>
       <c r="U6">
-        <v>590566592</v>
+        <v>982044017</v>
       </c>
       <c r="V6">
-        <v>3633973594</v>
+        <v>5119066139</v>
       </c>
       <c r="W6">
-        <v>2205418963</v>
+        <v>5870093710</v>
       </c>
       <c r="X6">
-        <v>592903151</v>
+        <v>1198587470</v>
       </c>
       <c r="Y6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F7">
-        <v>2240000</v>
+        <v>770000</v>
       </c>
       <c r="G7">
-        <v>1640000</v>
+        <v>770000</v>
       </c>
       <c r="H7">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>11500</v>
+        <v>8200</v>
       </c>
       <c r="J7">
-        <v>13200</v>
+        <v>9400</v>
       </c>
       <c r="K7">
-        <v>10969386</v>
+        <v>7674103</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P7">
-        <v>22818451349</v>
+        <v>8242508010</v>
       </c>
       <c r="Q7">
-        <v>30491967755</v>
+        <v>10751900430</v>
       </c>
       <c r="R7">
-        <v>18040053709</v>
+        <v>4416778965</v>
       </c>
       <c r="S7">
-        <v>2313787613</v>
+        <v>426234451</v>
       </c>
       <c r="T7">
-        <v>4014101926</v>
+        <v>2423749751</v>
       </c>
       <c r="U7">
-        <v>1878997667</v>
+        <v>677048172</v>
       </c>
       <c r="V7">
-        <v>559427078</v>
+        <v>57890953</v>
       </c>
       <c r="W7">
-        <v>-711183147</v>
+        <v>2826043673</v>
       </c>
       <c r="X7">
-        <v>1929682988</v>
+        <v>990121873</v>
       </c>
       <c r="Y7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F8">
-        <v>1580000</v>
+        <v>2000000</v>
       </c>
       <c r="G8">
-        <v>1580000</v>
+        <v>2000000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10500</v>
+        <v>22000</v>
       </c>
       <c r="J8">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="K8">
-        <v>7874611</v>
+        <v>9039778</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P8">
-        <v>7327878427</v>
+        <v>104225113285</v>
       </c>
       <c r="Q8">
-        <v>10756717708</v>
+        <v>106505634411</v>
       </c>
       <c r="R8">
-        <v>4113702647</v>
+        <v>66424930568</v>
       </c>
       <c r="S8">
-        <v>-588932080</v>
+        <v>6291020806</v>
       </c>
       <c r="T8">
-        <v>254042570</v>
+        <v>7893242769</v>
       </c>
       <c r="U8">
-        <v>-738698858</v>
+        <v>7661497240</v>
       </c>
       <c r="V8">
-        <v>-569358529</v>
+        <v>7319368873</v>
       </c>
       <c r="W8">
-        <v>-429546963</v>
+        <v>9286891982</v>
       </c>
       <c r="X8">
-        <v>-550600734</v>
+        <v>7334816490</v>
       </c>
       <c r="Y8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F9">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="G9">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="J9">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="K9">
-        <v>8110389</v>
+        <v>64819980</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="N9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="P9">
-        <v>28857</v>
+        <v>36980</v>
       </c>
       <c r="Q9">
-        <v>45830</v>
+        <v>44954</v>
       </c>
       <c r="R9">
-        <v>25997</v>
+        <v>23652</v>
       </c>
       <c r="S9">
-        <v>-14511</v>
+        <v>-7085</v>
       </c>
       <c r="T9">
-        <v>4169</v>
+        <v>-13228</v>
       </c>
       <c r="U9">
-        <v>4958</v>
+        <v>-9932</v>
       </c>
       <c r="V9">
-        <v>-34842</v>
+        <v>-7417</v>
       </c>
       <c r="W9">
-        <v>13350</v>
+        <v>-12548</v>
       </c>
       <c r="X9">
-        <v>5128</v>
+        <v>-9333</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F10">
-        <v>1100000</v>
+        <v>18000000</v>
       </c>
       <c r="G10">
-        <v>900000</v>
+        <v>18000000</v>
       </c>
       <c r="H10">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>24000</v>
+        <v>2000</v>
       </c>
       <c r="K10">
-        <v>4901526</v>
+        <v>18905000</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>24000</v>
+        <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="P10">
-        <v>32608351</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>43629717</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>14011366</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>4301870</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>7039261</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>316611</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>4422483</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>5391712</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>180579</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F11">
-        <v>4500000</v>
+        <v>1500000</v>
       </c>
       <c r="G11">
-        <v>4500000</v>
+        <v>1500000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>8900</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K11">
-        <v>5220000</v>
+        <v>5447675</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2000</v>
+        <v>12500</v>
       </c>
       <c r="N11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>18408761227</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>21902816604</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>8176918465</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>3669182465</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1851925471</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>590566592</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>3633973594</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>2205418963</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>592903151</v>
       </c>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F12">
-        <v>4750000</v>
+        <v>2240000</v>
       </c>
       <c r="G12">
-        <v>4750000</v>
+        <v>1640000</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>11500</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>13200</v>
       </c>
       <c r="K12">
-        <v>5060000</v>
+        <v>10969386</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="N12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>22818451349</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>30491967755</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>18040053709</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>2313787613</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>4014101926</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1878997667</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>559427078</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>-711183147</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1929682988</v>
       </c>
       <c r="Y12" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
         <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13">
-        <v>6500000</v>
+        <v>1580000</v>
       </c>
       <c r="G13">
-        <v>6500000</v>
+        <v>1580000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>10500</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="K13">
-        <v>7310000</v>
+        <v>7874611</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="N13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7327878427</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>10756717708</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>4113702647</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>-588932080</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>254042570</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>-738698858</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>-569358529</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>-429546963</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>-550600734</v>
       </c>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F14">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
       <c r="G14">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="K14">
-        <v>5240000</v>
+        <v>8110389</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="N14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>28857</v>
       </c>
       <c r="Q14">
-        <v>-13847740</v>
+        <v>45830</v>
       </c>
       <c r="R14">
-        <v>-27857800</v>
+        <v>25997</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>-14511</v>
       </c>
       <c r="T14">
-        <v>-26031573</v>
+        <v>4169</v>
       </c>
       <c r="U14">
-        <v>-26619749</v>
+        <v>4958</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>-34842</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>13350</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>5128</v>
       </c>
       <c r="Y14" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1832,99 +1850,99 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F15">
-        <v>4000000</v>
+        <v>1100000</v>
       </c>
       <c r="G15">
-        <v>4000000</v>
+        <v>900000</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K15">
-        <v>4230000</v>
+        <v>4901526</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="N15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O15" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>32608351</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>43629717</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>14011366</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>4301870</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>7039261</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>316611</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>4422483</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>5391712</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>180579</v>
       </c>
       <c r="Y15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F16">
-        <v>6500000</v>
+        <v>4500000</v>
       </c>
       <c r="G16">
-        <v>6500000</v>
+        <v>4500000</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1936,7 +1954,7 @@
         <v>2000</v>
       </c>
       <c r="K16">
-        <v>7035000</v>
+        <v>5220000</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1945,10 +1963,10 @@
         <v>2000</v>
       </c>
       <c r="N16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O16" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1966,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>-12707400</v>
+        <v>0</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -1975,10 +1993,87 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-25255133</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>122</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17">
+        <v>4750000</v>
+      </c>
+      <c r="G17">
+        <v>4750000</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2000</v>
+      </c>
+      <c r="J17">
+        <v>2000</v>
+      </c>
+      <c r="K17">
+        <v>5060000</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>2000</v>
+      </c>
+      <c r="N17" t="s">
+        <v>99</v>
+      </c>
+      <c r="O17" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="129">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-10-17</t>
+  </si>
+  <si>
     <t>2023-10-19</t>
   </si>
   <si>
@@ -130,15 +133,12 @@
     <t>2023-08-28</t>
   </si>
   <si>
-    <t>2023-08-24</t>
+    <t>2023-10-23</t>
   </si>
   <si>
     <t>2023-10-20</t>
   </si>
   <si>
-    <t>2023-10-17</t>
-  </si>
-  <si>
     <t>2023-10-13</t>
   </si>
   <si>
@@ -157,7 +157,7 @@
     <t>2023-08-29</t>
   </si>
   <si>
-    <t>2023-08-25</t>
+    <t>2023-11-07</t>
   </si>
   <si>
     <t>2023-11-03</t>
@@ -217,7 +217,7 @@
     <t>상상인</t>
   </si>
   <si>
-    <t>한화</t>
+    <t>쏘닉스</t>
   </si>
   <si>
     <t>KB제27호스팩</t>
@@ -265,7 +265,7 @@
     <t>상상인제4호스팩</t>
   </si>
   <si>
-    <t>한화플러스제4호스팩</t>
+    <t>716.50:1</t>
   </si>
   <si>
     <t>10.14:1</t>
@@ -313,7 +313,7 @@
     <t>655.64:1</t>
   </si>
   <si>
-    <t>739.65:1</t>
+    <t>1.39%</t>
   </si>
   <si>
     <t>-</t>
@@ -340,9 +340,6 @@
     <t>51.60%</t>
   </si>
   <si>
-    <t>1.39%</t>
-  </si>
-  <si>
     <t>13.27%</t>
   </si>
   <si>
@@ -358,7 +355,7 @@
     <t>7.46%</t>
   </si>
   <si>
-    <t>0.13%</t>
+    <t>RF필터 파운드리</t>
   </si>
   <si>
     <t>기업인수합병</t>
@@ -852,73 +849,73 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="G2">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K2">
-        <v>12905000</v>
+        <v>17306490</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>21976760922</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>15839004968</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>6887755932</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-2217897363</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-3403228196</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-2758864194</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-5110677395</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-29510193610</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -929,73 +926,73 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="G3">
-        <v>944534</v>
+        <v>12500000</v>
       </c>
       <c r="H3">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K3">
-        <v>6261485</v>
+        <v>12905000</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P3">
-        <v>34557425427</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>39824841246</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>23231897516</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>3011651602</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>2384643399</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>4436005255</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>2755379556</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1176755354</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>4046949430</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1009,70 +1006,70 @@
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="G4">
-        <v>1128720</v>
+        <v>944534</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I4">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J4">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K4">
-        <v>11287196</v>
+        <v>6261485</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P4">
-        <v>50552623684</v>
+        <v>34557425427</v>
       </c>
       <c r="Q4">
-        <v>69013134090</v>
+        <v>39824841246</v>
       </c>
       <c r="R4">
-        <v>16887814423</v>
+        <v>23231897516</v>
       </c>
       <c r="S4">
-        <v>9027232647</v>
+        <v>3011651602</v>
       </c>
       <c r="T4">
-        <v>15707796256</v>
+        <v>2384643399</v>
       </c>
       <c r="U4">
-        <v>555562560</v>
+        <v>4436005255</v>
       </c>
       <c r="V4">
-        <v>9236341465</v>
+        <v>2755379556</v>
       </c>
       <c r="W4">
-        <v>13159994846</v>
+        <v>1176755354</v>
       </c>
       <c r="X4">
-        <v>1236029732</v>
+        <v>4046949430</v>
       </c>
       <c r="Y4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1080,76 +1077,76 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="G5">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J5">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K5">
-        <v>10193520</v>
+        <v>11287196</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="N5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P5">
-        <v>3952070068</v>
+        <v>50552623684</v>
       </c>
       <c r="Q5">
-        <v>10789274729</v>
+        <v>69013134090</v>
       </c>
       <c r="R5">
-        <v>6040367765</v>
+        <v>16887814423</v>
       </c>
       <c r="S5">
-        <v>-4741577598</v>
+        <v>9027232647</v>
       </c>
       <c r="T5">
-        <v>-3671026788</v>
+        <v>15707796256</v>
       </c>
       <c r="U5">
-        <v>-3292521363</v>
+        <v>555562560</v>
       </c>
       <c r="V5">
-        <v>-3654889267</v>
+        <v>9236341465</v>
       </c>
       <c r="W5">
-        <v>-2281074471</v>
+        <v>13159994846</v>
       </c>
       <c r="X5">
-        <v>-2539505707</v>
+        <v>1236029732</v>
       </c>
       <c r="Y5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1157,76 +1154,76 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="G6">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J6">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K6">
-        <v>16120000</v>
+        <v>10193520</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P6">
-        <v>26691070764</v>
+        <v>3952070068</v>
       </c>
       <c r="Q6">
-        <v>22835113396</v>
+        <v>10789274729</v>
       </c>
       <c r="R6">
-        <v>7519073723</v>
+        <v>6040367765</v>
       </c>
       <c r="S6">
-        <v>6041270235</v>
+        <v>-4741577598</v>
       </c>
       <c r="T6">
-        <v>6705120210</v>
+        <v>-3671026788</v>
       </c>
       <c r="U6">
-        <v>982044017</v>
+        <v>-3292521363</v>
       </c>
       <c r="V6">
-        <v>5119066139</v>
+        <v>-3654889267</v>
       </c>
       <c r="W6">
-        <v>5870093710</v>
+        <v>-2281074471</v>
       </c>
       <c r="X6">
-        <v>1198587470</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1234,76 +1231,76 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="G7">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J7">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K7">
-        <v>7674103</v>
+        <v>16120000</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P7">
-        <v>8242508010</v>
+        <v>26691070764</v>
       </c>
       <c r="Q7">
-        <v>10751900430</v>
+        <v>22835113396</v>
       </c>
       <c r="R7">
-        <v>4416778965</v>
+        <v>7519073723</v>
       </c>
       <c r="S7">
-        <v>426234451</v>
+        <v>6041270235</v>
       </c>
       <c r="T7">
-        <v>2423749751</v>
+        <v>6705120210</v>
       </c>
       <c r="U7">
-        <v>677048172</v>
+        <v>982044017</v>
       </c>
       <c r="V7">
-        <v>57890953</v>
+        <v>5119066139</v>
       </c>
       <c r="W7">
-        <v>2826043673</v>
+        <v>5870093710</v>
       </c>
       <c r="X7">
-        <v>990121873</v>
+        <v>1198587470</v>
       </c>
       <c r="Y7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1311,76 +1308,76 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="G8">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J8">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K8">
-        <v>9039778</v>
+        <v>7674103</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P8">
-        <v>104225113285</v>
+        <v>8242508010</v>
       </c>
       <c r="Q8">
-        <v>106505634411</v>
+        <v>10751900430</v>
       </c>
       <c r="R8">
-        <v>66424930568</v>
+        <v>4416778965</v>
       </c>
       <c r="S8">
-        <v>6291020806</v>
+        <v>426234451</v>
       </c>
       <c r="T8">
-        <v>7893242769</v>
+        <v>2423749751</v>
       </c>
       <c r="U8">
-        <v>7661497240</v>
+        <v>677048172</v>
       </c>
       <c r="V8">
-        <v>7319368873</v>
+        <v>57890953</v>
       </c>
       <c r="W8">
-        <v>9286891982</v>
+        <v>2826043673</v>
       </c>
       <c r="X8">
-        <v>7334816490</v>
+        <v>990121873</v>
       </c>
       <c r="Y8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1388,34 +1385,34 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="G9">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="J9">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K9">
-        <v>64819980</v>
+        <v>9039778</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1424,40 +1421,40 @@
         <v>26000</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P9">
-        <v>36980</v>
+        <v>104225113285</v>
       </c>
       <c r="Q9">
-        <v>44954</v>
+        <v>106505634411</v>
       </c>
       <c r="R9">
-        <v>23652</v>
+        <v>66424930568</v>
       </c>
       <c r="S9">
-        <v>-7085</v>
+        <v>6291020806</v>
       </c>
       <c r="T9">
-        <v>-13228</v>
+        <v>7893242769</v>
       </c>
       <c r="U9">
-        <v>-9932</v>
+        <v>7661497240</v>
       </c>
       <c r="V9">
-        <v>-7417</v>
+        <v>7319368873</v>
       </c>
       <c r="W9">
-        <v>-12548</v>
+        <v>9286891982</v>
       </c>
       <c r="X9">
-        <v>-9333</v>
+        <v>7334816490</v>
       </c>
       <c r="Y9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1468,73 +1465,73 @@
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="G10">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K10">
-        <v>18905000</v>
+        <v>64819980</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>36980</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>44954</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>23652</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>-7085</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>-13228</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>-9932</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>-7417</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>-12548</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>-9333</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1542,230 +1539,230 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="G11">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J11">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K11">
-        <v>5447675</v>
+        <v>18905000</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O11" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="P11">
-        <v>18408761227</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>21902816604</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>8176918465</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>3669182465</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>1851925471</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>590566592</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>3633973594</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>2205418963</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>592903151</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="G12">
-        <v>1640000</v>
+        <v>1500000</v>
       </c>
       <c r="H12">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J12">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K12">
-        <v>10969386</v>
+        <v>5447675</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P12">
-        <v>22818451349</v>
+        <v>18408761227</v>
       </c>
       <c r="Q12">
-        <v>30491967755</v>
+        <v>21902816604</v>
       </c>
       <c r="R12">
-        <v>18040053709</v>
+        <v>8176918465</v>
       </c>
       <c r="S12">
-        <v>2313787613</v>
+        <v>3669182465</v>
       </c>
       <c r="T12">
-        <v>4014101926</v>
+        <v>1851925471</v>
       </c>
       <c r="U12">
-        <v>1878997667</v>
+        <v>590566592</v>
       </c>
       <c r="V12">
-        <v>559427078</v>
+        <v>3633973594</v>
       </c>
       <c r="W12">
-        <v>-711183147</v>
+        <v>2205418963</v>
       </c>
       <c r="X12">
-        <v>1929682988</v>
+        <v>592903151</v>
       </c>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="G13">
-        <v>1580000</v>
+        <v>1640000</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I13">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J13">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K13">
-        <v>7874611</v>
+        <v>10969386</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P13">
-        <v>7327878427</v>
+        <v>22818451349</v>
       </c>
       <c r="Q13">
-        <v>10756717708</v>
+        <v>30491967755</v>
       </c>
       <c r="R13">
-        <v>4113702647</v>
+        <v>18040053709</v>
       </c>
       <c r="S13">
-        <v>-588932080</v>
+        <v>2313787613</v>
       </c>
       <c r="T13">
-        <v>254042570</v>
+        <v>4014101926</v>
       </c>
       <c r="U13">
-        <v>-738698858</v>
+        <v>1878997667</v>
       </c>
       <c r="V13">
-        <v>-569358529</v>
+        <v>559427078</v>
       </c>
       <c r="W13">
-        <v>-429546963</v>
+        <v>-711183147</v>
       </c>
       <c r="X13">
-        <v>-550600734</v>
+        <v>1929682988</v>
       </c>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1773,230 +1770,230 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="G14">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J14">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K14">
-        <v>8110389</v>
+        <v>7874611</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P14">
-        <v>28857</v>
+        <v>7327878427</v>
       </c>
       <c r="Q14">
-        <v>45830</v>
+        <v>10756717708</v>
       </c>
       <c r="R14">
-        <v>25997</v>
+        <v>4113702647</v>
       </c>
       <c r="S14">
-        <v>-14511</v>
+        <v>-588932080</v>
       </c>
       <c r="T14">
-        <v>4169</v>
+        <v>254042570</v>
       </c>
       <c r="U14">
-        <v>4958</v>
+        <v>-738698858</v>
       </c>
       <c r="V14">
-        <v>-34842</v>
+        <v>-569358529</v>
       </c>
       <c r="W14">
-        <v>13350</v>
+        <v>-429546963</v>
       </c>
       <c r="X14">
-        <v>5128</v>
+        <v>-550600734</v>
       </c>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="G15">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H15">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>20000</v>
       </c>
       <c r="J15">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="K15">
-        <v>4901526</v>
+        <v>8110389</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="N15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P15">
-        <v>32608351</v>
+        <v>28857</v>
       </c>
       <c r="Q15">
-        <v>43629717</v>
+        <v>45830</v>
       </c>
       <c r="R15">
-        <v>14011366</v>
+        <v>25997</v>
       </c>
       <c r="S15">
-        <v>4301870</v>
+        <v>-14511</v>
       </c>
       <c r="T15">
-        <v>7039261</v>
+        <v>4169</v>
       </c>
       <c r="U15">
-        <v>316611</v>
+        <v>4958</v>
       </c>
       <c r="V15">
-        <v>4422483</v>
+        <v>-34842</v>
       </c>
       <c r="W15">
-        <v>5391712</v>
+        <v>13350</v>
       </c>
       <c r="X15">
-        <v>180579</v>
+        <v>5128</v>
       </c>
       <c r="Y15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="G16">
-        <v>4500000</v>
+        <v>900000</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="I16">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K16">
-        <v>5220000</v>
+        <v>4901526</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="N16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O16" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>32608351</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>43629717</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>14011366</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>4301870</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>7039261</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>316611</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>4422483</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>5391712</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>180579</v>
       </c>
       <c r="Y16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2004,22 +2001,22 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="G17">
-        <v>4750000</v>
+        <v>4500000</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2031,7 +2028,7 @@
         <v>2000</v>
       </c>
       <c r="K17">
-        <v>5060000</v>
+        <v>5220000</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2040,10 +2037,10 @@
         <v>2000</v>
       </c>
       <c r="N17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O17" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2073,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="151">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,12 +91,15 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>2023-10-19</t>
+  </si>
+  <si>
     <t>2023-10-17</t>
   </si>
   <si>
-    <t>2023-10-19</t>
-  </si>
-  <si>
     <t>2023-10-11</t>
   </si>
   <si>
@@ -133,12 +136,15 @@
     <t>2023-08-28</t>
   </si>
   <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
+    <t>2023-10-25</t>
+  </si>
+  <si>
     <t>2023-10-23</t>
   </si>
   <si>
-    <t>2023-10-20</t>
-  </si>
-  <si>
     <t>2023-10-13</t>
   </si>
   <si>
@@ -157,6 +163,12 @@
     <t>2023-08-29</t>
   </si>
   <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
     <t>2023-11-07</t>
   </si>
   <si>
@@ -169,9 +181,6 @@
     <t>2023-10-27</t>
   </si>
   <si>
-    <t>2023-10-26</t>
-  </si>
-  <si>
     <t>2023-10-10</t>
   </si>
   <si>
@@ -181,12 +190,21 @@
     <t>2023-09-25</t>
   </si>
   <si>
+    <t>미래, 삼성</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>대신</t>
+  </si>
+  <si>
+    <t>IBK</t>
+  </si>
+  <si>
     <t>KB</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>신한</t>
   </si>
   <si>
@@ -217,6 +235,18 @@
     <t>상상인</t>
   </si>
   <si>
+    <t>큐로셀</t>
+  </si>
+  <si>
+    <t>메가터치</t>
+  </si>
+  <si>
+    <t>컨텍</t>
+  </si>
+  <si>
+    <t>비아이매트릭스</t>
+  </si>
+  <si>
     <t>쏘닉스</t>
   </si>
   <si>
@@ -265,6 +295,18 @@
     <t>상상인제4호스팩</t>
   </si>
   <si>
+    <t>20.88:1</t>
+  </si>
+  <si>
+    <t>765.86:1</t>
+  </si>
+  <si>
+    <t>198.93:1</t>
+  </si>
+  <si>
+    <t>981.09:1</t>
+  </si>
+  <si>
     <t>716.50:1</t>
   </si>
   <si>
@@ -313,6 +355,18 @@
     <t>655.64:1</t>
   </si>
   <si>
+    <t>4.74%</t>
+  </si>
+  <si>
+    <t>9.25%</t>
+  </si>
+  <si>
+    <t>1.24%</t>
+  </si>
+  <si>
+    <t>4.20%</t>
+  </si>
+  <si>
     <t>1.39%</t>
   </si>
   <si>
@@ -353,6 +407,18 @@
   </si>
   <si>
     <t>7.46%</t>
+  </si>
+  <si>
+    <t>CAR-T 세포치료제</t>
+  </si>
+  <si>
+    <t>배터리 핀, 반도체 핀</t>
+  </si>
+  <si>
+    <t>지상국 시스템 엔지니어링 솔루션, 위성영상 생성을 위한 데이터처리 솔루션</t>
+  </si>
+  <si>
+    <t>로우코드 기반 코딩 자동화 솔루션 등</t>
   </si>
   <si>
     <t>RF필터 파운드리</t>
@@ -758,7 +824,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -846,846 +912,846 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F2">
-        <v>3600000</v>
+        <v>1600000</v>
       </c>
       <c r="G2">
-        <v>3600000</v>
+        <v>1600000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5000</v>
+        <v>29800</v>
       </c>
       <c r="J2">
-        <v>7000</v>
+        <v>33500</v>
       </c>
       <c r="K2">
-        <v>17306490</v>
+        <v>13612736</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="O2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="P2">
-        <v>21976760922</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>15839004968</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>6887755932</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>-2217897363</v>
+        <v>-15286512079</v>
       </c>
       <c r="T2">
-        <v>-3403228196</v>
+        <v>-21424611321</v>
       </c>
       <c r="U2">
-        <v>-2758864194</v>
+        <v>-139745251263</v>
       </c>
       <c r="V2">
-        <v>-5110677395</v>
+        <v>-53575668634</v>
       </c>
       <c r="W2">
-        <v>-29510193610</v>
+        <v>-38885125426</v>
       </c>
       <c r="X2">
-        <v>-2514471056</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F3">
-        <v>12500000</v>
+        <v>5200000</v>
       </c>
       <c r="G3">
-        <v>12500000</v>
+        <v>5200000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="K3">
-        <v>12905000</v>
+        <v>20771000</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2000</v>
+        <v>4800</v>
       </c>
       <c r="N3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O3" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>39450601</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>49044883</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>21826468</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2477559</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>8094900</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>215154</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>3427734</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>6575528</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>349843</v>
       </c>
       <c r="Y3" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F4">
-        <v>1049482</v>
+        <v>2060000</v>
       </c>
       <c r="G4">
-        <v>944534</v>
+        <v>2000000</v>
       </c>
       <c r="H4">
-        <v>104948</v>
+        <v>60000</v>
       </c>
       <c r="I4">
-        <v>12800</v>
+        <v>20300</v>
       </c>
       <c r="J4">
-        <v>14500</v>
+        <v>22500</v>
       </c>
       <c r="K4">
-        <v>6261485</v>
+        <v>14384224</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17000</v>
+        <v>22500</v>
       </c>
       <c r="N4" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="P4">
-        <v>34557425427</v>
+        <v>5787300240</v>
       </c>
       <c r="Q4">
-        <v>39824841246</v>
+        <v>1914633847</v>
       </c>
       <c r="R4">
-        <v>23231897516</v>
+        <v>3156092272</v>
       </c>
       <c r="S4">
-        <v>3011651602</v>
+        <v>-1798278694</v>
       </c>
       <c r="T4">
-        <v>2384643399</v>
+        <v>-1453689952</v>
       </c>
       <c r="U4">
-        <v>4436005255</v>
+        <v>-4067648306</v>
       </c>
       <c r="V4">
-        <v>2755379556</v>
+        <v>-12449932055</v>
       </c>
       <c r="W4">
-        <v>1176755354</v>
+        <v>-7426231074</v>
       </c>
       <c r="X4">
-        <v>4046949430</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y4" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F5">
-        <v>1128720</v>
+        <v>1200000</v>
       </c>
       <c r="G5">
-        <v>1128720</v>
+        <v>1200000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3300</v>
+        <v>9100</v>
       </c>
       <c r="J5">
-        <v>3900</v>
+        <v>11000</v>
       </c>
       <c r="K5">
-        <v>11287196</v>
+        <v>7206940</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4400</v>
+        <v>13000</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O5" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="P5">
-        <v>50552623684</v>
+        <v>20924</v>
       </c>
       <c r="Q5">
-        <v>69013134090</v>
+        <v>27659</v>
       </c>
       <c r="R5">
-        <v>16887814423</v>
+        <v>11818</v>
       </c>
       <c r="S5">
-        <v>9027232647</v>
+        <v>2838</v>
       </c>
       <c r="T5">
-        <v>15707796256</v>
+        <v>4563</v>
       </c>
       <c r="U5">
-        <v>555562560</v>
+        <v>-1222</v>
       </c>
       <c r="V5">
-        <v>9236341465</v>
+        <v>2413</v>
       </c>
       <c r="W5">
-        <v>13159994846</v>
+        <v>3190</v>
       </c>
       <c r="X5">
-        <v>1236029732</v>
+        <v>-862</v>
       </c>
       <c r="Y5" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F6">
-        <v>1800000</v>
+        <v>3600000</v>
       </c>
       <c r="G6">
-        <v>1800000</v>
+        <v>3600000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="J6">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="K6">
-        <v>10193520</v>
+        <v>17306490</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O6" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="P6">
-        <v>3952070068</v>
+        <v>21976760922</v>
       </c>
       <c r="Q6">
-        <v>10789274729</v>
+        <v>15839004968</v>
       </c>
       <c r="R6">
-        <v>6040367765</v>
+        <v>6887755932</v>
       </c>
       <c r="S6">
-        <v>-4741577598</v>
+        <v>-2217897363</v>
       </c>
       <c r="T6">
-        <v>-3671026788</v>
+        <v>-3403228196</v>
       </c>
       <c r="U6">
-        <v>-3292521363</v>
+        <v>-2758864194</v>
       </c>
       <c r="V6">
-        <v>-3654889267</v>
+        <v>-5110677395</v>
       </c>
       <c r="W6">
-        <v>-2281074471</v>
+        <v>-29510193610</v>
       </c>
       <c r="X6">
-        <v>-2539505707</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y6" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F7">
-        <v>4000000</v>
+        <v>12500000</v>
       </c>
       <c r="G7">
-        <v>4000000</v>
+        <v>12500000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>5600</v>
+        <v>2000</v>
       </c>
       <c r="K7">
-        <v>16120000</v>
+        <v>12905000</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="P7">
-        <v>26691070764</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>22835113396</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>7519073723</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>6041270235</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>6705120210</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>982044017</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>5119066139</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>5870093710</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>1198587470</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F8">
-        <v>770000</v>
+        <v>1049482</v>
       </c>
       <c r="G8">
-        <v>770000</v>
+        <v>944534</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I8">
-        <v>8200</v>
+        <v>12800</v>
       </c>
       <c r="J8">
-        <v>9400</v>
+        <v>14500</v>
       </c>
       <c r="K8">
-        <v>7674103</v>
+        <v>6261485</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="P8">
-        <v>8242508010</v>
+        <v>34557425427</v>
       </c>
       <c r="Q8">
-        <v>10751900430</v>
+        <v>39824841246</v>
       </c>
       <c r="R8">
-        <v>4416778965</v>
+        <v>23231897516</v>
       </c>
       <c r="S8">
-        <v>426234451</v>
+        <v>3011651602</v>
       </c>
       <c r="T8">
-        <v>2423749751</v>
+        <v>2384643399</v>
       </c>
       <c r="U8">
-        <v>677048172</v>
+        <v>4436005255</v>
       </c>
       <c r="V8">
-        <v>57890953</v>
+        <v>2755379556</v>
       </c>
       <c r="W8">
-        <v>2826043673</v>
+        <v>1176755354</v>
       </c>
       <c r="X8">
-        <v>990121873</v>
+        <v>4046949430</v>
       </c>
       <c r="Y8" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F9">
-        <v>2000000</v>
+        <v>1128720</v>
       </c>
       <c r="G9">
-        <v>2000000</v>
+        <v>1128720</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22000</v>
+        <v>3300</v>
       </c>
       <c r="J9">
-        <v>25000</v>
+        <v>3900</v>
       </c>
       <c r="K9">
-        <v>9039778</v>
+        <v>11287196</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>26000</v>
+        <v>4400</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="P9">
-        <v>104225113285</v>
+        <v>50552623684</v>
       </c>
       <c r="Q9">
-        <v>106505634411</v>
+        <v>69013134090</v>
       </c>
       <c r="R9">
-        <v>66424930568</v>
+        <v>16887814423</v>
       </c>
       <c r="S9">
-        <v>6291020806</v>
+        <v>9027232647</v>
       </c>
       <c r="T9">
-        <v>7893242769</v>
+        <v>15707796256</v>
       </c>
       <c r="U9">
-        <v>7661497240</v>
+        <v>555562560</v>
       </c>
       <c r="V9">
-        <v>7319368873</v>
+        <v>9236341465</v>
       </c>
       <c r="W9">
-        <v>9286891982</v>
+        <v>13159994846</v>
       </c>
       <c r="X9">
-        <v>7334816490</v>
+        <v>1236029732</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F10">
-        <v>16200000</v>
+        <v>1800000</v>
       </c>
       <c r="G10">
-        <v>16200000</v>
+        <v>1800000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="J10">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="K10">
-        <v>64819980</v>
+        <v>10193520</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="N10" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="O10" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="P10">
-        <v>36980</v>
+        <v>3952070068</v>
       </c>
       <c r="Q10">
-        <v>44954</v>
+        <v>10789274729</v>
       </c>
       <c r="R10">
-        <v>23652</v>
+        <v>6040367765</v>
       </c>
       <c r="S10">
-        <v>-7085</v>
+        <v>-4741577598</v>
       </c>
       <c r="T10">
-        <v>-13228</v>
+        <v>-3671026788</v>
       </c>
       <c r="U10">
-        <v>-9932</v>
+        <v>-3292521363</v>
       </c>
       <c r="V10">
-        <v>-7417</v>
+        <v>-3654889267</v>
       </c>
       <c r="W10">
-        <v>-12548</v>
+        <v>-2281074471</v>
       </c>
       <c r="X10">
-        <v>-9333</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F11">
-        <v>18000000</v>
+        <v>4000000</v>
       </c>
       <c r="G11">
-        <v>18000000</v>
+        <v>4000000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>5600</v>
       </c>
       <c r="K11">
-        <v>18905000</v>
+        <v>16120000</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="N11" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="O11" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>26691070764</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>22835113396</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>7519073723</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>6041270235</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>6705120210</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>982044017</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>5119066139</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>5870093710</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1198587470</v>
       </c>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F12">
-        <v>1500000</v>
+        <v>770000</v>
       </c>
       <c r="G12">
-        <v>1500000</v>
+        <v>770000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>8900</v>
+        <v>8200</v>
       </c>
       <c r="J12">
-        <v>11000</v>
+        <v>9400</v>
       </c>
       <c r="K12">
-        <v>5447675</v>
+        <v>7674103</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="N12" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="O12" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="P12">
-        <v>18408761227</v>
+        <v>8242508010</v>
       </c>
       <c r="Q12">
-        <v>21902816604</v>
+        <v>10751900430</v>
       </c>
       <c r="R12">
-        <v>8176918465</v>
+        <v>4416778965</v>
       </c>
       <c r="S12">
-        <v>3669182465</v>
+        <v>426234451</v>
       </c>
       <c r="T12">
-        <v>1851925471</v>
+        <v>2423749751</v>
       </c>
       <c r="U12">
-        <v>590566592</v>
+        <v>677048172</v>
       </c>
       <c r="V12">
-        <v>3633973594</v>
+        <v>57890953</v>
       </c>
       <c r="W12">
-        <v>2205418963</v>
+        <v>2826043673</v>
       </c>
       <c r="X12">
-        <v>592903151</v>
+        <v>990121873</v>
       </c>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1693,230 +1759,230 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F13">
-        <v>2240000</v>
+        <v>2000000</v>
       </c>
       <c r="G13">
-        <v>1640000</v>
+        <v>2000000</v>
       </c>
       <c r="H13">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>11500</v>
+        <v>22000</v>
       </c>
       <c r="J13">
-        <v>13200</v>
+        <v>25000</v>
       </c>
       <c r="K13">
-        <v>10969386</v>
+        <v>9039778</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="N13" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="O13" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="P13">
-        <v>22818451349</v>
+        <v>104225113285</v>
       </c>
       <c r="Q13">
-        <v>30491967755</v>
+        <v>106505634411</v>
       </c>
       <c r="R13">
-        <v>18040053709</v>
+        <v>66424930568</v>
       </c>
       <c r="S13">
-        <v>2313787613</v>
+        <v>6291020806</v>
       </c>
       <c r="T13">
-        <v>4014101926</v>
+        <v>7893242769</v>
       </c>
       <c r="U13">
-        <v>1878997667</v>
+        <v>7661497240</v>
       </c>
       <c r="V13">
-        <v>559427078</v>
+        <v>7319368873</v>
       </c>
       <c r="W13">
-        <v>-711183147</v>
+        <v>9286891982</v>
       </c>
       <c r="X13">
-        <v>1929682988</v>
+        <v>7334816490</v>
       </c>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F14">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="G14">
-        <v>1580000</v>
+        <v>16200000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="J14">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="K14">
-        <v>7874611</v>
+        <v>64819980</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="N14" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="O14" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="P14">
-        <v>7327878427</v>
+        <v>36980</v>
       </c>
       <c r="Q14">
-        <v>10756717708</v>
+        <v>44954</v>
       </c>
       <c r="R14">
-        <v>4113702647</v>
+        <v>23652</v>
       </c>
       <c r="S14">
-        <v>-588932080</v>
+        <v>-7085</v>
       </c>
       <c r="T14">
-        <v>254042570</v>
+        <v>-13228</v>
       </c>
       <c r="U14">
-        <v>-738698858</v>
+        <v>-9932</v>
       </c>
       <c r="V14">
-        <v>-569358529</v>
+        <v>-7417</v>
       </c>
       <c r="W14">
-        <v>-429546963</v>
+        <v>-12548</v>
       </c>
       <c r="X14">
-        <v>-550600734</v>
+        <v>-9333</v>
       </c>
       <c r="Y14" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F15">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="G15">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="K15">
-        <v>8110389</v>
+        <v>18905000</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="O15" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="P15">
-        <v>28857</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>45830</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>25997</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>-14511</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>4169</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>4958</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>-34842</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>13350</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>5128</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1924,153 +1990,461 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F16">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="G16">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H16">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>20000</v>
+        <v>8900</v>
       </c>
       <c r="J16">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="K16">
-        <v>4901526</v>
+        <v>5447675</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>24000</v>
+        <v>12500</v>
       </c>
       <c r="N16" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="O16" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="P16">
-        <v>32608351</v>
+        <v>18408761227</v>
       </c>
       <c r="Q16">
-        <v>43629717</v>
+        <v>21902816604</v>
       </c>
       <c r="R16">
-        <v>14011366</v>
+        <v>8176918465</v>
       </c>
       <c r="S16">
-        <v>4301870</v>
+        <v>3669182465</v>
       </c>
       <c r="T16">
-        <v>7039261</v>
+        <v>1851925471</v>
       </c>
       <c r="U16">
-        <v>316611</v>
+        <v>590566592</v>
       </c>
       <c r="V16">
-        <v>4422483</v>
+        <v>3633973594</v>
       </c>
       <c r="W16">
-        <v>5391712</v>
+        <v>2205418963</v>
       </c>
       <c r="X16">
-        <v>180579</v>
+        <v>592903151</v>
       </c>
       <c r="Y16" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17">
+        <v>2240000</v>
+      </c>
+      <c r="G17">
+        <v>1640000</v>
+      </c>
+      <c r="H17">
+        <v>600000</v>
+      </c>
+      <c r="I17">
+        <v>11500</v>
+      </c>
+      <c r="J17">
+        <v>13200</v>
+      </c>
+      <c r="K17">
+        <v>10969386</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>15000</v>
+      </c>
+      <c r="N17" t="s">
+        <v>108</v>
+      </c>
+      <c r="O17" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17">
+        <v>22818451349</v>
+      </c>
+      <c r="Q17">
+        <v>30491967755</v>
+      </c>
+      <c r="R17">
+        <v>18040053709</v>
+      </c>
+      <c r="S17">
+        <v>2313787613</v>
+      </c>
+      <c r="T17">
+        <v>4014101926</v>
+      </c>
+      <c r="U17">
+        <v>1878997667</v>
+      </c>
+      <c r="V17">
+        <v>559427078</v>
+      </c>
+      <c r="W17">
+        <v>-711183147</v>
+      </c>
+      <c r="X17">
+        <v>1929682988</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18">
+        <v>1580000</v>
+      </c>
+      <c r="G18">
+        <v>1580000</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>10500</v>
+      </c>
+      <c r="J18">
+        <v>12000</v>
+      </c>
+      <c r="K18">
+        <v>7874611</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>14000</v>
+      </c>
+      <c r="N18" t="s">
+        <v>109</v>
+      </c>
+      <c r="O18" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18">
+        <v>7327878427</v>
+      </c>
+      <c r="Q18">
+        <v>10756717708</v>
+      </c>
+      <c r="R18">
+        <v>4113702647</v>
+      </c>
+      <c r="S18">
+        <v>-588932080</v>
+      </c>
+      <c r="T18">
+        <v>254042570</v>
+      </c>
+      <c r="U18">
+        <v>-738698858</v>
+      </c>
+      <c r="V18">
+        <v>-569358529</v>
+      </c>
+      <c r="W18">
+        <v>-429546963</v>
+      </c>
+      <c r="X18">
+        <v>-550600734</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19">
+        <v>1500000</v>
+      </c>
+      <c r="G19">
+        <v>1500000</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>20000</v>
+      </c>
+      <c r="J19">
+        <v>23000</v>
+      </c>
+      <c r="K19">
+        <v>8110389</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>23000</v>
+      </c>
+      <c r="N19" t="s">
+        <v>110</v>
+      </c>
+      <c r="O19" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19">
+        <v>28857</v>
+      </c>
+      <c r="Q19">
+        <v>45830</v>
+      </c>
+      <c r="R19">
+        <v>25997</v>
+      </c>
+      <c r="S19">
+        <v>-14511</v>
+      </c>
+      <c r="T19">
+        <v>4169</v>
+      </c>
+      <c r="U19">
+        <v>4958</v>
+      </c>
+      <c r="V19">
+        <v>-34842</v>
+      </c>
+      <c r="W19">
+        <v>13350</v>
+      </c>
+      <c r="X19">
+        <v>5128</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17">
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20">
+        <v>1100000</v>
+      </c>
+      <c r="G20">
+        <v>900000</v>
+      </c>
+      <c r="H20">
+        <v>200000</v>
+      </c>
+      <c r="I20">
+        <v>20000</v>
+      </c>
+      <c r="J20">
+        <v>24000</v>
+      </c>
+      <c r="K20">
+        <v>4901526</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>24000</v>
+      </c>
+      <c r="N20" t="s">
+        <v>111</v>
+      </c>
+      <c r="O20" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20">
+        <v>32608351</v>
+      </c>
+      <c r="Q20">
+        <v>43629717</v>
+      </c>
+      <c r="R20">
+        <v>14011366</v>
+      </c>
+      <c r="S20">
+        <v>4301870</v>
+      </c>
+      <c r="T20">
+        <v>7039261</v>
+      </c>
+      <c r="U20">
+        <v>316611</v>
+      </c>
+      <c r="V20">
+        <v>4422483</v>
+      </c>
+      <c r="W20">
+        <v>5391712</v>
+      </c>
+      <c r="X20">
+        <v>180579</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21">
         <v>4500000</v>
       </c>
-      <c r="G17">
+      <c r="G21">
         <v>4500000</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>2000</v>
       </c>
-      <c r="J17">
+      <c r="J21">
         <v>2000</v>
       </c>
-      <c r="K17">
+      <c r="K21">
         <v>5220000</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>2000</v>
       </c>
-      <c r="N17" t="s">
-        <v>98</v>
-      </c>
-      <c r="O17" t="s">
-        <v>100</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>128</v>
+      <c r="N21" t="s">
+        <v>112</v>
+      </c>
+      <c r="O21" t="s">
+        <v>118</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="158">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -94,6 +94,12 @@
     <t>2023-10-20</t>
   </si>
   <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-10-25</t>
+  </si>
+  <si>
     <t>2023-10-19</t>
   </si>
   <si>
@@ -139,10 +145,7 @@
     <t>2023-10-26</t>
   </si>
   <si>
-    <t>2023-10-25</t>
-  </si>
-  <si>
-    <t>2023-10-23</t>
+    <t>2023-10-27</t>
   </si>
   <si>
     <t>2023-10-13</t>
@@ -166,6 +169,9 @@
     <t>2023-11-09</t>
   </si>
   <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
     <t>2023-11-10</t>
   </si>
   <si>
@@ -178,9 +184,6 @@
     <t>2023-11-02</t>
   </si>
   <si>
-    <t>2023-10-27</t>
-  </si>
-  <si>
     <t>2023-10-10</t>
   </si>
   <si>
@@ -193,6 +196,12 @@
     <t>미래, 삼성</t>
   </si>
   <si>
+    <t>삼성</t>
+  </si>
+  <si>
+    <t>한국</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
@@ -208,9 +217,6 @@
     <t>신한</t>
   </si>
   <si>
-    <t>한국</t>
-  </si>
-  <si>
     <t>키움</t>
   </si>
   <si>
@@ -223,9 +229,6 @@
     <t>한국, 미래</t>
   </si>
   <si>
-    <t>삼성</t>
-  </si>
-  <si>
     <t>유안타</t>
   </si>
   <si>
@@ -238,6 +241,12 @@
     <t>큐로셀</t>
   </si>
   <si>
+    <t>에이직랜드</t>
+  </si>
+  <si>
+    <t>한국제13호스팩</t>
+  </si>
+  <si>
     <t>메가터치</t>
   </si>
   <si>
@@ -298,6 +307,12 @@
     <t>20.88:1</t>
   </si>
   <si>
+    <t>490.02:1</t>
+  </si>
+  <si>
+    <t>745.80:1</t>
+  </si>
+  <si>
     <t>765.86:1</t>
   </si>
   <si>
@@ -358,6 +373,12 @@
     <t>4.74%</t>
   </si>
   <si>
+    <t>22.38%</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>9.25%</t>
   </si>
   <si>
@@ -370,9 +391,6 @@
     <t>1.39%</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>17.63%</t>
   </si>
   <si>
@@ -412,6 +430,12 @@
     <t>CAR-T 세포치료제</t>
   </si>
   <si>
+    <t>비메모리 반도체 설계및 제조, 전자회로 연구, 설계, 레이아웃 등</t>
+  </si>
+  <si>
+    <t>기업인수합병</t>
+  </si>
+  <si>
     <t>배터리 핀, 반도체 핀</t>
   </si>
   <si>
@@ -422,9 +446,6 @@
   </si>
   <si>
     <t>RF필터 파운드리</t>
-  </si>
-  <si>
-    <t>기업인수합병</t>
   </si>
   <si>
     <t>이차전지 정밀금형 외</t>
@@ -824,7 +845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -912,16 +933,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2">
         <v>1600000</v>
@@ -948,10 +969,10 @@
         <v>20000</v>
       </c>
       <c r="N2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -981,546 +1002,546 @@
         <v>-12610702106</v>
       </c>
       <c r="Y2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3">
-        <v>5200000</v>
+        <v>2636330</v>
       </c>
       <c r="G3">
-        <v>5200000</v>
+        <v>2636330</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3500</v>
+        <v>19100</v>
       </c>
       <c r="J3">
-        <v>4000</v>
+        <v>21400</v>
       </c>
       <c r="K3">
-        <v>20771000</v>
+        <v>10585320</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4800</v>
+        <v>25000</v>
       </c>
       <c r="N3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="P3">
-        <v>39450601</v>
+        <v>45195788</v>
       </c>
       <c r="Q3">
-        <v>49044883</v>
+        <v>69629209</v>
       </c>
       <c r="R3">
-        <v>21826468</v>
+        <v>35634471</v>
       </c>
       <c r="S3">
-        <v>2477559</v>
+        <v>2751277</v>
       </c>
       <c r="T3">
-        <v>8094900</v>
+        <v>11449731</v>
       </c>
       <c r="U3">
-        <v>215154</v>
+        <v>2482194</v>
       </c>
       <c r="V3">
-        <v>3427734</v>
+        <v>2092692</v>
       </c>
       <c r="W3">
-        <v>6575528</v>
+        <v>5149538</v>
       </c>
       <c r="X3">
-        <v>349843</v>
+        <v>2327401</v>
       </c>
       <c r="Y3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4">
-        <v>2060000</v>
+        <v>4000000</v>
       </c>
       <c r="G4">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="H4">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>20300</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>22500</v>
+        <v>2000</v>
       </c>
       <c r="K4">
-        <v>14384224</v>
+        <v>4320000</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>22500</v>
+        <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P4">
-        <v>5787300240</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1914633847</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>3156092272</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-1798278694</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>-1453689952</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>-4067648306</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>-12449932055</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>-7426231074</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-52132058866</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F5">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="G5">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9100</v>
+        <v>3500</v>
       </c>
       <c r="J5">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="K5">
-        <v>7206940</v>
+        <v>20771000</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13000</v>
+        <v>4800</v>
       </c>
       <c r="N5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="P5">
-        <v>20924</v>
+        <v>39450601</v>
       </c>
       <c r="Q5">
-        <v>27659</v>
+        <v>49044883</v>
       </c>
       <c r="R5">
-        <v>11818</v>
+        <v>21826468</v>
       </c>
       <c r="S5">
-        <v>2838</v>
+        <v>2477559</v>
       </c>
       <c r="T5">
-        <v>4563</v>
+        <v>8094900</v>
       </c>
       <c r="U5">
-        <v>-1222</v>
+        <v>215154</v>
       </c>
       <c r="V5">
-        <v>2413</v>
+        <v>3427734</v>
       </c>
       <c r="W5">
-        <v>3190</v>
+        <v>6575528</v>
       </c>
       <c r="X5">
-        <v>-862</v>
+        <v>349843</v>
       </c>
       <c r="Y5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F6">
-        <v>3600000</v>
+        <v>2060000</v>
       </c>
       <c r="G6">
-        <v>3600000</v>
+        <v>2000000</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I6">
-        <v>5000</v>
+        <v>20300</v>
       </c>
       <c r="J6">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="K6">
-        <v>17306490</v>
+        <v>14384224</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="N6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O6" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="P6">
-        <v>21976760922</v>
+        <v>5787300240</v>
       </c>
       <c r="Q6">
-        <v>15839004968</v>
+        <v>1914633847</v>
       </c>
       <c r="R6">
-        <v>6887755932</v>
+        <v>3156092272</v>
       </c>
       <c r="S6">
-        <v>-2217897363</v>
+        <v>-1798278694</v>
       </c>
       <c r="T6">
-        <v>-3403228196</v>
+        <v>-1453689952</v>
       </c>
       <c r="U6">
-        <v>-2758864194</v>
+        <v>-4067648306</v>
       </c>
       <c r="V6">
-        <v>-5110677395</v>
+        <v>-12449932055</v>
       </c>
       <c r="W6">
-        <v>-29510193610</v>
+        <v>-7426231074</v>
       </c>
       <c r="X6">
-        <v>-2514471056</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="G7">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>9100</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K7">
-        <v>12905000</v>
+        <v>7206940</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>20924</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>27659</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>11818</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>2838</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>4563</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>-1222</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>2413</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>3190</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>-862</v>
       </c>
       <c r="Y7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F8">
-        <v>1049482</v>
+        <v>3600000</v>
       </c>
       <c r="G8">
-        <v>944534</v>
+        <v>3600000</v>
       </c>
       <c r="H8">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>12800</v>
+        <v>5000</v>
       </c>
       <c r="J8">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="K8">
-        <v>6261485</v>
+        <v>17306490</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="P8">
-        <v>34557425427</v>
+        <v>21976760922</v>
       </c>
       <c r="Q8">
-        <v>39824841246</v>
+        <v>15839004968</v>
       </c>
       <c r="R8">
-        <v>23231897516</v>
+        <v>6887755932</v>
       </c>
       <c r="S8">
-        <v>3011651602</v>
+        <v>-2217897363</v>
       </c>
       <c r="T8">
-        <v>2384643399</v>
+        <v>-3403228196</v>
       </c>
       <c r="U8">
-        <v>4436005255</v>
+        <v>-2758864194</v>
       </c>
       <c r="V8">
-        <v>2755379556</v>
+        <v>-5110677395</v>
       </c>
       <c r="W8">
-        <v>1176755354</v>
+        <v>-29510193610</v>
       </c>
       <c r="X8">
-        <v>4046949430</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F9">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="G9">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="K9">
-        <v>11287196</v>
+        <v>12905000</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
         <v>120</v>
       </c>
       <c r="P9">
-        <v>50552623684</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>69013134090</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>16887814423</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>9027232647</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>15707796256</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>555562560</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>9236341465</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>13159994846</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>1236029732</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1528,34 +1549,34 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F10">
-        <v>1800000</v>
+        <v>1049482</v>
       </c>
       <c r="G10">
-        <v>1800000</v>
+        <v>944534</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I10">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="J10">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="K10">
-        <v>10193520</v>
+        <v>6261485</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1564,40 +1585,40 @@
         <v>17000</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P10">
-        <v>3952070068</v>
+        <v>34557425427</v>
       </c>
       <c r="Q10">
-        <v>10789274729</v>
+        <v>39824841246</v>
       </c>
       <c r="R10">
-        <v>6040367765</v>
+        <v>23231897516</v>
       </c>
       <c r="S10">
-        <v>-4741577598</v>
+        <v>3011651602</v>
       </c>
       <c r="T10">
-        <v>-3671026788</v>
+        <v>2384643399</v>
       </c>
       <c r="U10">
-        <v>-3292521363</v>
+        <v>4436005255</v>
       </c>
       <c r="V10">
-        <v>-3654889267</v>
+        <v>2755379556</v>
       </c>
       <c r="W10">
-        <v>-2281074471</v>
+        <v>1176755354</v>
       </c>
       <c r="X10">
-        <v>-2539505707</v>
+        <v>4046949430</v>
       </c>
       <c r="Y10" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1608,73 +1629,73 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="G11">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="J11">
-        <v>5600</v>
+        <v>3900</v>
       </c>
       <c r="K11">
-        <v>16120000</v>
+        <v>11287196</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="N11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O11" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P11">
-        <v>26691070764</v>
+        <v>50552623684</v>
       </c>
       <c r="Q11">
-        <v>22835113396</v>
+        <v>69013134090</v>
       </c>
       <c r="R11">
-        <v>7519073723</v>
+        <v>16887814423</v>
       </c>
       <c r="S11">
-        <v>6041270235</v>
+        <v>9027232647</v>
       </c>
       <c r="T11">
-        <v>6705120210</v>
+        <v>15707796256</v>
       </c>
       <c r="U11">
-        <v>982044017</v>
+        <v>555562560</v>
       </c>
       <c r="V11">
-        <v>5119066139</v>
+        <v>9236341465</v>
       </c>
       <c r="W11">
-        <v>5870093710</v>
+        <v>13159994846</v>
       </c>
       <c r="X11">
-        <v>1198587470</v>
+        <v>1236029732</v>
       </c>
       <c r="Y11" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1682,76 +1703,76 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F12">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="G12">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>8200</v>
+        <v>13000</v>
       </c>
       <c r="J12">
-        <v>9400</v>
+        <v>15000</v>
       </c>
       <c r="K12">
-        <v>7674103</v>
+        <v>10193520</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="N12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O12" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P12">
-        <v>8242508010</v>
+        <v>3952070068</v>
       </c>
       <c r="Q12">
-        <v>10751900430</v>
+        <v>10789274729</v>
       </c>
       <c r="R12">
-        <v>4416778965</v>
+        <v>6040367765</v>
       </c>
       <c r="S12">
-        <v>426234451</v>
+        <v>-4741577598</v>
       </c>
       <c r="T12">
-        <v>2423749751</v>
+        <v>-3671026788</v>
       </c>
       <c r="U12">
-        <v>677048172</v>
+        <v>-3292521363</v>
       </c>
       <c r="V12">
-        <v>57890953</v>
+        <v>-3654889267</v>
       </c>
       <c r="W12">
-        <v>2826043673</v>
+        <v>-2281074471</v>
       </c>
       <c r="X12">
-        <v>990121873</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1759,76 +1780,76 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
         <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="G13">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="J13">
-        <v>25000</v>
+        <v>5600</v>
       </c>
       <c r="K13">
-        <v>9039778</v>
+        <v>16120000</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="N13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O13" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P13">
-        <v>104225113285</v>
+        <v>26691070764</v>
       </c>
       <c r="Q13">
-        <v>106505634411</v>
+        <v>22835113396</v>
       </c>
       <c r="R13">
-        <v>66424930568</v>
+        <v>7519073723</v>
       </c>
       <c r="S13">
-        <v>6291020806</v>
+        <v>6041270235</v>
       </c>
       <c r="T13">
-        <v>7893242769</v>
+        <v>6705120210</v>
       </c>
       <c r="U13">
-        <v>7661497240</v>
+        <v>982044017</v>
       </c>
       <c r="V13">
-        <v>7319368873</v>
+        <v>5119066139</v>
       </c>
       <c r="W13">
-        <v>9286891982</v>
+        <v>5870093710</v>
       </c>
       <c r="X13">
-        <v>7334816490</v>
+        <v>1198587470</v>
       </c>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1836,76 +1857,76 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="G14">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21000</v>
+        <v>8200</v>
       </c>
       <c r="J14">
-        <v>26000</v>
+        <v>9400</v>
       </c>
       <c r="K14">
-        <v>64819980</v>
+        <v>7674103</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P14">
-        <v>36980</v>
+        <v>8242508010</v>
       </c>
       <c r="Q14">
-        <v>44954</v>
+        <v>10751900430</v>
       </c>
       <c r="R14">
-        <v>23652</v>
+        <v>4416778965</v>
       </c>
       <c r="S14">
-        <v>-7085</v>
+        <v>426234451</v>
       </c>
       <c r="T14">
-        <v>-13228</v>
+        <v>2423749751</v>
       </c>
       <c r="U14">
-        <v>-9932</v>
+        <v>677048172</v>
       </c>
       <c r="V14">
-        <v>-7417</v>
+        <v>57890953</v>
       </c>
       <c r="W14">
-        <v>-12548</v>
+        <v>2826043673</v>
       </c>
       <c r="X14">
-        <v>-9333</v>
+        <v>990121873</v>
       </c>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1916,73 +1937,73 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F15">
-        <v>18000000</v>
+        <v>2000000</v>
       </c>
       <c r="G15">
-        <v>18000000</v>
+        <v>2000000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="K15">
-        <v>18905000</v>
+        <v>9039778</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O15" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>104225113285</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>106505634411</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>66424930568</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>6291020806</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>7893242769</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>7661497240</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>7319368873</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>9286891982</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>7334816490</v>
       </c>
       <c r="Y15" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1990,461 +2011,615 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="G16">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>8900</v>
+        <v>21000</v>
       </c>
       <c r="J16">
-        <v>11000</v>
+        <v>26000</v>
       </c>
       <c r="K16">
-        <v>5447675</v>
+        <v>64819980</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="N16" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O16" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="P16">
-        <v>18408761227</v>
+        <v>36980</v>
       </c>
       <c r="Q16">
-        <v>21902816604</v>
+        <v>44954</v>
       </c>
       <c r="R16">
-        <v>8176918465</v>
+        <v>23652</v>
       </c>
       <c r="S16">
-        <v>3669182465</v>
+        <v>-7085</v>
       </c>
       <c r="T16">
-        <v>1851925471</v>
+        <v>-13228</v>
       </c>
       <c r="U16">
-        <v>590566592</v>
+        <v>-9932</v>
       </c>
       <c r="V16">
-        <v>3633973594</v>
+        <v>-7417</v>
       </c>
       <c r="W16">
-        <v>2205418963</v>
+        <v>-12548</v>
       </c>
       <c r="X16">
-        <v>592903151</v>
+        <v>-9333</v>
       </c>
       <c r="Y16" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
         <v>45</v>
       </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F17">
-        <v>2240000</v>
+        <v>18000000</v>
       </c>
       <c r="G17">
-        <v>1640000</v>
+        <v>18000000</v>
       </c>
       <c r="H17">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>11500</v>
+        <v>2000</v>
       </c>
       <c r="J17">
-        <v>13200</v>
+        <v>2000</v>
       </c>
       <c r="K17">
-        <v>10969386</v>
+        <v>18905000</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="N17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P17">
-        <v>22818451349</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>30491967755</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>18040053709</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>2313787613</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>4014101926</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>1878997667</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>559427078</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>-711183147</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>1929682988</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F18">
-        <v>1580000</v>
+        <v>1500000</v>
       </c>
       <c r="G18">
-        <v>1580000</v>
+        <v>1500000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10500</v>
+        <v>8900</v>
       </c>
       <c r="J18">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="K18">
-        <v>7874611</v>
+        <v>5447675</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="N18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O18" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P18">
-        <v>7327878427</v>
+        <v>18408761227</v>
       </c>
       <c r="Q18">
-        <v>10756717708</v>
+        <v>21902816604</v>
       </c>
       <c r="R18">
-        <v>4113702647</v>
+        <v>8176918465</v>
       </c>
       <c r="S18">
-        <v>-588932080</v>
+        <v>3669182465</v>
       </c>
       <c r="T18">
-        <v>254042570</v>
+        <v>1851925471</v>
       </c>
       <c r="U18">
-        <v>-738698858</v>
+        <v>590566592</v>
       </c>
       <c r="V18">
-        <v>-569358529</v>
+        <v>3633973594</v>
       </c>
       <c r="W18">
-        <v>-429546963</v>
+        <v>2205418963</v>
       </c>
       <c r="X18">
-        <v>-550600734</v>
+        <v>592903151</v>
       </c>
       <c r="Y18" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F19">
-        <v>1500000</v>
+        <v>2240000</v>
       </c>
       <c r="G19">
-        <v>1500000</v>
+        <v>1640000</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I19">
-        <v>20000</v>
+        <v>11500</v>
       </c>
       <c r="J19">
-        <v>23000</v>
+        <v>13200</v>
       </c>
       <c r="K19">
-        <v>8110389</v>
+        <v>10969386</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="N19" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P19">
-        <v>28857</v>
+        <v>22818451349</v>
       </c>
       <c r="Q19">
-        <v>45830</v>
+        <v>30491967755</v>
       </c>
       <c r="R19">
-        <v>25997</v>
+        <v>18040053709</v>
       </c>
       <c r="S19">
-        <v>-14511</v>
+        <v>2313787613</v>
       </c>
       <c r="T19">
-        <v>4169</v>
+        <v>4014101926</v>
       </c>
       <c r="U19">
-        <v>4958</v>
+        <v>1878997667</v>
       </c>
       <c r="V19">
-        <v>-34842</v>
+        <v>559427078</v>
       </c>
       <c r="W19">
-        <v>13350</v>
+        <v>-711183147</v>
       </c>
       <c r="X19">
-        <v>5128</v>
+        <v>1929682988</v>
       </c>
       <c r="Y19" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
         <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F20">
-        <v>1100000</v>
+        <v>1580000</v>
       </c>
       <c r="G20">
-        <v>900000</v>
+        <v>1580000</v>
       </c>
       <c r="H20">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J20">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="K20">
-        <v>4901526</v>
+        <v>7874611</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="N20" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O20" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="P20">
-        <v>32608351</v>
+        <v>7327878427</v>
       </c>
       <c r="Q20">
-        <v>43629717</v>
+        <v>10756717708</v>
       </c>
       <c r="R20">
-        <v>14011366</v>
+        <v>4113702647</v>
       </c>
       <c r="S20">
-        <v>4301870</v>
+        <v>-588932080</v>
       </c>
       <c r="T20">
-        <v>7039261</v>
+        <v>254042570</v>
       </c>
       <c r="U20">
-        <v>316611</v>
+        <v>-738698858</v>
       </c>
       <c r="V20">
-        <v>4422483</v>
+        <v>-569358529</v>
       </c>
       <c r="W20">
-        <v>5391712</v>
+        <v>-429546963</v>
       </c>
       <c r="X20">
-        <v>180579</v>
+        <v>-550600734</v>
       </c>
       <c r="Y20" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21">
+        <v>1500000</v>
+      </c>
+      <c r="G21">
+        <v>1500000</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>20000</v>
+      </c>
+      <c r="J21">
+        <v>23000</v>
+      </c>
+      <c r="K21">
+        <v>8110389</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>23000</v>
+      </c>
+      <c r="N21" t="s">
+        <v>115</v>
+      </c>
+      <c r="O21" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21">
+        <v>28857</v>
+      </c>
+      <c r="Q21">
+        <v>45830</v>
+      </c>
+      <c r="R21">
+        <v>25997</v>
+      </c>
+      <c r="S21">
+        <v>-14511</v>
+      </c>
+      <c r="T21">
+        <v>4169</v>
+      </c>
+      <c r="U21">
+        <v>4958</v>
+      </c>
+      <c r="V21">
+        <v>-34842</v>
+      </c>
+      <c r="W21">
+        <v>13350</v>
+      </c>
+      <c r="X21">
+        <v>5128</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
         <v>72</v>
       </c>
-      <c r="E21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21">
+      <c r="E22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22">
+        <v>1100000</v>
+      </c>
+      <c r="G22">
+        <v>900000</v>
+      </c>
+      <c r="H22">
+        <v>200000</v>
+      </c>
+      <c r="I22">
+        <v>20000</v>
+      </c>
+      <c r="J22">
+        <v>24000</v>
+      </c>
+      <c r="K22">
+        <v>4901526</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>24000</v>
+      </c>
+      <c r="N22" t="s">
+        <v>116</v>
+      </c>
+      <c r="O22" t="s">
+        <v>136</v>
+      </c>
+      <c r="P22">
+        <v>32608351</v>
+      </c>
+      <c r="Q22">
+        <v>43629717</v>
+      </c>
+      <c r="R22">
+        <v>14011366</v>
+      </c>
+      <c r="S22">
+        <v>4301870</v>
+      </c>
+      <c r="T22">
+        <v>7039261</v>
+      </c>
+      <c r="U22">
+        <v>316611</v>
+      </c>
+      <c r="V22">
+        <v>4422483</v>
+      </c>
+      <c r="W22">
+        <v>5391712</v>
+      </c>
+      <c r="X22">
+        <v>180579</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23">
         <v>4500000</v>
       </c>
-      <c r="G21">
+      <c r="G23">
         <v>4500000</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>2000</v>
       </c>
-      <c r="J21">
+      <c r="J23">
         <v>2000</v>
       </c>
-      <c r="K21">
+      <c r="K23">
         <v>5220000</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>2000</v>
       </c>
-      <c r="N21" t="s">
-        <v>112</v>
-      </c>
-      <c r="O21" t="s">
-        <v>118</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>150</v>
+      <c r="N23" t="s">
+        <v>117</v>
+      </c>
+      <c r="O23" t="s">
+        <v>120</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="157">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -139,9 +139,6 @@
     <t>2023-09-07</t>
   </si>
   <si>
-    <t>2023-08-28</t>
-  </si>
-  <si>
     <t>2023-10-26</t>
   </si>
   <si>
@@ -163,15 +160,15 @@
     <t>2023-09-13</t>
   </si>
   <si>
-    <t>2023-08-29</t>
-  </si>
-  <si>
     <t>2023-11-09</t>
   </si>
   <si>
     <t>2023-11-13</t>
   </si>
   <si>
+    <t>2023-11-14</t>
+  </si>
+  <si>
     <t>2023-11-10</t>
   </si>
   <si>
@@ -202,6 +199,9 @@
     <t>한국</t>
   </si>
   <si>
+    <t>KB</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
@@ -211,9 +211,6 @@
     <t>IBK</t>
   </si>
   <si>
-    <t>KB</t>
-  </si>
-  <si>
     <t>신한</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
     <t>신영</t>
   </si>
   <si>
-    <t>상상인</t>
-  </si>
-  <si>
     <t>큐로셀</t>
   </si>
   <si>
@@ -247,6 +241,9 @@
     <t>한국제13호스팩</t>
   </si>
   <si>
+    <t>에스와이스틸텍</t>
+  </si>
+  <si>
     <t>메가터치</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
     <t>인스웨이브시스템즈</t>
   </si>
   <si>
-    <t>상상인제4호스팩</t>
-  </si>
-  <si>
     <t>20.88:1</t>
   </si>
   <si>
@@ -313,6 +307,9 @@
     <t>745.80:1</t>
   </si>
   <si>
+    <t>1,113.85:1</t>
+  </si>
+  <si>
     <t>765.86:1</t>
   </si>
   <si>
@@ -367,9 +364,6 @@
     <t>672.42:1</t>
   </si>
   <si>
-    <t>655.64:1</t>
-  </si>
-  <si>
     <t>4.74%</t>
   </si>
   <si>
@@ -379,6 +373,9 @@
     <t>-</t>
   </si>
   <si>
+    <t>6.69%</t>
+  </si>
+  <si>
     <t>9.25%</t>
   </si>
   <si>
@@ -436,6 +433,9 @@
     <t>기업인수합병</t>
   </si>
   <si>
+    <t>데크플레이트</t>
+  </si>
+  <si>
     <t>배터리 핀, 반도체 핀</t>
   </si>
   <si>
@@ -485,9 +485,6 @@
   </si>
   <si>
     <t>UI/UX 개발 솔루션, 엔터프라이즈 DX 솔루션, 금융 단말 솔루션 등</t>
-  </si>
-  <si>
-    <t>합병</t>
   </si>
 </sst>
 </file>
@@ -933,16 +930,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2">
         <v>1600000</v>
@@ -969,10 +966,10 @@
         <v>20000</v>
       </c>
       <c r="N2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1002,7 +999,7 @@
         <v>-12610702106</v>
       </c>
       <c r="Y2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1010,16 +1007,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F3">
         <v>2636330</v>
@@ -1046,10 +1043,10 @@
         <v>25000</v>
       </c>
       <c r="N3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P3">
         <v>45195788</v>
@@ -1079,7 +1076,7 @@
         <v>2327401</v>
       </c>
       <c r="Y3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1087,16 +1084,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F4">
         <v>4000000</v>
@@ -1123,10 +1120,10 @@
         <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1156,84 +1153,84 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F5">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="G5">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J5">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K5">
-        <v>20771000</v>
+        <v>30610000</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="N5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P5">
-        <v>39450601</v>
+        <v>67332006578</v>
       </c>
       <c r="Q5">
-        <v>49044883</v>
+        <v>100050838794</v>
       </c>
       <c r="R5">
-        <v>21826468</v>
+        <v>63366010569</v>
       </c>
       <c r="S5">
-        <v>2477559</v>
+        <v>1140243099</v>
       </c>
       <c r="T5">
-        <v>8094900</v>
+        <v>8333440685</v>
       </c>
       <c r="U5">
-        <v>215154</v>
+        <v>7415958936</v>
       </c>
       <c r="V5">
-        <v>3427734</v>
+        <v>668088159</v>
       </c>
       <c r="W5">
-        <v>6575528</v>
+        <v>5930478364</v>
       </c>
       <c r="X5">
-        <v>349843</v>
+        <v>5666583221</v>
       </c>
       <c r="Y5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1241,804 +1238,804 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F6">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="G6">
-        <v>2000000</v>
+        <v>5200000</v>
       </c>
       <c r="H6">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J6">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K6">
-        <v>14384224</v>
+        <v>20771000</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="N6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P6">
-        <v>5787300240</v>
+        <v>39450601</v>
       </c>
       <c r="Q6">
-        <v>1914633847</v>
+        <v>49044883</v>
       </c>
       <c r="R6">
-        <v>3156092272</v>
+        <v>21826468</v>
       </c>
       <c r="S6">
-        <v>-1798278694</v>
+        <v>2477559</v>
       </c>
       <c r="T6">
-        <v>-1453689952</v>
+        <v>8094900</v>
       </c>
       <c r="U6">
-        <v>-4067648306</v>
+        <v>215154</v>
       </c>
       <c r="V6">
-        <v>-12449932055</v>
+        <v>3427734</v>
       </c>
       <c r="W6">
-        <v>-7426231074</v>
+        <v>6575528</v>
       </c>
       <c r="X6">
-        <v>-52132058866</v>
+        <v>349843</v>
       </c>
       <c r="Y6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F7">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="G7">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I7">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J7">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K7">
-        <v>7206940</v>
+        <v>14384224</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="N7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P7">
-        <v>20924</v>
+        <v>5787300240</v>
       </c>
       <c r="Q7">
-        <v>27659</v>
+        <v>1914633847</v>
       </c>
       <c r="R7">
-        <v>11818</v>
+        <v>3156092272</v>
       </c>
       <c r="S7">
-        <v>2838</v>
+        <v>-1798278694</v>
       </c>
       <c r="T7">
-        <v>4563</v>
+        <v>-1453689952</v>
       </c>
       <c r="U7">
-        <v>-1222</v>
+        <v>-4067648306</v>
       </c>
       <c r="V7">
-        <v>2413</v>
+        <v>-12449932055</v>
       </c>
       <c r="W7">
-        <v>3190</v>
+        <v>-7426231074</v>
       </c>
       <c r="X7">
-        <v>-862</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F8">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="G8">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J8">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K8">
-        <v>17306490</v>
+        <v>7206940</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P8">
-        <v>21976760922</v>
+        <v>20924</v>
       </c>
       <c r="Q8">
-        <v>15839004968</v>
+        <v>27659</v>
       </c>
       <c r="R8">
-        <v>6887755932</v>
+        <v>11818</v>
       </c>
       <c r="S8">
-        <v>-2217897363</v>
+        <v>2838</v>
       </c>
       <c r="T8">
-        <v>-3403228196</v>
+        <v>4563</v>
       </c>
       <c r="U8">
-        <v>-2758864194</v>
+        <v>-1222</v>
       </c>
       <c r="V8">
-        <v>-5110677395</v>
+        <v>2413</v>
       </c>
       <c r="W8">
-        <v>-29510193610</v>
+        <v>3190</v>
       </c>
       <c r="X8">
-        <v>-2514471056</v>
+        <v>-862</v>
       </c>
       <c r="Y8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F9">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="G9">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K9">
-        <v>12905000</v>
+        <v>17306490</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>21976760922</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>15839004968</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>6887755932</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>-2217897363</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>-3403228196</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>-2758864194</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>-5110677395</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>-29510193610</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F10">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="G10">
-        <v>944534</v>
+        <v>12500000</v>
       </c>
       <c r="H10">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K10">
-        <v>6261485</v>
+        <v>12905000</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="P10">
-        <v>34557425427</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>39824841246</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>23231897516</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>3011651602</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>2384643399</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>4436005255</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>2755379556</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>1176755354</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>4046949430</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F11">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="G11">
-        <v>1128720</v>
+        <v>944534</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I11">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J11">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K11">
-        <v>11287196</v>
+        <v>6261485</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P11">
-        <v>50552623684</v>
+        <v>34557425427</v>
       </c>
       <c r="Q11">
-        <v>69013134090</v>
+        <v>39824841246</v>
       </c>
       <c r="R11">
-        <v>16887814423</v>
+        <v>23231897516</v>
       </c>
       <c r="S11">
-        <v>9027232647</v>
+        <v>3011651602</v>
       </c>
       <c r="T11">
-        <v>15707796256</v>
+        <v>2384643399</v>
       </c>
       <c r="U11">
-        <v>555562560</v>
+        <v>4436005255</v>
       </c>
       <c r="V11">
-        <v>9236341465</v>
+        <v>2755379556</v>
       </c>
       <c r="W11">
-        <v>13159994846</v>
+        <v>1176755354</v>
       </c>
       <c r="X11">
-        <v>1236029732</v>
+        <v>4046949430</v>
       </c>
       <c r="Y11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F12">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="G12">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J12">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K12">
-        <v>10193520</v>
+        <v>11287196</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="N12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P12">
-        <v>3952070068</v>
+        <v>50552623684</v>
       </c>
       <c r="Q12">
-        <v>10789274729</v>
+        <v>69013134090</v>
       </c>
       <c r="R12">
-        <v>6040367765</v>
+        <v>16887814423</v>
       </c>
       <c r="S12">
-        <v>-4741577598</v>
+        <v>9027232647</v>
       </c>
       <c r="T12">
-        <v>-3671026788</v>
+        <v>15707796256</v>
       </c>
       <c r="U12">
-        <v>-3292521363</v>
+        <v>555562560</v>
       </c>
       <c r="V12">
-        <v>-3654889267</v>
+        <v>9236341465</v>
       </c>
       <c r="W12">
-        <v>-2281074471</v>
+        <v>13159994846</v>
       </c>
       <c r="X12">
-        <v>-2539505707</v>
+        <v>1236029732</v>
       </c>
       <c r="Y12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F13">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="G13">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J13">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K13">
-        <v>16120000</v>
+        <v>10193520</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="N13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P13">
-        <v>26691070764</v>
+        <v>3952070068</v>
       </c>
       <c r="Q13">
-        <v>22835113396</v>
+        <v>10789274729</v>
       </c>
       <c r="R13">
-        <v>7519073723</v>
+        <v>6040367765</v>
       </c>
       <c r="S13">
-        <v>6041270235</v>
+        <v>-4741577598</v>
       </c>
       <c r="T13">
-        <v>6705120210</v>
+        <v>-3671026788</v>
       </c>
       <c r="U13">
-        <v>982044017</v>
+        <v>-3292521363</v>
       </c>
       <c r="V13">
-        <v>5119066139</v>
+        <v>-3654889267</v>
       </c>
       <c r="W13">
-        <v>5870093710</v>
+        <v>-2281074471</v>
       </c>
       <c r="X13">
-        <v>1198587470</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F14">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="G14">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J14">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K14">
-        <v>7674103</v>
+        <v>16120000</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P14">
-        <v>8242508010</v>
+        <v>26691070764</v>
       </c>
       <c r="Q14">
-        <v>10751900430</v>
+        <v>22835113396</v>
       </c>
       <c r="R14">
-        <v>4416778965</v>
+        <v>7519073723</v>
       </c>
       <c r="S14">
-        <v>426234451</v>
+        <v>6041270235</v>
       </c>
       <c r="T14">
-        <v>2423749751</v>
+        <v>6705120210</v>
       </c>
       <c r="U14">
-        <v>677048172</v>
+        <v>982044017</v>
       </c>
       <c r="V14">
-        <v>57890953</v>
+        <v>5119066139</v>
       </c>
       <c r="W14">
-        <v>2826043673</v>
+        <v>5870093710</v>
       </c>
       <c r="X14">
-        <v>990121873</v>
+        <v>1198587470</v>
       </c>
       <c r="Y14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F15">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="G15">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J15">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K15">
-        <v>9039778</v>
+        <v>7674103</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P15">
-        <v>104225113285</v>
+        <v>8242508010</v>
       </c>
       <c r="Q15">
-        <v>106505634411</v>
+        <v>10751900430</v>
       </c>
       <c r="R15">
-        <v>66424930568</v>
+        <v>4416778965</v>
       </c>
       <c r="S15">
-        <v>6291020806</v>
+        <v>426234451</v>
       </c>
       <c r="T15">
-        <v>7893242769</v>
+        <v>2423749751</v>
       </c>
       <c r="U15">
-        <v>7661497240</v>
+        <v>677048172</v>
       </c>
       <c r="V15">
-        <v>7319368873</v>
+        <v>57890953</v>
       </c>
       <c r="W15">
-        <v>9286891982</v>
+        <v>2826043673</v>
       </c>
       <c r="X15">
-        <v>7334816490</v>
+        <v>990121873</v>
       </c>
       <c r="Y15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F16">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="G16">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="J16">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K16">
-        <v>64819980</v>
+        <v>9039778</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2047,579 +2044,579 @@
         <v>26000</v>
       </c>
       <c r="N16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P16">
-        <v>36980</v>
+        <v>104225113285</v>
       </c>
       <c r="Q16">
-        <v>44954</v>
+        <v>106505634411</v>
       </c>
       <c r="R16">
-        <v>23652</v>
+        <v>66424930568</v>
       </c>
       <c r="S16">
-        <v>-7085</v>
+        <v>6291020806</v>
       </c>
       <c r="T16">
-        <v>-13228</v>
+        <v>7893242769</v>
       </c>
       <c r="U16">
-        <v>-9932</v>
+        <v>7661497240</v>
       </c>
       <c r="V16">
-        <v>-7417</v>
+        <v>7319368873</v>
       </c>
       <c r="W16">
-        <v>-12548</v>
+        <v>9286891982</v>
       </c>
       <c r="X16">
-        <v>-9333</v>
+        <v>7334816490</v>
       </c>
       <c r="Y16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F17">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="G17">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K17">
-        <v>18905000</v>
+        <v>64819980</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O17" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>36980</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>44954</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>23652</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>-7085</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>-13228</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>-9932</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>-7417</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>-12548</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>-9333</v>
       </c>
       <c r="Y17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
         <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F18">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="G18">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J18">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K18">
-        <v>5447675</v>
+        <v>18905000</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="N18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O18" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="P18">
-        <v>18408761227</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>21902816604</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>8176918465</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>3669182465</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>1851925471</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>590566592</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>3633973594</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>2205418963</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>592903151</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F19">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="G19">
-        <v>1640000</v>
+        <v>1500000</v>
       </c>
       <c r="H19">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J19">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K19">
-        <v>10969386</v>
+        <v>5447675</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P19">
-        <v>22818451349</v>
+        <v>18408761227</v>
       </c>
       <c r="Q19">
-        <v>30491967755</v>
+        <v>21902816604</v>
       </c>
       <c r="R19">
-        <v>18040053709</v>
+        <v>8176918465</v>
       </c>
       <c r="S19">
-        <v>2313787613</v>
+        <v>3669182465</v>
       </c>
       <c r="T19">
-        <v>4014101926</v>
+        <v>1851925471</v>
       </c>
       <c r="U19">
-        <v>1878997667</v>
+        <v>590566592</v>
       </c>
       <c r="V19">
-        <v>559427078</v>
+        <v>3633973594</v>
       </c>
       <c r="W19">
-        <v>-711183147</v>
+        <v>2205418963</v>
       </c>
       <c r="X19">
-        <v>1929682988</v>
+        <v>592903151</v>
       </c>
       <c r="Y19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F20">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="G20">
-        <v>1580000</v>
+        <v>1640000</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I20">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J20">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K20">
-        <v>7874611</v>
+        <v>10969386</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P20">
-        <v>7327878427</v>
+        <v>22818451349</v>
       </c>
       <c r="Q20">
-        <v>10756717708</v>
+        <v>30491967755</v>
       </c>
       <c r="R20">
-        <v>4113702647</v>
+        <v>18040053709</v>
       </c>
       <c r="S20">
-        <v>-588932080</v>
+        <v>2313787613</v>
       </c>
       <c r="T20">
-        <v>254042570</v>
+        <v>4014101926</v>
       </c>
       <c r="U20">
-        <v>-738698858</v>
+        <v>1878997667</v>
       </c>
       <c r="V20">
-        <v>-569358529</v>
+        <v>559427078</v>
       </c>
       <c r="W20">
-        <v>-429546963</v>
+        <v>-711183147</v>
       </c>
       <c r="X20">
-        <v>-550600734</v>
+        <v>1929682988</v>
       </c>
       <c r="Y20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F21">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="G21">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J21">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K21">
-        <v>8110389</v>
+        <v>7874611</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P21">
-        <v>28857</v>
+        <v>7327878427</v>
       </c>
       <c r="Q21">
-        <v>45830</v>
+        <v>10756717708</v>
       </c>
       <c r="R21">
-        <v>25997</v>
+        <v>4113702647</v>
       </c>
       <c r="S21">
-        <v>-14511</v>
+        <v>-588932080</v>
       </c>
       <c r="T21">
-        <v>4169</v>
+        <v>254042570</v>
       </c>
       <c r="U21">
-        <v>4958</v>
+        <v>-738698858</v>
       </c>
       <c r="V21">
-        <v>-34842</v>
+        <v>-569358529</v>
       </c>
       <c r="W21">
-        <v>13350</v>
+        <v>-429546963</v>
       </c>
       <c r="X21">
-        <v>5128</v>
+        <v>-550600734</v>
       </c>
       <c r="Y21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F22">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="G22">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H22">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>20000</v>
       </c>
       <c r="J22">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="K22">
-        <v>4901526</v>
+        <v>8110389</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="N22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P22">
-        <v>32608351</v>
+        <v>28857</v>
       </c>
       <c r="Q22">
-        <v>43629717</v>
+        <v>45830</v>
       </c>
       <c r="R22">
-        <v>14011366</v>
+        <v>25997</v>
       </c>
       <c r="S22">
-        <v>4301870</v>
+        <v>-14511</v>
       </c>
       <c r="T22">
-        <v>7039261</v>
+        <v>4169</v>
       </c>
       <c r="U22">
-        <v>316611</v>
+        <v>4958</v>
       </c>
       <c r="V22">
-        <v>4422483</v>
+        <v>-34842</v>
       </c>
       <c r="W22">
-        <v>5391712</v>
+        <v>13350</v>
       </c>
       <c r="X22">
-        <v>180579</v>
+        <v>5128</v>
       </c>
       <c r="Y22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F23">
-        <v>4500000</v>
+        <v>1100000</v>
       </c>
       <c r="G23">
-        <v>4500000</v>
+        <v>900000</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="I23">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="J23">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="K23">
-        <v>5220000</v>
+        <v>4901526</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="N23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O23" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>32608351</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>43629717</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>14011366</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>4301870</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>7039261</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>316611</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>4422483</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>5391712</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>180579</v>
       </c>
       <c r="Y23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="163">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
     <t>2023-10-20</t>
   </si>
   <si>
@@ -139,7 +142,7 @@
     <t>2023-09-07</t>
   </si>
   <si>
-    <t>2023-10-26</t>
+    <t>2023-11-01</t>
   </si>
   <si>
     <t>2023-10-27</t>
@@ -160,6 +163,9 @@
     <t>2023-09-13</t>
   </si>
   <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
     <t>2023-11-09</t>
   </si>
   <si>
@@ -190,6 +196,9 @@
     <t>2023-09-25</t>
   </si>
   <si>
+    <t>NH</t>
+  </si>
+  <si>
     <t>미래, 삼성</t>
   </si>
   <si>
@@ -202,9 +211,6 @@
     <t>KB</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>대신</t>
   </si>
   <si>
@@ -232,6 +238,9 @@
     <t>신영</t>
   </si>
   <si>
+    <t>캡스톤파트너스</t>
+  </si>
+  <si>
     <t>큐로셀</t>
   </si>
   <si>
@@ -298,6 +307,9 @@
     <t>인스웨이브시스템즈</t>
   </si>
   <si>
+    <t>952.78</t>
+  </si>
+  <si>
     <t>20.88:1</t>
   </si>
   <si>
@@ -364,6 +376,9 @@
     <t>672.42:1</t>
   </si>
   <si>
+    <t>0.19%</t>
+  </si>
+  <si>
     <t>4.74%</t>
   </si>
   <si>
@@ -422,6 +437,9 @@
   </si>
   <si>
     <t>7.46%</t>
+  </si>
+  <si>
+    <t>벤처투자조합 등 조합 결성 및 운영</t>
   </si>
   <si>
     <t>CAR-T 세포치료제</t>
@@ -842,7 +860,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -930,76 +948,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F2">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="G2">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J2">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K2">
-        <v>13612736</v>
+        <v>13346380</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="N2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7668281979</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>7100921456</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1207846478</v>
       </c>
       <c r="S2">
-        <v>-15286512079</v>
+        <v>5659403971</v>
       </c>
       <c r="T2">
-        <v>-21424611321</v>
+        <v>6124121466</v>
       </c>
       <c r="U2">
-        <v>-139745251263</v>
+        <v>940668827</v>
       </c>
       <c r="V2">
-        <v>-53575668634</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>-38885125426</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-12610702106</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1007,76 +1025,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F3">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="G3">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J3">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K3">
-        <v>10585320</v>
+        <v>13612736</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P3">
-        <v>45195788</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>69629209</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>35634471</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>2751277</v>
+        <v>-15286512079</v>
       </c>
       <c r="T3">
-        <v>11449731</v>
+        <v>-21424611321</v>
       </c>
       <c r="U3">
-        <v>2482194</v>
+        <v>-139745251263</v>
       </c>
       <c r="V3">
-        <v>2092692</v>
+        <v>-53575668634</v>
       </c>
       <c r="W3">
-        <v>5149538</v>
+        <v>-38885125426</v>
       </c>
       <c r="X3">
-        <v>2327401</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1084,384 +1102,384 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F4">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="G4">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K4">
-        <v>4320000</v>
+        <v>10585320</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="N4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>45195788</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>69629209</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>35634471</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2751277</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>11449731</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>2482194</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>2092692</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>5149538</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>2327401</v>
       </c>
       <c r="Y4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F5">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="G5">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K5">
-        <v>30610000</v>
+        <v>4320000</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P5">
-        <v>67332006578</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>100050838794</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>63366010569</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>1140243099</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>8333440685</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>7415958936</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>668088159</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>5930478364</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>5666583221</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F6">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="G6">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J6">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K6">
-        <v>20771000</v>
+        <v>30610000</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="N6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P6">
-        <v>39450601</v>
+        <v>67332006578</v>
       </c>
       <c r="Q6">
-        <v>49044883</v>
+        <v>100050838794</v>
       </c>
       <c r="R6">
-        <v>21826468</v>
+        <v>63366010569</v>
       </c>
       <c r="S6">
-        <v>2477559</v>
+        <v>1140243099</v>
       </c>
       <c r="T6">
-        <v>8094900</v>
+        <v>8333440685</v>
       </c>
       <c r="U6">
-        <v>215154</v>
+        <v>7415958936</v>
       </c>
       <c r="V6">
-        <v>3427734</v>
+        <v>668088159</v>
       </c>
       <c r="W6">
-        <v>6575528</v>
+        <v>5930478364</v>
       </c>
       <c r="X6">
-        <v>349843</v>
+        <v>5666583221</v>
       </c>
       <c r="Y6" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F7">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="G7">
-        <v>2000000</v>
+        <v>5200000</v>
       </c>
       <c r="H7">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J7">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K7">
-        <v>14384224</v>
+        <v>20771000</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P7">
-        <v>5787300240</v>
+        <v>39450601</v>
       </c>
       <c r="Q7">
-        <v>1914633847</v>
+        <v>49044883</v>
       </c>
       <c r="R7">
-        <v>3156092272</v>
+        <v>21826468</v>
       </c>
       <c r="S7">
-        <v>-1798278694</v>
+        <v>2477559</v>
       </c>
       <c r="T7">
-        <v>-1453689952</v>
+        <v>8094900</v>
       </c>
       <c r="U7">
-        <v>-4067648306</v>
+        <v>215154</v>
       </c>
       <c r="V7">
-        <v>-12449932055</v>
+        <v>3427734</v>
       </c>
       <c r="W7">
-        <v>-7426231074</v>
+        <v>6575528</v>
       </c>
       <c r="X7">
-        <v>-52132058866</v>
+        <v>349843</v>
       </c>
       <c r="Y7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F8">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="G8">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I8">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J8">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K8">
-        <v>7206940</v>
+        <v>14384224</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P8">
-        <v>20924</v>
+        <v>5787300240</v>
       </c>
       <c r="Q8">
-        <v>27659</v>
+        <v>1914633847</v>
       </c>
       <c r="R8">
-        <v>11818</v>
+        <v>3156092272</v>
       </c>
       <c r="S8">
-        <v>2838</v>
+        <v>-1798278694</v>
       </c>
       <c r="T8">
-        <v>4563</v>
+        <v>-1453689952</v>
       </c>
       <c r="U8">
-        <v>-1222</v>
+        <v>-4067648306</v>
       </c>
       <c r="V8">
-        <v>2413</v>
+        <v>-12449932055</v>
       </c>
       <c r="W8">
-        <v>3190</v>
+        <v>-7426231074</v>
       </c>
       <c r="X8">
-        <v>-862</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1469,227 +1487,227 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F9">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="G9">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J9">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K9">
-        <v>17306490</v>
+        <v>7206940</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P9">
-        <v>21976760922</v>
+        <v>20924</v>
       </c>
       <c r="Q9">
-        <v>15839004968</v>
+        <v>27659</v>
       </c>
       <c r="R9">
-        <v>6887755932</v>
+        <v>11818</v>
       </c>
       <c r="S9">
-        <v>-2217897363</v>
+        <v>2838</v>
       </c>
       <c r="T9">
-        <v>-3403228196</v>
+        <v>4563</v>
       </c>
       <c r="U9">
-        <v>-2758864194</v>
+        <v>-1222</v>
       </c>
       <c r="V9">
-        <v>-5110677395</v>
+        <v>2413</v>
       </c>
       <c r="W9">
-        <v>-29510193610</v>
+        <v>3190</v>
       </c>
       <c r="X9">
-        <v>-2514471056</v>
+        <v>-862</v>
       </c>
       <c r="Y9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F10">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="G10">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K10">
-        <v>12905000</v>
+        <v>17306490</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>21976760922</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>15839004968</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>6887755932</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>-2217897363</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>-3403228196</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>-2758864194</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>-5110677395</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>-29510193610</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y10" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F11">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="G11">
-        <v>944534</v>
+        <v>12500000</v>
       </c>
       <c r="H11">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J11">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K11">
-        <v>6261485</v>
+        <v>12905000</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P11">
-        <v>34557425427</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>39824841246</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>23231897516</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>3011651602</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>2384643399</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>4436005255</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>2755379556</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>1176755354</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>4046949430</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="s">
         <v>144</v>
@@ -1700,76 +1718,76 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F12">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="G12">
-        <v>1128720</v>
+        <v>944534</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I12">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J12">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K12">
-        <v>11287196</v>
+        <v>6261485</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="N12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P12">
-        <v>50552623684</v>
+        <v>34557425427</v>
       </c>
       <c r="Q12">
-        <v>69013134090</v>
+        <v>39824841246</v>
       </c>
       <c r="R12">
-        <v>16887814423</v>
+        <v>23231897516</v>
       </c>
       <c r="S12">
-        <v>9027232647</v>
+        <v>3011651602</v>
       </c>
       <c r="T12">
-        <v>15707796256</v>
+        <v>2384643399</v>
       </c>
       <c r="U12">
-        <v>555562560</v>
+        <v>4436005255</v>
       </c>
       <c r="V12">
-        <v>9236341465</v>
+        <v>2755379556</v>
       </c>
       <c r="W12">
-        <v>13159994846</v>
+        <v>1176755354</v>
       </c>
       <c r="X12">
-        <v>1236029732</v>
+        <v>4046949430</v>
       </c>
       <c r="Y12" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1777,76 +1795,76 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F13">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="G13">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J13">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K13">
-        <v>10193520</v>
+        <v>11287196</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="N13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O13" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="P13">
-        <v>3952070068</v>
+        <v>50552623684</v>
       </c>
       <c r="Q13">
-        <v>10789274729</v>
+        <v>69013134090</v>
       </c>
       <c r="R13">
-        <v>6040367765</v>
+        <v>16887814423</v>
       </c>
       <c r="S13">
-        <v>-4741577598</v>
+        <v>9027232647</v>
       </c>
       <c r="T13">
-        <v>-3671026788</v>
+        <v>15707796256</v>
       </c>
       <c r="U13">
-        <v>-3292521363</v>
+        <v>555562560</v>
       </c>
       <c r="V13">
-        <v>-3654889267</v>
+        <v>9236341465</v>
       </c>
       <c r="W13">
-        <v>-2281074471</v>
+        <v>13159994846</v>
       </c>
       <c r="X13">
-        <v>-2539505707</v>
+        <v>1236029732</v>
       </c>
       <c r="Y13" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1854,76 +1872,76 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F14">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="G14">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J14">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K14">
-        <v>16120000</v>
+        <v>10193520</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="N14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O14" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P14">
-        <v>26691070764</v>
+        <v>3952070068</v>
       </c>
       <c r="Q14">
-        <v>22835113396</v>
+        <v>10789274729</v>
       </c>
       <c r="R14">
-        <v>7519073723</v>
+        <v>6040367765</v>
       </c>
       <c r="S14">
-        <v>6041270235</v>
+        <v>-4741577598</v>
       </c>
       <c r="T14">
-        <v>6705120210</v>
+        <v>-3671026788</v>
       </c>
       <c r="U14">
-        <v>982044017</v>
+        <v>-3292521363</v>
       </c>
       <c r="V14">
-        <v>5119066139</v>
+        <v>-3654889267</v>
       </c>
       <c r="W14">
-        <v>5870093710</v>
+        <v>-2281074471</v>
       </c>
       <c r="X14">
-        <v>1198587470</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1931,76 +1949,76 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F15">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="G15">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J15">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K15">
-        <v>7674103</v>
+        <v>16120000</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O15" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P15">
-        <v>8242508010</v>
+        <v>26691070764</v>
       </c>
       <c r="Q15">
-        <v>10751900430</v>
+        <v>22835113396</v>
       </c>
       <c r="R15">
-        <v>4416778965</v>
+        <v>7519073723</v>
       </c>
       <c r="S15">
-        <v>426234451</v>
+        <v>6041270235</v>
       </c>
       <c r="T15">
-        <v>2423749751</v>
+        <v>6705120210</v>
       </c>
       <c r="U15">
-        <v>677048172</v>
+        <v>982044017</v>
       </c>
       <c r="V15">
-        <v>57890953</v>
+        <v>5119066139</v>
       </c>
       <c r="W15">
-        <v>2826043673</v>
+        <v>5870093710</v>
       </c>
       <c r="X15">
-        <v>990121873</v>
+        <v>1198587470</v>
       </c>
       <c r="Y15" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2008,76 +2026,76 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F16">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="G16">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J16">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K16">
-        <v>9039778</v>
+        <v>7674103</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N16" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P16">
-        <v>104225113285</v>
+        <v>8242508010</v>
       </c>
       <c r="Q16">
-        <v>106505634411</v>
+        <v>10751900430</v>
       </c>
       <c r="R16">
-        <v>66424930568</v>
+        <v>4416778965</v>
       </c>
       <c r="S16">
-        <v>6291020806</v>
+        <v>426234451</v>
       </c>
       <c r="T16">
-        <v>7893242769</v>
+        <v>2423749751</v>
       </c>
       <c r="U16">
-        <v>7661497240</v>
+        <v>677048172</v>
       </c>
       <c r="V16">
-        <v>7319368873</v>
+        <v>57890953</v>
       </c>
       <c r="W16">
-        <v>9286891982</v>
+        <v>2826043673</v>
       </c>
       <c r="X16">
-        <v>7334816490</v>
+        <v>990121873</v>
       </c>
       <c r="Y16" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2088,31 +2106,31 @@
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F17">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="G17">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="J17">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K17">
-        <v>64819980</v>
+        <v>9039778</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2121,40 +2139,40 @@
         <v>26000</v>
       </c>
       <c r="N17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="P17">
-        <v>36980</v>
+        <v>104225113285</v>
       </c>
       <c r="Q17">
-        <v>44954</v>
+        <v>106505634411</v>
       </c>
       <c r="R17">
-        <v>23652</v>
+        <v>66424930568</v>
       </c>
       <c r="S17">
-        <v>-7085</v>
+        <v>6291020806</v>
       </c>
       <c r="T17">
-        <v>-13228</v>
+        <v>7893242769</v>
       </c>
       <c r="U17">
-        <v>-9932</v>
+        <v>7661497240</v>
       </c>
       <c r="V17">
-        <v>-7417</v>
+        <v>7319368873</v>
       </c>
       <c r="W17">
-        <v>-12548</v>
+        <v>9286891982</v>
       </c>
       <c r="X17">
-        <v>-9333</v>
+        <v>7334816490</v>
       </c>
       <c r="Y17" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2162,76 +2180,76 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F18">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="G18">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K18">
-        <v>18905000</v>
+        <v>64819980</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O18" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>36980</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>44954</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>23652</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>-7085</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>-13228</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>-9932</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>-7417</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>-12548</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>-9333</v>
       </c>
       <c r="Y18" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2239,230 +2257,230 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F19">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="G19">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J19">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K19">
-        <v>5447675</v>
+        <v>18905000</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="N19" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P19">
-        <v>18408761227</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>21902816604</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>8176918465</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>3669182465</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>1851925471</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>590566592</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>3633973594</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>2205418963</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>592903151</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
         <v>45</v>
       </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F20">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="G20">
-        <v>1640000</v>
+        <v>1500000</v>
       </c>
       <c r="H20">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J20">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K20">
-        <v>10969386</v>
+        <v>5447675</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N20" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O20" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P20">
-        <v>22818451349</v>
+        <v>18408761227</v>
       </c>
       <c r="Q20">
-        <v>30491967755</v>
+        <v>21902816604</v>
       </c>
       <c r="R20">
-        <v>18040053709</v>
+        <v>8176918465</v>
       </c>
       <c r="S20">
-        <v>2313787613</v>
+        <v>3669182465</v>
       </c>
       <c r="T20">
-        <v>4014101926</v>
+        <v>1851925471</v>
       </c>
       <c r="U20">
-        <v>1878997667</v>
+        <v>590566592</v>
       </c>
       <c r="V20">
-        <v>559427078</v>
+        <v>3633973594</v>
       </c>
       <c r="W20">
-        <v>-711183147</v>
+        <v>2205418963</v>
       </c>
       <c r="X20">
-        <v>1929682988</v>
+        <v>592903151</v>
       </c>
       <c r="Y20" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F21">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="G21">
-        <v>1580000</v>
+        <v>1640000</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I21">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J21">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K21">
-        <v>7874611</v>
+        <v>10969386</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N21" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O21" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P21">
-        <v>7327878427</v>
+        <v>22818451349</v>
       </c>
       <c r="Q21">
-        <v>10756717708</v>
+        <v>30491967755</v>
       </c>
       <c r="R21">
-        <v>4113702647</v>
+        <v>18040053709</v>
       </c>
       <c r="S21">
-        <v>-588932080</v>
+        <v>2313787613</v>
       </c>
       <c r="T21">
-        <v>254042570</v>
+        <v>4014101926</v>
       </c>
       <c r="U21">
-        <v>-738698858</v>
+        <v>1878997667</v>
       </c>
       <c r="V21">
-        <v>-569358529</v>
+        <v>559427078</v>
       </c>
       <c r="W21">
-        <v>-429546963</v>
+        <v>-711183147</v>
       </c>
       <c r="X21">
-        <v>-550600734</v>
+        <v>1929682988</v>
       </c>
       <c r="Y21" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2473,150 +2491,227 @@
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F22">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="G22">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J22">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K22">
-        <v>8110389</v>
+        <v>7874611</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N22" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O22" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P22">
-        <v>28857</v>
+        <v>7327878427</v>
       </c>
       <c r="Q22">
-        <v>45830</v>
+        <v>10756717708</v>
       </c>
       <c r="R22">
-        <v>25997</v>
+        <v>4113702647</v>
       </c>
       <c r="S22">
-        <v>-14511</v>
+        <v>-588932080</v>
       </c>
       <c r="T22">
-        <v>4169</v>
+        <v>254042570</v>
       </c>
       <c r="U22">
-        <v>4958</v>
+        <v>-738698858</v>
       </c>
       <c r="V22">
-        <v>-34842</v>
+        <v>-569358529</v>
       </c>
       <c r="W22">
-        <v>13350</v>
+        <v>-429546963</v>
       </c>
       <c r="X22">
-        <v>5128</v>
+        <v>-550600734</v>
       </c>
       <c r="Y22" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F23">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="G23">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H23">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>20000</v>
       </c>
       <c r="J23">
+        <v>23000</v>
+      </c>
+      <c r="K23">
+        <v>8110389</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>23000</v>
+      </c>
+      <c r="N23" t="s">
+        <v>118</v>
+      </c>
+      <c r="O23" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23">
+        <v>28857</v>
+      </c>
+      <c r="Q23">
+        <v>45830</v>
+      </c>
+      <c r="R23">
+        <v>25997</v>
+      </c>
+      <c r="S23">
+        <v>-14511</v>
+      </c>
+      <c r="T23">
+        <v>4169</v>
+      </c>
+      <c r="U23">
+        <v>4958</v>
+      </c>
+      <c r="V23">
+        <v>-34842</v>
+      </c>
+      <c r="W23">
+        <v>13350</v>
+      </c>
+      <c r="X23">
+        <v>5128</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24">
+        <v>1100000</v>
+      </c>
+      <c r="G24">
+        <v>900000</v>
+      </c>
+      <c r="H24">
+        <v>200000</v>
+      </c>
+      <c r="I24">
+        <v>20000</v>
+      </c>
+      <c r="J24">
         <v>24000</v>
       </c>
-      <c r="K23">
+      <c r="K24">
         <v>4901526</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>24000</v>
       </c>
-      <c r="N23" t="s">
-        <v>115</v>
-      </c>
-      <c r="O23" t="s">
-        <v>135</v>
-      </c>
-      <c r="P23">
+      <c r="N24" t="s">
+        <v>119</v>
+      </c>
+      <c r="O24" t="s">
+        <v>140</v>
+      </c>
+      <c r="P24">
         <v>32608351</v>
       </c>
-      <c r="Q23">
+      <c r="Q24">
         <v>43629717</v>
       </c>
-      <c r="R23">
+      <c r="R24">
         <v>14011366</v>
       </c>
-      <c r="S23">
+      <c r="S24">
         <v>4301870</v>
       </c>
-      <c r="T23">
+      <c r="T24">
         <v>7039261</v>
       </c>
-      <c r="U23">
+      <c r="U24">
         <v>316611</v>
       </c>
-      <c r="V23">
+      <c r="V24">
         <v>4422483</v>
       </c>
-      <c r="W23">
+      <c r="W24">
         <v>5391712</v>
       </c>
-      <c r="X23">
+      <c r="X24">
         <v>180579</v>
       </c>
-      <c r="Y23" t="s">
-        <v>156</v>
+      <c r="Y24" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="171">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
     <t>2023-10-26</t>
   </si>
   <si>
@@ -142,6 +145,9 @@
     <t>2023-09-07</t>
   </si>
   <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
     <t>2023-11-01</t>
   </si>
   <si>
@@ -163,6 +169,9 @@
     <t>2023-09-13</t>
   </si>
   <si>
+    <t>2023-11-20</t>
+  </si>
+  <si>
     <t>2023-11-15</t>
   </si>
   <si>
@@ -196,6 +205,9 @@
     <t>2023-09-25</t>
   </si>
   <si>
+    <t>하이</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
@@ -238,6 +250,9 @@
     <t>신영</t>
   </si>
   <si>
+    <t>스톰테크</t>
+  </si>
+  <si>
     <t>캡스톤파트너스</t>
   </si>
   <si>
@@ -307,6 +322,9 @@
     <t>인스웨이브시스템즈</t>
   </si>
   <si>
+    <t>573.97:1</t>
+  </si>
+  <si>
     <t>952.78</t>
   </si>
   <si>
@@ -376,6 +394,9 @@
     <t>672.42:1</t>
   </si>
   <si>
+    <t>3.24%</t>
+  </si>
+  <si>
     <t>0.19%</t>
   </si>
   <si>
@@ -437,6 +458,9 @@
   </si>
   <si>
     <t>7.46%</t>
+  </si>
+  <si>
+    <t>정수기 피팅, 밸브, 파우셋 등 부품</t>
   </si>
   <si>
     <t>벤처투자조합 등 조합 결성 및 운영</t>
@@ -860,7 +884,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -948,76 +972,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F2">
-        <v>1596000</v>
+        <v>3350000</v>
       </c>
       <c r="G2">
-        <v>1596000</v>
+        <v>3350000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3200</v>
+        <v>8000</v>
       </c>
       <c r="J2">
-        <v>3600</v>
+        <v>9500</v>
       </c>
       <c r="K2">
-        <v>13346380</v>
+        <v>13436499</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="N2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="O2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P2">
-        <v>7668281979</v>
+        <v>47984</v>
       </c>
       <c r="Q2">
-        <v>7100921456</v>
+        <v>51031</v>
       </c>
       <c r="R2">
-        <v>1207846478</v>
+        <v>29425</v>
       </c>
       <c r="S2">
-        <v>5659403971</v>
+        <v>10526</v>
       </c>
       <c r="T2">
-        <v>6124121466</v>
+        <v>11804</v>
       </c>
       <c r="U2">
-        <v>940668827</v>
+        <v>7008</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>8661</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>9582</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>5612</v>
       </c>
       <c r="Y2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1025,76 +1049,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F3">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="G3">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J3">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K3">
-        <v>13612736</v>
+        <v>13346380</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="N3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7668281979</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>7100921456</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1207846478</v>
       </c>
       <c r="S3">
-        <v>-15286512079</v>
+        <v>5659403971</v>
       </c>
       <c r="T3">
-        <v>-21424611321</v>
+        <v>6124121466</v>
       </c>
       <c r="U3">
-        <v>-139745251263</v>
+        <v>940668827</v>
       </c>
       <c r="V3">
-        <v>-53575668634</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-38885125426</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-12610702106</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1102,76 +1126,76 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F4">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="G4">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J4">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K4">
-        <v>10585320</v>
+        <v>13612736</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="P4">
-        <v>45195788</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>69629209</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>35634471</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>2751277</v>
+        <v>-15286512079</v>
       </c>
       <c r="T4">
-        <v>11449731</v>
+        <v>-21424611321</v>
       </c>
       <c r="U4">
-        <v>2482194</v>
+        <v>-139745251263</v>
       </c>
       <c r="V4">
-        <v>2092692</v>
+        <v>-53575668634</v>
       </c>
       <c r="W4">
-        <v>5149538</v>
+        <v>-38885125426</v>
       </c>
       <c r="X4">
-        <v>2327401</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y4" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1179,384 +1203,384 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F5">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="G5">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K5">
-        <v>4320000</v>
+        <v>10585320</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="N5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="O5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>45195788</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>69629209</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>35634471</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2751277</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>11449731</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>2482194</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>2092692</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>5149538</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>2327401</v>
       </c>
       <c r="Y5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F6">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="G6">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J6">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K6">
-        <v>30610000</v>
+        <v>4320000</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="O6" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P6">
-        <v>67332006578</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>100050838794</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>63366010569</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>1140243099</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>8333440685</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>7415958936</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>668088159</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>5930478364</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>5666583221</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F7">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="G7">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J7">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K7">
-        <v>20771000</v>
+        <v>30610000</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="N7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="O7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P7">
-        <v>39450601</v>
+        <v>67332006578</v>
       </c>
       <c r="Q7">
-        <v>49044883</v>
+        <v>100050838794</v>
       </c>
       <c r="R7">
-        <v>21826468</v>
+        <v>63366010569</v>
       </c>
       <c r="S7">
-        <v>2477559</v>
+        <v>1140243099</v>
       </c>
       <c r="T7">
-        <v>8094900</v>
+        <v>8333440685</v>
       </c>
       <c r="U7">
-        <v>215154</v>
+        <v>7415958936</v>
       </c>
       <c r="V7">
-        <v>3427734</v>
+        <v>668088159</v>
       </c>
       <c r="W7">
-        <v>6575528</v>
+        <v>5930478364</v>
       </c>
       <c r="X7">
-        <v>349843</v>
+        <v>5666583221</v>
       </c>
       <c r="Y7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F8">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="G8">
-        <v>2000000</v>
+        <v>5200000</v>
       </c>
       <c r="H8">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J8">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K8">
-        <v>14384224</v>
+        <v>20771000</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="P8">
-        <v>5787300240</v>
+        <v>39450601</v>
       </c>
       <c r="Q8">
-        <v>1914633847</v>
+        <v>49044883</v>
       </c>
       <c r="R8">
-        <v>3156092272</v>
+        <v>21826468</v>
       </c>
       <c r="S8">
-        <v>-1798278694</v>
+        <v>2477559</v>
       </c>
       <c r="T8">
-        <v>-1453689952</v>
+        <v>8094900</v>
       </c>
       <c r="U8">
-        <v>-4067648306</v>
+        <v>215154</v>
       </c>
       <c r="V8">
-        <v>-12449932055</v>
+        <v>3427734</v>
       </c>
       <c r="W8">
-        <v>-7426231074</v>
+        <v>6575528</v>
       </c>
       <c r="X8">
-        <v>-52132058866</v>
+        <v>349843</v>
       </c>
       <c r="Y8" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F9">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="G9">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I9">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J9">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K9">
-        <v>7206940</v>
+        <v>14384224</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P9">
-        <v>20924</v>
+        <v>5787300240</v>
       </c>
       <c r="Q9">
-        <v>27659</v>
+        <v>1914633847</v>
       </c>
       <c r="R9">
-        <v>11818</v>
+        <v>3156092272</v>
       </c>
       <c r="S9">
-        <v>2838</v>
+        <v>-1798278694</v>
       </c>
       <c r="T9">
-        <v>4563</v>
+        <v>-1453689952</v>
       </c>
       <c r="U9">
-        <v>-1222</v>
+        <v>-4067648306</v>
       </c>
       <c r="V9">
-        <v>2413</v>
+        <v>-12449932055</v>
       </c>
       <c r="W9">
-        <v>3190</v>
+        <v>-7426231074</v>
       </c>
       <c r="X9">
-        <v>-862</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y9" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1564,230 +1588,230 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F10">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="G10">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J10">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K10">
-        <v>17306490</v>
+        <v>7206940</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="P10">
-        <v>21976760922</v>
+        <v>20924</v>
       </c>
       <c r="Q10">
-        <v>15839004968</v>
+        <v>27659</v>
       </c>
       <c r="R10">
-        <v>6887755932</v>
+        <v>11818</v>
       </c>
       <c r="S10">
-        <v>-2217897363</v>
+        <v>2838</v>
       </c>
       <c r="T10">
-        <v>-3403228196</v>
+        <v>4563</v>
       </c>
       <c r="U10">
-        <v>-2758864194</v>
+        <v>-1222</v>
       </c>
       <c r="V10">
-        <v>-5110677395</v>
+        <v>2413</v>
       </c>
       <c r="W10">
-        <v>-29510193610</v>
+        <v>3190</v>
       </c>
       <c r="X10">
-        <v>-2514471056</v>
+        <v>-862</v>
       </c>
       <c r="Y10" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F11">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="G11">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K11">
-        <v>12905000</v>
+        <v>17306490</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="O11" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>21976760922</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>15839004968</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>6887755932</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>-2217897363</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>-3403228196</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>-2758864194</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>-5110677395</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>-29510193610</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y11" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F12">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="G12">
-        <v>944534</v>
+        <v>12500000</v>
       </c>
       <c r="H12">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J12">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K12">
-        <v>6261485</v>
+        <v>12905000</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="O12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P12">
-        <v>34557425427</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>39824841246</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>23231897516</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>3011651602</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>2384643399</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>4436005255</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>2755379556</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>1176755354</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>4046949430</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1795,76 +1819,76 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F13">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="G13">
-        <v>1128720</v>
+        <v>944534</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I13">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J13">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K13">
-        <v>11287196</v>
+        <v>6261485</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="N13" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="O13" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="P13">
-        <v>50552623684</v>
+        <v>34557425427</v>
       </c>
       <c r="Q13">
-        <v>69013134090</v>
+        <v>39824841246</v>
       </c>
       <c r="R13">
-        <v>16887814423</v>
+        <v>23231897516</v>
       </c>
       <c r="S13">
-        <v>9027232647</v>
+        <v>3011651602</v>
       </c>
       <c r="T13">
-        <v>15707796256</v>
+        <v>2384643399</v>
       </c>
       <c r="U13">
-        <v>555562560</v>
+        <v>4436005255</v>
       </c>
       <c r="V13">
-        <v>9236341465</v>
+        <v>2755379556</v>
       </c>
       <c r="W13">
-        <v>13159994846</v>
+        <v>1176755354</v>
       </c>
       <c r="X13">
-        <v>1236029732</v>
+        <v>4046949430</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1872,76 +1896,76 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F14">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="G14">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J14">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K14">
-        <v>10193520</v>
+        <v>11287196</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="N14" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="O14" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="P14">
-        <v>3952070068</v>
+        <v>50552623684</v>
       </c>
       <c r="Q14">
-        <v>10789274729</v>
+        <v>69013134090</v>
       </c>
       <c r="R14">
-        <v>6040367765</v>
+        <v>16887814423</v>
       </c>
       <c r="S14">
-        <v>-4741577598</v>
+        <v>9027232647</v>
       </c>
       <c r="T14">
-        <v>-3671026788</v>
+        <v>15707796256</v>
       </c>
       <c r="U14">
-        <v>-3292521363</v>
+        <v>555562560</v>
       </c>
       <c r="V14">
-        <v>-3654889267</v>
+        <v>9236341465</v>
       </c>
       <c r="W14">
-        <v>-2281074471</v>
+        <v>13159994846</v>
       </c>
       <c r="X14">
-        <v>-2539505707</v>
+        <v>1236029732</v>
       </c>
       <c r="Y14" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1949,76 +1973,76 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F15">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="G15">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J15">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K15">
-        <v>16120000</v>
+        <v>10193520</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="N15" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="O15" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="P15">
-        <v>26691070764</v>
+        <v>3952070068</v>
       </c>
       <c r="Q15">
-        <v>22835113396</v>
+        <v>10789274729</v>
       </c>
       <c r="R15">
-        <v>7519073723</v>
+        <v>6040367765</v>
       </c>
       <c r="S15">
-        <v>6041270235</v>
+        <v>-4741577598</v>
       </c>
       <c r="T15">
-        <v>6705120210</v>
+        <v>-3671026788</v>
       </c>
       <c r="U15">
-        <v>982044017</v>
+        <v>-3292521363</v>
       </c>
       <c r="V15">
-        <v>5119066139</v>
+        <v>-3654889267</v>
       </c>
       <c r="W15">
-        <v>5870093710</v>
+        <v>-2281074471</v>
       </c>
       <c r="X15">
-        <v>1198587470</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y15" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2026,76 +2050,76 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F16">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="G16">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J16">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K16">
-        <v>7674103</v>
+        <v>16120000</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N16" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="O16" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="P16">
-        <v>8242508010</v>
+        <v>26691070764</v>
       </c>
       <c r="Q16">
-        <v>10751900430</v>
+        <v>22835113396</v>
       </c>
       <c r="R16">
-        <v>4416778965</v>
+        <v>7519073723</v>
       </c>
       <c r="S16">
-        <v>426234451</v>
+        <v>6041270235</v>
       </c>
       <c r="T16">
-        <v>2423749751</v>
+        <v>6705120210</v>
       </c>
       <c r="U16">
-        <v>677048172</v>
+        <v>982044017</v>
       </c>
       <c r="V16">
-        <v>57890953</v>
+        <v>5119066139</v>
       </c>
       <c r="W16">
-        <v>2826043673</v>
+        <v>5870093710</v>
       </c>
       <c r="X16">
-        <v>990121873</v>
+        <v>1198587470</v>
       </c>
       <c r="Y16" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2103,76 +2127,76 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F17">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="G17">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J17">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K17">
-        <v>9039778</v>
+        <v>7674103</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N17" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="O17" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P17">
-        <v>104225113285</v>
+        <v>8242508010</v>
       </c>
       <c r="Q17">
-        <v>106505634411</v>
+        <v>10751900430</v>
       </c>
       <c r="R17">
-        <v>66424930568</v>
+        <v>4416778965</v>
       </c>
       <c r="S17">
-        <v>6291020806</v>
+        <v>426234451</v>
       </c>
       <c r="T17">
-        <v>7893242769</v>
+        <v>2423749751</v>
       </c>
       <c r="U17">
-        <v>7661497240</v>
+        <v>677048172</v>
       </c>
       <c r="V17">
-        <v>7319368873</v>
+        <v>57890953</v>
       </c>
       <c r="W17">
-        <v>9286891982</v>
+        <v>2826043673</v>
       </c>
       <c r="X17">
-        <v>7334816490</v>
+        <v>990121873</v>
       </c>
       <c r="Y17" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2180,34 +2204,34 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F18">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="G18">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="J18">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K18">
-        <v>64819980</v>
+        <v>9039778</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2216,40 +2240,40 @@
         <v>26000</v>
       </c>
       <c r="N18" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="O18" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="P18">
-        <v>36980</v>
+        <v>104225113285</v>
       </c>
       <c r="Q18">
-        <v>44954</v>
+        <v>106505634411</v>
       </c>
       <c r="R18">
-        <v>23652</v>
+        <v>66424930568</v>
       </c>
       <c r="S18">
-        <v>-7085</v>
+        <v>6291020806</v>
       </c>
       <c r="T18">
-        <v>-13228</v>
+        <v>7893242769</v>
       </c>
       <c r="U18">
-        <v>-9932</v>
+        <v>7661497240</v>
       </c>
       <c r="V18">
-        <v>-7417</v>
+        <v>7319368873</v>
       </c>
       <c r="W18">
-        <v>-12548</v>
+        <v>9286891982</v>
       </c>
       <c r="X18">
-        <v>-9333</v>
+        <v>7334816490</v>
       </c>
       <c r="Y18" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2257,76 +2281,76 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F19">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="G19">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J19">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K19">
-        <v>18905000</v>
+        <v>64819980</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N19" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O19" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>36980</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>44954</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>23652</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>-7085</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>-13228</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>-9932</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>-7417</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>-12548</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>-9333</v>
       </c>
       <c r="Y19" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2334,230 +2358,230 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F20">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="G20">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J20">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K20">
-        <v>5447675</v>
+        <v>18905000</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="N20" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="O20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P20">
-        <v>18408761227</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>21902816604</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>8176918465</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>3669182465</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>1851925471</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>590566592</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>3633973594</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>2205418963</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>592903151</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F21">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="G21">
-        <v>1640000</v>
+        <v>1500000</v>
       </c>
       <c r="H21">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J21">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K21">
-        <v>10969386</v>
+        <v>5447675</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N21" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="O21" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="P21">
-        <v>22818451349</v>
+        <v>18408761227</v>
       </c>
       <c r="Q21">
-        <v>30491967755</v>
+        <v>21902816604</v>
       </c>
       <c r="R21">
-        <v>18040053709</v>
+        <v>8176918465</v>
       </c>
       <c r="S21">
-        <v>2313787613</v>
+        <v>3669182465</v>
       </c>
       <c r="T21">
-        <v>4014101926</v>
+        <v>1851925471</v>
       </c>
       <c r="U21">
-        <v>1878997667</v>
+        <v>590566592</v>
       </c>
       <c r="V21">
-        <v>559427078</v>
+        <v>3633973594</v>
       </c>
       <c r="W21">
-        <v>-711183147</v>
+        <v>2205418963</v>
       </c>
       <c r="X21">
-        <v>1929682988</v>
+        <v>592903151</v>
       </c>
       <c r="Y21" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F22">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="G22">
-        <v>1580000</v>
+        <v>1640000</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I22">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J22">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K22">
-        <v>7874611</v>
+        <v>10969386</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N22" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="O22" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="P22">
-        <v>7327878427</v>
+        <v>22818451349</v>
       </c>
       <c r="Q22">
-        <v>10756717708</v>
+        <v>30491967755</v>
       </c>
       <c r="R22">
-        <v>4113702647</v>
+        <v>18040053709</v>
       </c>
       <c r="S22">
-        <v>-588932080</v>
+        <v>2313787613</v>
       </c>
       <c r="T22">
-        <v>254042570</v>
+        <v>4014101926</v>
       </c>
       <c r="U22">
-        <v>-738698858</v>
+        <v>1878997667</v>
       </c>
       <c r="V22">
-        <v>-569358529</v>
+        <v>559427078</v>
       </c>
       <c r="W22">
-        <v>-429546963</v>
+        <v>-711183147</v>
       </c>
       <c r="X22">
-        <v>-550600734</v>
+        <v>1929682988</v>
       </c>
       <c r="Y22" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2565,153 +2589,230 @@
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F23">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="G23">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J23">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K23">
-        <v>8110389</v>
+        <v>7874611</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N23" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="O23" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="P23">
-        <v>28857</v>
+        <v>7327878427</v>
       </c>
       <c r="Q23">
-        <v>45830</v>
+        <v>10756717708</v>
       </c>
       <c r="R23">
-        <v>25997</v>
+        <v>4113702647</v>
       </c>
       <c r="S23">
-        <v>-14511</v>
+        <v>-588932080</v>
       </c>
       <c r="T23">
-        <v>4169</v>
+        <v>254042570</v>
       </c>
       <c r="U23">
-        <v>4958</v>
+        <v>-738698858</v>
       </c>
       <c r="V23">
-        <v>-34842</v>
+        <v>-569358529</v>
       </c>
       <c r="W23">
-        <v>13350</v>
+        <v>-429546963</v>
       </c>
       <c r="X23">
-        <v>5128</v>
+        <v>-550600734</v>
       </c>
       <c r="Y23" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F24">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="G24">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H24">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>20000</v>
       </c>
       <c r="J24">
+        <v>23000</v>
+      </c>
+      <c r="K24">
+        <v>8110389</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>23000</v>
+      </c>
+      <c r="N24" t="s">
+        <v>124</v>
+      </c>
+      <c r="O24" t="s">
+        <v>146</v>
+      </c>
+      <c r="P24">
+        <v>28857</v>
+      </c>
+      <c r="Q24">
+        <v>45830</v>
+      </c>
+      <c r="R24">
+        <v>25997</v>
+      </c>
+      <c r="S24">
+        <v>-14511</v>
+      </c>
+      <c r="T24">
+        <v>4169</v>
+      </c>
+      <c r="U24">
+        <v>4958</v>
+      </c>
+      <c r="V24">
+        <v>-34842</v>
+      </c>
+      <c r="W24">
+        <v>13350</v>
+      </c>
+      <c r="X24">
+        <v>5128</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25">
+        <v>1100000</v>
+      </c>
+      <c r="G25">
+        <v>900000</v>
+      </c>
+      <c r="H25">
+        <v>200000</v>
+      </c>
+      <c r="I25">
+        <v>20000</v>
+      </c>
+      <c r="J25">
         <v>24000</v>
       </c>
-      <c r="K24">
+      <c r="K25">
         <v>4901526</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>24000</v>
       </c>
-      <c r="N24" t="s">
-        <v>119</v>
-      </c>
-      <c r="O24" t="s">
-        <v>140</v>
-      </c>
-      <c r="P24">
+      <c r="N25" t="s">
+        <v>125</v>
+      </c>
+      <c r="O25" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25">
         <v>32608351</v>
       </c>
-      <c r="Q24">
+      <c r="Q25">
         <v>43629717</v>
       </c>
-      <c r="R24">
+      <c r="R25">
         <v>14011366</v>
       </c>
-      <c r="S24">
+      <c r="S25">
         <v>4301870</v>
       </c>
-      <c r="T24">
+      <c r="T25">
         <v>7039261</v>
       </c>
-      <c r="U24">
+      <c r="U25">
         <v>316611</v>
       </c>
-      <c r="V24">
+      <c r="V25">
         <v>4422483</v>
       </c>
-      <c r="W24">
+      <c r="W25">
         <v>5391712</v>
       </c>
-      <c r="X24">
+      <c r="X25">
         <v>180579</v>
       </c>
-      <c r="Y24" t="s">
-        <v>162</v>
+      <c r="Y25" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="176">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -94,6 +94,9 @@
     <t>2023-10-31</t>
   </si>
   <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
     <t>2023-10-26</t>
   </si>
   <si>
@@ -148,7 +151,7 @@
     <t>2023-11-06</t>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-07</t>
   </si>
   <si>
     <t>2023-10-27</t>
@@ -172,6 +175,9 @@
     <t>2023-11-20</t>
   </si>
   <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
     <t>2023-11-15</t>
   </si>
   <si>
@@ -187,9 +193,6 @@
     <t>2023-11-10</t>
   </si>
   <si>
-    <t>2023-11-07</t>
-  </si>
-  <si>
     <t>2023-11-03</t>
   </si>
   <si>
@@ -208,6 +211,9 @@
     <t>하이</t>
   </si>
   <si>
+    <t>KB</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
@@ -220,9 +226,6 @@
     <t>한국</t>
   </si>
   <si>
-    <t>KB</t>
-  </si>
-  <si>
     <t>대신</t>
   </si>
   <si>
@@ -253,6 +256,9 @@
     <t>스톰테크</t>
   </si>
   <si>
+    <t>에코아이</t>
+  </si>
+  <si>
     <t>캡스톤파트너스</t>
   </si>
   <si>
@@ -325,6 +331,9 @@
     <t>573.97:1</t>
   </si>
   <si>
+    <t>75.14:1</t>
+  </si>
+  <si>
     <t>952.78</t>
   </si>
   <si>
@@ -397,6 +406,9 @@
     <t>3.24%</t>
   </si>
   <si>
+    <t>3.99%</t>
+  </si>
+  <si>
     <t>0.19%</t>
   </si>
   <si>
@@ -461,6 +473,9 @@
   </si>
   <si>
     <t>정수기 피팅, 밸브, 파우셋 등 부품</t>
+  </si>
+  <si>
+    <t>탄소배출권 및 탄소배출권 관련 컨설팅</t>
   </si>
   <si>
     <t>벤처투자조합 등 조합 결성 및 운영</t>
@@ -884,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -972,16 +987,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2">
         <v>3350000</v>
@@ -1008,10 +1023,10 @@
         <v>11000</v>
       </c>
       <c r="N2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P2">
         <v>47984</v>
@@ -1041,7 +1056,7 @@
         <v>5612</v>
       </c>
       <c r="Y2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1049,76 +1064,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3">
-        <v>1596000</v>
+        <v>2079000</v>
       </c>
       <c r="G3">
-        <v>1596000</v>
+        <v>2079000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3200</v>
+        <v>28500</v>
       </c>
       <c r="J3">
-        <v>3600</v>
+        <v>34700</v>
       </c>
       <c r="K3">
-        <v>13346380</v>
+        <v>9877043</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4000</v>
+        <v>34700</v>
       </c>
       <c r="N3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P3">
-        <v>7668281979</v>
+        <v>26994234332</v>
       </c>
       <c r="Q3">
-        <v>7100921456</v>
+        <v>60121142197</v>
       </c>
       <c r="R3">
-        <v>1207846478</v>
+        <v>53305665235</v>
       </c>
       <c r="S3">
-        <v>5659403971</v>
+        <v>10162848799</v>
       </c>
       <c r="T3">
-        <v>6124121466</v>
+        <v>20033029594</v>
       </c>
       <c r="U3">
-        <v>940668827</v>
+        <v>19806683734</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>7996520497</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>15559454518</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>15932218050</v>
       </c>
       <c r="Y3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1129,73 +1144,73 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F4">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="G4">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J4">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K4">
-        <v>13612736</v>
+        <v>13346380</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="N4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7668281979</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>7100921456</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1207846478</v>
       </c>
       <c r="S4">
-        <v>-15286512079</v>
+        <v>5659403971</v>
       </c>
       <c r="T4">
-        <v>-21424611321</v>
+        <v>6124121466</v>
       </c>
       <c r="U4">
-        <v>-139745251263</v>
+        <v>940668827</v>
       </c>
       <c r="V4">
-        <v>-53575668634</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>-38885125426</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-12610702106</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1203,76 +1218,76 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F5">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="G5">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J5">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K5">
-        <v>10585320</v>
+        <v>13612736</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P5">
-        <v>45195788</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>69629209</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>35634471</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>2751277</v>
+        <v>-15286512079</v>
       </c>
       <c r="T5">
-        <v>11449731</v>
+        <v>-21424611321</v>
       </c>
       <c r="U5">
-        <v>2482194</v>
+        <v>-139745251263</v>
       </c>
       <c r="V5">
-        <v>2092692</v>
+        <v>-53575668634</v>
       </c>
       <c r="W5">
-        <v>5149538</v>
+        <v>-38885125426</v>
       </c>
       <c r="X5">
-        <v>2327401</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1280,384 +1295,384 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F6">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="G6">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K6">
-        <v>4320000</v>
+        <v>10585320</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="N6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>45195788</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>69629209</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>35634471</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>2751277</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>11449731</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>2482194</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>2092692</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>5149538</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>2327401</v>
       </c>
       <c r="Y6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F7">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="G7">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K7">
-        <v>30610000</v>
+        <v>4320000</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P7">
-        <v>67332006578</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>100050838794</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>63366010569</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>1140243099</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>8333440685</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>7415958936</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>668088159</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>5930478364</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>5666583221</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F8">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="G8">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J8">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K8">
-        <v>20771000</v>
+        <v>30610000</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P8">
-        <v>39450601</v>
+        <v>67332006578</v>
       </c>
       <c r="Q8">
-        <v>49044883</v>
+        <v>100050838794</v>
       </c>
       <c r="R8">
-        <v>21826468</v>
+        <v>63366010569</v>
       </c>
       <c r="S8">
-        <v>2477559</v>
+        <v>1140243099</v>
       </c>
       <c r="T8">
-        <v>8094900</v>
+        <v>8333440685</v>
       </c>
       <c r="U8">
-        <v>215154</v>
+        <v>7415958936</v>
       </c>
       <c r="V8">
-        <v>3427734</v>
+        <v>668088159</v>
       </c>
       <c r="W8">
-        <v>6575528</v>
+        <v>5930478364</v>
       </c>
       <c r="X8">
-        <v>349843</v>
+        <v>5666583221</v>
       </c>
       <c r="Y8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F9">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="G9">
-        <v>2000000</v>
+        <v>5200000</v>
       </c>
       <c r="H9">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J9">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K9">
-        <v>14384224</v>
+        <v>20771000</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P9">
-        <v>5787300240</v>
+        <v>39450601</v>
       </c>
       <c r="Q9">
-        <v>1914633847</v>
+        <v>49044883</v>
       </c>
       <c r="R9">
-        <v>3156092272</v>
+        <v>21826468</v>
       </c>
       <c r="S9">
-        <v>-1798278694</v>
+        <v>2477559</v>
       </c>
       <c r="T9">
-        <v>-1453689952</v>
+        <v>8094900</v>
       </c>
       <c r="U9">
-        <v>-4067648306</v>
+        <v>215154</v>
       </c>
       <c r="V9">
-        <v>-12449932055</v>
+        <v>3427734</v>
       </c>
       <c r="W9">
-        <v>-7426231074</v>
+        <v>6575528</v>
       </c>
       <c r="X9">
-        <v>-52132058866</v>
+        <v>349843</v>
       </c>
       <c r="Y9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F10">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="G10">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I10">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J10">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K10">
-        <v>7206940</v>
+        <v>14384224</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="P10">
-        <v>20924</v>
+        <v>5787300240</v>
       </c>
       <c r="Q10">
-        <v>27659</v>
+        <v>1914633847</v>
       </c>
       <c r="R10">
-        <v>11818</v>
+        <v>3156092272</v>
       </c>
       <c r="S10">
-        <v>2838</v>
+        <v>-1798278694</v>
       </c>
       <c r="T10">
-        <v>4563</v>
+        <v>-1453689952</v>
       </c>
       <c r="U10">
-        <v>-1222</v>
+        <v>-4067648306</v>
       </c>
       <c r="V10">
-        <v>2413</v>
+        <v>-12449932055</v>
       </c>
       <c r="W10">
-        <v>3190</v>
+        <v>-7426231074</v>
       </c>
       <c r="X10">
-        <v>-862</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y10" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1665,230 +1680,230 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F11">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="G11">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J11">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K11">
-        <v>17306490</v>
+        <v>7206940</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P11">
-        <v>21976760922</v>
+        <v>20924</v>
       </c>
       <c r="Q11">
-        <v>15839004968</v>
+        <v>27659</v>
       </c>
       <c r="R11">
-        <v>6887755932</v>
+        <v>11818</v>
       </c>
       <c r="S11">
-        <v>-2217897363</v>
+        <v>2838</v>
       </c>
       <c r="T11">
-        <v>-3403228196</v>
+        <v>4563</v>
       </c>
       <c r="U11">
-        <v>-2758864194</v>
+        <v>-1222</v>
       </c>
       <c r="V11">
-        <v>-5110677395</v>
+        <v>2413</v>
       </c>
       <c r="W11">
-        <v>-29510193610</v>
+        <v>3190</v>
       </c>
       <c r="X11">
-        <v>-2514471056</v>
+        <v>-862</v>
       </c>
       <c r="Y11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="G12">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K12">
-        <v>12905000</v>
+        <v>17306490</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>21976760922</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>15839004968</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>6887755932</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>-2217897363</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>-3403228196</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>-2758864194</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>-5110677395</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>-29510193610</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y12" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="G13">
-        <v>944534</v>
+        <v>12500000</v>
       </c>
       <c r="H13">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J13">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K13">
-        <v>6261485</v>
+        <v>12905000</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P13">
-        <v>34557425427</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>39824841246</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>23231897516</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>3011651602</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>2384643399</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>4436005255</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>2755379556</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>1176755354</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>4046949430</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1896,76 +1911,76 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F14">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="G14">
-        <v>1128720</v>
+        <v>944534</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I14">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J14">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K14">
-        <v>11287196</v>
+        <v>6261485</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="N14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O14" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P14">
-        <v>50552623684</v>
+        <v>34557425427</v>
       </c>
       <c r="Q14">
-        <v>69013134090</v>
+        <v>39824841246</v>
       </c>
       <c r="R14">
-        <v>16887814423</v>
+        <v>23231897516</v>
       </c>
       <c r="S14">
-        <v>9027232647</v>
+        <v>3011651602</v>
       </c>
       <c r="T14">
-        <v>15707796256</v>
+        <v>2384643399</v>
       </c>
       <c r="U14">
-        <v>555562560</v>
+        <v>4436005255</v>
       </c>
       <c r="V14">
-        <v>9236341465</v>
+        <v>2755379556</v>
       </c>
       <c r="W14">
-        <v>13159994846</v>
+        <v>1176755354</v>
       </c>
       <c r="X14">
-        <v>1236029732</v>
+        <v>4046949430</v>
       </c>
       <c r="Y14" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1973,76 +1988,76 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F15">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="G15">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J15">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K15">
-        <v>10193520</v>
+        <v>11287196</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="N15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O15" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P15">
-        <v>3952070068</v>
+        <v>50552623684</v>
       </c>
       <c r="Q15">
-        <v>10789274729</v>
+        <v>69013134090</v>
       </c>
       <c r="R15">
-        <v>6040367765</v>
+        <v>16887814423</v>
       </c>
       <c r="S15">
-        <v>-4741577598</v>
+        <v>9027232647</v>
       </c>
       <c r="T15">
-        <v>-3671026788</v>
+        <v>15707796256</v>
       </c>
       <c r="U15">
-        <v>-3292521363</v>
+        <v>555562560</v>
       </c>
       <c r="V15">
-        <v>-3654889267</v>
+        <v>9236341465</v>
       </c>
       <c r="W15">
-        <v>-2281074471</v>
+        <v>13159994846</v>
       </c>
       <c r="X15">
-        <v>-2539505707</v>
+        <v>1236029732</v>
       </c>
       <c r="Y15" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2050,76 +2065,76 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F16">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="G16">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J16">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K16">
-        <v>16120000</v>
+        <v>10193520</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="N16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O16" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P16">
-        <v>26691070764</v>
+        <v>3952070068</v>
       </c>
       <c r="Q16">
-        <v>22835113396</v>
+        <v>10789274729</v>
       </c>
       <c r="R16">
-        <v>7519073723</v>
+        <v>6040367765</v>
       </c>
       <c r="S16">
-        <v>6041270235</v>
+        <v>-4741577598</v>
       </c>
       <c r="T16">
-        <v>6705120210</v>
+        <v>-3671026788</v>
       </c>
       <c r="U16">
-        <v>982044017</v>
+        <v>-3292521363</v>
       </c>
       <c r="V16">
-        <v>5119066139</v>
+        <v>-3654889267</v>
       </c>
       <c r="W16">
-        <v>5870093710</v>
+        <v>-2281074471</v>
       </c>
       <c r="X16">
-        <v>1198587470</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2127,7 +2142,7 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -2136,67 +2151,67 @@
         <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F17">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="G17">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J17">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K17">
-        <v>7674103</v>
+        <v>16120000</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O17" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P17">
-        <v>8242508010</v>
+        <v>26691070764</v>
       </c>
       <c r="Q17">
-        <v>10751900430</v>
+        <v>22835113396</v>
       </c>
       <c r="R17">
-        <v>4416778965</v>
+        <v>7519073723</v>
       </c>
       <c r="S17">
-        <v>426234451</v>
+        <v>6041270235</v>
       </c>
       <c r="T17">
-        <v>2423749751</v>
+        <v>6705120210</v>
       </c>
       <c r="U17">
-        <v>677048172</v>
+        <v>982044017</v>
       </c>
       <c r="V17">
-        <v>57890953</v>
+        <v>5119066139</v>
       </c>
       <c r="W17">
-        <v>2826043673</v>
+        <v>5870093710</v>
       </c>
       <c r="X17">
-        <v>990121873</v>
+        <v>1198587470</v>
       </c>
       <c r="Y17" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2204,76 +2219,76 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
         <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F18">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="G18">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J18">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K18">
-        <v>9039778</v>
+        <v>7674103</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P18">
-        <v>104225113285</v>
+        <v>8242508010</v>
       </c>
       <c r="Q18">
-        <v>106505634411</v>
+        <v>10751900430</v>
       </c>
       <c r="R18">
-        <v>66424930568</v>
+        <v>4416778965</v>
       </c>
       <c r="S18">
-        <v>6291020806</v>
+        <v>426234451</v>
       </c>
       <c r="T18">
-        <v>7893242769</v>
+        <v>2423749751</v>
       </c>
       <c r="U18">
-        <v>7661497240</v>
+        <v>677048172</v>
       </c>
       <c r="V18">
-        <v>7319368873</v>
+        <v>57890953</v>
       </c>
       <c r="W18">
-        <v>9286891982</v>
+        <v>2826043673</v>
       </c>
       <c r="X18">
-        <v>7334816490</v>
+        <v>990121873</v>
       </c>
       <c r="Y18" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2284,31 +2299,31 @@
         <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
         <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F19">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="G19">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="J19">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K19">
-        <v>64819980</v>
+        <v>9039778</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2317,40 +2332,40 @@
         <v>26000</v>
       </c>
       <c r="N19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O19" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P19">
-        <v>36980</v>
+        <v>104225113285</v>
       </c>
       <c r="Q19">
-        <v>44954</v>
+        <v>106505634411</v>
       </c>
       <c r="R19">
-        <v>23652</v>
+        <v>66424930568</v>
       </c>
       <c r="S19">
-        <v>-7085</v>
+        <v>6291020806</v>
       </c>
       <c r="T19">
-        <v>-13228</v>
+        <v>7893242769</v>
       </c>
       <c r="U19">
-        <v>-9932</v>
+        <v>7661497240</v>
       </c>
       <c r="V19">
-        <v>-7417</v>
+        <v>7319368873</v>
       </c>
       <c r="W19">
-        <v>-12548</v>
+        <v>9286891982</v>
       </c>
       <c r="X19">
-        <v>-9333</v>
+        <v>7334816490</v>
       </c>
       <c r="Y19" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2358,76 +2373,76 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F20">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="G20">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J20">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K20">
-        <v>18905000</v>
+        <v>64819980</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O20" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>36980</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>44954</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>23652</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>-7085</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>-13228</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>-9932</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>-7417</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>-12548</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>-9333</v>
       </c>
       <c r="Y20" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2435,230 +2450,230 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F21">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="G21">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J21">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K21">
-        <v>5447675</v>
+        <v>18905000</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="N21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O21" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P21">
-        <v>18408761227</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>21902816604</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>8176918465</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>3669182465</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>1851925471</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>590566592</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>3633973594</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>2205418963</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>592903151</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
         <v>48</v>
       </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F22">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="G22">
-        <v>1640000</v>
+        <v>1500000</v>
       </c>
       <c r="H22">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J22">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K22">
-        <v>10969386</v>
+        <v>5447675</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O22" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P22">
-        <v>22818451349</v>
+        <v>18408761227</v>
       </c>
       <c r="Q22">
-        <v>30491967755</v>
+        <v>21902816604</v>
       </c>
       <c r="R22">
-        <v>18040053709</v>
+        <v>8176918465</v>
       </c>
       <c r="S22">
-        <v>2313787613</v>
+        <v>3669182465</v>
       </c>
       <c r="T22">
-        <v>4014101926</v>
+        <v>1851925471</v>
       </c>
       <c r="U22">
-        <v>1878997667</v>
+        <v>590566592</v>
       </c>
       <c r="V22">
-        <v>559427078</v>
+        <v>3633973594</v>
       </c>
       <c r="W22">
-        <v>-711183147</v>
+        <v>2205418963</v>
       </c>
       <c r="X22">
-        <v>1929682988</v>
+        <v>592903151</v>
       </c>
       <c r="Y22" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F23">
-        <v>1580000</v>
+        <v>2240000</v>
       </c>
       <c r="G23">
-        <v>1580000</v>
+        <v>1640000</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I23">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="J23">
-        <v>12000</v>
+        <v>13200</v>
       </c>
       <c r="K23">
-        <v>7874611</v>
+        <v>10969386</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N23" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O23" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P23">
-        <v>7327878427</v>
+        <v>22818451349</v>
       </c>
       <c r="Q23">
-        <v>10756717708</v>
+        <v>30491967755</v>
       </c>
       <c r="R23">
-        <v>4113702647</v>
+        <v>18040053709</v>
       </c>
       <c r="S23">
-        <v>-588932080</v>
+        <v>2313787613</v>
       </c>
       <c r="T23">
-        <v>254042570</v>
+        <v>4014101926</v>
       </c>
       <c r="U23">
-        <v>-738698858</v>
+        <v>1878997667</v>
       </c>
       <c r="V23">
-        <v>-569358529</v>
+        <v>559427078</v>
       </c>
       <c r="W23">
-        <v>-429546963</v>
+        <v>-711183147</v>
       </c>
       <c r="X23">
-        <v>-550600734</v>
+        <v>1929682988</v>
       </c>
       <c r="Y23" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2672,147 +2687,224 @@
         <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F24">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="G24">
-        <v>1500000</v>
+        <v>1580000</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J24">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="K24">
-        <v>8110389</v>
+        <v>7874611</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O24" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P24">
-        <v>28857</v>
+        <v>7327878427</v>
       </c>
       <c r="Q24">
-        <v>45830</v>
+        <v>10756717708</v>
       </c>
       <c r="R24">
-        <v>25997</v>
+        <v>4113702647</v>
       </c>
       <c r="S24">
-        <v>-14511</v>
+        <v>-588932080</v>
       </c>
       <c r="T24">
-        <v>4169</v>
+        <v>254042570</v>
       </c>
       <c r="U24">
-        <v>4958</v>
+        <v>-738698858</v>
       </c>
       <c r="V24">
-        <v>-34842</v>
+        <v>-569358529</v>
       </c>
       <c r="W24">
-        <v>13350</v>
+        <v>-429546963</v>
       </c>
       <c r="X24">
-        <v>5128</v>
+        <v>-550600734</v>
       </c>
       <c r="Y24" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
         <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F25">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="G25">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H25">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>20000</v>
       </c>
       <c r="J25">
+        <v>23000</v>
+      </c>
+      <c r="K25">
+        <v>8110389</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>23000</v>
+      </c>
+      <c r="N25" t="s">
+        <v>127</v>
+      </c>
+      <c r="O25" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25">
+        <v>28857</v>
+      </c>
+      <c r="Q25">
+        <v>45830</v>
+      </c>
+      <c r="R25">
+        <v>25997</v>
+      </c>
+      <c r="S25">
+        <v>-14511</v>
+      </c>
+      <c r="T25">
+        <v>4169</v>
+      </c>
+      <c r="U25">
+        <v>4958</v>
+      </c>
+      <c r="V25">
+        <v>-34842</v>
+      </c>
+      <c r="W25">
+        <v>13350</v>
+      </c>
+      <c r="X25">
+        <v>5128</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26">
+        <v>1100000</v>
+      </c>
+      <c r="G26">
+        <v>900000</v>
+      </c>
+      <c r="H26">
+        <v>200000</v>
+      </c>
+      <c r="I26">
+        <v>20000</v>
+      </c>
+      <c r="J26">
         <v>24000</v>
       </c>
-      <c r="K25">
+      <c r="K26">
         <v>4901526</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>24000</v>
       </c>
-      <c r="N25" t="s">
-        <v>125</v>
-      </c>
-      <c r="O25" t="s">
-        <v>147</v>
-      </c>
-      <c r="P25">
+      <c r="N26" t="s">
+        <v>128</v>
+      </c>
+      <c r="O26" t="s">
+        <v>151</v>
+      </c>
+      <c r="P26">
         <v>32608351</v>
       </c>
-      <c r="Q25">
+      <c r="Q26">
         <v>43629717</v>
       </c>
-      <c r="R25">
+      <c r="R26">
         <v>14011366</v>
       </c>
-      <c r="S25">
+      <c r="S26">
         <v>4301870</v>
       </c>
-      <c r="T25">
+      <c r="T26">
         <v>7039261</v>
       </c>
-      <c r="U25">
+      <c r="U26">
         <v>316611</v>
       </c>
-      <c r="V25">
+      <c r="V26">
         <v>4422483</v>
       </c>
-      <c r="W25">
+      <c r="W26">
         <v>5391712</v>
       </c>
-      <c r="X25">
+      <c r="X26">
         <v>180579</v>
       </c>
-      <c r="Y25" t="s">
-        <v>170</v>
+      <c r="Y26" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="180">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,9 +91,15 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-11-03</t>
+  </si>
+  <si>
     <t>2023-10-31</t>
   </si>
   <si>
+    <t>2023-11-02</t>
+  </si>
+  <si>
     <t>2023-11-01</t>
   </si>
   <si>
@@ -148,9 +154,15 @@
     <t>2023-09-07</t>
   </si>
   <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
     <t>2023-11-06</t>
   </si>
   <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
     <t>2023-11-07</t>
   </si>
   <si>
@@ -172,6 +184,9 @@
     <t>2023-09-13</t>
   </si>
   <si>
+    <t>2023-11-24</t>
+  </si>
+  <si>
     <t>2023-11-20</t>
   </si>
   <si>
@@ -181,9 +196,6 @@
     <t>2023-11-15</t>
   </si>
   <si>
-    <t>2023-11-09</t>
-  </si>
-  <si>
     <t>2023-11-13</t>
   </si>
   <si>
@@ -193,30 +205,24 @@
     <t>2023-11-10</t>
   </si>
   <si>
-    <t>2023-11-03</t>
-  </si>
-  <si>
-    <t>2023-11-02</t>
-  </si>
-  <si>
     <t>2023-10-10</t>
   </si>
   <si>
     <t>2023-09-27</t>
   </si>
   <si>
-    <t>2023-09-25</t>
+    <t>NH</t>
   </si>
   <si>
     <t>하이</t>
   </si>
   <si>
+    <t>대신</t>
+  </si>
+  <si>
     <t>KB</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>미래, 삼성</t>
   </si>
   <si>
@@ -226,9 +232,6 @@
     <t>한국</t>
   </si>
   <si>
-    <t>대신</t>
-  </si>
-  <si>
     <t>IBK</t>
   </si>
   <si>
@@ -250,12 +253,15 @@
     <t>유안타</t>
   </si>
   <si>
-    <t>신영</t>
+    <t>그린리소스</t>
   </si>
   <si>
     <t>스톰테크</t>
   </si>
   <si>
+    <t>한선엔지니어링</t>
+  </si>
+  <si>
     <t>에코아이</t>
   </si>
   <si>
@@ -325,12 +331,15 @@
     <t>밀리의서재</t>
   </si>
   <si>
-    <t>인스웨이브시스템즈</t>
+    <t>753.19:1</t>
   </si>
   <si>
     <t>573.97:1</t>
   </si>
   <si>
+    <t>709.55:1</t>
+  </si>
+  <si>
     <t>75.14:1</t>
   </si>
   <si>
@@ -400,12 +409,15 @@
     <t>619.24:1</t>
   </si>
   <si>
-    <t>672.42:1</t>
+    <t>5.39%</t>
   </si>
   <si>
     <t>3.24%</t>
   </si>
   <si>
+    <t>3.89%</t>
+  </si>
+  <si>
     <t>3.99%</t>
   </si>
   <si>
@@ -469,12 +481,15 @@
     <t>5.76%</t>
   </si>
   <si>
-    <t>7.46%</t>
+    <t>반도체 및 디스플레이 장비 보호코팅 및 소재</t>
   </si>
   <si>
     <t>정수기 피팅, 밸브, 파우셋 등 부품</t>
   </si>
   <si>
+    <t>계장용 피팅 및 밸브, 모듈</t>
+  </si>
+  <si>
     <t>탄소배출권 및 탄소배출권 관련 컨설팅</t>
   </si>
   <si>
@@ -539,9 +554,6 @@
   </si>
   <si>
     <t>전자책 정기구독 서비스</t>
-  </si>
-  <si>
-    <t>UI/UX 개발 솔루션, 엔터프라이즈 DX 솔루션, 금융 단말 솔루션 등</t>
   </si>
 </sst>
 </file>
@@ -899,7 +911,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -987,76 +999,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
       </c>
       <c r="F2">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="G2">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="J2">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="K2">
-        <v>13436499</v>
+        <v>8183944</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P2">
-        <v>47984</v>
+        <v>13660</v>
       </c>
       <c r="Q2">
-        <v>51031</v>
+        <v>25085</v>
       </c>
       <c r="R2">
-        <v>29425</v>
+        <v>8905</v>
       </c>
       <c r="S2">
-        <v>10526</v>
+        <v>3108</v>
       </c>
       <c r="T2">
-        <v>11804</v>
+        <v>3731</v>
       </c>
       <c r="U2">
-        <v>7008</v>
+        <v>2219</v>
       </c>
       <c r="V2">
-        <v>8661</v>
+        <v>1157</v>
       </c>
       <c r="W2">
-        <v>9582</v>
+        <v>3465</v>
       </c>
       <c r="X2">
-        <v>5612</v>
+        <v>1666</v>
       </c>
       <c r="Y2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1064,76 +1076,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
         <v>80</v>
       </c>
       <c r="F3">
-        <v>2079000</v>
+        <v>3350000</v>
       </c>
       <c r="G3">
-        <v>2079000</v>
+        <v>3350000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28500</v>
+        <v>8000</v>
       </c>
       <c r="J3">
-        <v>34700</v>
+        <v>9500</v>
       </c>
       <c r="K3">
-        <v>9877043</v>
+        <v>13436499</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>34700</v>
+        <v>11000</v>
       </c>
       <c r="N3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P3">
-        <v>26994234332</v>
+        <v>47984</v>
       </c>
       <c r="Q3">
-        <v>60121142197</v>
+        <v>51031</v>
       </c>
       <c r="R3">
-        <v>53305665235</v>
+        <v>29425</v>
       </c>
       <c r="S3">
-        <v>10162848799</v>
+        <v>10526</v>
       </c>
       <c r="T3">
-        <v>20033029594</v>
+        <v>11804</v>
       </c>
       <c r="U3">
-        <v>19806683734</v>
+        <v>7008</v>
       </c>
       <c r="V3">
-        <v>7996520497</v>
+        <v>8661</v>
       </c>
       <c r="W3">
-        <v>15559454518</v>
+        <v>9582</v>
       </c>
       <c r="X3">
-        <v>15932218050</v>
+        <v>5612</v>
       </c>
       <c r="Y3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1141,76 +1153,76 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
         <v>81</v>
       </c>
       <c r="F4">
-        <v>1596000</v>
+        <v>4250000</v>
       </c>
       <c r="G4">
-        <v>1596000</v>
+        <v>4250000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3200</v>
+        <v>5200</v>
       </c>
       <c r="J4">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="K4">
-        <v>13346380</v>
+        <v>17002500</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4">
-        <v>7668281979</v>
+        <v>27199897007</v>
       </c>
       <c r="Q4">
-        <v>7100921456</v>
+        <v>40971122327</v>
       </c>
       <c r="R4">
-        <v>1207846478</v>
+        <v>25300714406</v>
       </c>
       <c r="S4">
-        <v>5659403971</v>
+        <v>2887034102</v>
       </c>
       <c r="T4">
-        <v>6124121466</v>
+        <v>7167697077</v>
       </c>
       <c r="U4">
-        <v>940668827</v>
+        <v>4740280453</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>2399514033</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>5498221693</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>3402334635</v>
       </c>
       <c r="Y4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1218,76 +1230,76 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
         <v>82</v>
       </c>
       <c r="F5">
-        <v>1600000</v>
+        <v>2079000</v>
       </c>
       <c r="G5">
-        <v>1600000</v>
+        <v>2079000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>29800</v>
+        <v>28500</v>
       </c>
       <c r="J5">
-        <v>33500</v>
+        <v>34700</v>
       </c>
       <c r="K5">
-        <v>13612736</v>
+        <v>9877043</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>20000</v>
+        <v>34700</v>
       </c>
       <c r="N5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>26994234332</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>60121142197</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>53305665235</v>
       </c>
       <c r="S5">
-        <v>-15286512079</v>
+        <v>10162848799</v>
       </c>
       <c r="T5">
-        <v>-21424611321</v>
+        <v>20033029594</v>
       </c>
       <c r="U5">
-        <v>-139745251263</v>
+        <v>19806683734</v>
       </c>
       <c r="V5">
-        <v>-53575668634</v>
+        <v>7996520497</v>
       </c>
       <c r="W5">
-        <v>-38885125426</v>
+        <v>15559454518</v>
       </c>
       <c r="X5">
-        <v>-12610702106</v>
+        <v>15932218050</v>
       </c>
       <c r="Y5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1295,76 +1307,76 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
         <v>83</v>
       </c>
       <c r="F6">
-        <v>2636330</v>
+        <v>1596000</v>
       </c>
       <c r="G6">
-        <v>2636330</v>
+        <v>1596000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19100</v>
+        <v>3200</v>
       </c>
       <c r="J6">
-        <v>21400</v>
+        <v>3600</v>
       </c>
       <c r="K6">
-        <v>10585320</v>
+        <v>13346380</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="N6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P6">
-        <v>45195788</v>
+        <v>7668281979</v>
       </c>
       <c r="Q6">
-        <v>69629209</v>
+        <v>7100921456</v>
       </c>
       <c r="R6">
-        <v>35634471</v>
+        <v>1207846478</v>
       </c>
       <c r="S6">
-        <v>2751277</v>
+        <v>5659403971</v>
       </c>
       <c r="T6">
-        <v>11449731</v>
+        <v>6124121466</v>
       </c>
       <c r="U6">
-        <v>2482194</v>
+        <v>940668827</v>
       </c>
       <c r="V6">
-        <v>2092692</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>5149538</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>2327401</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1372,10 +1384,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>69</v>
@@ -1384,34 +1396,34 @@
         <v>84</v>
       </c>
       <c r="F7">
-        <v>4000000</v>
+        <v>1600000</v>
       </c>
       <c r="G7">
-        <v>4000000</v>
+        <v>1600000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>29800</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>33500</v>
       </c>
       <c r="K7">
-        <v>4320000</v>
+        <v>13612736</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1423,641 +1435,641 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>-15286512079</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>-21424611321</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>-139745251263</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>-53575668634</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>-38885125426</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
         <v>85</v>
       </c>
       <c r="F8">
-        <v>7000000</v>
+        <v>2636330</v>
       </c>
       <c r="G8">
-        <v>7000000</v>
+        <v>2636330</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1200</v>
+        <v>19100</v>
       </c>
       <c r="J8">
-        <v>1500</v>
+        <v>21400</v>
       </c>
       <c r="K8">
-        <v>30610000</v>
+        <v>10585320</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1800</v>
+        <v>25000</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P8">
-        <v>67332006578</v>
+        <v>45195788</v>
       </c>
       <c r="Q8">
-        <v>100050838794</v>
+        <v>69629209</v>
       </c>
       <c r="R8">
-        <v>63366010569</v>
+        <v>35634471</v>
       </c>
       <c r="S8">
-        <v>1140243099</v>
+        <v>2751277</v>
       </c>
       <c r="T8">
-        <v>8333440685</v>
+        <v>11449731</v>
       </c>
       <c r="U8">
-        <v>7415958936</v>
+        <v>2482194</v>
       </c>
       <c r="V8">
-        <v>668088159</v>
+        <v>2092692</v>
       </c>
       <c r="W8">
-        <v>5930478364</v>
+        <v>5149538</v>
       </c>
       <c r="X8">
-        <v>5666583221</v>
+        <v>2327401</v>
       </c>
       <c r="Y8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
         <v>86</v>
       </c>
       <c r="F9">
-        <v>5200000</v>
+        <v>4000000</v>
       </c>
       <c r="G9">
-        <v>5200000</v>
+        <v>4000000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="K9">
-        <v>20771000</v>
+        <v>4320000</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P9">
-        <v>39450601</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>49044883</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>21826468</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>2477559</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>8094900</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>215154</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>3427734</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>6575528</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>349843</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
         <v>87</v>
       </c>
       <c r="F10">
-        <v>2060000</v>
+        <v>7000000</v>
       </c>
       <c r="G10">
-        <v>2000000</v>
+        <v>7000000</v>
       </c>
       <c r="H10">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>20300</v>
+        <v>1200</v>
       </c>
       <c r="J10">
-        <v>22500</v>
+        <v>1500</v>
       </c>
       <c r="K10">
-        <v>14384224</v>
+        <v>30610000</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22500</v>
+        <v>1800</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P10">
-        <v>5787300240</v>
+        <v>67332006578</v>
       </c>
       <c r="Q10">
-        <v>1914633847</v>
+        <v>100050838794</v>
       </c>
       <c r="R10">
-        <v>3156092272</v>
+        <v>63366010569</v>
       </c>
       <c r="S10">
-        <v>-1798278694</v>
+        <v>1140243099</v>
       </c>
       <c r="T10">
-        <v>-1453689952</v>
+        <v>8333440685</v>
       </c>
       <c r="U10">
-        <v>-4067648306</v>
+        <v>7415958936</v>
       </c>
       <c r="V10">
-        <v>-12449932055</v>
+        <v>668088159</v>
       </c>
       <c r="W10">
-        <v>-7426231074</v>
+        <v>5930478364</v>
       </c>
       <c r="X10">
-        <v>-52132058866</v>
+        <v>5666583221</v>
       </c>
       <c r="Y10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
         <v>88</v>
       </c>
       <c r="F11">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="G11">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>9100</v>
+        <v>3500</v>
       </c>
       <c r="J11">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="K11">
-        <v>7206940</v>
+        <v>20771000</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>13000</v>
+        <v>4800</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11">
-        <v>20924</v>
+        <v>39450601</v>
       </c>
       <c r="Q11">
-        <v>27659</v>
+        <v>49044883</v>
       </c>
       <c r="R11">
-        <v>11818</v>
+        <v>21826468</v>
       </c>
       <c r="S11">
-        <v>2838</v>
+        <v>2477559</v>
       </c>
       <c r="T11">
-        <v>4563</v>
+        <v>8094900</v>
       </c>
       <c r="U11">
-        <v>-1222</v>
+        <v>215154</v>
       </c>
       <c r="V11">
-        <v>2413</v>
+        <v>3427734</v>
       </c>
       <c r="W11">
-        <v>3190</v>
+        <v>6575528</v>
       </c>
       <c r="X11">
-        <v>-862</v>
+        <v>349843</v>
       </c>
       <c r="Y11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
         <v>89</v>
       </c>
       <c r="F12">
-        <v>3600000</v>
+        <v>2060000</v>
       </c>
       <c r="G12">
-        <v>3600000</v>
+        <v>2000000</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I12">
-        <v>5000</v>
+        <v>20300</v>
       </c>
       <c r="J12">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="K12">
-        <v>17306490</v>
+        <v>14384224</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P12">
-        <v>21976760922</v>
+        <v>5787300240</v>
       </c>
       <c r="Q12">
-        <v>15839004968</v>
+        <v>1914633847</v>
       </c>
       <c r="R12">
-        <v>6887755932</v>
+        <v>3156092272</v>
       </c>
       <c r="S12">
-        <v>-2217897363</v>
+        <v>-1798278694</v>
       </c>
       <c r="T12">
-        <v>-3403228196</v>
+        <v>-1453689952</v>
       </c>
       <c r="U12">
-        <v>-2758864194</v>
+        <v>-4067648306</v>
       </c>
       <c r="V12">
-        <v>-5110677395</v>
+        <v>-12449932055</v>
       </c>
       <c r="W12">
-        <v>-29510193610</v>
+        <v>-7426231074</v>
       </c>
       <c r="X12">
-        <v>-2514471056</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
         <v>90</v>
       </c>
       <c r="F13">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="G13">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>9100</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K13">
-        <v>12905000</v>
+        <v>7206940</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O13" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>20924</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>27659</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>11818</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>2838</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>4563</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>-1222</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>2413</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>3190</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>-862</v>
       </c>
       <c r="Y13" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
         <v>91</v>
       </c>
       <c r="F14">
-        <v>1049482</v>
+        <v>3600000</v>
       </c>
       <c r="G14">
-        <v>944534</v>
+        <v>3600000</v>
       </c>
       <c r="H14">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>12800</v>
+        <v>5000</v>
       </c>
       <c r="J14">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="K14">
-        <v>6261485</v>
+        <v>17306490</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="N14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P14">
-        <v>34557425427</v>
+        <v>21976760922</v>
       </c>
       <c r="Q14">
-        <v>39824841246</v>
+        <v>15839004968</v>
       </c>
       <c r="R14">
-        <v>23231897516</v>
+        <v>6887755932</v>
       </c>
       <c r="S14">
-        <v>3011651602</v>
+        <v>-2217897363</v>
       </c>
       <c r="T14">
-        <v>2384643399</v>
+        <v>-3403228196</v>
       </c>
       <c r="U14">
-        <v>4436005255</v>
+        <v>-2758864194</v>
       </c>
       <c r="V14">
-        <v>2755379556</v>
+        <v>-5110677395</v>
       </c>
       <c r="W14">
-        <v>1176755354</v>
+        <v>-29510193610</v>
       </c>
       <c r="X14">
-        <v>4046949430</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y14" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
         <v>92</v>
       </c>
       <c r="F15">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="G15">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="K15">
-        <v>11287196</v>
+        <v>12905000</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P15">
-        <v>50552623684</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>69013134090</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>16887814423</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>9027232647</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>15707796256</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>555562560</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>9236341465</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>13159994846</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>1236029732</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2065,34 +2077,34 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
         <v>93</v>
       </c>
       <c r="F16">
-        <v>1800000</v>
+        <v>1049482</v>
       </c>
       <c r="G16">
-        <v>1800000</v>
+        <v>944534</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I16">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="J16">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="K16">
-        <v>10193520</v>
+        <v>6261485</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2101,40 +2113,40 @@
         <v>17000</v>
       </c>
       <c r="N16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P16">
-        <v>3952070068</v>
+        <v>34557425427</v>
       </c>
       <c r="Q16">
-        <v>10789274729</v>
+        <v>39824841246</v>
       </c>
       <c r="R16">
-        <v>6040367765</v>
+        <v>23231897516</v>
       </c>
       <c r="S16">
-        <v>-4741577598</v>
+        <v>3011651602</v>
       </c>
       <c r="T16">
-        <v>-3671026788</v>
+        <v>2384643399</v>
       </c>
       <c r="U16">
-        <v>-3292521363</v>
+        <v>4436005255</v>
       </c>
       <c r="V16">
-        <v>-3654889267</v>
+        <v>2755379556</v>
       </c>
       <c r="W16">
-        <v>-2281074471</v>
+        <v>1176755354</v>
       </c>
       <c r="X16">
-        <v>-2539505707</v>
+        <v>4046949430</v>
       </c>
       <c r="Y16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2154,64 +2166,64 @@
         <v>94</v>
       </c>
       <c r="F17">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="G17">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="J17">
-        <v>5600</v>
+        <v>3900</v>
       </c>
       <c r="K17">
-        <v>16120000</v>
+        <v>11287196</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="N17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P17">
-        <v>26691070764</v>
+        <v>50552623684</v>
       </c>
       <c r="Q17">
-        <v>22835113396</v>
+        <v>69013134090</v>
       </c>
       <c r="R17">
-        <v>7519073723</v>
+        <v>16887814423</v>
       </c>
       <c r="S17">
-        <v>6041270235</v>
+        <v>9027232647</v>
       </c>
       <c r="T17">
-        <v>6705120210</v>
+        <v>15707796256</v>
       </c>
       <c r="U17">
-        <v>982044017</v>
+        <v>555562560</v>
       </c>
       <c r="V17">
-        <v>5119066139</v>
+        <v>9236341465</v>
       </c>
       <c r="W17">
-        <v>5870093710</v>
+        <v>13159994846</v>
       </c>
       <c r="X17">
-        <v>1198587470</v>
+        <v>1236029732</v>
       </c>
       <c r="Y17" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2219,76 +2231,76 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
         <v>95</v>
       </c>
       <c r="F18">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="G18">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>8200</v>
+        <v>13000</v>
       </c>
       <c r="J18">
-        <v>9400</v>
+        <v>15000</v>
       </c>
       <c r="K18">
-        <v>7674103</v>
+        <v>10193520</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="N18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P18">
-        <v>8242508010</v>
+        <v>3952070068</v>
       </c>
       <c r="Q18">
-        <v>10751900430</v>
+        <v>10789274729</v>
       </c>
       <c r="R18">
-        <v>4416778965</v>
+        <v>6040367765</v>
       </c>
       <c r="S18">
-        <v>426234451</v>
+        <v>-4741577598</v>
       </c>
       <c r="T18">
-        <v>2423749751</v>
+        <v>-3671026788</v>
       </c>
       <c r="U18">
-        <v>677048172</v>
+        <v>-3292521363</v>
       </c>
       <c r="V18">
-        <v>57890953</v>
+        <v>-3654889267</v>
       </c>
       <c r="W18">
-        <v>2826043673</v>
+        <v>-2281074471</v>
       </c>
       <c r="X18">
-        <v>990121873</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y18" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2296,76 +2308,76 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
         <v>96</v>
       </c>
       <c r="F19">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="G19">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="J19">
-        <v>25000</v>
+        <v>5600</v>
       </c>
       <c r="K19">
-        <v>9039778</v>
+        <v>16120000</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="N19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P19">
-        <v>104225113285</v>
+        <v>26691070764</v>
       </c>
       <c r="Q19">
-        <v>106505634411</v>
+        <v>22835113396</v>
       </c>
       <c r="R19">
-        <v>66424930568</v>
+        <v>7519073723</v>
       </c>
       <c r="S19">
-        <v>6291020806</v>
+        <v>6041270235</v>
       </c>
       <c r="T19">
-        <v>7893242769</v>
+        <v>6705120210</v>
       </c>
       <c r="U19">
-        <v>7661497240</v>
+        <v>982044017</v>
       </c>
       <c r="V19">
-        <v>7319368873</v>
+        <v>5119066139</v>
       </c>
       <c r="W19">
-        <v>9286891982</v>
+        <v>5870093710</v>
       </c>
       <c r="X19">
-        <v>7334816490</v>
+        <v>1198587470</v>
       </c>
       <c r="Y19" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2373,76 +2385,76 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
         <v>97</v>
       </c>
       <c r="F20">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="G20">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21000</v>
+        <v>8200</v>
       </c>
       <c r="J20">
-        <v>26000</v>
+        <v>9400</v>
       </c>
       <c r="K20">
-        <v>64819980</v>
+        <v>7674103</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P20">
-        <v>36980</v>
+        <v>8242508010</v>
       </c>
       <c r="Q20">
-        <v>44954</v>
+        <v>10751900430</v>
       </c>
       <c r="R20">
-        <v>23652</v>
+        <v>4416778965</v>
       </c>
       <c r="S20">
-        <v>-7085</v>
+        <v>426234451</v>
       </c>
       <c r="T20">
-        <v>-13228</v>
+        <v>2423749751</v>
       </c>
       <c r="U20">
-        <v>-9932</v>
+        <v>677048172</v>
       </c>
       <c r="V20">
-        <v>-7417</v>
+        <v>57890953</v>
       </c>
       <c r="W20">
-        <v>-12548</v>
+        <v>2826043673</v>
       </c>
       <c r="X20">
-        <v>-9333</v>
+        <v>990121873</v>
       </c>
       <c r="Y20" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2450,76 +2462,76 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
         <v>98</v>
       </c>
       <c r="F21">
-        <v>18000000</v>
+        <v>2000000</v>
       </c>
       <c r="G21">
-        <v>18000000</v>
+        <v>2000000</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J21">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="K21">
-        <v>18905000</v>
+        <v>9039778</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O21" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>104225113285</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>106505634411</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>66424930568</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>6291020806</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>7893242769</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>7661497240</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>7319368873</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>9286891982</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>7334816490</v>
       </c>
       <c r="Y21" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2527,315 +2539,315 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
         <v>99</v>
       </c>
       <c r="F22">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="G22">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>8900</v>
+        <v>21000</v>
       </c>
       <c r="J22">
-        <v>11000</v>
+        <v>26000</v>
       </c>
       <c r="K22">
-        <v>5447675</v>
+        <v>64819980</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="N22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O22" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P22">
-        <v>18408761227</v>
+        <v>36980</v>
       </c>
       <c r="Q22">
-        <v>21902816604</v>
+        <v>44954</v>
       </c>
       <c r="R22">
-        <v>8176918465</v>
+        <v>23652</v>
       </c>
       <c r="S22">
-        <v>3669182465</v>
+        <v>-7085</v>
       </c>
       <c r="T22">
-        <v>1851925471</v>
+        <v>-13228</v>
       </c>
       <c r="U22">
-        <v>590566592</v>
+        <v>-9932</v>
       </c>
       <c r="V22">
-        <v>3633973594</v>
+        <v>-7417</v>
       </c>
       <c r="W22">
-        <v>2205418963</v>
+        <v>-12548</v>
       </c>
       <c r="X22">
-        <v>592903151</v>
+        <v>-9333</v>
       </c>
       <c r="Y22" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
         <v>100</v>
       </c>
       <c r="F23">
-        <v>2240000</v>
+        <v>18000000</v>
       </c>
       <c r="G23">
-        <v>1640000</v>
+        <v>18000000</v>
       </c>
       <c r="H23">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>11500</v>
+        <v>2000</v>
       </c>
       <c r="J23">
-        <v>13200</v>
+        <v>2000</v>
       </c>
       <c r="K23">
-        <v>10969386</v>
+        <v>18905000</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="N23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O23" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P23">
-        <v>22818451349</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>30491967755</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>18040053709</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>2313787613</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>4014101926</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>1878997667</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>559427078</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>-711183147</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>1929682988</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
         <v>101</v>
       </c>
       <c r="F24">
-        <v>1580000</v>
+        <v>1500000</v>
       </c>
       <c r="G24">
-        <v>1580000</v>
+        <v>1500000</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10500</v>
+        <v>8900</v>
       </c>
       <c r="J24">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="K24">
-        <v>7874611</v>
+        <v>5447675</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="N24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P24">
-        <v>7327878427</v>
+        <v>18408761227</v>
       </c>
       <c r="Q24">
-        <v>10756717708</v>
+        <v>21902816604</v>
       </c>
       <c r="R24">
-        <v>4113702647</v>
+        <v>8176918465</v>
       </c>
       <c r="S24">
-        <v>-588932080</v>
+        <v>3669182465</v>
       </c>
       <c r="T24">
-        <v>254042570</v>
+        <v>1851925471</v>
       </c>
       <c r="U24">
-        <v>-738698858</v>
+        <v>590566592</v>
       </c>
       <c r="V24">
-        <v>-569358529</v>
+        <v>3633973594</v>
       </c>
       <c r="W24">
-        <v>-429546963</v>
+        <v>2205418963</v>
       </c>
       <c r="X24">
-        <v>-550600734</v>
+        <v>592903151</v>
       </c>
       <c r="Y24" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
         <v>102</v>
       </c>
       <c r="F25">
-        <v>1500000</v>
+        <v>2240000</v>
       </c>
       <c r="G25">
-        <v>1500000</v>
+        <v>1640000</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I25">
-        <v>20000</v>
+        <v>11500</v>
       </c>
       <c r="J25">
-        <v>23000</v>
+        <v>13200</v>
       </c>
       <c r="K25">
-        <v>8110389</v>
+        <v>10969386</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="N25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25">
-        <v>28857</v>
+        <v>22818451349</v>
       </c>
       <c r="Q25">
-        <v>45830</v>
+        <v>30491967755</v>
       </c>
       <c r="R25">
-        <v>25997</v>
+        <v>18040053709</v>
       </c>
       <c r="S25">
-        <v>-14511</v>
+        <v>2313787613</v>
       </c>
       <c r="T25">
-        <v>4169</v>
+        <v>4014101926</v>
       </c>
       <c r="U25">
-        <v>4958</v>
+        <v>1878997667</v>
       </c>
       <c r="V25">
-        <v>-34842</v>
+        <v>559427078</v>
       </c>
       <c r="W25">
-        <v>13350</v>
+        <v>-711183147</v>
       </c>
       <c r="X25">
-        <v>5128</v>
+        <v>1929682988</v>
       </c>
       <c r="Y25" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
@@ -2847,64 +2859,141 @@
         <v>103</v>
       </c>
       <c r="F26">
-        <v>1100000</v>
+        <v>1580000</v>
       </c>
       <c r="G26">
-        <v>900000</v>
+        <v>1580000</v>
       </c>
       <c r="H26">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I26">
+        <v>10500</v>
+      </c>
+      <c r="J26">
+        <v>12000</v>
+      </c>
+      <c r="K26">
+        <v>7874611</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>14000</v>
+      </c>
+      <c r="N26" t="s">
+        <v>129</v>
+      </c>
+      <c r="O26" t="s">
+        <v>153</v>
+      </c>
+      <c r="P26">
+        <v>7327878427</v>
+      </c>
+      <c r="Q26">
+        <v>10756717708</v>
+      </c>
+      <c r="R26">
+        <v>4113702647</v>
+      </c>
+      <c r="S26">
+        <v>-588932080</v>
+      </c>
+      <c r="T26">
+        <v>254042570</v>
+      </c>
+      <c r="U26">
+        <v>-738698858</v>
+      </c>
+      <c r="V26">
+        <v>-569358529</v>
+      </c>
+      <c r="W26">
+        <v>-429546963</v>
+      </c>
+      <c r="X26">
+        <v>-550600734</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27">
+        <v>1500000</v>
+      </c>
+      <c r="G27">
+        <v>1500000</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>20000</v>
       </c>
-      <c r="J26">
-        <v>24000</v>
-      </c>
-      <c r="K26">
-        <v>4901526</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>24000</v>
-      </c>
-      <c r="N26" t="s">
-        <v>128</v>
-      </c>
-      <c r="O26" t="s">
-        <v>151</v>
-      </c>
-      <c r="P26">
-        <v>32608351</v>
-      </c>
-      <c r="Q26">
-        <v>43629717</v>
-      </c>
-      <c r="R26">
-        <v>14011366</v>
-      </c>
-      <c r="S26">
-        <v>4301870</v>
-      </c>
-      <c r="T26">
-        <v>7039261</v>
-      </c>
-      <c r="U26">
-        <v>316611</v>
-      </c>
-      <c r="V26">
-        <v>4422483</v>
-      </c>
-      <c r="W26">
-        <v>5391712</v>
-      </c>
-      <c r="X26">
-        <v>180579</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>175</v>
+      <c r="J27">
+        <v>23000</v>
+      </c>
+      <c r="K27">
+        <v>8110389</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>23000</v>
+      </c>
+      <c r="N27" t="s">
+        <v>130</v>
+      </c>
+      <c r="O27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P27">
+        <v>28857</v>
+      </c>
+      <c r="Q27">
+        <v>45830</v>
+      </c>
+      <c r="R27">
+        <v>25997</v>
+      </c>
+      <c r="S27">
+        <v>-14511</v>
+      </c>
+      <c r="T27">
+        <v>4169</v>
+      </c>
+      <c r="U27">
+        <v>4958</v>
+      </c>
+      <c r="V27">
+        <v>-34842</v>
+      </c>
+      <c r="W27">
+        <v>13350</v>
+      </c>
+      <c r="X27">
+        <v>5128</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="173">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -151,9 +151,6 @@
     <t>2023-09-06</t>
   </si>
   <si>
-    <t>2023-09-07</t>
-  </si>
-  <si>
     <t>2023-11-09</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t>2023-09-12</t>
   </si>
   <si>
-    <t>2023-09-13</t>
-  </si>
-  <si>
     <t>2023-11-24</t>
   </si>
   <si>
@@ -208,9 +202,6 @@
     <t>2023-10-10</t>
   </si>
   <si>
-    <t>2023-09-27</t>
-  </si>
-  <si>
     <t>NH</t>
   </si>
   <si>
@@ -328,9 +319,6 @@
     <t>아이엠티</t>
   </si>
   <si>
-    <t>밀리의서재</t>
-  </si>
-  <si>
     <t>753.19:1</t>
   </si>
   <si>
@@ -406,9 +394,6 @@
     <t>753.50:1</t>
   </si>
   <si>
-    <t>619.24:1</t>
-  </si>
-  <si>
     <t>5.39%</t>
   </si>
   <si>
@@ -478,9 +463,6 @@
     <t>22.20%</t>
   </si>
   <si>
-    <t>5.76%</t>
-  </si>
-  <si>
     <t>반도체 및 디스플레이 장비 보호코팅 및 소재</t>
   </si>
   <si>
@@ -551,9 +533,6 @@
   </si>
   <si>
     <t>건식세정 장비 및 EUV Mask Baking Laser</t>
-  </si>
-  <si>
-    <t>전자책 정기구독 서비스</t>
   </si>
 </sst>
 </file>
@@ -911,7 +890,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -999,16 +978,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F2">
         <v>1640000</v>
@@ -1035,10 +1014,10 @@
         <v>17000</v>
       </c>
       <c r="N2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P2">
         <v>13660</v>
@@ -1068,7 +1047,7 @@
         <v>1666</v>
       </c>
       <c r="Y2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1076,16 +1055,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F3">
         <v>3350000</v>
@@ -1112,10 +1091,10 @@
         <v>11000</v>
       </c>
       <c r="N3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="O3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="P3">
         <v>47984</v>
@@ -1145,7 +1124,7 @@
         <v>5612</v>
       </c>
       <c r="Y3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1153,16 +1132,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F4">
         <v>4250000</v>
@@ -1189,10 +1168,10 @@
         <v>7000</v>
       </c>
       <c r="N4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="P4">
         <v>27199897007</v>
@@ -1222,7 +1201,7 @@
         <v>3402334635</v>
       </c>
       <c r="Y4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1230,16 +1209,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F5">
         <v>2079000</v>
@@ -1266,10 +1245,10 @@
         <v>34700</v>
       </c>
       <c r="N5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="P5">
         <v>26994234332</v>
@@ -1299,7 +1278,7 @@
         <v>15932218050</v>
       </c>
       <c r="Y5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1310,13 +1289,13 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F6">
         <v>1596000</v>
@@ -1343,10 +1322,10 @@
         <v>4000</v>
       </c>
       <c r="N6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="P6">
         <v>7668281979</v>
@@ -1376,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1387,13 +1366,13 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F7">
         <v>1600000</v>
@@ -1420,10 +1399,10 @@
         <v>20000</v>
       </c>
       <c r="N7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1453,7 +1432,7 @@
         <v>-12610702106</v>
       </c>
       <c r="Y7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1461,16 +1440,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F8">
         <v>2636330</v>
@@ -1497,10 +1476,10 @@
         <v>25000</v>
       </c>
       <c r="N8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P8">
         <v>45195788</v>
@@ -1530,7 +1509,7 @@
         <v>2327401</v>
       </c>
       <c r="Y8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1541,13 +1520,13 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F9">
         <v>4000000</v>
@@ -1574,10 +1553,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1607,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1615,16 +1594,16 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F10">
         <v>7000000</v>
@@ -1651,10 +1630,10 @@
         <v>1800</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P10">
         <v>67332006578</v>
@@ -1684,7 +1663,7 @@
         <v>5666583221</v>
       </c>
       <c r="Y10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1695,13 +1674,13 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
         <v>62</v>
       </c>
-      <c r="D11" t="s">
-        <v>65</v>
-      </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F11">
         <v>5200000</v>
@@ -1728,10 +1707,10 @@
         <v>4800</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P11">
         <v>39450601</v>
@@ -1761,7 +1740,7 @@
         <v>349843</v>
       </c>
       <c r="Y11" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1772,13 +1751,13 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F12">
         <v>2060000</v>
@@ -1805,10 +1784,10 @@
         <v>22500</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="P12">
         <v>5787300240</v>
@@ -1838,7 +1817,7 @@
         <v>-52132058866</v>
       </c>
       <c r="Y12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1849,13 +1828,13 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F13">
         <v>1200000</v>
@@ -1882,10 +1861,10 @@
         <v>13000</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="P13">
         <v>20924</v>
@@ -1915,7 +1894,7 @@
         <v>-862</v>
       </c>
       <c r="Y13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1926,13 +1905,13 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F14">
         <v>3600000</v>
@@ -1959,10 +1938,10 @@
         <v>7500</v>
       </c>
       <c r="N14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P14">
         <v>21976760922</v>
@@ -1992,7 +1971,7 @@
         <v>-2514471056</v>
       </c>
       <c r="Y14" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2006,10 +1985,10 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F15">
         <v>12500000</v>
@@ -2036,10 +2015,10 @@
         <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2069,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2083,10 +2062,10 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F16">
         <v>1049482</v>
@@ -2113,10 +2092,10 @@
         <v>17000</v>
       </c>
       <c r="N16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O16" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P16">
         <v>34557425427</v>
@@ -2146,7 +2125,7 @@
         <v>4046949430</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2160,10 +2139,10 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F17">
         <v>1128720</v>
@@ -2190,10 +2169,10 @@
         <v>4400</v>
       </c>
       <c r="N17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O17" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P17">
         <v>50552623684</v>
@@ -2223,7 +2202,7 @@
         <v>1236029732</v>
       </c>
       <c r="Y17" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2231,16 +2210,16 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F18">
         <v>1800000</v>
@@ -2267,10 +2246,10 @@
         <v>17000</v>
       </c>
       <c r="N18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O18" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P18">
         <v>3952070068</v>
@@ -2300,7 +2279,7 @@
         <v>-2539505707</v>
       </c>
       <c r="Y18" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2314,10 +2293,10 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F19">
         <v>4000000</v>
@@ -2344,10 +2323,10 @@
         <v>6500</v>
       </c>
       <c r="N19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O19" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P19">
         <v>26691070764</v>
@@ -2377,7 +2356,7 @@
         <v>1198587470</v>
       </c>
       <c r="Y19" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2391,10 +2370,10 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F20">
         <v>770000</v>
@@ -2421,10 +2400,10 @@
         <v>7000</v>
       </c>
       <c r="N20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P20">
         <v>8242508010</v>
@@ -2454,7 +2433,7 @@
         <v>990121873</v>
       </c>
       <c r="Y20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2462,16 +2441,16 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F21">
         <v>2000000</v>
@@ -2498,10 +2477,10 @@
         <v>26000</v>
       </c>
       <c r="N21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P21">
         <v>104225113285</v>
@@ -2531,7 +2510,7 @@
         <v>7334816490</v>
       </c>
       <c r="Y21" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2539,16 +2518,16 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
         <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F22">
         <v>16200000</v>
@@ -2575,10 +2554,10 @@
         <v>26000</v>
       </c>
       <c r="N22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O22" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P22">
         <v>36980</v>
@@ -2608,7 +2587,7 @@
         <v>-9333</v>
       </c>
       <c r="Y22" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2616,16 +2595,16 @@
         <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F23">
         <v>18000000</v>
@@ -2652,10 +2631,10 @@
         <v>2000</v>
       </c>
       <c r="N23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2685,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2696,13 +2675,13 @@
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F24">
         <v>1500000</v>
@@ -2729,10 +2708,10 @@
         <v>12500</v>
       </c>
       <c r="N24" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O24" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P24">
         <v>18408761227</v>
@@ -2762,7 +2741,7 @@
         <v>592903151</v>
       </c>
       <c r="Y24" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2770,16 +2749,16 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F25">
         <v>2240000</v>
@@ -2806,10 +2785,10 @@
         <v>15000</v>
       </c>
       <c r="N25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O25" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P25">
         <v>22818451349</v>
@@ -2839,7 +2818,7 @@
         <v>1929682988</v>
       </c>
       <c r="Y25" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2847,16 +2826,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F26">
         <v>1580000</v>
@@ -2883,10 +2862,10 @@
         <v>14000</v>
       </c>
       <c r="N26" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O26" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P26">
         <v>7327878427</v>
@@ -2916,84 +2895,7 @@
         <v>-550600734</v>
       </c>
       <c r="Y26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27">
-        <v>1500000</v>
-      </c>
-      <c r="G27">
-        <v>1500000</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>20000</v>
-      </c>
-      <c r="J27">
-        <v>23000</v>
-      </c>
-      <c r="K27">
-        <v>8110389</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>23000</v>
-      </c>
-      <c r="N27" t="s">
-        <v>130</v>
-      </c>
-      <c r="O27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P27">
-        <v>28857</v>
-      </c>
-      <c r="Q27">
-        <v>45830</v>
-      </c>
-      <c r="R27">
-        <v>25997</v>
-      </c>
-      <c r="S27">
-        <v>-14511</v>
-      </c>
-      <c r="T27">
-        <v>4169</v>
-      </c>
-      <c r="U27">
-        <v>4958</v>
-      </c>
-      <c r="V27">
-        <v>-34842</v>
-      </c>
-      <c r="W27">
-        <v>13350</v>
-      </c>
-      <c r="X27">
-        <v>5128</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="178">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-11-07</t>
+  </si>
+  <si>
     <t>2023-11-03</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
     <t>2023-09-06</t>
   </si>
   <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
     <t>2023-11-09</t>
   </si>
   <si>
@@ -160,9 +166,6 @@
     <t>2023-11-08</t>
   </si>
   <si>
-    <t>2023-11-07</t>
-  </si>
-  <si>
     <t>2023-10-27</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
     <t>2023-09-12</t>
   </si>
   <si>
+    <t>2023-11-28</t>
+  </si>
+  <si>
     <t>2023-11-24</t>
   </si>
   <si>
@@ -190,9 +196,6 @@
     <t>2023-11-15</t>
   </si>
   <si>
-    <t>2023-11-13</t>
-  </si>
-  <si>
     <t>2023-11-14</t>
   </si>
   <si>
@@ -202,6 +205,9 @@
     <t>2023-10-10</t>
   </si>
   <si>
+    <t>미래</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
@@ -235,15 +241,15 @@
     <t>하나</t>
   </si>
   <si>
-    <t>미래</t>
-  </si>
-  <si>
     <t>한국, 미래</t>
   </si>
   <si>
     <t>유안타</t>
   </si>
   <si>
+    <t>에이에스텍</t>
+  </si>
+  <si>
     <t>그린리소스</t>
   </si>
   <si>
@@ -319,6 +325,9 @@
     <t>아이엠티</t>
   </si>
   <si>
+    <t>629.95:1</t>
+  </si>
+  <si>
     <t>753.19:1</t>
   </si>
   <si>
@@ -394,6 +403,9 @@
     <t>753.50:1</t>
   </si>
   <si>
+    <t>8.66%</t>
+  </si>
+  <si>
     <t>5.39%</t>
   </si>
   <si>
@@ -461,6 +473,9 @@
   </si>
   <si>
     <t>22.20%</t>
+  </si>
+  <si>
+    <t>자외선 차단제 유기 원료</t>
   </si>
   <si>
     <t>반도체 및 디스플레이 장비 보호코팅 및 소재</t>
@@ -890,7 +905,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -978,76 +993,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2">
-        <v>1640000</v>
+        <v>1407000</v>
       </c>
       <c r="G2">
-        <v>1640000</v>
+        <v>844000</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>563000</v>
       </c>
       <c r="I2">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="J2">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="K2">
-        <v>8183944</v>
+        <v>5657215</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="N2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P2">
-        <v>13660</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>25085</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>8905</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>3108</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>3731</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>2219</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1157</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>3465</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>1666</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1055,76 +1070,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="G3">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="J3">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="K3">
-        <v>13436499</v>
+        <v>8183944</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P3">
-        <v>47984</v>
+        <v>13660</v>
       </c>
       <c r="Q3">
-        <v>51031</v>
+        <v>25085</v>
       </c>
       <c r="R3">
-        <v>29425</v>
+        <v>8905</v>
       </c>
       <c r="S3">
-        <v>10526</v>
+        <v>3108</v>
       </c>
       <c r="T3">
-        <v>11804</v>
+        <v>3731</v>
       </c>
       <c r="U3">
-        <v>7008</v>
+        <v>2219</v>
       </c>
       <c r="V3">
-        <v>8661</v>
+        <v>1157</v>
       </c>
       <c r="W3">
-        <v>9582</v>
+        <v>3465</v>
       </c>
       <c r="X3">
-        <v>5612</v>
+        <v>1666</v>
       </c>
       <c r="Y3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1132,76 +1147,76 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="G4">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="J4">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="K4">
-        <v>17002500</v>
+        <v>13436499</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P4">
-        <v>27199897007</v>
+        <v>47984</v>
       </c>
       <c r="Q4">
-        <v>40971122327</v>
+        <v>51031</v>
       </c>
       <c r="R4">
-        <v>25300714406</v>
+        <v>29425</v>
       </c>
       <c r="S4">
-        <v>2887034102</v>
+        <v>10526</v>
       </c>
       <c r="T4">
-        <v>7167697077</v>
+        <v>11804</v>
       </c>
       <c r="U4">
-        <v>4740280453</v>
+        <v>7008</v>
       </c>
       <c r="V4">
-        <v>2399514033</v>
+        <v>8661</v>
       </c>
       <c r="W4">
-        <v>5498221693</v>
+        <v>9582</v>
       </c>
       <c r="X4">
-        <v>3402334635</v>
+        <v>5612</v>
       </c>
       <c r="Y4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1209,76 +1224,76 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="G5">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28500</v>
+        <v>5200</v>
       </c>
       <c r="J5">
-        <v>34700</v>
+        <v>6000</v>
       </c>
       <c r="K5">
-        <v>9877043</v>
+        <v>17002500</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>34700</v>
+        <v>7000</v>
       </c>
       <c r="N5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P5">
-        <v>26994234332</v>
+        <v>27199897007</v>
       </c>
       <c r="Q5">
-        <v>60121142197</v>
+        <v>40971122327</v>
       </c>
       <c r="R5">
-        <v>53305665235</v>
+        <v>25300714406</v>
       </c>
       <c r="S5">
-        <v>10162848799</v>
+        <v>2887034102</v>
       </c>
       <c r="T5">
-        <v>20033029594</v>
+        <v>7167697077</v>
       </c>
       <c r="U5">
-        <v>19806683734</v>
+        <v>4740280453</v>
       </c>
       <c r="V5">
-        <v>7996520497</v>
+        <v>2399514033</v>
       </c>
       <c r="W5">
-        <v>15559454518</v>
+        <v>5498221693</v>
       </c>
       <c r="X5">
-        <v>15932218050</v>
+        <v>3402334635</v>
       </c>
       <c r="Y5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1286,76 +1301,76 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F6">
-        <v>1596000</v>
+        <v>2079000</v>
       </c>
       <c r="G6">
-        <v>1596000</v>
+        <v>2079000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3200</v>
+        <v>28500</v>
       </c>
       <c r="J6">
-        <v>3600</v>
+        <v>34700</v>
       </c>
       <c r="K6">
-        <v>13346380</v>
+        <v>9877043</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>4000</v>
+        <v>34700</v>
       </c>
       <c r="N6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P6">
-        <v>7668281979</v>
+        <v>26994234332</v>
       </c>
       <c r="Q6">
-        <v>7100921456</v>
+        <v>60121142197</v>
       </c>
       <c r="R6">
-        <v>1207846478</v>
+        <v>53305665235</v>
       </c>
       <c r="S6">
-        <v>5659403971</v>
+        <v>10162848799</v>
       </c>
       <c r="T6">
-        <v>6124121466</v>
+        <v>20033029594</v>
       </c>
       <c r="U6">
-        <v>940668827</v>
+        <v>19806683734</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>7996520497</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>15559454518</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>15932218050</v>
       </c>
       <c r="Y6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1366,73 +1381,73 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F7">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="G7">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J7">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K7">
-        <v>13612736</v>
+        <v>13346380</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="N7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7668281979</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>7100921456</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1207846478</v>
       </c>
       <c r="S7">
-        <v>-15286512079</v>
+        <v>5659403971</v>
       </c>
       <c r="T7">
-        <v>-21424611321</v>
+        <v>6124121466</v>
       </c>
       <c r="U7">
-        <v>-139745251263</v>
+        <v>940668827</v>
       </c>
       <c r="V7">
-        <v>-53575668634</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>-38885125426</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-12610702106</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1440,76 +1455,76 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F8">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="G8">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J8">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K8">
-        <v>10585320</v>
+        <v>13612736</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P8">
-        <v>45195788</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>69629209</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>35634471</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>2751277</v>
+        <v>-15286512079</v>
       </c>
       <c r="T8">
-        <v>11449731</v>
+        <v>-21424611321</v>
       </c>
       <c r="U8">
-        <v>2482194</v>
+        <v>-139745251263</v>
       </c>
       <c r="V8">
-        <v>2092692</v>
+        <v>-53575668634</v>
       </c>
       <c r="W8">
-        <v>5149538</v>
+        <v>-38885125426</v>
       </c>
       <c r="X8">
-        <v>2327401</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1517,384 +1532,384 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F9">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="G9">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K9">
-        <v>4320000</v>
+        <v>10585320</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>45195788</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>69629209</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>35634471</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>2751277</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>11449731</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>2482194</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>2092692</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>5149538</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>2327401</v>
       </c>
       <c r="Y9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F10">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="G10">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K10">
-        <v>30610000</v>
+        <v>4320000</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="P10">
-        <v>67332006578</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>100050838794</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>63366010569</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>1140243099</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>8333440685</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>7415958936</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>668088159</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>5930478364</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>5666583221</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
         <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F11">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="G11">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J11">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K11">
-        <v>20771000</v>
+        <v>30610000</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P11">
-        <v>39450601</v>
+        <v>67332006578</v>
       </c>
       <c r="Q11">
-        <v>49044883</v>
+        <v>100050838794</v>
       </c>
       <c r="R11">
-        <v>21826468</v>
+        <v>63366010569</v>
       </c>
       <c r="S11">
-        <v>2477559</v>
+        <v>1140243099</v>
       </c>
       <c r="T11">
-        <v>8094900</v>
+        <v>8333440685</v>
       </c>
       <c r="U11">
-        <v>215154</v>
+        <v>7415958936</v>
       </c>
       <c r="V11">
-        <v>3427734</v>
+        <v>668088159</v>
       </c>
       <c r="W11">
-        <v>6575528</v>
+        <v>5930478364</v>
       </c>
       <c r="X11">
-        <v>349843</v>
+        <v>5666583221</v>
       </c>
       <c r="Y11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
         <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F12">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="G12">
-        <v>2000000</v>
+        <v>5200000</v>
       </c>
       <c r="H12">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J12">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K12">
-        <v>14384224</v>
+        <v>20771000</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O12" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P12">
-        <v>5787300240</v>
+        <v>39450601</v>
       </c>
       <c r="Q12">
-        <v>1914633847</v>
+        <v>49044883</v>
       </c>
       <c r="R12">
-        <v>3156092272</v>
+        <v>21826468</v>
       </c>
       <c r="S12">
-        <v>-1798278694</v>
+        <v>2477559</v>
       </c>
       <c r="T12">
-        <v>-1453689952</v>
+        <v>8094900</v>
       </c>
       <c r="U12">
-        <v>-4067648306</v>
+        <v>215154</v>
       </c>
       <c r="V12">
-        <v>-12449932055</v>
+        <v>3427734</v>
       </c>
       <c r="W12">
-        <v>-7426231074</v>
+        <v>6575528</v>
       </c>
       <c r="X12">
-        <v>-52132058866</v>
+        <v>349843</v>
       </c>
       <c r="Y12" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="G13">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I13">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J13">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K13">
-        <v>7206940</v>
+        <v>14384224</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="N13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O13" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P13">
-        <v>20924</v>
+        <v>5787300240</v>
       </c>
       <c r="Q13">
-        <v>27659</v>
+        <v>1914633847</v>
       </c>
       <c r="R13">
-        <v>11818</v>
+        <v>3156092272</v>
       </c>
       <c r="S13">
-        <v>2838</v>
+        <v>-1798278694</v>
       </c>
       <c r="T13">
-        <v>4563</v>
+        <v>-1453689952</v>
       </c>
       <c r="U13">
-        <v>-1222</v>
+        <v>-4067648306</v>
       </c>
       <c r="V13">
-        <v>2413</v>
+        <v>-12449932055</v>
       </c>
       <c r="W13">
-        <v>3190</v>
+        <v>-7426231074</v>
       </c>
       <c r="X13">
-        <v>-862</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y13" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1902,230 +1917,230 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="G14">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J14">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K14">
-        <v>17306490</v>
+        <v>7206940</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P14">
-        <v>21976760922</v>
+        <v>20924</v>
       </c>
       <c r="Q14">
-        <v>15839004968</v>
+        <v>27659</v>
       </c>
       <c r="R14">
-        <v>6887755932</v>
+        <v>11818</v>
       </c>
       <c r="S14">
-        <v>-2217897363</v>
+        <v>2838</v>
       </c>
       <c r="T14">
-        <v>-3403228196</v>
+        <v>4563</v>
       </c>
       <c r="U14">
-        <v>-2758864194</v>
+        <v>-1222</v>
       </c>
       <c r="V14">
-        <v>-5110677395</v>
+        <v>2413</v>
       </c>
       <c r="W14">
-        <v>-29510193610</v>
+        <v>3190</v>
       </c>
       <c r="X14">
-        <v>-2514471056</v>
+        <v>-862</v>
       </c>
       <c r="Y14" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F15">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="G15">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K15">
-        <v>12905000</v>
+        <v>17306490</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O15" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>21976760922</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>15839004968</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>6887755932</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>-2217897363</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>-3403228196</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>-2758864194</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>-5110677395</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>-29510193610</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y15" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F16">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="G16">
-        <v>944534</v>
+        <v>12500000</v>
       </c>
       <c r="H16">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J16">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K16">
-        <v>6261485</v>
+        <v>12905000</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P16">
-        <v>34557425427</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>39824841246</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>23231897516</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>3011651602</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>2384643399</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>4436005255</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>2755379556</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>1176755354</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>4046949430</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2133,76 +2148,76 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F17">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="G17">
-        <v>1128720</v>
+        <v>944534</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I17">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J17">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K17">
-        <v>11287196</v>
+        <v>6261485</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="N17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O17" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P17">
-        <v>50552623684</v>
+        <v>34557425427</v>
       </c>
       <c r="Q17">
-        <v>69013134090</v>
+        <v>39824841246</v>
       </c>
       <c r="R17">
-        <v>16887814423</v>
+        <v>23231897516</v>
       </c>
       <c r="S17">
-        <v>9027232647</v>
+        <v>3011651602</v>
       </c>
       <c r="T17">
-        <v>15707796256</v>
+        <v>2384643399</v>
       </c>
       <c r="U17">
-        <v>555562560</v>
+        <v>4436005255</v>
       </c>
       <c r="V17">
-        <v>9236341465</v>
+        <v>2755379556</v>
       </c>
       <c r="W17">
-        <v>13159994846</v>
+        <v>1176755354</v>
       </c>
       <c r="X17">
-        <v>1236029732</v>
+        <v>4046949430</v>
       </c>
       <c r="Y17" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2210,76 +2225,76 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F18">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="G18">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J18">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K18">
-        <v>10193520</v>
+        <v>11287196</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="N18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P18">
-        <v>3952070068</v>
+        <v>50552623684</v>
       </c>
       <c r="Q18">
-        <v>10789274729</v>
+        <v>69013134090</v>
       </c>
       <c r="R18">
-        <v>6040367765</v>
+        <v>16887814423</v>
       </c>
       <c r="S18">
-        <v>-4741577598</v>
+        <v>9027232647</v>
       </c>
       <c r="T18">
-        <v>-3671026788</v>
+        <v>15707796256</v>
       </c>
       <c r="U18">
-        <v>-3292521363</v>
+        <v>555562560</v>
       </c>
       <c r="V18">
-        <v>-3654889267</v>
+        <v>9236341465</v>
       </c>
       <c r="W18">
-        <v>-2281074471</v>
+        <v>13159994846</v>
       </c>
       <c r="X18">
-        <v>-2539505707</v>
+        <v>1236029732</v>
       </c>
       <c r="Y18" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2287,76 +2302,76 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F19">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="G19">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J19">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K19">
-        <v>16120000</v>
+        <v>10193520</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="N19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O19" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P19">
-        <v>26691070764</v>
+        <v>3952070068</v>
       </c>
       <c r="Q19">
-        <v>22835113396</v>
+        <v>10789274729</v>
       </c>
       <c r="R19">
-        <v>7519073723</v>
+        <v>6040367765</v>
       </c>
       <c r="S19">
-        <v>6041270235</v>
+        <v>-4741577598</v>
       </c>
       <c r="T19">
-        <v>6705120210</v>
+        <v>-3671026788</v>
       </c>
       <c r="U19">
-        <v>982044017</v>
+        <v>-3292521363</v>
       </c>
       <c r="V19">
-        <v>5119066139</v>
+        <v>-3654889267</v>
       </c>
       <c r="W19">
-        <v>5870093710</v>
+        <v>-2281074471</v>
       </c>
       <c r="X19">
-        <v>1198587470</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y19" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2364,76 +2379,76 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F20">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="G20">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J20">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K20">
-        <v>7674103</v>
+        <v>16120000</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O20" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P20">
-        <v>8242508010</v>
+        <v>26691070764</v>
       </c>
       <c r="Q20">
-        <v>10751900430</v>
+        <v>22835113396</v>
       </c>
       <c r="R20">
-        <v>4416778965</v>
+        <v>7519073723</v>
       </c>
       <c r="S20">
-        <v>426234451</v>
+        <v>6041270235</v>
       </c>
       <c r="T20">
-        <v>2423749751</v>
+        <v>6705120210</v>
       </c>
       <c r="U20">
-        <v>677048172</v>
+        <v>982044017</v>
       </c>
       <c r="V20">
-        <v>57890953</v>
+        <v>5119066139</v>
       </c>
       <c r="W20">
-        <v>2826043673</v>
+        <v>5870093710</v>
       </c>
       <c r="X20">
-        <v>990121873</v>
+        <v>1198587470</v>
       </c>
       <c r="Y20" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2441,76 +2456,76 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F21">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="G21">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J21">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K21">
-        <v>9039778</v>
+        <v>7674103</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O21" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P21">
-        <v>104225113285</v>
+        <v>8242508010</v>
       </c>
       <c r="Q21">
-        <v>106505634411</v>
+        <v>10751900430</v>
       </c>
       <c r="R21">
-        <v>66424930568</v>
+        <v>4416778965</v>
       </c>
       <c r="S21">
-        <v>6291020806</v>
+        <v>426234451</v>
       </c>
       <c r="T21">
-        <v>7893242769</v>
+        <v>2423749751</v>
       </c>
       <c r="U21">
-        <v>7661497240</v>
+        <v>677048172</v>
       </c>
       <c r="V21">
-        <v>7319368873</v>
+        <v>57890953</v>
       </c>
       <c r="W21">
-        <v>9286891982</v>
+        <v>2826043673</v>
       </c>
       <c r="X21">
-        <v>7334816490</v>
+        <v>990121873</v>
       </c>
       <c r="Y21" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2521,31 +2536,31 @@
         <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F22">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="G22">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="J22">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K22">
-        <v>64819980</v>
+        <v>9039778</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2554,40 +2569,40 @@
         <v>26000</v>
       </c>
       <c r="N22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O22" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P22">
-        <v>36980</v>
+        <v>104225113285</v>
       </c>
       <c r="Q22">
-        <v>44954</v>
+        <v>106505634411</v>
       </c>
       <c r="R22">
-        <v>23652</v>
+        <v>66424930568</v>
       </c>
       <c r="S22">
-        <v>-7085</v>
+        <v>6291020806</v>
       </c>
       <c r="T22">
-        <v>-13228</v>
+        <v>7893242769</v>
       </c>
       <c r="U22">
-        <v>-9932</v>
+        <v>7661497240</v>
       </c>
       <c r="V22">
-        <v>-7417</v>
+        <v>7319368873</v>
       </c>
       <c r="W22">
-        <v>-12548</v>
+        <v>9286891982</v>
       </c>
       <c r="X22">
-        <v>-9333</v>
+        <v>7334816490</v>
       </c>
       <c r="Y22" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2595,76 +2610,76 @@
         <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F23">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="G23">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J23">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K23">
-        <v>18905000</v>
+        <v>64819980</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O23" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>36980</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>44954</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>23652</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>-7085</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>-13228</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>-9932</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>-7417</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>-12548</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>-9333</v>
       </c>
       <c r="Y23" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2672,230 +2687,307 @@
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F24">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="G24">
-        <v>1500000</v>
+        <v>18000000</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>8900</v>
+        <v>2000</v>
       </c>
       <c r="J24">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K24">
-        <v>5447675</v>
+        <v>18905000</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>12500</v>
+        <v>2000</v>
       </c>
       <c r="N24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P24">
-        <v>18408761227</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>21902816604</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>8176918465</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>3669182465</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>1851925471</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>590566592</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>3633973594</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>2205418963</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>592903151</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
         <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
       </c>
       <c r="D25" t="s">
         <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F25">
-        <v>2240000</v>
+        <v>1500000</v>
       </c>
       <c r="G25">
-        <v>1640000</v>
+        <v>1500000</v>
       </c>
       <c r="H25">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="J25">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="K25">
-        <v>10969386</v>
+        <v>5447675</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O25" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P25">
-        <v>22818451349</v>
+        <v>18408761227</v>
       </c>
       <c r="Q25">
-        <v>30491967755</v>
+        <v>21902816604</v>
       </c>
       <c r="R25">
-        <v>18040053709</v>
+        <v>8176918465</v>
       </c>
       <c r="S25">
-        <v>2313787613</v>
+        <v>3669182465</v>
       </c>
       <c r="T25">
-        <v>4014101926</v>
+        <v>1851925471</v>
       </c>
       <c r="U25">
-        <v>1878997667</v>
+        <v>590566592</v>
       </c>
       <c r="V25">
-        <v>559427078</v>
+        <v>3633973594</v>
       </c>
       <c r="W25">
-        <v>-711183147</v>
+        <v>2205418963</v>
       </c>
       <c r="X25">
-        <v>1929682988</v>
+        <v>592903151</v>
       </c>
       <c r="Y25" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F26">
+        <v>2240000</v>
+      </c>
+      <c r="G26">
+        <v>1640000</v>
+      </c>
+      <c r="H26">
+        <v>600000</v>
+      </c>
+      <c r="I26">
+        <v>11500</v>
+      </c>
+      <c r="J26">
+        <v>13200</v>
+      </c>
+      <c r="K26">
+        <v>10969386</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>15000</v>
+      </c>
+      <c r="N26" t="s">
+        <v>127</v>
+      </c>
+      <c r="O26" t="s">
+        <v>151</v>
+      </c>
+      <c r="P26">
+        <v>22818451349</v>
+      </c>
+      <c r="Q26">
+        <v>30491967755</v>
+      </c>
+      <c r="R26">
+        <v>18040053709</v>
+      </c>
+      <c r="S26">
+        <v>2313787613</v>
+      </c>
+      <c r="T26">
+        <v>4014101926</v>
+      </c>
+      <c r="U26">
+        <v>1878997667</v>
+      </c>
+      <c r="V26">
+        <v>559427078</v>
+      </c>
+      <c r="W26">
+        <v>-711183147</v>
+      </c>
+      <c r="X26">
+        <v>1929682988</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27">
         <v>1580000</v>
       </c>
-      <c r="G26">
+      <c r="G27">
         <v>1580000</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>10500</v>
       </c>
-      <c r="J26">
+      <c r="J27">
         <v>12000</v>
       </c>
-      <c r="K26">
+      <c r="K27">
         <v>7874611</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <v>14000</v>
       </c>
-      <c r="N26" t="s">
-        <v>125</v>
-      </c>
-      <c r="O26" t="s">
-        <v>148</v>
-      </c>
-      <c r="P26">
+      <c r="N27" t="s">
+        <v>128</v>
+      </c>
+      <c r="O27" t="s">
+        <v>152</v>
+      </c>
+      <c r="P27">
         <v>7327878427</v>
       </c>
-      <c r="Q26">
+      <c r="Q27">
         <v>10756717708</v>
       </c>
-      <c r="R26">
+      <c r="R27">
         <v>4113702647</v>
       </c>
-      <c r="S26">
+      <c r="S27">
         <v>-588932080</v>
       </c>
-      <c r="T26">
+      <c r="T27">
         <v>254042570</v>
       </c>
-      <c r="U26">
+      <c r="U27">
         <v>-738698858</v>
       </c>
-      <c r="V26">
+      <c r="V27">
         <v>-569358529</v>
       </c>
-      <c r="W26">
+      <c r="W27">
         <v>-429546963</v>
       </c>
-      <c r="X26">
+      <c r="X27">
         <v>-550600734</v>
       </c>
-      <c r="Y26" t="s">
-        <v>172</v>
+      <c r="Y27" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="187">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,12 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
     <t>2023-11-07</t>
   </si>
   <si>
@@ -154,12 +160,12 @@
     <t>2023-09-06</t>
   </si>
   <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
     <t>2023-11-13</t>
   </si>
   <si>
-    <t>2023-11-09</t>
-  </si>
-  <si>
     <t>2023-11-06</t>
   </si>
   <si>
@@ -181,6 +187,9 @@
     <t>2023-09-12</t>
   </si>
   <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
     <t>2023-11-28</t>
   </si>
   <si>
@@ -193,9 +202,6 @@
     <t>2023-11-21</t>
   </si>
   <si>
-    <t>2023-11-15</t>
-  </si>
-  <si>
     <t>2023-11-14</t>
   </si>
   <si>
@@ -205,12 +211,15 @@
     <t>2023-10-10</t>
   </si>
   <si>
+    <t>하나</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
     <t>미래</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>하이</t>
   </si>
   <si>
@@ -238,15 +247,18 @@
     <t>키움</t>
   </si>
   <si>
-    <t>하나</t>
-  </si>
-  <si>
     <t>한국, 미래</t>
   </si>
   <si>
     <t>유안타</t>
   </si>
   <si>
+    <t>에이텀</t>
+  </si>
+  <si>
+    <t>엔에이치스팩30호</t>
+  </si>
+  <si>
     <t>에이에스텍</t>
   </si>
   <si>
@@ -325,6 +337,12 @@
     <t>아이엠티</t>
   </si>
   <si>
+    <t>136.4:1</t>
+  </si>
+  <si>
+    <t>52.70:1</t>
+  </si>
+  <si>
     <t>629.95:1</t>
   </si>
   <si>
@@ -403,6 +421,12 @@
     <t>753.50:1</t>
   </si>
   <si>
+    <t>0.43%</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>8.66%</t>
   </si>
   <si>
@@ -427,9 +451,6 @@
     <t>22.38%</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>6.69%</t>
   </si>
   <si>
@@ -473,6 +494,12 @@
   </si>
   <si>
     <t>22.20%</t>
+  </si>
+  <si>
+    <t>평판형 트랜스</t>
+  </si>
+  <si>
+    <t>금융지원서비스업</t>
   </si>
   <si>
     <t>자외선 차단제 유기 원료</t>
@@ -905,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -993,76 +1020,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F2">
-        <v>1407000</v>
+        <v>650000</v>
       </c>
       <c r="G2">
-        <v>844000</v>
+        <v>650000</v>
       </c>
       <c r="H2">
-        <v>563000</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="J2">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="K2">
-        <v>5657215</v>
+        <v>5345180</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="N2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="O2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>55809022</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>53633878</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>47971262</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-4601725</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-7645858</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-5922868</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-20523948</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-12027347</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-8387901</v>
       </c>
       <c r="Y2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1070,76 +1097,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F3">
-        <v>1640000</v>
+        <v>8000000</v>
       </c>
       <c r="G3">
-        <v>1640000</v>
+        <v>8000000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K3">
-        <v>8183944</v>
+        <v>9100000</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="O3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="P3">
-        <v>13660</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>25085</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>8905</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>3108</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>3731</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>2219</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1157</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>3465</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1666</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1147,76 +1174,76 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F4">
-        <v>3350000</v>
+        <v>1407000</v>
       </c>
       <c r="G4">
-        <v>3350000</v>
+        <v>844000</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>563000</v>
       </c>
       <c r="I4">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="J4">
-        <v>9500</v>
+        <v>25000</v>
       </c>
       <c r="K4">
-        <v>13436499</v>
+        <v>5657215</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="N4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="P4">
-        <v>47984</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>51031</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>29425</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>10526</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>11804</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>7008</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>8661</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>9582</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>5612</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1224,76 +1251,76 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
         <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F5">
-        <v>4250000</v>
+        <v>1640000</v>
       </c>
       <c r="G5">
-        <v>4250000</v>
+        <v>1640000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5200</v>
+        <v>11000</v>
       </c>
       <c r="J5">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="K5">
-        <v>17002500</v>
+        <v>8183944</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="N5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="P5">
-        <v>27199897007</v>
+        <v>13660</v>
       </c>
       <c r="Q5">
-        <v>40971122327</v>
+        <v>25085</v>
       </c>
       <c r="R5">
-        <v>25300714406</v>
+        <v>8905</v>
       </c>
       <c r="S5">
-        <v>2887034102</v>
+        <v>3108</v>
       </c>
       <c r="T5">
-        <v>7167697077</v>
+        <v>3731</v>
       </c>
       <c r="U5">
-        <v>4740280453</v>
+        <v>2219</v>
       </c>
       <c r="V5">
-        <v>2399514033</v>
+        <v>1157</v>
       </c>
       <c r="W5">
-        <v>5498221693</v>
+        <v>3465</v>
       </c>
       <c r="X5">
-        <v>3402334635</v>
+        <v>1666</v>
       </c>
       <c r="Y5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1301,76 +1328,76 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F6">
-        <v>2079000</v>
+        <v>3350000</v>
       </c>
       <c r="G6">
-        <v>2079000</v>
+        <v>3350000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28500</v>
+        <v>8000</v>
       </c>
       <c r="J6">
-        <v>34700</v>
+        <v>9500</v>
       </c>
       <c r="K6">
-        <v>9877043</v>
+        <v>13436499</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>34700</v>
+        <v>11000</v>
       </c>
       <c r="N6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="O6" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="P6">
-        <v>26994234332</v>
+        <v>47984</v>
       </c>
       <c r="Q6">
-        <v>60121142197</v>
+        <v>51031</v>
       </c>
       <c r="R6">
-        <v>53305665235</v>
+        <v>29425</v>
       </c>
       <c r="S6">
-        <v>10162848799</v>
+        <v>10526</v>
       </c>
       <c r="T6">
-        <v>20033029594</v>
+        <v>11804</v>
       </c>
       <c r="U6">
-        <v>19806683734</v>
+        <v>7008</v>
       </c>
       <c r="V6">
-        <v>7996520497</v>
+        <v>8661</v>
       </c>
       <c r="W6">
-        <v>15559454518</v>
+        <v>9582</v>
       </c>
       <c r="X6">
-        <v>15932218050</v>
+        <v>5612</v>
       </c>
       <c r="Y6" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1378,76 +1405,76 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F7">
-        <v>1596000</v>
+        <v>4250000</v>
       </c>
       <c r="G7">
-        <v>1596000</v>
+        <v>4250000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3200</v>
+        <v>5200</v>
       </c>
       <c r="J7">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="K7">
-        <v>13346380</v>
+        <v>17002500</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="O7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P7">
-        <v>7668281979</v>
+        <v>27199897007</v>
       </c>
       <c r="Q7">
-        <v>7100921456</v>
+        <v>40971122327</v>
       </c>
       <c r="R7">
-        <v>1207846478</v>
+        <v>25300714406</v>
       </c>
       <c r="S7">
-        <v>5659403971</v>
+        <v>2887034102</v>
       </c>
       <c r="T7">
-        <v>6124121466</v>
+        <v>7167697077</v>
       </c>
       <c r="U7">
-        <v>940668827</v>
+        <v>4740280453</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>2399514033</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>5498221693</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>3402334635</v>
       </c>
       <c r="Y7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1455,76 +1482,76 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F8">
-        <v>1600000</v>
+        <v>2079000</v>
       </c>
       <c r="G8">
-        <v>1600000</v>
+        <v>2079000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>29800</v>
+        <v>28500</v>
       </c>
       <c r="J8">
-        <v>33500</v>
+        <v>34700</v>
       </c>
       <c r="K8">
-        <v>13612736</v>
+        <v>9877043</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>20000</v>
+        <v>34700</v>
       </c>
       <c r="N8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>26994234332</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>60121142197</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>53305665235</v>
       </c>
       <c r="S8">
-        <v>-15286512079</v>
+        <v>10162848799</v>
       </c>
       <c r="T8">
-        <v>-21424611321</v>
+        <v>20033029594</v>
       </c>
       <c r="U8">
-        <v>-139745251263</v>
+        <v>19806683734</v>
       </c>
       <c r="V8">
-        <v>-53575668634</v>
+        <v>7996520497</v>
       </c>
       <c r="W8">
-        <v>-38885125426</v>
+        <v>15559454518</v>
       </c>
       <c r="X8">
-        <v>-12610702106</v>
+        <v>15932218050</v>
       </c>
       <c r="Y8" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1532,76 +1559,76 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F9">
-        <v>2636330</v>
+        <v>1596000</v>
       </c>
       <c r="G9">
-        <v>2636330</v>
+        <v>1596000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19100</v>
+        <v>3200</v>
       </c>
       <c r="J9">
-        <v>21400</v>
+        <v>3600</v>
       </c>
       <c r="K9">
-        <v>10585320</v>
+        <v>13346380</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="P9">
-        <v>45195788</v>
+        <v>7668281979</v>
       </c>
       <c r="Q9">
-        <v>69629209</v>
+        <v>7100921456</v>
       </c>
       <c r="R9">
-        <v>35634471</v>
+        <v>1207846478</v>
       </c>
       <c r="S9">
-        <v>2751277</v>
+        <v>5659403971</v>
       </c>
       <c r="T9">
-        <v>11449731</v>
+        <v>6124121466</v>
       </c>
       <c r="U9">
-        <v>2482194</v>
+        <v>940668827</v>
       </c>
       <c r="V9">
-        <v>2092692</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>5149538</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>2327401</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1609,46 +1636,46 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F10">
-        <v>4000000</v>
+        <v>1600000</v>
       </c>
       <c r="G10">
-        <v>4000000</v>
+        <v>1600000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>29800</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>33500</v>
       </c>
       <c r="K10">
-        <v>4320000</v>
+        <v>13612736</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1660,338 +1687,338 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>-15286512079</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>-21424611321</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>-139745251263</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>-53575668634</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>-38885125426</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y10" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F11">
-        <v>7000000</v>
+        <v>2636330</v>
       </c>
       <c r="G11">
-        <v>7000000</v>
+        <v>2636330</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1200</v>
+        <v>19100</v>
       </c>
       <c r="J11">
-        <v>1500</v>
+        <v>21400</v>
       </c>
       <c r="K11">
-        <v>30610000</v>
+        <v>10585320</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1800</v>
+        <v>25000</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="P11">
-        <v>67332006578</v>
+        <v>45195788</v>
       </c>
       <c r="Q11">
-        <v>100050838794</v>
+        <v>69629209</v>
       </c>
       <c r="R11">
-        <v>63366010569</v>
+        <v>35634471</v>
       </c>
       <c r="S11">
-        <v>1140243099</v>
+        <v>2751277</v>
       </c>
       <c r="T11">
-        <v>8333440685</v>
+        <v>11449731</v>
       </c>
       <c r="U11">
-        <v>7415958936</v>
+        <v>2482194</v>
       </c>
       <c r="V11">
-        <v>668088159</v>
+        <v>2092692</v>
       </c>
       <c r="W11">
-        <v>5930478364</v>
+        <v>5149538</v>
       </c>
       <c r="X11">
-        <v>5666583221</v>
+        <v>2327401</v>
       </c>
       <c r="Y11" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F12">
-        <v>5200000</v>
+        <v>4000000</v>
       </c>
       <c r="G12">
-        <v>5200000</v>
+        <v>4000000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="J12">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="K12">
-        <v>20771000</v>
+        <v>4320000</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P12">
-        <v>39450601</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>49044883</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>21826468</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>2477559</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>8094900</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>215154</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>3427734</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>6575528</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>349843</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F13">
-        <v>2060000</v>
+        <v>7000000</v>
       </c>
       <c r="G13">
-        <v>2000000</v>
+        <v>7000000</v>
       </c>
       <c r="H13">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>20300</v>
+        <v>1200</v>
       </c>
       <c r="J13">
-        <v>22500</v>
+        <v>1500</v>
       </c>
       <c r="K13">
-        <v>14384224</v>
+        <v>30610000</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22500</v>
+        <v>1800</v>
       </c>
       <c r="N13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="P13">
-        <v>5787300240</v>
+        <v>67332006578</v>
       </c>
       <c r="Q13">
-        <v>1914633847</v>
+        <v>100050838794</v>
       </c>
       <c r="R13">
-        <v>3156092272</v>
+        <v>63366010569</v>
       </c>
       <c r="S13">
-        <v>-1798278694</v>
+        <v>1140243099</v>
       </c>
       <c r="T13">
-        <v>-1453689952</v>
+        <v>8333440685</v>
       </c>
       <c r="U13">
-        <v>-4067648306</v>
+        <v>7415958936</v>
       </c>
       <c r="V13">
-        <v>-12449932055</v>
+        <v>668088159</v>
       </c>
       <c r="W13">
-        <v>-7426231074</v>
+        <v>5930478364</v>
       </c>
       <c r="X13">
-        <v>-52132058866</v>
+        <v>5666583221</v>
       </c>
       <c r="Y13" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F14">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="G14">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>9100</v>
+        <v>3500</v>
       </c>
       <c r="J14">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="K14">
-        <v>7206940</v>
+        <v>20771000</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>13000</v>
+        <v>4800</v>
       </c>
       <c r="N14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O14" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="P14">
-        <v>20924</v>
+        <v>39450601</v>
       </c>
       <c r="Q14">
-        <v>27659</v>
+        <v>49044883</v>
       </c>
       <c r="R14">
-        <v>11818</v>
+        <v>21826468</v>
       </c>
       <c r="S14">
-        <v>2838</v>
+        <v>2477559</v>
       </c>
       <c r="T14">
-        <v>4563</v>
+        <v>8094900</v>
       </c>
       <c r="U14">
-        <v>-1222</v>
+        <v>215154</v>
       </c>
       <c r="V14">
-        <v>2413</v>
+        <v>3427734</v>
       </c>
       <c r="W14">
-        <v>3190</v>
+        <v>6575528</v>
       </c>
       <c r="X14">
-        <v>-862</v>
+        <v>349843</v>
       </c>
       <c r="Y14" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -2000,301 +2027,301 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F15">
-        <v>3600000</v>
+        <v>2060000</v>
       </c>
       <c r="G15">
-        <v>3600000</v>
+        <v>2000000</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I15">
-        <v>5000</v>
+        <v>20300</v>
       </c>
       <c r="J15">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="K15">
-        <v>17306490</v>
+        <v>14384224</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="N15" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O15" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="P15">
-        <v>21976760922</v>
+        <v>5787300240</v>
       </c>
       <c r="Q15">
-        <v>15839004968</v>
+        <v>1914633847</v>
       </c>
       <c r="R15">
-        <v>6887755932</v>
+        <v>3156092272</v>
       </c>
       <c r="S15">
-        <v>-2217897363</v>
+        <v>-1798278694</v>
       </c>
       <c r="T15">
-        <v>-3403228196</v>
+        <v>-1453689952</v>
       </c>
       <c r="U15">
-        <v>-2758864194</v>
+        <v>-4067648306</v>
       </c>
       <c r="V15">
-        <v>-5110677395</v>
+        <v>-12449932055</v>
       </c>
       <c r="W15">
-        <v>-29510193610</v>
+        <v>-7426231074</v>
       </c>
       <c r="X15">
-        <v>-2514471056</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F16">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="G16">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2000</v>
+        <v>9100</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K16">
-        <v>12905000</v>
+        <v>7206940</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N16" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O16" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>20924</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>27659</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>11818</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>2838</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>4563</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>-1222</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>2413</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>3190</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>-862</v>
       </c>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F17">
-        <v>1049482</v>
+        <v>3600000</v>
       </c>
       <c r="G17">
-        <v>944534</v>
+        <v>3600000</v>
       </c>
       <c r="H17">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>12800</v>
+        <v>5000</v>
       </c>
       <c r="J17">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="K17">
-        <v>6261485</v>
+        <v>17306490</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="N17" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="O17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="P17">
-        <v>34557425427</v>
+        <v>21976760922</v>
       </c>
       <c r="Q17">
-        <v>39824841246</v>
+        <v>15839004968</v>
       </c>
       <c r="R17">
-        <v>23231897516</v>
+        <v>6887755932</v>
       </c>
       <c r="S17">
-        <v>3011651602</v>
+        <v>-2217897363</v>
       </c>
       <c r="T17">
-        <v>2384643399</v>
+        <v>-3403228196</v>
       </c>
       <c r="U17">
-        <v>4436005255</v>
+        <v>-2758864194</v>
       </c>
       <c r="V17">
-        <v>2755379556</v>
+        <v>-5110677395</v>
       </c>
       <c r="W17">
-        <v>1176755354</v>
+        <v>-29510193610</v>
       </c>
       <c r="X17">
-        <v>4046949430</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F18">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="G18">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="J18">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="K18">
-        <v>11287196</v>
+        <v>12905000</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="N18" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O18" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="P18">
-        <v>50552623684</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>69013134090</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>16887814423</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>9027232647</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>15707796256</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>555562560</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>9236341465</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>13159994846</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>1236029732</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2302,34 +2329,34 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F19">
-        <v>1800000</v>
+        <v>1049482</v>
       </c>
       <c r="G19">
-        <v>1800000</v>
+        <v>944534</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I19">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="J19">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="K19">
-        <v>10193520</v>
+        <v>6261485</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2338,40 +2365,40 @@
         <v>17000</v>
       </c>
       <c r="N19" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P19">
-        <v>3952070068</v>
+        <v>34557425427</v>
       </c>
       <c r="Q19">
-        <v>10789274729</v>
+        <v>39824841246</v>
       </c>
       <c r="R19">
-        <v>6040367765</v>
+        <v>23231897516</v>
       </c>
       <c r="S19">
-        <v>-4741577598</v>
+        <v>3011651602</v>
       </c>
       <c r="T19">
-        <v>-3671026788</v>
+        <v>2384643399</v>
       </c>
       <c r="U19">
-        <v>-3292521363</v>
+        <v>4436005255</v>
       </c>
       <c r="V19">
-        <v>-3654889267</v>
+        <v>2755379556</v>
       </c>
       <c r="W19">
-        <v>-2281074471</v>
+        <v>1176755354</v>
       </c>
       <c r="X19">
-        <v>-2539505707</v>
+        <v>4046949430</v>
       </c>
       <c r="Y19" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2385,70 +2412,70 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F20">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="G20">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="J20">
-        <v>5600</v>
+        <v>3900</v>
       </c>
       <c r="K20">
-        <v>16120000</v>
+        <v>11287196</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="N20" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O20" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="P20">
-        <v>26691070764</v>
+        <v>50552623684</v>
       </c>
       <c r="Q20">
-        <v>22835113396</v>
+        <v>69013134090</v>
       </c>
       <c r="R20">
-        <v>7519073723</v>
+        <v>16887814423</v>
       </c>
       <c r="S20">
-        <v>6041270235</v>
+        <v>9027232647</v>
       </c>
       <c r="T20">
-        <v>6705120210</v>
+        <v>15707796256</v>
       </c>
       <c r="U20">
-        <v>982044017</v>
+        <v>555562560</v>
       </c>
       <c r="V20">
-        <v>5119066139</v>
+        <v>9236341465</v>
       </c>
       <c r="W20">
-        <v>5870093710</v>
+        <v>13159994846</v>
       </c>
       <c r="X20">
-        <v>1198587470</v>
+        <v>1236029732</v>
       </c>
       <c r="Y20" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2456,76 +2483,76 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F21">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="G21">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>8200</v>
+        <v>13000</v>
       </c>
       <c r="J21">
-        <v>9400</v>
+        <v>15000</v>
       </c>
       <c r="K21">
-        <v>7674103</v>
+        <v>10193520</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="N21" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O21" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="P21">
-        <v>8242508010</v>
+        <v>3952070068</v>
       </c>
       <c r="Q21">
-        <v>10751900430</v>
+        <v>10789274729</v>
       </c>
       <c r="R21">
-        <v>4416778965</v>
+        <v>6040367765</v>
       </c>
       <c r="S21">
-        <v>426234451</v>
+        <v>-4741577598</v>
       </c>
       <c r="T21">
-        <v>2423749751</v>
+        <v>-3671026788</v>
       </c>
       <c r="U21">
-        <v>677048172</v>
+        <v>-3292521363</v>
       </c>
       <c r="V21">
-        <v>57890953</v>
+        <v>-3654889267</v>
       </c>
       <c r="W21">
-        <v>2826043673</v>
+        <v>-2281074471</v>
       </c>
       <c r="X21">
-        <v>990121873</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y21" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2533,76 +2560,76 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F22">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="G22">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="J22">
-        <v>25000</v>
+        <v>5600</v>
       </c>
       <c r="K22">
-        <v>9039778</v>
+        <v>16120000</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="N22" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O22" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P22">
-        <v>104225113285</v>
+        <v>26691070764</v>
       </c>
       <c r="Q22">
-        <v>106505634411</v>
+        <v>22835113396</v>
       </c>
       <c r="R22">
-        <v>66424930568</v>
+        <v>7519073723</v>
       </c>
       <c r="S22">
-        <v>6291020806</v>
+        <v>6041270235</v>
       </c>
       <c r="T22">
-        <v>7893242769</v>
+        <v>6705120210</v>
       </c>
       <c r="U22">
-        <v>7661497240</v>
+        <v>982044017</v>
       </c>
       <c r="V22">
-        <v>7319368873</v>
+        <v>5119066139</v>
       </c>
       <c r="W22">
-        <v>9286891982</v>
+        <v>5870093710</v>
       </c>
       <c r="X22">
-        <v>7334816490</v>
+        <v>1198587470</v>
       </c>
       <c r="Y22" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2610,76 +2637,76 @@
         <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F23">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="G23">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21000</v>
+        <v>8200</v>
       </c>
       <c r="J23">
-        <v>26000</v>
+        <v>9400</v>
       </c>
       <c r="K23">
-        <v>64819980</v>
+        <v>7674103</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N23" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O23" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="P23">
-        <v>36980</v>
+        <v>8242508010</v>
       </c>
       <c r="Q23">
-        <v>44954</v>
+        <v>10751900430</v>
       </c>
       <c r="R23">
-        <v>23652</v>
+        <v>4416778965</v>
       </c>
       <c r="S23">
-        <v>-7085</v>
+        <v>426234451</v>
       </c>
       <c r="T23">
-        <v>-13228</v>
+        <v>2423749751</v>
       </c>
       <c r="U23">
-        <v>-9932</v>
+        <v>677048172</v>
       </c>
       <c r="V23">
-        <v>-7417</v>
+        <v>57890953</v>
       </c>
       <c r="W23">
-        <v>-12548</v>
+        <v>2826043673</v>
       </c>
       <c r="X23">
-        <v>-9333</v>
+        <v>990121873</v>
       </c>
       <c r="Y23" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2687,76 +2714,76 @@
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F24">
-        <v>18000000</v>
+        <v>2000000</v>
       </c>
       <c r="G24">
-        <v>18000000</v>
+        <v>2000000</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J24">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="K24">
-        <v>18905000</v>
+        <v>9039778</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N24" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="O24" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>104225113285</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>106505634411</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>66424930568</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>6291020806</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>7893242769</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>7661497240</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>7319368873</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>9286891982</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>7334816490</v>
       </c>
       <c r="Y24" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2764,230 +2791,384 @@
         <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F25">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="G25">
-        <v>1500000</v>
+        <v>16200000</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>8900</v>
+        <v>21000</v>
       </c>
       <c r="J25">
-        <v>11000</v>
+        <v>26000</v>
       </c>
       <c r="K25">
-        <v>5447675</v>
+        <v>64819980</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="N25" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="O25" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="P25">
-        <v>18408761227</v>
+        <v>36980</v>
       </c>
       <c r="Q25">
-        <v>21902816604</v>
+        <v>44954</v>
       </c>
       <c r="R25">
-        <v>8176918465</v>
+        <v>23652</v>
       </c>
       <c r="S25">
-        <v>3669182465</v>
+        <v>-7085</v>
       </c>
       <c r="T25">
-        <v>1851925471</v>
+        <v>-13228</v>
       </c>
       <c r="U25">
-        <v>590566592</v>
+        <v>-9932</v>
       </c>
       <c r="V25">
-        <v>3633973594</v>
+        <v>-7417</v>
       </c>
       <c r="W25">
-        <v>2205418963</v>
+        <v>-12548</v>
       </c>
       <c r="X25">
-        <v>592903151</v>
+        <v>-9333</v>
       </c>
       <c r="Y25" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F26">
-        <v>2240000</v>
+        <v>18000000</v>
       </c>
       <c r="G26">
-        <v>1640000</v>
+        <v>18000000</v>
       </c>
       <c r="H26">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>11500</v>
+        <v>2000</v>
       </c>
       <c r="J26">
-        <v>13200</v>
+        <v>2000</v>
       </c>
       <c r="K26">
-        <v>10969386</v>
+        <v>18905000</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="N26" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="O26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P26">
-        <v>22818451349</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>30491967755</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>18040053709</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>2313787613</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>4014101926</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>1878997667</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>559427078</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>-711183147</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>1929682988</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
         <v>45</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>54</v>
       </c>
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F27">
+        <v>1500000</v>
+      </c>
+      <c r="G27">
+        <v>1500000</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>8900</v>
+      </c>
+      <c r="J27">
+        <v>11000</v>
+      </c>
+      <c r="K27">
+        <v>5447675</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>12500</v>
+      </c>
+      <c r="N27" t="s">
+        <v>132</v>
+      </c>
+      <c r="O27" t="s">
+        <v>157</v>
+      </c>
+      <c r="P27">
+        <v>18408761227</v>
+      </c>
+      <c r="Q27">
+        <v>21902816604</v>
+      </c>
+      <c r="R27">
+        <v>8176918465</v>
+      </c>
+      <c r="S27">
+        <v>3669182465</v>
+      </c>
+      <c r="T27">
+        <v>1851925471</v>
+      </c>
+      <c r="U27">
+        <v>590566592</v>
+      </c>
+      <c r="V27">
+        <v>3633973594</v>
+      </c>
+      <c r="W27">
+        <v>2205418963</v>
+      </c>
+      <c r="X27">
+        <v>592903151</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28">
+        <v>2240000</v>
+      </c>
+      <c r="G28">
+        <v>1640000</v>
+      </c>
+      <c r="H28">
+        <v>600000</v>
+      </c>
+      <c r="I28">
+        <v>11500</v>
+      </c>
+      <c r="J28">
+        <v>13200</v>
+      </c>
+      <c r="K28">
+        <v>10969386</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>15000</v>
+      </c>
+      <c r="N28" t="s">
+        <v>133</v>
+      </c>
+      <c r="O28" t="s">
+        <v>158</v>
+      </c>
+      <c r="P28">
+        <v>22818451349</v>
+      </c>
+      <c r="Q28">
+        <v>30491967755</v>
+      </c>
+      <c r="R28">
+        <v>18040053709</v>
+      </c>
+      <c r="S28">
+        <v>2313787613</v>
+      </c>
+      <c r="T28">
+        <v>4014101926</v>
+      </c>
+      <c r="U28">
+        <v>1878997667</v>
+      </c>
+      <c r="V28">
+        <v>559427078</v>
+      </c>
+      <c r="W28">
+        <v>-711183147</v>
+      </c>
+      <c r="X28">
+        <v>1929682988</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29">
         <v>1580000</v>
       </c>
-      <c r="G27">
+      <c r="G29">
         <v>1580000</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>10500</v>
       </c>
-      <c r="J27">
+      <c r="J29">
         <v>12000</v>
       </c>
-      <c r="K27">
+      <c r="K29">
         <v>7874611</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <v>14000</v>
       </c>
-      <c r="N27" t="s">
-        <v>128</v>
-      </c>
-      <c r="O27" t="s">
-        <v>152</v>
-      </c>
-      <c r="P27">
+      <c r="N29" t="s">
+        <v>134</v>
+      </c>
+      <c r="O29" t="s">
+        <v>159</v>
+      </c>
+      <c r="P29">
         <v>7327878427</v>
       </c>
-      <c r="Q27">
+      <c r="Q29">
         <v>10756717708</v>
       </c>
-      <c r="R27">
+      <c r="R29">
         <v>4113702647</v>
       </c>
-      <c r="S27">
+      <c r="S29">
         <v>-588932080</v>
       </c>
-      <c r="T27">
+      <c r="T29">
         <v>254042570</v>
       </c>
-      <c r="U27">
+      <c r="U29">
         <v>-738698858</v>
       </c>
-      <c r="V27">
+      <c r="V29">
         <v>-569358529</v>
       </c>
-      <c r="W27">
+      <c r="W29">
         <v>-429546963</v>
       </c>
-      <c r="X27">
+      <c r="X29">
         <v>-550600734</v>
       </c>
-      <c r="Y27" t="s">
-        <v>177</v>
+      <c r="Y29" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="181">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-11-20</t>
+  </si>
+  <si>
     <t>2023-11-09</t>
   </si>
   <si>
@@ -151,15 +154,12 @@
     <t>2023-09-11</t>
   </si>
   <si>
-    <t>2023-09-14</t>
-  </si>
-  <si>
-    <t>2023-09-08</t>
-  </si>
-  <si>
     <t>2023-09-06</t>
   </si>
   <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
     <t>2023-11-16</t>
   </si>
   <si>
@@ -187,6 +187,9 @@
     <t>2023-09-12</t>
   </si>
   <si>
+    <t>2023-11-30</t>
+  </si>
+  <si>
     <t>2023-12-01</t>
   </si>
   <si>
@@ -196,12 +199,6 @@
     <t>2023-11-24</t>
   </si>
   <si>
-    <t>2023-11-20</t>
-  </si>
-  <si>
-    <t>2023-11-21</t>
-  </si>
-  <si>
     <t>2023-11-14</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
     <t>2023-10-10</t>
   </si>
   <si>
+    <t>삼성</t>
+  </si>
+  <si>
     <t>하나</t>
   </si>
   <si>
@@ -232,9 +232,6 @@
     <t>미래, 삼성</t>
   </si>
   <si>
-    <t>삼성</t>
-  </si>
-  <si>
     <t>한국</t>
   </si>
   <si>
@@ -253,6 +250,9 @@
     <t>유안타</t>
   </si>
   <si>
+    <t>삼성스팩9호</t>
+  </si>
+  <si>
     <t>에이텀</t>
   </si>
   <si>
@@ -325,18 +325,15 @@
     <t>두산로보틱스</t>
   </si>
   <si>
-    <t>신한제11호스팩</t>
-  </si>
-  <si>
-    <t>한싹</t>
-  </si>
-  <si>
     <t>레뷰코퍼레이션</t>
   </si>
   <si>
     <t>아이엠티</t>
   </si>
   <si>
+    <t>54.61:1</t>
+  </si>
+  <si>
     <t>136.4:1</t>
   </si>
   <si>
@@ -409,24 +406,18 @@
     <t>272.03:1</t>
   </si>
   <si>
-    <t>71.91:1</t>
-  </si>
-  <si>
-    <t>840.74:1</t>
-  </si>
-  <si>
     <t>643.70:1</t>
   </si>
   <si>
     <t>753.50:1</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>0.43%</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>8.66%</t>
   </si>
   <si>
@@ -487,15 +478,15 @@
     <t>51.60%</t>
   </si>
   <si>
-    <t>13.27%</t>
-  </si>
-  <si>
     <t>21.00%</t>
   </si>
   <si>
     <t>22.20%</t>
   </si>
   <si>
+    <t>기업인수합병</t>
+  </si>
+  <si>
     <t>평판형 트랜스</t>
   </si>
   <si>
@@ -526,9 +517,6 @@
     <t>비메모리 반도체 설계및 제조, 전자회로 연구, 설계, 레이아웃 등</t>
   </si>
   <si>
-    <t>기업인수합병</t>
-  </si>
-  <si>
     <t>데크플레이트</t>
   </si>
   <si>
@@ -563,12 +551,6 @@
   </si>
   <si>
     <t>협동로봇</t>
-  </si>
-  <si>
-    <t>금융서비스(기업인수목적 회사)</t>
-  </si>
-  <si>
-    <t>망간자료전송</t>
   </si>
   <si>
     <t>REVU 서비스(컨텐츠마케팅, 로컬, 에이전시)</t>
@@ -932,7 +914,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1020,76 +1002,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2">
-        <v>650000</v>
+        <v>10000000</v>
       </c>
       <c r="G2">
-        <v>650000</v>
+        <v>10000000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="K2">
-        <v>5345180</v>
+        <v>11050000</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P2">
-        <v>55809022</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>53633878</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>47971262</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>-4601725</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>-7645858</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>-5922868</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>-20523948</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>-12027347</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-8387901</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1097,76 +1079,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3">
-        <v>8000000</v>
+        <v>650000</v>
       </c>
       <c r="G3">
-        <v>8000000</v>
+        <v>650000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="K3">
-        <v>9100000</v>
+        <v>5345180</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>55809022</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>53633878</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>47971262</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-4601725</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-7645858</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-5922868</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-20523948</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-12027347</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-8387901</v>
       </c>
       <c r="Y3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1174,46 +1156,46 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F4">
-        <v>1407000</v>
+        <v>8000000</v>
       </c>
       <c r="G4">
-        <v>844000</v>
+        <v>8000000</v>
       </c>
       <c r="H4">
-        <v>563000</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="K4">
-        <v>5657215</v>
+        <v>9100000</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>28000</v>
+        <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1243,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1251,76 +1233,76 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5">
-        <v>1640000</v>
+        <v>1407000</v>
       </c>
       <c r="G5">
-        <v>1640000</v>
+        <v>844000</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>563000</v>
       </c>
       <c r="I5">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="J5">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="K5">
-        <v>8183944</v>
+        <v>5657215</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="N5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P5">
-        <v>13660</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>25085</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>8905</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>3108</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>3731</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>2219</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>1157</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>3465</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>1666</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1328,76 +1310,76 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="G6">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="J6">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="K6">
-        <v>13436499</v>
+        <v>8183944</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P6">
-        <v>47984</v>
+        <v>13660</v>
       </c>
       <c r="Q6">
-        <v>51031</v>
+        <v>25085</v>
       </c>
       <c r="R6">
-        <v>29425</v>
+        <v>8905</v>
       </c>
       <c r="S6">
-        <v>10526</v>
+        <v>3108</v>
       </c>
       <c r="T6">
-        <v>11804</v>
+        <v>3731</v>
       </c>
       <c r="U6">
-        <v>7008</v>
+        <v>2219</v>
       </c>
       <c r="V6">
-        <v>8661</v>
+        <v>1157</v>
       </c>
       <c r="W6">
-        <v>9582</v>
+        <v>3465</v>
       </c>
       <c r="X6">
-        <v>5612</v>
+        <v>1666</v>
       </c>
       <c r="Y6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1405,76 +1387,76 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="G7">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="J7">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="K7">
-        <v>17002500</v>
+        <v>13436499</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P7">
-        <v>27199897007</v>
+        <v>47984</v>
       </c>
       <c r="Q7">
-        <v>40971122327</v>
+        <v>51031</v>
       </c>
       <c r="R7">
-        <v>25300714406</v>
+        <v>29425</v>
       </c>
       <c r="S7">
-        <v>2887034102</v>
+        <v>10526</v>
       </c>
       <c r="T7">
-        <v>7167697077</v>
+        <v>11804</v>
       </c>
       <c r="U7">
-        <v>4740280453</v>
+        <v>7008</v>
       </c>
       <c r="V7">
-        <v>2399514033</v>
+        <v>8661</v>
       </c>
       <c r="W7">
-        <v>5498221693</v>
+        <v>9582</v>
       </c>
       <c r="X7">
-        <v>3402334635</v>
+        <v>5612</v>
       </c>
       <c r="Y7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1482,76 +1464,76 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="G8">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28500</v>
+        <v>5200</v>
       </c>
       <c r="J8">
-        <v>34700</v>
+        <v>6000</v>
       </c>
       <c r="K8">
-        <v>9877043</v>
+        <v>17002500</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>34700</v>
+        <v>7000</v>
       </c>
       <c r="N8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P8">
-        <v>26994234332</v>
+        <v>27199897007</v>
       </c>
       <c r="Q8">
-        <v>60121142197</v>
+        <v>40971122327</v>
       </c>
       <c r="R8">
-        <v>53305665235</v>
+        <v>25300714406</v>
       </c>
       <c r="S8">
-        <v>10162848799</v>
+        <v>2887034102</v>
       </c>
       <c r="T8">
-        <v>20033029594</v>
+        <v>7167697077</v>
       </c>
       <c r="U8">
-        <v>19806683734</v>
+        <v>4740280453</v>
       </c>
       <c r="V8">
-        <v>7996520497</v>
+        <v>2399514033</v>
       </c>
       <c r="W8">
-        <v>15559454518</v>
+        <v>5498221693</v>
       </c>
       <c r="X8">
-        <v>15932218050</v>
+        <v>3402334635</v>
       </c>
       <c r="Y8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1559,76 +1541,76 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9">
-        <v>1596000</v>
+        <v>2079000</v>
       </c>
       <c r="G9">
-        <v>1596000</v>
+        <v>2079000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3200</v>
+        <v>28500</v>
       </c>
       <c r="J9">
-        <v>3600</v>
+        <v>34700</v>
       </c>
       <c r="K9">
-        <v>13346380</v>
+        <v>9877043</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4000</v>
+        <v>34700</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P9">
-        <v>7668281979</v>
+        <v>26994234332</v>
       </c>
       <c r="Q9">
-        <v>7100921456</v>
+        <v>60121142197</v>
       </c>
       <c r="R9">
-        <v>1207846478</v>
+        <v>53305665235</v>
       </c>
       <c r="S9">
-        <v>5659403971</v>
+        <v>10162848799</v>
       </c>
       <c r="T9">
-        <v>6124121466</v>
+        <v>20033029594</v>
       </c>
       <c r="U9">
-        <v>940668827</v>
+        <v>19806683734</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>7996520497</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>15559454518</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>15932218050</v>
       </c>
       <c r="Y9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1639,73 +1621,73 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="G10">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J10">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K10">
-        <v>13612736</v>
+        <v>13346380</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7668281979</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>7100921456</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1207846478</v>
       </c>
       <c r="S10">
-        <v>-15286512079</v>
+        <v>5659403971</v>
       </c>
       <c r="T10">
-        <v>-21424611321</v>
+        <v>6124121466</v>
       </c>
       <c r="U10">
-        <v>-139745251263</v>
+        <v>940668827</v>
       </c>
       <c r="V10">
-        <v>-53575668634</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>-38885125426</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-12610702106</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1713,76 +1695,76 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="G11">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J11">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K11">
-        <v>10585320</v>
+        <v>13612736</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P11">
-        <v>45195788</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>69629209</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>35634471</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>2751277</v>
+        <v>-15286512079</v>
       </c>
       <c r="T11">
-        <v>11449731</v>
+        <v>-21424611321</v>
       </c>
       <c r="U11">
-        <v>2482194</v>
+        <v>-139745251263</v>
       </c>
       <c r="V11">
-        <v>2092692</v>
+        <v>-53575668634</v>
       </c>
       <c r="W11">
-        <v>5149538</v>
+        <v>-38885125426</v>
       </c>
       <c r="X11">
-        <v>2327401</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1790,384 +1772,384 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="G12">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K12">
-        <v>4320000</v>
+        <v>10585320</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>45195788</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>69629209</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>35634471</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>2751277</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>11449731</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>2482194</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>2092692</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>5149538</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>2327401</v>
       </c>
       <c r="Y12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="G13">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J13">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K13">
-        <v>30610000</v>
+        <v>4320000</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O13" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="P13">
-        <v>67332006578</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>100050838794</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>63366010569</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>1140243099</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>8333440685</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>7415958936</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>668088159</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>5930478364</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>5666583221</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F14">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="G14">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J14">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K14">
-        <v>20771000</v>
+        <v>30610000</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="N14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P14">
-        <v>39450601</v>
+        <v>67332006578</v>
       </c>
       <c r="Q14">
-        <v>49044883</v>
+        <v>100050838794</v>
       </c>
       <c r="R14">
-        <v>21826468</v>
+        <v>63366010569</v>
       </c>
       <c r="S14">
-        <v>2477559</v>
+        <v>1140243099</v>
       </c>
       <c r="T14">
-        <v>8094900</v>
+        <v>8333440685</v>
       </c>
       <c r="U14">
-        <v>215154</v>
+        <v>7415958936</v>
       </c>
       <c r="V14">
-        <v>3427734</v>
+        <v>668088159</v>
       </c>
       <c r="W14">
-        <v>6575528</v>
+        <v>5930478364</v>
       </c>
       <c r="X14">
-        <v>349843</v>
+        <v>5666583221</v>
       </c>
       <c r="Y14" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="G15">
-        <v>2000000</v>
+        <v>5200000</v>
       </c>
       <c r="H15">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J15">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K15">
-        <v>14384224</v>
+        <v>20771000</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="N15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P15">
-        <v>5787300240</v>
+        <v>39450601</v>
       </c>
       <c r="Q15">
-        <v>1914633847</v>
+        <v>49044883</v>
       </c>
       <c r="R15">
-        <v>3156092272</v>
+        <v>21826468</v>
       </c>
       <c r="S15">
-        <v>-1798278694</v>
+        <v>2477559</v>
       </c>
       <c r="T15">
-        <v>-1453689952</v>
+        <v>8094900</v>
       </c>
       <c r="U15">
-        <v>-4067648306</v>
+        <v>215154</v>
       </c>
       <c r="V15">
-        <v>-12449932055</v>
+        <v>3427734</v>
       </c>
       <c r="W15">
-        <v>-7426231074</v>
+        <v>6575528</v>
       </c>
       <c r="X15">
-        <v>-52132058866</v>
+        <v>349843</v>
       </c>
       <c r="Y15" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F16">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="G16">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I16">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J16">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K16">
-        <v>7206940</v>
+        <v>14384224</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="N16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P16">
-        <v>20924</v>
+        <v>5787300240</v>
       </c>
       <c r="Q16">
-        <v>27659</v>
+        <v>1914633847</v>
       </c>
       <c r="R16">
-        <v>11818</v>
+        <v>3156092272</v>
       </c>
       <c r="S16">
-        <v>2838</v>
+        <v>-1798278694</v>
       </c>
       <c r="T16">
-        <v>4563</v>
+        <v>-1453689952</v>
       </c>
       <c r="U16">
-        <v>-1222</v>
+        <v>-4067648306</v>
       </c>
       <c r="V16">
-        <v>2413</v>
+        <v>-12449932055</v>
       </c>
       <c r="W16">
-        <v>3190</v>
+        <v>-7426231074</v>
       </c>
       <c r="X16">
-        <v>-862</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2175,84 +2157,84 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F17">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="G17">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J17">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K17">
-        <v>17306490</v>
+        <v>7206940</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P17">
-        <v>21976760922</v>
+        <v>20924</v>
       </c>
       <c r="Q17">
-        <v>15839004968</v>
+        <v>27659</v>
       </c>
       <c r="R17">
-        <v>6887755932</v>
+        <v>11818</v>
       </c>
       <c r="S17">
-        <v>-2217897363</v>
+        <v>2838</v>
       </c>
       <c r="T17">
-        <v>-3403228196</v>
+        <v>4563</v>
       </c>
       <c r="U17">
-        <v>-2758864194</v>
+        <v>-1222</v>
       </c>
       <c r="V17">
-        <v>-5110677395</v>
+        <v>2413</v>
       </c>
       <c r="W17">
-        <v>-29510193610</v>
+        <v>3190</v>
       </c>
       <c r="X17">
-        <v>-2514471056</v>
+        <v>-862</v>
       </c>
       <c r="Y17" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2261,144 +2243,144 @@
         <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F18">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="G18">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K18">
-        <v>12905000</v>
+        <v>17306490</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O18" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>21976760922</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>15839004968</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>6887755932</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>-2217897363</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>-3403228196</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>-2758864194</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>-5110677395</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>-29510193610</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="G19">
-        <v>944534</v>
+        <v>12500000</v>
       </c>
       <c r="H19">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J19">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K19">
-        <v>6261485</v>
+        <v>12905000</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O19" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="P19">
-        <v>34557425427</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>39824841246</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>23231897516</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>3011651602</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>2384643399</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>4436005255</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>2755379556</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>1176755354</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>4046949430</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2406,76 +2388,76 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="G20">
-        <v>1128720</v>
+        <v>944534</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I20">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J20">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K20">
-        <v>11287196</v>
+        <v>6261485</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="N20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P20">
-        <v>50552623684</v>
+        <v>34557425427</v>
       </c>
       <c r="Q20">
-        <v>69013134090</v>
+        <v>39824841246</v>
       </c>
       <c r="R20">
-        <v>16887814423</v>
+        <v>23231897516</v>
       </c>
       <c r="S20">
-        <v>9027232647</v>
+        <v>3011651602</v>
       </c>
       <c r="T20">
-        <v>15707796256</v>
+        <v>2384643399</v>
       </c>
       <c r="U20">
-        <v>555562560</v>
+        <v>4436005255</v>
       </c>
       <c r="V20">
-        <v>9236341465</v>
+        <v>2755379556</v>
       </c>
       <c r="W20">
-        <v>13159994846</v>
+        <v>1176755354</v>
       </c>
       <c r="X20">
-        <v>1236029732</v>
+        <v>4046949430</v>
       </c>
       <c r="Y20" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2483,76 +2465,76 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="G21">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J21">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K21">
-        <v>10193520</v>
+        <v>11287196</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="N21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P21">
-        <v>3952070068</v>
+        <v>50552623684</v>
       </c>
       <c r="Q21">
-        <v>10789274729</v>
+        <v>69013134090</v>
       </c>
       <c r="R21">
-        <v>6040367765</v>
+        <v>16887814423</v>
       </c>
       <c r="S21">
-        <v>-4741577598</v>
+        <v>9027232647</v>
       </c>
       <c r="T21">
-        <v>-3671026788</v>
+        <v>15707796256</v>
       </c>
       <c r="U21">
-        <v>-3292521363</v>
+        <v>555562560</v>
       </c>
       <c r="V21">
-        <v>-3654889267</v>
+        <v>9236341465</v>
       </c>
       <c r="W21">
-        <v>-2281074471</v>
+        <v>13159994846</v>
       </c>
       <c r="X21">
-        <v>-2539505707</v>
+        <v>1236029732</v>
       </c>
       <c r="Y21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2560,76 +2542,76 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="G22">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J22">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K22">
-        <v>16120000</v>
+        <v>10193520</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="N22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P22">
-        <v>26691070764</v>
+        <v>3952070068</v>
       </c>
       <c r="Q22">
-        <v>22835113396</v>
+        <v>10789274729</v>
       </c>
       <c r="R22">
-        <v>7519073723</v>
+        <v>6040367765</v>
       </c>
       <c r="S22">
-        <v>6041270235</v>
+        <v>-4741577598</v>
       </c>
       <c r="T22">
-        <v>6705120210</v>
+        <v>-3671026788</v>
       </c>
       <c r="U22">
-        <v>982044017</v>
+        <v>-3292521363</v>
       </c>
       <c r="V22">
-        <v>5119066139</v>
+        <v>-3654889267</v>
       </c>
       <c r="W22">
-        <v>5870093710</v>
+        <v>-2281074471</v>
       </c>
       <c r="X22">
-        <v>1198587470</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y22" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2637,76 +2619,76 @@
         <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F23">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="G23">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J23">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K23">
-        <v>7674103</v>
+        <v>16120000</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P23">
-        <v>8242508010</v>
+        <v>26691070764</v>
       </c>
       <c r="Q23">
-        <v>10751900430</v>
+        <v>22835113396</v>
       </c>
       <c r="R23">
-        <v>4416778965</v>
+        <v>7519073723</v>
       </c>
       <c r="S23">
-        <v>426234451</v>
+        <v>6041270235</v>
       </c>
       <c r="T23">
-        <v>2423749751</v>
+        <v>6705120210</v>
       </c>
       <c r="U23">
-        <v>677048172</v>
+        <v>982044017</v>
       </c>
       <c r="V23">
-        <v>57890953</v>
+        <v>5119066139</v>
       </c>
       <c r="W23">
-        <v>2826043673</v>
+        <v>5870093710</v>
       </c>
       <c r="X23">
-        <v>990121873</v>
+        <v>1198587470</v>
       </c>
       <c r="Y23" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2714,76 +2696,76 @@
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F24">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="G24">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J24">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K24">
-        <v>9039778</v>
+        <v>7674103</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O24" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P24">
-        <v>104225113285</v>
+        <v>8242508010</v>
       </c>
       <c r="Q24">
-        <v>106505634411</v>
+        <v>10751900430</v>
       </c>
       <c r="R24">
-        <v>66424930568</v>
+        <v>4416778965</v>
       </c>
       <c r="S24">
-        <v>6291020806</v>
+        <v>426234451</v>
       </c>
       <c r="T24">
-        <v>7893242769</v>
+        <v>2423749751</v>
       </c>
       <c r="U24">
-        <v>7661497240</v>
+        <v>677048172</v>
       </c>
       <c r="V24">
-        <v>7319368873</v>
+        <v>57890953</v>
       </c>
       <c r="W24">
-        <v>9286891982</v>
+        <v>2826043673</v>
       </c>
       <c r="X24">
-        <v>7334816490</v>
+        <v>990121873</v>
       </c>
       <c r="Y24" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2791,34 +2773,34 @@
         <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F25">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="G25">
-        <v>16200000</v>
+        <v>2000000</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="J25">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="K25">
-        <v>64819980</v>
+        <v>9039778</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2827,40 +2809,40 @@
         <v>26000</v>
       </c>
       <c r="N25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O25" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P25">
-        <v>36980</v>
+        <v>104225113285</v>
       </c>
       <c r="Q25">
-        <v>44954</v>
+        <v>106505634411</v>
       </c>
       <c r="R25">
-        <v>23652</v>
+        <v>66424930568</v>
       </c>
       <c r="S25">
-        <v>-7085</v>
+        <v>6291020806</v>
       </c>
       <c r="T25">
-        <v>-13228</v>
+        <v>7893242769</v>
       </c>
       <c r="U25">
-        <v>-9932</v>
+        <v>7661497240</v>
       </c>
       <c r="V25">
-        <v>-7417</v>
+        <v>7319368873</v>
       </c>
       <c r="W25">
-        <v>-12548</v>
+        <v>9286891982</v>
       </c>
       <c r="X25">
-        <v>-9333</v>
+        <v>7334816490</v>
       </c>
       <c r="Y25" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2871,304 +2853,227 @@
         <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F26">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="G26">
-        <v>18000000</v>
+        <v>16200000</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>2000</v>
+        <v>21000</v>
       </c>
       <c r="J26">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K26">
-        <v>18905000</v>
+        <v>64819980</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="N26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O26" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>36980</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>44954</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>23652</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>-7085</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>-13228</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>-9932</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>-7417</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>-12548</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>-9333</v>
       </c>
       <c r="Y26" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F27">
-        <v>1500000</v>
+        <v>2240000</v>
       </c>
       <c r="G27">
-        <v>1500000</v>
+        <v>1640000</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="I27">
-        <v>8900</v>
+        <v>11500</v>
       </c>
       <c r="J27">
-        <v>11000</v>
+        <v>13200</v>
       </c>
       <c r="K27">
-        <v>5447675</v>
+        <v>10969386</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="N27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O27" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P27">
-        <v>18408761227</v>
+        <v>22818451349</v>
       </c>
       <c r="Q27">
-        <v>21902816604</v>
+        <v>30491967755</v>
       </c>
       <c r="R27">
-        <v>8176918465</v>
+        <v>18040053709</v>
       </c>
       <c r="S27">
-        <v>3669182465</v>
+        <v>2313787613</v>
       </c>
       <c r="T27">
-        <v>1851925471</v>
+        <v>4014101926</v>
       </c>
       <c r="U27">
-        <v>590566592</v>
+        <v>1878997667</v>
       </c>
       <c r="V27">
-        <v>3633973594</v>
+        <v>559427078</v>
       </c>
       <c r="W27">
-        <v>2205418963</v>
+        <v>-711183147</v>
       </c>
       <c r="X27">
-        <v>592903151</v>
+        <v>1929682988</v>
       </c>
       <c r="Y27" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F28">
-        <v>2240000</v>
+        <v>1580000</v>
       </c>
       <c r="G28">
-        <v>1640000</v>
+        <v>1580000</v>
       </c>
       <c r="H28">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="J28">
-        <v>13200</v>
+        <v>12000</v>
       </c>
       <c r="K28">
-        <v>10969386</v>
+        <v>7874611</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P28">
-        <v>22818451349</v>
+        <v>7327878427</v>
       </c>
       <c r="Q28">
-        <v>30491967755</v>
+        <v>10756717708</v>
       </c>
       <c r="R28">
-        <v>18040053709</v>
+        <v>4113702647</v>
       </c>
       <c r="S28">
-        <v>2313787613</v>
+        <v>-588932080</v>
       </c>
       <c r="T28">
-        <v>4014101926</v>
+        <v>254042570</v>
       </c>
       <c r="U28">
-        <v>1878997667</v>
+        <v>-738698858</v>
       </c>
       <c r="V28">
-        <v>559427078</v>
+        <v>-569358529</v>
       </c>
       <c r="W28">
-        <v>-711183147</v>
+        <v>-429546963</v>
       </c>
       <c r="X28">
-        <v>1929682988</v>
+        <v>-550600734</v>
       </c>
       <c r="Y28" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29">
-        <v>1580000</v>
-      </c>
-      <c r="G29">
-        <v>1580000</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>10500</v>
-      </c>
-      <c r="J29">
-        <v>12000</v>
-      </c>
-      <c r="K29">
-        <v>7874611</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>14000</v>
-      </c>
-      <c r="N29" t="s">
-        <v>134</v>
-      </c>
-      <c r="O29" t="s">
-        <v>159</v>
-      </c>
-      <c r="P29">
-        <v>7327878427</v>
-      </c>
-      <c r="Q29">
-        <v>10756717708</v>
-      </c>
-      <c r="R29">
-        <v>4113702647</v>
-      </c>
-      <c r="S29">
-        <v>-588932080</v>
-      </c>
-      <c r="T29">
-        <v>254042570</v>
-      </c>
-      <c r="U29">
-        <v>-738698858</v>
-      </c>
-      <c r="V29">
-        <v>-569358529</v>
-      </c>
-      <c r="W29">
-        <v>-429546963</v>
-      </c>
-      <c r="X29">
-        <v>-550600734</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="185">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
     <t>2023-11-20</t>
   </si>
   <si>
@@ -157,12 +160,12 @@
     <t>2023-09-06</t>
   </si>
   <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
     <t>2023-11-21</t>
   </si>
   <si>
-    <t>2023-11-16</t>
-  </si>
-  <si>
     <t>2023-11-13</t>
   </si>
   <si>
@@ -187,6 +190,9 @@
     <t>2023-09-12</t>
   </si>
   <si>
+    <t>2023-12-05</t>
+  </si>
+  <si>
     <t>2023-11-30</t>
   </si>
   <si>
@@ -202,12 +208,15 @@
     <t>2023-11-14</t>
   </si>
   <si>
-    <t>2023-11-10</t>
-  </si>
-  <si>
     <t>2023-10-10</t>
   </si>
   <si>
+    <t>유안타</t>
+  </si>
+  <si>
+    <t>교보</t>
+  </si>
+  <si>
     <t>삼성</t>
   </si>
   <si>
@@ -244,10 +253,10 @@
     <t>키움</t>
   </si>
   <si>
-    <t>한국, 미래</t>
-  </si>
-  <si>
-    <t>유안타</t>
+    <t>와이바이오로직스</t>
+  </si>
+  <si>
+    <t>교보15호스팩</t>
   </si>
   <si>
     <t>삼성스팩9호</t>
@@ -322,15 +331,18 @@
     <t>신성에스티</t>
   </si>
   <si>
-    <t>두산로보틱스</t>
-  </si>
-  <si>
     <t>레뷰코퍼레이션</t>
   </si>
   <si>
     <t>아이엠티</t>
   </si>
   <si>
+    <t>226.9:1</t>
+  </si>
+  <si>
+    <t>819.05</t>
+  </si>
+  <si>
     <t>54.61:1</t>
   </si>
   <si>
@@ -403,15 +415,18 @@
     <t>583.50:1</t>
   </si>
   <si>
-    <t>272.03:1</t>
-  </si>
-  <si>
     <t>643.70:1</t>
   </si>
   <si>
     <t>753.50:1</t>
   </si>
   <si>
+    <t>14.47%</t>
+  </si>
+  <si>
+    <t>0.18%</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -475,15 +490,15 @@
     <t>13.57%</t>
   </si>
   <si>
-    <t>51.60%</t>
-  </si>
-  <si>
     <t>21.00%</t>
   </si>
   <si>
     <t>22.20%</t>
   </si>
   <si>
+    <t>항체의약품 및 항체후보물질 연구개발</t>
+  </si>
+  <si>
     <t>기업인수합병</t>
   </si>
   <si>
@@ -548,9 +563,6 @@
   </si>
   <si>
     <t>전기차/2차전지 Busbar 및 배터리모듈 보호 부품 등</t>
-  </si>
-  <si>
-    <t>협동로봇</t>
   </si>
   <si>
     <t>REVU 서비스(컨텐츠마케팅, 로컬, 에이전시)</t>
@@ -914,7 +926,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1002,46 +1014,46 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="G2">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K2">
-        <v>11050000</v>
+        <v>13866898</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="N2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1071,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1079,99 +1091,99 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3">
-        <v>650000</v>
+        <v>3500000</v>
       </c>
       <c r="G3">
-        <v>650000</v>
+        <v>3500000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="K3">
-        <v>5345180</v>
+        <v>3810000</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P3">
-        <v>55809022</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>53633878</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>47971262</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>-4601725</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>-7645858</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>-5922868</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>-20523948</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-12027347</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-8387901</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F4">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="G4">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1183,7 +1195,7 @@
         <v>2000</v>
       </c>
       <c r="K4">
-        <v>9100000</v>
+        <v>11050000</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1192,10 +1204,10 @@
         <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1225,670 +1237,670 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F5">
-        <v>1407000</v>
+        <v>650000</v>
       </c>
       <c r="G5">
-        <v>844000</v>
+        <v>650000</v>
       </c>
       <c r="H5">
-        <v>563000</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="J5">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="K5">
-        <v>5657215</v>
+        <v>5345180</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="N5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>55809022</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>53633878</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>47971262</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>-4601725</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>-7645858</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>-5922868</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>-20523948</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>-12027347</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>-8387901</v>
       </c>
       <c r="Y5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F6">
-        <v>1640000</v>
+        <v>8000000</v>
       </c>
       <c r="G6">
-        <v>1640000</v>
+        <v>8000000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J6">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K6">
-        <v>8183944</v>
+        <v>9100000</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P6">
-        <v>13660</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>25085</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>8905</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>3108</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>3731</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>2219</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>1157</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>3465</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>1666</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F7">
-        <v>3350000</v>
+        <v>1407000</v>
       </c>
       <c r="G7">
-        <v>3350000</v>
+        <v>844000</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>563000</v>
       </c>
       <c r="I7">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="J7">
-        <v>9500</v>
+        <v>25000</v>
       </c>
       <c r="K7">
-        <v>13436499</v>
+        <v>5657215</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="N7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P7">
-        <v>47984</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>51031</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>29425</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>10526</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>11804</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>7008</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>8661</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>9582</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>5612</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
         <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F8">
-        <v>4250000</v>
+        <v>1640000</v>
       </c>
       <c r="G8">
-        <v>4250000</v>
+        <v>1640000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5200</v>
+        <v>11000</v>
       </c>
       <c r="J8">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="K8">
-        <v>17002500</v>
+        <v>8183944</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="N8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P8">
-        <v>27199897007</v>
+        <v>13660</v>
       </c>
       <c r="Q8">
-        <v>40971122327</v>
+        <v>25085</v>
       </c>
       <c r="R8">
-        <v>25300714406</v>
+        <v>8905</v>
       </c>
       <c r="S8">
-        <v>2887034102</v>
+        <v>3108</v>
       </c>
       <c r="T8">
-        <v>7167697077</v>
+        <v>3731</v>
       </c>
       <c r="U8">
-        <v>4740280453</v>
+        <v>2219</v>
       </c>
       <c r="V8">
-        <v>2399514033</v>
+        <v>1157</v>
       </c>
       <c r="W8">
-        <v>5498221693</v>
+        <v>3465</v>
       </c>
       <c r="X8">
-        <v>3402334635</v>
+        <v>1666</v>
       </c>
       <c r="Y8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F9">
-        <v>2079000</v>
+        <v>3350000</v>
       </c>
       <c r="G9">
-        <v>2079000</v>
+        <v>3350000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28500</v>
+        <v>8000</v>
       </c>
       <c r="J9">
-        <v>34700</v>
+        <v>9500</v>
       </c>
       <c r="K9">
-        <v>9877043</v>
+        <v>13436499</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34700</v>
+        <v>11000</v>
       </c>
       <c r="N9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P9">
-        <v>26994234332</v>
+        <v>47984</v>
       </c>
       <c r="Q9">
-        <v>60121142197</v>
+        <v>51031</v>
       </c>
       <c r="R9">
-        <v>53305665235</v>
+        <v>29425</v>
       </c>
       <c r="S9">
-        <v>10162848799</v>
+        <v>10526</v>
       </c>
       <c r="T9">
-        <v>20033029594</v>
+        <v>11804</v>
       </c>
       <c r="U9">
-        <v>19806683734</v>
+        <v>7008</v>
       </c>
       <c r="V9">
-        <v>7996520497</v>
+        <v>8661</v>
       </c>
       <c r="W9">
-        <v>15559454518</v>
+        <v>9582</v>
       </c>
       <c r="X9">
-        <v>15932218050</v>
+        <v>5612</v>
       </c>
       <c r="Y9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F10">
-        <v>1596000</v>
+        <v>4250000</v>
       </c>
       <c r="G10">
-        <v>1596000</v>
+        <v>4250000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3200</v>
+        <v>5200</v>
       </c>
       <c r="J10">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="K10">
-        <v>13346380</v>
+        <v>17002500</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P10">
-        <v>7668281979</v>
+        <v>27199897007</v>
       </c>
       <c r="Q10">
-        <v>7100921456</v>
+        <v>40971122327</v>
       </c>
       <c r="R10">
-        <v>1207846478</v>
+        <v>25300714406</v>
       </c>
       <c r="S10">
-        <v>5659403971</v>
+        <v>2887034102</v>
       </c>
       <c r="T10">
-        <v>6124121466</v>
+        <v>7167697077</v>
       </c>
       <c r="U10">
-        <v>940668827</v>
+        <v>4740280453</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>2399514033</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>5498221693</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>3402334635</v>
       </c>
       <c r="Y10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F11">
-        <v>1600000</v>
+        <v>2079000</v>
       </c>
       <c r="G11">
-        <v>1600000</v>
+        <v>2079000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>29800</v>
+        <v>28500</v>
       </c>
       <c r="J11">
-        <v>33500</v>
+        <v>34700</v>
       </c>
       <c r="K11">
-        <v>13612736</v>
+        <v>9877043</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20000</v>
+        <v>34700</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>26994234332</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>60121142197</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>53305665235</v>
       </c>
       <c r="S11">
-        <v>-15286512079</v>
+        <v>10162848799</v>
       </c>
       <c r="T11">
-        <v>-21424611321</v>
+        <v>20033029594</v>
       </c>
       <c r="U11">
-        <v>-139745251263</v>
+        <v>19806683734</v>
       </c>
       <c r="V11">
-        <v>-53575668634</v>
+        <v>7996520497</v>
       </c>
       <c r="W11">
-        <v>-38885125426</v>
+        <v>15559454518</v>
       </c>
       <c r="X11">
-        <v>-12610702106</v>
+        <v>15932218050</v>
       </c>
       <c r="Y11" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12">
-        <v>2636330</v>
+        <v>1596000</v>
       </c>
       <c r="G12">
-        <v>2636330</v>
+        <v>1596000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19100</v>
+        <v>3200</v>
       </c>
       <c r="J12">
-        <v>21400</v>
+        <v>3600</v>
       </c>
       <c r="K12">
-        <v>10585320</v>
+        <v>13346380</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P12">
-        <v>45195788</v>
+        <v>7668281979</v>
       </c>
       <c r="Q12">
-        <v>69629209</v>
+        <v>7100921456</v>
       </c>
       <c r="R12">
-        <v>35634471</v>
+        <v>1207846478</v>
       </c>
       <c r="S12">
-        <v>2751277</v>
+        <v>5659403971</v>
       </c>
       <c r="T12">
-        <v>11449731</v>
+        <v>6124121466</v>
       </c>
       <c r="U12">
-        <v>2482194</v>
+        <v>940668827</v>
       </c>
       <c r="V12">
-        <v>2092692</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>5149538</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>2327401</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13">
-        <v>4000000</v>
+        <v>1600000</v>
       </c>
       <c r="G13">
-        <v>4000000</v>
+        <v>1600000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>29800</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>33500</v>
       </c>
       <c r="K13">
-        <v>4320000</v>
+        <v>13612736</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1900,487 +1912,487 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>-15286512079</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>-21424611321</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>-139745251263</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>-53575668634</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>-38885125426</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y13" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F14">
-        <v>7000000</v>
+        <v>2636330</v>
       </c>
       <c r="G14">
-        <v>7000000</v>
+        <v>2636330</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1200</v>
+        <v>19100</v>
       </c>
       <c r="J14">
-        <v>1500</v>
+        <v>21400</v>
       </c>
       <c r="K14">
-        <v>30610000</v>
+        <v>10585320</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1800</v>
+        <v>25000</v>
       </c>
       <c r="N14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O14" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P14">
-        <v>67332006578</v>
+        <v>45195788</v>
       </c>
       <c r="Q14">
-        <v>100050838794</v>
+        <v>69629209</v>
       </c>
       <c r="R14">
-        <v>63366010569</v>
+        <v>35634471</v>
       </c>
       <c r="S14">
-        <v>1140243099</v>
+        <v>2751277</v>
       </c>
       <c r="T14">
-        <v>8333440685</v>
+        <v>11449731</v>
       </c>
       <c r="U14">
-        <v>7415958936</v>
+        <v>2482194</v>
       </c>
       <c r="V14">
-        <v>668088159</v>
+        <v>2092692</v>
       </c>
       <c r="W14">
-        <v>5930478364</v>
+        <v>5149538</v>
       </c>
       <c r="X14">
-        <v>5666583221</v>
+        <v>2327401</v>
       </c>
       <c r="Y14" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F15">
-        <v>5200000</v>
+        <v>4000000</v>
       </c>
       <c r="G15">
-        <v>5200000</v>
+        <v>4000000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="K15">
-        <v>20771000</v>
+        <v>4320000</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="P15">
-        <v>39450601</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>49044883</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>21826468</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>2477559</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>8094900</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>215154</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>3427734</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>6575528</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>349843</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F16">
-        <v>2060000</v>
+        <v>7000000</v>
       </c>
       <c r="G16">
-        <v>2000000</v>
+        <v>7000000</v>
       </c>
       <c r="H16">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>20300</v>
+        <v>1200</v>
       </c>
       <c r="J16">
-        <v>22500</v>
+        <v>1500</v>
       </c>
       <c r="K16">
-        <v>14384224</v>
+        <v>30610000</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22500</v>
+        <v>1800</v>
       </c>
       <c r="N16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P16">
-        <v>5787300240</v>
+        <v>67332006578</v>
       </c>
       <c r="Q16">
-        <v>1914633847</v>
+        <v>100050838794</v>
       </c>
       <c r="R16">
-        <v>3156092272</v>
+        <v>63366010569</v>
       </c>
       <c r="S16">
-        <v>-1798278694</v>
+        <v>1140243099</v>
       </c>
       <c r="T16">
-        <v>-1453689952</v>
+        <v>8333440685</v>
       </c>
       <c r="U16">
-        <v>-4067648306</v>
+        <v>7415958936</v>
       </c>
       <c r="V16">
-        <v>-12449932055</v>
+        <v>668088159</v>
       </c>
       <c r="W16">
-        <v>-7426231074</v>
+        <v>5930478364</v>
       </c>
       <c r="X16">
-        <v>-52132058866</v>
+        <v>5666583221</v>
       </c>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F17">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="G17">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>9100</v>
+        <v>3500</v>
       </c>
       <c r="J17">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="K17">
-        <v>7206940</v>
+        <v>20771000</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13000</v>
+        <v>4800</v>
       </c>
       <c r="N17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P17">
-        <v>20924</v>
+        <v>39450601</v>
       </c>
       <c r="Q17">
-        <v>27659</v>
+        <v>49044883</v>
       </c>
       <c r="R17">
-        <v>11818</v>
+        <v>21826468</v>
       </c>
       <c r="S17">
-        <v>2838</v>
+        <v>2477559</v>
       </c>
       <c r="T17">
-        <v>4563</v>
+        <v>8094900</v>
       </c>
       <c r="U17">
-        <v>-1222</v>
+        <v>215154</v>
       </c>
       <c r="V17">
-        <v>2413</v>
+        <v>3427734</v>
       </c>
       <c r="W17">
-        <v>3190</v>
+        <v>6575528</v>
       </c>
       <c r="X17">
-        <v>-862</v>
+        <v>349843</v>
       </c>
       <c r="Y17" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F18">
-        <v>3600000</v>
+        <v>2060000</v>
       </c>
       <c r="G18">
-        <v>3600000</v>
+        <v>2000000</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I18">
-        <v>5000</v>
+        <v>20300</v>
       </c>
       <c r="J18">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="K18">
-        <v>17306490</v>
+        <v>14384224</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="N18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P18">
-        <v>21976760922</v>
+        <v>5787300240</v>
       </c>
       <c r="Q18">
-        <v>15839004968</v>
+        <v>1914633847</v>
       </c>
       <c r="R18">
-        <v>6887755932</v>
+        <v>3156092272</v>
       </c>
       <c r="S18">
-        <v>-2217897363</v>
+        <v>-1798278694</v>
       </c>
       <c r="T18">
-        <v>-3403228196</v>
+        <v>-1453689952</v>
       </c>
       <c r="U18">
-        <v>-2758864194</v>
+        <v>-4067648306</v>
       </c>
       <c r="V18">
-        <v>-5110677395</v>
+        <v>-12449932055</v>
       </c>
       <c r="W18">
-        <v>-29510193610</v>
+        <v>-7426231074</v>
       </c>
       <c r="X18">
-        <v>-2514471056</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y18" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F19">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="G19">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2000</v>
+        <v>9100</v>
       </c>
       <c r="J19">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K19">
-        <v>12905000</v>
+        <v>7206940</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>20924</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>27659</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>11818</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>2838</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>4563</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>-1222</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>2413</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>3190</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>-862</v>
       </c>
       <c r="Y19" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2388,188 +2400,188 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F20">
-        <v>1049482</v>
+        <v>3600000</v>
       </c>
       <c r="G20">
-        <v>944534</v>
+        <v>3600000</v>
       </c>
       <c r="H20">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>12800</v>
+        <v>5000</v>
       </c>
       <c r="J20">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="K20">
-        <v>6261485</v>
+        <v>17306490</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="N20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O20" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P20">
-        <v>34557425427</v>
+        <v>21976760922</v>
       </c>
       <c r="Q20">
-        <v>39824841246</v>
+        <v>15839004968</v>
       </c>
       <c r="R20">
-        <v>23231897516</v>
+        <v>6887755932</v>
       </c>
       <c r="S20">
-        <v>3011651602</v>
+        <v>-2217897363</v>
       </c>
       <c r="T20">
-        <v>2384643399</v>
+        <v>-3403228196</v>
       </c>
       <c r="U20">
-        <v>4436005255</v>
+        <v>-2758864194</v>
       </c>
       <c r="V20">
-        <v>2755379556</v>
+        <v>-5110677395</v>
       </c>
       <c r="W20">
-        <v>1176755354</v>
+        <v>-29510193610</v>
       </c>
       <c r="X20">
-        <v>4046949430</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y20" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F21">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="G21">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="J21">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="K21">
-        <v>11287196</v>
+        <v>12905000</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="N21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O21" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="P21">
-        <v>50552623684</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>69013134090</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>16887814423</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>9027232647</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>15707796256</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>555562560</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>9236341465</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>13159994846</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>1236029732</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F22">
-        <v>1800000</v>
+        <v>1049482</v>
       </c>
       <c r="G22">
-        <v>1800000</v>
+        <v>944534</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I22">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="J22">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="K22">
-        <v>10193520</v>
+        <v>6261485</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2578,348 +2590,348 @@
         <v>17000</v>
       </c>
       <c r="N22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O22" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P22">
-        <v>3952070068</v>
+        <v>34557425427</v>
       </c>
       <c r="Q22">
-        <v>10789274729</v>
+        <v>39824841246</v>
       </c>
       <c r="R22">
-        <v>6040367765</v>
+        <v>23231897516</v>
       </c>
       <c r="S22">
-        <v>-4741577598</v>
+        <v>3011651602</v>
       </c>
       <c r="T22">
-        <v>-3671026788</v>
+        <v>2384643399</v>
       </c>
       <c r="U22">
-        <v>-3292521363</v>
+        <v>4436005255</v>
       </c>
       <c r="V22">
-        <v>-3654889267</v>
+        <v>2755379556</v>
       </c>
       <c r="W22">
-        <v>-2281074471</v>
+        <v>1176755354</v>
       </c>
       <c r="X22">
-        <v>-2539505707</v>
+        <v>4046949430</v>
       </c>
       <c r="Y22" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F23">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="G23">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="J23">
-        <v>5600</v>
+        <v>3900</v>
       </c>
       <c r="K23">
-        <v>16120000</v>
+        <v>11287196</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="N23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O23" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P23">
-        <v>26691070764</v>
+        <v>50552623684</v>
       </c>
       <c r="Q23">
-        <v>22835113396</v>
+        <v>69013134090</v>
       </c>
       <c r="R23">
-        <v>7519073723</v>
+        <v>16887814423</v>
       </c>
       <c r="S23">
-        <v>6041270235</v>
+        <v>9027232647</v>
       </c>
       <c r="T23">
-        <v>6705120210</v>
+        <v>15707796256</v>
       </c>
       <c r="U23">
-        <v>982044017</v>
+        <v>555562560</v>
       </c>
       <c r="V23">
-        <v>5119066139</v>
+        <v>9236341465</v>
       </c>
       <c r="W23">
-        <v>5870093710</v>
+        <v>13159994846</v>
       </c>
       <c r="X23">
-        <v>1198587470</v>
+        <v>1236029732</v>
       </c>
       <c r="Y23" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F24">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="G24">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>8200</v>
+        <v>13000</v>
       </c>
       <c r="J24">
-        <v>9400</v>
+        <v>15000</v>
       </c>
       <c r="K24">
-        <v>7674103</v>
+        <v>10193520</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="N24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O24" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P24">
-        <v>8242508010</v>
+        <v>3952070068</v>
       </c>
       <c r="Q24">
-        <v>10751900430</v>
+        <v>10789274729</v>
       </c>
       <c r="R24">
-        <v>4416778965</v>
+        <v>6040367765</v>
       </c>
       <c r="S24">
-        <v>426234451</v>
+        <v>-4741577598</v>
       </c>
       <c r="T24">
-        <v>2423749751</v>
+        <v>-3671026788</v>
       </c>
       <c r="U24">
-        <v>677048172</v>
+        <v>-3292521363</v>
       </c>
       <c r="V24">
-        <v>57890953</v>
+        <v>-3654889267</v>
       </c>
       <c r="W24">
-        <v>2826043673</v>
+        <v>-2281074471</v>
       </c>
       <c r="X24">
-        <v>990121873</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y24" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F25">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="G25">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="J25">
-        <v>25000</v>
+        <v>5600</v>
       </c>
       <c r="K25">
-        <v>9039778</v>
+        <v>16120000</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="N25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P25">
-        <v>104225113285</v>
+        <v>26691070764</v>
       </c>
       <c r="Q25">
-        <v>106505634411</v>
+        <v>22835113396</v>
       </c>
       <c r="R25">
-        <v>66424930568</v>
+        <v>7519073723</v>
       </c>
       <c r="S25">
-        <v>6291020806</v>
+        <v>6041270235</v>
       </c>
       <c r="T25">
-        <v>7893242769</v>
+        <v>6705120210</v>
       </c>
       <c r="U25">
-        <v>7661497240</v>
+        <v>982044017</v>
       </c>
       <c r="V25">
-        <v>7319368873</v>
+        <v>5119066139</v>
       </c>
       <c r="W25">
-        <v>9286891982</v>
+        <v>5870093710</v>
       </c>
       <c r="X25">
-        <v>7334816490</v>
+        <v>1198587470</v>
       </c>
       <c r="Y25" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F26">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="G26">
-        <v>16200000</v>
+        <v>770000</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>21000</v>
+        <v>8200</v>
       </c>
       <c r="J26">
-        <v>26000</v>
+        <v>9400</v>
       </c>
       <c r="K26">
-        <v>64819980</v>
+        <v>7674103</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O26" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P26">
-        <v>36980</v>
+        <v>8242508010</v>
       </c>
       <c r="Q26">
-        <v>44954</v>
+        <v>10751900430</v>
       </c>
       <c r="R26">
-        <v>23652</v>
+        <v>4416778965</v>
       </c>
       <c r="S26">
-        <v>-7085</v>
+        <v>426234451</v>
       </c>
       <c r="T26">
-        <v>-13228</v>
+        <v>2423749751</v>
       </c>
       <c r="U26">
-        <v>-9932</v>
+        <v>677048172</v>
       </c>
       <c r="V26">
-        <v>-7417</v>
+        <v>57890953</v>
       </c>
       <c r="W26">
-        <v>-12548</v>
+        <v>2826043673</v>
       </c>
       <c r="X26">
-        <v>-9333</v>
+        <v>990121873</v>
       </c>
       <c r="Y26" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2930,73 +2942,73 @@
         <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F27">
-        <v>2240000</v>
+        <v>2000000</v>
       </c>
       <c r="G27">
-        <v>1640000</v>
+        <v>2000000</v>
       </c>
       <c r="H27">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>11500</v>
+        <v>22000</v>
       </c>
       <c r="J27">
-        <v>13200</v>
+        <v>25000</v>
       </c>
       <c r="K27">
-        <v>10969386</v>
+        <v>9039778</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="N27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O27" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P27">
-        <v>22818451349</v>
+        <v>104225113285</v>
       </c>
       <c r="Q27">
-        <v>30491967755</v>
+        <v>106505634411</v>
       </c>
       <c r="R27">
-        <v>18040053709</v>
+        <v>66424930568</v>
       </c>
       <c r="S27">
-        <v>2313787613</v>
+        <v>6291020806</v>
       </c>
       <c r="T27">
-        <v>4014101926</v>
+        <v>7893242769</v>
       </c>
       <c r="U27">
-        <v>1878997667</v>
+        <v>7661497240</v>
       </c>
       <c r="V27">
-        <v>559427078</v>
+        <v>7319368873</v>
       </c>
       <c r="W27">
-        <v>-711183147</v>
+        <v>9286891982</v>
       </c>
       <c r="X27">
-        <v>1929682988</v>
+        <v>7334816490</v>
       </c>
       <c r="Y27" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -3007,73 +3019,150 @@
         <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F28">
+        <v>2240000</v>
+      </c>
+      <c r="G28">
+        <v>1640000</v>
+      </c>
+      <c r="H28">
+        <v>600000</v>
+      </c>
+      <c r="I28">
+        <v>11500</v>
+      </c>
+      <c r="J28">
+        <v>13200</v>
+      </c>
+      <c r="K28">
+        <v>10969386</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>15000</v>
+      </c>
+      <c r="N28" t="s">
+        <v>133</v>
+      </c>
+      <c r="O28" t="s">
+        <v>158</v>
+      </c>
+      <c r="P28">
+        <v>22818451349</v>
+      </c>
+      <c r="Q28">
+        <v>30491967755</v>
+      </c>
+      <c r="R28">
+        <v>18040053709</v>
+      </c>
+      <c r="S28">
+        <v>2313787613</v>
+      </c>
+      <c r="T28">
+        <v>4014101926</v>
+      </c>
+      <c r="U28">
+        <v>1878997667</v>
+      </c>
+      <c r="V28">
+        <v>559427078</v>
+      </c>
+      <c r="W28">
+        <v>-711183147</v>
+      </c>
+      <c r="X28">
+        <v>1929682988</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29">
         <v>1580000</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>1580000</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>10500</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>12000</v>
       </c>
-      <c r="K28">
+      <c r="K29">
         <v>7874611</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <v>14000</v>
       </c>
-      <c r="N28" t="s">
-        <v>131</v>
-      </c>
-      <c r="O28" t="s">
-        <v>155</v>
-      </c>
-      <c r="P28">
+      <c r="N29" t="s">
+        <v>134</v>
+      </c>
+      <c r="O29" t="s">
+        <v>159</v>
+      </c>
+      <c r="P29">
         <v>7327878427</v>
       </c>
-      <c r="Q28">
+      <c r="Q29">
         <v>10756717708</v>
       </c>
-      <c r="R28">
+      <c r="R29">
         <v>4113702647</v>
       </c>
-      <c r="S28">
+      <c r="S29">
         <v>-588932080</v>
       </c>
-      <c r="T28">
+      <c r="T29">
         <v>254042570</v>
       </c>
-      <c r="U28">
+      <c r="U29">
         <v>-738698858</v>
       </c>
-      <c r="V28">
+      <c r="V29">
         <v>-569358529</v>
       </c>
-      <c r="W28">
+      <c r="W29">
         <v>-429546963</v>
       </c>
-      <c r="X28">
+      <c r="X29">
         <v>-550600734</v>
       </c>
-      <c r="Y28" t="s">
-        <v>180</v>
+      <c r="Y29" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="186">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,12 +91,15 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-11-20</t>
+  </si>
+  <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
     <t>2023-11-10</t>
   </si>
   <si>
-    <t>2023-11-20</t>
-  </si>
-  <si>
     <t>2023-11-09</t>
   </si>
   <si>
@@ -154,18 +157,15 @@
     <t>2023-09-22</t>
   </si>
   <si>
-    <t>2023-09-11</t>
-  </si>
-  <si>
     <t>2023-09-06</t>
   </si>
   <si>
-    <t>2023-11-16</t>
-  </si>
-  <si>
     <t>2023-11-21</t>
   </si>
   <si>
+    <t>2023-11-22</t>
+  </si>
+  <si>
     <t>2023-11-13</t>
   </si>
   <si>
@@ -184,15 +184,15 @@
     <t>2023-10-04</t>
   </si>
   <si>
-    <t>2023-09-15</t>
-  </si>
-  <si>
     <t>2023-09-12</t>
   </si>
   <si>
     <t>2023-12-05</t>
   </si>
   <si>
+    <t>2023-12-06</t>
+  </si>
+  <si>
     <t>2023-11-30</t>
   </si>
   <si>
@@ -211,12 +211,15 @@
     <t>2023-10-10</t>
   </si>
   <si>
+    <t>교보</t>
+  </si>
+  <si>
+    <t>신영</t>
+  </si>
+  <si>
     <t>유안타</t>
   </si>
   <si>
-    <t>교보</t>
-  </si>
-  <si>
     <t>삼성</t>
   </si>
   <si>
@@ -253,12 +256,15 @@
     <t>키움</t>
   </si>
   <si>
+    <t>교보15호스팩</t>
+  </si>
+  <si>
+    <t>케이엔에스</t>
+  </si>
+  <si>
     <t>와이바이오로직스</t>
   </si>
   <si>
-    <t>교보15호스팩</t>
-  </si>
-  <si>
     <t>삼성스팩9호</t>
   </si>
   <si>
@@ -331,18 +337,18 @@
     <t>신성에스티</t>
   </si>
   <si>
-    <t>레뷰코퍼레이션</t>
-  </si>
-  <si>
     <t>아이엠티</t>
   </si>
   <si>
+    <t>819.05</t>
+  </si>
+  <si>
+    <t>964.82</t>
+  </si>
+  <si>
     <t>226.9:1</t>
   </si>
   <si>
-    <t>819.05</t>
-  </si>
-  <si>
     <t>54.61:1</t>
   </si>
   <si>
@@ -415,18 +421,18 @@
     <t>583.50:1</t>
   </si>
   <si>
-    <t>643.70:1</t>
-  </si>
-  <si>
     <t>753.50:1</t>
   </si>
   <si>
+    <t>0.18%</t>
+  </si>
+  <si>
+    <t>10.96%</t>
+  </si>
+  <si>
     <t>14.47%</t>
   </si>
   <si>
-    <t>0.18%</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -490,18 +496,18 @@
     <t>13.57%</t>
   </si>
   <si>
-    <t>21.00%</t>
-  </si>
-  <si>
     <t>22.20%</t>
   </si>
   <si>
+    <t>기업인수합병</t>
+  </si>
+  <si>
+    <t>이차전지 자동화 설비</t>
+  </si>
+  <si>
     <t>항체의약품 및 항체후보물질 연구개발</t>
   </si>
   <si>
-    <t>기업인수합병</t>
-  </si>
-  <si>
     <t>평판형 트랜스</t>
   </si>
   <si>
@@ -563,9 +569,6 @@
   </si>
   <si>
     <t>전기차/2차전지 Busbar 및 배터리모듈 보호 부품 등</t>
-  </si>
-  <si>
-    <t>REVU 서비스(컨텐츠마케팅, 로컬, 에이전시)</t>
   </si>
   <si>
     <t>건식세정 장비 및 EUV Mask Baking Laser</t>
@@ -1017,43 +1020,43 @@
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2">
-        <v>1500000</v>
+        <v>3500000</v>
       </c>
       <c r="G2">
-        <v>1500000</v>
+        <v>3500000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K2">
-        <v>13866898</v>
+        <v>3810000</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1083,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1100,114 +1103,114 @@
         <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F3">
-        <v>3500000</v>
+        <v>750000</v>
       </c>
       <c r="G3">
-        <v>3500000</v>
+        <v>750000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="K3">
-        <v>3810000</v>
+        <v>3883557</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="N3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>28564316</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>34734790</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>19566070</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>4032783</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>6075261</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>3863017</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>3909264</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>4830718</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>2876182</v>
       </c>
       <c r="Y3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
         <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F4">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="G4">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K4">
-        <v>11050000</v>
+        <v>13866898</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="N4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1237,84 +1240,84 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
         <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5">
-        <v>650000</v>
+        <v>10000000</v>
       </c>
       <c r="G5">
-        <v>650000</v>
+        <v>10000000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="K5">
-        <v>5345180</v>
+        <v>11050000</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P5">
-        <v>55809022</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>53633878</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>47971262</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-4601725</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>-7645858</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>-5922868</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>-20523948</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>-12027347</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-8387901</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1322,7 +1325,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
@@ -1331,67 +1334,67 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F6">
-        <v>8000000</v>
+        <v>650000</v>
       </c>
       <c r="G6">
-        <v>8000000</v>
+        <v>650000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="K6">
-        <v>9100000</v>
+        <v>5345180</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>55809022</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>53633878</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>47971262</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>-4601725</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>-7645858</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>-5922868</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>-20523948</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>-12027347</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>-8387901</v>
       </c>
       <c r="Y6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1399,43 +1402,43 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F7">
-        <v>1407000</v>
+        <v>8000000</v>
       </c>
       <c r="G7">
-        <v>844000</v>
+        <v>8000000</v>
       </c>
       <c r="H7">
-        <v>563000</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="K7">
-        <v>5657215</v>
+        <v>9100000</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>28000</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O7" t="s">
         <v>139</v>
@@ -1468,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1476,76 +1479,76 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F8">
-        <v>1640000</v>
+        <v>1407000</v>
       </c>
       <c r="G8">
-        <v>1640000</v>
+        <v>844000</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>563000</v>
       </c>
       <c r="I8">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="J8">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="K8">
-        <v>8183944</v>
+        <v>5657215</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="N8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P8">
-        <v>13660</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>25085</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>8905</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>3108</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>3731</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>2219</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>1157</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>3465</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>1666</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1553,76 +1556,76 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F9">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="G9">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="J9">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="K9">
-        <v>13436499</v>
+        <v>8183944</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P9">
-        <v>47984</v>
+        <v>13660</v>
       </c>
       <c r="Q9">
-        <v>51031</v>
+        <v>25085</v>
       </c>
       <c r="R9">
-        <v>29425</v>
+        <v>8905</v>
       </c>
       <c r="S9">
-        <v>10526</v>
+        <v>3108</v>
       </c>
       <c r="T9">
-        <v>11804</v>
+        <v>3731</v>
       </c>
       <c r="U9">
-        <v>7008</v>
+        <v>2219</v>
       </c>
       <c r="V9">
-        <v>8661</v>
+        <v>1157</v>
       </c>
       <c r="W9">
-        <v>9582</v>
+        <v>3465</v>
       </c>
       <c r="X9">
-        <v>5612</v>
+        <v>1666</v>
       </c>
       <c r="Y9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1630,76 +1633,76 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F10">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="G10">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="J10">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="K10">
-        <v>17002500</v>
+        <v>13436499</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P10">
-        <v>27199897007</v>
+        <v>47984</v>
       </c>
       <c r="Q10">
-        <v>40971122327</v>
+        <v>51031</v>
       </c>
       <c r="R10">
-        <v>25300714406</v>
+        <v>29425</v>
       </c>
       <c r="S10">
-        <v>2887034102</v>
+        <v>10526</v>
       </c>
       <c r="T10">
-        <v>7167697077</v>
+        <v>11804</v>
       </c>
       <c r="U10">
-        <v>4740280453</v>
+        <v>7008</v>
       </c>
       <c r="V10">
-        <v>2399514033</v>
+        <v>8661</v>
       </c>
       <c r="W10">
-        <v>5498221693</v>
+        <v>9582</v>
       </c>
       <c r="X10">
-        <v>3402334635</v>
+        <v>5612</v>
       </c>
       <c r="Y10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1707,76 +1710,76 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F11">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="G11">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>28500</v>
+        <v>5200</v>
       </c>
       <c r="J11">
-        <v>34700</v>
+        <v>6000</v>
       </c>
       <c r="K11">
-        <v>9877043</v>
+        <v>17002500</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>34700</v>
+        <v>7000</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P11">
-        <v>26994234332</v>
+        <v>27199897007</v>
       </c>
       <c r="Q11">
-        <v>60121142197</v>
+        <v>40971122327</v>
       </c>
       <c r="R11">
-        <v>53305665235</v>
+        <v>25300714406</v>
       </c>
       <c r="S11">
-        <v>10162848799</v>
+        <v>2887034102</v>
       </c>
       <c r="T11">
-        <v>20033029594</v>
+        <v>7167697077</v>
       </c>
       <c r="U11">
-        <v>19806683734</v>
+        <v>4740280453</v>
       </c>
       <c r="V11">
-        <v>7996520497</v>
+        <v>2399514033</v>
       </c>
       <c r="W11">
-        <v>15559454518</v>
+        <v>5498221693</v>
       </c>
       <c r="X11">
-        <v>15932218050</v>
+        <v>3402334635</v>
       </c>
       <c r="Y11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1784,76 +1787,76 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F12">
-        <v>1596000</v>
+        <v>2079000</v>
       </c>
       <c r="G12">
-        <v>1596000</v>
+        <v>2079000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3200</v>
+        <v>28500</v>
       </c>
       <c r="J12">
-        <v>3600</v>
+        <v>34700</v>
       </c>
       <c r="K12">
-        <v>13346380</v>
+        <v>9877043</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4000</v>
+        <v>34700</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P12">
-        <v>7668281979</v>
+        <v>26994234332</v>
       </c>
       <c r="Q12">
-        <v>7100921456</v>
+        <v>60121142197</v>
       </c>
       <c r="R12">
-        <v>1207846478</v>
+        <v>53305665235</v>
       </c>
       <c r="S12">
-        <v>5659403971</v>
+        <v>10162848799</v>
       </c>
       <c r="T12">
-        <v>6124121466</v>
+        <v>20033029594</v>
       </c>
       <c r="U12">
-        <v>940668827</v>
+        <v>19806683734</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>7996520497</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>15559454518</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>15932218050</v>
       </c>
       <c r="Y12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1864,73 +1867,73 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F13">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="G13">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J13">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K13">
-        <v>13612736</v>
+        <v>13346380</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7668281979</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>7100921456</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1207846478</v>
       </c>
       <c r="S13">
-        <v>-15286512079</v>
+        <v>5659403971</v>
       </c>
       <c r="T13">
-        <v>-21424611321</v>
+        <v>6124121466</v>
       </c>
       <c r="U13">
-        <v>-139745251263</v>
+        <v>940668827</v>
       </c>
       <c r="V13">
-        <v>-53575668634</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>-38885125426</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-12610702106</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1938,76 +1941,76 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="G14">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J14">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K14">
-        <v>10585320</v>
+        <v>13612736</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P14">
-        <v>45195788</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>69629209</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>35634471</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>2751277</v>
+        <v>-15286512079</v>
       </c>
       <c r="T14">
-        <v>11449731</v>
+        <v>-21424611321</v>
       </c>
       <c r="U14">
-        <v>2482194</v>
+        <v>-139745251263</v>
       </c>
       <c r="V14">
-        <v>2092692</v>
+        <v>-53575668634</v>
       </c>
       <c r="W14">
-        <v>5149538</v>
+        <v>-38885125426</v>
       </c>
       <c r="X14">
-        <v>2327401</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2015,384 +2018,384 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F15">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="G15">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K15">
-        <v>4320000</v>
+        <v>10585320</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="N15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O15" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>45195788</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>69629209</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>35634471</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>2751277</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>11449731</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>2482194</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>2092692</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>5149538</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>2327401</v>
       </c>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F16">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="G16">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J16">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K16">
-        <v>30610000</v>
+        <v>4320000</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O16" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="P16">
-        <v>67332006578</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>100050838794</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>63366010569</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>1140243099</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>8333440685</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>7415958936</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>668088159</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>5930478364</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>5666583221</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F17">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="G17">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J17">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K17">
-        <v>20771000</v>
+        <v>30610000</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="N17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P17">
-        <v>39450601</v>
+        <v>67332006578</v>
       </c>
       <c r="Q17">
-        <v>49044883</v>
+        <v>100050838794</v>
       </c>
       <c r="R17">
-        <v>21826468</v>
+        <v>63366010569</v>
       </c>
       <c r="S17">
-        <v>2477559</v>
+        <v>1140243099</v>
       </c>
       <c r="T17">
-        <v>8094900</v>
+        <v>8333440685</v>
       </c>
       <c r="U17">
-        <v>215154</v>
+        <v>7415958936</v>
       </c>
       <c r="V17">
-        <v>3427734</v>
+        <v>668088159</v>
       </c>
       <c r="W17">
-        <v>6575528</v>
+        <v>5930478364</v>
       </c>
       <c r="X17">
-        <v>349843</v>
+        <v>5666583221</v>
       </c>
       <c r="Y17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F18">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="G18">
-        <v>2000000</v>
+        <v>5200000</v>
       </c>
       <c r="H18">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J18">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K18">
-        <v>14384224</v>
+        <v>20771000</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="N18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P18">
-        <v>5787300240</v>
+        <v>39450601</v>
       </c>
       <c r="Q18">
-        <v>1914633847</v>
+        <v>49044883</v>
       </c>
       <c r="R18">
-        <v>3156092272</v>
+        <v>21826468</v>
       </c>
       <c r="S18">
-        <v>-1798278694</v>
+        <v>2477559</v>
       </c>
       <c r="T18">
-        <v>-1453689952</v>
+        <v>8094900</v>
       </c>
       <c r="U18">
-        <v>-4067648306</v>
+        <v>215154</v>
       </c>
       <c r="V18">
-        <v>-12449932055</v>
+        <v>3427734</v>
       </c>
       <c r="W18">
-        <v>-7426231074</v>
+        <v>6575528</v>
       </c>
       <c r="X18">
-        <v>-52132058866</v>
+        <v>349843</v>
       </c>
       <c r="Y18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F19">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="G19">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I19">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J19">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K19">
-        <v>7206940</v>
+        <v>14384224</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="N19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P19">
-        <v>20924</v>
+        <v>5787300240</v>
       </c>
       <c r="Q19">
-        <v>27659</v>
+        <v>1914633847</v>
       </c>
       <c r="R19">
-        <v>11818</v>
+        <v>3156092272</v>
       </c>
       <c r="S19">
-        <v>2838</v>
+        <v>-1798278694</v>
       </c>
       <c r="T19">
-        <v>4563</v>
+        <v>-1453689952</v>
       </c>
       <c r="U19">
-        <v>-1222</v>
+        <v>-4067648306</v>
       </c>
       <c r="V19">
-        <v>2413</v>
+        <v>-12449932055</v>
       </c>
       <c r="W19">
-        <v>3190</v>
+        <v>-7426231074</v>
       </c>
       <c r="X19">
-        <v>-862</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2400,230 +2403,230 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F20">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="G20">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J20">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K20">
-        <v>17306490</v>
+        <v>7206940</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P20">
-        <v>21976760922</v>
+        <v>20924</v>
       </c>
       <c r="Q20">
-        <v>15839004968</v>
+        <v>27659</v>
       </c>
       <c r="R20">
-        <v>6887755932</v>
+        <v>11818</v>
       </c>
       <c r="S20">
-        <v>-2217897363</v>
+        <v>2838</v>
       </c>
       <c r="T20">
-        <v>-3403228196</v>
+        <v>4563</v>
       </c>
       <c r="U20">
-        <v>-2758864194</v>
+        <v>-1222</v>
       </c>
       <c r="V20">
-        <v>-5110677395</v>
+        <v>2413</v>
       </c>
       <c r="W20">
-        <v>-29510193610</v>
+        <v>3190</v>
       </c>
       <c r="X20">
-        <v>-2514471056</v>
+        <v>-862</v>
       </c>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F21">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="G21">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J21">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K21">
-        <v>12905000</v>
+        <v>17306490</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O21" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>21976760922</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>15839004968</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>6887755932</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>-2217897363</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>-3403228196</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>-2758864194</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>-5110677395</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>-29510193610</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y21" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F22">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="G22">
-        <v>944534</v>
+        <v>12500000</v>
       </c>
       <c r="H22">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J22">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K22">
-        <v>6261485</v>
+        <v>12905000</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O22" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="P22">
-        <v>34557425427</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>39824841246</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>23231897516</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>3011651602</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>2384643399</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>4436005255</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>2755379556</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>1176755354</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>4046949430</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2631,76 +2634,76 @@
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F23">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="G23">
-        <v>1128720</v>
+        <v>944534</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I23">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J23">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K23">
-        <v>11287196</v>
+        <v>6261485</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="N23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P23">
-        <v>50552623684</v>
+        <v>34557425427</v>
       </c>
       <c r="Q23">
-        <v>69013134090</v>
+        <v>39824841246</v>
       </c>
       <c r="R23">
-        <v>16887814423</v>
+        <v>23231897516</v>
       </c>
       <c r="S23">
-        <v>9027232647</v>
+        <v>3011651602</v>
       </c>
       <c r="T23">
-        <v>15707796256</v>
+        <v>2384643399</v>
       </c>
       <c r="U23">
-        <v>555562560</v>
+        <v>4436005255</v>
       </c>
       <c r="V23">
-        <v>9236341465</v>
+        <v>2755379556</v>
       </c>
       <c r="W23">
-        <v>13159994846</v>
+        <v>1176755354</v>
       </c>
       <c r="X23">
-        <v>1236029732</v>
+        <v>4046949430</v>
       </c>
       <c r="Y23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2708,76 +2711,76 @@
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F24">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="G24">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J24">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K24">
-        <v>10193520</v>
+        <v>11287196</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="N24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P24">
-        <v>3952070068</v>
+        <v>50552623684</v>
       </c>
       <c r="Q24">
-        <v>10789274729</v>
+        <v>69013134090</v>
       </c>
       <c r="R24">
-        <v>6040367765</v>
+        <v>16887814423</v>
       </c>
       <c r="S24">
-        <v>-4741577598</v>
+        <v>9027232647</v>
       </c>
       <c r="T24">
-        <v>-3671026788</v>
+        <v>15707796256</v>
       </c>
       <c r="U24">
-        <v>-3292521363</v>
+        <v>555562560</v>
       </c>
       <c r="V24">
-        <v>-3654889267</v>
+        <v>9236341465</v>
       </c>
       <c r="W24">
-        <v>-2281074471</v>
+        <v>13159994846</v>
       </c>
       <c r="X24">
-        <v>-2539505707</v>
+        <v>1236029732</v>
       </c>
       <c r="Y24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2785,76 +2788,76 @@
         <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F25">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="G25">
-        <v>4000000</v>
+        <v>1800000</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J25">
-        <v>5600</v>
+        <v>15000</v>
       </c>
       <c r="K25">
-        <v>16120000</v>
+        <v>10193520</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="N25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P25">
-        <v>26691070764</v>
+        <v>3952070068</v>
       </c>
       <c r="Q25">
-        <v>22835113396</v>
+        <v>10789274729</v>
       </c>
       <c r="R25">
-        <v>7519073723</v>
+        <v>6040367765</v>
       </c>
       <c r="S25">
-        <v>6041270235</v>
+        <v>-4741577598</v>
       </c>
       <c r="T25">
-        <v>6705120210</v>
+        <v>-3671026788</v>
       </c>
       <c r="U25">
-        <v>982044017</v>
+        <v>-3292521363</v>
       </c>
       <c r="V25">
-        <v>5119066139</v>
+        <v>-3654889267</v>
       </c>
       <c r="W25">
-        <v>5870093710</v>
+        <v>-2281074471</v>
       </c>
       <c r="X25">
-        <v>1198587470</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2862,76 +2865,76 @@
         <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F26">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="G26">
-        <v>770000</v>
+        <v>4000000</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>8200</v>
+        <v>5000</v>
       </c>
       <c r="J26">
-        <v>9400</v>
+        <v>5600</v>
       </c>
       <c r="K26">
-        <v>7674103</v>
+        <v>16120000</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="N26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P26">
-        <v>8242508010</v>
+        <v>26691070764</v>
       </c>
       <c r="Q26">
-        <v>10751900430</v>
+        <v>22835113396</v>
       </c>
       <c r="R26">
-        <v>4416778965</v>
+        <v>7519073723</v>
       </c>
       <c r="S26">
-        <v>426234451</v>
+        <v>6041270235</v>
       </c>
       <c r="T26">
-        <v>2423749751</v>
+        <v>6705120210</v>
       </c>
       <c r="U26">
-        <v>677048172</v>
+        <v>982044017</v>
       </c>
       <c r="V26">
-        <v>57890953</v>
+        <v>5119066139</v>
       </c>
       <c r="W26">
-        <v>2826043673</v>
+        <v>5870093710</v>
       </c>
       <c r="X26">
-        <v>990121873</v>
+        <v>1198587470</v>
       </c>
       <c r="Y26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2939,76 +2942,76 @@
         <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F27">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="G27">
-        <v>2000000</v>
+        <v>770000</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>22000</v>
+        <v>8200</v>
       </c>
       <c r="J27">
-        <v>25000</v>
+        <v>9400</v>
       </c>
       <c r="K27">
-        <v>9039778</v>
+        <v>7674103</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="N27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P27">
-        <v>104225113285</v>
+        <v>8242508010</v>
       </c>
       <c r="Q27">
-        <v>106505634411</v>
+        <v>10751900430</v>
       </c>
       <c r="R27">
-        <v>66424930568</v>
+        <v>4416778965</v>
       </c>
       <c r="S27">
-        <v>6291020806</v>
+        <v>426234451</v>
       </c>
       <c r="T27">
-        <v>7893242769</v>
+        <v>2423749751</v>
       </c>
       <c r="U27">
-        <v>7661497240</v>
+        <v>677048172</v>
       </c>
       <c r="V27">
-        <v>7319368873</v>
+        <v>57890953</v>
       </c>
       <c r="W27">
-        <v>9286891982</v>
+        <v>2826043673</v>
       </c>
       <c r="X27">
-        <v>7334816490</v>
+        <v>990121873</v>
       </c>
       <c r="Y27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -3016,76 +3019,76 @@
         <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F28">
-        <v>2240000</v>
+        <v>2000000</v>
       </c>
       <c r="G28">
-        <v>1640000</v>
+        <v>2000000</v>
       </c>
       <c r="H28">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>11500</v>
+        <v>22000</v>
       </c>
       <c r="J28">
-        <v>13200</v>
+        <v>25000</v>
       </c>
       <c r="K28">
-        <v>10969386</v>
+        <v>9039778</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="N28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P28">
-        <v>22818451349</v>
+        <v>104225113285</v>
       </c>
       <c r="Q28">
-        <v>30491967755</v>
+        <v>106505634411</v>
       </c>
       <c r="R28">
-        <v>18040053709</v>
+        <v>66424930568</v>
       </c>
       <c r="S28">
-        <v>2313787613</v>
+        <v>6291020806</v>
       </c>
       <c r="T28">
-        <v>4014101926</v>
+        <v>7893242769</v>
       </c>
       <c r="U28">
-        <v>1878997667</v>
+        <v>7661497240</v>
       </c>
       <c r="V28">
-        <v>559427078</v>
+        <v>7319368873</v>
       </c>
       <c r="W28">
-        <v>-711183147</v>
+        <v>9286891982</v>
       </c>
       <c r="X28">
-        <v>1929682988</v>
+        <v>7334816490</v>
       </c>
       <c r="Y28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -3093,16 +3096,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
         <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F29">
         <v>1580000</v>
@@ -3129,10 +3132,10 @@
         <v>14000</v>
       </c>
       <c r="N29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P29">
         <v>7327878427</v>
@@ -3162,7 +3165,7 @@
         <v>-550600734</v>
       </c>
       <c r="Y29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="179">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -157,9 +157,6 @@
     <t>2023-09-22</t>
   </si>
   <si>
-    <t>2023-09-06</t>
-  </si>
-  <si>
     <t>2023-11-21</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
     <t>2023-10-04</t>
   </si>
   <si>
-    <t>2023-09-12</t>
-  </si>
-  <si>
     <t>2023-12-05</t>
   </si>
   <si>
@@ -208,9 +202,6 @@
     <t>2023-11-14</t>
   </si>
   <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
     <t>교보</t>
   </si>
   <si>
@@ -337,9 +328,6 @@
     <t>신성에스티</t>
   </si>
   <si>
-    <t>아이엠티</t>
-  </si>
-  <si>
     <t>819.05</t>
   </si>
   <si>
@@ -421,9 +409,6 @@
     <t>583.50:1</t>
   </si>
   <si>
-    <t>753.50:1</t>
-  </si>
-  <si>
     <t>0.18%</t>
   </si>
   <si>
@@ -496,9 +481,6 @@
     <t>13.57%</t>
   </si>
   <si>
-    <t>22.20%</t>
-  </si>
-  <si>
     <t>기업인수합병</t>
   </si>
   <si>
@@ -569,9 +551,6 @@
   </si>
   <si>
     <t>전기차/2차전지 Busbar 및 배터리모듈 보호 부품 등</t>
-  </si>
-  <si>
-    <t>건식세정 장비 및 EUV Mask Baking Laser</t>
   </si>
 </sst>
 </file>
@@ -929,7 +908,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1017,16 +996,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F2">
         <v>3500000</v>
@@ -1053,10 +1032,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1086,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1094,16 +1073,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F3">
         <v>750000</v>
@@ -1130,10 +1109,10 @@
         <v>23000</v>
       </c>
       <c r="N3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P3">
         <v>28564316</v>
@@ -1163,7 +1142,7 @@
         <v>2876182</v>
       </c>
       <c r="Y3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1174,13 +1153,13 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F4">
         <v>1500000</v>
@@ -1207,10 +1186,10 @@
         <v>9000</v>
       </c>
       <c r="N4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1240,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1248,16 +1227,16 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F5">
         <v>10000000</v>
@@ -1284,10 +1263,10 @@
         <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1317,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1328,13 +1307,13 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F6">
         <v>650000</v>
@@ -1361,10 +1340,10 @@
         <v>18000</v>
       </c>
       <c r="N6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P6">
         <v>55809022</v>
@@ -1394,7 +1373,7 @@
         <v>-8387901</v>
       </c>
       <c r="Y6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1405,13 +1384,13 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F7">
         <v>8000000</v>
@@ -1438,10 +1417,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1471,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1479,16 +1458,16 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F8">
         <v>1407000</v>
@@ -1515,10 +1494,10 @@
         <v>28000</v>
       </c>
       <c r="N8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1548,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1559,13 +1538,13 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F9">
         <v>1640000</v>
@@ -1592,10 +1571,10 @@
         <v>17000</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="P9">
         <v>13660</v>
@@ -1625,7 +1604,7 @@
         <v>1666</v>
       </c>
       <c r="Y9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1633,16 +1612,16 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F10">
         <v>3350000</v>
@@ -1669,10 +1648,10 @@
         <v>11000</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P10">
         <v>47984</v>
@@ -1702,7 +1681,7 @@
         <v>5612</v>
       </c>
       <c r="Y10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1710,16 +1689,16 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>4250000</v>
@@ -1746,10 +1725,10 @@
         <v>7000</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P11">
         <v>27199897007</v>
@@ -1779,7 +1758,7 @@
         <v>3402334635</v>
       </c>
       <c r="Y11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1790,13 +1769,13 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F12">
         <v>2079000</v>
@@ -1823,10 +1802,10 @@
         <v>34700</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P12">
         <v>26994234332</v>
@@ -1856,7 +1835,7 @@
         <v>15932218050</v>
       </c>
       <c r="Y12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1870,10 +1849,10 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F13">
         <v>1596000</v>
@@ -1900,10 +1879,10 @@
         <v>4000</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P13">
         <v>7668281979</v>
@@ -1933,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1947,10 +1926,10 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F14">
         <v>1600000</v>
@@ -1977,10 +1956,10 @@
         <v>20000</v>
       </c>
       <c r="N14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2010,7 +1989,7 @@
         <v>-12610702106</v>
       </c>
       <c r="Y14" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2018,16 +1997,16 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F15">
         <v>2636330</v>
@@ -2054,10 +2033,10 @@
         <v>25000</v>
       </c>
       <c r="N15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P15">
         <v>45195788</v>
@@ -2087,7 +2066,7 @@
         <v>2327401</v>
       </c>
       <c r="Y15" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2098,13 +2077,13 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F16">
         <v>4000000</v>
@@ -2131,10 +2110,10 @@
         <v>2000</v>
       </c>
       <c r="N16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2164,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2172,16 +2151,16 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F17">
         <v>7000000</v>
@@ -2208,10 +2187,10 @@
         <v>1800</v>
       </c>
       <c r="N17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P17">
         <v>67332006578</v>
@@ -2241,7 +2220,7 @@
         <v>5666583221</v>
       </c>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2255,10 +2234,10 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F18">
         <v>5200000</v>
@@ -2285,10 +2264,10 @@
         <v>4800</v>
       </c>
       <c r="N18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O18" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P18">
         <v>39450601</v>
@@ -2318,7 +2297,7 @@
         <v>349843</v>
       </c>
       <c r="Y18" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2332,10 +2311,10 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F19">
         <v>2060000</v>
@@ -2362,10 +2341,10 @@
         <v>22500</v>
       </c>
       <c r="N19" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O19" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P19">
         <v>5787300240</v>
@@ -2395,7 +2374,7 @@
         <v>-52132058866</v>
       </c>
       <c r="Y19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2409,10 +2388,10 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F20">
         <v>1200000</v>
@@ -2439,10 +2418,10 @@
         <v>13000</v>
       </c>
       <c r="N20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P20">
         <v>20924</v>
@@ -2472,7 +2451,7 @@
         <v>-862</v>
       </c>
       <c r="Y20" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2486,10 +2465,10 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F21">
         <v>3600000</v>
@@ -2516,10 +2495,10 @@
         <v>7500</v>
       </c>
       <c r="N21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O21" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P21">
         <v>21976760922</v>
@@ -2549,7 +2528,7 @@
         <v>-2514471056</v>
       </c>
       <c r="Y21" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2563,10 +2542,10 @@
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F22">
         <v>12500000</v>
@@ -2593,10 +2572,10 @@
         <v>2000</v>
       </c>
       <c r="N22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O22" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -2626,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2640,10 +2619,10 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F23">
         <v>1049482</v>
@@ -2670,10 +2649,10 @@
         <v>17000</v>
       </c>
       <c r="N23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O23" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="P23">
         <v>34557425427</v>
@@ -2703,7 +2682,7 @@
         <v>4046949430</v>
       </c>
       <c r="Y23" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2717,10 +2696,10 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F24">
         <v>1128720</v>
@@ -2747,10 +2726,10 @@
         <v>4400</v>
       </c>
       <c r="N24" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O24" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="P24">
         <v>50552623684</v>
@@ -2780,7 +2759,7 @@
         <v>1236029732</v>
       </c>
       <c r="Y24" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2788,16 +2767,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F25">
         <v>1800000</v>
@@ -2824,10 +2803,10 @@
         <v>17000</v>
       </c>
       <c r="N25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O25" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="P25">
         <v>3952070068</v>
@@ -2857,7 +2836,7 @@
         <v>-2539505707</v>
       </c>
       <c r="Y25" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2871,10 +2850,10 @@
         <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F26">
         <v>4000000</v>
@@ -2901,10 +2880,10 @@
         <v>6500</v>
       </c>
       <c r="N26" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O26" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P26">
         <v>26691070764</v>
@@ -2934,7 +2913,7 @@
         <v>1198587470</v>
       </c>
       <c r="Y26" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2948,10 +2927,10 @@
         <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F27">
         <v>770000</v>
@@ -2978,10 +2957,10 @@
         <v>7000</v>
       </c>
       <c r="N27" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O27" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="P27">
         <v>8242508010</v>
@@ -3011,7 +2990,7 @@
         <v>990121873</v>
       </c>
       <c r="Y27" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -3019,16 +2998,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
         <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F28">
         <v>2000000</v>
@@ -3055,10 +3034,10 @@
         <v>26000</v>
       </c>
       <c r="N28" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O28" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P28">
         <v>104225113285</v>
@@ -3088,84 +3067,7 @@
         <v>7334816490</v>
       </c>
       <c r="Y28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29">
-        <v>1580000</v>
-      </c>
-      <c r="G29">
-        <v>1580000</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>10500</v>
-      </c>
-      <c r="J29">
-        <v>12000</v>
-      </c>
-      <c r="K29">
-        <v>7874611</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>14000</v>
-      </c>
-      <c r="N29" t="s">
-        <v>135</v>
-      </c>
-      <c r="O29" t="s">
-        <v>160</v>
-      </c>
-      <c r="P29">
-        <v>7327878427</v>
-      </c>
-      <c r="Q29">
-        <v>10756717708</v>
-      </c>
-      <c r="R29">
-        <v>4113702647</v>
-      </c>
-      <c r="S29">
-        <v>-588932080</v>
-      </c>
-      <c r="T29">
-        <v>254042570</v>
-      </c>
-      <c r="U29">
-        <v>-738698858</v>
-      </c>
-      <c r="V29">
-        <v>-569358529</v>
-      </c>
-      <c r="W29">
-        <v>-429546963</v>
-      </c>
-      <c r="X29">
-        <v>-550600734</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="190">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-11-22</t>
+  </si>
+  <si>
     <t>2023-11-20</t>
   </si>
   <si>
@@ -157,12 +160,12 @@
     <t>2023-09-22</t>
   </si>
   <si>
+    <t>2023-11-28</t>
+  </si>
+  <si>
     <t>2023-11-21</t>
   </si>
   <si>
-    <t>2023-11-22</t>
-  </si>
-  <si>
     <t>2023-11-13</t>
   </si>
   <si>
@@ -181,6 +184,12 @@
     <t>2023-10-04</t>
   </si>
   <si>
+    <t>2023-12-12</t>
+  </si>
+  <si>
+    <t>2023-12-13</t>
+  </si>
+  <si>
     <t>2023-12-05</t>
   </si>
   <si>
@@ -193,15 +202,18 @@
     <t>2023-12-01</t>
   </si>
   <si>
-    <t>2023-11-28</t>
-  </si>
-  <si>
     <t>2023-11-24</t>
   </si>
   <si>
     <t>2023-11-14</t>
   </si>
   <si>
+    <t>키움, KB</t>
+  </si>
+  <si>
+    <t>하나</t>
+  </si>
+  <si>
     <t>교보</t>
   </si>
   <si>
@@ -214,9 +226,6 @@
     <t>삼성</t>
   </si>
   <si>
-    <t>하나</t>
-  </si>
-  <si>
     <t>NH</t>
   </si>
   <si>
@@ -247,6 +256,12 @@
     <t>키움</t>
   </si>
   <si>
+    <t>LS머트리얼즈</t>
+  </si>
+  <si>
+    <t>블루엠텍</t>
+  </si>
+  <si>
     <t>교보15호스팩</t>
   </si>
   <si>
@@ -328,6 +343,12 @@
     <t>신성에스티</t>
   </si>
   <si>
+    <t>396.84</t>
+  </si>
+  <si>
+    <t>582.24</t>
+  </si>
+  <si>
     <t>819.05</t>
   </si>
   <si>
@@ -409,6 +430,12 @@
     <t>583.50:1</t>
   </si>
   <si>
+    <t>12.02%</t>
+  </si>
+  <si>
+    <t>0.02%</t>
+  </si>
+  <si>
     <t>0.18%</t>
   </si>
   <si>
@@ -479,6 +506,12 @@
   </si>
   <si>
     <t>13.57%</t>
+  </si>
+  <si>
+    <t>울트라커패시터(셀 및 모듈)</t>
+  </si>
+  <si>
+    <t>의약품 유통업</t>
   </si>
   <si>
     <t>기업인수합병</t>
@@ -908,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -996,46 +1029,46 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F2">
-        <v>3500000</v>
+        <v>14625000</v>
       </c>
       <c r="G2">
-        <v>3500000</v>
+        <v>8775000</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5850000</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>4400</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="K2">
-        <v>3810000</v>
+        <v>67652659</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="N2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="O2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1065,131 +1098,131 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F3">
-        <v>750000</v>
+        <v>1400000</v>
       </c>
       <c r="G3">
-        <v>750000</v>
+        <v>1400000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
+        <v>15000</v>
+      </c>
+      <c r="J3">
         <v>19000</v>
       </c>
-      <c r="J3">
-        <v>22000</v>
-      </c>
       <c r="K3">
-        <v>3883557</v>
+        <v>10650189</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="N3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="O3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="P3">
-        <v>28564316</v>
+        <v>49637696375</v>
       </c>
       <c r="Q3">
-        <v>34734790</v>
+        <v>77146751918</v>
       </c>
       <c r="R3">
-        <v>19566070</v>
+        <v>41854695636</v>
       </c>
       <c r="S3">
-        <v>4032783</v>
+        <v>-2726643993</v>
       </c>
       <c r="T3">
-        <v>6075261</v>
+        <v>890609048</v>
       </c>
       <c r="U3">
-        <v>3863017</v>
+        <v>176442923</v>
       </c>
       <c r="V3">
-        <v>3909264</v>
+        <v>-7688787420</v>
       </c>
       <c r="W3">
-        <v>4830718</v>
+        <v>-14330655532</v>
       </c>
       <c r="X3">
-        <v>2876182</v>
+        <v>286239267</v>
       </c>
       <c r="Y3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F4">
-        <v>1500000</v>
+        <v>3500000</v>
       </c>
       <c r="G4">
-        <v>1500000</v>
+        <v>3500000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K4">
-        <v>13866898</v>
+        <v>3810000</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="O4" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1219,84 +1252,84 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F5">
-        <v>10000000</v>
+        <v>750000</v>
       </c>
       <c r="G5">
-        <v>10000000</v>
+        <v>750000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="K5">
-        <v>11050000</v>
+        <v>3883557</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="N5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="O5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>28564316</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>34734790</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>19566070</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>4032783</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>6075261</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>3863017</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>3909264</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>4830718</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>2876182</v>
       </c>
       <c r="Y5" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1304,99 +1337,99 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F6">
-        <v>650000</v>
+        <v>1500000</v>
       </c>
       <c r="G6">
-        <v>650000</v>
+        <v>1500000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="J6">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="K6">
-        <v>5345180</v>
+        <v>13866898</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="N6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="O6" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="P6">
-        <v>55809022</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>53633878</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>47971262</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-4601725</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>-7645858</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>-5922868</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>-20523948</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>-12027347</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-8387901</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F7">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="G7">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1408,7 +1441,7 @@
         <v>2000</v>
       </c>
       <c r="K7">
-        <v>9100000</v>
+        <v>11050000</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1417,10 +1450,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="O7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1450,670 +1483,670 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F8">
-        <v>1407000</v>
+        <v>650000</v>
       </c>
       <c r="G8">
-        <v>844000</v>
+        <v>650000</v>
       </c>
       <c r="H8">
-        <v>563000</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="J8">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="K8">
-        <v>5657215</v>
+        <v>5345180</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="O8" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>55809022</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>53633878</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>47971262</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>-4601725</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>-7645858</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>-5922868</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>-20523948</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>-12027347</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>-8387901</v>
       </c>
       <c r="Y8" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F9">
-        <v>1640000</v>
+        <v>8000000</v>
       </c>
       <c r="G9">
-        <v>1640000</v>
+        <v>8000000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K9">
-        <v>8183944</v>
+        <v>9100000</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="P9">
-        <v>13660</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>25085</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>8905</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>3108</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>3731</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>2219</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>1157</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>3465</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>1666</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F10">
-        <v>3350000</v>
+        <v>1407000</v>
       </c>
       <c r="G10">
-        <v>3350000</v>
+        <v>844000</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>563000</v>
       </c>
       <c r="I10">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="J10">
-        <v>9500</v>
+        <v>25000</v>
       </c>
       <c r="K10">
-        <v>13436499</v>
+        <v>5657215</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P10">
-        <v>47984</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>51031</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>29425</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>10526</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>11804</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>7008</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>8661</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>9582</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>5612</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F11">
-        <v>4250000</v>
+        <v>1640000</v>
       </c>
       <c r="G11">
-        <v>4250000</v>
+        <v>1640000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5200</v>
+        <v>11000</v>
       </c>
       <c r="J11">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="K11">
-        <v>17002500</v>
+        <v>8183944</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P11">
-        <v>27199897007</v>
+        <v>13660</v>
       </c>
       <c r="Q11">
-        <v>40971122327</v>
+        <v>25085</v>
       </c>
       <c r="R11">
-        <v>25300714406</v>
+        <v>8905</v>
       </c>
       <c r="S11">
-        <v>2887034102</v>
+        <v>3108</v>
       </c>
       <c r="T11">
-        <v>7167697077</v>
+        <v>3731</v>
       </c>
       <c r="U11">
-        <v>4740280453</v>
+        <v>2219</v>
       </c>
       <c r="V11">
-        <v>2399514033</v>
+        <v>1157</v>
       </c>
       <c r="W11">
-        <v>5498221693</v>
+        <v>3465</v>
       </c>
       <c r="X11">
-        <v>3402334635</v>
+        <v>1666</v>
       </c>
       <c r="Y11" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F12">
-        <v>2079000</v>
+        <v>3350000</v>
       </c>
       <c r="G12">
-        <v>2079000</v>
+        <v>3350000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>28500</v>
+        <v>8000</v>
       </c>
       <c r="J12">
-        <v>34700</v>
+        <v>9500</v>
       </c>
       <c r="K12">
-        <v>9877043</v>
+        <v>13436499</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>34700</v>
+        <v>11000</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="P12">
-        <v>26994234332</v>
+        <v>47984</v>
       </c>
       <c r="Q12">
-        <v>60121142197</v>
+        <v>51031</v>
       </c>
       <c r="R12">
-        <v>53305665235</v>
+        <v>29425</v>
       </c>
       <c r="S12">
-        <v>10162848799</v>
+        <v>10526</v>
       </c>
       <c r="T12">
-        <v>20033029594</v>
+        <v>11804</v>
       </c>
       <c r="U12">
-        <v>19806683734</v>
+        <v>7008</v>
       </c>
       <c r="V12">
-        <v>7996520497</v>
+        <v>8661</v>
       </c>
       <c r="W12">
-        <v>15559454518</v>
+        <v>9582</v>
       </c>
       <c r="X12">
-        <v>15932218050</v>
+        <v>5612</v>
       </c>
       <c r="Y12" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F13">
-        <v>1596000</v>
+        <v>4250000</v>
       </c>
       <c r="G13">
-        <v>1596000</v>
+        <v>4250000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3200</v>
+        <v>5200</v>
       </c>
       <c r="J13">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="K13">
-        <v>13346380</v>
+        <v>17002500</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N13" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="O13" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="P13">
-        <v>7668281979</v>
+        <v>27199897007</v>
       </c>
       <c r="Q13">
-        <v>7100921456</v>
+        <v>40971122327</v>
       </c>
       <c r="R13">
-        <v>1207846478</v>
+        <v>25300714406</v>
       </c>
       <c r="S13">
-        <v>5659403971</v>
+        <v>2887034102</v>
       </c>
       <c r="T13">
-        <v>6124121466</v>
+        <v>7167697077</v>
       </c>
       <c r="U13">
-        <v>940668827</v>
+        <v>4740280453</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>2399514033</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>5498221693</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>3402334635</v>
       </c>
       <c r="Y13" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F14">
-        <v>1600000</v>
+        <v>2079000</v>
       </c>
       <c r="G14">
-        <v>1600000</v>
+        <v>2079000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>29800</v>
+        <v>28500</v>
       </c>
       <c r="J14">
-        <v>33500</v>
+        <v>34700</v>
       </c>
       <c r="K14">
-        <v>13612736</v>
+        <v>9877043</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20000</v>
+        <v>34700</v>
       </c>
       <c r="N14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="O14" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>26994234332</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>60121142197</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>53305665235</v>
       </c>
       <c r="S14">
-        <v>-15286512079</v>
+        <v>10162848799</v>
       </c>
       <c r="T14">
-        <v>-21424611321</v>
+        <v>20033029594</v>
       </c>
       <c r="U14">
-        <v>-139745251263</v>
+        <v>19806683734</v>
       </c>
       <c r="V14">
-        <v>-53575668634</v>
+        <v>7996520497</v>
       </c>
       <c r="W14">
-        <v>-38885125426</v>
+        <v>15559454518</v>
       </c>
       <c r="X14">
-        <v>-12610702106</v>
+        <v>15932218050</v>
       </c>
       <c r="Y14" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F15">
-        <v>2636330</v>
+        <v>1596000</v>
       </c>
       <c r="G15">
-        <v>2636330</v>
+        <v>1596000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19100</v>
+        <v>3200</v>
       </c>
       <c r="J15">
-        <v>21400</v>
+        <v>3600</v>
       </c>
       <c r="K15">
-        <v>10585320</v>
+        <v>13346380</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="N15" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="O15" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="P15">
-        <v>45195788</v>
+        <v>7668281979</v>
       </c>
       <c r="Q15">
-        <v>69629209</v>
+        <v>7100921456</v>
       </c>
       <c r="R15">
-        <v>35634471</v>
+        <v>1207846478</v>
       </c>
       <c r="S15">
-        <v>2751277</v>
+        <v>5659403971</v>
       </c>
       <c r="T15">
-        <v>11449731</v>
+        <v>6124121466</v>
       </c>
       <c r="U15">
-        <v>2482194</v>
+        <v>940668827</v>
       </c>
       <c r="V15">
-        <v>2092692</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>5149538</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>2327401</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F16">
-        <v>4000000</v>
+        <v>1600000</v>
       </c>
       <c r="G16">
-        <v>4000000</v>
+        <v>1600000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2000</v>
+        <v>29800</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>33500</v>
       </c>
       <c r="K16">
-        <v>4320000</v>
+        <v>13612736</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N16" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="O16" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2125,487 +2158,487 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>-15286512079</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>-21424611321</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>-139745251263</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>-53575668634</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>-38885125426</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F17">
-        <v>7000000</v>
+        <v>2636330</v>
       </c>
       <c r="G17">
-        <v>7000000</v>
+        <v>2636330</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1200</v>
+        <v>19100</v>
       </c>
       <c r="J17">
-        <v>1500</v>
+        <v>21400</v>
       </c>
       <c r="K17">
-        <v>30610000</v>
+        <v>10585320</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1800</v>
+        <v>25000</v>
       </c>
       <c r="N17" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="O17" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="P17">
-        <v>67332006578</v>
+        <v>45195788</v>
       </c>
       <c r="Q17">
-        <v>100050838794</v>
+        <v>69629209</v>
       </c>
       <c r="R17">
-        <v>63366010569</v>
+        <v>35634471</v>
       </c>
       <c r="S17">
-        <v>1140243099</v>
+        <v>2751277</v>
       </c>
       <c r="T17">
-        <v>8333440685</v>
+        <v>11449731</v>
       </c>
       <c r="U17">
-        <v>7415958936</v>
+        <v>2482194</v>
       </c>
       <c r="V17">
-        <v>668088159</v>
+        <v>2092692</v>
       </c>
       <c r="W17">
-        <v>5930478364</v>
+        <v>5149538</v>
       </c>
       <c r="X17">
-        <v>5666583221</v>
+        <v>2327401</v>
       </c>
       <c r="Y17" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F18">
-        <v>5200000</v>
+        <v>4000000</v>
       </c>
       <c r="G18">
-        <v>5200000</v>
+        <v>4000000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="J18">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="K18">
-        <v>20771000</v>
+        <v>4320000</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4800</v>
+        <v>2000</v>
       </c>
       <c r="N18" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="O18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P18">
-        <v>39450601</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>49044883</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>21826468</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>2477559</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>8094900</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>215154</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>3427734</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>6575528</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>349843</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F19">
-        <v>2060000</v>
+        <v>7000000</v>
       </c>
       <c r="G19">
-        <v>2000000</v>
+        <v>7000000</v>
       </c>
       <c r="H19">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>20300</v>
+        <v>1200</v>
       </c>
       <c r="J19">
-        <v>22500</v>
+        <v>1500</v>
       </c>
       <c r="K19">
-        <v>14384224</v>
+        <v>30610000</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22500</v>
+        <v>1800</v>
       </c>
       <c r="N19" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="O19" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="P19">
-        <v>5787300240</v>
+        <v>67332006578</v>
       </c>
       <c r="Q19">
-        <v>1914633847</v>
+        <v>100050838794</v>
       </c>
       <c r="R19">
-        <v>3156092272</v>
+        <v>63366010569</v>
       </c>
       <c r="S19">
-        <v>-1798278694</v>
+        <v>1140243099</v>
       </c>
       <c r="T19">
-        <v>-1453689952</v>
+        <v>8333440685</v>
       </c>
       <c r="U19">
-        <v>-4067648306</v>
+        <v>7415958936</v>
       </c>
       <c r="V19">
-        <v>-12449932055</v>
+        <v>668088159</v>
       </c>
       <c r="W19">
-        <v>-7426231074</v>
+        <v>5930478364</v>
       </c>
       <c r="X19">
-        <v>-52132058866</v>
+        <v>5666583221</v>
       </c>
       <c r="Y19" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F20">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="G20">
-        <v>1200000</v>
+        <v>5200000</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>9100</v>
+        <v>3500</v>
       </c>
       <c r="J20">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="K20">
-        <v>7206940</v>
+        <v>20771000</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13000</v>
+        <v>4800</v>
       </c>
       <c r="N20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="O20" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="P20">
-        <v>20924</v>
+        <v>39450601</v>
       </c>
       <c r="Q20">
-        <v>27659</v>
+        <v>49044883</v>
       </c>
       <c r="R20">
-        <v>11818</v>
+        <v>21826468</v>
       </c>
       <c r="S20">
-        <v>2838</v>
+        <v>2477559</v>
       </c>
       <c r="T20">
-        <v>4563</v>
+        <v>8094900</v>
       </c>
       <c r="U20">
-        <v>-1222</v>
+        <v>215154</v>
       </c>
       <c r="V20">
-        <v>2413</v>
+        <v>3427734</v>
       </c>
       <c r="W20">
-        <v>3190</v>
+        <v>6575528</v>
       </c>
       <c r="X20">
-        <v>-862</v>
+        <v>349843</v>
       </c>
       <c r="Y20" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F21">
-        <v>3600000</v>
+        <v>2060000</v>
       </c>
       <c r="G21">
-        <v>3600000</v>
+        <v>2000000</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I21">
-        <v>5000</v>
+        <v>20300</v>
       </c>
       <c r="J21">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="K21">
-        <v>17306490</v>
+        <v>14384224</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="N21" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="O21" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="P21">
-        <v>21976760922</v>
+        <v>5787300240</v>
       </c>
       <c r="Q21">
-        <v>15839004968</v>
+        <v>1914633847</v>
       </c>
       <c r="R21">
-        <v>6887755932</v>
+        <v>3156092272</v>
       </c>
       <c r="S21">
-        <v>-2217897363</v>
+        <v>-1798278694</v>
       </c>
       <c r="T21">
-        <v>-3403228196</v>
+        <v>-1453689952</v>
       </c>
       <c r="U21">
-        <v>-2758864194</v>
+        <v>-4067648306</v>
       </c>
       <c r="V21">
-        <v>-5110677395</v>
+        <v>-12449932055</v>
       </c>
       <c r="W21">
-        <v>-29510193610</v>
+        <v>-7426231074</v>
       </c>
       <c r="X21">
-        <v>-2514471056</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y21" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F22">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="G22">
-        <v>12500000</v>
+        <v>1200000</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2000</v>
+        <v>9100</v>
       </c>
       <c r="J22">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K22">
-        <v>12905000</v>
+        <v>7206940</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N22" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="O22" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>20924</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>27659</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>11818</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>2838</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>4563</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>-1222</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>2413</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>3190</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>-862</v>
       </c>
       <c r="Y22" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2613,188 +2646,188 @@
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F23">
-        <v>1049482</v>
+        <v>3600000</v>
       </c>
       <c r="G23">
-        <v>944534</v>
+        <v>3600000</v>
       </c>
       <c r="H23">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>12800</v>
+        <v>5000</v>
       </c>
       <c r="J23">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="K23">
-        <v>6261485</v>
+        <v>17306490</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="N23" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="O23" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="P23">
-        <v>34557425427</v>
+        <v>21976760922</v>
       </c>
       <c r="Q23">
-        <v>39824841246</v>
+        <v>15839004968</v>
       </c>
       <c r="R23">
-        <v>23231897516</v>
+        <v>6887755932</v>
       </c>
       <c r="S23">
-        <v>3011651602</v>
+        <v>-2217897363</v>
       </c>
       <c r="T23">
-        <v>2384643399</v>
+        <v>-3403228196</v>
       </c>
       <c r="U23">
-        <v>4436005255</v>
+        <v>-2758864194</v>
       </c>
       <c r="V23">
-        <v>2755379556</v>
+        <v>-5110677395</v>
       </c>
       <c r="W23">
-        <v>1176755354</v>
+        <v>-29510193610</v>
       </c>
       <c r="X23">
-        <v>4046949430</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y23" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F24">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="G24">
-        <v>1128720</v>
+        <v>12500000</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="J24">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="K24">
-        <v>11287196</v>
+        <v>12905000</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="N24" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="O24" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="P24">
-        <v>50552623684</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>69013134090</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>16887814423</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>9027232647</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>15707796256</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>555562560</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>9236341465</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>13159994846</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>1236029732</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F25">
-        <v>1800000</v>
+        <v>1049482</v>
       </c>
       <c r="G25">
-        <v>1800000</v>
+        <v>944534</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I25">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="J25">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="K25">
-        <v>10193520</v>
+        <v>6261485</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2803,271 +2836,425 @@
         <v>17000</v>
       </c>
       <c r="N25" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="O25" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="P25">
-        <v>3952070068</v>
+        <v>34557425427</v>
       </c>
       <c r="Q25">
-        <v>10789274729</v>
+        <v>39824841246</v>
       </c>
       <c r="R25">
-        <v>6040367765</v>
+        <v>23231897516</v>
       </c>
       <c r="S25">
-        <v>-4741577598</v>
+        <v>3011651602</v>
       </c>
       <c r="T25">
-        <v>-3671026788</v>
+        <v>2384643399</v>
       </c>
       <c r="U25">
-        <v>-3292521363</v>
+        <v>4436005255</v>
       </c>
       <c r="V25">
-        <v>-3654889267</v>
+        <v>2755379556</v>
       </c>
       <c r="W25">
-        <v>-2281074471</v>
+        <v>1176755354</v>
       </c>
       <c r="X25">
-        <v>-2539505707</v>
+        <v>4046949430</v>
       </c>
       <c r="Y25" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F26">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="G26">
-        <v>4000000</v>
+        <v>1128720</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="J26">
-        <v>5600</v>
+        <v>3900</v>
       </c>
       <c r="K26">
-        <v>16120000</v>
+        <v>11287196</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>6500</v>
+        <v>4400</v>
       </c>
       <c r="N26" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="O26" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="P26">
-        <v>26691070764</v>
+        <v>50552623684</v>
       </c>
       <c r="Q26">
-        <v>22835113396</v>
+        <v>69013134090</v>
       </c>
       <c r="R26">
-        <v>7519073723</v>
+        <v>16887814423</v>
       </c>
       <c r="S26">
-        <v>6041270235</v>
+        <v>9027232647</v>
       </c>
       <c r="T26">
-        <v>6705120210</v>
+        <v>15707796256</v>
       </c>
       <c r="U26">
-        <v>982044017</v>
+        <v>555562560</v>
       </c>
       <c r="V26">
-        <v>5119066139</v>
+        <v>9236341465</v>
       </c>
       <c r="W26">
-        <v>5870093710</v>
+        <v>13159994846</v>
       </c>
       <c r="X26">
-        <v>1198587470</v>
+        <v>1236029732</v>
       </c>
       <c r="Y26" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F27">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="G27">
-        <v>770000</v>
+        <v>1800000</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>8200</v>
+        <v>13000</v>
       </c>
       <c r="J27">
-        <v>9400</v>
+        <v>15000</v>
       </c>
       <c r="K27">
-        <v>7674103</v>
+        <v>10193520</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="N27" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="O27" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="P27">
-        <v>8242508010</v>
+        <v>3952070068</v>
       </c>
       <c r="Q27">
-        <v>10751900430</v>
+        <v>10789274729</v>
       </c>
       <c r="R27">
-        <v>4416778965</v>
+        <v>6040367765</v>
       </c>
       <c r="S27">
-        <v>426234451</v>
+        <v>-4741577598</v>
       </c>
       <c r="T27">
-        <v>2423749751</v>
+        <v>-3671026788</v>
       </c>
       <c r="U27">
-        <v>677048172</v>
+        <v>-3292521363</v>
       </c>
       <c r="V27">
-        <v>57890953</v>
+        <v>-3654889267</v>
       </c>
       <c r="W27">
-        <v>2826043673</v>
+        <v>-2281074471</v>
       </c>
       <c r="X27">
-        <v>990121873</v>
+        <v>-2539505707</v>
       </c>
       <c r="Y27" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28">
+        <v>4000000</v>
+      </c>
+      <c r="G28">
+        <v>4000000</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>5000</v>
+      </c>
+      <c r="J28">
+        <v>5600</v>
+      </c>
+      <c r="K28">
+        <v>16120000</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>6500</v>
+      </c>
+      <c r="N28" t="s">
+        <v>135</v>
+      </c>
+      <c r="O28" t="s">
+        <v>161</v>
+      </c>
+      <c r="P28">
+        <v>26691070764</v>
+      </c>
+      <c r="Q28">
+        <v>22835113396</v>
+      </c>
+      <c r="R28">
+        <v>7519073723</v>
+      </c>
+      <c r="S28">
+        <v>6041270235</v>
+      </c>
+      <c r="T28">
+        <v>6705120210</v>
+      </c>
+      <c r="U28">
+        <v>982044017</v>
+      </c>
+      <c r="V28">
+        <v>5119066139</v>
+      </c>
+      <c r="W28">
+        <v>5870093710</v>
+      </c>
+      <c r="X28">
+        <v>1198587470</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" t="s">
         <v>46</v>
       </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28">
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29">
+        <v>770000</v>
+      </c>
+      <c r="G29">
+        <v>770000</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>8200</v>
+      </c>
+      <c r="J29">
+        <v>9400</v>
+      </c>
+      <c r="K29">
+        <v>7674103</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>7000</v>
+      </c>
+      <c r="N29" t="s">
+        <v>136</v>
+      </c>
+      <c r="O29" t="s">
+        <v>162</v>
+      </c>
+      <c r="P29">
+        <v>8242508010</v>
+      </c>
+      <c r="Q29">
+        <v>10751900430</v>
+      </c>
+      <c r="R29">
+        <v>4416778965</v>
+      </c>
+      <c r="S29">
+        <v>426234451</v>
+      </c>
+      <c r="T29">
+        <v>2423749751</v>
+      </c>
+      <c r="U29">
+        <v>677048172</v>
+      </c>
+      <c r="V29">
+        <v>57890953</v>
+      </c>
+      <c r="W29">
+        <v>2826043673</v>
+      </c>
+      <c r="X29">
+        <v>990121873</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30">
         <v>2000000</v>
       </c>
-      <c r="G28">
+      <c r="G30">
         <v>2000000</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>22000</v>
       </c>
-      <c r="J28">
+      <c r="J30">
         <v>25000</v>
       </c>
-      <c r="K28">
+      <c r="K30">
         <v>9039778</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>26000</v>
       </c>
-      <c r="N28" t="s">
-        <v>130</v>
-      </c>
-      <c r="O28" t="s">
-        <v>154</v>
-      </c>
-      <c r="P28">
+      <c r="N30" t="s">
+        <v>137</v>
+      </c>
+      <c r="O30" t="s">
+        <v>163</v>
+      </c>
+      <c r="P30">
         <v>104225113285</v>
       </c>
-      <c r="Q28">
+      <c r="Q30">
         <v>106505634411</v>
       </c>
-      <c r="R28">
+      <c r="R30">
         <v>66424930568</v>
       </c>
-      <c r="S28">
+      <c r="S30">
         <v>6291020806</v>
       </c>
-      <c r="T28">
+      <c r="T30">
         <v>7893242769</v>
       </c>
-      <c r="U28">
+      <c r="U30">
         <v>7661497240</v>
       </c>
-      <c r="V28">
+      <c r="V30">
         <v>7319368873</v>
       </c>
-      <c r="W28">
+      <c r="W30">
         <v>9286891982</v>
       </c>
-      <c r="X28">
+      <c r="X30">
         <v>7334816490</v>
       </c>
-      <c r="Y28" t="s">
-        <v>178</v>
+      <c r="Y30" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="185">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -157,33 +157,30 @@
     <t>2023-09-18</t>
   </si>
   <si>
+    <t>2023-11-28</t>
+  </si>
+  <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
     <t>2023-09-22</t>
   </si>
   <si>
-    <t>2023-11-28</t>
-  </si>
-  <si>
-    <t>2023-11-21</t>
-  </si>
-  <si>
-    <t>2023-11-13</t>
-  </si>
-  <si>
-    <t>2023-11-06</t>
-  </si>
-  <si>
-    <t>2023-11-08</t>
-  </si>
-  <si>
-    <t>2023-10-27</t>
-  </si>
-  <si>
-    <t>2023-10-13</t>
-  </si>
-  <si>
-    <t>2023-10-04</t>
-  </si>
-  <si>
     <t>2023-12-12</t>
   </si>
   <si>
@@ -340,9 +337,6 @@
     <t>에스엘에스바이오</t>
   </si>
   <si>
-    <t>신성에스티</t>
-  </si>
-  <si>
     <t>396.84</t>
   </si>
   <si>
@@ -427,9 +421,6 @@
     <t>235.14:1</t>
   </si>
   <si>
-    <t>583.50:1</t>
-  </si>
-  <si>
     <t>12.02%</t>
   </si>
   <si>
@@ -505,9 +496,6 @@
     <t>16.63%</t>
   </si>
   <si>
-    <t>13.57%</t>
-  </si>
-  <si>
     <t>울트라커패시터(셀 및 모듈)</t>
   </si>
   <si>
@@ -581,9 +569,6 @@
   </si>
   <si>
     <t>의약품 품질관리, 신약개발지원, 체외진단기기</t>
-  </si>
-  <si>
-    <t>전기차/2차전지 Busbar 및 배터리모듈 보호 부품 등</t>
   </si>
 </sst>
 </file>
@@ -941,7 +926,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1029,16 +1014,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2">
         <v>14625000</v>
@@ -1065,10 +1050,10 @@
         <v>6000</v>
       </c>
       <c r="N2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1098,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1106,16 +1091,16 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3">
         <v>1400000</v>
@@ -1142,10 +1127,10 @@
         <v>19000</v>
       </c>
       <c r="N3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P3">
         <v>49637696375</v>
@@ -1175,7 +1160,7 @@
         <v>286239267</v>
       </c>
       <c r="Y3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1183,16 +1168,16 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4">
         <v>3500000</v>
@@ -1219,10 +1204,10 @@
         <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1252,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1263,13 +1248,13 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5">
         <v>750000</v>
@@ -1296,10 +1281,10 @@
         <v>23000</v>
       </c>
       <c r="N5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P5">
         <v>28564316</v>
@@ -1329,7 +1314,7 @@
         <v>2876182</v>
       </c>
       <c r="Y5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1340,13 +1325,13 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6">
         <v>1500000</v>
@@ -1373,10 +1358,10 @@
         <v>9000</v>
       </c>
       <c r="N6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1406,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1414,16 +1399,16 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7">
         <v>10000000</v>
@@ -1450,10 +1435,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1483,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1494,13 +1479,13 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8">
         <v>650000</v>
@@ -1527,10 +1512,10 @@
         <v>18000</v>
       </c>
       <c r="N8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P8">
         <v>55809022</v>
@@ -1560,7 +1545,7 @@
         <v>-8387901</v>
       </c>
       <c r="Y8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1571,13 +1556,13 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9">
         <v>8000000</v>
@@ -1604,10 +1589,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1637,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1645,16 +1630,16 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10">
         <v>1407000</v>
@@ -1681,10 +1666,10 @@
         <v>28000</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1714,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1725,13 +1710,13 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11">
         <v>1640000</v>
@@ -1758,10 +1743,10 @@
         <v>17000</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P11">
         <v>13660</v>
@@ -1791,7 +1776,7 @@
         <v>1666</v>
       </c>
       <c r="Y11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1799,16 +1784,16 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12">
         <v>3350000</v>
@@ -1835,10 +1820,10 @@
         <v>11000</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P12">
         <v>47984</v>
@@ -1868,7 +1853,7 @@
         <v>5612</v>
       </c>
       <c r="Y12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1876,16 +1861,16 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F13">
         <v>4250000</v>
@@ -1912,10 +1897,10 @@
         <v>7000</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P13">
         <v>27199897007</v>
@@ -1945,7 +1930,7 @@
         <v>3402334635</v>
       </c>
       <c r="Y13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1956,13 +1941,13 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14">
         <v>2079000</v>
@@ -1989,10 +1974,10 @@
         <v>34700</v>
       </c>
       <c r="N14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P14">
         <v>26994234332</v>
@@ -2022,7 +2007,7 @@
         <v>15932218050</v>
       </c>
       <c r="Y14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2036,10 +2021,10 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F15">
         <v>1596000</v>
@@ -2066,10 +2051,10 @@
         <v>4000</v>
       </c>
       <c r="N15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P15">
         <v>7668281979</v>
@@ -2099,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2113,10 +2098,10 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16">
         <v>1600000</v>
@@ -2143,10 +2128,10 @@
         <v>20000</v>
       </c>
       <c r="N16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2176,7 +2161,7 @@
         <v>-12610702106</v>
       </c>
       <c r="Y16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2184,16 +2169,16 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17">
         <v>2636330</v>
@@ -2220,10 +2205,10 @@
         <v>25000</v>
       </c>
       <c r="N17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P17">
         <v>45195788</v>
@@ -2253,7 +2238,7 @@
         <v>2327401</v>
       </c>
       <c r="Y17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2264,13 +2249,13 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F18">
         <v>4000000</v>
@@ -2297,10 +2282,10 @@
         <v>2000</v>
       </c>
       <c r="N18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2330,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2338,16 +2323,16 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19">
         <v>7000000</v>
@@ -2374,10 +2359,10 @@
         <v>1800</v>
       </c>
       <c r="N19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P19">
         <v>67332006578</v>
@@ -2407,7 +2392,7 @@
         <v>5666583221</v>
       </c>
       <c r="Y19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2421,10 +2406,10 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20">
         <v>5200000</v>
@@ -2451,10 +2436,10 @@
         <v>4800</v>
       </c>
       <c r="N20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P20">
         <v>39450601</v>
@@ -2484,7 +2469,7 @@
         <v>349843</v>
       </c>
       <c r="Y20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2498,10 +2483,10 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21">
         <v>2060000</v>
@@ -2528,10 +2513,10 @@
         <v>22500</v>
       </c>
       <c r="N21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P21">
         <v>5787300240</v>
@@ -2561,7 +2546,7 @@
         <v>-52132058866</v>
       </c>
       <c r="Y21" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2575,10 +2560,10 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22">
         <v>1200000</v>
@@ -2605,10 +2590,10 @@
         <v>13000</v>
       </c>
       <c r="N22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P22">
         <v>20924</v>
@@ -2638,7 +2623,7 @@
         <v>-862</v>
       </c>
       <c r="Y22" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2652,10 +2637,10 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23">
         <v>3600000</v>
@@ -2682,10 +2667,10 @@
         <v>7500</v>
       </c>
       <c r="N23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P23">
         <v>21976760922</v>
@@ -2715,7 +2700,7 @@
         <v>-2514471056</v>
       </c>
       <c r="Y23" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2729,10 +2714,10 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F24">
         <v>12500000</v>
@@ -2759,10 +2744,10 @@
         <v>2000</v>
       </c>
       <c r="N24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O24" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2792,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2806,10 +2791,10 @@
         <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F25">
         <v>1049482</v>
@@ -2836,10 +2821,10 @@
         <v>17000</v>
       </c>
       <c r="N25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P25">
         <v>34557425427</v>
@@ -2869,7 +2854,7 @@
         <v>4046949430</v>
       </c>
       <c r="Y25" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2883,10 +2868,10 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F26">
         <v>1128720</v>
@@ -2913,10 +2898,10 @@
         <v>4400</v>
       </c>
       <c r="N26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O26" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P26">
         <v>50552623684</v>
@@ -2946,7 +2931,7 @@
         <v>1236029732</v>
       </c>
       <c r="Y26" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2954,16 +2939,16 @@
         <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F27">
         <v>1800000</v>
@@ -2990,10 +2975,10 @@
         <v>17000</v>
       </c>
       <c r="N27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P27">
         <v>3952070068</v>
@@ -3023,7 +3008,7 @@
         <v>-2539505707</v>
       </c>
       <c r="Y27" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -3037,10 +3022,10 @@
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F28">
         <v>4000000</v>
@@ -3067,10 +3052,10 @@
         <v>6500</v>
       </c>
       <c r="N28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O28" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P28">
         <v>26691070764</v>
@@ -3100,7 +3085,7 @@
         <v>1198587470</v>
       </c>
       <c r="Y28" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -3108,16 +3093,16 @@
         <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F29">
         <v>770000</v>
@@ -3144,10 +3129,10 @@
         <v>7000</v>
       </c>
       <c r="N29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O29" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P29">
         <v>8242508010</v>
@@ -3177,84 +3162,7 @@
         <v>990121873</v>
       </c>
       <c r="Y29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
-      <c r="A30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30">
-        <v>2000000</v>
-      </c>
-      <c r="G30">
-        <v>2000000</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>22000</v>
-      </c>
-      <c r="J30">
-        <v>25000</v>
-      </c>
-      <c r="K30">
-        <v>9039778</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>26000</v>
-      </c>
-      <c r="N30" t="s">
-        <v>137</v>
-      </c>
-      <c r="O30" t="s">
-        <v>163</v>
-      </c>
-      <c r="P30">
-        <v>104225113285</v>
-      </c>
-      <c r="Q30">
-        <v>106505634411</v>
-      </c>
-      <c r="R30">
-        <v>66424930568</v>
-      </c>
-      <c r="S30">
-        <v>6291020806</v>
-      </c>
-      <c r="T30">
-        <v>7893242769</v>
-      </c>
-      <c r="U30">
-        <v>7661497240</v>
-      </c>
-      <c r="V30">
-        <v>7319368873</v>
-      </c>
-      <c r="W30">
-        <v>9286891982</v>
-      </c>
-      <c r="X30">
-        <v>7334816490</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="179">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -154,9 +154,6 @@
     <t>2023-10-05</t>
   </si>
   <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
     <t>2023-11-28</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>2023-10-13</t>
   </si>
   <si>
-    <t>2023-09-22</t>
-  </si>
-  <si>
     <t>2023-12-12</t>
   </si>
   <si>
@@ -334,9 +328,6 @@
     <t>워트</t>
   </si>
   <si>
-    <t>에스엘에스바이오</t>
-  </si>
-  <si>
     <t>396.84</t>
   </si>
   <si>
@@ -418,9 +409,6 @@
     <t>793.26:1</t>
   </si>
   <si>
-    <t>235.14:1</t>
-  </si>
-  <si>
     <t>12.02%</t>
   </si>
   <si>
@@ -493,9 +481,6 @@
     <t>10.06%</t>
   </si>
   <si>
-    <t>16.63%</t>
-  </si>
-  <si>
     <t>울트라커패시터(셀 및 모듈)</t>
   </si>
   <si>
@@ -566,9 +551,6 @@
   </si>
   <si>
     <t>초정밀 온습도 제어장비</t>
-  </si>
-  <si>
-    <t>의약품 품질관리, 신약개발지원, 체외진단기기</t>
   </si>
 </sst>
 </file>
@@ -926,7 +908,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1014,16 +996,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F2">
         <v>14625000</v>
@@ -1050,10 +1032,10 @@
         <v>6000</v>
       </c>
       <c r="N2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1083,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1091,16 +1073,16 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F3">
         <v>1400000</v>
@@ -1127,10 +1109,10 @@
         <v>19000</v>
       </c>
       <c r="N3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P3">
         <v>49637696375</v>
@@ -1160,7 +1142,7 @@
         <v>286239267</v>
       </c>
       <c r="Y3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1168,16 +1150,16 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F4">
         <v>3500000</v>
@@ -1204,10 +1186,10 @@
         <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1237,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1248,13 +1230,13 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F5">
         <v>750000</v>
@@ -1281,10 +1263,10 @@
         <v>23000</v>
       </c>
       <c r="N5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P5">
         <v>28564316</v>
@@ -1314,7 +1296,7 @@
         <v>2876182</v>
       </c>
       <c r="Y5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1325,13 +1307,13 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F6">
         <v>1500000</v>
@@ -1358,10 +1340,10 @@
         <v>9000</v>
       </c>
       <c r="N6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1391,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1399,16 +1381,16 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F7">
         <v>10000000</v>
@@ -1435,10 +1417,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1468,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1479,13 +1461,13 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F8">
         <v>650000</v>
@@ -1512,10 +1494,10 @@
         <v>18000</v>
       </c>
       <c r="N8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P8">
         <v>55809022</v>
@@ -1545,7 +1527,7 @@
         <v>-8387901</v>
       </c>
       <c r="Y8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1556,13 +1538,13 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F9">
         <v>8000000</v>
@@ -1589,10 +1571,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1622,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1630,16 +1612,16 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F10">
         <v>1407000</v>
@@ -1666,10 +1648,10 @@
         <v>28000</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1699,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1710,13 +1692,13 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>1640000</v>
@@ -1743,10 +1725,10 @@
         <v>17000</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P11">
         <v>13660</v>
@@ -1776,7 +1758,7 @@
         <v>1666</v>
       </c>
       <c r="Y11" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1784,16 +1766,16 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F12">
         <v>3350000</v>
@@ -1820,10 +1802,10 @@
         <v>11000</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P12">
         <v>47984</v>
@@ -1853,7 +1835,7 @@
         <v>5612</v>
       </c>
       <c r="Y12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1861,16 +1843,16 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F13">
         <v>4250000</v>
@@ -1897,10 +1879,10 @@
         <v>7000</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P13">
         <v>27199897007</v>
@@ -1930,7 +1912,7 @@
         <v>3402334635</v>
       </c>
       <c r="Y13" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1941,13 +1923,13 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F14">
         <v>2079000</v>
@@ -1974,10 +1956,10 @@
         <v>34700</v>
       </c>
       <c r="N14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P14">
         <v>26994234332</v>
@@ -2007,7 +1989,7 @@
         <v>15932218050</v>
       </c>
       <c r="Y14" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2021,10 +2003,10 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F15">
         <v>1596000</v>
@@ -2051,10 +2033,10 @@
         <v>4000</v>
       </c>
       <c r="N15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P15">
         <v>7668281979</v>
@@ -2084,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2098,10 +2080,10 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F16">
         <v>1600000</v>
@@ -2128,10 +2110,10 @@
         <v>20000</v>
       </c>
       <c r="N16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2161,7 +2143,7 @@
         <v>-12610702106</v>
       </c>
       <c r="Y16" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2169,16 +2151,16 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F17">
         <v>2636330</v>
@@ -2205,10 +2187,10 @@
         <v>25000</v>
       </c>
       <c r="N17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P17">
         <v>45195788</v>
@@ -2238,7 +2220,7 @@
         <v>2327401</v>
       </c>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2249,13 +2231,13 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F18">
         <v>4000000</v>
@@ -2282,10 +2264,10 @@
         <v>2000</v>
       </c>
       <c r="N18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2315,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2323,16 +2305,16 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F19">
         <v>7000000</v>
@@ -2359,10 +2341,10 @@
         <v>1800</v>
       </c>
       <c r="N19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P19">
         <v>67332006578</v>
@@ -2392,7 +2374,7 @@
         <v>5666583221</v>
       </c>
       <c r="Y19" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2406,10 +2388,10 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F20">
         <v>5200000</v>
@@ -2436,10 +2418,10 @@
         <v>4800</v>
       </c>
       <c r="N20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P20">
         <v>39450601</v>
@@ -2469,7 +2451,7 @@
         <v>349843</v>
       </c>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2483,10 +2465,10 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F21">
         <v>2060000</v>
@@ -2513,10 +2495,10 @@
         <v>22500</v>
       </c>
       <c r="N21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P21">
         <v>5787300240</v>
@@ -2546,7 +2528,7 @@
         <v>-52132058866</v>
       </c>
       <c r="Y21" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2560,10 +2542,10 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F22">
         <v>1200000</v>
@@ -2590,10 +2572,10 @@
         <v>13000</v>
       </c>
       <c r="N22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P22">
         <v>20924</v>
@@ -2623,7 +2605,7 @@
         <v>-862</v>
       </c>
       <c r="Y22" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2637,10 +2619,10 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F23">
         <v>3600000</v>
@@ -2667,10 +2649,10 @@
         <v>7500</v>
       </c>
       <c r="N23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P23">
         <v>21976760922</v>
@@ -2700,7 +2682,7 @@
         <v>-2514471056</v>
       </c>
       <c r="Y23" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2714,10 +2696,10 @@
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F24">
         <v>12500000</v>
@@ -2744,10 +2726,10 @@
         <v>2000</v>
       </c>
       <c r="N24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O24" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2777,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2791,10 +2773,10 @@
         <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F25">
         <v>1049482</v>
@@ -2821,10 +2803,10 @@
         <v>17000</v>
       </c>
       <c r="N25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P25">
         <v>34557425427</v>
@@ -2854,7 +2836,7 @@
         <v>4046949430</v>
       </c>
       <c r="Y25" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2868,10 +2850,10 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F26">
         <v>1128720</v>
@@ -2898,10 +2880,10 @@
         <v>4400</v>
       </c>
       <c r="N26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P26">
         <v>50552623684</v>
@@ -2931,7 +2913,7 @@
         <v>1236029732</v>
       </c>
       <c r="Y26" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2939,16 +2921,16 @@
         <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F27">
         <v>1800000</v>
@@ -2975,10 +2957,10 @@
         <v>17000</v>
       </c>
       <c r="N27" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O27" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P27">
         <v>3952070068</v>
@@ -3008,7 +2990,7 @@
         <v>-2539505707</v>
       </c>
       <c r="Y27" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -3022,10 +3004,10 @@
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F28">
         <v>4000000</v>
@@ -3052,10 +3034,10 @@
         <v>6500</v>
       </c>
       <c r="N28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O28" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P28">
         <v>26691070764</v>
@@ -3085,84 +3067,7 @@
         <v>1198587470</v>
       </c>
       <c r="Y28" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29">
-        <v>770000</v>
-      </c>
-      <c r="G29">
-        <v>770000</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>8200</v>
-      </c>
-      <c r="J29">
-        <v>9400</v>
-      </c>
-      <c r="K29">
-        <v>7674103</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>7000</v>
-      </c>
-      <c r="N29" t="s">
-        <v>134</v>
-      </c>
-      <c r="O29" t="s">
-        <v>159</v>
-      </c>
-      <c r="P29">
-        <v>8242508010</v>
-      </c>
-      <c r="Q29">
-        <v>10751900430</v>
-      </c>
-      <c r="R29">
-        <v>4416778965</v>
-      </c>
-      <c r="S29">
-        <v>426234451</v>
-      </c>
-      <c r="T29">
-        <v>2423749751</v>
-      </c>
-      <c r="U29">
-        <v>677048172</v>
-      </c>
-      <c r="V29">
-        <v>57890953</v>
-      </c>
-      <c r="W29">
-        <v>2826043673</v>
-      </c>
-      <c r="X29">
-        <v>990121873</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="183">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2023-12-08</t>
+  </si>
+  <si>
     <t>2023-11-22</t>
   </si>
   <si>
@@ -154,6 +157,9 @@
     <t>2023-10-05</t>
   </si>
   <si>
+    <t>2023-12-12</t>
+  </si>
+  <si>
     <t>2023-11-28</t>
   </si>
   <si>
@@ -175,7 +181,7 @@
     <t>2023-10-13</t>
   </si>
   <si>
-    <t>2023-12-12</t>
+    <t>2023-12-22</t>
   </si>
   <si>
     <t>2023-12-13</t>
@@ -199,12 +205,12 @@
     <t>2023-11-14</t>
   </si>
   <si>
+    <t>하나</t>
+  </si>
+  <si>
     <t>키움, KB</t>
   </si>
   <si>
-    <t>하나</t>
-  </si>
-  <si>
     <t>교보</t>
   </si>
   <si>
@@ -247,6 +253,9 @@
     <t>키움</t>
   </si>
   <si>
+    <t>하나30호스팩</t>
+  </si>
+  <si>
     <t>LS머트리얼즈</t>
   </si>
   <si>
@@ -328,6 +337,9 @@
     <t>워트</t>
   </si>
   <si>
+    <t>708.35:1</t>
+  </si>
+  <si>
     <t>396.84</t>
   </si>
   <si>
@@ -409,6 +421,9 @@
     <t>793.26:1</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>12.02%</t>
   </si>
   <si>
@@ -424,9 +439,6 @@
     <t>14.47%</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>0.43%</t>
   </si>
   <si>
@@ -481,13 +493,13 @@
     <t>10.06%</t>
   </si>
   <si>
+    <t>기업인수합병</t>
+  </si>
+  <si>
     <t>울트라커패시터(셀 및 모듈)</t>
   </si>
   <si>
     <t>의약품 유통업</t>
-  </si>
-  <si>
-    <t>기업인수합병</t>
   </si>
   <si>
     <t>이차전지 자동화 설비</t>
@@ -908,7 +920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -996,46 +1008,46 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F2">
-        <v>14625000</v>
+        <v>7000000</v>
       </c>
       <c r="G2">
-        <v>8775000</v>
+        <v>7000000</v>
       </c>
       <c r="H2">
-        <v>5850000</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="K2">
-        <v>67652659</v>
+        <v>7305000</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1065,84 +1077,84 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F3">
-        <v>1400000</v>
+        <v>14625000</v>
       </c>
       <c r="G3">
-        <v>1400000</v>
+        <v>8775000</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5850000</v>
       </c>
       <c r="I3">
-        <v>15000</v>
+        <v>4400</v>
       </c>
       <c r="J3">
-        <v>19000</v>
+        <v>5500</v>
       </c>
       <c r="K3">
-        <v>10650189</v>
+        <v>67652659</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="N3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P3">
-        <v>49637696375</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>77146751918</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>41854695636</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>-2726643993</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>890609048</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>176442923</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>-7688787420</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-14330655532</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>286239267</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1150,76 +1162,76 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
         <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F4">
-        <v>3500000</v>
+        <v>1400000</v>
       </c>
       <c r="G4">
-        <v>3500000</v>
+        <v>1400000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="K4">
-        <v>3810000</v>
+        <v>10650189</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="N4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>49637696375</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>77146751918</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>41854695636</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-2726643993</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>890609048</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>176442923</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-7688787420</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-14330655532</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>286239267</v>
       </c>
       <c r="Y4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1227,76 +1239,76 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F5">
-        <v>750000</v>
+        <v>3500000</v>
       </c>
       <c r="G5">
-        <v>750000</v>
+        <v>3500000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="K5">
-        <v>3883557</v>
+        <v>3810000</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P5">
-        <v>28564316</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>34734790</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>19566070</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>4032783</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>6075261</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>3863017</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>3909264</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>4830718</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>2876182</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1304,123 +1316,123 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F6">
-        <v>1500000</v>
+        <v>750000</v>
       </c>
       <c r="G6">
-        <v>1500000</v>
+        <v>750000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="J6">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="K6">
-        <v>13866898</v>
+        <v>3883557</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="N6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>28564316</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>34734790</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>19566070</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>4032783</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>6075261</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>3863017</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>3909264</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>4830718</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>2876182</v>
       </c>
       <c r="Y6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F7">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="G7">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K7">
-        <v>11050000</v>
+        <v>13866898</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="N7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1450,84 +1462,84 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F8">
-        <v>650000</v>
+        <v>10000000</v>
       </c>
       <c r="G8">
-        <v>650000</v>
+        <v>10000000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="J8">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="K8">
-        <v>5345180</v>
+        <v>11050000</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P8">
-        <v>55809022</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>53633878</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>47971262</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>-4601725</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>-7645858</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>-5922868</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>-20523948</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>-12027347</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-8387901</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1535,76 +1547,76 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F9">
-        <v>8000000</v>
+        <v>650000</v>
       </c>
       <c r="G9">
-        <v>8000000</v>
+        <v>650000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="K9">
-        <v>9100000</v>
+        <v>5345180</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>55809022</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>53633878</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>47971262</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>-4601725</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>-7645858</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>-5922868</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>-20523948</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>-12027347</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>-8387901</v>
       </c>
       <c r="Y9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1612,46 +1624,46 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F10">
-        <v>1407000</v>
+        <v>8000000</v>
       </c>
       <c r="G10">
-        <v>844000</v>
+        <v>8000000</v>
       </c>
       <c r="H10">
-        <v>563000</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="K10">
-        <v>5657215</v>
+        <v>9100000</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>28000</v>
+        <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1681,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1689,76 +1701,76 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F11">
-        <v>1640000</v>
+        <v>1407000</v>
       </c>
       <c r="G11">
-        <v>1640000</v>
+        <v>844000</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>563000</v>
       </c>
       <c r="I11">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="J11">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="K11">
-        <v>8183944</v>
+        <v>5657215</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P11">
-        <v>13660</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>25085</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>8905</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>3108</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>3731</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>2219</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>1157</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>3465</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>1666</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1766,76 +1778,76 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F12">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="G12">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="J12">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="K12">
-        <v>13436499</v>
+        <v>8183944</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P12">
-        <v>47984</v>
+        <v>13660</v>
       </c>
       <c r="Q12">
-        <v>51031</v>
+        <v>25085</v>
       </c>
       <c r="R12">
-        <v>29425</v>
+        <v>8905</v>
       </c>
       <c r="S12">
-        <v>10526</v>
+        <v>3108</v>
       </c>
       <c r="T12">
-        <v>11804</v>
+        <v>3731</v>
       </c>
       <c r="U12">
-        <v>7008</v>
+        <v>2219</v>
       </c>
       <c r="V12">
-        <v>8661</v>
+        <v>1157</v>
       </c>
       <c r="W12">
-        <v>9582</v>
+        <v>3465</v>
       </c>
       <c r="X12">
-        <v>5612</v>
+        <v>1666</v>
       </c>
       <c r="Y12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1843,76 +1855,76 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F13">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="G13">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="J13">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="K13">
-        <v>17002500</v>
+        <v>13436499</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P13">
-        <v>27199897007</v>
+        <v>47984</v>
       </c>
       <c r="Q13">
-        <v>40971122327</v>
+        <v>51031</v>
       </c>
       <c r="R13">
-        <v>25300714406</v>
+        <v>29425</v>
       </c>
       <c r="S13">
-        <v>2887034102</v>
+        <v>10526</v>
       </c>
       <c r="T13">
-        <v>7167697077</v>
+        <v>11804</v>
       </c>
       <c r="U13">
-        <v>4740280453</v>
+        <v>7008</v>
       </c>
       <c r="V13">
-        <v>2399514033</v>
+        <v>8661</v>
       </c>
       <c r="W13">
-        <v>5498221693</v>
+        <v>9582</v>
       </c>
       <c r="X13">
-        <v>3402334635</v>
+        <v>5612</v>
       </c>
       <c r="Y13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1920,76 +1932,76 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F14">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="G14">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>28500</v>
+        <v>5200</v>
       </c>
       <c r="J14">
-        <v>34700</v>
+        <v>6000</v>
       </c>
       <c r="K14">
-        <v>9877043</v>
+        <v>17002500</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>34700</v>
+        <v>7000</v>
       </c>
       <c r="N14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P14">
-        <v>26994234332</v>
+        <v>27199897007</v>
       </c>
       <c r="Q14">
-        <v>60121142197</v>
+        <v>40971122327</v>
       </c>
       <c r="R14">
-        <v>53305665235</v>
+        <v>25300714406</v>
       </c>
       <c r="S14">
-        <v>10162848799</v>
+        <v>2887034102</v>
       </c>
       <c r="T14">
-        <v>20033029594</v>
+        <v>7167697077</v>
       </c>
       <c r="U14">
-        <v>19806683734</v>
+        <v>4740280453</v>
       </c>
       <c r="V14">
-        <v>7996520497</v>
+        <v>2399514033</v>
       </c>
       <c r="W14">
-        <v>15559454518</v>
+        <v>5498221693</v>
       </c>
       <c r="X14">
-        <v>15932218050</v>
+        <v>3402334635</v>
       </c>
       <c r="Y14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1997,76 +2009,76 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F15">
-        <v>1596000</v>
+        <v>2079000</v>
       </c>
       <c r="G15">
-        <v>1596000</v>
+        <v>2079000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3200</v>
+        <v>28500</v>
       </c>
       <c r="J15">
-        <v>3600</v>
+        <v>34700</v>
       </c>
       <c r="K15">
-        <v>13346380</v>
+        <v>9877043</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4000</v>
+        <v>34700</v>
       </c>
       <c r="N15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P15">
-        <v>7668281979</v>
+        <v>26994234332</v>
       </c>
       <c r="Q15">
-        <v>7100921456</v>
+        <v>60121142197</v>
       </c>
       <c r="R15">
-        <v>1207846478</v>
+        <v>53305665235</v>
       </c>
       <c r="S15">
-        <v>5659403971</v>
+        <v>10162848799</v>
       </c>
       <c r="T15">
-        <v>6124121466</v>
+        <v>20033029594</v>
       </c>
       <c r="U15">
-        <v>940668827</v>
+        <v>19806683734</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>7996520497</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>15559454518</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>15932218050</v>
       </c>
       <c r="Y15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2077,73 +2089,73 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F16">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="G16">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J16">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K16">
-        <v>13612736</v>
+        <v>13346380</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="N16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>7668281979</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>7100921456</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1207846478</v>
       </c>
       <c r="S16">
-        <v>-15286512079</v>
+        <v>5659403971</v>
       </c>
       <c r="T16">
-        <v>-21424611321</v>
+        <v>6124121466</v>
       </c>
       <c r="U16">
-        <v>-139745251263</v>
+        <v>940668827</v>
       </c>
       <c r="V16">
-        <v>-53575668634</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>-38885125426</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-12610702106</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2151,76 +2163,76 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F17">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="G17">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J17">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K17">
-        <v>10585320</v>
+        <v>13612736</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N17" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P17">
-        <v>45195788</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>69629209</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>35634471</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>2751277</v>
+        <v>-15286512079</v>
       </c>
       <c r="T17">
-        <v>11449731</v>
+        <v>-21424611321</v>
       </c>
       <c r="U17">
-        <v>2482194</v>
+        <v>-139745251263</v>
       </c>
       <c r="V17">
-        <v>2092692</v>
+        <v>-53575668634</v>
       </c>
       <c r="W17">
-        <v>5149538</v>
+        <v>-38885125426</v>
       </c>
       <c r="X17">
-        <v>2327401</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y17" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2228,384 +2240,384 @@
         <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F18">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="G18">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K18">
-        <v>4320000</v>
+        <v>10585320</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="N18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O18" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>45195788</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>69629209</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>35634471</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>2751277</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>11449731</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>2482194</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>2092692</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>5149538</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>2327401</v>
       </c>
       <c r="Y18" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F19">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="G19">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J19">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K19">
-        <v>30610000</v>
+        <v>4320000</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="P19">
-        <v>67332006578</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>100050838794</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>63366010569</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>1140243099</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>8333440685</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>7415958936</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>668088159</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>5930478364</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>5666583221</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F20">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="G20">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J20">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K20">
-        <v>20771000</v>
+        <v>30610000</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="N20" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O20" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P20">
-        <v>39450601</v>
+        <v>67332006578</v>
       </c>
       <c r="Q20">
-        <v>49044883</v>
+        <v>100050838794</v>
       </c>
       <c r="R20">
-        <v>21826468</v>
+        <v>63366010569</v>
       </c>
       <c r="S20">
-        <v>2477559</v>
+        <v>1140243099</v>
       </c>
       <c r="T20">
-        <v>8094900</v>
+        <v>8333440685</v>
       </c>
       <c r="U20">
-        <v>215154</v>
+        <v>7415958936</v>
       </c>
       <c r="V20">
-        <v>3427734</v>
+        <v>668088159</v>
       </c>
       <c r="W20">
-        <v>6575528</v>
+        <v>5930478364</v>
       </c>
       <c r="X20">
-        <v>349843</v>
+        <v>5666583221</v>
       </c>
       <c r="Y20" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
         <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F21">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="G21">
-        <v>2000000</v>
+        <v>5200000</v>
       </c>
       <c r="H21">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J21">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K21">
-        <v>14384224</v>
+        <v>20771000</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="N21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O21" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P21">
-        <v>5787300240</v>
+        <v>39450601</v>
       </c>
       <c r="Q21">
-        <v>1914633847</v>
+        <v>49044883</v>
       </c>
       <c r="R21">
-        <v>3156092272</v>
+        <v>21826468</v>
       </c>
       <c r="S21">
-        <v>-1798278694</v>
+        <v>2477559</v>
       </c>
       <c r="T21">
-        <v>-1453689952</v>
+        <v>8094900</v>
       </c>
       <c r="U21">
-        <v>-4067648306</v>
+        <v>215154</v>
       </c>
       <c r="V21">
-        <v>-12449932055</v>
+        <v>3427734</v>
       </c>
       <c r="W21">
-        <v>-7426231074</v>
+        <v>6575528</v>
       </c>
       <c r="X21">
-        <v>-52132058866</v>
+        <v>349843</v>
       </c>
       <c r="Y21" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F22">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="G22">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I22">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J22">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K22">
-        <v>7206940</v>
+        <v>14384224</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="N22" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O22" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P22">
-        <v>20924</v>
+        <v>5787300240</v>
       </c>
       <c r="Q22">
-        <v>27659</v>
+        <v>1914633847</v>
       </c>
       <c r="R22">
-        <v>11818</v>
+        <v>3156092272</v>
       </c>
       <c r="S22">
-        <v>2838</v>
+        <v>-1798278694</v>
       </c>
       <c r="T22">
-        <v>4563</v>
+        <v>-1453689952</v>
       </c>
       <c r="U22">
-        <v>-1222</v>
+        <v>-4067648306</v>
       </c>
       <c r="V22">
-        <v>2413</v>
+        <v>-12449932055</v>
       </c>
       <c r="W22">
-        <v>3190</v>
+        <v>-7426231074</v>
       </c>
       <c r="X22">
-        <v>-862</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y22" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2613,230 +2625,230 @@
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F23">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="G23">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J23">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K23">
-        <v>17306490</v>
+        <v>7206940</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N23" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O23" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P23">
-        <v>21976760922</v>
+        <v>20924</v>
       </c>
       <c r="Q23">
-        <v>15839004968</v>
+        <v>27659</v>
       </c>
       <c r="R23">
-        <v>6887755932</v>
+        <v>11818</v>
       </c>
       <c r="S23">
-        <v>-2217897363</v>
+        <v>2838</v>
       </c>
       <c r="T23">
-        <v>-3403228196</v>
+        <v>4563</v>
       </c>
       <c r="U23">
-        <v>-2758864194</v>
+        <v>-1222</v>
       </c>
       <c r="V23">
-        <v>-5110677395</v>
+        <v>2413</v>
       </c>
       <c r="W23">
-        <v>-29510193610</v>
+        <v>3190</v>
       </c>
       <c r="X23">
-        <v>-2514471056</v>
+        <v>-862</v>
       </c>
       <c r="Y23" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F24">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="G24">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J24">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K24">
-        <v>12905000</v>
+        <v>17306490</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N24" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O24" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>21976760922</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>15839004968</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>6887755932</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>-2217897363</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>-3403228196</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>-2758864194</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>-5110677395</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>-29510193610</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y24" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F25">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="G25">
-        <v>944534</v>
+        <v>12500000</v>
       </c>
       <c r="H25">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J25">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K25">
-        <v>6261485</v>
+        <v>12905000</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O25" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="P25">
-        <v>34557425427</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>39824841246</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>23231897516</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>3011651602</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>2384643399</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>4436005255</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>2755379556</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>1176755354</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>4046949430</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2844,76 +2856,76 @@
         <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F26">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="G26">
-        <v>1128720</v>
+        <v>944534</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I26">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J26">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K26">
-        <v>11287196</v>
+        <v>6261485</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="N26" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O26" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P26">
-        <v>50552623684</v>
+        <v>34557425427</v>
       </c>
       <c r="Q26">
-        <v>69013134090</v>
+        <v>39824841246</v>
       </c>
       <c r="R26">
-        <v>16887814423</v>
+        <v>23231897516</v>
       </c>
       <c r="S26">
-        <v>9027232647</v>
+        <v>3011651602</v>
       </c>
       <c r="T26">
-        <v>15707796256</v>
+        <v>2384643399</v>
       </c>
       <c r="U26">
-        <v>555562560</v>
+        <v>4436005255</v>
       </c>
       <c r="V26">
-        <v>9236341465</v>
+        <v>2755379556</v>
       </c>
       <c r="W26">
-        <v>13159994846</v>
+        <v>1176755354</v>
       </c>
       <c r="X26">
-        <v>1236029732</v>
+        <v>4046949430</v>
       </c>
       <c r="Y26" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2921,76 +2933,76 @@
         <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F27">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="G27">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J27">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K27">
-        <v>10193520</v>
+        <v>11287196</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="N27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O27" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P27">
-        <v>3952070068</v>
+        <v>50552623684</v>
       </c>
       <c r="Q27">
-        <v>10789274729</v>
+        <v>69013134090</v>
       </c>
       <c r="R27">
-        <v>6040367765</v>
+        <v>16887814423</v>
       </c>
       <c r="S27">
-        <v>-4741577598</v>
+        <v>9027232647</v>
       </c>
       <c r="T27">
-        <v>-3671026788</v>
+        <v>15707796256</v>
       </c>
       <c r="U27">
-        <v>-3292521363</v>
+        <v>555562560</v>
       </c>
       <c r="V27">
-        <v>-3654889267</v>
+        <v>9236341465</v>
       </c>
       <c r="W27">
-        <v>-2281074471</v>
+        <v>13159994846</v>
       </c>
       <c r="X27">
-        <v>-2539505707</v>
+        <v>1236029732</v>
       </c>
       <c r="Y27" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2998,76 +3010,153 @@
         <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F28">
+        <v>1800000</v>
+      </c>
+      <c r="G28">
+        <v>1800000</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>13000</v>
+      </c>
+      <c r="J28">
+        <v>15000</v>
+      </c>
+      <c r="K28">
+        <v>10193520</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>17000</v>
+      </c>
+      <c r="N28" t="s">
+        <v>133</v>
+      </c>
+      <c r="O28" t="s">
+        <v>157</v>
+      </c>
+      <c r="P28">
+        <v>3952070068</v>
+      </c>
+      <c r="Q28">
+        <v>10789274729</v>
+      </c>
+      <c r="R28">
+        <v>6040367765</v>
+      </c>
+      <c r="S28">
+        <v>-4741577598</v>
+      </c>
+      <c r="T28">
+        <v>-3671026788</v>
+      </c>
+      <c r="U28">
+        <v>-3292521363</v>
+      </c>
+      <c r="V28">
+        <v>-3654889267</v>
+      </c>
+      <c r="W28">
+        <v>-2281074471</v>
+      </c>
+      <c r="X28">
+        <v>-2539505707</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29">
         <v>4000000</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>4000000</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>5000</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>5600</v>
       </c>
-      <c r="K28">
+      <c r="K29">
         <v>16120000</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <v>6500</v>
       </c>
-      <c r="N28" t="s">
-        <v>130</v>
-      </c>
-      <c r="O28" t="s">
-        <v>154</v>
-      </c>
-      <c r="P28">
+      <c r="N29" t="s">
+        <v>134</v>
+      </c>
+      <c r="O29" t="s">
+        <v>158</v>
+      </c>
+      <c r="P29">
         <v>26691070764</v>
       </c>
-      <c r="Q28">
+      <c r="Q29">
         <v>22835113396</v>
       </c>
-      <c r="R28">
+      <c r="R29">
         <v>7519073723</v>
       </c>
-      <c r="S28">
+      <c r="S29">
         <v>6041270235</v>
       </c>
-      <c r="T28">
+      <c r="T29">
         <v>6705120210</v>
       </c>
-      <c r="U28">
+      <c r="U29">
         <v>982044017</v>
       </c>
-      <c r="V28">
+      <c r="V29">
         <v>5119066139</v>
       </c>
-      <c r="W28">
+      <c r="W29">
         <v>5870093710</v>
       </c>
-      <c r="X28">
+      <c r="X29">
         <v>1198587470</v>
       </c>
-      <c r="Y28" t="s">
-        <v>178</v>
+      <c r="Y29" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="187">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -94,6 +94,9 @@
     <t>2023-12-08</t>
   </si>
   <si>
+    <t>2023-12-04</t>
+  </si>
+  <si>
     <t>2023-11-22</t>
   </si>
   <si>
@@ -208,6 +211,9 @@
     <t>하나</t>
   </si>
   <si>
+    <t>IBK</t>
+  </si>
+  <si>
     <t>키움, KB</t>
   </si>
   <si>
@@ -244,9 +250,6 @@
     <t>한국</t>
   </si>
   <si>
-    <t>IBK</t>
-  </si>
-  <si>
     <t>신한</t>
   </si>
   <si>
@@ -256,6 +259,9 @@
     <t>하나30호스팩</t>
   </si>
   <si>
+    <t>IBKS제23호스팩</t>
+  </si>
+  <si>
     <t>LS머트리얼즈</t>
   </si>
   <si>
@@ -340,6 +346,9 @@
     <t>708.35:1</t>
   </si>
   <si>
+    <t>855.86</t>
+  </si>
+  <si>
     <t>396.84</t>
   </si>
   <si>
@@ -494,6 +503,9 @@
   </si>
   <si>
     <t>기업인수합병</t>
+  </si>
+  <si>
+    <t>기업인수 및 합병</t>
   </si>
   <si>
     <t>울트라커패시터(셀 및 모듈)</t>
@@ -920,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1008,16 +1020,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2">
         <v>7000000</v>
@@ -1044,10 +1056,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1077,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1085,46 +1097,46 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F3">
-        <v>14625000</v>
+        <v>4000000</v>
       </c>
       <c r="G3">
-        <v>8775000</v>
+        <v>4000000</v>
       </c>
       <c r="H3">
-        <v>5850000</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="K3">
-        <v>67652659</v>
+        <v>4230000</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1154,84 +1166,84 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
         <v>48</v>
       </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F4">
-        <v>1400000</v>
+        <v>14625000</v>
       </c>
       <c r="G4">
-        <v>1400000</v>
+        <v>8775000</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5850000</v>
       </c>
       <c r="I4">
-        <v>15000</v>
+        <v>4400</v>
       </c>
       <c r="J4">
-        <v>19000</v>
+        <v>5500</v>
       </c>
       <c r="K4">
-        <v>10650189</v>
+        <v>67652659</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="N4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P4">
-        <v>49637696375</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>77146751918</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>41854695636</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-2726643993</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>890609048</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>176442923</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>-7688787420</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>-14330655532</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>286239267</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1245,70 +1257,70 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5">
-        <v>3500000</v>
+        <v>1400000</v>
       </c>
       <c r="G5">
-        <v>3500000</v>
+        <v>1400000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="K5">
-        <v>3810000</v>
+        <v>10650189</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2000</v>
+        <v>19000</v>
       </c>
       <c r="N5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>49637696375</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>77146751918</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>41854695636</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>-2726643993</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>890609048</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>176442923</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>-7688787420</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>-14330655532</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>286239267</v>
       </c>
       <c r="Y5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1316,73 +1328,73 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F6">
-        <v>750000</v>
+        <v>3500000</v>
       </c>
       <c r="G6">
-        <v>750000</v>
+        <v>3500000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="J6">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="K6">
-        <v>3883557</v>
+        <v>3810000</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P6">
-        <v>28564316</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>34734790</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>19566070</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>4032783</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>6075261</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>3863017</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>3909264</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>4830718</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>2876182</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="s">
         <v>162</v>
@@ -1393,123 +1405,123 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F7">
-        <v>1500000</v>
+        <v>750000</v>
       </c>
       <c r="G7">
-        <v>1500000</v>
+        <v>750000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="J7">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="K7">
-        <v>13866898</v>
+        <v>3883557</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="N7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>28564316</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>34734790</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>19566070</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>4032783</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>6075261</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>3863017</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>3909264</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>4830718</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>2876182</v>
       </c>
       <c r="Y7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F8">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="G8">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J8">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K8">
-        <v>11050000</v>
+        <v>13866898</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="N8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O8" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1539,84 +1551,84 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F9">
-        <v>650000</v>
+        <v>10000000</v>
       </c>
       <c r="G9">
-        <v>650000</v>
+        <v>10000000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23000</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="K9">
-        <v>5345180</v>
+        <v>11050000</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P9">
-        <v>55809022</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>53633878</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>47971262</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>-4601725</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>-7645858</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>-5922868</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>-20523948</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>-12027347</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-8387901</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1624,76 +1636,76 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F10">
-        <v>8000000</v>
+        <v>650000</v>
       </c>
       <c r="G10">
-        <v>8000000</v>
+        <v>650000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>23000</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="K10">
-        <v>9100000</v>
+        <v>5345180</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>55809022</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>53633878</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>47971262</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>-4601725</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>-7645858</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>-5922868</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>-20523948</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>-12027347</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>-8387901</v>
       </c>
       <c r="Y10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1701,46 +1713,46 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F11">
-        <v>1407000</v>
+        <v>8000000</v>
       </c>
       <c r="G11">
-        <v>844000</v>
+        <v>8000000</v>
       </c>
       <c r="H11">
-        <v>563000</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>21000</v>
+        <v>2000</v>
       </c>
       <c r="J11">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="K11">
-        <v>5657215</v>
+        <v>9100000</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>28000</v>
+        <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1770,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1778,76 +1790,76 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F12">
-        <v>1640000</v>
+        <v>1407000</v>
       </c>
       <c r="G12">
-        <v>1640000</v>
+        <v>844000</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>563000</v>
       </c>
       <c r="I12">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="J12">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="K12">
-        <v>8183944</v>
+        <v>5657215</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P12">
-        <v>13660</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>25085</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>8905</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>3108</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>3731</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>2219</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>1157</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>3465</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>1666</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1855,76 +1867,76 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F13">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="G13">
-        <v>3350000</v>
+        <v>1640000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="J13">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="K13">
-        <v>13436499</v>
+        <v>8183944</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P13">
-        <v>47984</v>
+        <v>13660</v>
       </c>
       <c r="Q13">
-        <v>51031</v>
+        <v>25085</v>
       </c>
       <c r="R13">
-        <v>29425</v>
+        <v>8905</v>
       </c>
       <c r="S13">
-        <v>10526</v>
+        <v>3108</v>
       </c>
       <c r="T13">
-        <v>11804</v>
+        <v>3731</v>
       </c>
       <c r="U13">
-        <v>7008</v>
+        <v>2219</v>
       </c>
       <c r="V13">
-        <v>8661</v>
+        <v>1157</v>
       </c>
       <c r="W13">
-        <v>9582</v>
+        <v>3465</v>
       </c>
       <c r="X13">
-        <v>5612</v>
+        <v>1666</v>
       </c>
       <c r="Y13" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1935,73 +1947,73 @@
         <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="G14">
-        <v>4250000</v>
+        <v>3350000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5200</v>
+        <v>8000</v>
       </c>
       <c r="J14">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="K14">
-        <v>17002500</v>
+        <v>13436499</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P14">
-        <v>27199897007</v>
+        <v>47984</v>
       </c>
       <c r="Q14">
-        <v>40971122327</v>
+        <v>51031</v>
       </c>
       <c r="R14">
-        <v>25300714406</v>
+        <v>29425</v>
       </c>
       <c r="S14">
-        <v>2887034102</v>
+        <v>10526</v>
       </c>
       <c r="T14">
-        <v>7167697077</v>
+        <v>11804</v>
       </c>
       <c r="U14">
-        <v>4740280453</v>
+        <v>7008</v>
       </c>
       <c r="V14">
-        <v>2399514033</v>
+        <v>8661</v>
       </c>
       <c r="W14">
-        <v>5498221693</v>
+        <v>9582</v>
       </c>
       <c r="X14">
-        <v>3402334635</v>
+        <v>5612</v>
       </c>
       <c r="Y14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2009,76 +2021,76 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F15">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="G15">
-        <v>2079000</v>
+        <v>4250000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>28500</v>
+        <v>5200</v>
       </c>
       <c r="J15">
-        <v>34700</v>
+        <v>6000</v>
       </c>
       <c r="K15">
-        <v>9877043</v>
+        <v>17002500</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>34700</v>
+        <v>7000</v>
       </c>
       <c r="N15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P15">
-        <v>26994234332</v>
+        <v>27199897007</v>
       </c>
       <c r="Q15">
-        <v>60121142197</v>
+        <v>40971122327</v>
       </c>
       <c r="R15">
-        <v>53305665235</v>
+        <v>25300714406</v>
       </c>
       <c r="S15">
-        <v>10162848799</v>
+        <v>2887034102</v>
       </c>
       <c r="T15">
-        <v>20033029594</v>
+        <v>7167697077</v>
       </c>
       <c r="U15">
-        <v>19806683734</v>
+        <v>4740280453</v>
       </c>
       <c r="V15">
-        <v>7996520497</v>
+        <v>2399514033</v>
       </c>
       <c r="W15">
-        <v>15559454518</v>
+        <v>5498221693</v>
       </c>
       <c r="X15">
-        <v>15932218050</v>
+        <v>3402334635</v>
       </c>
       <c r="Y15" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2086,76 +2098,76 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F16">
-        <v>1596000</v>
+        <v>2079000</v>
       </c>
       <c r="G16">
-        <v>1596000</v>
+        <v>2079000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3200</v>
+        <v>28500</v>
       </c>
       <c r="J16">
-        <v>3600</v>
+        <v>34700</v>
       </c>
       <c r="K16">
-        <v>13346380</v>
+        <v>9877043</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4000</v>
+        <v>34700</v>
       </c>
       <c r="N16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P16">
-        <v>7668281979</v>
+        <v>26994234332</v>
       </c>
       <c r="Q16">
-        <v>7100921456</v>
+        <v>60121142197</v>
       </c>
       <c r="R16">
-        <v>1207846478</v>
+        <v>53305665235</v>
       </c>
       <c r="S16">
-        <v>5659403971</v>
+        <v>10162848799</v>
       </c>
       <c r="T16">
-        <v>6124121466</v>
+        <v>20033029594</v>
       </c>
       <c r="U16">
-        <v>940668827</v>
+        <v>19806683734</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>7996520497</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>15559454518</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>15932218050</v>
       </c>
       <c r="Y16" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2166,73 +2178,73 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F17">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="G17">
-        <v>1600000</v>
+        <v>1596000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>29800</v>
+        <v>3200</v>
       </c>
       <c r="J17">
-        <v>33500</v>
+        <v>3600</v>
       </c>
       <c r="K17">
-        <v>13612736</v>
+        <v>13346380</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="N17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7668281979</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>7100921456</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1207846478</v>
       </c>
       <c r="S17">
-        <v>-15286512079</v>
+        <v>5659403971</v>
       </c>
       <c r="T17">
-        <v>-21424611321</v>
+        <v>6124121466</v>
       </c>
       <c r="U17">
-        <v>-139745251263</v>
+        <v>940668827</v>
       </c>
       <c r="V17">
-        <v>-53575668634</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>-38885125426</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-12610702106</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2240,76 +2252,76 @@
         <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F18">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="G18">
-        <v>2636330</v>
+        <v>1600000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>19100</v>
+        <v>29800</v>
       </c>
       <c r="J18">
-        <v>21400</v>
+        <v>33500</v>
       </c>
       <c r="K18">
-        <v>10585320</v>
+        <v>13612736</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O18" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P18">
-        <v>45195788</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>69629209</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>35634471</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>2751277</v>
+        <v>-15286512079</v>
       </c>
       <c r="T18">
-        <v>11449731</v>
+        <v>-21424611321</v>
       </c>
       <c r="U18">
-        <v>2482194</v>
+        <v>-139745251263</v>
       </c>
       <c r="V18">
-        <v>2092692</v>
+        <v>-53575668634</v>
       </c>
       <c r="W18">
-        <v>5149538</v>
+        <v>-38885125426</v>
       </c>
       <c r="X18">
-        <v>2327401</v>
+        <v>-12610702106</v>
       </c>
       <c r="Y18" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2317,384 +2329,384 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F19">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="G19">
-        <v>4000000</v>
+        <v>2636330</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2000</v>
+        <v>19100</v>
       </c>
       <c r="J19">
-        <v>2000</v>
+        <v>21400</v>
       </c>
       <c r="K19">
-        <v>4320000</v>
+        <v>10585320</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2000</v>
+        <v>25000</v>
       </c>
       <c r="N19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O19" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>45195788</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>69629209</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>35634471</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>2751277</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>11449731</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>2482194</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>2092692</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>5149538</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>2327401</v>
       </c>
       <c r="Y19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F20">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="G20">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="J20">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K20">
-        <v>30610000</v>
+        <v>4320000</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O20" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="P20">
-        <v>67332006578</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>100050838794</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>63366010569</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>1140243099</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>8333440685</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>7415958936</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>668088159</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>5930478364</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>5666583221</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F21">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="G21">
-        <v>5200000</v>
+        <v>7000000</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J21">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K21">
-        <v>20771000</v>
+        <v>30610000</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="N21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P21">
-        <v>39450601</v>
+        <v>67332006578</v>
       </c>
       <c r="Q21">
-        <v>49044883</v>
+        <v>100050838794</v>
       </c>
       <c r="R21">
-        <v>21826468</v>
+        <v>63366010569</v>
       </c>
       <c r="S21">
-        <v>2477559</v>
+        <v>1140243099</v>
       </c>
       <c r="T21">
-        <v>8094900</v>
+        <v>8333440685</v>
       </c>
       <c r="U21">
-        <v>215154</v>
+        <v>7415958936</v>
       </c>
       <c r="V21">
-        <v>3427734</v>
+        <v>668088159</v>
       </c>
       <c r="W21">
-        <v>6575528</v>
+        <v>5930478364</v>
       </c>
       <c r="X21">
-        <v>349843</v>
+        <v>5666583221</v>
       </c>
       <c r="Y21" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
         <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F22">
-        <v>2060000</v>
+        <v>5200000</v>
       </c>
       <c r="G22">
-        <v>2000000</v>
+        <v>5200000</v>
       </c>
       <c r="H22">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>20300</v>
+        <v>3500</v>
       </c>
       <c r="J22">
-        <v>22500</v>
+        <v>4000</v>
       </c>
       <c r="K22">
-        <v>14384224</v>
+        <v>20771000</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22500</v>
+        <v>4800</v>
       </c>
       <c r="N22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P22">
-        <v>5787300240</v>
+        <v>39450601</v>
       </c>
       <c r="Q22">
-        <v>1914633847</v>
+        <v>49044883</v>
       </c>
       <c r="R22">
-        <v>3156092272</v>
+        <v>21826468</v>
       </c>
       <c r="S22">
-        <v>-1798278694</v>
+        <v>2477559</v>
       </c>
       <c r="T22">
-        <v>-1453689952</v>
+        <v>8094900</v>
       </c>
       <c r="U22">
-        <v>-4067648306</v>
+        <v>215154</v>
       </c>
       <c r="V22">
-        <v>-12449932055</v>
+        <v>3427734</v>
       </c>
       <c r="W22">
-        <v>-7426231074</v>
+        <v>6575528</v>
       </c>
       <c r="X22">
-        <v>-52132058866</v>
+        <v>349843</v>
       </c>
       <c r="Y22" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F23">
-        <v>1200000</v>
+        <v>2060000</v>
       </c>
       <c r="G23">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="I23">
-        <v>9100</v>
+        <v>20300</v>
       </c>
       <c r="J23">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="K23">
-        <v>7206940</v>
+        <v>14384224</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="N23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P23">
-        <v>20924</v>
+        <v>5787300240</v>
       </c>
       <c r="Q23">
-        <v>27659</v>
+        <v>1914633847</v>
       </c>
       <c r="R23">
-        <v>11818</v>
+        <v>3156092272</v>
       </c>
       <c r="S23">
-        <v>2838</v>
+        <v>-1798278694</v>
       </c>
       <c r="T23">
-        <v>4563</v>
+        <v>-1453689952</v>
       </c>
       <c r="U23">
-        <v>-1222</v>
+        <v>-4067648306</v>
       </c>
       <c r="V23">
-        <v>2413</v>
+        <v>-12449932055</v>
       </c>
       <c r="W23">
-        <v>3190</v>
+        <v>-7426231074</v>
       </c>
       <c r="X23">
-        <v>-862</v>
+        <v>-52132058866</v>
       </c>
       <c r="Y23" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2702,230 +2714,230 @@
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F24">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="G24">
-        <v>3600000</v>
+        <v>1200000</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>5000</v>
+        <v>9100</v>
       </c>
       <c r="J24">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="K24">
-        <v>17306490</v>
+        <v>7206940</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="N24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P24">
-        <v>21976760922</v>
+        <v>20924</v>
       </c>
       <c r="Q24">
-        <v>15839004968</v>
+        <v>27659</v>
       </c>
       <c r="R24">
-        <v>6887755932</v>
+        <v>11818</v>
       </c>
       <c r="S24">
-        <v>-2217897363</v>
+        <v>2838</v>
       </c>
       <c r="T24">
-        <v>-3403228196</v>
+        <v>4563</v>
       </c>
       <c r="U24">
-        <v>-2758864194</v>
+        <v>-1222</v>
       </c>
       <c r="V24">
-        <v>-5110677395</v>
+        <v>2413</v>
       </c>
       <c r="W24">
-        <v>-29510193610</v>
+        <v>3190</v>
       </c>
       <c r="X24">
-        <v>-2514471056</v>
+        <v>-862</v>
       </c>
       <c r="Y24" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F25">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="G25">
-        <v>12500000</v>
+        <v>3600000</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="J25">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="K25">
-        <v>12905000</v>
+        <v>17306490</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="N25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O25" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>21976760922</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>15839004968</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>6887755932</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>-2217897363</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>-3403228196</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>-2758864194</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>-5110677395</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>-29510193610</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>-2514471056</v>
       </c>
       <c r="Y25" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F26">
-        <v>1049482</v>
+        <v>12500000</v>
       </c>
       <c r="G26">
-        <v>944534</v>
+        <v>12500000</v>
       </c>
       <c r="H26">
-        <v>104948</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>12800</v>
+        <v>2000</v>
       </c>
       <c r="J26">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="K26">
-        <v>6261485</v>
+        <v>12905000</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O26" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="P26">
-        <v>34557425427</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>39824841246</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>23231897516</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>3011651602</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>2384643399</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>4436005255</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>2755379556</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>1176755354</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>4046949430</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2933,76 +2945,76 @@
         <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F27">
-        <v>1128720</v>
+        <v>1049482</v>
       </c>
       <c r="G27">
-        <v>1128720</v>
+        <v>944534</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>104948</v>
       </c>
       <c r="I27">
-        <v>3300</v>
+        <v>12800</v>
       </c>
       <c r="J27">
-        <v>3900</v>
+        <v>14500</v>
       </c>
       <c r="K27">
-        <v>11287196</v>
+        <v>6261485</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>4400</v>
+        <v>17000</v>
       </c>
       <c r="N27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O27" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P27">
-        <v>50552623684</v>
+        <v>34557425427</v>
       </c>
       <c r="Q27">
-        <v>69013134090</v>
+        <v>39824841246</v>
       </c>
       <c r="R27">
-        <v>16887814423</v>
+        <v>23231897516</v>
       </c>
       <c r="S27">
-        <v>9027232647</v>
+        <v>3011651602</v>
       </c>
       <c r="T27">
-        <v>15707796256</v>
+        <v>2384643399</v>
       </c>
       <c r="U27">
-        <v>555562560</v>
+        <v>4436005255</v>
       </c>
       <c r="V27">
-        <v>9236341465</v>
+        <v>2755379556</v>
       </c>
       <c r="W27">
-        <v>13159994846</v>
+        <v>1176755354</v>
       </c>
       <c r="X27">
-        <v>1236029732</v>
+        <v>4046949430</v>
       </c>
       <c r="Y27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -3010,76 +3022,76 @@
         <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F28">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="G28">
-        <v>1800000</v>
+        <v>1128720</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="J28">
-        <v>15000</v>
+        <v>3900</v>
       </c>
       <c r="K28">
-        <v>10193520</v>
+        <v>11287196</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>17000</v>
+        <v>4400</v>
       </c>
       <c r="N28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O28" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P28">
-        <v>3952070068</v>
+        <v>50552623684</v>
       </c>
       <c r="Q28">
-        <v>10789274729</v>
+        <v>69013134090</v>
       </c>
       <c r="R28">
-        <v>6040367765</v>
+        <v>16887814423</v>
       </c>
       <c r="S28">
-        <v>-4741577598</v>
+        <v>9027232647</v>
       </c>
       <c r="T28">
-        <v>-3671026788</v>
+        <v>15707796256</v>
       </c>
       <c r="U28">
-        <v>-3292521363</v>
+        <v>555562560</v>
       </c>
       <c r="V28">
-        <v>-3654889267</v>
+        <v>9236341465</v>
       </c>
       <c r="W28">
-        <v>-2281074471</v>
+        <v>13159994846</v>
       </c>
       <c r="X28">
-        <v>-2539505707</v>
+        <v>1236029732</v>
       </c>
       <c r="Y28" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -3087,76 +3099,153 @@
         <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F29">
+        <v>1800000</v>
+      </c>
+      <c r="G29">
+        <v>1800000</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>13000</v>
+      </c>
+      <c r="J29">
+        <v>15000</v>
+      </c>
+      <c r="K29">
+        <v>10193520</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>17000</v>
+      </c>
+      <c r="N29" t="s">
+        <v>136</v>
+      </c>
+      <c r="O29" t="s">
+        <v>160</v>
+      </c>
+      <c r="P29">
+        <v>3952070068</v>
+      </c>
+      <c r="Q29">
+        <v>10789274729</v>
+      </c>
+      <c r="R29">
+        <v>6040367765</v>
+      </c>
+      <c r="S29">
+        <v>-4741577598</v>
+      </c>
+      <c r="T29">
+        <v>-3671026788</v>
+      </c>
+      <c r="U29">
+        <v>-3292521363</v>
+      </c>
+      <c r="V29">
+        <v>-3654889267</v>
+      </c>
+      <c r="W29">
+        <v>-2281074471</v>
+      </c>
+      <c r="X29">
+        <v>-2539505707</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30">
         <v>4000000</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>4000000</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>5000</v>
       </c>
-      <c r="J29">
+      <c r="J30">
         <v>5600</v>
       </c>
-      <c r="K29">
+      <c r="K30">
         <v>16120000</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>6500</v>
       </c>
-      <c r="N29" t="s">
-        <v>134</v>
-      </c>
-      <c r="O29" t="s">
-        <v>158</v>
-      </c>
-      <c r="P29">
+      <c r="N30" t="s">
+        <v>137</v>
+      </c>
+      <c r="O30" t="s">
+        <v>161</v>
+      </c>
+      <c r="P30">
         <v>26691070764</v>
       </c>
-      <c r="Q29">
+      <c r="Q30">
         <v>22835113396</v>
       </c>
-      <c r="R29">
+      <c r="R30">
         <v>7519073723</v>
       </c>
-      <c r="S29">
+      <c r="S30">
         <v>6041270235</v>
       </c>
-      <c r="T29">
+      <c r="T30">
         <v>6705120210</v>
       </c>
-      <c r="U29">
+      <c r="U30">
         <v>982044017</v>
       </c>
-      <c r="V29">
+      <c r="V30">
         <v>5119066139</v>
       </c>
-      <c r="W29">
+      <c r="W30">
         <v>5870093710</v>
       </c>
-      <c r="X29">
+      <c r="X30">
         <v>1198587470</v>
       </c>
-      <c r="Y29" t="s">
-        <v>182</v>
+      <c r="Y30" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="175">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -154,12 +154,6 @@
     <t>2023-10-18</t>
   </si>
   <si>
-    <t>2023-10-06</t>
-  </si>
-  <si>
-    <t>2023-10-05</t>
-  </si>
-  <si>
     <t>2023-12-12</t>
   </si>
   <si>
@@ -181,9 +175,6 @@
     <t>2023-10-27</t>
   </si>
   <si>
-    <t>2023-10-13</t>
-  </si>
-  <si>
     <t>2023-12-22</t>
   </si>
   <si>
@@ -253,9 +244,6 @@
     <t>신한</t>
   </si>
   <si>
-    <t>키움</t>
-  </si>
-  <si>
     <t>하나30호스팩</t>
   </si>
   <si>
@@ -337,12 +325,6 @@
     <t>유투바이오</t>
   </si>
   <si>
-    <t>퀄리타스반도체</t>
-  </si>
-  <si>
-    <t>워트</t>
-  </si>
-  <si>
     <t>708.35:1</t>
   </si>
   <si>
@@ -424,12 +406,6 @@
     <t>1,276.73:1</t>
   </si>
   <si>
-    <t>818.52:1</t>
-  </si>
-  <si>
-    <t>793.26:1</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -496,12 +472,6 @@
     <t>2.35%</t>
   </si>
   <si>
-    <t>22.25%</t>
-  </si>
-  <si>
-    <t>10.06%</t>
-  </si>
-  <si>
     <t>기업인수합병</t>
   </si>
   <si>
@@ -569,12 +539,6 @@
   </si>
   <si>
     <t>체외진단검사서비스, 의료IT솔루션</t>
-  </si>
-  <si>
-    <t>초고속 통신용 반도체 IP</t>
-  </si>
-  <si>
-    <t>초정밀 온습도 제어장비</t>
   </si>
 </sst>
 </file>
@@ -932,7 +896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1020,16 +984,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F2">
         <v>7000000</v>
@@ -1056,10 +1020,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="O2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1089,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1100,13 +1064,13 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F3">
         <v>4000000</v>
@@ -1133,10 +1097,10 @@
         <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="O3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1166,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1174,16 +1138,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F4">
         <v>14625000</v>
@@ -1210,10 +1174,10 @@
         <v>6000</v>
       </c>
       <c r="N4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1243,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1251,16 +1215,16 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F5">
         <v>1400000</v>
@@ -1287,10 +1251,10 @@
         <v>19000</v>
       </c>
       <c r="N5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="P5">
         <v>49637696375</v>
@@ -1320,7 +1284,7 @@
         <v>286239267</v>
       </c>
       <c r="Y5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1328,16 +1292,16 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F6">
         <v>3500000</v>
@@ -1364,10 +1328,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="O6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1397,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1408,13 +1372,13 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F7">
         <v>750000</v>
@@ -1441,10 +1405,10 @@
         <v>23000</v>
       </c>
       <c r="N7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="O7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="P7">
         <v>28564316</v>
@@ -1474,7 +1438,7 @@
         <v>2876182</v>
       </c>
       <c r="Y7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1485,13 +1449,13 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F8">
         <v>1500000</v>
@@ -1518,10 +1482,10 @@
         <v>9000</v>
       </c>
       <c r="N8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1551,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1559,16 +1523,16 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F9">
         <v>10000000</v>
@@ -1595,10 +1559,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1628,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1639,13 +1603,13 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
         <v>61</v>
       </c>
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F10">
         <v>650000</v>
@@ -1672,10 +1636,10 @@
         <v>18000</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="P10">
         <v>55809022</v>
@@ -1705,7 +1669,7 @@
         <v>-8387901</v>
       </c>
       <c r="Y10" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1716,13 +1680,13 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F11">
         <v>8000000</v>
@@ -1749,10 +1713,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1782,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1790,16 +1754,16 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F12">
         <v>1407000</v>
@@ -1826,10 +1790,10 @@
         <v>28000</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="O12" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1859,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1870,13 +1834,13 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F13">
         <v>1640000</v>
@@ -1903,10 +1867,10 @@
         <v>17000</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O13" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="P13">
         <v>13660</v>
@@ -1936,7 +1900,7 @@
         <v>1666</v>
       </c>
       <c r="Y13" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1944,16 +1908,16 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F14">
         <v>3350000</v>
@@ -1980,10 +1944,10 @@
         <v>11000</v>
       </c>
       <c r="N14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="O14" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="P14">
         <v>47984</v>
@@ -2013,7 +1977,7 @@
         <v>5612</v>
       </c>
       <c r="Y14" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2021,16 +1985,16 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F15">
         <v>4250000</v>
@@ -2057,10 +2021,10 @@
         <v>7000</v>
       </c>
       <c r="N15" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="O15" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="P15">
         <v>27199897007</v>
@@ -2090,7 +2054,7 @@
         <v>3402334635</v>
       </c>
       <c r="Y15" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2101,13 +2065,13 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F16">
         <v>2079000</v>
@@ -2134,10 +2098,10 @@
         <v>34700</v>
       </c>
       <c r="N16" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="O16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="P16">
         <v>26994234332</v>
@@ -2167,7 +2131,7 @@
         <v>15932218050</v>
       </c>
       <c r="Y16" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2181,10 +2145,10 @@
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F17">
         <v>1596000</v>
@@ -2211,10 +2175,10 @@
         <v>4000</v>
       </c>
       <c r="N17" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="O17" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="P17">
         <v>7668281979</v>
@@ -2244,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2258,10 +2222,10 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F18">
         <v>1600000</v>
@@ -2288,10 +2252,10 @@
         <v>20000</v>
       </c>
       <c r="N18" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2321,7 +2285,7 @@
         <v>-12610702106</v>
       </c>
       <c r="Y18" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2329,16 +2293,16 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F19">
         <v>2636330</v>
@@ -2365,10 +2329,10 @@
         <v>25000</v>
       </c>
       <c r="N19" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O19" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="P19">
         <v>45195788</v>
@@ -2398,7 +2362,7 @@
         <v>2327401</v>
       </c>
       <c r="Y19" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2409,13 +2373,13 @@
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F20">
         <v>4000000</v>
@@ -2442,10 +2406,10 @@
         <v>2000</v>
       </c>
       <c r="N20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="O20" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -2475,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2483,16 +2447,16 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F21">
         <v>7000000</v>
@@ -2519,10 +2483,10 @@
         <v>1800</v>
       </c>
       <c r="N21" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="O21" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="P21">
         <v>67332006578</v>
@@ -2552,7 +2516,7 @@
         <v>5666583221</v>
       </c>
       <c r="Y21" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2566,10 +2530,10 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F22">
         <v>5200000</v>
@@ -2596,10 +2560,10 @@
         <v>4800</v>
       </c>
       <c r="N22" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="O22" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="P22">
         <v>39450601</v>
@@ -2629,7 +2593,7 @@
         <v>349843</v>
       </c>
       <c r="Y22" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2643,10 +2607,10 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F23">
         <v>2060000</v>
@@ -2673,10 +2637,10 @@
         <v>22500</v>
       </c>
       <c r="N23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="O23" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="P23">
         <v>5787300240</v>
@@ -2706,7 +2670,7 @@
         <v>-52132058866</v>
       </c>
       <c r="Y23" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2720,10 +2684,10 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F24">
         <v>1200000</v>
@@ -2750,10 +2714,10 @@
         <v>13000</v>
       </c>
       <c r="N24" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="O24" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="P24">
         <v>20924</v>
@@ -2783,7 +2747,7 @@
         <v>-862</v>
       </c>
       <c r="Y24" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2797,10 +2761,10 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F25">
         <v>3600000</v>
@@ -2827,10 +2791,10 @@
         <v>7500</v>
       </c>
       <c r="N25" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="O25" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="P25">
         <v>21976760922</v>
@@ -2860,7 +2824,7 @@
         <v>-2514471056</v>
       </c>
       <c r="Y25" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2874,10 +2838,10 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F26">
         <v>12500000</v>
@@ -2904,10 +2868,10 @@
         <v>2000</v>
       </c>
       <c r="N26" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="O26" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2937,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2951,10 +2915,10 @@
         <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F27">
         <v>1049482</v>
@@ -2981,10 +2945,10 @@
         <v>17000</v>
       </c>
       <c r="N27" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O27" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="P27">
         <v>34557425427</v>
@@ -3014,7 +2978,7 @@
         <v>4046949430</v>
       </c>
       <c r="Y27" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -3028,10 +2992,10 @@
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F28">
         <v>1128720</v>
@@ -3058,10 +3022,10 @@
         <v>4400</v>
       </c>
       <c r="N28" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O28" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="P28">
         <v>50552623684</v>
@@ -3091,161 +3055,7 @@
         <v>1236029732</v>
       </c>
       <c r="Y28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29">
-        <v>1800000</v>
-      </c>
-      <c r="G29">
-        <v>1800000</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>13000</v>
-      </c>
-      <c r="J29">
-        <v>15000</v>
-      </c>
-      <c r="K29">
-        <v>10193520</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>17000</v>
-      </c>
-      <c r="N29" t="s">
-        <v>136</v>
-      </c>
-      <c r="O29" t="s">
-        <v>160</v>
-      </c>
-      <c r="P29">
-        <v>3952070068</v>
-      </c>
-      <c r="Q29">
-        <v>10789274729</v>
-      </c>
-      <c r="R29">
-        <v>6040367765</v>
-      </c>
-      <c r="S29">
-        <v>-4741577598</v>
-      </c>
-      <c r="T29">
-        <v>-3671026788</v>
-      </c>
-      <c r="U29">
-        <v>-3292521363</v>
-      </c>
-      <c r="V29">
-        <v>-3654889267</v>
-      </c>
-      <c r="W29">
-        <v>-2281074471</v>
-      </c>
-      <c r="X29">
-        <v>-2539505707</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
-      <c r="A30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30">
-        <v>4000000</v>
-      </c>
-      <c r="G30">
-        <v>4000000</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>5000</v>
-      </c>
-      <c r="J30">
-        <v>5600</v>
-      </c>
-      <c r="K30">
-        <v>16120000</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>6500</v>
-      </c>
-      <c r="N30" t="s">
-        <v>137</v>
-      </c>
-      <c r="O30" t="s">
-        <v>161</v>
-      </c>
-      <c r="P30">
-        <v>26691070764</v>
-      </c>
-      <c r="Q30">
-        <v>22835113396</v>
-      </c>
-      <c r="R30">
-        <v>7519073723</v>
-      </c>
-      <c r="S30">
-        <v>6041270235</v>
-      </c>
-      <c r="T30">
-        <v>6705120210</v>
-      </c>
-      <c r="U30">
-        <v>982044017</v>
-      </c>
-      <c r="V30">
-        <v>5119066139</v>
-      </c>
-      <c r="W30">
-        <v>5870093710</v>
-      </c>
-      <c r="X30">
-        <v>1198587470</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="162">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -148,12 +148,6 @@
     <t>2023-10-17</t>
   </si>
   <si>
-    <t>2023-10-11</t>
-  </si>
-  <si>
-    <t>2023-10-18</t>
-  </si>
-  <si>
     <t>2023-12-12</t>
   </si>
   <si>
@@ -241,9 +235,6 @@
     <t>한국</t>
   </si>
   <si>
-    <t>신한</t>
-  </si>
-  <si>
     <t>하나30호스팩</t>
   </si>
   <si>
@@ -316,15 +307,6 @@
     <t>쏘닉스</t>
   </si>
   <si>
-    <t>KB제27호스팩</t>
-  </si>
-  <si>
-    <t>유진테크놀로지</t>
-  </si>
-  <si>
-    <t>유투바이오</t>
-  </si>
-  <si>
     <t>708.35:1</t>
   </si>
   <si>
@@ -397,15 +379,6 @@
     <t>716.50:1</t>
   </si>
   <si>
-    <t>10.14:1</t>
-  </si>
-  <si>
-    <t>914.02:1</t>
-  </si>
-  <si>
-    <t>1,276.73:1</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -466,12 +439,6 @@
     <t>1.39%</t>
   </si>
   <si>
-    <t>17.63%</t>
-  </si>
-  <si>
-    <t>2.35%</t>
-  </si>
-  <si>
     <t>기업인수합병</t>
   </si>
   <si>
@@ -533,12 +500,6 @@
   </si>
   <si>
     <t>RF필터 파운드리</t>
-  </si>
-  <si>
-    <t>이차전지 정밀금형 외</t>
-  </si>
-  <si>
-    <t>체외진단검사서비스, 의료IT솔루션</t>
   </si>
 </sst>
 </file>
@@ -896,7 +857,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -984,16 +945,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F2">
         <v>7000000</v>
@@ -1020,10 +981,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1053,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1064,13 +1025,13 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F3">
         <v>4000000</v>
@@ -1097,10 +1058,10 @@
         <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1130,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1138,16 +1099,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F4">
         <v>14625000</v>
@@ -1174,10 +1135,10 @@
         <v>6000</v>
       </c>
       <c r="N4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1207,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1215,16 +1176,16 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F5">
         <v>1400000</v>
@@ -1251,10 +1212,10 @@
         <v>19000</v>
       </c>
       <c r="N5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="P5">
         <v>49637696375</v>
@@ -1284,7 +1245,7 @@
         <v>286239267</v>
       </c>
       <c r="Y5" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1292,16 +1253,16 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F6">
         <v>3500000</v>
@@ -1328,10 +1289,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="O6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1361,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1372,13 +1333,13 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F7">
         <v>750000</v>
@@ -1405,10 +1366,10 @@
         <v>23000</v>
       </c>
       <c r="N7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="P7">
         <v>28564316</v>
@@ -1438,7 +1399,7 @@
         <v>2876182</v>
       </c>
       <c r="Y7" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1449,13 +1410,13 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F8">
         <v>1500000</v>
@@ -1482,10 +1443,10 @@
         <v>9000</v>
       </c>
       <c r="N8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1515,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1523,16 +1484,16 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F9">
         <v>10000000</v>
@@ -1559,10 +1520,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1592,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1603,13 +1564,13 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F10">
         <v>650000</v>
@@ -1636,10 +1597,10 @@
         <v>18000</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="P10">
         <v>55809022</v>
@@ -1669,7 +1630,7 @@
         <v>-8387901</v>
       </c>
       <c r="Y10" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1680,13 +1641,13 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F11">
         <v>8000000</v>
@@ -1713,10 +1674,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1746,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1754,16 +1715,16 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F12">
         <v>1407000</v>
@@ -1790,10 +1751,10 @@
         <v>28000</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="O12" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1823,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1834,13 +1795,13 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F13">
         <v>1640000</v>
@@ -1867,10 +1828,10 @@
         <v>17000</v>
       </c>
       <c r="N13" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="O13" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="P13">
         <v>13660</v>
@@ -1900,7 +1861,7 @@
         <v>1666</v>
       </c>
       <c r="Y13" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1908,16 +1869,16 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F14">
         <v>3350000</v>
@@ -1944,10 +1905,10 @@
         <v>11000</v>
       </c>
       <c r="N14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O14" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="P14">
         <v>47984</v>
@@ -1977,7 +1938,7 @@
         <v>5612</v>
       </c>
       <c r="Y14" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1985,16 +1946,16 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F15">
         <v>4250000</v>
@@ -2021,10 +1982,10 @@
         <v>7000</v>
       </c>
       <c r="N15" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O15" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="P15">
         <v>27199897007</v>
@@ -2054,7 +2015,7 @@
         <v>3402334635</v>
       </c>
       <c r="Y15" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2065,13 +2026,13 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F16">
         <v>2079000</v>
@@ -2098,10 +2059,10 @@
         <v>34700</v>
       </c>
       <c r="N16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O16" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="P16">
         <v>26994234332</v>
@@ -2131,7 +2092,7 @@
         <v>15932218050</v>
       </c>
       <c r="Y16" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2145,10 +2106,10 @@
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F17">
         <v>1596000</v>
@@ -2175,10 +2136,10 @@
         <v>4000</v>
       </c>
       <c r="N17" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="O17" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="P17">
         <v>7668281979</v>
@@ -2208,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2222,10 +2183,10 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F18">
         <v>1600000</v>
@@ -2252,10 +2213,10 @@
         <v>20000</v>
       </c>
       <c r="N18" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="O18" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2285,7 +2246,7 @@
         <v>-12610702106</v>
       </c>
       <c r="Y18" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2293,16 +2254,16 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F19">
         <v>2636330</v>
@@ -2329,10 +2290,10 @@
         <v>25000</v>
       </c>
       <c r="N19" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O19" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="P19">
         <v>45195788</v>
@@ -2362,7 +2323,7 @@
         <v>2327401</v>
       </c>
       <c r="Y19" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2373,13 +2334,13 @@
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F20">
         <v>4000000</v>
@@ -2406,11 +2367,11 @@
         <v>2000</v>
       </c>
       <c r="N20" t="s">
+        <v>115</v>
+      </c>
+      <c r="O20" t="s">
         <v>121</v>
       </c>
-      <c r="O20" t="s">
-        <v>130</v>
-      </c>
       <c r="P20">
         <v>0</v>
       </c>
@@ -2439,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2447,16 +2408,16 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F21">
         <v>7000000</v>
@@ -2483,10 +2444,10 @@
         <v>1800</v>
       </c>
       <c r="N21" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="O21" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="P21">
         <v>67332006578</v>
@@ -2516,7 +2477,7 @@
         <v>5666583221</v>
       </c>
       <c r="Y21" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2530,10 +2491,10 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F22">
         <v>5200000</v>
@@ -2560,10 +2521,10 @@
         <v>4800</v>
       </c>
       <c r="N22" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="O22" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="P22">
         <v>39450601</v>
@@ -2593,7 +2554,7 @@
         <v>349843</v>
       </c>
       <c r="Y22" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2607,10 +2568,10 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F23">
         <v>2060000</v>
@@ -2637,10 +2598,10 @@
         <v>22500</v>
       </c>
       <c r="N23" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="O23" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="P23">
         <v>5787300240</v>
@@ -2670,7 +2631,7 @@
         <v>-52132058866</v>
       </c>
       <c r="Y23" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2684,10 +2645,10 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F24">
         <v>1200000</v>
@@ -2714,10 +2675,10 @@
         <v>13000</v>
       </c>
       <c r="N24" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O24" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="P24">
         <v>20924</v>
@@ -2747,7 +2708,7 @@
         <v>-862</v>
       </c>
       <c r="Y24" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2761,10 +2722,10 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F25">
         <v>3600000</v>
@@ -2791,10 +2752,10 @@
         <v>7500</v>
       </c>
       <c r="N25" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O25" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P25">
         <v>21976760922</v>
@@ -2824,238 +2785,7 @@
         <v>-2514471056</v>
       </c>
       <c r="Y25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26">
-        <v>12500000</v>
-      </c>
-      <c r="G26">
-        <v>12500000</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>2000</v>
-      </c>
-      <c r="J26">
-        <v>2000</v>
-      </c>
-      <c r="K26">
-        <v>12905000</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>2000</v>
-      </c>
-      <c r="N26" t="s">
-        <v>127</v>
-      </c>
-      <c r="O26" t="s">
-        <v>130</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27">
-        <v>1049482</v>
-      </c>
-      <c r="G27">
-        <v>944534</v>
-      </c>
-      <c r="H27">
-        <v>104948</v>
-      </c>
-      <c r="I27">
-        <v>12800</v>
-      </c>
-      <c r="J27">
-        <v>14500</v>
-      </c>
-      <c r="K27">
-        <v>6261485</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>17000</v>
-      </c>
-      <c r="N27" t="s">
-        <v>128</v>
-      </c>
-      <c r="O27" t="s">
-        <v>150</v>
-      </c>
-      <c r="P27">
-        <v>34557425427</v>
-      </c>
-      <c r="Q27">
-        <v>39824841246</v>
-      </c>
-      <c r="R27">
-        <v>23231897516</v>
-      </c>
-      <c r="S27">
-        <v>3011651602</v>
-      </c>
-      <c r="T27">
-        <v>2384643399</v>
-      </c>
-      <c r="U27">
-        <v>4436005255</v>
-      </c>
-      <c r="V27">
-        <v>2755379556</v>
-      </c>
-      <c r="W27">
-        <v>1176755354</v>
-      </c>
-      <c r="X27">
-        <v>4046949430</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28">
-        <v>1128720</v>
-      </c>
-      <c r="G28">
-        <v>1128720</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>3300</v>
-      </c>
-      <c r="J28">
-        <v>3900</v>
-      </c>
-      <c r="K28">
-        <v>11287196</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>4400</v>
-      </c>
-      <c r="N28" t="s">
-        <v>129</v>
-      </c>
-      <c r="O28" t="s">
-        <v>151</v>
-      </c>
-      <c r="P28">
-        <v>50552623684</v>
-      </c>
-      <c r="Q28">
-        <v>69013134090</v>
-      </c>
-      <c r="R28">
-        <v>16887814423</v>
-      </c>
-      <c r="S28">
-        <v>9027232647</v>
-      </c>
-      <c r="T28">
-        <v>15707796256</v>
-      </c>
-      <c r="U28">
-        <v>555562560</v>
-      </c>
-      <c r="V28">
-        <v>9236341465</v>
-      </c>
-      <c r="W28">
-        <v>13159994846</v>
-      </c>
-      <c r="X28">
-        <v>1236029732</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="157">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -145,9 +145,6 @@
     <t>2023-10-19</t>
   </si>
   <si>
-    <t>2023-10-17</t>
-  </si>
-  <si>
     <t>2023-12-12</t>
   </si>
   <si>
@@ -304,9 +301,6 @@
     <t>비아이매트릭스</t>
   </si>
   <si>
-    <t>쏘닉스</t>
-  </si>
-  <si>
     <t>708.35:1</t>
   </si>
   <si>
@@ -376,9 +370,6 @@
     <t>981.09:1</t>
   </si>
   <si>
-    <t>716.50:1</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -436,9 +427,6 @@
     <t>4.20%</t>
   </si>
   <si>
-    <t>1.39%</t>
-  </si>
-  <si>
     <t>기업인수합병</t>
   </si>
   <si>
@@ -497,9 +485,6 @@
   </si>
   <si>
     <t>로우코드 기반 코딩 자동화 솔루션 등</t>
-  </si>
-  <si>
-    <t>RF필터 파운드리</t>
   </si>
 </sst>
 </file>
@@ -857,7 +842,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -945,16 +930,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2">
         <v>7000000</v>
@@ -981,10 +966,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1014,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1025,13 +1010,13 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3">
         <v>4000000</v>
@@ -1058,10 +1043,10 @@
         <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1091,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1099,16 +1084,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4">
         <v>14625000</v>
@@ -1135,10 +1120,10 @@
         <v>6000</v>
       </c>
       <c r="N4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1168,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1176,16 +1161,16 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5">
         <v>1400000</v>
@@ -1212,10 +1197,10 @@
         <v>19000</v>
       </c>
       <c r="N5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P5">
         <v>49637696375</v>
@@ -1245,7 +1230,7 @@
         <v>286239267</v>
       </c>
       <c r="Y5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1253,16 +1238,16 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6">
         <v>3500000</v>
@@ -1289,10 +1274,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1322,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1333,13 +1318,13 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7">
         <v>750000</v>
@@ -1366,10 +1351,10 @@
         <v>23000</v>
       </c>
       <c r="N7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P7">
         <v>28564316</v>
@@ -1399,7 +1384,7 @@
         <v>2876182</v>
       </c>
       <c r="Y7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1410,13 +1395,13 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8">
         <v>1500000</v>
@@ -1443,10 +1428,10 @@
         <v>9000</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1476,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1484,16 +1469,16 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9">
         <v>10000000</v>
@@ -1520,10 +1505,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1553,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1564,13 +1549,13 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10">
         <v>650000</v>
@@ -1597,10 +1582,10 @@
         <v>18000</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P10">
         <v>55809022</v>
@@ -1630,7 +1615,7 @@
         <v>-8387901</v>
       </c>
       <c r="Y10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1641,13 +1626,13 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11">
         <v>8000000</v>
@@ -1674,10 +1659,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1707,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1715,16 +1700,16 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12">
         <v>1407000</v>
@@ -1751,10 +1736,10 @@
         <v>28000</v>
       </c>
       <c r="N12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1784,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1795,13 +1780,13 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13">
         <v>1640000</v>
@@ -1828,10 +1813,10 @@
         <v>17000</v>
       </c>
       <c r="N13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P13">
         <v>13660</v>
@@ -1861,7 +1846,7 @@
         <v>1666</v>
       </c>
       <c r="Y13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1869,16 +1854,16 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14">
         <v>3350000</v>
@@ -1905,10 +1890,10 @@
         <v>11000</v>
       </c>
       <c r="N14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P14">
         <v>47984</v>
@@ -1938,7 +1923,7 @@
         <v>5612</v>
       </c>
       <c r="Y14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1946,16 +1931,16 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15">
         <v>4250000</v>
@@ -1982,10 +1967,10 @@
         <v>7000</v>
       </c>
       <c r="N15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P15">
         <v>27199897007</v>
@@ -2015,7 +2000,7 @@
         <v>3402334635</v>
       </c>
       <c r="Y15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2026,13 +2011,13 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16">
         <v>2079000</v>
@@ -2059,10 +2044,10 @@
         <v>34700</v>
       </c>
       <c r="N16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P16">
         <v>26994234332</v>
@@ -2092,7 +2077,7 @@
         <v>15932218050</v>
       </c>
       <c r="Y16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2106,10 +2091,10 @@
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17">
         <v>1596000</v>
@@ -2136,10 +2121,10 @@
         <v>4000</v>
       </c>
       <c r="N17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P17">
         <v>7668281979</v>
@@ -2169,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2183,10 +2168,10 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18">
         <v>1600000</v>
@@ -2213,10 +2198,10 @@
         <v>20000</v>
       </c>
       <c r="N18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2246,7 +2231,7 @@
         <v>-12610702106</v>
       </c>
       <c r="Y18" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2254,16 +2239,16 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F19">
         <v>2636330</v>
@@ -2290,10 +2275,10 @@
         <v>25000</v>
       </c>
       <c r="N19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P19">
         <v>45195788</v>
@@ -2323,7 +2308,7 @@
         <v>2327401</v>
       </c>
       <c r="Y19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2334,13 +2319,13 @@
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F20">
         <v>4000000</v>
@@ -2367,10 +2352,10 @@
         <v>2000</v>
       </c>
       <c r="N20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -2400,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2408,16 +2393,16 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21">
         <v>7000000</v>
@@ -2444,10 +2429,10 @@
         <v>1800</v>
       </c>
       <c r="N21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P21">
         <v>67332006578</v>
@@ -2477,7 +2462,7 @@
         <v>5666583221</v>
       </c>
       <c r="Y21" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2491,10 +2476,10 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22">
         <v>5200000</v>
@@ -2521,10 +2506,10 @@
         <v>4800</v>
       </c>
       <c r="N22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P22">
         <v>39450601</v>
@@ -2554,7 +2539,7 @@
         <v>349843</v>
       </c>
       <c r="Y22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2568,10 +2553,10 @@
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F23">
         <v>2060000</v>
@@ -2598,10 +2583,10 @@
         <v>22500</v>
       </c>
       <c r="N23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P23">
         <v>5787300240</v>
@@ -2631,7 +2616,7 @@
         <v>-52132058866</v>
       </c>
       <c r="Y23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2645,10 +2630,10 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24">
         <v>1200000</v>
@@ -2675,10 +2660,10 @@
         <v>13000</v>
       </c>
       <c r="N24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P24">
         <v>20924</v>
@@ -2708,84 +2693,7 @@
         <v>-862</v>
       </c>
       <c r="Y24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25">
-        <v>3600000</v>
-      </c>
-      <c r="G25">
-        <v>3600000</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>5000</v>
-      </c>
-      <c r="J25">
-        <v>7000</v>
-      </c>
-      <c r="K25">
-        <v>17306490</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>7500</v>
-      </c>
-      <c r="N25" t="s">
-        <v>120</v>
-      </c>
-      <c r="O25" t="s">
-        <v>140</v>
-      </c>
-      <c r="P25">
-        <v>21976760922</v>
-      </c>
-      <c r="Q25">
-        <v>15839004968</v>
-      </c>
-      <c r="R25">
-        <v>6887755932</v>
-      </c>
-      <c r="S25">
-        <v>-2217897363</v>
-      </c>
-      <c r="T25">
-        <v>-3403228196</v>
-      </c>
-      <c r="U25">
-        <v>-2758864194</v>
-      </c>
-      <c r="V25">
-        <v>-5110677395</v>
-      </c>
-      <c r="W25">
-        <v>-29510193610</v>
-      </c>
-      <c r="X25">
-        <v>-2514471056</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="138">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -133,18 +133,12 @@
     <t>2023-10-26</t>
   </si>
   <si>
-    <t>2023-10-20</t>
-  </si>
-  <si>
     <t>2023-10-23</t>
   </si>
   <si>
     <t>2023-10-25</t>
   </si>
   <si>
-    <t>2023-10-19</t>
-  </si>
-  <si>
     <t>2023-12-12</t>
   </si>
   <si>
@@ -226,9 +220,6 @@
     <t>KB</t>
   </si>
   <si>
-    <t>미래, 삼성</t>
-  </si>
-  <si>
     <t>한국</t>
   </si>
   <si>
@@ -280,9 +271,6 @@
     <t>캡스톤파트너스</t>
   </si>
   <si>
-    <t>큐로셀</t>
-  </si>
-  <si>
     <t>에이직랜드</t>
   </si>
   <si>
@@ -292,15 +280,6 @@
     <t>에스와이스틸텍</t>
   </si>
   <si>
-    <t>메가터치</t>
-  </si>
-  <si>
-    <t>컨텍</t>
-  </si>
-  <si>
-    <t>비아이매트릭스</t>
-  </si>
-  <si>
     <t>708.35:1</t>
   </si>
   <si>
@@ -349,9 +328,6 @@
     <t>952.78</t>
   </si>
   <si>
-    <t>20.88:1</t>
-  </si>
-  <si>
     <t>490.02:1</t>
   </si>
   <si>
@@ -361,15 +337,6 @@
     <t>1,113.85:1</t>
   </si>
   <si>
-    <t>765.86:1</t>
-  </si>
-  <si>
-    <t>198.93:1</t>
-  </si>
-  <si>
-    <t>981.09:1</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -409,24 +376,12 @@
     <t>0.19%</t>
   </si>
   <si>
-    <t>4.74%</t>
-  </si>
-  <si>
     <t>22.38%</t>
   </si>
   <si>
     <t>6.69%</t>
   </si>
   <si>
-    <t>9.25%</t>
-  </si>
-  <si>
-    <t>1.24%</t>
-  </si>
-  <si>
-    <t>4.20%</t>
-  </si>
-  <si>
     <t>기업인수합병</t>
   </si>
   <si>
@@ -469,22 +424,10 @@
     <t>벤처투자조합 등 조합 결성 및 운영</t>
   </si>
   <si>
-    <t>CAR-T 세포치료제</t>
-  </si>
-  <si>
     <t>비메모리 반도체 설계및 제조, 전자회로 연구, 설계, 레이아웃 등</t>
   </si>
   <si>
     <t>데크플레이트</t>
-  </si>
-  <si>
-    <t>배터리 핀, 반도체 핀</t>
-  </si>
-  <si>
-    <t>지상국 시스템 엔지니어링 솔루션, 위성영상 생성을 위한 데이터처리 솔루션</t>
-  </si>
-  <si>
-    <t>로우코드 기반 코딩 자동화 솔루션 등</t>
   </si>
 </sst>
 </file>
@@ -842,7 +785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -930,16 +873,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F2">
         <v>7000000</v>
@@ -966,10 +909,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -999,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1010,13 +953,13 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F3">
         <v>4000000</v>
@@ -1043,10 +986,10 @@
         <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="O3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1076,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1084,16 +1027,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F4">
         <v>14625000</v>
@@ -1120,10 +1063,10 @@
         <v>6000</v>
       </c>
       <c r="N4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="O4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1153,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1161,16 +1104,16 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F5">
         <v>1400000</v>
@@ -1197,10 +1140,10 @@
         <v>19000</v>
       </c>
       <c r="N5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="O5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="P5">
         <v>49637696375</v>
@@ -1230,7 +1173,7 @@
         <v>286239267</v>
       </c>
       <c r="Y5" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1238,16 +1181,16 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F6">
         <v>3500000</v>
@@ -1274,10 +1217,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1307,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1318,13 +1261,13 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F7">
         <v>750000</v>
@@ -1351,10 +1294,10 @@
         <v>23000</v>
       </c>
       <c r="N7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="P7">
         <v>28564316</v>
@@ -1384,7 +1327,7 @@
         <v>2876182</v>
       </c>
       <c r="Y7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1395,13 +1338,13 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F8">
         <v>1500000</v>
@@ -1428,10 +1371,10 @@
         <v>9000</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1461,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1469,16 +1412,16 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F9">
         <v>10000000</v>
@@ -1505,10 +1448,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1538,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1549,13 +1492,13 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F10">
         <v>650000</v>
@@ -1582,10 +1525,10 @@
         <v>18000</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="P10">
         <v>55809022</v>
@@ -1615,7 +1558,7 @@
         <v>-8387901</v>
       </c>
       <c r="Y10" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1626,13 +1569,13 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F11">
         <v>8000000</v>
@@ -1659,10 +1602,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1692,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1700,16 +1643,16 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F12">
         <v>1407000</v>
@@ -1736,10 +1679,10 @@
         <v>28000</v>
       </c>
       <c r="N12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1769,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1780,13 +1723,13 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F13">
         <v>1640000</v>
@@ -1813,10 +1756,10 @@
         <v>17000</v>
       </c>
       <c r="N13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="O13" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="P13">
         <v>13660</v>
@@ -1846,7 +1789,7 @@
         <v>1666</v>
       </c>
       <c r="Y13" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1854,16 +1797,16 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F14">
         <v>3350000</v>
@@ -1890,10 +1833,10 @@
         <v>11000</v>
       </c>
       <c r="N14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="P14">
         <v>47984</v>
@@ -1923,7 +1866,7 @@
         <v>5612</v>
       </c>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1931,16 +1874,16 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F15">
         <v>4250000</v>
@@ -1967,10 +1910,10 @@
         <v>7000</v>
       </c>
       <c r="N15" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="O15" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="P15">
         <v>27199897007</v>
@@ -2000,7 +1943,7 @@
         <v>3402334635</v>
       </c>
       <c r="Y15" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2011,13 +1954,13 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F16">
         <v>2079000</v>
@@ -2044,10 +1987,10 @@
         <v>34700</v>
       </c>
       <c r="N16" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="O16" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="P16">
         <v>26994234332</v>
@@ -2077,7 +2020,7 @@
         <v>15932218050</v>
       </c>
       <c r="Y16" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2091,10 +2034,10 @@
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F17">
         <v>1596000</v>
@@ -2121,10 +2064,10 @@
         <v>4000</v>
       </c>
       <c r="N17" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O17" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="P17">
         <v>7668281979</v>
@@ -2154,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2162,76 +2105,76 @@
         <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F18">
-        <v>1600000</v>
+        <v>2636330</v>
       </c>
       <c r="G18">
-        <v>1600000</v>
+        <v>2636330</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>29800</v>
+        <v>19100</v>
       </c>
       <c r="J18">
-        <v>33500</v>
+        <v>21400</v>
       </c>
       <c r="K18">
-        <v>13612736</v>
+        <v>10585320</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="N18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O18" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>45195788</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>69629209</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>35634471</v>
       </c>
       <c r="S18">
-        <v>-15286512079</v>
+        <v>2751277</v>
       </c>
       <c r="T18">
-        <v>-21424611321</v>
+        <v>11449731</v>
       </c>
       <c r="U18">
-        <v>-139745251263</v>
+        <v>2482194</v>
       </c>
       <c r="V18">
-        <v>-53575668634</v>
+        <v>2092692</v>
       </c>
       <c r="W18">
-        <v>-38885125426</v>
+        <v>5149538</v>
       </c>
       <c r="X18">
-        <v>-12610702106</v>
+        <v>2327401</v>
       </c>
       <c r="Y18" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2239,461 +2182,153 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F19">
-        <v>2636330</v>
+        <v>4000000</v>
       </c>
       <c r="G19">
-        <v>2636330</v>
+        <v>4000000</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>19100</v>
+        <v>2000</v>
       </c>
       <c r="J19">
-        <v>21400</v>
+        <v>2000</v>
       </c>
       <c r="K19">
-        <v>10585320</v>
+        <v>4320000</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="N19" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O19" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="P19">
-        <v>45195788</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>69629209</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>35634471</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>2751277</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>11449731</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>2482194</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>2092692</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>5149538</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>2327401</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F20">
-        <v>4000000</v>
+        <v>7000000</v>
       </c>
       <c r="G20">
-        <v>4000000</v>
+        <v>7000000</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="J20">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K20">
-        <v>4320000</v>
+        <v>30610000</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="N20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>67332006578</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>100050838794</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>63366010569</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1140243099</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>8333440685</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>7415958936</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>668088159</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>5930478364</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>5666583221</v>
       </c>
       <c r="Y20" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21">
-        <v>7000000</v>
-      </c>
-      <c r="G21">
-        <v>7000000</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>1200</v>
-      </c>
-      <c r="J21">
-        <v>1500</v>
-      </c>
-      <c r="K21">
-        <v>30610000</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>1800</v>
-      </c>
-      <c r="N21" t="s">
-        <v>114</v>
-      </c>
-      <c r="O21" t="s">
-        <v>133</v>
-      </c>
-      <c r="P21">
-        <v>67332006578</v>
-      </c>
-      <c r="Q21">
-        <v>100050838794</v>
-      </c>
-      <c r="R21">
-        <v>63366010569</v>
-      </c>
-      <c r="S21">
-        <v>1140243099</v>
-      </c>
-      <c r="T21">
-        <v>8333440685</v>
-      </c>
-      <c r="U21">
-        <v>7415958936</v>
-      </c>
-      <c r="V21">
-        <v>668088159</v>
-      </c>
-      <c r="W21">
-        <v>5930478364</v>
-      </c>
-      <c r="X21">
-        <v>5666583221</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22">
-        <v>5200000</v>
-      </c>
-      <c r="G22">
-        <v>5200000</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>3500</v>
-      </c>
-      <c r="J22">
-        <v>4000</v>
-      </c>
-      <c r="K22">
-        <v>20771000</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>4800</v>
-      </c>
-      <c r="N22" t="s">
-        <v>115</v>
-      </c>
-      <c r="O22" t="s">
-        <v>134</v>
-      </c>
-      <c r="P22">
-        <v>39450601</v>
-      </c>
-      <c r="Q22">
-        <v>49044883</v>
-      </c>
-      <c r="R22">
-        <v>21826468</v>
-      </c>
-      <c r="S22">
-        <v>2477559</v>
-      </c>
-      <c r="T22">
-        <v>8094900</v>
-      </c>
-      <c r="U22">
-        <v>215154</v>
-      </c>
-      <c r="V22">
-        <v>3427734</v>
-      </c>
-      <c r="W22">
-        <v>6575528</v>
-      </c>
-      <c r="X22">
-        <v>349843</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23">
-        <v>2060000</v>
-      </c>
-      <c r="G23">
-        <v>2000000</v>
-      </c>
-      <c r="H23">
-        <v>60000</v>
-      </c>
-      <c r="I23">
-        <v>20300</v>
-      </c>
-      <c r="J23">
-        <v>22500</v>
-      </c>
-      <c r="K23">
-        <v>14384224</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>22500</v>
-      </c>
-      <c r="N23" t="s">
-        <v>116</v>
-      </c>
-      <c r="O23" t="s">
-        <v>135</v>
-      </c>
-      <c r="P23">
-        <v>5787300240</v>
-      </c>
-      <c r="Q23">
-        <v>1914633847</v>
-      </c>
-      <c r="R23">
-        <v>3156092272</v>
-      </c>
-      <c r="S23">
-        <v>-1798278694</v>
-      </c>
-      <c r="T23">
-        <v>-1453689952</v>
-      </c>
-      <c r="U23">
-        <v>-4067648306</v>
-      </c>
-      <c r="V23">
-        <v>-12449932055</v>
-      </c>
-      <c r="W23">
-        <v>-7426231074</v>
-      </c>
-      <c r="X23">
-        <v>-52132058866</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24">
-        <v>1200000</v>
-      </c>
-      <c r="G24">
-        <v>1200000</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>9100</v>
-      </c>
-      <c r="J24">
-        <v>11000</v>
-      </c>
-      <c r="K24">
-        <v>7206940</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>13000</v>
-      </c>
-      <c r="N24" t="s">
-        <v>117</v>
-      </c>
-      <c r="O24" t="s">
-        <v>136</v>
-      </c>
-      <c r="P24">
-        <v>20924</v>
-      </c>
-      <c r="Q24">
-        <v>27659</v>
-      </c>
-      <c r="R24">
-        <v>11818</v>
-      </c>
-      <c r="S24">
-        <v>2838</v>
-      </c>
-      <c r="T24">
-        <v>4563</v>
-      </c>
-      <c r="U24">
-        <v>-1222</v>
-      </c>
-      <c r="V24">
-        <v>2413</v>
-      </c>
-      <c r="W24">
-        <v>3190</v>
-      </c>
-      <c r="X24">
-        <v>-862</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="128">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-02-21</t>
+  </si>
+  <si>
     <t>2024-02-16</t>
   </si>
   <si>
@@ -124,6 +127,9 @@
     <t>2024-01-09</t>
   </si>
   <si>
+    <t>2024-02-27</t>
+  </si>
+  <si>
     <t>2024-02-22</t>
   </si>
   <si>
@@ -151,6 +157,9 @@
     <t>2024-01-10</t>
   </si>
   <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
     <t>2024-03-07</t>
   </si>
   <si>
@@ -175,6 +184,9 @@
     <t>2024-01-24</t>
   </si>
   <si>
+    <t>NH</t>
+  </si>
+  <si>
     <t>DB, NH</t>
   </si>
   <si>
@@ -196,9 +208,6 @@
     <t>키움</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>한화</t>
   </si>
   <si>
@@ -220,6 +229,9 @@
     <t>대신</t>
   </si>
   <si>
+    <t>오상헬스케어</t>
+  </si>
+  <si>
     <t>케이엔알시스템</t>
   </si>
   <si>
@@ -268,6 +280,9 @@
     <t>대신밸런스제17호스팩</t>
   </si>
   <si>
+    <t>993.21:1</t>
+  </si>
+  <si>
     <t>873.20:1</t>
   </si>
   <si>
@@ -316,6 +331,9 @@
     <t>892.06:1</t>
   </si>
   <si>
+    <t>2.85%</t>
+  </si>
+  <si>
     <t>31.86%</t>
   </si>
   <si>
@@ -341,6 +359,9 @@
   </si>
   <si>
     <t>17.01%</t>
+  </si>
+  <si>
+    <t>생화학 측정기 및 센서, 면역진단기기 및 마커, 분자진단기기 및 시약 등</t>
   </si>
   <si>
     <t>특수목적 시험장비, 산업용로봇</t>
@@ -734,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -822,153 +843,153 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F2">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="G2">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="J2">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="K2">
-        <v>10867713</v>
+        <v>14104416</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="P2">
-        <v>13884202433</v>
+        <v>132326879204</v>
       </c>
       <c r="Q2">
-        <v>51182177917</v>
+        <v>193893072828</v>
       </c>
       <c r="R2">
-        <v>8127683890</v>
+        <v>341250572142</v>
       </c>
       <c r="S2">
-        <v>-2233716995</v>
+        <v>-7083727446</v>
       </c>
       <c r="T2">
-        <v>2983031122</v>
+        <v>49300174288</v>
       </c>
       <c r="U2">
-        <v>-6655066594</v>
+        <v>150061283068</v>
       </c>
       <c r="V2">
-        <v>-5046530611</v>
+        <v>1473132550</v>
       </c>
       <c r="W2">
-        <v>1523272163</v>
+        <v>40660749810</v>
       </c>
       <c r="X2">
-        <v>-6716915237</v>
+        <v>120676291668</v>
       </c>
       <c r="Y2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F3">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="G3">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K3">
-        <v>5605000</v>
+        <v>10867713</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2000</v>
+        <v>13500</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>13884202433</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>51182177917</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>8127683890</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-2233716995</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>2983031122</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-6655066594</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-5046530611</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1523272163</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-6716915237</v>
       </c>
       <c r="Y3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -976,22 +997,22 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F4">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="G4">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1003,7 +1024,7 @@
         <v>2000</v>
       </c>
       <c r="K4">
-        <v>7010000</v>
+        <v>5605000</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1012,10 +1033,10 @@
         <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1045,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1053,22 +1074,22 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F5">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="G5">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1080,7 +1101,7 @@
         <v>2000</v>
       </c>
       <c r="K5">
-        <v>4155000</v>
+        <v>7010000</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1089,10 +1110,10 @@
         <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1122,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1133,13 +1154,13 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F6">
         <v>4000000</v>
@@ -1157,7 +1178,7 @@
         <v>2000</v>
       </c>
       <c r="K6">
-        <v>4210000</v>
+        <v>4155000</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1166,10 +1187,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1199,24 +1220,24 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F7">
         <v>4000000</v>
@@ -1234,7 +1255,7 @@
         <v>2000</v>
       </c>
       <c r="K7">
-        <v>4240000</v>
+        <v>4210000</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1243,10 +1264,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1276,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1284,76 +1305,76 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F8">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="G8">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="J8">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K8">
-        <v>5661970</v>
+        <v>4240000</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="P8">
-        <v>9490</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>12525</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>8916</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>1780</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>1716</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1361,218 +1382,218 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F9">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="G9">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4800</v>
+        <v>12000</v>
       </c>
       <c r="J9">
-        <v>5800</v>
+        <v>14000</v>
       </c>
       <c r="K9">
-        <v>9939614</v>
+        <v>5661970</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P9">
-        <v>11728856090</v>
+        <v>9490</v>
       </c>
       <c r="Q9">
-        <v>17398754684</v>
+        <v>12525</v>
       </c>
       <c r="R9">
-        <v>9950753269</v>
+        <v>8916</v>
       </c>
       <c r="S9">
-        <v>210467803</v>
+        <v>154</v>
       </c>
       <c r="T9">
-        <v>768643625</v>
+        <v>1780</v>
       </c>
       <c r="U9">
-        <v>-2057246152</v>
+        <v>502</v>
       </c>
       <c r="V9">
-        <v>-1402142802</v>
+        <v>496</v>
       </c>
       <c r="W9">
-        <v>708681523</v>
+        <v>1716</v>
       </c>
       <c r="X9">
-        <v>-2027030543</v>
+        <v>876</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F10">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="G10">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14500</v>
+        <v>4800</v>
       </c>
       <c r="J10">
-        <v>18500</v>
+        <v>5800</v>
       </c>
       <c r="K10">
-        <v>9465149</v>
+        <v>9939614</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="P10">
-        <v>-7085110800</v>
+        <v>11728856090</v>
       </c>
       <c r="Q10">
-        <v>-7707829743</v>
+        <v>17398754684</v>
       </c>
       <c r="R10">
-        <v>-4353776321</v>
+        <v>9950753269</v>
       </c>
       <c r="S10">
-        <v>-7444566078</v>
+        <v>210467803</v>
       </c>
       <c r="T10">
-        <v>-8116734518</v>
+        <v>768643625</v>
       </c>
       <c r="U10">
-        <v>-4808043488</v>
+        <v>-2057246152</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>-1402142802</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>708681523</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>-2027030543</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F11">
-        <v>4575000</v>
+        <v>1130000</v>
       </c>
       <c r="G11">
-        <v>4575000</v>
+        <v>1130000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>14500</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>18500</v>
       </c>
       <c r="K11">
-        <v>4690000</v>
+        <v>9465149</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>-7085110800</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-7707829743</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>-4353776321</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>-7444566078</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>-8116734518</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>-4808043488</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1584,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1592,73 +1613,73 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F12">
-        <v>850000</v>
+        <v>4575000</v>
       </c>
       <c r="G12">
-        <v>850000</v>
+        <v>4575000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="J12">
-        <v>16500</v>
+        <v>2000</v>
       </c>
       <c r="K12">
-        <v>4225498</v>
+        <v>4690000</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P12">
-        <v>84448377049</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>86585909893</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>71141473670</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>4232543828</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>2396516104</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>2260522008</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>3768461107</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>1925269107</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>1937996182</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="s">
         <v>117</v>
@@ -1666,79 +1687,79 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F13">
-        <v>4000000</v>
+        <v>850000</v>
       </c>
       <c r="G13">
-        <v>4000000</v>
+        <v>850000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>14500</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>16500</v>
       </c>
       <c r="K13">
-        <v>4230000</v>
+        <v>4225498</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="O13" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>84448377049</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>86585909893</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>71141473670</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>4232543828</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>2396516104</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>2260522008</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>3768461107</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1925269107</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>1937996182</v>
       </c>
       <c r="Y13" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1746,76 +1767,76 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F14">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="G14">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J14">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K14">
-        <v>9355485</v>
+        <v>4230000</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P14">
-        <v>91496346476</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>91488384999</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>63460787949</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>9436568051</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>11992232752</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>8323875572</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>8609153489</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>6967992579</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>7769366120</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1823,153 +1844,153 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F15">
-        <v>8707000</v>
+        <v>1500000</v>
       </c>
       <c r="G15">
-        <v>5224000</v>
+        <v>1500000</v>
       </c>
       <c r="H15">
-        <v>3483000</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J15">
-        <v>6300</v>
+        <v>15000</v>
       </c>
       <c r="K15">
-        <v>34824000</v>
+        <v>9355485</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>7300</v>
+        <v>18000</v>
       </c>
       <c r="N15" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="O15" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P15">
-        <v>120971135005</v>
+        <v>91496346476</v>
       </c>
       <c r="Q15">
-        <v>144752544468</v>
+        <v>91488384999</v>
       </c>
       <c r="R15">
-        <v>134349576051</v>
+        <v>63460787949</v>
       </c>
       <c r="S15">
-        <v>6228818073</v>
+        <v>9436568051</v>
       </c>
       <c r="T15">
-        <v>3756954475</v>
+        <v>11992232752</v>
       </c>
       <c r="U15">
-        <v>11092990558</v>
+        <v>8323875572</v>
       </c>
       <c r="V15">
-        <v>4708568182</v>
+        <v>8609153489</v>
       </c>
       <c r="W15">
-        <v>4366217534</v>
+        <v>6967992579</v>
       </c>
       <c r="X15">
-        <v>7277173431</v>
+        <v>7769366120</v>
       </c>
       <c r="Y15" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F16">
-        <v>2060000</v>
+        <v>8707000</v>
       </c>
       <c r="G16">
-        <v>2060000</v>
+        <v>5224000</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3483000</v>
       </c>
       <c r="I16">
-        <v>4300</v>
+        <v>5000</v>
       </c>
       <c r="J16">
-        <v>4900</v>
+        <v>6300</v>
       </c>
       <c r="K16">
-        <v>9271339</v>
+        <v>34824000</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>5300</v>
+        <v>7300</v>
       </c>
       <c r="N16" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O16" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="P16">
-        <v>31236794775</v>
+        <v>120971135005</v>
       </c>
       <c r="Q16">
-        <v>37364336431</v>
+        <v>144752544468</v>
       </c>
       <c r="R16">
-        <v>30398728955</v>
+        <v>134349576051</v>
       </c>
       <c r="S16">
-        <v>4950804374</v>
+        <v>6228818073</v>
       </c>
       <c r="T16">
-        <v>5673304262</v>
+        <v>3756954475</v>
       </c>
       <c r="U16">
-        <v>5874298651</v>
+        <v>11092990558</v>
       </c>
       <c r="V16">
-        <v>4470133667</v>
+        <v>4708568182</v>
       </c>
       <c r="W16">
-        <v>4761400117</v>
+        <v>4366217534</v>
       </c>
       <c r="X16">
-        <v>4532708708</v>
+        <v>7277173431</v>
       </c>
       <c r="Y16" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1977,76 +1998,153 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F17">
+        <v>2060000</v>
+      </c>
+      <c r="G17">
+        <v>2060000</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>4300</v>
+      </c>
+      <c r="J17">
+        <v>4900</v>
+      </c>
+      <c r="K17">
+        <v>9271339</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>5300</v>
+      </c>
+      <c r="N17" t="s">
+        <v>103</v>
+      </c>
+      <c r="O17" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17">
+        <v>31236794775</v>
+      </c>
+      <c r="Q17">
+        <v>37364336431</v>
+      </c>
+      <c r="R17">
+        <v>30398728955</v>
+      </c>
+      <c r="S17">
+        <v>4950804374</v>
+      </c>
+      <c r="T17">
+        <v>5673304262</v>
+      </c>
+      <c r="U17">
+        <v>5874298651</v>
+      </c>
+      <c r="V17">
+        <v>4470133667</v>
+      </c>
+      <c r="W17">
+        <v>4761400117</v>
+      </c>
+      <c r="X17">
+        <v>4532708708</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18">
         <v>5500000</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>5500000</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>2000</v>
-      </c>
-      <c r="J17">
-        <v>2000</v>
-      </c>
-      <c r="K17">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>2000</v>
+      </c>
+      <c r="J18">
+        <v>2000</v>
+      </c>
+      <c r="K18">
         <v>6060000</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>2000</v>
-      </c>
-      <c r="N17" t="s">
-        <v>99</v>
-      </c>
-      <c r="O17" t="s">
-        <v>101</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>113</v>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>2000</v>
+      </c>
+      <c r="N18" t="s">
+        <v>104</v>
+      </c>
+      <c r="O18" t="s">
+        <v>107</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="134">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-02-29</t>
+  </si>
+  <si>
     <t>2024-02-21</t>
   </si>
   <si>
@@ -127,6 +130,9 @@
     <t>2024-01-09</t>
   </si>
   <si>
+    <t>2024-03-07</t>
+  </si>
+  <si>
     <t>2024-02-27</t>
   </si>
   <si>
@@ -157,18 +163,15 @@
     <t>2024-01-10</t>
   </si>
   <si>
+    <t>2024-03-21</t>
+  </si>
+  <si>
     <t>2024-03-13</t>
   </si>
   <si>
-    <t>2024-03-07</t>
-  </si>
-  <si>
     <t>2024-03-05</t>
   </si>
   <si>
-    <t>2024-02-29</t>
-  </si>
-  <si>
     <t>2024-03-04</t>
   </si>
   <si>
@@ -184,6 +187,9 @@
     <t>2024-01-24</t>
   </si>
   <si>
+    <t>한국</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
@@ -229,6 +235,9 @@
     <t>대신</t>
   </si>
   <si>
+    <t>삼현</t>
+  </si>
+  <si>
     <t>오상헬스케어</t>
   </si>
   <si>
@@ -280,6 +289,9 @@
     <t>대신밸런스제17호스팩</t>
   </si>
   <si>
+    <t>649.11:1</t>
+  </si>
+  <si>
     <t>993.21:1</t>
   </si>
   <si>
@@ -331,6 +343,9 @@
     <t>892.06:1</t>
   </si>
   <si>
+    <t>10.64%</t>
+  </si>
+  <si>
     <t>2.85%</t>
   </si>
   <si>
@@ -359,6 +374,9 @@
   </si>
   <si>
     <t>17.01%</t>
+  </si>
+  <si>
+    <t>스마트 액추에이터, 스마트 파워유닛</t>
   </si>
   <si>
     <t>생화학 측정기 및 센서, 면역진단기기 및 마커, 분자진단기기 및 시약 등</t>
@@ -755,7 +773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -843,76 +861,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F2">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="G2">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="J2">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="K2">
-        <v>14104416</v>
+        <v>10569189</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P2">
-        <v>132326879204</v>
+        <v>59096247022</v>
       </c>
       <c r="Q2">
-        <v>193893072828</v>
+        <v>68617808568</v>
       </c>
       <c r="R2">
-        <v>341250572142</v>
+        <v>72737982928</v>
       </c>
       <c r="S2">
-        <v>-7083727446</v>
+        <v>3774225460</v>
       </c>
       <c r="T2">
-        <v>49300174288</v>
+        <v>2753382474</v>
       </c>
       <c r="U2">
-        <v>150061283068</v>
+        <v>8000270581</v>
       </c>
       <c r="V2">
-        <v>1473132550</v>
+        <v>3791818673</v>
       </c>
       <c r="W2">
-        <v>40660749810</v>
+        <v>3322524020</v>
       </c>
       <c r="X2">
-        <v>120676291668</v>
+        <v>7223298574</v>
       </c>
       <c r="Y2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -920,153 +938,153 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="G3">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="J3">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="K3">
-        <v>10867713</v>
+        <v>14104416</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="N3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P3">
-        <v>13884202433</v>
+        <v>132326879204</v>
       </c>
       <c r="Q3">
-        <v>51182177917</v>
+        <v>193893072828</v>
       </c>
       <c r="R3">
-        <v>8127683890</v>
+        <v>341250572142</v>
       </c>
       <c r="S3">
-        <v>-2233716995</v>
+        <v>-7083727446</v>
       </c>
       <c r="T3">
-        <v>2983031122</v>
+        <v>49300174288</v>
       </c>
       <c r="U3">
-        <v>-6655066594</v>
+        <v>150061283068</v>
       </c>
       <c r="V3">
-        <v>-5046530611</v>
+        <v>1473132550</v>
       </c>
       <c r="W3">
-        <v>1523272163</v>
+        <v>40660749810</v>
       </c>
       <c r="X3">
-        <v>-6716915237</v>
+        <v>120676291668</v>
       </c>
       <c r="Y3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F4">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="G4">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K4">
-        <v>5605000</v>
+        <v>10867713</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2000</v>
+        <v>13500</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>13884202433</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>51182177917</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>8127683890</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-2233716995</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>2983031122</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-6655066594</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-5046530611</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1523272163</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>-6716915237</v>
       </c>
       <c r="Y4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1074,22 +1092,22 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F5">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="G5">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1101,7 +1119,7 @@
         <v>2000</v>
       </c>
       <c r="K5">
-        <v>7010000</v>
+        <v>5605000</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1110,10 +1128,10 @@
         <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1143,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1151,22 +1169,22 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F6">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="G6">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1178,7 +1196,7 @@
         <v>2000</v>
       </c>
       <c r="K6">
-        <v>4155000</v>
+        <v>7010000</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1187,10 +1205,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1220,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1231,13 +1249,13 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F7">
         <v>4000000</v>
@@ -1255,7 +1273,7 @@
         <v>2000</v>
       </c>
       <c r="K7">
-        <v>4210000</v>
+        <v>4155000</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1264,10 +1282,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1297,24 +1315,24 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F8">
         <v>4000000</v>
@@ -1332,7 +1350,7 @@
         <v>2000</v>
       </c>
       <c r="K8">
-        <v>4240000</v>
+        <v>4210000</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1341,10 +1359,10 @@
         <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1374,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1382,76 +1400,76 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F9">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="G9">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K9">
-        <v>5661970</v>
+        <v>4240000</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P9">
-        <v>9490</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>12525</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>8916</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>1780</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>1716</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1459,158 +1477,158 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F10">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="G10">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4800</v>
+        <v>12000</v>
       </c>
       <c r="J10">
-        <v>5800</v>
+        <v>14000</v>
       </c>
       <c r="K10">
-        <v>9939614</v>
+        <v>5661970</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P10">
-        <v>11728856090</v>
+        <v>9490</v>
       </c>
       <c r="Q10">
-        <v>17398754684</v>
+        <v>12525</v>
       </c>
       <c r="R10">
-        <v>9950753269</v>
+        <v>8916</v>
       </c>
       <c r="S10">
-        <v>210467803</v>
+        <v>154</v>
       </c>
       <c r="T10">
-        <v>768643625</v>
+        <v>1780</v>
       </c>
       <c r="U10">
-        <v>-2057246152</v>
+        <v>502</v>
       </c>
       <c r="V10">
-        <v>-1402142802</v>
+        <v>496</v>
       </c>
       <c r="W10">
-        <v>708681523</v>
+        <v>1716</v>
       </c>
       <c r="X10">
-        <v>-2027030543</v>
+        <v>876</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F11">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="G11">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14500</v>
+        <v>4800</v>
       </c>
       <c r="J11">
-        <v>18500</v>
+        <v>5800</v>
       </c>
       <c r="K11">
-        <v>9465149</v>
+        <v>9939614</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="N11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P11">
-        <v>-7085110800</v>
+        <v>11728856090</v>
       </c>
       <c r="Q11">
-        <v>-7707829743</v>
+        <v>17398754684</v>
       </c>
       <c r="R11">
-        <v>-4353776321</v>
+        <v>9950753269</v>
       </c>
       <c r="S11">
-        <v>-7444566078</v>
+        <v>210467803</v>
       </c>
       <c r="T11">
-        <v>-8116734518</v>
+        <v>768643625</v>
       </c>
       <c r="U11">
-        <v>-4808043488</v>
+        <v>-2057246152</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>-1402142802</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>708681523</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>-2027030543</v>
       </c>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -1619,58 +1637,58 @@
         <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F12">
-        <v>4575000</v>
+        <v>1130000</v>
       </c>
       <c r="G12">
-        <v>4575000</v>
+        <v>1130000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>14500</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>18500</v>
       </c>
       <c r="K12">
-        <v>4690000</v>
+        <v>9465149</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O12" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>-7085110800</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-7707829743</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>-4353776321</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>-7444566078</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>-8116734518</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>-4808043488</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -1682,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1690,153 +1708,153 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F13">
-        <v>850000</v>
+        <v>4575000</v>
       </c>
       <c r="G13">
-        <v>850000</v>
+        <v>4575000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="J13">
-        <v>16500</v>
+        <v>2000</v>
       </c>
       <c r="K13">
-        <v>4225498</v>
+        <v>4690000</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P13">
-        <v>84448377049</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>86585909893</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>71141473670</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>4232543828</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>2396516104</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>2260522008</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>3768461107</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>1925269107</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>1937996182</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F14">
-        <v>4000000</v>
+        <v>850000</v>
       </c>
       <c r="G14">
-        <v>4000000</v>
+        <v>850000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2000</v>
+        <v>14500</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>16500</v>
       </c>
       <c r="K14">
-        <v>4230000</v>
+        <v>4225498</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O14" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>84448377049</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>86585909893</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>71141473670</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>4232543828</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>2396516104</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>2260522008</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>3768461107</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1925269107</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1937996182</v>
       </c>
       <c r="Y14" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1844,76 +1862,76 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F15">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="G15">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K15">
-        <v>9355485</v>
+        <v>4230000</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O15" t="s">
         <v>112</v>
       </c>
       <c r="P15">
-        <v>91496346476</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>91488384999</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>63460787949</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>9436568051</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>11992232752</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>8323875572</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>8609153489</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>6967992579</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>7769366120</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1921,153 +1939,153 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16">
-        <v>8707000</v>
+        <v>1500000</v>
       </c>
       <c r="G16">
-        <v>5224000</v>
+        <v>1500000</v>
       </c>
       <c r="H16">
-        <v>3483000</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J16">
-        <v>6300</v>
+        <v>15000</v>
       </c>
       <c r="K16">
-        <v>34824000</v>
+        <v>9355485</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>7300</v>
+        <v>18000</v>
       </c>
       <c r="N16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O16" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P16">
-        <v>120971135005</v>
+        <v>91496346476</v>
       </c>
       <c r="Q16">
-        <v>144752544468</v>
+        <v>91488384999</v>
       </c>
       <c r="R16">
-        <v>134349576051</v>
+        <v>63460787949</v>
       </c>
       <c r="S16">
-        <v>6228818073</v>
+        <v>9436568051</v>
       </c>
       <c r="T16">
-        <v>3756954475</v>
+        <v>11992232752</v>
       </c>
       <c r="U16">
-        <v>11092990558</v>
+        <v>8323875572</v>
       </c>
       <c r="V16">
-        <v>4708568182</v>
+        <v>8609153489</v>
       </c>
       <c r="W16">
-        <v>4366217534</v>
+        <v>6967992579</v>
       </c>
       <c r="X16">
-        <v>7277173431</v>
+        <v>7769366120</v>
       </c>
       <c r="Y16" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F17">
-        <v>2060000</v>
+        <v>8707000</v>
       </c>
       <c r="G17">
-        <v>2060000</v>
+        <v>5224000</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3483000</v>
       </c>
       <c r="I17">
-        <v>4300</v>
+        <v>5000</v>
       </c>
       <c r="J17">
-        <v>4900</v>
+        <v>6300</v>
       </c>
       <c r="K17">
-        <v>9271339</v>
+        <v>34824000</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>5300</v>
+        <v>7300</v>
       </c>
       <c r="N17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O17" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P17">
-        <v>31236794775</v>
+        <v>120971135005</v>
       </c>
       <c r="Q17">
-        <v>37364336431</v>
+        <v>144752544468</v>
       </c>
       <c r="R17">
-        <v>30398728955</v>
+        <v>134349576051</v>
       </c>
       <c r="S17">
-        <v>4950804374</v>
+        <v>6228818073</v>
       </c>
       <c r="T17">
-        <v>5673304262</v>
+        <v>3756954475</v>
       </c>
       <c r="U17">
-        <v>5874298651</v>
+        <v>11092990558</v>
       </c>
       <c r="V17">
-        <v>4470133667</v>
+        <v>4708568182</v>
       </c>
       <c r="W17">
-        <v>4761400117</v>
+        <v>4366217534</v>
       </c>
       <c r="X17">
-        <v>4532708708</v>
+        <v>7277173431</v>
       </c>
       <c r="Y17" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2075,76 +2093,153 @@
         <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F18">
+        <v>2060000</v>
+      </c>
+      <c r="G18">
+        <v>2060000</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>4300</v>
+      </c>
+      <c r="J18">
+        <v>4900</v>
+      </c>
+      <c r="K18">
+        <v>9271339</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>5300</v>
+      </c>
+      <c r="N18" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18">
+        <v>31236794775</v>
+      </c>
+      <c r="Q18">
+        <v>37364336431</v>
+      </c>
+      <c r="R18">
+        <v>30398728955</v>
+      </c>
+      <c r="S18">
+        <v>4950804374</v>
+      </c>
+      <c r="T18">
+        <v>5673304262</v>
+      </c>
+      <c r="U18">
+        <v>5874298651</v>
+      </c>
+      <c r="V18">
+        <v>4470133667</v>
+      </c>
+      <c r="W18">
+        <v>4761400117</v>
+      </c>
+      <c r="X18">
+        <v>4532708708</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19">
         <v>5500000</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>5500000</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>2000</v>
-      </c>
-      <c r="J18">
-        <v>2000</v>
-      </c>
-      <c r="K18">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>2000</v>
+      </c>
+      <c r="J19">
+        <v>2000</v>
+      </c>
+      <c r="K19">
         <v>6060000</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>2000</v>
-      </c>
-      <c r="N18" t="s">
-        <v>104</v>
-      </c>
-      <c r="O18" t="s">
-        <v>107</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>120</v>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>2000</v>
+      </c>
+      <c r="N19" t="s">
+        <v>108</v>
+      </c>
+      <c r="O19" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="123">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -127,9 +127,6 @@
     <t>2024-01-08</t>
   </si>
   <si>
-    <t>2024-01-09</t>
-  </si>
-  <si>
     <t>2024-03-07</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>2024-01-12</t>
   </si>
   <si>
-    <t>2024-01-10</t>
-  </si>
-  <si>
     <t>2024-03-21</t>
   </si>
   <si>
@@ -184,9 +178,6 @@
     <t>2024-01-26</t>
   </si>
   <si>
-    <t>2024-01-24</t>
-  </si>
-  <si>
     <t>한국</t>
   </si>
   <si>
@@ -229,12 +220,6 @@
     <t>미래</t>
   </si>
   <si>
-    <t>KB</t>
-  </si>
-  <si>
-    <t>대신</t>
-  </si>
-  <si>
     <t>삼현</t>
   </si>
   <si>
@@ -283,12 +268,6 @@
     <t>현대힘스</t>
   </si>
   <si>
-    <t>우진엔텍</t>
-  </si>
-  <si>
-    <t>대신밸런스제17호스팩</t>
-  </si>
-  <si>
     <t>649.11:1</t>
   </si>
   <si>
@@ -337,12 +316,6 @@
     <t>680.82:1</t>
   </si>
   <si>
-    <t>1,263.32:1</t>
-  </si>
-  <si>
-    <t>892.06:1</t>
-  </si>
-  <si>
     <t>10.64%</t>
   </si>
   <si>
@@ -373,9 +346,6 @@
     <t>11.98%</t>
   </si>
   <si>
-    <t>17.01%</t>
-  </si>
-  <si>
     <t>스마트 액추에이터, 스마트 파워유닛</t>
   </si>
   <si>
@@ -413,9 +383,6 @@
   </si>
   <si>
     <t>선박기자재 (선박 블록, 보강재, 도장 등)</t>
-  </si>
-  <si>
-    <t>발전소 계측제어설비 정비 서비스</t>
   </si>
 </sst>
 </file>
@@ -773,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -861,16 +828,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F2">
         <v>2000000</v>
@@ -897,10 +864,10 @@
         <v>30000</v>
       </c>
       <c r="N2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P2">
         <v>59096247022</v>
@@ -930,7 +897,7 @@
         <v>7223298574</v>
       </c>
       <c r="Y2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -938,16 +905,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F3">
         <v>990000</v>
@@ -974,10 +941,10 @@
         <v>20000</v>
       </c>
       <c r="N3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="O3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="P3">
         <v>132326879204</v>
@@ -1007,7 +974,7 @@
         <v>120676291668</v>
       </c>
       <c r="Y3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1015,16 +982,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <v>2104000</v>
@@ -1051,10 +1018,10 @@
         <v>13500</v>
       </c>
       <c r="N4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="P4">
         <v>13884202433</v>
@@ -1084,7 +1051,7 @@
         <v>-6716915237</v>
       </c>
       <c r="Y4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1092,16 +1059,16 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <v>5000000</v>
@@ -1128,10 +1095,10 @@
         <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="O5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1161,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1175,10 +1142,10 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F6">
         <v>6500000</v>
@@ -1205,10 +1172,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1238,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1249,13 +1216,13 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F7">
         <v>4000000</v>
@@ -1282,10 +1249,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1315,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1326,13 +1293,13 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F8">
         <v>4000000</v>
@@ -1359,10 +1326,10 @@
         <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1392,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1406,10 +1373,10 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F9">
         <v>4000000</v>
@@ -1436,10 +1403,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1469,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1477,16 +1444,16 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F10">
         <v>600000</v>
@@ -1513,10 +1480,10 @@
         <v>16000</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O10" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="P10">
         <v>9490</v>
@@ -1546,7 +1513,7 @@
         <v>876</v>
       </c>
       <c r="Y10" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1554,16 +1521,16 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F11">
         <v>1000000</v>
@@ -1590,10 +1557,10 @@
         <v>7000</v>
       </c>
       <c r="N11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="P11">
         <v>11728856090</v>
@@ -1623,7 +1590,7 @@
         <v>-2027030543</v>
       </c>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1631,16 +1598,16 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F12">
         <v>1130000</v>
@@ -1667,10 +1634,10 @@
         <v>20000</v>
       </c>
       <c r="N12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="O12" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="P12">
         <v>-7085110800</v>
@@ -1700,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1708,16 +1675,16 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F13">
         <v>4575000</v>
@@ -1744,10 +1711,10 @@
         <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O13" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1777,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1785,16 +1752,16 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F14">
         <v>850000</v>
@@ -1821,10 +1788,10 @@
         <v>18000</v>
       </c>
       <c r="N14" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="P14">
         <v>84448377049</v>
@@ -1854,7 +1821,7 @@
         <v>1937996182</v>
       </c>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1862,16 +1829,16 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F15">
         <v>4000000</v>
@@ -1898,10 +1865,10 @@
         <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O15" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1931,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1939,16 +1906,16 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F16">
         <v>1500000</v>
@@ -1975,10 +1942,10 @@
         <v>18000</v>
       </c>
       <c r="N16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="O16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="P16">
         <v>91496346476</v>
@@ -2008,7 +1975,7 @@
         <v>7769366120</v>
       </c>
       <c r="Y16" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2016,16 +1983,16 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F17">
         <v>8707000</v>
@@ -2052,10 +2019,10 @@
         <v>7300</v>
       </c>
       <c r="N17" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="O17" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="P17">
         <v>120971135005</v>
@@ -2085,161 +2052,7 @@
         <v>7277173431</v>
       </c>
       <c r="Y17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18">
-        <v>2060000</v>
-      </c>
-      <c r="G18">
-        <v>2060000</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>4300</v>
-      </c>
-      <c r="J18">
-        <v>4900</v>
-      </c>
-      <c r="K18">
-        <v>9271339</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>5300</v>
-      </c>
-      <c r="N18" t="s">
-        <v>107</v>
-      </c>
-      <c r="O18" t="s">
-        <v>119</v>
-      </c>
-      <c r="P18">
-        <v>31236794775</v>
-      </c>
-      <c r="Q18">
-        <v>37364336431</v>
-      </c>
-      <c r="R18">
-        <v>30398728955</v>
-      </c>
-      <c r="S18">
-        <v>4950804374</v>
-      </c>
-      <c r="T18">
-        <v>5673304262</v>
-      </c>
-      <c r="U18">
-        <v>5874298651</v>
-      </c>
-      <c r="V18">
-        <v>4470133667</v>
-      </c>
-      <c r="W18">
-        <v>4761400117</v>
-      </c>
-      <c r="X18">
-        <v>4532708708</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19">
-        <v>5500000</v>
-      </c>
-      <c r="G19">
-        <v>5500000</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>2000</v>
-      </c>
-      <c r="J19">
-        <v>2000</v>
-      </c>
-      <c r="K19">
-        <v>6060000</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>2000</v>
-      </c>
-      <c r="N19" t="s">
-        <v>108</v>
-      </c>
-      <c r="O19" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="130">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-03-06</t>
+  </si>
+  <si>
     <t>2024-02-29</t>
   </si>
   <si>
@@ -127,6 +130,9 @@
     <t>2024-01-08</t>
   </si>
   <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
     <t>2024-03-07</t>
   </si>
   <si>
@@ -157,6 +163,9 @@
     <t>2024-01-12</t>
   </si>
   <si>
+    <t>2024-03-26</t>
+  </si>
+  <si>
     <t>2024-03-21</t>
   </si>
   <si>
@@ -178,12 +187,12 @@
     <t>2024-01-26</t>
   </si>
   <si>
+    <t>NH</t>
+  </si>
+  <si>
     <t>한국</t>
   </si>
   <si>
-    <t>NH</t>
-  </si>
-  <si>
     <t>DB, NH</t>
   </si>
   <si>
@@ -220,6 +229,9 @@
     <t>미래</t>
   </si>
   <si>
+    <t>엔젤로보틱스</t>
+  </si>
+  <si>
     <t>삼현</t>
   </si>
   <si>
@@ -268,6 +280,9 @@
     <t>현대힘스</t>
   </si>
   <si>
+    <t>1,157.0:1</t>
+  </si>
+  <si>
     <t>649.11:1</t>
   </si>
   <si>
@@ -316,6 +331,9 @@
     <t>680.82:1</t>
   </si>
   <si>
+    <t>16.67%</t>
+  </si>
+  <si>
     <t>10.64%</t>
   </si>
   <si>
@@ -344,6 +362,9 @@
   </si>
   <si>
     <t>11.98%</t>
+  </si>
+  <si>
+    <t>재활 전문 웨어러블 로봇, 근력 보조 무동력 웨어러블 슈트, 일상생활 보조 웨어러블 로봇 등</t>
   </si>
   <si>
     <t>스마트 액추에이터, 스마트 파워유닛</t>
@@ -740,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -828,76 +849,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F2">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="G2">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
+        <v>11000</v>
+      </c>
+      <c r="J2">
+        <v>15000</v>
+      </c>
+      <c r="K2">
+        <v>14014976</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>20000</v>
       </c>
-      <c r="J2">
-        <v>25000</v>
-      </c>
-      <c r="K2">
-        <v>10569189</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>30000</v>
-      </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="P2">
-        <v>59096247022</v>
+        <v>813929</v>
       </c>
       <c r="Q2">
-        <v>68617808568</v>
+        <v>2184312</v>
       </c>
       <c r="R2">
-        <v>72737982928</v>
+        <v>3744252</v>
       </c>
       <c r="S2">
-        <v>3774225460</v>
+        <v>-4828658</v>
       </c>
       <c r="T2">
-        <v>2753382474</v>
+        <v>-7101029</v>
       </c>
       <c r="U2">
-        <v>8000270581</v>
+        <v>-4926381</v>
       </c>
       <c r="V2">
-        <v>3791818673</v>
+        <v>-24094044</v>
       </c>
       <c r="W2">
-        <v>3322524020</v>
+        <v>-6797310</v>
       </c>
       <c r="X2">
-        <v>7223298574</v>
+        <v>-7817567</v>
       </c>
       <c r="Y2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -905,76 +926,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F3">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="G3">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="J3">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="K3">
-        <v>14104416</v>
+        <v>10569189</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="P3">
-        <v>132326879204</v>
+        <v>59096247022</v>
       </c>
       <c r="Q3">
-        <v>193893072828</v>
+        <v>68617808568</v>
       </c>
       <c r="R3">
-        <v>341250572142</v>
+        <v>72737982928</v>
       </c>
       <c r="S3">
-        <v>-7083727446</v>
+        <v>3774225460</v>
       </c>
       <c r="T3">
-        <v>49300174288</v>
+        <v>2753382474</v>
       </c>
       <c r="U3">
-        <v>150061283068</v>
+        <v>8000270581</v>
       </c>
       <c r="V3">
-        <v>1473132550</v>
+        <v>3791818673</v>
       </c>
       <c r="W3">
-        <v>40660749810</v>
+        <v>3322524020</v>
       </c>
       <c r="X3">
-        <v>120676291668</v>
+        <v>7223298574</v>
       </c>
       <c r="Y3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -982,153 +1003,153 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F4">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="G4">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="J4">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="K4">
-        <v>10867713</v>
+        <v>14104416</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="P4">
-        <v>13884202433</v>
+        <v>132326879204</v>
       </c>
       <c r="Q4">
-        <v>51182177917</v>
+        <v>193893072828</v>
       </c>
       <c r="R4">
-        <v>8127683890</v>
+        <v>341250572142</v>
       </c>
       <c r="S4">
-        <v>-2233716995</v>
+        <v>-7083727446</v>
       </c>
       <c r="T4">
-        <v>2983031122</v>
+        <v>49300174288</v>
       </c>
       <c r="U4">
-        <v>-6655066594</v>
+        <v>150061283068</v>
       </c>
       <c r="V4">
-        <v>-5046530611</v>
+        <v>1473132550</v>
       </c>
       <c r="W4">
-        <v>1523272163</v>
+        <v>40660749810</v>
       </c>
       <c r="X4">
-        <v>-6716915237</v>
+        <v>120676291668</v>
       </c>
       <c r="Y4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F5">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="G5">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K5">
-        <v>5605000</v>
+        <v>10867713</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2000</v>
+        <v>13500</v>
       </c>
       <c r="N5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>13884202433</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>51182177917</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>8127683890</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>-2233716995</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>2983031122</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>-6655066594</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>-5046530611</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1523272163</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>-6716915237</v>
       </c>
       <c r="Y5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1136,22 +1157,22 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F6">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="G6">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1163,7 +1184,7 @@
         <v>2000</v>
       </c>
       <c r="K6">
-        <v>7010000</v>
+        <v>5605000</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1172,10 +1193,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1205,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1213,22 +1234,22 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F7">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="G7">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1240,7 +1261,7 @@
         <v>2000</v>
       </c>
       <c r="K7">
-        <v>4155000</v>
+        <v>7010000</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1249,10 +1270,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1282,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1293,13 +1314,13 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F8">
         <v>4000000</v>
@@ -1317,7 +1338,7 @@
         <v>2000</v>
       </c>
       <c r="K8">
-        <v>4210000</v>
+        <v>4155000</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1326,10 +1347,10 @@
         <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1359,24 +1380,24 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F9">
         <v>4000000</v>
@@ -1394,7 +1415,7 @@
         <v>2000</v>
       </c>
       <c r="K9">
-        <v>4240000</v>
+        <v>4210000</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1403,10 +1424,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1436,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1444,76 +1465,76 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F10">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="G10">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K10">
-        <v>5661970</v>
+        <v>4240000</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="P10">
-        <v>9490</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>12525</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>8916</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1780</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>1716</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1521,218 +1542,218 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F11">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="G11">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4800</v>
+        <v>12000</v>
       </c>
       <c r="J11">
-        <v>5800</v>
+        <v>14000</v>
       </c>
       <c r="K11">
-        <v>9939614</v>
+        <v>5661970</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="P11">
-        <v>11728856090</v>
+        <v>9490</v>
       </c>
       <c r="Q11">
-        <v>17398754684</v>
+        <v>12525</v>
       </c>
       <c r="R11">
-        <v>9950753269</v>
+        <v>8916</v>
       </c>
       <c r="S11">
-        <v>210467803</v>
+        <v>154</v>
       </c>
       <c r="T11">
-        <v>768643625</v>
+        <v>1780</v>
       </c>
       <c r="U11">
-        <v>-2057246152</v>
+        <v>502</v>
       </c>
       <c r="V11">
-        <v>-1402142802</v>
+        <v>496</v>
       </c>
       <c r="W11">
-        <v>708681523</v>
+        <v>1716</v>
       </c>
       <c r="X11">
-        <v>-2027030543</v>
+        <v>876</v>
       </c>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F12">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="G12">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14500</v>
+        <v>4800</v>
       </c>
       <c r="J12">
-        <v>18500</v>
+        <v>5800</v>
       </c>
       <c r="K12">
-        <v>9465149</v>
+        <v>9939614</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="N12" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O12" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P12">
-        <v>-7085110800</v>
+        <v>11728856090</v>
       </c>
       <c r="Q12">
-        <v>-7707829743</v>
+        <v>17398754684</v>
       </c>
       <c r="R12">
-        <v>-4353776321</v>
+        <v>9950753269</v>
       </c>
       <c r="S12">
-        <v>-7444566078</v>
+        <v>210467803</v>
       </c>
       <c r="T12">
-        <v>-8116734518</v>
+        <v>768643625</v>
       </c>
       <c r="U12">
-        <v>-4808043488</v>
+        <v>-2057246152</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>-1402142802</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>708681523</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>-2027030543</v>
       </c>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F13">
-        <v>4575000</v>
+        <v>1130000</v>
       </c>
       <c r="G13">
-        <v>4575000</v>
+        <v>1130000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>14500</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>18500</v>
       </c>
       <c r="K13">
-        <v>4690000</v>
+        <v>9465149</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="O13" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>-7085110800</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-7707829743</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>-4353776321</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>-7444566078</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>-8116734518</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>-4808043488</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -1744,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1752,73 +1773,73 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F14">
-        <v>850000</v>
+        <v>4575000</v>
       </c>
       <c r="G14">
-        <v>850000</v>
+        <v>4575000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="J14">
-        <v>16500</v>
+        <v>2000</v>
       </c>
       <c r="K14">
-        <v>4225498</v>
+        <v>4690000</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P14">
-        <v>84448377049</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>86585909893</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>71141473670</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>4232543828</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>2396516104</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>2260522008</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>3768461107</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>1925269107</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>1937996182</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="s">
         <v>120</v>
@@ -1826,79 +1847,79 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F15">
-        <v>4000000</v>
+        <v>850000</v>
       </c>
       <c r="G15">
-        <v>4000000</v>
+        <v>850000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>14500</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>16500</v>
       </c>
       <c r="K15">
-        <v>4230000</v>
+        <v>4225498</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N15" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="O15" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>84448377049</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>86585909893</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>71141473670</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>4232543828</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>2396516104</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>2260522008</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>3768461107</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1925269107</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1937996182</v>
       </c>
       <c r="Y15" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1906,76 +1927,76 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F16">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="G16">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J16">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K16">
-        <v>9355485</v>
+        <v>4230000</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N16" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P16">
-        <v>91496346476</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>91488384999</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>63460787949</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>9436568051</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>11992232752</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>8323875572</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>8609153489</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>6967992579</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>7769366120</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1983,76 +2004,153 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F17">
+        <v>1500000</v>
+      </c>
+      <c r="G17">
+        <v>1500000</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>13000</v>
+      </c>
+      <c r="J17">
+        <v>15000</v>
+      </c>
+      <c r="K17">
+        <v>9355485</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>18000</v>
+      </c>
+      <c r="N17" t="s">
+        <v>103</v>
+      </c>
+      <c r="O17" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17">
+        <v>91496346476</v>
+      </c>
+      <c r="Q17">
+        <v>91488384999</v>
+      </c>
+      <c r="R17">
+        <v>63460787949</v>
+      </c>
+      <c r="S17">
+        <v>9436568051</v>
+      </c>
+      <c r="T17">
+        <v>11992232752</v>
+      </c>
+      <c r="U17">
+        <v>8323875572</v>
+      </c>
+      <c r="V17">
+        <v>8609153489</v>
+      </c>
+      <c r="W17">
+        <v>6967992579</v>
+      </c>
+      <c r="X17">
+        <v>7769366120</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18">
         <v>8707000</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>5224000</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>3483000</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>5000</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>6300</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>34824000</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>7300</v>
       </c>
-      <c r="N17" t="s">
-        <v>99</v>
-      </c>
-      <c r="O17" t="s">
-        <v>109</v>
-      </c>
-      <c r="P17">
+      <c r="N18" t="s">
+        <v>104</v>
+      </c>
+      <c r="O18" t="s">
+        <v>115</v>
+      </c>
+      <c r="P18">
         <v>120971135005</v>
       </c>
-      <c r="Q17">
+      <c r="Q18">
         <v>144752544468</v>
       </c>
-      <c r="R17">
+      <c r="R18">
         <v>134349576051</v>
       </c>
-      <c r="S17">
+      <c r="S18">
         <v>6228818073</v>
       </c>
-      <c r="T17">
+      <c r="T18">
         <v>3756954475</v>
       </c>
-      <c r="U17">
+      <c r="U18">
         <v>11092990558</v>
       </c>
-      <c r="V17">
+      <c r="V18">
         <v>4708568182</v>
       </c>
-      <c r="W17">
+      <c r="W18">
         <v>4366217534</v>
       </c>
-      <c r="X17">
+      <c r="X18">
         <v>7277173431</v>
       </c>
-      <c r="Y17" t="s">
-        <v>122</v>
+      <c r="Y18" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="125">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
     <t>2024-03-06</t>
   </si>
   <si>
@@ -127,10 +130,7 @@
     <t>2024-01-05</t>
   </si>
   <si>
-    <t>2024-01-08</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
+    <t>2024-03-13</t>
   </si>
   <si>
     <t>2024-03-07</t>
@@ -160,7 +160,7 @@
     <t>2024-01-11</t>
   </si>
   <si>
-    <t>2024-01-12</t>
+    <t>2024-03-27</t>
   </si>
   <si>
     <t>2024-03-26</t>
@@ -169,9 +169,6 @@
     <t>2024-03-21</t>
   </si>
   <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
     <t>2024-03-05</t>
   </si>
   <si>
@@ -184,7 +181,7 @@
     <t>2024-02-06</t>
   </si>
   <si>
-    <t>2024-01-26</t>
+    <t>하나</t>
   </si>
   <si>
     <t>NH</t>
@@ -196,9 +193,6 @@
     <t>DB, NH</t>
   </si>
   <si>
-    <t>하나</t>
-  </si>
-  <si>
     <t>유안타</t>
   </si>
   <si>
@@ -226,7 +220,7 @@
     <t>IBK</t>
   </si>
   <si>
-    <t>미래</t>
+    <t>하나32호스팩</t>
   </si>
   <si>
     <t>엔젤로보틱스</t>
@@ -277,7 +271,7 @@
     <t>포스뱅크</t>
   </si>
   <si>
-    <t>현대힘스</t>
+    <t>1247.72:1</t>
   </si>
   <si>
     <t>1,157.0:1</t>
@@ -328,7 +322,7 @@
     <t>839.03:1</t>
   </si>
   <si>
-    <t>680.82:1</t>
+    <t>-</t>
   </si>
   <si>
     <t>16.67%</t>
@@ -343,9 +337,6 @@
     <t>31.86%</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>10.04%</t>
   </si>
   <si>
@@ -361,7 +352,7 @@
     <t>6.21%</t>
   </si>
   <si>
-    <t>11.98%</t>
+    <t>기업인수합병</t>
   </si>
   <si>
     <t>재활 전문 웨어러블 로봇, 근력 보조 무동력 웨어러블 슈트, 일상생활 보조 웨어러블 로봇 등</t>
@@ -376,9 +367,6 @@
     <t>특수목적 시험장비, 산업용로봇</t>
   </si>
   <si>
-    <t>기업인수합병</t>
-  </si>
-  <si>
     <t>금융 지원 서비스</t>
   </si>
   <si>
@@ -401,9 +389,6 @@
   </si>
   <si>
     <t>POS 단말기, KIOSK 단말기</t>
-  </si>
-  <si>
-    <t>선박기자재 (선박 블록, 보강재, 도장 등)</t>
   </si>
 </sst>
 </file>
@@ -852,73 +837,73 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F2">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="G2">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K2">
-        <v>14014976</v>
+        <v>3200000</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P2">
-        <v>813929</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2184312</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>3744252</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>-4828658</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>-7101029</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>-4926381</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>-24094044</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>-6797310</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-7817567</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -926,76 +911,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F3">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="G3">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
+        <v>11000</v>
+      </c>
+      <c r="J3">
+        <v>15000</v>
+      </c>
+      <c r="K3">
+        <v>14014976</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>20000</v>
       </c>
-      <c r="J3">
-        <v>25000</v>
-      </c>
-      <c r="K3">
-        <v>10569189</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>30000</v>
-      </c>
       <c r="N3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P3">
-        <v>59096247022</v>
+        <v>813929</v>
       </c>
       <c r="Q3">
-        <v>68617808568</v>
+        <v>2184312</v>
       </c>
       <c r="R3">
-        <v>72737982928</v>
+        <v>3744252</v>
       </c>
       <c r="S3">
-        <v>3774225460</v>
+        <v>-4828658</v>
       </c>
       <c r="T3">
-        <v>2753382474</v>
+        <v>-7101029</v>
       </c>
       <c r="U3">
-        <v>8000270581</v>
+        <v>-4926381</v>
       </c>
       <c r="V3">
-        <v>3791818673</v>
+        <v>-24094044</v>
       </c>
       <c r="W3">
-        <v>3322524020</v>
+        <v>-6797310</v>
       </c>
       <c r="X3">
-        <v>7223298574</v>
+        <v>-7817567</v>
       </c>
       <c r="Y3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1003,76 +988,76 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F4">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="G4">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="J4">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="K4">
-        <v>14104416</v>
+        <v>10569189</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P4">
-        <v>132326879204</v>
+        <v>59096247022</v>
       </c>
       <c r="Q4">
-        <v>193893072828</v>
+        <v>68617808568</v>
       </c>
       <c r="R4">
-        <v>341250572142</v>
+        <v>72737982928</v>
       </c>
       <c r="S4">
-        <v>-7083727446</v>
+        <v>3774225460</v>
       </c>
       <c r="T4">
-        <v>49300174288</v>
+        <v>2753382474</v>
       </c>
       <c r="U4">
-        <v>150061283068</v>
+        <v>8000270581</v>
       </c>
       <c r="V4">
-        <v>1473132550</v>
+        <v>3791818673</v>
       </c>
       <c r="W4">
-        <v>40660749810</v>
+        <v>3322524020</v>
       </c>
       <c r="X4">
-        <v>120676291668</v>
+        <v>7223298574</v>
       </c>
       <c r="Y4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1080,153 +1065,153 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F5">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="G5">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="J5">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="K5">
-        <v>10867713</v>
+        <v>14104416</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="N5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P5">
-        <v>13884202433</v>
+        <v>132326879204</v>
       </c>
       <c r="Q5">
-        <v>51182177917</v>
+        <v>193893072828</v>
       </c>
       <c r="R5">
-        <v>8127683890</v>
+        <v>341250572142</v>
       </c>
       <c r="S5">
-        <v>-2233716995</v>
+        <v>-7083727446</v>
       </c>
       <c r="T5">
-        <v>2983031122</v>
+        <v>49300174288</v>
       </c>
       <c r="U5">
-        <v>-6655066594</v>
+        <v>150061283068</v>
       </c>
       <c r="V5">
-        <v>-5046530611</v>
+        <v>1473132550</v>
       </c>
       <c r="W5">
-        <v>1523272163</v>
+        <v>40660749810</v>
       </c>
       <c r="X5">
-        <v>-6716915237</v>
+        <v>120676291668</v>
       </c>
       <c r="Y5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F6">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="G6">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K6">
-        <v>5605000</v>
+        <v>10867713</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2000</v>
+        <v>13500</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>13884202433</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>51182177917</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>8127683890</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>-2233716995</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>2983031122</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>-6655066594</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>-5046530611</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1523272163</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>-6716915237</v>
       </c>
       <c r="Y6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1234,22 +1219,22 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F7">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="G7">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1261,7 +1246,7 @@
         <v>2000</v>
       </c>
       <c r="K7">
-        <v>7010000</v>
+        <v>5605000</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1270,10 +1255,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1303,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1311,22 +1296,22 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F8">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="G8">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1338,7 +1323,7 @@
         <v>2000</v>
       </c>
       <c r="K8">
-        <v>4155000</v>
+        <v>7010000</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1347,10 +1332,10 @@
         <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1380,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1394,10 +1379,10 @@
         <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F9">
         <v>4000000</v>
@@ -1415,7 +1400,7 @@
         <v>2000</v>
       </c>
       <c r="K9">
-        <v>4210000</v>
+        <v>4155000</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1424,10 +1409,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1457,24 +1442,24 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F10">
         <v>4000000</v>
@@ -1492,7 +1477,7 @@
         <v>2000</v>
       </c>
       <c r="K10">
-        <v>4240000</v>
+        <v>4210000</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1501,10 +1486,10 @@
         <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1534,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1542,76 +1527,76 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F11">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="G11">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="J11">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K11">
-        <v>5661970</v>
+        <v>4240000</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O11" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="P11">
-        <v>9490</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>12525</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>8916</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>1780</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>1716</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1619,218 +1604,218 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F12">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="G12">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4800</v>
+        <v>12000</v>
       </c>
       <c r="J12">
-        <v>5800</v>
+        <v>14000</v>
       </c>
       <c r="K12">
-        <v>9939614</v>
+        <v>5661970</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="N12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P12">
-        <v>11728856090</v>
+        <v>9490</v>
       </c>
       <c r="Q12">
-        <v>17398754684</v>
+        <v>12525</v>
       </c>
       <c r="R12">
-        <v>9950753269</v>
+        <v>8916</v>
       </c>
       <c r="S12">
-        <v>210467803</v>
+        <v>154</v>
       </c>
       <c r="T12">
-        <v>768643625</v>
+        <v>1780</v>
       </c>
       <c r="U12">
-        <v>-2057246152</v>
+        <v>502</v>
       </c>
       <c r="V12">
-        <v>-1402142802</v>
+        <v>496</v>
       </c>
       <c r="W12">
-        <v>708681523</v>
+        <v>1716</v>
       </c>
       <c r="X12">
-        <v>-2027030543</v>
+        <v>876</v>
       </c>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F13">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="G13">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14500</v>
+        <v>4800</v>
       </c>
       <c r="J13">
-        <v>18500</v>
+        <v>5800</v>
       </c>
       <c r="K13">
-        <v>9465149</v>
+        <v>9939614</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="N13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P13">
-        <v>-7085110800</v>
+        <v>11728856090</v>
       </c>
       <c r="Q13">
-        <v>-7707829743</v>
+        <v>17398754684</v>
       </c>
       <c r="R13">
-        <v>-4353776321</v>
+        <v>9950753269</v>
       </c>
       <c r="S13">
-        <v>-7444566078</v>
+        <v>210467803</v>
       </c>
       <c r="T13">
-        <v>-8116734518</v>
+        <v>768643625</v>
       </c>
       <c r="U13">
-        <v>-4808043488</v>
+        <v>-2057246152</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>-1402142802</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>708681523</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>-2027030543</v>
       </c>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F14">
-        <v>4575000</v>
+        <v>1130000</v>
       </c>
       <c r="G14">
-        <v>4575000</v>
+        <v>1130000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2000</v>
+        <v>14500</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>18500</v>
       </c>
       <c r="K14">
-        <v>4690000</v>
+        <v>9465149</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O14" t="s">
         <v>109</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>-7085110800</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-7707829743</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>-4353776321</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>-7444566078</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>-8116734518</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>-4808043488</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -1842,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1853,147 +1838,147 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F15">
-        <v>850000</v>
+        <v>4575000</v>
       </c>
       <c r="G15">
-        <v>850000</v>
+        <v>4575000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14500</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>16500</v>
+        <v>2000</v>
       </c>
       <c r="K15">
-        <v>4225498</v>
+        <v>4690000</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O15" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="P15">
-        <v>84448377049</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>86585909893</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>71141473670</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>4232543828</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>2396516104</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>2260522008</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>3768461107</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>1925269107</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>1937996182</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F16">
-        <v>4000000</v>
+        <v>850000</v>
       </c>
       <c r="G16">
-        <v>4000000</v>
+        <v>850000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2000</v>
+        <v>14500</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>16500</v>
       </c>
       <c r="K16">
-        <v>4230000</v>
+        <v>4225498</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>84448377049</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>86585909893</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>71141473670</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>4232543828</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>2396516104</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>2260522008</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>3768461107</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1925269107</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1937996182</v>
       </c>
       <c r="Y16" t="s">
         <v>123</v>
@@ -2004,76 +1989,76 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F17">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="G17">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J17">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K17">
-        <v>9355485</v>
+        <v>4230000</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="P17">
-        <v>91496346476</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>91488384999</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>63460787949</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>9436568051</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>11992232752</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>8323875572</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>8609153489</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>6967992579</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>7769366120</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2081,76 +2066,76 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F18">
-        <v>8707000</v>
+        <v>1500000</v>
       </c>
       <c r="G18">
-        <v>5224000</v>
+        <v>1500000</v>
       </c>
       <c r="H18">
-        <v>3483000</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="J18">
-        <v>6300</v>
+        <v>15000</v>
       </c>
       <c r="K18">
-        <v>34824000</v>
+        <v>9355485</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>7300</v>
+        <v>18000</v>
       </c>
       <c r="N18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P18">
-        <v>120971135005</v>
+        <v>91496346476</v>
       </c>
       <c r="Q18">
-        <v>144752544468</v>
+        <v>91488384999</v>
       </c>
       <c r="R18">
-        <v>134349576051</v>
+        <v>63460787949</v>
       </c>
       <c r="S18">
-        <v>6228818073</v>
+        <v>9436568051</v>
       </c>
       <c r="T18">
-        <v>3756954475</v>
+        <v>11992232752</v>
       </c>
       <c r="U18">
-        <v>11092990558</v>
+        <v>8323875572</v>
       </c>
       <c r="V18">
-        <v>4708568182</v>
+        <v>8609153489</v>
       </c>
       <c r="W18">
-        <v>4366217534</v>
+        <v>6967992579</v>
       </c>
       <c r="X18">
-        <v>7277173431</v>
+        <v>7769366120</v>
       </c>
       <c r="Y18" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="119">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -127,9 +127,6 @@
     <t>2024-01-17</t>
   </si>
   <si>
-    <t>2024-01-05</t>
-  </si>
-  <si>
     <t>2024-03-13</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>2024-01-18</t>
   </si>
   <si>
-    <t>2024-01-11</t>
-  </si>
-  <si>
     <t>2024-03-27</t>
   </si>
   <si>
@@ -268,9 +262,6 @@
     <t>IBKS제24호스팩</t>
   </si>
   <si>
-    <t>포스뱅크</t>
-  </si>
-  <si>
     <t>1247.72:1</t>
   </si>
   <si>
@@ -319,9 +310,6 @@
     <t>955.19:1</t>
   </si>
   <si>
-    <t>839.03:1</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -349,9 +337,6 @@
     <t>5.55%</t>
   </si>
   <si>
-    <t>6.21%</t>
-  </si>
-  <si>
     <t>기업인수합병</t>
   </si>
   <si>
@@ -386,9 +371,6 @@
   </si>
   <si>
     <t>침실가구, 거실가구, 옷장/수납, 주방가구 등</t>
-  </si>
-  <si>
-    <t>POS 단말기, KIOSK 단말기</t>
   </si>
 </sst>
 </file>
@@ -746,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -834,16 +816,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F2">
         <v>3000000</v>
@@ -870,10 +852,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -903,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -914,13 +896,13 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3">
         <v>1600000</v>
@@ -947,10 +929,10 @@
         <v>20000</v>
       </c>
       <c r="N3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P3">
         <v>813929</v>
@@ -980,7 +962,7 @@
         <v>-7817567</v>
       </c>
       <c r="Y3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -988,16 +970,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4">
         <v>2000000</v>
@@ -1024,10 +1006,10 @@
         <v>30000</v>
       </c>
       <c r="N4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P4">
         <v>59096247022</v>
@@ -1057,7 +1039,7 @@
         <v>7223298574</v>
       </c>
       <c r="Y4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1065,16 +1047,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F5">
         <v>990000</v>
@@ -1101,10 +1083,10 @@
         <v>20000</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P5">
         <v>132326879204</v>
@@ -1134,7 +1116,7 @@
         <v>120676291668</v>
       </c>
       <c r="Y5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1142,16 +1124,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <v>2104000</v>
@@ -1178,10 +1160,10 @@
         <v>13500</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P6">
         <v>13884202433</v>
@@ -1211,7 +1193,7 @@
         <v>-6716915237</v>
       </c>
       <c r="Y6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1219,16 +1201,16 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F7">
         <v>5000000</v>
@@ -1255,10 +1237,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1288,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1302,10 +1284,10 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F8">
         <v>6500000</v>
@@ -1332,10 +1314,10 @@
         <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1365,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1376,13 +1358,13 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F9">
         <v>4000000</v>
@@ -1409,10 +1391,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1442,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1453,13 +1435,13 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F10">
         <v>4000000</v>
@@ -1486,10 +1468,10 @@
         <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1519,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1533,10 +1515,10 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F11">
         <v>4000000</v>
@@ -1563,10 +1545,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1596,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1604,16 +1586,16 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F12">
         <v>600000</v>
@@ -1640,10 +1622,10 @@
         <v>16000</v>
       </c>
       <c r="N12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P12">
         <v>9490</v>
@@ -1673,7 +1655,7 @@
         <v>876</v>
       </c>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1681,16 +1663,16 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F13">
         <v>1000000</v>
@@ -1717,10 +1699,10 @@
         <v>7000</v>
       </c>
       <c r="N13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P13">
         <v>11728856090</v>
@@ -1750,7 +1732,7 @@
         <v>-2027030543</v>
       </c>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1758,16 +1740,16 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F14">
         <v>1130000</v>
@@ -1794,10 +1776,10 @@
         <v>20000</v>
       </c>
       <c r="N14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P14">
         <v>-7085110800</v>
@@ -1827,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1835,16 +1817,16 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F15">
         <v>4575000</v>
@@ -1871,11 +1853,11 @@
         <v>2000</v>
       </c>
       <c r="N15" t="s">
+        <v>95</v>
+      </c>
+      <c r="O15" t="s">
         <v>98</v>
       </c>
-      <c r="O15" t="s">
-        <v>102</v>
-      </c>
       <c r="P15">
         <v>0</v>
       </c>
@@ -1904,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1912,16 +1894,16 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16">
         <v>850000</v>
@@ -1948,10 +1930,10 @@
         <v>18000</v>
       </c>
       <c r="N16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P16">
         <v>84448377049</v>
@@ -1981,7 +1963,7 @@
         <v>1937996182</v>
       </c>
       <c r="Y16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1989,16 +1971,16 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F17">
         <v>4000000</v>
@@ -2025,10 +2007,10 @@
         <v>2000</v>
       </c>
       <c r="N17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2058,84 +2040,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18">
-        <v>1500000</v>
-      </c>
-      <c r="G18">
-        <v>1500000</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>13000</v>
-      </c>
-      <c r="J18">
-        <v>15000</v>
-      </c>
-      <c r="K18">
-        <v>9355485</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>18000</v>
-      </c>
-      <c r="N18" t="s">
-        <v>101</v>
-      </c>
-      <c r="O18" t="s">
-        <v>111</v>
-      </c>
-      <c r="P18">
-        <v>91496346476</v>
-      </c>
-      <c r="Q18">
-        <v>91488384999</v>
-      </c>
-      <c r="R18">
-        <v>63460787949</v>
-      </c>
-      <c r="S18">
-        <v>9436568051</v>
-      </c>
-      <c r="T18">
-        <v>11992232752</v>
-      </c>
-      <c r="U18">
-        <v>8323875572</v>
-      </c>
-      <c r="V18">
-        <v>8609153489</v>
-      </c>
-      <c r="W18">
-        <v>6967992579</v>
-      </c>
-      <c r="X18">
-        <v>7769366120</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="115">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -151,9 +151,6 @@
     <t>2024-01-23</t>
   </si>
   <si>
-    <t>2024-01-18</t>
-  </si>
-  <si>
     <t>2024-03-27</t>
   </si>
   <si>
@@ -211,9 +208,6 @@
     <t>DB</t>
   </si>
   <si>
-    <t>IBK</t>
-  </si>
-  <si>
     <t>하나32호스팩</t>
   </si>
   <si>
@@ -259,9 +253,6 @@
     <t>스튜디오삼익</t>
   </si>
   <si>
-    <t>IBKS제24호스팩</t>
-  </si>
-  <si>
     <t>1247.72:1</t>
   </si>
   <si>
@@ -305,9 +296,6 @@
   </si>
   <si>
     <t>966.90:1</t>
-  </si>
-  <si>
-    <t>955.19:1</t>
   </si>
   <si>
     <t>-</t>
@@ -728,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -819,13 +807,13 @@
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F2">
         <v>3000000</v>
@@ -852,10 +840,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -885,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -896,13 +884,13 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3">
         <v>1600000</v>
@@ -929,10 +917,10 @@
         <v>20000</v>
       </c>
       <c r="N3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P3">
         <v>813929</v>
@@ -962,7 +950,7 @@
         <v>-7817567</v>
       </c>
       <c r="Y3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -973,13 +961,13 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F4">
         <v>2000000</v>
@@ -1006,10 +994,10 @@
         <v>30000</v>
       </c>
       <c r="N4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P4">
         <v>59096247022</v>
@@ -1039,7 +1027,7 @@
         <v>7223298574</v>
       </c>
       <c r="Y4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1053,10 +1041,10 @@
         <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5">
         <v>990000</v>
@@ -1083,10 +1071,10 @@
         <v>20000</v>
       </c>
       <c r="N5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="P5">
         <v>132326879204</v>
@@ -1116,7 +1104,7 @@
         <v>120676291668</v>
       </c>
       <c r="Y5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1130,10 +1118,10 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6">
         <v>2104000</v>
@@ -1160,10 +1148,10 @@
         <v>13500</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P6">
         <v>13884202433</v>
@@ -1193,7 +1181,7 @@
         <v>-6716915237</v>
       </c>
       <c r="Y6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1204,13 +1192,13 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F7">
         <v>5000000</v>
@@ -1237,10 +1225,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1270,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1284,10 +1272,10 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F8">
         <v>6500000</v>
@@ -1314,10 +1302,10 @@
         <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1347,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1358,13 +1346,13 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F9">
         <v>4000000</v>
@@ -1391,10 +1379,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1424,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1435,13 +1423,13 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F10">
         <v>4000000</v>
@@ -1468,10 +1456,10 @@
         <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1501,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1515,10 +1503,10 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F11">
         <v>4000000</v>
@@ -1545,10 +1533,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1578,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1589,13 +1577,13 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F12">
         <v>600000</v>
@@ -1622,10 +1610,10 @@
         <v>16000</v>
       </c>
       <c r="N12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P12">
         <v>9490</v>
@@ -1655,7 +1643,7 @@
         <v>876</v>
       </c>
       <c r="Y12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1669,10 +1657,10 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F13">
         <v>1000000</v>
@@ -1699,10 +1687,10 @@
         <v>7000</v>
       </c>
       <c r="N13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P13">
         <v>11728856090</v>
@@ -1732,7 +1720,7 @@
         <v>-2027030543</v>
       </c>
       <c r="Y13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1743,13 +1731,13 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F14">
         <v>1130000</v>
@@ -1776,10 +1764,10 @@
         <v>20000</v>
       </c>
       <c r="N14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P14">
         <v>-7085110800</v>
@@ -1809,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1820,13 +1808,13 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F15">
         <v>4575000</v>
@@ -1853,10 +1841,10 @@
         <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1886,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1897,13 +1885,13 @@
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F16">
         <v>850000</v>
@@ -1930,10 +1918,10 @@
         <v>18000</v>
       </c>
       <c r="N16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P16">
         <v>84448377049</v>
@@ -1963,83 +1951,6 @@
         <v>1937996182</v>
       </c>
       <c r="Y16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17">
-        <v>4000000</v>
-      </c>
-      <c r="G17">
-        <v>4000000</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>2000</v>
-      </c>
-      <c r="J17">
-        <v>2000</v>
-      </c>
-      <c r="K17">
-        <v>4230000</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>2000</v>
-      </c>
-      <c r="N17" t="s">
-        <v>97</v>
-      </c>
-      <c r="O17" t="s">
-        <v>98</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="s">
         <v>114</v>
       </c>
     </row>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="122">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-03-14</t>
+  </si>
+  <si>
     <t>2024-03-12</t>
   </si>
   <si>
@@ -127,6 +130,9 @@
     <t>2024-01-17</t>
   </si>
   <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
     <t>2024-03-13</t>
   </si>
   <si>
@@ -151,6 +157,9 @@
     <t>2024-01-23</t>
   </si>
   <si>
+    <t>2024-04-03</t>
+  </si>
+  <si>
     <t>2024-03-27</t>
   </si>
   <si>
@@ -172,6 +181,9 @@
     <t>2024-02-06</t>
   </si>
   <si>
+    <t>미래</t>
+  </si>
+  <si>
     <t>하나</t>
   </si>
   <si>
@@ -208,6 +220,9 @@
     <t>DB</t>
   </si>
   <si>
+    <t>아이엠비디엑스</t>
+  </si>
+  <si>
     <t>하나32호스팩</t>
   </si>
   <si>
@@ -253,6 +268,9 @@
     <t>스튜디오삼익</t>
   </si>
   <si>
+    <t>865.73 :1</t>
+  </si>
+  <si>
     <t>1247.72:1</t>
   </si>
   <si>
@@ -323,6 +341,9 @@
   </si>
   <si>
     <t>5.55%</t>
+  </si>
+  <si>
+    <t>알파리퀴드ⓡ 100, 알파리퀴드ⓡ HRR, 알파리퀴드ⓡ 디텍트, 알파리퀴드ⓡ 스크리닝</t>
   </si>
   <si>
     <t>기업인수합병</t>
@@ -716,7 +737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -804,76 +825,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F2">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="G2">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>7700</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>9900</v>
       </c>
       <c r="K2">
-        <v>3200000</v>
+        <v>13992625</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1230336508</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2624739502</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>2926965114</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-5277789009</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-8667658271</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-4923399541</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-9788525741</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-10436419054</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-7563224846</v>
       </c>
       <c r="Y2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -881,76 +902,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F3">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="G3">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K3">
-        <v>14014976</v>
+        <v>3200000</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P3">
-        <v>813929</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2184312</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>3744252</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>-4828658</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>-7101029</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>-4926381</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>-24094044</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-6797310</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-7817567</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -958,76 +979,76 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F4">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="G4">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
+        <v>11000</v>
+      </c>
+      <c r="J4">
+        <v>15000</v>
+      </c>
+      <c r="K4">
+        <v>14014976</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>20000</v>
       </c>
-      <c r="J4">
-        <v>25000</v>
-      </c>
-      <c r="K4">
-        <v>10569189</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>30000</v>
-      </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P4">
-        <v>59096247022</v>
+        <v>813929</v>
       </c>
       <c r="Q4">
-        <v>68617808568</v>
+        <v>2184312</v>
       </c>
       <c r="R4">
-        <v>72737982928</v>
+        <v>3744252</v>
       </c>
       <c r="S4">
-        <v>3774225460</v>
+        <v>-4828658</v>
       </c>
       <c r="T4">
-        <v>2753382474</v>
+        <v>-7101029</v>
       </c>
       <c r="U4">
-        <v>8000270581</v>
+        <v>-4926381</v>
       </c>
       <c r="V4">
-        <v>3791818673</v>
+        <v>-24094044</v>
       </c>
       <c r="W4">
-        <v>3322524020</v>
+        <v>-6797310</v>
       </c>
       <c r="X4">
-        <v>7223298574</v>
+        <v>-7817567</v>
       </c>
       <c r="Y4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1035,76 +1056,76 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F5">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="G5">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="J5">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="K5">
-        <v>14104416</v>
+        <v>10569189</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="P5">
-        <v>132326879204</v>
+        <v>59096247022</v>
       </c>
       <c r="Q5">
-        <v>193893072828</v>
+        <v>68617808568</v>
       </c>
       <c r="R5">
-        <v>341250572142</v>
+        <v>72737982928</v>
       </c>
       <c r="S5">
-        <v>-7083727446</v>
+        <v>3774225460</v>
       </c>
       <c r="T5">
-        <v>49300174288</v>
+        <v>2753382474</v>
       </c>
       <c r="U5">
-        <v>150061283068</v>
+        <v>8000270581</v>
       </c>
       <c r="V5">
-        <v>1473132550</v>
+        <v>3791818673</v>
       </c>
       <c r="W5">
-        <v>40660749810</v>
+        <v>3322524020</v>
       </c>
       <c r="X5">
-        <v>120676291668</v>
+        <v>7223298574</v>
       </c>
       <c r="Y5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1112,153 +1133,153 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F6">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="G6">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="J6">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="K6">
-        <v>10867713</v>
+        <v>14104416</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="P6">
-        <v>13884202433</v>
+        <v>132326879204</v>
       </c>
       <c r="Q6">
-        <v>51182177917</v>
+        <v>193893072828</v>
       </c>
       <c r="R6">
-        <v>8127683890</v>
+        <v>341250572142</v>
       </c>
       <c r="S6">
-        <v>-2233716995</v>
+        <v>-7083727446</v>
       </c>
       <c r="T6">
-        <v>2983031122</v>
+        <v>49300174288</v>
       </c>
       <c r="U6">
-        <v>-6655066594</v>
+        <v>150061283068</v>
       </c>
       <c r="V6">
-        <v>-5046530611</v>
+        <v>1473132550</v>
       </c>
       <c r="W6">
-        <v>1523272163</v>
+        <v>40660749810</v>
       </c>
       <c r="X6">
-        <v>-6716915237</v>
+        <v>120676291668</v>
       </c>
       <c r="Y6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F7">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="G7">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K7">
-        <v>5605000</v>
+        <v>10867713</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2000</v>
+        <v>13500</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>13884202433</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>51182177917</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>8127683890</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>-2233716995</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>2983031122</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>-6655066594</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>-5046530611</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1523272163</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>-6716915237</v>
       </c>
       <c r="Y7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1266,22 +1287,22 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F8">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="G8">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1293,7 +1314,7 @@
         <v>2000</v>
       </c>
       <c r="K8">
-        <v>7010000</v>
+        <v>5605000</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1302,10 +1323,10 @@
         <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1335,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1343,22 +1364,22 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F9">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="G9">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1370,7 +1391,7 @@
         <v>2000</v>
       </c>
       <c r="K9">
-        <v>4155000</v>
+        <v>7010000</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1379,10 +1400,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1412,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1423,13 +1444,13 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F10">
         <v>4000000</v>
@@ -1447,7 +1468,7 @@
         <v>2000</v>
       </c>
       <c r="K10">
-        <v>4210000</v>
+        <v>4155000</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1456,10 +1477,10 @@
         <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1489,24 +1510,24 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F11">
         <v>4000000</v>
@@ -1524,7 +1545,7 @@
         <v>2000</v>
       </c>
       <c r="K11">
-        <v>4240000</v>
+        <v>4210000</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1533,10 +1554,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1566,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1574,76 +1595,76 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F12">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="G12">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="J12">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K12">
-        <v>5661970</v>
+        <v>4240000</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P12">
-        <v>9490</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>12525</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>8916</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>1780</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>1716</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1651,218 +1672,218 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F13">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="G13">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4800</v>
+        <v>12000</v>
       </c>
       <c r="J13">
-        <v>5800</v>
+        <v>14000</v>
       </c>
       <c r="K13">
-        <v>9939614</v>
+        <v>5661970</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="N13" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O13" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="P13">
-        <v>11728856090</v>
+        <v>9490</v>
       </c>
       <c r="Q13">
-        <v>17398754684</v>
+        <v>12525</v>
       </c>
       <c r="R13">
-        <v>9950753269</v>
+        <v>8916</v>
       </c>
       <c r="S13">
-        <v>210467803</v>
+        <v>154</v>
       </c>
       <c r="T13">
-        <v>768643625</v>
+        <v>1780</v>
       </c>
       <c r="U13">
-        <v>-2057246152</v>
+        <v>502</v>
       </c>
       <c r="V13">
-        <v>-1402142802</v>
+        <v>496</v>
       </c>
       <c r="W13">
-        <v>708681523</v>
+        <v>1716</v>
       </c>
       <c r="X13">
-        <v>-2027030543</v>
+        <v>876</v>
       </c>
       <c r="Y13" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
         <v>42</v>
       </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F14">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="G14">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14500</v>
+        <v>4800</v>
       </c>
       <c r="J14">
-        <v>18500</v>
+        <v>5800</v>
       </c>
       <c r="K14">
-        <v>9465149</v>
+        <v>9939614</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="N14" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O14" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="P14">
-        <v>-7085110800</v>
+        <v>11728856090</v>
       </c>
       <c r="Q14">
-        <v>-7707829743</v>
+        <v>17398754684</v>
       </c>
       <c r="R14">
-        <v>-4353776321</v>
+        <v>9950753269</v>
       </c>
       <c r="S14">
-        <v>-7444566078</v>
+        <v>210467803</v>
       </c>
       <c r="T14">
-        <v>-8116734518</v>
+        <v>768643625</v>
       </c>
       <c r="U14">
-        <v>-4808043488</v>
+        <v>-2057246152</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>-1402142802</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>708681523</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>-2027030543</v>
       </c>
       <c r="Y14" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F15">
-        <v>4575000</v>
+        <v>1130000</v>
       </c>
       <c r="G15">
-        <v>4575000</v>
+        <v>1130000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>14500</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>18500</v>
       </c>
       <c r="K15">
-        <v>4690000</v>
+        <v>9465149</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N15" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="O15" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>-7085110800</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-7707829743</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>-4353776321</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>-7444566078</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>-8116734518</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>-4808043488</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -1874,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1882,76 +1903,153 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F16">
+        <v>4575000</v>
+      </c>
+      <c r="G16">
+        <v>4575000</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>2000</v>
+      </c>
+      <c r="J16">
+        <v>2000</v>
+      </c>
+      <c r="K16">
+        <v>4690000</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>2000</v>
+      </c>
+      <c r="N16" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17">
         <v>850000</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>850000</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>14500</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>16500</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <v>4225498</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>18000</v>
       </c>
-      <c r="N16" t="s">
-        <v>93</v>
-      </c>
-      <c r="O16" t="s">
-        <v>102</v>
-      </c>
-      <c r="P16">
+      <c r="N17" t="s">
+        <v>99</v>
+      </c>
+      <c r="O17" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17">
         <v>84448377049</v>
       </c>
-      <c r="Q16">
+      <c r="Q17">
         <v>86585909893</v>
       </c>
-      <c r="R16">
+      <c r="R17">
         <v>71141473670</v>
       </c>
-      <c r="S16">
+      <c r="S17">
         <v>4232543828</v>
       </c>
-      <c r="T16">
+      <c r="T17">
         <v>2396516104</v>
       </c>
-      <c r="U16">
+      <c r="U17">
         <v>2260522008</v>
       </c>
-      <c r="V16">
+      <c r="V17">
         <v>3768461107</v>
       </c>
-      <c r="W16">
+      <c r="W17">
         <v>1925269107</v>
       </c>
-      <c r="X16">
+      <c r="X17">
         <v>1937996182</v>
       </c>
-      <c r="Y16" t="s">
-        <v>114</v>
+      <c r="Y17" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="110">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -124,12 +124,6 @@
     <t>2024-02-01</t>
   </si>
   <si>
-    <t>2024-01-22</t>
-  </si>
-  <si>
-    <t>2024-01-17</t>
-  </si>
-  <si>
     <t>2024-03-20</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
     <t>2024-02-07</t>
   </si>
   <si>
-    <t>2024-01-23</t>
-  </si>
-  <si>
     <t>2024-04-03</t>
   </si>
   <si>
@@ -178,9 +169,6 @@
     <t>2024-02-23</t>
   </si>
   <si>
-    <t>2024-02-06</t>
-  </si>
-  <si>
     <t>미래</t>
   </si>
   <si>
@@ -214,12 +202,6 @@
     <t>한화</t>
   </si>
   <si>
-    <t>신영</t>
-  </si>
-  <si>
-    <t>DB</t>
-  </si>
-  <si>
     <t>아이엠비디엑스</t>
   </si>
   <si>
@@ -262,12 +244,6 @@
     <t>이에이트</t>
   </si>
   <si>
-    <t>신영스팩10호</t>
-  </si>
-  <si>
-    <t>스튜디오삼익</t>
-  </si>
-  <si>
     <t>865.73 :1</t>
   </si>
   <si>
@@ -310,12 +286,6 @@
     <t>630.64:1</t>
   </si>
   <si>
-    <t>949.18:1</t>
-  </si>
-  <si>
-    <t>966.90:1</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -340,9 +310,6 @@
     <t>2.35%</t>
   </si>
   <si>
-    <t>5.55%</t>
-  </si>
-  <si>
     <t>알파리퀴드ⓡ 100, 알파리퀴드ⓡ HRR, 알파리퀴드ⓡ 디텍트, 알파리퀴드ⓡ 스크리닝</t>
   </si>
   <si>
@@ -377,9 +344,6 @@
   </si>
   <si>
     <t>CFD 시뮬레이션 소프트웨어, 디지털트윈 플랫폼</t>
-  </si>
-  <si>
-    <t>침실가구, 거실가구, 옷장/수납, 주방가구 등</t>
   </si>
 </sst>
 </file>
@@ -737,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -825,16 +789,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>2500000</v>
@@ -861,10 +825,10 @@
         <v>13000</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P2">
         <v>1230336508</v>
@@ -894,7 +858,7 @@
         <v>-7563224846</v>
       </c>
       <c r="Y2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -902,16 +866,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>3000000</v>
@@ -938,10 +902,10 @@
         <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="O3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -971,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -982,13 +946,13 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F4">
         <v>1600000</v>
@@ -1015,10 +979,10 @@
         <v>20000</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="P4">
         <v>813929</v>
@@ -1048,7 +1012,7 @@
         <v>-7817567</v>
       </c>
       <c r="Y4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1056,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F5">
         <v>2000000</v>
@@ -1092,10 +1056,10 @@
         <v>30000</v>
       </c>
       <c r="N5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="P5">
         <v>59096247022</v>
@@ -1125,7 +1089,7 @@
         <v>7223298574</v>
       </c>
       <c r="Y5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1133,16 +1097,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F6">
         <v>990000</v>
@@ -1169,10 +1133,10 @@
         <v>20000</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="P6">
         <v>132326879204</v>
@@ -1202,7 +1166,7 @@
         <v>120676291668</v>
       </c>
       <c r="Y6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1210,16 +1174,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F7">
         <v>2104000</v>
@@ -1246,10 +1210,10 @@
         <v>13500</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="O7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="P7">
         <v>13884202433</v>
@@ -1279,7 +1243,7 @@
         <v>-6716915237</v>
       </c>
       <c r="Y7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1287,16 +1251,16 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F8">
         <v>5000000</v>
@@ -1323,11 +1287,11 @@
         <v>2000</v>
       </c>
       <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
         <v>90</v>
       </c>
-      <c r="O8" t="s">
-        <v>100</v>
-      </c>
       <c r="P8">
         <v>0</v>
       </c>
@@ -1356,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1370,10 +1334,10 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F9">
         <v>6500000</v>
@@ -1400,10 +1364,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1433,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1444,13 +1408,13 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F10">
         <v>4000000</v>
@@ -1477,10 +1441,10 @@
         <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="O10" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1510,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1521,13 +1485,13 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F11">
         <v>4000000</v>
@@ -1554,10 +1518,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="O11" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1587,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1601,10 +1565,10 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F12">
         <v>4000000</v>
@@ -1631,10 +1595,10 @@
         <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1664,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1672,16 +1636,16 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F13">
         <v>600000</v>
@@ -1708,10 +1672,10 @@
         <v>16000</v>
       </c>
       <c r="N13" t="s">
+        <v>87</v>
+      </c>
+      <c r="O13" t="s">
         <v>95</v>
-      </c>
-      <c r="O13" t="s">
-        <v>105</v>
       </c>
       <c r="P13">
         <v>9490</v>
@@ -1741,7 +1705,7 @@
         <v>876</v>
       </c>
       <c r="Y13" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1749,16 +1713,16 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F14">
         <v>1000000</v>
@@ -1785,10 +1749,10 @@
         <v>7000</v>
       </c>
       <c r="N14" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" t="s">
         <v>96</v>
-      </c>
-      <c r="O14" t="s">
-        <v>106</v>
       </c>
       <c r="P14">
         <v>11728856090</v>
@@ -1818,7 +1782,7 @@
         <v>-2027030543</v>
       </c>
       <c r="Y14" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1826,16 +1790,16 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F15">
         <v>1130000</v>
@@ -1862,10 +1826,10 @@
         <v>20000</v>
       </c>
       <c r="N15" t="s">
+        <v>89</v>
+      </c>
+      <c r="O15" t="s">
         <v>97</v>
-      </c>
-      <c r="O15" t="s">
-        <v>107</v>
       </c>
       <c r="P15">
         <v>-7085110800</v>
@@ -1895,161 +1859,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16">
-        <v>4575000</v>
-      </c>
-      <c r="G16">
-        <v>4575000</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>2000</v>
-      </c>
-      <c r="J16">
-        <v>2000</v>
-      </c>
-      <c r="K16">
-        <v>4690000</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>2000</v>
-      </c>
-      <c r="N16" t="s">
-        <v>98</v>
-      </c>
-      <c r="O16" t="s">
-        <v>100</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17">
-        <v>850000</v>
-      </c>
-      <c r="G17">
-        <v>850000</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>14500</v>
-      </c>
-      <c r="J17">
-        <v>16500</v>
-      </c>
-      <c r="K17">
-        <v>4225498</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>18000</v>
-      </c>
-      <c r="N17" t="s">
-        <v>99</v>
-      </c>
-      <c r="O17" t="s">
-        <v>108</v>
-      </c>
-      <c r="P17">
-        <v>84448377049</v>
-      </c>
-      <c r="Q17">
-        <v>86585909893</v>
-      </c>
-      <c r="R17">
-        <v>71141473670</v>
-      </c>
-      <c r="S17">
-        <v>4232543828</v>
-      </c>
-      <c r="T17">
-        <v>2396516104</v>
-      </c>
-      <c r="U17">
-        <v>2260522008</v>
-      </c>
-      <c r="V17">
-        <v>3768461107</v>
-      </c>
-      <c r="W17">
-        <v>1925269107</v>
-      </c>
-      <c r="X17">
-        <v>1937996182</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-04-04</t>
+  </si>
+  <si>
     <t>2024-03-27</t>
   </si>
   <si>
@@ -124,7 +127,7 @@
     <t>2024-01-29</t>
   </si>
   <si>
-    <t>2024-02-01</t>
+    <t>2024-04-05</t>
   </si>
   <si>
     <t>2024-03-28</t>
@@ -151,7 +154,7 @@
     <t>2024-02-02</t>
   </si>
   <si>
-    <t>2024-02-07</t>
+    <t>2024-04-22</t>
   </si>
   <si>
     <t>2024-04-15</t>
@@ -211,6 +214,9 @@
     <t>한화</t>
   </si>
   <si>
+    <t>신한제13호스팩</t>
+  </si>
+  <si>
     <t>신한제12호스팩</t>
   </si>
   <si>
@@ -250,12 +256,12 @@
     <t>코셈</t>
   </si>
   <si>
-    <t>케이웨더</t>
-  </si>
-  <si>
     <t>이에이트</t>
   </si>
   <si>
+    <t>1337.88:1</t>
+  </si>
+  <si>
     <t>1,104.54:1</t>
   </si>
   <si>
@@ -295,9 +301,6 @@
     <t>1,267.60:1</t>
   </si>
   <si>
-    <t>1,362.5:1</t>
-  </si>
-  <si>
     <t>630.64:1</t>
   </si>
   <si>
@@ -322,12 +325,12 @@
     <t>10.04%</t>
   </si>
   <si>
-    <t>3.93%</t>
-  </si>
-  <si>
     <t>2.35%</t>
   </si>
   <si>
+    <t>기타금융서비스(기업합병)</t>
+  </si>
+  <si>
     <t>금융서비스(기업인수목적회사)</t>
   </si>
   <si>
@@ -359,9 +362,6 @@
   </si>
   <si>
     <t>주사전자현미경(SEM)</t>
-  </si>
-  <si>
-    <t>공기개선솔루션, 기상데이터, 공기측정솔루션 등</t>
   </si>
   <si>
     <t>CFD 시뮬레이션 소프트웨어, 디지털트윈 플랫폼</t>
@@ -816,16 +816,16 @@
         <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F2">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="G2">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>2000</v>
       </c>
       <c r="K2">
-        <v>5520000</v>
+        <v>3620000</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -846,10 +846,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -896,64 +896,64 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F3">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="G3">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>7700</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>9900</v>
+        <v>2000</v>
       </c>
       <c r="K3">
-        <v>13992625</v>
+        <v>5520000</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O3" t="s">
         <v>96</v>
       </c>
       <c r="P3">
-        <v>1230336508</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2624739502</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>2926965114</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>-5277789009</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>-8667658271</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>-4923399541</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>-9788525741</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-10436419054</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-7563224846</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="s">
         <v>105</v>
@@ -967,70 +967,70 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="G4">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>7700</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>9900</v>
       </c>
       <c r="K4">
-        <v>3200000</v>
+        <v>13992625</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1230336508</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2624739502</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>2926965114</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-5277789009</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-8667658271</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-4923399541</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-9788525741</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-10436419054</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>-7563224846</v>
       </c>
       <c r="Y4" t="s">
         <v>106</v>
@@ -1041,73 +1041,73 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F5">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="G5">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K5">
-        <v>14014976</v>
+        <v>3200000</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P5">
-        <v>813929</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2184312</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>3744252</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-4828658</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>-7101029</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>-4926381</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>-24094044</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>-6797310</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-7817567</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="s">
         <v>107</v>
@@ -1118,7 +1118,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>49</v>
@@ -1127,64 +1127,64 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F6">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="G6">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
+        <v>11000</v>
+      </c>
+      <c r="J6">
+        <v>15000</v>
+      </c>
+      <c r="K6">
+        <v>14014976</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>20000</v>
       </c>
-      <c r="J6">
-        <v>25000</v>
-      </c>
-      <c r="K6">
-        <v>10569189</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>30000</v>
-      </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
         <v>98</v>
       </c>
       <c r="P6">
-        <v>59096247022</v>
+        <v>813929</v>
       </c>
       <c r="Q6">
-        <v>68617808568</v>
+        <v>2184312</v>
       </c>
       <c r="R6">
-        <v>72737982928</v>
+        <v>3744252</v>
       </c>
       <c r="S6">
-        <v>3774225460</v>
+        <v>-4828658</v>
       </c>
       <c r="T6">
-        <v>2753382474</v>
+        <v>-7101029</v>
       </c>
       <c r="U6">
-        <v>8000270581</v>
+        <v>-4926381</v>
       </c>
       <c r="V6">
-        <v>3791818673</v>
+        <v>-24094044</v>
       </c>
       <c r="W6">
-        <v>3322524020</v>
+        <v>-6797310</v>
       </c>
       <c r="X6">
-        <v>7223298574</v>
+        <v>-7817567</v>
       </c>
       <c r="Y6" t="s">
         <v>108</v>
@@ -1198,70 +1198,70 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F7">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="G7">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="J7">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="K7">
-        <v>14104416</v>
+        <v>10569189</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
         <v>99</v>
       </c>
       <c r="P7">
-        <v>132326879204</v>
+        <v>59096247022</v>
       </c>
       <c r="Q7">
-        <v>193893072828</v>
+        <v>68617808568</v>
       </c>
       <c r="R7">
-        <v>341250572142</v>
+        <v>72737982928</v>
       </c>
       <c r="S7">
-        <v>-7083727446</v>
+        <v>3774225460</v>
       </c>
       <c r="T7">
-        <v>49300174288</v>
+        <v>2753382474</v>
       </c>
       <c r="U7">
-        <v>150061283068</v>
+        <v>8000270581</v>
       </c>
       <c r="V7">
-        <v>1473132550</v>
+        <v>3791818673</v>
       </c>
       <c r="W7">
-        <v>40660749810</v>
+        <v>3322524020</v>
       </c>
       <c r="X7">
-        <v>120676291668</v>
+        <v>7223298574</v>
       </c>
       <c r="Y7" t="s">
         <v>109</v>
@@ -1278,67 +1278,67 @@
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="G8">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="J8">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="K8">
-        <v>10867713</v>
+        <v>14104416</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="N8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O8" t="s">
         <v>100</v>
       </c>
       <c r="P8">
-        <v>13884202433</v>
+        <v>132326879204</v>
       </c>
       <c r="Q8">
-        <v>51182177917</v>
+        <v>193893072828</v>
       </c>
       <c r="R8">
-        <v>8127683890</v>
+        <v>341250572142</v>
       </c>
       <c r="S8">
-        <v>-2233716995</v>
+        <v>-7083727446</v>
       </c>
       <c r="T8">
-        <v>2983031122</v>
+        <v>49300174288</v>
       </c>
       <c r="U8">
-        <v>-6655066594</v>
+        <v>150061283068</v>
       </c>
       <c r="V8">
-        <v>-5046530611</v>
+        <v>1473132550</v>
       </c>
       <c r="W8">
-        <v>1523272163</v>
+        <v>40660749810</v>
       </c>
       <c r="X8">
-        <v>-6716915237</v>
+        <v>120676291668</v>
       </c>
       <c r="Y8" t="s">
         <v>110</v>
@@ -1346,79 +1346,79 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="G9">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K9">
-        <v>5605000</v>
+        <v>10867713</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2000</v>
+        <v>13500</v>
       </c>
       <c r="N9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>13884202433</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>51182177917</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>8127683890</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>-2233716995</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>2983031122</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>-6655066594</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>-5046530611</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1523272163</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>-6716915237</v>
       </c>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1426,22 +1426,22 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="G10">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1453,7 +1453,7 @@
         <v>2000</v>
       </c>
       <c r="K10">
-        <v>7010000</v>
+        <v>5605000</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1462,10 +1462,10 @@
         <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1503,22 +1503,22 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F11">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="G11">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>2000</v>
       </c>
       <c r="K11">
-        <v>4155000</v>
+        <v>7010000</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1583,13 +1583,13 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
         <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12">
         <v>4000000</v>
@@ -1607,7 +1607,7 @@
         <v>2000</v>
       </c>
       <c r="K12">
-        <v>4210000</v>
+        <v>4155000</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1654,19 +1654,19 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13">
         <v>4000000</v>
@@ -1684,7 +1684,7 @@
         <v>2000</v>
       </c>
       <c r="K13">
-        <v>4240000</v>
+        <v>4210000</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1693,10 +1693,10 @@
         <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1734,76 +1734,76 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="G14">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="J14">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K14">
-        <v>5661970</v>
+        <v>4240000</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="N14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="P14">
-        <v>9490</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>12525</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>8916</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>1780</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>1716</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1814,70 +1814,70 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="G15">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4800</v>
+        <v>12000</v>
       </c>
       <c r="J15">
-        <v>5800</v>
+        <v>14000</v>
       </c>
       <c r="K15">
-        <v>9939614</v>
+        <v>5661970</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="N15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O15" t="s">
         <v>102</v>
       </c>
       <c r="P15">
-        <v>11728856090</v>
+        <v>9490</v>
       </c>
       <c r="Q15">
-        <v>17398754684</v>
+        <v>12525</v>
       </c>
       <c r="R15">
-        <v>9950753269</v>
+        <v>8916</v>
       </c>
       <c r="S15">
-        <v>210467803</v>
+        <v>154</v>
       </c>
       <c r="T15">
-        <v>768643625</v>
+        <v>1780</v>
       </c>
       <c r="U15">
-        <v>-2057246152</v>
+        <v>502</v>
       </c>
       <c r="V15">
-        <v>-1402142802</v>
+        <v>496</v>
       </c>
       <c r="W15">
-        <v>708681523</v>
+        <v>1716</v>
       </c>
       <c r="X15">
-        <v>-2027030543</v>
+        <v>876</v>
       </c>
       <c r="Y15" t="s">
         <v>115</v>
@@ -1885,19 +1885,19 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F16">
         <v>1130000</v>
@@ -1924,7 +1924,7 @@
         <v>20000</v>
       </c>
       <c r="N16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O16" t="s">
         <v>103</v>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="109">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-04-08</t>
+  </si>
+  <si>
     <t>2024-04-04</t>
   </si>
   <si>
@@ -124,7 +127,7 @@
     <t>2024-02-13</t>
   </si>
   <si>
-    <t>2024-01-29</t>
+    <t>2024-04-09</t>
   </si>
   <si>
     <t>2024-04-05</t>
@@ -151,7 +154,7 @@
     <t>2024-02-19</t>
   </si>
   <si>
-    <t>2024-02-02</t>
+    <t>2024-04-24</t>
   </si>
   <si>
     <t>2024-04-22</t>
@@ -175,7 +178,7 @@
     <t>2024-03-04</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>하나</t>
   </si>
   <si>
     <t>신한</t>
@@ -184,9 +187,6 @@
     <t>미래</t>
   </si>
   <si>
-    <t>하나</t>
-  </si>
-  <si>
     <t>NH</t>
   </si>
   <si>
@@ -208,10 +208,7 @@
     <t>유진</t>
   </si>
   <si>
-    <t>키움</t>
-  </si>
-  <si>
-    <t>한화</t>
+    <t>하나33호스팩</t>
   </si>
   <si>
     <t>신한제13호스팩</t>
@@ -253,10 +250,7 @@
     <t>유진스팩10호</t>
   </si>
   <si>
-    <t>코셈</t>
-  </si>
-  <si>
-    <t>이에이트</t>
+    <t>1277.22:1</t>
   </si>
   <si>
     <t>1337.88:1</t>
@@ -298,12 +292,6 @@
     <t>1,067.26:1</t>
   </si>
   <si>
-    <t>1,267.60:1</t>
-  </si>
-  <si>
-    <t>630.64:1</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -322,10 +310,7 @@
     <t>31.86%</t>
   </si>
   <si>
-    <t>10.04%</t>
-  </si>
-  <si>
-    <t>2.35%</t>
+    <t>기업인수합병</t>
   </si>
   <si>
     <t>기타금융서비스(기업합병)</t>
@@ -337,9 +322,6 @@
     <t>알파리퀴드ⓡ 100, 알파리퀴드ⓡ HRR, 알파리퀴드ⓡ 디텍트, 알파리퀴드ⓡ 스크리닝</t>
   </si>
   <si>
-    <t>기업인수합병</t>
-  </si>
-  <si>
     <t>재활 전문 웨어러블 로봇, 근력 보조 무동력 웨어러블 슈트, 일상생활 보조 웨어러블 로봇 등</t>
   </si>
   <si>
@@ -359,12 +341,6 @@
   </si>
   <si>
     <t>금융 지원 서비스업</t>
-  </si>
-  <si>
-    <t>주사전자현미경(SEM)</t>
-  </si>
-  <si>
-    <t>CFD 시뮬레이션 소프트웨어, 디지털트윈 플랫폼</t>
   </si>
 </sst>
 </file>
@@ -722,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -819,13 +795,13 @@
         <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F2">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="G2">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -837,7 +813,7 @@
         <v>2000</v>
       </c>
       <c r="K2">
-        <v>3620000</v>
+        <v>3700000</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -846,10 +822,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -879,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -893,16 +869,16 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="G3">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -914,7 +890,7 @@
         <v>2000</v>
       </c>
       <c r="K3">
-        <v>5520000</v>
+        <v>3620000</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -923,10 +899,10 @@
         <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -956,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -973,67 +949,67 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F4">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="G4">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7700</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>9900</v>
+        <v>2000</v>
       </c>
       <c r="K4">
-        <v>13992625</v>
+        <v>5520000</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P4">
-        <v>1230336508</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2624739502</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>2926965114</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-5277789009</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>-8667658271</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>-4923399541</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>-9788525741</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>-10436419054</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-7563224846</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1044,73 +1020,73 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="G5">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>7700</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>9900</v>
       </c>
       <c r="K5">
-        <v>3200000</v>
+        <v>13992625</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1230336508</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2624739502</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>2926965114</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>-5277789009</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>-8667658271</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>-4923399541</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>-9788525741</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>-10436419054</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>-7563224846</v>
       </c>
       <c r="Y5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1118,76 +1094,76 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="G6">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J6">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K6">
-        <v>14014976</v>
+        <v>3200000</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
         <v>98</v>
-      </c>
-      <c r="P6">
-        <v>813929</v>
-      </c>
-      <c r="Q6">
-        <v>2184312</v>
-      </c>
-      <c r="R6">
-        <v>3744252</v>
-      </c>
-      <c r="S6">
-        <v>-4828658</v>
-      </c>
-      <c r="T6">
-        <v>-7101029</v>
-      </c>
-      <c r="U6">
-        <v>-4926381</v>
-      </c>
-      <c r="V6">
-        <v>-24094044</v>
-      </c>
-      <c r="W6">
-        <v>-6797310</v>
-      </c>
-      <c r="X6">
-        <v>-7817567</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1195,76 +1171,76 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F7">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="G7">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
+        <v>11000</v>
+      </c>
+      <c r="J7">
+        <v>15000</v>
+      </c>
+      <c r="K7">
+        <v>14014976</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>20000</v>
       </c>
-      <c r="J7">
-        <v>25000</v>
-      </c>
-      <c r="K7">
-        <v>10569189</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>30000</v>
-      </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="P7">
-        <v>59096247022</v>
+        <v>813929</v>
       </c>
       <c r="Q7">
-        <v>68617808568</v>
+        <v>2184312</v>
       </c>
       <c r="R7">
-        <v>72737982928</v>
+        <v>3744252</v>
       </c>
       <c r="S7">
-        <v>3774225460</v>
+        <v>-4828658</v>
       </c>
       <c r="T7">
-        <v>2753382474</v>
+        <v>-7101029</v>
       </c>
       <c r="U7">
-        <v>8000270581</v>
+        <v>-4926381</v>
       </c>
       <c r="V7">
-        <v>3791818673</v>
+        <v>-24094044</v>
       </c>
       <c r="W7">
-        <v>3322524020</v>
+        <v>-6797310</v>
       </c>
       <c r="X7">
-        <v>7223298574</v>
+        <v>-7817567</v>
       </c>
       <c r="Y7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1275,73 +1251,73 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F8">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="G8">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="J8">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="K8">
-        <v>14104416</v>
+        <v>10569189</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="P8">
-        <v>132326879204</v>
+        <v>59096247022</v>
       </c>
       <c r="Q8">
-        <v>193893072828</v>
+        <v>68617808568</v>
       </c>
       <c r="R8">
-        <v>341250572142</v>
+        <v>72737982928</v>
       </c>
       <c r="S8">
-        <v>-7083727446</v>
+        <v>3774225460</v>
       </c>
       <c r="T8">
-        <v>49300174288</v>
+        <v>2753382474</v>
       </c>
       <c r="U8">
-        <v>150061283068</v>
+        <v>8000270581</v>
       </c>
       <c r="V8">
-        <v>1473132550</v>
+        <v>3791818673</v>
       </c>
       <c r="W8">
-        <v>40660749810</v>
+        <v>3322524020</v>
       </c>
       <c r="X8">
-        <v>120676291668</v>
+        <v>7223298574</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1355,147 +1331,147 @@
         <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F9">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="G9">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="J9">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="K9">
-        <v>10867713</v>
+        <v>14104416</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="N9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="P9">
-        <v>13884202433</v>
+        <v>132326879204</v>
       </c>
       <c r="Q9">
-        <v>51182177917</v>
+        <v>193893072828</v>
       </c>
       <c r="R9">
-        <v>8127683890</v>
+        <v>341250572142</v>
       </c>
       <c r="S9">
-        <v>-2233716995</v>
+        <v>-7083727446</v>
       </c>
       <c r="T9">
-        <v>2983031122</v>
+        <v>49300174288</v>
       </c>
       <c r="U9">
-        <v>-6655066594</v>
+        <v>150061283068</v>
       </c>
       <c r="V9">
-        <v>-5046530611</v>
+        <v>1473132550</v>
       </c>
       <c r="W9">
-        <v>1523272163</v>
+        <v>40660749810</v>
       </c>
       <c r="X9">
-        <v>-6716915237</v>
+        <v>120676291668</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F10">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="G10">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K10">
-        <v>5605000</v>
+        <v>10867713</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2000</v>
+        <v>13500</v>
       </c>
       <c r="N10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>13884202433</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>51182177917</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>8127683890</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>-2233716995</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>2983031122</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>-6655066594</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>-5046530611</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1523272163</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>-6716915237</v>
       </c>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1503,22 +1479,22 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F11">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="G11">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1530,7 +1506,7 @@
         <v>2000</v>
       </c>
       <c r="K11">
-        <v>7010000</v>
+        <v>5605000</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1539,10 +1515,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1572,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1580,22 +1556,22 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F12">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="G12">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1607,7 +1583,7 @@
         <v>2000</v>
       </c>
       <c r="K12">
-        <v>4155000</v>
+        <v>7010000</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1616,10 +1592,10 @@
         <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1649,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1660,13 +1636,13 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F13">
         <v>4000000</v>
@@ -1684,7 +1660,7 @@
         <v>2000</v>
       </c>
       <c r="K13">
-        <v>4210000</v>
+        <v>4155000</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1693,11 +1669,11 @@
         <v>2000</v>
       </c>
       <c r="N13" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" t="s">
         <v>92</v>
       </c>
-      <c r="O13" t="s">
-        <v>96</v>
-      </c>
       <c r="P13">
         <v>0</v>
       </c>
@@ -1726,24 +1702,24 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F14">
         <v>4000000</v>
@@ -1761,7 +1737,7 @@
         <v>2000</v>
       </c>
       <c r="K14">
-        <v>4240000</v>
+        <v>4210000</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1770,10 +1746,10 @@
         <v>2000</v>
       </c>
       <c r="N14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1803,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1811,153 +1787,76 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F15">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="G15">
-        <v>600000</v>
+        <v>4000000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K15">
-        <v>5661970</v>
+        <v>4240000</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="P15">
-        <v>9490</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>12525</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>8916</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>1780</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>1716</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16">
-        <v>1130000</v>
-      </c>
-      <c r="G16">
-        <v>1130000</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>14500</v>
-      </c>
-      <c r="J16">
-        <v>18500</v>
-      </c>
-      <c r="K16">
-        <v>9465149</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>20000</v>
-      </c>
-      <c r="N16" t="s">
-        <v>95</v>
-      </c>
-      <c r="O16" t="s">
-        <v>103</v>
-      </c>
-      <c r="P16">
-        <v>-7085110800</v>
-      </c>
-      <c r="Q16">
-        <v>-7707829743</v>
-      </c>
-      <c r="R16">
-        <v>-4353776321</v>
-      </c>
-      <c r="S16">
-        <v>-7444566078</v>
-      </c>
-      <c r="T16">
-        <v>-8116734518</v>
-      </c>
-      <c r="U16">
-        <v>-4808043488</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -118,42 +118,42 @@
     <t>2024-02-16</t>
   </si>
   <si>
+    <t>2024-02-15</t>
+  </si>
+  <si>
+    <t>2024-02-13</t>
+  </si>
+  <si>
+    <t>2024-04-09</t>
+  </si>
+  <si>
+    <t>2024-04-05</t>
+  </si>
+  <si>
+    <t>2024-03-28</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>2024-03-07</t>
+  </si>
+  <si>
+    <t>2024-02-27</t>
+  </si>
+  <si>
+    <t>2024-02-22</t>
+  </si>
+  <si>
+    <t>2024-02-19</t>
+  </si>
+  <si>
     <t>2024-02-14</t>
   </si>
   <si>
-    <t>2024-02-15</t>
-  </si>
-  <si>
-    <t>2024-02-13</t>
-  </si>
-  <si>
-    <t>2024-04-09</t>
-  </si>
-  <si>
-    <t>2024-04-05</t>
-  </si>
-  <si>
-    <t>2024-03-28</t>
-  </si>
-  <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
-    <t>2024-03-07</t>
-  </si>
-  <si>
-    <t>2024-02-27</t>
-  </si>
-  <si>
-    <t>2024-02-22</t>
-  </si>
-  <si>
-    <t>2024-02-19</t>
-  </si>
-  <si>
     <t>2024-04-24</t>
   </si>
   <si>
@@ -196,18 +196,12 @@
     <t>DB, NH</t>
   </si>
   <si>
-    <t>유안타</t>
-  </si>
-  <si>
     <t>SK</t>
   </si>
   <si>
     <t>BNK</t>
   </si>
   <si>
-    <t>유진</t>
-  </si>
-  <si>
     <t>하나33호스팩</t>
   </si>
   <si>
@@ -238,18 +232,12 @@
     <t>하나31호스팩</t>
   </si>
   <si>
-    <t>유안타제15호스팩</t>
-  </si>
-  <si>
     <t>SK증권제11호스팩</t>
   </si>
   <si>
     <t>비엔케이제2호스팩</t>
   </si>
   <si>
-    <t>유진스팩10호</t>
-  </si>
-  <si>
     <t>1277.22:1</t>
   </si>
   <si>
@@ -280,18 +268,12 @@
     <t>1,018.60:1</t>
   </si>
   <si>
-    <t>862.07:1</t>
-  </si>
-  <si>
     <t>1,021.74:1</t>
   </si>
   <si>
     <t>703.99:1</t>
   </si>
   <si>
-    <t>1,067.26:1</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -332,9 +314,6 @@
   </si>
   <si>
     <t>특수목적 시험장비, 산업용로봇</t>
-  </si>
-  <si>
-    <t>금융 지원 서비스</t>
   </si>
   <si>
     <t>기업인수목적 주식회사</t>
@@ -698,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -786,7 +765,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>
@@ -795,7 +774,7 @@
         <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>3500000</v>
@@ -822,40 +801,40 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
         <v>92</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -863,7 +842,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
@@ -872,7 +851,7 @@
         <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>3000000</v>
@@ -899,10 +878,10 @@
         <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -932,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -940,7 +919,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
@@ -949,7 +928,7 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F4">
         <v>5000000</v>
@@ -976,10 +955,10 @@
         <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1009,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1017,7 +996,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>49</v>
@@ -1026,7 +1005,7 @@
         <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F5">
         <v>2500000</v>
@@ -1053,10 +1032,10 @@
         <v>13000</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="P5">
         <v>1230336508</v>
@@ -1086,7 +1065,7 @@
         <v>-7563224846</v>
       </c>
       <c r="Y5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1094,7 +1073,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -1103,7 +1082,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F6">
         <v>3000000</v>
@@ -1130,40 +1109,40 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
         <v>92</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1180,7 +1159,7 @@
         <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F7">
         <v>1600000</v>
@@ -1207,10 +1186,10 @@
         <v>20000</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="P7">
         <v>813929</v>
@@ -1240,7 +1219,7 @@
         <v>-7817567</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1248,7 +1227,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>51</v>
@@ -1257,7 +1236,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8">
         <v>2000000</v>
@@ -1284,10 +1263,10 @@
         <v>30000</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P8">
         <v>59096247022</v>
@@ -1317,7 +1296,7 @@
         <v>7223298574</v>
       </c>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1325,16 +1304,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F9">
         <v>990000</v>
@@ -1361,10 +1340,10 @@
         <v>20000</v>
       </c>
       <c r="N9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P9">
         <v>132326879204</v>
@@ -1394,7 +1373,7 @@
         <v>120676291668</v>
       </c>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1402,16 +1381,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F10">
         <v>2104000</v>
@@ -1438,10 +1417,10 @@
         <v>13500</v>
       </c>
       <c r="N10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="P10">
         <v>13884202433</v>
@@ -1471,7 +1450,7 @@
         <v>-6716915237</v>
       </c>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1479,7 +1458,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
@@ -1488,7 +1467,7 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F11">
         <v>5000000</v>
@@ -1515,40 +1494,40 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="s">
         <v>92</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1556,22 +1535,22 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
         <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F12">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="G12">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1583,7 +1562,7 @@
         <v>2000</v>
       </c>
       <c r="K12">
-        <v>7010000</v>
+        <v>4155000</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1592,10 +1571,10 @@
         <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1625,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1633,16 +1612,16 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
         <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F13">
         <v>4000000</v>
@@ -1660,7 +1639,7 @@
         <v>2000</v>
       </c>
       <c r="K13">
-        <v>4155000</v>
+        <v>4210000</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1669,10 +1648,10 @@
         <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1702,161 +1681,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14">
-        <v>4000000</v>
-      </c>
-      <c r="G14">
-        <v>4000000</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>2000</v>
-      </c>
-      <c r="J14">
-        <v>2000</v>
-      </c>
-      <c r="K14">
-        <v>4210000</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>2000</v>
-      </c>
-      <c r="N14" t="s">
-        <v>90</v>
-      </c>
-      <c r="O14" t="s">
-        <v>92</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15">
-        <v>4000000</v>
-      </c>
-      <c r="G15">
-        <v>4000000</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>2000</v>
-      </c>
-      <c r="J15">
-        <v>2000</v>
-      </c>
-      <c r="K15">
-        <v>4240000</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>2000</v>
-      </c>
-      <c r="N15" t="s">
-        <v>91</v>
-      </c>
-      <c r="O15" t="s">
-        <v>92</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="114">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,12 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-04-12</t>
+  </si>
+  <si>
+    <t>2024-04-15</t>
+  </si>
+  <si>
     <t>2024-04-08</t>
   </si>
   <si>
@@ -124,6 +130,12 @@
     <t>2024-02-13</t>
   </si>
   <si>
+    <t>2024-04-18</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
+  </si>
+  <si>
     <t>2024-04-09</t>
   </si>
   <si>
@@ -154,15 +166,15 @@
     <t>2024-02-14</t>
   </si>
   <si>
+    <t>2024-05-02</t>
+  </si>
+  <si>
     <t>2024-04-24</t>
   </si>
   <si>
     <t>2024-04-22</t>
   </si>
   <si>
-    <t>2024-04-15</t>
-  </si>
-  <si>
     <t>2024-04-03</t>
   </si>
   <si>
@@ -178,6 +190,12 @@
     <t>2024-03-04</t>
   </si>
   <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>유안타</t>
+  </si>
+  <si>
     <t>하나</t>
   </si>
   <si>
@@ -190,9 +208,6 @@
     <t>NH</t>
   </si>
   <si>
-    <t>한국</t>
-  </si>
-  <si>
     <t>DB, NH</t>
   </si>
   <si>
@@ -202,6 +217,12 @@
     <t>BNK</t>
   </si>
   <si>
+    <t>디앤디파마텍</t>
+  </si>
+  <si>
+    <t>유안타제16호스팩</t>
+  </si>
+  <si>
     <t>하나33호스팩</t>
   </si>
   <si>
@@ -238,6 +259,12 @@
     <t>비엔케이제2호스팩</t>
   </si>
   <si>
+    <t>848.50:1</t>
+  </si>
+  <si>
+    <t>1,050.42:1</t>
+  </si>
+  <si>
     <t>1277.22:1</t>
   </si>
   <si>
@@ -274,6 +301,9 @@
     <t>703.99:1</t>
   </si>
   <si>
+    <t>10.96%</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -290,6 +320,12 @@
   </si>
   <si>
     <t>31.86%</t>
+  </si>
+  <si>
+    <t>대사성질환 치료제 등</t>
+  </si>
+  <si>
+    <t>금융 지원 서비스(기업인수목적회사)</t>
   </si>
   <si>
     <t>기업인수합병</t>
@@ -677,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -765,64 +801,64 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F2">
-        <v>3500000</v>
+        <v>1100000</v>
       </c>
       <c r="G2">
-        <v>3500000</v>
+        <v>1100000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K2">
-        <v>3700000</v>
+        <v>10429232</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2000</v>
+        <v>33000</v>
       </c>
       <c r="N2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-75676750274</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-68652978862</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-9506668082</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-69862474811</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-137025491259</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>3014576074</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -834,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -842,22 +878,22 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F3">
-        <v>3000000</v>
+        <v>5150000</v>
       </c>
       <c r="G3">
-        <v>3000000</v>
+        <v>5150000</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -869,7 +905,7 @@
         <v>2000</v>
       </c>
       <c r="K3">
-        <v>3620000</v>
+        <v>5510000</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -878,10 +914,10 @@
         <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="O3" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -911,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -919,22 +955,22 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F4">
-        <v>5000000</v>
+        <v>3500000</v>
       </c>
       <c r="G4">
-        <v>5000000</v>
+        <v>3500000</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -946,7 +982,7 @@
         <v>2000</v>
       </c>
       <c r="K4">
-        <v>5520000</v>
+        <v>3700000</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -955,10 +991,10 @@
         <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="O4" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -988,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -996,76 +1032,76 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F5">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="G5">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7700</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>9900</v>
+        <v>2000</v>
       </c>
       <c r="K5">
-        <v>13992625</v>
+        <v>3620000</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="P5">
-        <v>1230336508</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2624739502</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>2926965114</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-5277789009</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>-8667658271</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>-4923399541</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>-9788525741</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>-10436419054</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-7563224846</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1073,22 +1109,22 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F6">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="G6">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1100,7 +1136,7 @@
         <v>2000</v>
       </c>
       <c r="K6">
-        <v>3200000</v>
+        <v>5520000</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1109,10 +1145,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1142,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1150,76 +1186,76 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F7">
-        <v>1600000</v>
+        <v>2500000</v>
       </c>
       <c r="G7">
-        <v>1600000</v>
+        <v>2500000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11000</v>
+        <v>7700</v>
       </c>
       <c r="J7">
-        <v>15000</v>
+        <v>9900</v>
       </c>
       <c r="K7">
-        <v>14014976</v>
+        <v>13992625</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="N7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="P7">
-        <v>813929</v>
+        <v>1230336508</v>
       </c>
       <c r="Q7">
-        <v>2184312</v>
+        <v>2624739502</v>
       </c>
       <c r="R7">
-        <v>3744252</v>
+        <v>2926965114</v>
       </c>
       <c r="S7">
-        <v>-4828658</v>
+        <v>-5277789009</v>
       </c>
       <c r="T7">
-        <v>-7101029</v>
+        <v>-8667658271</v>
       </c>
       <c r="U7">
-        <v>-4926381</v>
+        <v>-4923399541</v>
       </c>
       <c r="V7">
-        <v>-24094044</v>
+        <v>-9788525741</v>
       </c>
       <c r="W7">
-        <v>-6797310</v>
+        <v>-10436419054</v>
       </c>
       <c r="X7">
-        <v>-7817567</v>
+        <v>-7563224846</v>
       </c>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1227,76 +1263,76 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F8">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="G8">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="J8">
-        <v>25000</v>
+        <v>2000</v>
       </c>
       <c r="K8">
-        <v>10569189</v>
+        <v>3200000</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="O8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P8">
-        <v>59096247022</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>68617808568</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>72737982928</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>3774225460</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>2753382474</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>8000270581</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>3791818673</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>3322524020</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>7223298574</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1304,34 +1340,34 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F9">
-        <v>990000</v>
+        <v>1600000</v>
       </c>
       <c r="G9">
-        <v>990000</v>
+        <v>1600000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="J9">
         <v>15000</v>
       </c>
       <c r="K9">
-        <v>14104416</v>
+        <v>14014976</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1340,40 +1376,40 @@
         <v>20000</v>
       </c>
       <c r="N9" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="O9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="P9">
-        <v>132326879204</v>
+        <v>813929</v>
       </c>
       <c r="Q9">
-        <v>193893072828</v>
+        <v>2184312</v>
       </c>
       <c r="R9">
-        <v>341250572142</v>
+        <v>3744252</v>
       </c>
       <c r="S9">
-        <v>-7083727446</v>
+        <v>-4828658</v>
       </c>
       <c r="T9">
-        <v>49300174288</v>
+        <v>-7101029</v>
       </c>
       <c r="U9">
-        <v>150061283068</v>
+        <v>-4926381</v>
       </c>
       <c r="V9">
-        <v>1473132550</v>
+        <v>-24094044</v>
       </c>
       <c r="W9">
-        <v>40660749810</v>
+        <v>-6797310</v>
       </c>
       <c r="X9">
-        <v>120676291668</v>
+        <v>-7817567</v>
       </c>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1381,230 +1417,230 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F10">
-        <v>2104000</v>
+        <v>2000000</v>
       </c>
       <c r="G10">
-        <v>2104000</v>
+        <v>2000000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="J10">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="K10">
-        <v>10867713</v>
+        <v>10569189</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13500</v>
+        <v>30000</v>
       </c>
       <c r="N10" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="O10" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="P10">
-        <v>13884202433</v>
+        <v>59096247022</v>
       </c>
       <c r="Q10">
-        <v>51182177917</v>
+        <v>68617808568</v>
       </c>
       <c r="R10">
-        <v>8127683890</v>
+        <v>72737982928</v>
       </c>
       <c r="S10">
-        <v>-2233716995</v>
+        <v>3774225460</v>
       </c>
       <c r="T10">
-        <v>2983031122</v>
+        <v>2753382474</v>
       </c>
       <c r="U10">
-        <v>-6655066594</v>
+        <v>8000270581</v>
       </c>
       <c r="V10">
-        <v>-5046530611</v>
+        <v>3791818673</v>
       </c>
       <c r="W10">
-        <v>1523272163</v>
+        <v>3322524020</v>
       </c>
       <c r="X10">
-        <v>-6716915237</v>
+        <v>7223298574</v>
       </c>
       <c r="Y10" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F11">
-        <v>5000000</v>
+        <v>990000</v>
       </c>
       <c r="G11">
-        <v>5000000</v>
+        <v>990000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="K11">
-        <v>5605000</v>
+        <v>14104416</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N11" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O11" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>132326879204</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>193893072828</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>341250572142</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>-7083727446</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>49300174288</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>150061283068</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1473132550</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>40660749810</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>120676291668</v>
       </c>
       <c r="Y11" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F12">
-        <v>4000000</v>
+        <v>2104000</v>
       </c>
       <c r="G12">
-        <v>4000000</v>
+        <v>2104000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K12">
-        <v>4155000</v>
+        <v>10867713</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2000</v>
+        <v>13500</v>
       </c>
       <c r="N12" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>13884202433</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>51182177917</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>8127683890</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>-2233716995</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>2983031122</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>-6655066594</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>-5046530611</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1523272163</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>-6716915237</v>
       </c>
       <c r="Y12" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1612,76 +1648,230 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F13">
+        <v>5000000</v>
+      </c>
+      <c r="G13">
+        <v>5000000</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>2000</v>
+      </c>
+      <c r="J13">
+        <v>2000</v>
+      </c>
+      <c r="K13">
+        <v>5605000</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>2000</v>
+      </c>
+      <c r="N13" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" t="s">
+        <v>96</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14">
         <v>4000000</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>4000000</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>2000</v>
-      </c>
-      <c r="J13">
-        <v>2000</v>
-      </c>
-      <c r="K13">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>2000</v>
+      </c>
+      <c r="J14">
+        <v>2000</v>
+      </c>
+      <c r="K14">
+        <v>4155000</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>2000</v>
+      </c>
+      <c r="N14" t="s">
+        <v>93</v>
+      </c>
+      <c r="O14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15">
+        <v>4000000</v>
+      </c>
+      <c r="G15">
+        <v>4000000</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>2000</v>
+      </c>
+      <c r="J15">
+        <v>2000</v>
+      </c>
+      <c r="K15">
         <v>4210000</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>2000</v>
-      </c>
-      <c r="N13" t="s">
-        <v>85</v>
-      </c>
-      <c r="O13" t="s">
-        <v>86</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>101</v>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>2000</v>
+      </c>
+      <c r="N15" t="s">
+        <v>94</v>
+      </c>
+      <c r="O15" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="120">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -166,6 +166,9 @@
     <t>2024-02-14</t>
   </si>
   <si>
+    <t>2024-05-03</t>
+  </si>
+  <si>
     <t>2024-05-02</t>
   </si>
   <si>
@@ -190,6 +193,9 @@
     <t>2024-03-04</t>
   </si>
   <si>
+    <t>KB</t>
+  </si>
+  <si>
     <t>한국</t>
   </si>
   <si>
@@ -217,6 +223,9 @@
     <t>BNK</t>
   </si>
   <si>
+    <t>민테크</t>
+  </si>
+  <si>
     <t>디앤디파마텍</t>
   </si>
   <si>
@@ -259,6 +268,9 @@
     <t>비엔케이제2호스팩</t>
   </si>
   <si>
+    <t>946.72:1</t>
+  </si>
+  <si>
     <t>848.50:1</t>
   </si>
   <si>
@@ -301,6 +313,9 @@
     <t>703.99:1</t>
   </si>
   <si>
+    <t>4.23%</t>
+  </si>
+  <si>
     <t>10.96%</t>
   </si>
   <si>
@@ -320,6 +335,9 @@
   </si>
   <si>
     <t>31.86%</t>
+  </si>
+  <si>
+    <t>배터리 진단시스템, 배터리 시스템, 충방전 검사장비</t>
   </si>
   <si>
     <t>대사성질환 치료제 등</t>
@@ -713,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -807,135 +825,135 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F2">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="G2">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="J2">
-        <v>26000</v>
+        <v>8500</v>
       </c>
       <c r="K2">
-        <v>10429232</v>
+        <v>21945300</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>33000</v>
+        <v>10500</v>
       </c>
       <c r="N2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P2">
-        <v>-75676750274</v>
+        <v>9576212189</v>
       </c>
       <c r="Q2">
-        <v>-68652978862</v>
+        <v>11914994171</v>
       </c>
       <c r="R2">
-        <v>-9506668082</v>
+        <v>7285537916</v>
       </c>
       <c r="S2">
-        <v>-69862474811</v>
+        <v>1172310325</v>
       </c>
       <c r="T2">
-        <v>-137025491259</v>
+        <v>-2762203259</v>
       </c>
       <c r="U2">
-        <v>3014576074</v>
+        <v>-4737405164</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-7460336546</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-7104430732</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-7501425172</v>
       </c>
       <c r="Y2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F3">
-        <v>5150000</v>
+        <v>1100000</v>
       </c>
       <c r="G3">
-        <v>5150000</v>
+        <v>1100000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K3">
-        <v>5510000</v>
+        <v>10429232</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2000</v>
+        <v>33000</v>
       </c>
       <c r="N3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>-75676750274</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-68652978862</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-9506668082</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>-69862474811</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-137025491259</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>3014576074</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -947,30 +965,30 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F4">
-        <v>3500000</v>
+        <v>5150000</v>
       </c>
       <c r="G4">
-        <v>3500000</v>
+        <v>5150000</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -982,7 +1000,7 @@
         <v>2000</v>
       </c>
       <c r="K4">
-        <v>3700000</v>
+        <v>5510000</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -991,10 +1009,10 @@
         <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1024,30 +1042,30 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F5">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="G5">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1059,7 +1077,7 @@
         <v>2000</v>
       </c>
       <c r="K5">
-        <v>3620000</v>
+        <v>3700000</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1068,10 +1086,10 @@
         <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1101,30 +1119,30 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F6">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="G6">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1136,7 +1154,7 @@
         <v>2000</v>
       </c>
       <c r="K6">
-        <v>5520000</v>
+        <v>3620000</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1145,10 +1163,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1178,469 +1196,469 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F7">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="G7">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7700</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>9900</v>
+        <v>2000</v>
       </c>
       <c r="K7">
-        <v>13992625</v>
+        <v>5520000</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P7">
-        <v>1230336508</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>2624739502</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>2926965114</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>-5277789009</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>-8667658271</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>-4923399541</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>-9788525741</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>-10436419054</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-7563224846</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F8">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="G8">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2000</v>
+        <v>7700</v>
       </c>
       <c r="J8">
-        <v>2000</v>
+        <v>9900</v>
       </c>
       <c r="K8">
-        <v>3200000</v>
+        <v>13992625</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1230336508</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2624739502</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>2926965114</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>-5277789009</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>-8667658271</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>-4923399541</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>-9788525741</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>-10436419054</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>-7563224846</v>
       </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F9">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="G9">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K9">
-        <v>14014976</v>
+        <v>3200000</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P9">
-        <v>813929</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>2184312</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>3744252</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>-4828658</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>-7101029</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>-4926381</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>-24094044</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>-6797310</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-7817567</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F10">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="G10">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
+        <v>11000</v>
+      </c>
+      <c r="J10">
+        <v>15000</v>
+      </c>
+      <c r="K10">
+        <v>14014976</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>20000</v>
       </c>
-      <c r="J10">
-        <v>25000</v>
-      </c>
-      <c r="K10">
-        <v>10569189</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>30000</v>
-      </c>
       <c r="N10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P10">
-        <v>59096247022</v>
+        <v>813929</v>
       </c>
       <c r="Q10">
-        <v>68617808568</v>
+        <v>2184312</v>
       </c>
       <c r="R10">
-        <v>72737982928</v>
+        <v>3744252</v>
       </c>
       <c r="S10">
-        <v>3774225460</v>
+        <v>-4828658</v>
       </c>
       <c r="T10">
-        <v>2753382474</v>
+        <v>-7101029</v>
       </c>
       <c r="U10">
-        <v>8000270581</v>
+        <v>-4926381</v>
       </c>
       <c r="V10">
-        <v>3791818673</v>
+        <v>-24094044</v>
       </c>
       <c r="W10">
-        <v>3322524020</v>
+        <v>-6797310</v>
       </c>
       <c r="X10">
-        <v>7223298574</v>
+        <v>-7817567</v>
       </c>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F11">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="G11">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="J11">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="K11">
-        <v>14104416</v>
+        <v>10569189</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="N11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P11">
-        <v>132326879204</v>
+        <v>59096247022</v>
       </c>
       <c r="Q11">
-        <v>193893072828</v>
+        <v>68617808568</v>
       </c>
       <c r="R11">
-        <v>341250572142</v>
+        <v>72737982928</v>
       </c>
       <c r="S11">
-        <v>-7083727446</v>
+        <v>3774225460</v>
       </c>
       <c r="T11">
-        <v>49300174288</v>
+        <v>2753382474</v>
       </c>
       <c r="U11">
-        <v>150061283068</v>
+        <v>8000270581</v>
       </c>
       <c r="V11">
-        <v>1473132550</v>
+        <v>3791818673</v>
       </c>
       <c r="W11">
-        <v>40660749810</v>
+        <v>3322524020</v>
       </c>
       <c r="X11">
-        <v>120676291668</v>
+        <v>7223298574</v>
       </c>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="G12">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="J12">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="K12">
-        <v>10867713</v>
+        <v>14104416</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="N12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P12">
-        <v>13884202433</v>
+        <v>132326879204</v>
       </c>
       <c r="Q12">
-        <v>51182177917</v>
+        <v>193893072828</v>
       </c>
       <c r="R12">
-        <v>8127683890</v>
+        <v>341250572142</v>
       </c>
       <c r="S12">
-        <v>-2233716995</v>
+        <v>-7083727446</v>
       </c>
       <c r="T12">
-        <v>2983031122</v>
+        <v>49300174288</v>
       </c>
       <c r="U12">
-        <v>-6655066594</v>
+        <v>150061283068</v>
       </c>
       <c r="V12">
-        <v>-5046530611</v>
+        <v>1473132550</v>
       </c>
       <c r="W12">
-        <v>1523272163</v>
+        <v>40660749810</v>
       </c>
       <c r="X12">
-        <v>-6716915237</v>
+        <v>120676291668</v>
       </c>
       <c r="Y12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1648,99 +1666,99 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F13">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="G13">
-        <v>5000000</v>
+        <v>2104000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K13">
-        <v>5605000</v>
+        <v>10867713</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2000</v>
+        <v>13500</v>
       </c>
       <c r="N13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O13" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>13884202433</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>51182177917</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>8127683890</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>-2233716995</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>2983031122</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>-6655066594</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>-5046530611</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1523272163</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>-6716915237</v>
       </c>
       <c r="Y13" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F14">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="G14">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1752,7 +1770,7 @@
         <v>2000</v>
       </c>
       <c r="K14">
-        <v>4155000</v>
+        <v>5605000</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1761,10 +1779,10 @@
         <v>2000</v>
       </c>
       <c r="N14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O14" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1794,24 +1812,24 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F15">
         <v>4000000</v>
@@ -1829,49 +1847,126 @@
         <v>2000</v>
       </c>
       <c r="K15">
+        <v>4155000</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>2000</v>
+      </c>
+      <c r="N15" t="s">
+        <v>97</v>
+      </c>
+      <c r="O15" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16">
+        <v>4000000</v>
+      </c>
+      <c r="G16">
+        <v>4000000</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>2000</v>
+      </c>
+      <c r="J16">
+        <v>2000</v>
+      </c>
+      <c r="K16">
         <v>4210000</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>2000</v>
-      </c>
-      <c r="N15" t="s">
-        <v>94</v>
-      </c>
-      <c r="O15" t="s">
-        <v>96</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>113</v>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>2000</v>
+      </c>
+      <c r="N16" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="114">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -124,9 +124,6 @@
     <t>2024-02-16</t>
   </si>
   <si>
-    <t>2024-02-15</t>
-  </si>
-  <si>
     <t>2024-02-13</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>2024-03-05</t>
   </si>
   <si>
-    <t>2024-03-04</t>
-  </si>
-  <si>
     <t>KB</t>
   </si>
   <si>
@@ -217,9 +211,6 @@
     <t>DB, NH</t>
   </si>
   <si>
-    <t>SK</t>
-  </si>
-  <si>
     <t>BNK</t>
   </si>
   <si>
@@ -262,9 +253,6 @@
     <t>하나31호스팩</t>
   </si>
   <si>
-    <t>SK증권제11호스팩</t>
-  </si>
-  <si>
     <t>비엔케이제2호스팩</t>
   </si>
   <si>
@@ -307,9 +295,6 @@
     <t>1,018.60:1</t>
   </si>
   <si>
-    <t>1,021.74:1</t>
-  </si>
-  <si>
     <t>703.99:1</t>
   </si>
   <si>
@@ -368,9 +353,6 @@
   </si>
   <si>
     <t>특수목적 시험장비, 산업용로봇</t>
-  </si>
-  <si>
-    <t>기업인수목적 주식회사</t>
   </si>
   <si>
     <t>금융 지원 서비스업</t>
@@ -731,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -819,16 +801,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F2">
         <v>3000000</v>
@@ -855,10 +837,10 @@
         <v>10500</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="P2">
         <v>9576212189</v>
@@ -888,7 +870,7 @@
         <v>-7501425172</v>
       </c>
       <c r="Y2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -896,16 +878,16 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F3">
         <v>1100000</v>
@@ -932,10 +914,10 @@
         <v>33000</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="P3">
         <v>-75676750274</v>
@@ -965,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -973,16 +955,16 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4">
         <v>5150000</v>
@@ -1009,10 +991,10 @@
         <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1042,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1050,16 +1032,16 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F5">
         <v>3500000</v>
@@ -1086,10 +1068,10 @@
         <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1119,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1127,16 +1109,16 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <v>3000000</v>
@@ -1163,10 +1145,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1196,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1204,16 +1186,16 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F7">
         <v>5000000</v>
@@ -1240,10 +1222,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1273,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1281,16 +1263,16 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F8">
         <v>2500000</v>
@@ -1317,10 +1299,10 @@
         <v>13000</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="P8">
         <v>1230336508</v>
@@ -1350,7 +1332,7 @@
         <v>-7563224846</v>
       </c>
       <c r="Y8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1358,16 +1340,16 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F9">
         <v>3000000</v>
@@ -1394,10 +1376,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1427,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1438,13 +1420,13 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F10">
         <v>1600000</v>
@@ -1471,10 +1453,10 @@
         <v>20000</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P10">
         <v>813929</v>
@@ -1504,7 +1486,7 @@
         <v>-7817567</v>
       </c>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1512,16 +1494,16 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F11">
         <v>2000000</v>
@@ -1548,10 +1530,10 @@
         <v>30000</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P11">
         <v>59096247022</v>
@@ -1581,7 +1563,7 @@
         <v>7223298574</v>
       </c>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1589,16 +1571,16 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F12">
         <v>990000</v>
@@ -1625,10 +1607,10 @@
         <v>20000</v>
       </c>
       <c r="N12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P12">
         <v>132326879204</v>
@@ -1658,7 +1640,7 @@
         <v>120676291668</v>
       </c>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1666,16 +1648,16 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F13">
         <v>2104000</v>
@@ -1702,10 +1684,10 @@
         <v>13500</v>
       </c>
       <c r="N13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="P13">
         <v>13884202433</v>
@@ -1735,7 +1717,7 @@
         <v>-6716915237</v>
       </c>
       <c r="Y13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1743,16 +1725,16 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F14">
         <v>5000000</v>
@@ -1779,11 +1761,11 @@
         <v>2000</v>
       </c>
       <c r="N14" t="s">
+        <v>92</v>
+      </c>
+      <c r="O14" t="s">
         <v>96</v>
       </c>
-      <c r="O14" t="s">
-        <v>101</v>
-      </c>
       <c r="P14">
         <v>0</v>
       </c>
@@ -1812,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1820,16 +1802,16 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F15">
         <v>4000000</v>
@@ -1847,7 +1829,7 @@
         <v>2000</v>
       </c>
       <c r="K15">
-        <v>4155000</v>
+        <v>4210000</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1856,10 +1838,10 @@
         <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="O15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1889,84 +1871,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16">
-        <v>4000000</v>
-      </c>
-      <c r="G16">
-        <v>4000000</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>2000</v>
-      </c>
-      <c r="J16">
-        <v>2000</v>
-      </c>
-      <c r="K16">
-        <v>4210000</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>2000</v>
-      </c>
-      <c r="N16" t="s">
-        <v>98</v>
-      </c>
-      <c r="O16" t="s">
-        <v>101</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -124,9 +124,6 @@
     <t>2024-02-16</t>
   </si>
   <si>
-    <t>2024-02-13</t>
-  </si>
-  <si>
     <t>2024-04-18</t>
   </si>
   <si>
@@ -157,12 +154,6 @@
     <t>2024-02-22</t>
   </si>
   <si>
-    <t>2024-02-19</t>
-  </si>
-  <si>
-    <t>2024-02-14</t>
-  </si>
-  <si>
     <t>2024-05-03</t>
   </si>
   <si>
@@ -184,9 +175,6 @@
     <t>2024-03-21</t>
   </si>
   <si>
-    <t>2024-03-05</t>
-  </si>
-  <si>
     <t>KB</t>
   </si>
   <si>
@@ -211,9 +199,6 @@
     <t>DB, NH</t>
   </si>
   <si>
-    <t>BNK</t>
-  </si>
-  <si>
     <t>민테크</t>
   </si>
   <si>
@@ -250,12 +235,6 @@
     <t>케이엔알시스템</t>
   </si>
   <si>
-    <t>하나31호스팩</t>
-  </si>
-  <si>
-    <t>비엔케이제2호스팩</t>
-  </si>
-  <si>
     <t>946.72:1</t>
   </si>
   <si>
@@ -292,12 +271,6 @@
     <t>873.20:1</t>
   </si>
   <si>
-    <t>1,018.60:1</t>
-  </si>
-  <si>
-    <t>703.99:1</t>
-  </si>
-  <si>
     <t>4.23%</t>
   </si>
   <si>
@@ -353,9 +326,6 @@
   </si>
   <si>
     <t>특수목적 시험장비, 산업용로봇</t>
-  </si>
-  <si>
-    <t>금융 지원 서비스업</t>
   </si>
 </sst>
 </file>
@@ -713,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -801,16 +771,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F2">
         <v>3000000</v>
@@ -837,10 +807,10 @@
         <v>10500</v>
       </c>
       <c r="N2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="O2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="P2">
         <v>9576212189</v>
@@ -870,7 +840,7 @@
         <v>-7501425172</v>
       </c>
       <c r="Y2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -878,16 +848,16 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>1100000</v>
@@ -914,10 +884,10 @@
         <v>33000</v>
       </c>
       <c r="N3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="O3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P3">
         <v>-75676750274</v>
@@ -947,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -955,16 +925,16 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F4">
         <v>5150000</v>
@@ -991,10 +961,10 @@
         <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1024,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1032,16 +1002,16 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F5">
         <v>3500000</v>
@@ -1068,40 +1038,40 @@
         <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
         <v>96</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1109,16 +1079,16 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F6">
         <v>3000000</v>
@@ -1145,10 +1115,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1178,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1186,16 +1156,16 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F7">
         <v>5000000</v>
@@ -1222,10 +1192,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1255,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1263,16 +1233,16 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F8">
         <v>2500000</v>
@@ -1299,10 +1269,10 @@
         <v>13000</v>
       </c>
       <c r="N8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="P8">
         <v>1230336508</v>
@@ -1332,7 +1302,7 @@
         <v>-7563224846</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1340,16 +1310,16 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F9">
         <v>3000000</v>
@@ -1376,40 +1346,40 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" t="s">
         <v>87</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="s">
         <v>96</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1420,13 +1390,13 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F10">
         <v>1600000</v>
@@ -1453,10 +1423,10 @@
         <v>20000</v>
       </c>
       <c r="N10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="O10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="P10">
         <v>813929</v>
@@ -1486,7 +1456,7 @@
         <v>-7817567</v>
       </c>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1494,16 +1464,16 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F11">
         <v>2000000</v>
@@ -1530,10 +1500,10 @@
         <v>30000</v>
       </c>
       <c r="N11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="O11" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="P11">
         <v>59096247022</v>
@@ -1563,7 +1533,7 @@
         <v>7223298574</v>
       </c>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1571,16 +1541,16 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F12">
         <v>990000</v>
@@ -1607,10 +1577,10 @@
         <v>20000</v>
       </c>
       <c r="N12" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="O12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="P12">
         <v>132326879204</v>
@@ -1640,7 +1610,7 @@
         <v>120676291668</v>
       </c>
       <c r="Y12" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1648,16 +1618,16 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F13">
         <v>2104000</v>
@@ -1684,10 +1654,10 @@
         <v>13500</v>
       </c>
       <c r="N13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="O13" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="P13">
         <v>13884202433</v>
@@ -1717,161 +1687,7 @@
         <v>-6716915237</v>
       </c>
       <c r="Y13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14">
-        <v>5000000</v>
-      </c>
-      <c r="G14">
-        <v>5000000</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>2000</v>
-      </c>
-      <c r="J14">
-        <v>2000</v>
-      </c>
-      <c r="K14">
-        <v>5605000</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>2000</v>
-      </c>
-      <c r="N14" t="s">
-        <v>92</v>
-      </c>
-      <c r="O14" t="s">
-        <v>96</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15">
-        <v>4000000</v>
-      </c>
-      <c r="G15">
-        <v>4000000</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>2000</v>
-      </c>
-      <c r="J15">
-        <v>2000</v>
-      </c>
-      <c r="K15">
-        <v>4210000</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>2000</v>
-      </c>
-      <c r="N15" t="s">
-        <v>93</v>
-      </c>
-      <c r="O15" t="s">
-        <v>96</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="103">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,12 +91,12 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-04-15</t>
+  </si>
+  <si>
     <t>2024-04-12</t>
   </si>
   <si>
-    <t>2024-04-15</t>
-  </si>
-  <si>
     <t>2024-04-08</t>
   </si>
   <si>
@@ -121,7 +121,7 @@
     <t>2024-02-21</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-19</t>
   </si>
   <si>
     <t>2024-04-18</t>
@@ -151,7 +151,7 @@
     <t>2024-02-27</t>
   </si>
   <si>
-    <t>2024-02-22</t>
+    <t>2024-05-07</t>
   </si>
   <si>
     <t>2024-05-03</t>
@@ -175,12 +175,12 @@
     <t>2024-03-21</t>
   </si>
   <si>
+    <t>한국</t>
+  </si>
+  <si>
     <t>KB</t>
   </si>
   <si>
-    <t>한국</t>
-  </si>
-  <si>
     <t>유안타</t>
   </si>
   <si>
@@ -196,7 +196,7 @@
     <t>NH</t>
   </si>
   <si>
-    <t>DB, NH</t>
+    <t>코칩</t>
   </si>
   <si>
     <t>민테크</t>
@@ -232,7 +232,7 @@
     <t>오상헬스케어</t>
   </si>
   <si>
-    <t>케이엔알시스템</t>
+    <t>988.32:1</t>
   </si>
   <si>
     <t>946.72:1</t>
@@ -268,7 +268,7 @@
     <t>993.21:1</t>
   </si>
   <si>
-    <t>873.20:1</t>
+    <t>13.19%</t>
   </si>
   <si>
     <t>4.23%</t>
@@ -292,7 +292,7 @@
     <t>2.85%</t>
   </si>
   <si>
-    <t>31.86%</t>
+    <t>소형 및 초소형 슈퍼커패시터</t>
   </si>
   <si>
     <t>배터리 진단시스템, 배터리 시스템, 충방전 검사장비</t>
@@ -323,9 +323,6 @@
   </si>
   <si>
     <t>생화학 측정기 및 센서, 면역진단기기 및 마커, 분자진단기기 및 시약 등</t>
-  </si>
-  <si>
-    <t>특수목적 시험장비, 산업용로봇</t>
   </si>
 </sst>
 </file>
@@ -771,153 +768,153 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="G2">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="J2">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="K2">
-        <v>21945300</v>
+        <v>8503460</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P2">
-        <v>9576212189</v>
+        <v>47284698907</v>
       </c>
       <c r="Q2">
-        <v>11914994171</v>
+        <v>38750429966</v>
       </c>
       <c r="R2">
-        <v>7285537916</v>
+        <v>25900014771</v>
       </c>
       <c r="S2">
-        <v>1172310325</v>
+        <v>7595091433</v>
       </c>
       <c r="T2">
-        <v>-2762203259</v>
+        <v>5807002440</v>
       </c>
       <c r="U2">
-        <v>-4737405164</v>
+        <v>3668321605</v>
       </c>
       <c r="V2">
-        <v>-7460336546</v>
+        <v>5701880294</v>
       </c>
       <c r="W2">
-        <v>-7104430732</v>
+        <v>4780312126</v>
       </c>
       <c r="X2">
-        <v>-7501425172</v>
+        <v>4195570793</v>
       </c>
       <c r="Y2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="G3">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="J3">
-        <v>26000</v>
+        <v>8500</v>
       </c>
       <c r="K3">
-        <v>10429232</v>
+        <v>21945300</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>33000</v>
+        <v>10500</v>
       </c>
       <c r="N3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P3">
-        <v>-75676750274</v>
+        <v>9576212189</v>
       </c>
       <c r="Q3">
-        <v>-68652978862</v>
+        <v>11914994171</v>
       </c>
       <c r="R3">
-        <v>-9506668082</v>
+        <v>7285537916</v>
       </c>
       <c r="S3">
-        <v>-69862474811</v>
+        <v>1172310325</v>
       </c>
       <c r="T3">
-        <v>-137025491259</v>
+        <v>-2762203259</v>
       </c>
       <c r="U3">
-        <v>3014576074</v>
+        <v>-4737405164</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-7460336546</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-7104430732</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-7501425172</v>
       </c>
       <c r="Y3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -925,64 +922,64 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4">
-        <v>5150000</v>
+        <v>1100000</v>
       </c>
       <c r="G4">
-        <v>5150000</v>
+        <v>1100000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K4">
-        <v>5510000</v>
+        <v>10429232</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2000</v>
+        <v>33000</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>-75676750274</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-68652978862</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-9506668082</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-69862474811</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-137025491259</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>3014576074</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -994,30 +991,30 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5">
-        <v>3500000</v>
+        <v>5150000</v>
       </c>
       <c r="G5">
-        <v>3500000</v>
+        <v>5150000</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1029,7 +1026,7 @@
         <v>2000</v>
       </c>
       <c r="K5">
-        <v>3700000</v>
+        <v>5510000</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1038,7 +1035,7 @@
         <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
         <v>87</v>
@@ -1071,30 +1068,30 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="G6">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1106,7 +1103,7 @@
         <v>2000</v>
       </c>
       <c r="K6">
-        <v>3620000</v>
+        <v>3700000</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1115,7 +1112,7 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
         <v>87</v>
@@ -1148,30 +1145,30 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="G7">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1183,7 +1180,7 @@
         <v>2000</v>
       </c>
       <c r="K7">
-        <v>5520000</v>
+        <v>3620000</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1192,7 +1189,7 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O7" t="s">
         <v>87</v>
@@ -1225,469 +1222,469 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="G8">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>7700</v>
+        <v>2000</v>
       </c>
       <c r="J8">
-        <v>9900</v>
+        <v>2000</v>
       </c>
       <c r="K8">
-        <v>13992625</v>
+        <v>5520000</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P8">
-        <v>1230336508</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>2624739502</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>2926965114</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>-5277789009</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>-8667658271</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>-4923399541</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>-9788525741</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>-10436419054</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-7563224846</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="G9">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>7700</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>9900</v>
       </c>
       <c r="K9">
-        <v>3200000</v>
+        <v>13992625</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1230336508</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2624739502</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>2926965114</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>-5277789009</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>-8667658271</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>-4923399541</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>-9788525741</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>-10436419054</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>-7563224846</v>
       </c>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="G10">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K10">
-        <v>14014976</v>
+        <v>3200000</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P10">
-        <v>813929</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>2184312</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>3744252</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>-4828658</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>-7101029</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>-4926381</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>-24094044</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>-6797310</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-7817567</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="G11">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
+        <v>11000</v>
+      </c>
+      <c r="J11">
+        <v>15000</v>
+      </c>
+      <c r="K11">
+        <v>14014976</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>20000</v>
       </c>
-      <c r="J11">
-        <v>25000</v>
-      </c>
-      <c r="K11">
-        <v>10569189</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>30000</v>
-      </c>
       <c r="N11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P11">
-        <v>59096247022</v>
+        <v>813929</v>
       </c>
       <c r="Q11">
-        <v>68617808568</v>
+        <v>2184312</v>
       </c>
       <c r="R11">
-        <v>72737982928</v>
+        <v>3744252</v>
       </c>
       <c r="S11">
-        <v>3774225460</v>
+        <v>-4828658</v>
       </c>
       <c r="T11">
-        <v>2753382474</v>
+        <v>-7101029</v>
       </c>
       <c r="U11">
-        <v>8000270581</v>
+        <v>-4926381</v>
       </c>
       <c r="V11">
-        <v>3791818673</v>
+        <v>-24094044</v>
       </c>
       <c r="W11">
-        <v>3322524020</v>
+        <v>-6797310</v>
       </c>
       <c r="X11">
-        <v>7223298574</v>
+        <v>-7817567</v>
       </c>
       <c r="Y11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="G12">
-        <v>990000</v>
+        <v>2000000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="J12">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="K12">
-        <v>14104416</v>
+        <v>10569189</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="N12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P12">
-        <v>132326879204</v>
+        <v>59096247022</v>
       </c>
       <c r="Q12">
-        <v>193893072828</v>
+        <v>68617808568</v>
       </c>
       <c r="R12">
-        <v>341250572142</v>
+        <v>72737982928</v>
       </c>
       <c r="S12">
-        <v>-7083727446</v>
+        <v>3774225460</v>
       </c>
       <c r="T12">
-        <v>49300174288</v>
+        <v>2753382474</v>
       </c>
       <c r="U12">
-        <v>150061283068</v>
+        <v>8000270581</v>
       </c>
       <c r="V12">
-        <v>1473132550</v>
+        <v>3791818673</v>
       </c>
       <c r="W12">
-        <v>40660749810</v>
+        <v>3322524020</v>
       </c>
       <c r="X12">
-        <v>120676291668</v>
+        <v>7223298574</v>
       </c>
       <c r="Y12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="G13">
-        <v>2104000</v>
+        <v>990000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="J13">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="K13">
-        <v>10867713</v>
+        <v>14104416</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="N13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P13">
-        <v>13884202433</v>
+        <v>132326879204</v>
       </c>
       <c r="Q13">
-        <v>51182177917</v>
+        <v>193893072828</v>
       </c>
       <c r="R13">
-        <v>8127683890</v>
+        <v>341250572142</v>
       </c>
       <c r="S13">
-        <v>-2233716995</v>
+        <v>-7083727446</v>
       </c>
       <c r="T13">
-        <v>2983031122</v>
+        <v>49300174288</v>
       </c>
       <c r="U13">
-        <v>-6655066594</v>
+        <v>150061283068</v>
       </c>
       <c r="V13">
-        <v>-5046530611</v>
+        <v>1473132550</v>
       </c>
       <c r="W13">
-        <v>1523272163</v>
+        <v>40660749810</v>
       </c>
       <c r="X13">
-        <v>-6716915237</v>
+        <v>120676291668</v>
       </c>
       <c r="Y13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -94,6 +94,9 @@
     <t>2024-04-15</t>
   </si>
   <si>
+    <t>2024-04-17</t>
+  </si>
+  <si>
     <t>2024-04-12</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
     <t>한국</t>
   </si>
   <si>
+    <t>SK</t>
+  </si>
+  <si>
     <t>KB</t>
   </si>
   <si>
@@ -199,6 +205,9 @@
     <t>코칩</t>
   </si>
   <si>
+    <t>SK증권제12호스팩</t>
+  </si>
+  <si>
     <t>민테크</t>
   </si>
   <si>
@@ -235,6 +244,9 @@
     <t>988.32:1</t>
   </si>
   <si>
+    <t>1,189.41:1</t>
+  </si>
+  <si>
     <t>946.72:1</t>
   </si>
   <si>
@@ -271,15 +283,15 @@
     <t>13.19%</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>4.23%</t>
   </si>
   <si>
     <t>10.96%</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>4.50%</t>
   </si>
   <si>
@@ -293,6 +305,9 @@
   </si>
   <si>
     <t>소형 및 초소형 슈퍼커패시터</t>
+  </si>
+  <si>
+    <t>기업인수목적 주식회사</t>
   </si>
   <si>
     <t>배터리 진단시스템, 배터리 시스템, 충방전 검사장비</t>
@@ -680,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -768,16 +783,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>1500000</v>
@@ -804,10 +819,10 @@
         <v>18000</v>
       </c>
       <c r="N2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P2">
         <v>47284698907</v>
@@ -837,7 +852,7 @@
         <v>4195570793</v>
       </c>
       <c r="Y2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -845,16 +860,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>3000000</v>
@@ -866,197 +881,197 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="K3">
-        <v>21945300</v>
+        <v>3310000</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P3">
-        <v>9576212189</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>11914994171</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>7285537916</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1172310325</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>-2762203259</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>-4737405164</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>-7460336546</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-7104430732</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-7501425172</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F4">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="G4">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="J4">
-        <v>26000</v>
+        <v>8500</v>
       </c>
       <c r="K4">
-        <v>10429232</v>
+        <v>21945300</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>33000</v>
+        <v>10500</v>
       </c>
       <c r="N4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P4">
-        <v>-75676750274</v>
+        <v>9576212189</v>
       </c>
       <c r="Q4">
-        <v>-68652978862</v>
+        <v>11914994171</v>
       </c>
       <c r="R4">
-        <v>-9506668082</v>
+        <v>7285537916</v>
       </c>
       <c r="S4">
-        <v>-69862474811</v>
+        <v>1172310325</v>
       </c>
       <c r="T4">
-        <v>-137025491259</v>
+        <v>-2762203259</v>
       </c>
       <c r="U4">
-        <v>3014576074</v>
+        <v>-4737405164</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-7460336546</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-7104430732</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>-7501425172</v>
       </c>
       <c r="Y4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F5">
-        <v>5150000</v>
+        <v>1100000</v>
       </c>
       <c r="G5">
-        <v>5150000</v>
+        <v>1100000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K5">
-        <v>5510000</v>
+        <v>10429232</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2000</v>
+        <v>33000</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>-75676750274</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-68652978862</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-9506668082</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>-69862474811</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>-137025491259</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>3014576074</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1068,12 +1083,12 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
@@ -1082,16 +1097,16 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F6">
-        <v>3500000</v>
+        <v>5150000</v>
       </c>
       <c r="G6">
-        <v>3500000</v>
+        <v>5150000</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1103,7 +1118,7 @@
         <v>2000</v>
       </c>
       <c r="K6">
-        <v>3700000</v>
+        <v>5510000</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1112,10 +1127,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1145,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1159,16 +1174,16 @@
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F7">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="G7">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1180,7 +1195,7 @@
         <v>2000</v>
       </c>
       <c r="K7">
-        <v>3620000</v>
+        <v>3700000</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1189,10 +1204,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1222,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1233,19 +1248,19 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F8">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="G8">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1257,7 +1272,7 @@
         <v>2000</v>
       </c>
       <c r="K8">
-        <v>5520000</v>
+        <v>3620000</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1266,10 +1281,10 @@
         <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1299,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1310,73 +1325,73 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F9">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="G9">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>7700</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>9900</v>
+        <v>2000</v>
       </c>
       <c r="K9">
-        <v>13992625</v>
+        <v>5520000</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P9">
-        <v>1230336508</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>2624739502</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>2926965114</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>-5277789009</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>-8667658271</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>-4923399541</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>-9788525741</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>-10436419054</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-7563224846</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1387,73 +1402,73 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F10">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="G10">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>7700</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>9900</v>
       </c>
       <c r="K10">
-        <v>3200000</v>
+        <v>13992625</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1230336508</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2624739502</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>2926965114</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>-5277789009</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>-8667658271</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>-4923399541</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>-9788525741</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>-10436419054</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>-7563224846</v>
       </c>
       <c r="Y10" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1461,76 +1476,76 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F11">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="G11">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J11">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K11">
-        <v>14014976</v>
+        <v>3200000</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O11" t="s">
         <v>89</v>
       </c>
       <c r="P11">
-        <v>813929</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>2184312</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>3744252</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>-4828658</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>-7101029</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>-4926381</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>-24094044</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>-6797310</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-7817567</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1538,76 +1553,76 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F12">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="G12">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
+        <v>11000</v>
+      </c>
+      <c r="J12">
+        <v>15000</v>
+      </c>
+      <c r="K12">
+        <v>14014976</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>20000</v>
       </c>
-      <c r="J12">
-        <v>25000</v>
-      </c>
-      <c r="K12">
-        <v>10569189</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>30000</v>
-      </c>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P12">
-        <v>59096247022</v>
+        <v>813929</v>
       </c>
       <c r="Q12">
-        <v>68617808568</v>
+        <v>2184312</v>
       </c>
       <c r="R12">
-        <v>72737982928</v>
+        <v>3744252</v>
       </c>
       <c r="S12">
-        <v>3774225460</v>
+        <v>-4828658</v>
       </c>
       <c r="T12">
-        <v>2753382474</v>
+        <v>-7101029</v>
       </c>
       <c r="U12">
-        <v>8000270581</v>
+        <v>-4926381</v>
       </c>
       <c r="V12">
-        <v>3791818673</v>
+        <v>-24094044</v>
       </c>
       <c r="W12">
-        <v>3322524020</v>
+        <v>-6797310</v>
       </c>
       <c r="X12">
-        <v>7223298574</v>
+        <v>-7817567</v>
       </c>
       <c r="Y12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1618,73 +1633,150 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F13">
+        <v>2000000</v>
+      </c>
+      <c r="G13">
+        <v>2000000</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>20000</v>
+      </c>
+      <c r="J13">
+        <v>25000</v>
+      </c>
+      <c r="K13">
+        <v>10569189</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>30000</v>
+      </c>
+      <c r="N13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13">
+        <v>59096247022</v>
+      </c>
+      <c r="Q13">
+        <v>68617808568</v>
+      </c>
+      <c r="R13">
+        <v>72737982928</v>
+      </c>
+      <c r="S13">
+        <v>3774225460</v>
+      </c>
+      <c r="T13">
+        <v>2753382474</v>
+      </c>
+      <c r="U13">
+        <v>8000270581</v>
+      </c>
+      <c r="V13">
+        <v>3791818673</v>
+      </c>
+      <c r="W13">
+        <v>3322524020</v>
+      </c>
+      <c r="X13">
+        <v>7223298574</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14">
         <v>990000</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>990000</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>13000</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>15000</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>14104416</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>20000</v>
       </c>
-      <c r="N13" t="s">
-        <v>83</v>
-      </c>
-      <c r="O13" t="s">
-        <v>91</v>
-      </c>
-      <c r="P13">
+      <c r="N14" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14">
         <v>132326879204</v>
       </c>
-      <c r="Q13">
+      <c r="Q14">
         <v>193893072828</v>
       </c>
-      <c r="R13">
+      <c r="R14">
         <v>341250572142</v>
       </c>
-      <c r="S13">
+      <c r="S14">
         <v>-7083727446</v>
       </c>
-      <c r="T13">
+      <c r="T14">
         <v>49300174288</v>
       </c>
-      <c r="U13">
+      <c r="U14">
         <v>150061283068</v>
       </c>
-      <c r="V13">
+      <c r="V14">
         <v>1473132550</v>
       </c>
-      <c r="W13">
+      <c r="W14">
         <v>40660749810</v>
       </c>
-      <c r="X13">
+      <c r="X14">
         <v>120676291668</v>
       </c>
-      <c r="Y13" t="s">
-        <v>102</v>
+      <c r="Y14" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -121,9 +121,6 @@
     <t>2024-02-29</t>
   </si>
   <si>
-    <t>2024-02-21</t>
-  </si>
-  <si>
     <t>2024-04-19</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>2024-03-07</t>
   </si>
   <si>
-    <t>2024-02-27</t>
-  </si>
-  <si>
     <t>2024-05-07</t>
   </si>
   <si>
@@ -238,9 +232,6 @@
     <t>삼현</t>
   </si>
   <si>
-    <t>오상헬스케어</t>
-  </si>
-  <si>
     <t>988.32:1</t>
   </si>
   <si>
@@ -277,9 +268,6 @@
     <t>649.11:1</t>
   </si>
   <si>
-    <t>993.21:1</t>
-  </si>
-  <si>
     <t>13.19%</t>
   </si>
   <si>
@@ -301,9 +289,6 @@
     <t>10.64%</t>
   </si>
   <si>
-    <t>2.85%</t>
-  </si>
-  <si>
     <t>소형 및 초소형 슈퍼커패시터</t>
   </si>
   <si>
@@ -335,9 +320,6 @@
   </si>
   <si>
     <t>스마트 액추에이터, 스마트 파워유닛</t>
-  </si>
-  <si>
-    <t>생화학 측정기 및 센서, 면역진단기기 및 마커, 분자진단기기 및 시약 등</t>
   </si>
 </sst>
 </file>
@@ -695,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -783,16 +765,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F2">
         <v>1500000</v>
@@ -819,10 +801,10 @@
         <v>18000</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P2">
         <v>47284698907</v>
@@ -852,7 +834,7 @@
         <v>4195570793</v>
       </c>
       <c r="Y2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -860,16 +842,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <v>3000000</v>
@@ -896,10 +878,10 @@
         <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -929,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -937,16 +919,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4">
         <v>3000000</v>
@@ -973,10 +955,10 @@
         <v>10500</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P4">
         <v>9576212189</v>
@@ -1006,7 +988,7 @@
         <v>-7501425172</v>
       </c>
       <c r="Y4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1014,16 +996,16 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F5">
         <v>1100000</v>
@@ -1050,10 +1032,10 @@
         <v>33000</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P5">
         <v>-75676750274</v>
@@ -1083,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1091,16 +1073,16 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F6">
         <v>5150000</v>
@@ -1127,10 +1109,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1160,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1168,16 +1150,16 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F7">
         <v>3500000</v>
@@ -1204,10 +1186,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1237,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1245,16 +1227,16 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F8">
         <v>3000000</v>
@@ -1281,10 +1263,10 @@
         <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1314,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1322,16 +1304,16 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F9">
         <v>5000000</v>
@@ -1358,10 +1340,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1391,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1399,16 +1381,16 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10">
         <v>2500000</v>
@@ -1435,10 +1417,10 @@
         <v>13000</v>
       </c>
       <c r="N10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P10">
         <v>1230336508</v>
@@ -1468,7 +1450,7 @@
         <v>-7563224846</v>
       </c>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1476,16 +1458,16 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F11">
         <v>3000000</v>
@@ -1512,10 +1494,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1545,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1556,13 +1538,13 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F12">
         <v>1600000</v>
@@ -1589,10 +1571,10 @@
         <v>20000</v>
       </c>
       <c r="N12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P12">
         <v>813929</v>
@@ -1622,7 +1604,7 @@
         <v>-7817567</v>
       </c>
       <c r="Y12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1630,16 +1612,16 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F13">
         <v>2000000</v>
@@ -1666,10 +1648,10 @@
         <v>30000</v>
       </c>
       <c r="N13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P13">
         <v>59096247022</v>
@@ -1699,84 +1681,7 @@
         <v>7223298574</v>
       </c>
       <c r="Y13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14">
-        <v>990000</v>
-      </c>
-      <c r="G14">
-        <v>990000</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>13000</v>
-      </c>
-      <c r="J14">
-        <v>15000</v>
-      </c>
-      <c r="K14">
-        <v>14104416</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>20000</v>
-      </c>
-      <c r="N14" t="s">
-        <v>87</v>
-      </c>
-      <c r="O14" t="s">
-        <v>95</v>
-      </c>
-      <c r="P14">
-        <v>132326879204</v>
-      </c>
-      <c r="Q14">
-        <v>193893072828</v>
-      </c>
-      <c r="R14">
-        <v>341250572142</v>
-      </c>
-      <c r="S14">
-        <v>-7083727446</v>
-      </c>
-      <c r="T14">
-        <v>49300174288</v>
-      </c>
-      <c r="U14">
-        <v>150061283068</v>
-      </c>
-      <c r="V14">
-        <v>1473132550</v>
-      </c>
-      <c r="W14">
-        <v>40660749810</v>
-      </c>
-      <c r="X14">
-        <v>120676291668</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,12 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-04-29</t>
+  </si>
+  <si>
+    <t>2024-04-24</t>
+  </si>
+  <si>
     <t>2024-04-15</t>
   </si>
   <si>
@@ -121,6 +127,12 @@
     <t>2024-02-29</t>
   </si>
   <si>
+    <t>2024-04-30</t>
+  </si>
+  <si>
+    <t>2024-05-30</t>
+  </si>
+  <si>
     <t>2024-04-19</t>
   </si>
   <si>
@@ -148,6 +160,9 @@
     <t>2024-03-07</t>
   </si>
   <si>
+    <t>2024-05-17</t>
+  </si>
+  <si>
     <t>2024-05-07</t>
   </si>
   <si>
@@ -157,9 +172,6 @@
     <t>2024-05-02</t>
   </si>
   <si>
-    <t>2024-04-24</t>
-  </si>
-  <si>
     <t>2024-04-22</t>
   </si>
   <si>
@@ -172,15 +184,18 @@
     <t>2024-03-21</t>
   </si>
   <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
     <t>한국</t>
   </si>
   <si>
     <t>SK</t>
   </si>
   <si>
-    <t>KB</t>
-  </si>
-  <si>
     <t>유안타</t>
   </si>
   <si>
@@ -193,7 +208,10 @@
     <t>미래</t>
   </si>
   <si>
-    <t>NH</t>
+    <t>KB제28호스팩</t>
+  </si>
+  <si>
+    <t>아이씨티케이</t>
   </si>
   <si>
     <t>코칩</t>
@@ -232,6 +250,12 @@
     <t>삼현</t>
   </si>
   <si>
+    <t>1118.39:1</t>
+  </si>
+  <si>
+    <t>783.2:1</t>
+  </si>
+  <si>
     <t>988.32:1</t>
   </si>
   <si>
@@ -268,12 +292,15 @@
     <t>649.11:1</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>6.54%</t>
+  </si>
+  <si>
     <t>13.19%</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>4.23%</t>
   </si>
   <si>
@@ -289,6 +316,12 @@
     <t>10.64%</t>
   </si>
   <si>
+    <t>기업인수합병</t>
+  </si>
+  <si>
+    <t>PUF반도체,보안솔루션(보안반도체,정보통신모듈기기,정보통신용반도체) 제조,개발</t>
+  </si>
+  <si>
     <t>소형 및 초소형 슈퍼커패시터</t>
   </si>
   <si>
@@ -302,9 +335,6 @@
   </si>
   <si>
     <t>금융 지원 서비스(기업인수목적회사)</t>
-  </si>
-  <si>
-    <t>기업인수합병</t>
   </si>
   <si>
     <t>기타금융서비스(기업합병)</t>
@@ -677,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -765,76 +795,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F2">
-        <v>1500000</v>
+        <v>5000000</v>
       </c>
       <c r="G2">
-        <v>1500000</v>
+        <v>5000000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K2">
-        <v>8503460</v>
+        <v>5505000</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="P2">
-        <v>47284698907</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>38750429966</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>25900014771</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>7595091433</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>5807002440</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>3668321605</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>5701880294</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>4780312126</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>4195570793</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -842,46 +872,46 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F3">
-        <v>3000000</v>
+        <v>1970000</v>
       </c>
       <c r="G3">
-        <v>3000000</v>
+        <v>1970000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="K3">
-        <v>3310000</v>
+        <v>13124496</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -911,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -919,141 +949,141 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F4">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="G4">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="J4">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="K4">
-        <v>21945300</v>
+        <v>8503460</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="N4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="O4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="P4">
-        <v>9576212189</v>
+        <v>47284698907</v>
       </c>
       <c r="Q4">
-        <v>11914994171</v>
+        <v>38750429966</v>
       </c>
       <c r="R4">
-        <v>7285537916</v>
+        <v>25900014771</v>
       </c>
       <c r="S4">
-        <v>1172310325</v>
+        <v>7595091433</v>
       </c>
       <c r="T4">
-        <v>-2762203259</v>
+        <v>5807002440</v>
       </c>
       <c r="U4">
-        <v>-4737405164</v>
+        <v>3668321605</v>
       </c>
       <c r="V4">
-        <v>-7460336546</v>
+        <v>5701880294</v>
       </c>
       <c r="W4">
-        <v>-7104430732</v>
+        <v>4780312126</v>
       </c>
       <c r="X4">
-        <v>-7501425172</v>
+        <v>4195570793</v>
       </c>
       <c r="Y4" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F5">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="G5">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K5">
-        <v>10429232</v>
+        <v>3310000</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>33000</v>
+        <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P5">
-        <v>-75676750274</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-68652978862</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>-9506668082</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-69862474811</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>-137025491259</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>3014576074</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1065,149 +1095,149 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F6">
-        <v>5150000</v>
+        <v>3000000</v>
       </c>
       <c r="G6">
-        <v>5150000</v>
+        <v>3000000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="K6">
-        <v>5510000</v>
+        <v>21945300</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2000</v>
+        <v>10500</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>9576212189</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>11914994171</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>7285537916</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1172310325</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>-2762203259</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>-4737405164</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>-7460336546</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>-7104430732</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>-7501425172</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F7">
-        <v>3500000</v>
+        <v>1100000</v>
       </c>
       <c r="G7">
-        <v>3500000</v>
+        <v>1100000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K7">
-        <v>3700000</v>
+        <v>10429232</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2000</v>
+        <v>33000</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>-75676750274</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-68652978862</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>-9506668082</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>-69862474811</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>-137025491259</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>3014576074</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1219,30 +1249,30 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F8">
-        <v>3000000</v>
+        <v>5150000</v>
       </c>
       <c r="G8">
-        <v>3000000</v>
+        <v>5150000</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1254,7 +1284,7 @@
         <v>2000</v>
       </c>
       <c r="K8">
-        <v>3620000</v>
+        <v>5510000</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1263,10 +1293,10 @@
         <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1296,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1304,22 +1334,22 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F9">
-        <v>5000000</v>
+        <v>3500000</v>
       </c>
       <c r="G9">
-        <v>5000000</v>
+        <v>3500000</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1331,7 +1361,7 @@
         <v>2000</v>
       </c>
       <c r="K9">
-        <v>5520000</v>
+        <v>3700000</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1340,10 +1370,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="O9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1373,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1381,76 +1411,76 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F10">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="G10">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>7700</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>9900</v>
+        <v>2000</v>
       </c>
       <c r="K10">
-        <v>13992625</v>
+        <v>3620000</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O10" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P10">
-        <v>1230336508</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>2624739502</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>2926965114</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>-5277789009</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>-8667658271</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>-4923399541</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>-9788525741</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>-10436419054</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-7563224846</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1458,22 +1488,22 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F11">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="G11">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1485,7 +1515,7 @@
         <v>2000</v>
       </c>
       <c r="K11">
-        <v>3200000</v>
+        <v>5520000</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1494,10 +1524,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O11" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1527,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1535,76 +1565,76 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F12">
-        <v>1600000</v>
+        <v>2500000</v>
       </c>
       <c r="G12">
-        <v>1600000</v>
+        <v>2500000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11000</v>
+        <v>7700</v>
       </c>
       <c r="J12">
-        <v>15000</v>
+        <v>9900</v>
       </c>
       <c r="K12">
-        <v>14014976</v>
+        <v>13992625</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O12" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P12">
-        <v>813929</v>
+        <v>1230336508</v>
       </c>
       <c r="Q12">
-        <v>2184312</v>
+        <v>2624739502</v>
       </c>
       <c r="R12">
-        <v>3744252</v>
+        <v>2926965114</v>
       </c>
       <c r="S12">
-        <v>-4828658</v>
+        <v>-5277789009</v>
       </c>
       <c r="T12">
-        <v>-7101029</v>
+        <v>-8667658271</v>
       </c>
       <c r="U12">
-        <v>-4926381</v>
+        <v>-4923399541</v>
       </c>
       <c r="V12">
-        <v>-24094044</v>
+        <v>-9788525741</v>
       </c>
       <c r="W12">
-        <v>-6797310</v>
+        <v>-10436419054</v>
       </c>
       <c r="X12">
-        <v>-7817567</v>
+        <v>-7563224846</v>
       </c>
       <c r="Y12" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1612,76 +1642,230 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F13">
+        <v>3000000</v>
+      </c>
+      <c r="G13">
+        <v>3000000</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>2000</v>
+      </c>
+      <c r="J13">
+        <v>2000</v>
+      </c>
+      <c r="K13">
+        <v>3200000</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>2000</v>
+      </c>
+      <c r="N13" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14">
+        <v>1600000</v>
+      </c>
+      <c r="G14">
+        <v>1600000</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>11000</v>
+      </c>
+      <c r="J14">
+        <v>15000</v>
+      </c>
+      <c r="K14">
+        <v>14014976</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>20000</v>
+      </c>
+      <c r="N14" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14">
+        <v>813929</v>
+      </c>
+      <c r="Q14">
+        <v>2184312</v>
+      </c>
+      <c r="R14">
+        <v>3744252</v>
+      </c>
+      <c r="S14">
+        <v>-4828658</v>
+      </c>
+      <c r="T14">
+        <v>-7101029</v>
+      </c>
+      <c r="U14">
+        <v>-4926381</v>
+      </c>
+      <c r="V14">
+        <v>-24094044</v>
+      </c>
+      <c r="W14">
+        <v>-6797310</v>
+      </c>
+      <c r="X14">
+        <v>-7817567</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15">
         <v>2000000</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>2000000</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>20000</v>
       </c>
-      <c r="J13">
+      <c r="J15">
         <v>25000</v>
       </c>
-      <c r="K13">
+      <c r="K15">
         <v>10569189</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>30000</v>
       </c>
-      <c r="N13" t="s">
-        <v>83</v>
-      </c>
-      <c r="O13" t="s">
-        <v>90</v>
-      </c>
-      <c r="P13">
+      <c r="N15" t="s">
+        <v>91</v>
+      </c>
+      <c r="O15" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15">
         <v>59096247022</v>
       </c>
-      <c r="Q13">
+      <c r="Q15">
         <v>68617808568</v>
       </c>
-      <c r="R13">
+      <c r="R15">
         <v>72737982928</v>
       </c>
-      <c r="S13">
+      <c r="S15">
         <v>3774225460</v>
       </c>
-      <c r="T13">
+      <c r="T15">
         <v>2753382474</v>
       </c>
-      <c r="U13">
+      <c r="U15">
         <v>8000270581</v>
       </c>
-      <c r="V13">
+      <c r="V15">
         <v>3791818673</v>
       </c>
-      <c r="W13">
+      <c r="W15">
         <v>3322524020</v>
       </c>
-      <c r="X13">
+      <c r="X15">
         <v>7223298574</v>
       </c>
-      <c r="Y13" t="s">
-        <v>101</v>
+      <c r="Y15" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="105">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -124,9 +124,6 @@
     <t>2024-03-06</t>
   </si>
   <si>
-    <t>2024-02-29</t>
-  </si>
-  <si>
     <t>2024-04-30</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>2024-03-13</t>
   </si>
   <si>
-    <t>2024-03-07</t>
-  </si>
-  <si>
     <t>2024-05-17</t>
   </si>
   <si>
@@ -181,9 +175,6 @@
     <t>2024-03-26</t>
   </si>
   <si>
-    <t>2024-03-21</t>
-  </si>
-  <si>
     <t>KB</t>
   </si>
   <si>
@@ -247,9 +238,6 @@
     <t>엔젤로보틱스</t>
   </si>
   <si>
-    <t>삼현</t>
-  </si>
-  <si>
     <t>1118.39:1</t>
   </si>
   <si>
@@ -289,9 +277,6 @@
     <t>1,157.0:1</t>
   </si>
   <si>
-    <t>649.11:1</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -313,9 +298,6 @@
     <t>16.67%</t>
   </si>
   <si>
-    <t>10.64%</t>
-  </si>
-  <si>
     <t>기업인수합병</t>
   </si>
   <si>
@@ -347,9 +329,6 @@
   </si>
   <si>
     <t>재활 전문 웨어러블 로봇, 근력 보조 무동력 웨어러블 슈트, 일상생활 보조 웨어러블 로봇 등</t>
-  </si>
-  <si>
-    <t>스마트 액추에이터, 스마트 파워유닛</t>
   </si>
 </sst>
 </file>
@@ -707,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -795,16 +774,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F2">
         <v>5000000</v>
@@ -831,10 +810,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -864,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -872,16 +851,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>1970000</v>
@@ -908,10 +887,10 @@
         <v>20000</v>
       </c>
       <c r="N3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -941,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -949,16 +928,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F4">
         <v>1500000</v>
@@ -985,10 +964,10 @@
         <v>18000</v>
       </c>
       <c r="N4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="P4">
         <v>47284698907</v>
@@ -1018,7 +997,7 @@
         <v>4195570793</v>
       </c>
       <c r="Y4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1026,16 +1005,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F5">
         <v>3000000</v>
@@ -1062,10 +1041,10 @@
         <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1095,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1103,16 +1082,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F6">
         <v>3000000</v>
@@ -1139,10 +1118,10 @@
         <v>10500</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P6">
         <v>9576212189</v>
@@ -1172,7 +1151,7 @@
         <v>-7501425172</v>
       </c>
       <c r="Y6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1180,16 +1159,16 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F7">
         <v>1100000</v>
@@ -1216,10 +1195,10 @@
         <v>33000</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="P7">
         <v>-75676750274</v>
@@ -1249,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1257,16 +1236,16 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F8">
         <v>5150000</v>
@@ -1293,10 +1272,10 @@
         <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1326,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1334,16 +1313,16 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F9">
         <v>3500000</v>
@@ -1370,10 +1349,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1403,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1411,16 +1390,16 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F10">
         <v>3000000</v>
@@ -1447,10 +1426,10 @@
         <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1480,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1488,16 +1467,16 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F11">
         <v>5000000</v>
@@ -1524,11 +1503,11 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" t="s">
         <v>87</v>
       </c>
-      <c r="O11" t="s">
-        <v>92</v>
-      </c>
       <c r="P11">
         <v>0</v>
       </c>
@@ -1557,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1565,16 +1544,16 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F12">
         <v>2500000</v>
@@ -1601,10 +1580,10 @@
         <v>13000</v>
       </c>
       <c r="N12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P12">
         <v>1230336508</v>
@@ -1634,7 +1613,7 @@
         <v>-7563224846</v>
       </c>
       <c r="Y12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1642,16 +1621,16 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13">
         <v>3000000</v>
@@ -1678,10 +1657,10 @@
         <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1711,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1722,13 +1701,13 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F14">
         <v>1600000</v>
@@ -1755,10 +1734,10 @@
         <v>20000</v>
       </c>
       <c r="N14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="P14">
         <v>813929</v>
@@ -1788,84 +1767,7 @@
         <v>-7817567</v>
       </c>
       <c r="Y14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15">
-        <v>2000000</v>
-      </c>
-      <c r="G15">
-        <v>2000000</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>20000</v>
-      </c>
-      <c r="J15">
-        <v>25000</v>
-      </c>
-      <c r="K15">
-        <v>10569189</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>30000</v>
-      </c>
-      <c r="N15" t="s">
-        <v>91</v>
-      </c>
-      <c r="O15" t="s">
-        <v>99</v>
-      </c>
-      <c r="P15">
-        <v>59096247022</v>
-      </c>
-      <c r="Q15">
-        <v>68617808568</v>
-      </c>
-      <c r="R15">
-        <v>72737982928</v>
-      </c>
-      <c r="S15">
-        <v>3774225460</v>
-      </c>
-      <c r="T15">
-        <v>2753382474</v>
-      </c>
-      <c r="U15">
-        <v>8000270581</v>
-      </c>
-      <c r="V15">
-        <v>3791818673</v>
-      </c>
-      <c r="W15">
-        <v>3322524020</v>
-      </c>
-      <c r="X15">
-        <v>7223298574</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-04-30</t>
+  </si>
+  <si>
     <t>2024-04-29</t>
   </si>
   <si>
@@ -124,7 +127,7 @@
     <t>2024-03-06</t>
   </si>
   <si>
-    <t>2024-04-30</t>
+    <t>2024-05-08</t>
   </si>
   <si>
     <t>2024-05-30</t>
@@ -154,6 +157,9 @@
     <t>2024-03-13</t>
   </si>
   <si>
+    <t>2024-05-23</t>
+  </si>
+  <si>
     <t>2024-05-17</t>
   </si>
   <si>
@@ -175,6 +181,9 @@
     <t>2024-03-26</t>
   </si>
   <si>
+    <t>삼성</t>
+  </si>
+  <si>
     <t>KB</t>
   </si>
   <si>
@@ -199,6 +208,9 @@
     <t>미래</t>
   </si>
   <si>
+    <t>노브랜드</t>
+  </si>
+  <si>
     <t>KB제28호스팩</t>
   </si>
   <si>
@@ -238,6 +250,9 @@
     <t>엔젤로보틱스</t>
   </si>
   <si>
+    <t>1075.61:1</t>
+  </si>
+  <si>
     <t>1118.39:1</t>
   </si>
   <si>
@@ -277,6 +292,9 @@
     <t>1,157.0:1</t>
   </si>
   <si>
+    <t>4.51%</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -296,6 +314,9 @@
   </si>
   <si>
     <t>16.67%</t>
+  </si>
+  <si>
+    <t>Knit, Woven 의류</t>
   </si>
   <si>
     <t>기업인수합병</t>
@@ -686,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -774,76 +795,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F2">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="G2">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>8700</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K2">
-        <v>5505000</v>
+        <v>7651263</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>468321534076</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>555936831337</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>359249623614</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>22403886436</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>33386727728</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>10411712773</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>10859975142</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>29346086803</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>4820429371</v>
       </c>
       <c r="Y2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -851,46 +872,46 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F3">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="G3">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K3">
-        <v>13124496</v>
+        <v>5505000</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -920,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -931,73 +952,73 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F4">
-        <v>1500000</v>
+        <v>1970000</v>
       </c>
       <c r="G4">
-        <v>1500000</v>
+        <v>1970000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="J4">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="K4">
-        <v>8503460</v>
+        <v>13124496</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P4">
-        <v>47284698907</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>38750429966</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>25900014771</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>7595091433</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>5807002440</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>3668321605</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>5701880294</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>4780312126</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>4195570793</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1008,73 +1029,73 @@
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F5">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="G5">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K5">
-        <v>3310000</v>
+        <v>8503460</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>47284698907</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>38750429966</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>25900014771</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>7595091433</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>5807002440</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>3668321605</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>5701880294</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>4780312126</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>4195570793</v>
       </c>
       <c r="Y5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1082,16 +1103,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F6">
         <v>3000000</v>
@@ -1103,197 +1124,197 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="J6">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="K6">
-        <v>21945300</v>
+        <v>3310000</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P6">
-        <v>9576212189</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>11914994171</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>7285537916</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>1172310325</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>-2762203259</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>-4737405164</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>-7460336546</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>-7104430732</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-7501425172</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F7">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="G7">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="J7">
-        <v>26000</v>
+        <v>8500</v>
       </c>
       <c r="K7">
-        <v>10429232</v>
+        <v>21945300</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>33000</v>
+        <v>10500</v>
       </c>
       <c r="N7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P7">
-        <v>-75676750274</v>
+        <v>9576212189</v>
       </c>
       <c r="Q7">
-        <v>-68652978862</v>
+        <v>11914994171</v>
       </c>
       <c r="R7">
-        <v>-9506668082</v>
+        <v>7285537916</v>
       </c>
       <c r="S7">
-        <v>-69862474811</v>
+        <v>1172310325</v>
       </c>
       <c r="T7">
-        <v>-137025491259</v>
+        <v>-2762203259</v>
       </c>
       <c r="U7">
-        <v>3014576074</v>
+        <v>-4737405164</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>-7460336546</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>-7104430732</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>-7501425172</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F8">
-        <v>5150000</v>
+        <v>1100000</v>
       </c>
       <c r="G8">
-        <v>5150000</v>
+        <v>1100000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J8">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K8">
-        <v>5510000</v>
+        <v>10429232</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2000</v>
+        <v>33000</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>-75676750274</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-68652978862</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>-9506668082</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>-69862474811</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>-137025491259</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>3014576074</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1305,30 +1326,30 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F9">
-        <v>3500000</v>
+        <v>5150000</v>
       </c>
       <c r="G9">
-        <v>3500000</v>
+        <v>5150000</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1340,7 +1361,7 @@
         <v>2000</v>
       </c>
       <c r="K9">
-        <v>3700000</v>
+        <v>5510000</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1349,10 +1370,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1382,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1393,19 +1414,19 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F10">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="G10">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1417,7 +1438,7 @@
         <v>2000</v>
       </c>
       <c r="K10">
-        <v>3620000</v>
+        <v>3700000</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1426,10 +1447,10 @@
         <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O10" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1470,19 +1491,19 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F11">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="G11">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1494,7 +1515,7 @@
         <v>2000</v>
       </c>
       <c r="K11">
-        <v>5520000</v>
+        <v>3620000</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1503,10 +1524,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1536,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1547,73 +1568,73 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F12">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="G12">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>7700</v>
+        <v>2000</v>
       </c>
       <c r="J12">
-        <v>9900</v>
+        <v>2000</v>
       </c>
       <c r="K12">
-        <v>13992625</v>
+        <v>5520000</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P12">
-        <v>1230336508</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>2624739502</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>2926965114</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>-5277789009</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>-8667658271</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>-4923399541</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>-9788525741</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>-10436419054</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-7563224846</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1624,73 +1645,73 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F13">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="G13">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>7700</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>9900</v>
       </c>
       <c r="K13">
-        <v>3200000</v>
+        <v>13992625</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="N13" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O13" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1230336508</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>2624739502</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>2926965114</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>-5277789009</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>-8667658271</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>-4923399541</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>-9788525741</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>-10436419054</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>-7563224846</v>
       </c>
       <c r="Y13" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1698,76 +1719,153 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F14">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="G14">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J14">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="K14">
-        <v>14014976</v>
+        <v>3200000</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="N14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O14" t="s">
         <v>93</v>
       </c>
       <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15">
+        <v>1600000</v>
+      </c>
+      <c r="G15">
+        <v>1600000</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>11000</v>
+      </c>
+      <c r="J15">
+        <v>15000</v>
+      </c>
+      <c r="K15">
+        <v>14014976</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>20000</v>
+      </c>
+      <c r="N15" t="s">
+        <v>91</v>
+      </c>
+      <c r="O15" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15">
         <v>813929</v>
       </c>
-      <c r="Q14">
+      <c r="Q15">
         <v>2184312</v>
       </c>
-      <c r="R14">
+      <c r="R15">
         <v>3744252</v>
       </c>
-      <c r="S14">
+      <c r="S15">
         <v>-4828658</v>
       </c>
-      <c r="T14">
+      <c r="T15">
         <v>-7101029</v>
       </c>
-      <c r="U14">
+      <c r="U15">
         <v>-4926381</v>
       </c>
-      <c r="V14">
+      <c r="V15">
         <v>-24094044</v>
       </c>
-      <c r="W14">
+      <c r="W15">
         <v>-6797310</v>
       </c>
-      <c r="X14">
+      <c r="X15">
         <v>-7817567</v>
       </c>
-      <c r="Y14" t="s">
-        <v>104</v>
+      <c r="Y15" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -121,12 +121,6 @@
     <t>2024-03-14</t>
   </si>
   <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>2024-03-06</t>
-  </si>
-  <si>
     <t>2024-05-08</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
     <t>2024-03-20</t>
   </si>
   <si>
-    <t>2024-03-13</t>
-  </si>
-  <si>
     <t>2024-05-23</t>
   </si>
   <si>
@@ -178,9 +169,6 @@
     <t>2024-04-03</t>
   </si>
   <si>
-    <t>2024-03-26</t>
-  </si>
-  <si>
     <t>삼성</t>
   </si>
   <si>
@@ -244,12 +232,6 @@
     <t>아이엠비디엑스</t>
   </si>
   <si>
-    <t>하나32호스팩</t>
-  </si>
-  <si>
-    <t>엔젤로보틱스</t>
-  </si>
-  <si>
     <t>1075.61:1</t>
   </si>
   <si>
@@ -286,12 +268,6 @@
     <t>865.73 :1</t>
   </si>
   <si>
-    <t>1247.72:1</t>
-  </si>
-  <si>
-    <t>1,157.0:1</t>
-  </si>
-  <si>
     <t>4.51%</t>
   </si>
   <si>
@@ -313,9 +289,6 @@
     <t>4.50%</t>
   </si>
   <si>
-    <t>16.67%</t>
-  </si>
-  <si>
     <t>Knit, Woven 의류</t>
   </si>
   <si>
@@ -347,9 +320,6 @@
   </si>
   <si>
     <t>알파리퀴드ⓡ 100, 알파리퀴드ⓡ HRR, 알파리퀴드ⓡ 디텍트, 알파리퀴드ⓡ 스크리닝</t>
-  </si>
-  <si>
-    <t>재활 전문 웨어러블 로봇, 근력 보조 무동력 웨어러블 슈트, 일상생활 보조 웨어러블 로봇 등</t>
   </si>
 </sst>
 </file>
@@ -707,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -795,16 +765,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F2">
         <v>1200000</v>
@@ -831,10 +801,10 @@
         <v>14000</v>
       </c>
       <c r="N2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="P2">
         <v>468321534076</v>
@@ -864,7 +834,7 @@
         <v>4820429371</v>
       </c>
       <c r="Y2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -875,13 +845,13 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <v>5000000</v>
@@ -908,10 +878,10 @@
         <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -941,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -949,16 +919,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F4">
         <v>1970000</v>
@@ -985,10 +955,10 @@
         <v>20000</v>
       </c>
       <c r="N4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1018,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1026,16 +996,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F5">
         <v>1500000</v>
@@ -1062,10 +1032,10 @@
         <v>18000</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="P5">
         <v>47284698907</v>
@@ -1095,7 +1065,7 @@
         <v>4195570793</v>
       </c>
       <c r="Y5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1103,16 +1073,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6">
         <v>3000000</v>
@@ -1139,10 +1109,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1172,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1180,16 +1150,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F7">
         <v>3000000</v>
@@ -1216,10 +1186,10 @@
         <v>10500</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="P7">
         <v>9576212189</v>
@@ -1249,7 +1219,7 @@
         <v>-7501425172</v>
       </c>
       <c r="Y7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1257,16 +1227,16 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F8">
         <v>1100000</v>
@@ -1293,10 +1263,10 @@
         <v>33000</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P8">
         <v>-75676750274</v>
@@ -1326,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1334,16 +1304,16 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F9">
         <v>5150000</v>
@@ -1370,11 +1340,11 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" t="s">
         <v>85</v>
       </c>
-      <c r="O9" t="s">
-        <v>93</v>
-      </c>
       <c r="P9">
         <v>0</v>
       </c>
@@ -1403,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1411,16 +1381,16 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F10">
         <v>3500000</v>
@@ -1447,10 +1417,10 @@
         <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O10" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1480,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1488,16 +1458,16 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F11">
         <v>3000000</v>
@@ -1524,10 +1494,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O11" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1557,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1565,16 +1535,16 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F12">
         <v>5000000</v>
@@ -1601,10 +1571,10 @@
         <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1634,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1642,16 +1612,16 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F13">
         <v>2500000</v>
@@ -1678,10 +1648,10 @@
         <v>13000</v>
       </c>
       <c r="N13" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="O13" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="P13">
         <v>1230336508</v>
@@ -1711,161 +1681,7 @@
         <v>-7563224846</v>
       </c>
       <c r="Y13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14">
-        <v>3000000</v>
-      </c>
-      <c r="G14">
-        <v>3000000</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>2000</v>
-      </c>
-      <c r="J14">
-        <v>2000</v>
-      </c>
-      <c r="K14">
-        <v>3200000</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>2000</v>
-      </c>
-      <c r="N14" t="s">
-        <v>90</v>
-      </c>
-      <c r="O14" t="s">
-        <v>93</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15">
-        <v>1600000</v>
-      </c>
-      <c r="G15">
-        <v>1600000</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>11000</v>
-      </c>
-      <c r="J15">
-        <v>15000</v>
-      </c>
-      <c r="K15">
-        <v>14014976</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>20000</v>
-      </c>
-      <c r="N15" t="s">
-        <v>91</v>
-      </c>
-      <c r="O15" t="s">
-        <v>99</v>
-      </c>
-      <c r="P15">
-        <v>813929</v>
-      </c>
-      <c r="Q15">
-        <v>2184312</v>
-      </c>
-      <c r="R15">
-        <v>3744252</v>
-      </c>
-      <c r="S15">
-        <v>-4828658</v>
-      </c>
-      <c r="T15">
-        <v>-7101029</v>
-      </c>
-      <c r="U15">
-        <v>-4926381</v>
-      </c>
-      <c r="V15">
-        <v>-24094044</v>
-      </c>
-      <c r="W15">
-        <v>-6797310</v>
-      </c>
-      <c r="X15">
-        <v>-7817567</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-05-13</t>
+  </si>
+  <si>
     <t>2024-04-30</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>2024-03-14</t>
   </si>
   <si>
+    <t>2024-05-14</t>
+  </si>
+  <si>
     <t>2024-05-08</t>
   </si>
   <si>
@@ -148,6 +154,9 @@
     <t>2024-03-20</t>
   </si>
   <si>
+    <t>2024-05-29</t>
+  </si>
+  <si>
     <t>2024-05-23</t>
   </si>
   <si>
@@ -169,6 +178,9 @@
     <t>2024-04-03</t>
   </si>
   <si>
+    <t>미래</t>
+  </si>
+  <si>
     <t>삼성</t>
   </si>
   <si>
@@ -193,7 +205,7 @@
     <t>신한</t>
   </si>
   <si>
-    <t>미래</t>
+    <t>미래에셋비전스팩4호</t>
   </si>
   <si>
     <t>노브랜드</t>
@@ -232,6 +244,9 @@
     <t>아이엠비디엑스</t>
   </si>
   <si>
+    <t>1011.2:1</t>
+  </si>
+  <si>
     <t>1075.61:1</t>
   </si>
   <si>
@@ -268,12 +283,12 @@
     <t>865.73 :1</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>4.51%</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>6.54%</t>
   </si>
   <si>
@@ -287,6 +302,9 @@
   </si>
   <si>
     <t>4.50%</t>
+  </si>
+  <si>
+    <t>기업인수목적회사(기타금융서비스)</t>
   </si>
   <si>
     <t>Knit, Woven 의류</t>
@@ -677,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -765,76 +783,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F2">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="G2">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8700</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K2">
-        <v>7651263</v>
+        <v>8100000</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P2">
-        <v>468321534076</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>555936831337</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>359249623614</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>22403886436</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>33386727728</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>10411712773</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>10859975142</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>29346086803</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>4820429371</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -842,76 +860,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F3">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="G3">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>8700</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K3">
-        <v>5505000</v>
+        <v>7651263</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="N3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>468321534076</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>555936831337</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>359249623614</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>22403886436</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>33386727728</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>10411712773</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>10859975142</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>29346086803</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>4820429371</v>
       </c>
       <c r="Y3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -919,46 +937,46 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F4">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="G4">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K4">
-        <v>13124496</v>
+        <v>5505000</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -988,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -996,76 +1014,76 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F5">
-        <v>1500000</v>
+        <v>1970000</v>
       </c>
       <c r="G5">
-        <v>1500000</v>
+        <v>1970000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="J5">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="K5">
-        <v>8503460</v>
+        <v>13124496</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P5">
-        <v>47284698907</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>38750429966</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>25900014771</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>7595091433</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>5807002440</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>3668321605</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>5701880294</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>4780312126</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>4195570793</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1073,76 +1091,76 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F6">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="G6">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K6">
-        <v>3310000</v>
+        <v>8503460</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>47284698907</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>38750429966</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>25900014771</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>7595091433</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>5807002440</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>3668321605</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>5701880294</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>4780312126</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>4195570793</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1150,16 +1168,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F7">
         <v>3000000</v>
@@ -1171,197 +1189,197 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="K7">
-        <v>21945300</v>
+        <v>3310000</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P7">
-        <v>9576212189</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>11914994171</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>7285537916</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>1172310325</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>-2762203259</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>-4737405164</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>-7460336546</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>-7104430732</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-7501425172</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F8">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="G8">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="J8">
-        <v>26000</v>
+        <v>8500</v>
       </c>
       <c r="K8">
-        <v>10429232</v>
+        <v>21945300</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>33000</v>
+        <v>10500</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P8">
-        <v>-75676750274</v>
+        <v>9576212189</v>
       </c>
       <c r="Q8">
-        <v>-68652978862</v>
+        <v>11914994171</v>
       </c>
       <c r="R8">
-        <v>-9506668082</v>
+        <v>7285537916</v>
       </c>
       <c r="S8">
-        <v>-69862474811</v>
+        <v>1172310325</v>
       </c>
       <c r="T8">
-        <v>-137025491259</v>
+        <v>-2762203259</v>
       </c>
       <c r="U8">
-        <v>3014576074</v>
+        <v>-4737405164</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>-7460336546</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>-7104430732</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>-7501425172</v>
       </c>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F9">
-        <v>5150000</v>
+        <v>1100000</v>
       </c>
       <c r="G9">
-        <v>5150000</v>
+        <v>1100000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K9">
-        <v>5510000</v>
+        <v>10429232</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2000</v>
+        <v>33000</v>
       </c>
       <c r="N9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>-75676750274</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-68652978862</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>-9506668082</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>-69862474811</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>-137025491259</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>3014576074</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1373,30 +1391,30 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F10">
-        <v>3500000</v>
+        <v>5150000</v>
       </c>
       <c r="G10">
-        <v>3500000</v>
+        <v>5150000</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1408,7 +1426,7 @@
         <v>2000</v>
       </c>
       <c r="K10">
-        <v>3700000</v>
+        <v>5510000</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1417,10 +1435,10 @@
         <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1450,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1458,22 +1476,22 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F11">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="G11">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1485,7 +1503,7 @@
         <v>2000</v>
       </c>
       <c r="K11">
-        <v>3620000</v>
+        <v>3700000</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1494,10 +1512,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1527,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1535,22 +1553,22 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F12">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="G12">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1562,7 +1580,7 @@
         <v>2000</v>
       </c>
       <c r="K12">
-        <v>5520000</v>
+        <v>3620000</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1571,10 +1589,10 @@
         <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1604,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1612,76 +1630,153 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F13">
+        <v>5000000</v>
+      </c>
+      <c r="G13">
+        <v>5000000</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>2000</v>
+      </c>
+      <c r="J13">
+        <v>2000</v>
+      </c>
+      <c r="K13">
+        <v>5520000</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>2000</v>
+      </c>
+      <c r="N13" t="s">
+        <v>87</v>
+      </c>
+      <c r="O13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14">
         <v>2500000</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>2500000</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>7700</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>9900</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>13992625</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>13000</v>
       </c>
-      <c r="N13" t="s">
-        <v>83</v>
-      </c>
-      <c r="O13" t="s">
-        <v>90</v>
-      </c>
-      <c r="P13">
+      <c r="N14" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14">
         <v>1230336508</v>
       </c>
-      <c r="Q13">
+      <c r="Q14">
         <v>2624739502</v>
       </c>
-      <c r="R13">
+      <c r="R14">
         <v>2926965114</v>
       </c>
-      <c r="S13">
+      <c r="S14">
         <v>-5277789009</v>
       </c>
-      <c r="T13">
+      <c r="T14">
         <v>-8667658271</v>
       </c>
-      <c r="U13">
+      <c r="U14">
         <v>-4923399541</v>
       </c>
-      <c r="V13">
+      <c r="V14">
         <v>-9788525741</v>
       </c>
-      <c r="W13">
+      <c r="W14">
         <v>-10436419054</v>
       </c>
-      <c r="X13">
+      <c r="X14">
         <v>-7563224846</v>
       </c>
-      <c r="Y13" t="s">
-        <v>101</v>
+      <c r="Y14" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="101">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -121,9 +121,6 @@
     <t>2024-03-27</t>
   </si>
   <si>
-    <t>2024-03-14</t>
-  </si>
-  <si>
     <t>2024-05-14</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>2024-03-28</t>
   </si>
   <si>
-    <t>2024-03-20</t>
-  </si>
-  <si>
     <t>2024-05-29</t>
   </si>
   <si>
@@ -175,9 +169,6 @@
     <t>2024-04-22</t>
   </si>
   <si>
-    <t>2024-04-03</t>
-  </si>
-  <si>
     <t>미래</t>
   </si>
   <si>
@@ -241,9 +232,6 @@
     <t>신한제12호스팩</t>
   </si>
   <si>
-    <t>아이엠비디엑스</t>
-  </si>
-  <si>
     <t>1011.2:1</t>
   </si>
   <si>
@@ -280,9 +268,6 @@
     <t>1,104.54:1</t>
   </si>
   <si>
-    <t>865.73 :1</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -301,9 +286,6 @@
     <t>10.96%</t>
   </si>
   <si>
-    <t>4.50%</t>
-  </si>
-  <si>
     <t>기업인수목적회사(기타금융서비스)</t>
   </si>
   <si>
@@ -335,9 +317,6 @@
   </si>
   <si>
     <t>금융서비스(기업인수목적회사)</t>
-  </si>
-  <si>
-    <t>알파리퀴드ⓡ 100, 알파리퀴드ⓡ HRR, 알파리퀴드ⓡ 디텍트, 알파리퀴드ⓡ 스크리닝</t>
   </si>
 </sst>
 </file>
@@ -695,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -783,16 +762,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F2">
         <v>6650000</v>
@@ -819,10 +798,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -852,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -860,16 +839,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <v>1200000</v>
@@ -896,10 +875,10 @@
         <v>14000</v>
       </c>
       <c r="N3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P3">
         <v>468321534076</v>
@@ -929,7 +908,7 @@
         <v>4820429371</v>
       </c>
       <c r="Y3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -940,13 +919,13 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F4">
         <v>5000000</v>
@@ -973,10 +952,10 @@
         <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1006,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1014,16 +993,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F5">
         <v>1970000</v>
@@ -1050,10 +1029,10 @@
         <v>20000</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1083,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1091,16 +1070,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F6">
         <v>1500000</v>
@@ -1127,10 +1106,10 @@
         <v>18000</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P6">
         <v>47284698907</v>
@@ -1160,7 +1139,7 @@
         <v>4195570793</v>
       </c>
       <c r="Y6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1168,16 +1147,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F7">
         <v>3000000</v>
@@ -1204,10 +1183,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1237,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1245,16 +1224,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F8">
         <v>3000000</v>
@@ -1281,10 +1260,10 @@
         <v>10500</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P8">
         <v>9576212189</v>
@@ -1314,7 +1293,7 @@
         <v>-7501425172</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1322,16 +1301,16 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F9">
         <v>1100000</v>
@@ -1358,10 +1337,10 @@
         <v>33000</v>
       </c>
       <c r="N9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="P9">
         <v>-75676750274</v>
@@ -1391,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1399,16 +1378,16 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F10">
         <v>5150000</v>
@@ -1435,11 +1414,11 @@
         <v>2000</v>
       </c>
       <c r="N10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" t="s">
         <v>84</v>
       </c>
-      <c r="O10" t="s">
-        <v>89</v>
-      </c>
       <c r="P10">
         <v>0</v>
       </c>
@@ -1468,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1476,16 +1455,16 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F11">
         <v>3500000</v>
@@ -1512,10 +1491,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1545,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1553,16 +1532,16 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F12">
         <v>3000000</v>
@@ -1589,10 +1568,10 @@
         <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1622,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1630,16 +1609,16 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F13">
         <v>5000000</v>
@@ -1666,10 +1645,10 @@
         <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1699,84 +1678,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14">
-        <v>2500000</v>
-      </c>
-      <c r="G14">
-        <v>2500000</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>7700</v>
-      </c>
-      <c r="J14">
-        <v>9900</v>
-      </c>
-      <c r="K14">
-        <v>13992625</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>13000</v>
-      </c>
-      <c r="N14" t="s">
-        <v>88</v>
-      </c>
-      <c r="O14" t="s">
-        <v>95</v>
-      </c>
-      <c r="P14">
-        <v>1230336508</v>
-      </c>
-      <c r="Q14">
-        <v>2624739502</v>
-      </c>
-      <c r="R14">
-        <v>2926965114</v>
-      </c>
-      <c r="S14">
-        <v>-5277789009</v>
-      </c>
-      <c r="T14">
-        <v>-8667658271</v>
-      </c>
-      <c r="U14">
-        <v>-4923399541</v>
-      </c>
-      <c r="V14">
-        <v>-9788525741</v>
-      </c>
-      <c r="W14">
-        <v>-10436419054</v>
-      </c>
-      <c r="X14">
-        <v>-7563224846</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="106">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-05-23</t>
+  </si>
+  <si>
     <t>2024-05-13</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>2024-03-27</t>
   </si>
   <si>
+    <t>2024-05-29</t>
+  </si>
+  <si>
     <t>2024-05-14</t>
   </si>
   <si>
@@ -148,10 +154,7 @@
     <t>2024-03-28</t>
   </si>
   <si>
-    <t>2024-05-29</t>
-  </si>
-  <si>
-    <t>2024-05-23</t>
+    <t>2024-06-14</t>
   </si>
   <si>
     <t>2024-05-17</t>
@@ -169,12 +172,12 @@
     <t>2024-04-22</t>
   </si>
   <si>
+    <t>삼성</t>
+  </si>
+  <si>
     <t>미래</t>
   </si>
   <si>
-    <t>삼성</t>
-  </si>
-  <si>
     <t>KB</t>
   </si>
   <si>
@@ -196,6 +199,9 @@
     <t>신한</t>
   </si>
   <si>
+    <t>그리드위즈</t>
+  </si>
+  <si>
     <t>미래에셋비전스팩4호</t>
   </si>
   <si>
@@ -232,6 +238,9 @@
     <t>신한제12호스팩</t>
   </si>
   <si>
+    <t>124.60:1</t>
+  </si>
+  <si>
     <t>1011.2:1</t>
   </si>
   <si>
@@ -268,6 +277,9 @@
     <t>1,104.54:1</t>
   </si>
   <si>
+    <t>0.95%</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -284,6 +296,9 @@
   </si>
   <si>
     <t>10.96%</t>
+  </si>
+  <si>
+    <t>수요관리 서비스, 전기차 충전기 모뎀 등</t>
   </si>
   <si>
     <t>기업인수목적회사(기타금융서비스)</t>
@@ -674,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -762,46 +777,46 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F2">
-        <v>6650000</v>
+        <v>1400000</v>
       </c>
       <c r="G2">
-        <v>6650000</v>
+        <v>1400000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>34000</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="K2">
-        <v>8100000</v>
+        <v>7942750</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="N2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -831,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -839,76 +854,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="G3">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8700</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K3">
-        <v>7651263</v>
+        <v>8100000</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P3">
-        <v>468321534076</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>555936831337</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>359249623614</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>22403886436</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>33386727728</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>10411712773</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>10859975142</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>29346086803</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>4820429371</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -916,76 +931,76 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="G4">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>8700</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K4">
-        <v>5505000</v>
+        <v>7651263</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>468321534076</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>555936831337</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>359249623614</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>22403886436</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>33386727728</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>10411712773</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>10859975142</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>29346086803</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>4820429371</v>
       </c>
       <c r="Y4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -993,46 +1008,46 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F5">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="G5">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K5">
-        <v>13124496</v>
+        <v>5505000</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1062,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1070,7 +1085,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>47</v>
@@ -1079,67 +1094,67 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6">
-        <v>1500000</v>
+        <v>1970000</v>
       </c>
       <c r="G6">
-        <v>1500000</v>
+        <v>1970000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="J6">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="K6">
-        <v>8503460</v>
+        <v>13124496</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P6">
-        <v>47284698907</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>38750429966</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>25900014771</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>7595091433</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>5807002440</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>3668321605</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>5701880294</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>4780312126</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>4195570793</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1147,76 +1162,76 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F7">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="G7">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K7">
-        <v>3310000</v>
+        <v>8503460</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>47284698907</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>38750429966</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>25900014771</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>7595091433</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>5807002440</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>3668321605</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>5701880294</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>4780312126</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>4195570793</v>
       </c>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1224,16 +1239,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F8">
         <v>3000000</v>
@@ -1245,197 +1260,197 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="J8">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="K8">
-        <v>21945300</v>
+        <v>3310000</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O8" t="s">
         <v>88</v>
       </c>
       <c r="P8">
-        <v>9576212189</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>11914994171</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>7285537916</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>1172310325</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>-2762203259</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>-4737405164</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>-7460336546</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>-7104430732</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-7501425172</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="G9">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="J9">
-        <v>26000</v>
+        <v>8500</v>
       </c>
       <c r="K9">
-        <v>10429232</v>
+        <v>21945300</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>33000</v>
+        <v>10500</v>
       </c>
       <c r="N9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P9">
-        <v>-75676750274</v>
+        <v>9576212189</v>
       </c>
       <c r="Q9">
-        <v>-68652978862</v>
+        <v>11914994171</v>
       </c>
       <c r="R9">
-        <v>-9506668082</v>
+        <v>7285537916</v>
       </c>
       <c r="S9">
-        <v>-69862474811</v>
+        <v>1172310325</v>
       </c>
       <c r="T9">
-        <v>-137025491259</v>
+        <v>-2762203259</v>
       </c>
       <c r="U9">
-        <v>3014576074</v>
+        <v>-4737405164</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>-7460336546</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>-7104430732</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>-7501425172</v>
       </c>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F10">
-        <v>5150000</v>
+        <v>1100000</v>
       </c>
       <c r="G10">
-        <v>5150000</v>
+        <v>1100000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K10">
-        <v>5510000</v>
+        <v>10429232</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2000</v>
+        <v>33000</v>
       </c>
       <c r="N10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O10" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>-75676750274</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-68652978862</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>-9506668082</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>-69862474811</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>-137025491259</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>3014576074</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1447,30 +1462,30 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11">
-        <v>3500000</v>
+        <v>5150000</v>
       </c>
       <c r="G11">
-        <v>3500000</v>
+        <v>5150000</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1482,7 +1497,7 @@
         <v>2000</v>
       </c>
       <c r="K11">
-        <v>3700000</v>
+        <v>5510000</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1491,10 +1506,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1524,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1532,22 +1547,22 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
         <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="G12">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1559,7 +1574,7 @@
         <v>2000</v>
       </c>
       <c r="K12">
-        <v>3620000</v>
+        <v>3700000</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1568,10 +1583,10 @@
         <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1601,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1609,76 +1624,153 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F13">
+        <v>3000000</v>
+      </c>
+      <c r="G13">
+        <v>3000000</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>2000</v>
+      </c>
+      <c r="J13">
+        <v>2000</v>
+      </c>
+      <c r="K13">
+        <v>3620000</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>2000</v>
+      </c>
+      <c r="N13" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14">
         <v>5000000</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>5000000</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>2000</v>
-      </c>
-      <c r="J13">
-        <v>2000</v>
-      </c>
-      <c r="K13">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>2000</v>
+      </c>
+      <c r="J14">
+        <v>2000</v>
+      </c>
+      <c r="K14">
         <v>5520000</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>2000</v>
-      </c>
-      <c r="N13" t="s">
-        <v>83</v>
-      </c>
-      <c r="O13" t="s">
-        <v>84</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>100</v>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>2000</v>
+      </c>
+      <c r="N14" t="s">
+        <v>86</v>
+      </c>
+      <c r="O14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="101">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -121,9 +121,6 @@
     <t>2024-04-04</t>
   </si>
   <si>
-    <t>2024-03-27</t>
-  </si>
-  <si>
     <t>2024-05-29</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>2024-04-05</t>
   </si>
   <si>
-    <t>2024-03-28</t>
-  </si>
-  <si>
     <t>2024-06-14</t>
   </si>
   <si>
@@ -235,9 +229,6 @@
     <t>신한제13호스팩</t>
   </si>
   <si>
-    <t>신한제12호스팩</t>
-  </si>
-  <si>
     <t>124.60:1</t>
   </si>
   <si>
@@ -274,9 +265,6 @@
     <t>1337.88:1</t>
   </si>
   <si>
-    <t>1,104.54:1</t>
-  </si>
-  <si>
     <t>0.95%</t>
   </si>
   <si>
@@ -329,9 +317,6 @@
   </si>
   <si>
     <t>기타금융서비스(기업합병)</t>
-  </si>
-  <si>
-    <t>금융서비스(기업인수목적회사)</t>
   </si>
 </sst>
 </file>
@@ -689,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -777,16 +762,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2">
         <v>1400000</v>
@@ -813,10 +798,10 @@
         <v>40000</v>
       </c>
       <c r="N2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -846,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -854,16 +839,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F3">
         <v>6650000</v>
@@ -890,10 +875,10 @@
         <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -923,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -931,16 +916,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F4">
         <v>1200000</v>
@@ -967,10 +952,10 @@
         <v>14000</v>
       </c>
       <c r="N4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P4">
         <v>468321534076</v>
@@ -1000,7 +985,7 @@
         <v>4820429371</v>
       </c>
       <c r="Y4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1011,13 +996,13 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F5">
         <v>5000000</v>
@@ -1044,10 +1029,10 @@
         <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1077,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1085,16 +1070,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F6">
         <v>1970000</v>
@@ -1121,10 +1106,10 @@
         <v>20000</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1154,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1162,16 +1147,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F7">
         <v>1500000</v>
@@ -1198,10 +1183,10 @@
         <v>18000</v>
       </c>
       <c r="N7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P7">
         <v>47284698907</v>
@@ -1231,7 +1216,7 @@
         <v>4195570793</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1239,16 +1224,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8">
         <v>3000000</v>
@@ -1275,10 +1260,10 @@
         <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1308,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1316,16 +1301,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F9">
         <v>3000000</v>
@@ -1352,10 +1337,10 @@
         <v>10500</v>
       </c>
       <c r="N9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P9">
         <v>9576212189</v>
@@ -1385,7 +1370,7 @@
         <v>-7501425172</v>
       </c>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1393,16 +1378,16 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F10">
         <v>1100000</v>
@@ -1429,10 +1414,10 @@
         <v>33000</v>
       </c>
       <c r="N10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P10">
         <v>-75676750274</v>
@@ -1462,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1470,16 +1455,16 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F11">
         <v>5150000</v>
@@ -1506,10 +1491,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1539,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1547,16 +1532,16 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F12">
         <v>3500000</v>
@@ -1583,11 +1568,11 @@
         <v>2000</v>
       </c>
       <c r="N12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" t="s">
         <v>84</v>
       </c>
-      <c r="O12" t="s">
-        <v>88</v>
-      </c>
       <c r="P12">
         <v>0</v>
       </c>
@@ -1616,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1624,16 +1609,16 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F13">
         <v>3000000</v>
@@ -1660,10 +1645,10 @@
         <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1693,84 +1678,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14">
-        <v>5000000</v>
-      </c>
-      <c r="G14">
-        <v>5000000</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>2000</v>
-      </c>
-      <c r="J14">
-        <v>2000</v>
-      </c>
-      <c r="K14">
-        <v>5520000</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>2000</v>
-      </c>
-      <c r="N14" t="s">
-        <v>86</v>
-      </c>
-      <c r="O14" t="s">
-        <v>88</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="109">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
     <t>2024-05-23</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>2024-04-04</t>
   </si>
   <si>
+    <t>2024-05-31</t>
+  </si>
+  <si>
     <t>2024-05-29</t>
   </si>
   <si>
@@ -148,6 +154,9 @@
     <t>2024-04-05</t>
   </si>
   <si>
+    <t>2024-06-17</t>
+  </si>
+  <si>
     <t>2024-06-14</t>
   </si>
   <si>
@@ -166,6 +175,9 @@
     <t>2024-04-22</t>
   </si>
   <si>
+    <t>대신</t>
+  </si>
+  <si>
     <t>삼성</t>
   </si>
   <si>
@@ -193,6 +205,9 @@
     <t>신한</t>
   </si>
   <si>
+    <t>라메디텍</t>
+  </si>
+  <si>
     <t>그리드위즈</t>
   </si>
   <si>
@@ -229,6 +244,9 @@
     <t>신한제13호스팩</t>
   </si>
   <si>
+    <t>1115.44:1</t>
+  </si>
+  <si>
     <t>124.60:1</t>
   </si>
   <si>
@@ -265,6 +283,9 @@
     <t>1337.88:1</t>
   </si>
   <si>
+    <t>9.93%</t>
+  </si>
+  <si>
     <t>0.95%</t>
   </si>
   <si>
@@ -284,6 +305,9 @@
   </si>
   <si>
     <t>10.96%</t>
+  </si>
+  <si>
+    <t>초소형 레이저 의료기기 및 미용기기</t>
   </si>
   <si>
     <t>수요관리 서비스, 전기차 충전기 모뎀 등</t>
@@ -674,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -762,76 +786,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F2">
-        <v>1400000</v>
+        <v>1298000</v>
       </c>
       <c r="G2">
-        <v>1400000</v>
+        <v>1298000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>34000</v>
+        <v>10400</v>
       </c>
       <c r="J2">
-        <v>40000</v>
+        <v>12700</v>
       </c>
       <c r="K2">
-        <v>7942750</v>
+        <v>8650735</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="N2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>2055746777</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2918221978</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>979078233</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-3343774083</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-3525649863</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>-1713494359</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>-4430074915</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-8304699942</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-1627684107</v>
       </c>
       <c r="Y2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -839,46 +863,46 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F3">
-        <v>6650000</v>
+        <v>1400000</v>
       </c>
       <c r="G3">
-        <v>6650000</v>
+        <v>1400000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>34000</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="K3">
-        <v>8100000</v>
+        <v>7942750</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="N3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -908,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -916,76 +940,76 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F4">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="G4">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>8700</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K4">
-        <v>7651263</v>
+        <v>8100000</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P4">
-        <v>468321534076</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>555936831337</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>359249623614</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>22403886436</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>33386727728</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>10411712773</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>10859975142</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>29346086803</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>4820429371</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -993,76 +1017,76 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F5">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="G5">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>8700</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K5">
-        <v>5505000</v>
+        <v>7651263</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>468321534076</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>555936831337</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>359249623614</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>22403886436</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>33386727728</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>10411712773</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>10859975142</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>29346086803</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>4820429371</v>
       </c>
       <c r="Y5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1070,46 +1094,46 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F6">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="G6">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J6">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K6">
-        <v>13124496</v>
+        <v>5505000</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1139,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1147,76 +1171,76 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F7">
-        <v>1500000</v>
+        <v>1970000</v>
       </c>
       <c r="G7">
-        <v>1500000</v>
+        <v>1970000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="J7">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="K7">
-        <v>8503460</v>
+        <v>13124496</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P7">
-        <v>47284698907</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>38750429966</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>25900014771</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>7595091433</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>5807002440</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>3668321605</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>5701880294</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>4780312126</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>4195570793</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1224,76 +1248,76 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F8">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="G8">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="J8">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K8">
-        <v>3310000</v>
+        <v>8503460</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>47284698907</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>38750429966</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>25900014771</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>7595091433</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>5807002440</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>3668321605</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>5701880294</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>4780312126</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>4195570793</v>
       </c>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1301,16 +1325,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F9">
         <v>3000000</v>
@@ -1322,197 +1346,197 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="K9">
-        <v>21945300</v>
+        <v>3310000</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P9">
-        <v>9576212189</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>11914994171</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>7285537916</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>1172310325</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>-2762203259</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>-4737405164</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>-7460336546</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>-7104430732</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-7501425172</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F10">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="G10">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="J10">
-        <v>26000</v>
+        <v>8500</v>
       </c>
       <c r="K10">
-        <v>10429232</v>
+        <v>21945300</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>33000</v>
+        <v>10500</v>
       </c>
       <c r="N10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P10">
-        <v>-75676750274</v>
+        <v>9576212189</v>
       </c>
       <c r="Q10">
-        <v>-68652978862</v>
+        <v>11914994171</v>
       </c>
       <c r="R10">
-        <v>-9506668082</v>
+        <v>7285537916</v>
       </c>
       <c r="S10">
-        <v>-69862474811</v>
+        <v>1172310325</v>
       </c>
       <c r="T10">
-        <v>-137025491259</v>
+        <v>-2762203259</v>
       </c>
       <c r="U10">
-        <v>3014576074</v>
+        <v>-4737405164</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>-7460336546</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>-7104430732</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>-7501425172</v>
       </c>
       <c r="Y10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F11">
-        <v>5150000</v>
+        <v>1100000</v>
       </c>
       <c r="G11">
-        <v>5150000</v>
+        <v>1100000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K11">
-        <v>5510000</v>
+        <v>10429232</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2000</v>
+        <v>33000</v>
       </c>
       <c r="N11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O11" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>-75676750274</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-68652978862</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>-9506668082</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>-69862474811</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>-137025491259</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>3014576074</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1524,30 +1548,30 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F12">
-        <v>3500000</v>
+        <v>5150000</v>
       </c>
       <c r="G12">
-        <v>3500000</v>
+        <v>5150000</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1559,7 +1583,7 @@
         <v>2000</v>
       </c>
       <c r="K12">
-        <v>3700000</v>
+        <v>5510000</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1568,10 +1592,10 @@
         <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1601,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1609,22 +1633,22 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F13">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="G13">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1636,7 +1660,7 @@
         <v>2000</v>
       </c>
       <c r="K13">
-        <v>3620000</v>
+        <v>3700000</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1645,10 +1669,10 @@
         <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O13" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1678,7 +1702,84 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14">
+        <v>3000000</v>
+      </c>
+      <c r="G14">
+        <v>3000000</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>2000</v>
+      </c>
+      <c r="J14">
+        <v>2000</v>
+      </c>
+      <c r="K14">
+        <v>3620000</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>2000</v>
+      </c>
+      <c r="N14" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="126">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,9 +91,15 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
     <t>2024-05-27</t>
   </si>
   <si>
+    <t>2024-05-28</t>
+  </si>
+  <si>
     <t>2024-05-23</t>
   </si>
   <si>
@@ -124,6 +130,9 @@
     <t>2024-04-04</t>
   </si>
   <si>
+    <t>2024-06-04</t>
+  </si>
+  <si>
     <t>2024-05-31</t>
   </si>
   <si>
@@ -154,9 +163,15 @@
     <t>2024-04-05</t>
   </si>
   <si>
+    <t>2024-06-19</t>
+  </si>
+  <si>
     <t>2024-06-17</t>
   </si>
   <si>
+    <t>2024-06-18</t>
+  </si>
+  <si>
     <t>2024-06-14</t>
   </si>
   <si>
@@ -175,24 +190,27 @@
     <t>2024-04-22</t>
   </si>
   <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>미래</t>
+  </si>
+  <si>
     <t>대신</t>
   </si>
   <si>
+    <t>DB</t>
+  </si>
+  <si>
     <t>삼성</t>
   </si>
   <si>
-    <t>미래</t>
-  </si>
-  <si>
     <t>KB</t>
   </si>
   <si>
     <t>NH</t>
   </si>
   <si>
-    <t>한국</t>
-  </si>
-  <si>
     <t>SK</t>
   </si>
   <si>
@@ -205,9 +223,21 @@
     <t>신한</t>
   </si>
   <si>
+    <t>한국제14호스팩</t>
+  </si>
+  <si>
+    <t>미래에셋비전스팩5호</t>
+  </si>
+  <si>
+    <t>씨어스테크놀로지</t>
+  </si>
+  <si>
     <t>라메디텍</t>
   </si>
   <si>
+    <t>디비금융스팩12호</t>
+  </si>
+  <si>
     <t>그리드위즈</t>
   </si>
   <si>
@@ -244,9 +274,21 @@
     <t>신한제13호스팩</t>
   </si>
   <si>
+    <t>1302.62:1</t>
+  </si>
+  <si>
+    <t>1238.5 : 1</t>
+  </si>
+  <si>
+    <t>1084.39:1</t>
+  </si>
+  <si>
     <t>1115.44:1</t>
   </si>
   <si>
+    <t>1141.40:1</t>
+  </si>
+  <si>
     <t>124.60:1</t>
   </si>
   <si>
@@ -283,15 +325,18 @@
     <t>1337.88:1</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2.06%</t>
+  </si>
+  <si>
     <t>9.93%</t>
   </si>
   <si>
     <t>0.95%</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>4.51%</t>
   </si>
   <si>
@@ -307,9 +352,18 @@
     <t>10.96%</t>
   </si>
   <si>
+    <t>기업인수합병</t>
+  </si>
+  <si>
+    <t>심전도검사솔루션 입원환자모니터링솔루션</t>
+  </si>
+  <si>
     <t>초소형 레이저 의료기기 및 미용기기</t>
   </si>
   <si>
+    <t>기업인수 및 합병</t>
+  </si>
+  <si>
     <t>수요관리 서비스, 전기차 충전기 모뎀 등</t>
   </si>
   <si>
@@ -317,9 +371,6 @@
   </si>
   <si>
     <t>Knit, Woven 의류</t>
-  </si>
-  <si>
-    <t>기업인수합병</t>
   </si>
   <si>
     <t>PUF반도체,보안솔루션(보안반도체,정보통신모듈기기,정보통신용반도체) 제조,개발</t>
@@ -698,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -786,123 +837,123 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F2">
-        <v>1298000</v>
+        <v>4000000</v>
       </c>
       <c r="G2">
-        <v>1298000</v>
+        <v>4000000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10400</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>12700</v>
+        <v>2000</v>
       </c>
       <c r="K2">
-        <v>8650735</v>
+        <v>4810000</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="P2">
-        <v>2055746777</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2918221978</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>979078233</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>-3343774083</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>-3525649863</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>-1713494359</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>-4430074915</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>-8304699942</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-1627684107</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F3">
-        <v>1400000</v>
+        <v>4750000</v>
       </c>
       <c r="G3">
-        <v>1400000</v>
+        <v>4750000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>34000</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="K3">
-        <v>7942750</v>
+        <v>5480000</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="O3" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -932,178 +983,178 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F4">
-        <v>6650000</v>
+        <v>1300000</v>
       </c>
       <c r="G4">
-        <v>6650000</v>
+        <v>1300000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>10500</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K4">
-        <v>8100000</v>
+        <v>12293880</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2000</v>
+        <v>17000</v>
       </c>
       <c r="N4" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="O4" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1386123525</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1152944128</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1885010467</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-4388824706</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-7990287699</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>-9803411085</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-4430563401</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-7988275689</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>-9916946238</v>
       </c>
       <c r="Y4" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F5">
-        <v>1200000</v>
+        <v>1298000</v>
       </c>
       <c r="G5">
-        <v>1200000</v>
+        <v>1298000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8700</v>
+        <v>10400</v>
       </c>
       <c r="J5">
-        <v>11000</v>
+        <v>12700</v>
       </c>
       <c r="K5">
-        <v>7651263</v>
+        <v>8650735</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="O5" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="P5">
-        <v>468321534076</v>
+        <v>2055746777</v>
       </c>
       <c r="Q5">
-        <v>555936831337</v>
+        <v>2918221978</v>
       </c>
       <c r="R5">
-        <v>359249623614</v>
+        <v>979078233</v>
       </c>
       <c r="S5">
-        <v>22403886436</v>
+        <v>-3343774083</v>
       </c>
       <c r="T5">
-        <v>33386727728</v>
+        <v>-3525649863</v>
       </c>
       <c r="U5">
-        <v>10411712773</v>
+        <v>-1713494359</v>
       </c>
       <c r="V5">
-        <v>10859975142</v>
+        <v>-4430074915</v>
       </c>
       <c r="W5">
-        <v>29346086803</v>
+        <v>-8304699942</v>
       </c>
       <c r="X5">
-        <v>4820429371</v>
+        <v>-1627684107</v>
       </c>
       <c r="Y5" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F6">
         <v>5000000</v>
@@ -1121,7 +1172,7 @@
         <v>2000</v>
       </c>
       <c r="K6">
-        <v>5505000</v>
+        <v>5840000</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1130,10 +1181,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="O6" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1163,54 +1214,54 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F7">
-        <v>1970000</v>
+        <v>1400000</v>
       </c>
       <c r="G7">
-        <v>1970000</v>
+        <v>1400000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13000</v>
+        <v>34000</v>
       </c>
       <c r="J7">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="K7">
-        <v>13124496</v>
+        <v>7942750</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1240,303 +1291,303 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F8">
-        <v>1500000</v>
+        <v>6650000</v>
       </c>
       <c r="G8">
-        <v>1500000</v>
+        <v>6650000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J8">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K8">
-        <v>8503460</v>
+        <v>8100000</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P8">
-        <v>47284698907</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>38750429966</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>25900014771</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>7595091433</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>5807002440</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>3668321605</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>5701880294</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>4780312126</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>4195570793</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F9">
-        <v>3000000</v>
+        <v>1200000</v>
       </c>
       <c r="G9">
-        <v>3000000</v>
+        <v>1200000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>8700</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K9">
-        <v>3310000</v>
+        <v>7651263</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="N9" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="O9" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>468321534076</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>555936831337</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>359249623614</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>22403886436</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>33386727728</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>10411712773</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>10859975142</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>29346086803</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>4820429371</v>
       </c>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F10">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="G10">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="K10">
-        <v>21945300</v>
+        <v>5505000</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O10" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="P10">
-        <v>9576212189</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>11914994171</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>7285537916</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>1172310325</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>-2762203259</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>-4737405164</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>-7460336546</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>-7104430732</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-7501425172</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F11">
-        <v>1100000</v>
+        <v>1970000</v>
       </c>
       <c r="G11">
-        <v>1100000</v>
+        <v>1970000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="J11">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="K11">
-        <v>10429232</v>
+        <v>13124496</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="N11" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="O11" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="P11">
-        <v>-75676750274</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>-68652978862</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>-9506668082</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>-69862474811</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>-137025491259</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>3014576074</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1548,84 +1599,84 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F12">
-        <v>5150000</v>
+        <v>1500000</v>
       </c>
       <c r="G12">
-        <v>5150000</v>
+        <v>1500000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K12">
-        <v>5510000</v>
+        <v>8503460</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N12" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O12" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>47284698907</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>38750429966</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>25900014771</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>7595091433</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>5807002440</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>3668321605</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>5701880294</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>4780312126</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>4195570793</v>
       </c>
       <c r="Y12" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1633,22 +1684,22 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F13">
-        <v>3500000</v>
+        <v>3000000</v>
       </c>
       <c r="G13">
-        <v>3500000</v>
+        <v>3000000</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1660,7 +1711,7 @@
         <v>2000</v>
       </c>
       <c r="K13">
-        <v>3700000</v>
+        <v>3310000</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1669,10 +1720,10 @@
         <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O13" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1702,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1713,13 +1764,13 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F14">
         <v>3000000</v>
@@ -1731,55 +1782,363 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="K14">
+        <v>21945300</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>10500</v>
+      </c>
+      <c r="N14" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" t="s">
+        <v>110</v>
+      </c>
+      <c r="P14">
+        <v>9576212189</v>
+      </c>
+      <c r="Q14">
+        <v>11914994171</v>
+      </c>
+      <c r="R14">
+        <v>7285537916</v>
+      </c>
+      <c r="S14">
+        <v>1172310325</v>
+      </c>
+      <c r="T14">
+        <v>-2762203259</v>
+      </c>
+      <c r="U14">
+        <v>-4737405164</v>
+      </c>
+      <c r="V14">
+        <v>-7460336546</v>
+      </c>
+      <c r="W14">
+        <v>-7104430732</v>
+      </c>
+      <c r="X14">
+        <v>-7501425172</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15">
+        <v>1100000</v>
+      </c>
+      <c r="G15">
+        <v>1100000</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>22000</v>
+      </c>
+      <c r="J15">
+        <v>26000</v>
+      </c>
+      <c r="K15">
+        <v>10429232</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>33000</v>
+      </c>
+      <c r="N15" t="s">
+        <v>99</v>
+      </c>
+      <c r="O15" t="s">
+        <v>111</v>
+      </c>
+      <c r="P15">
+        <v>-75676750274</v>
+      </c>
+      <c r="Q15">
+        <v>-68652978862</v>
+      </c>
+      <c r="R15">
+        <v>-9506668082</v>
+      </c>
+      <c r="S15">
+        <v>-69862474811</v>
+      </c>
+      <c r="T15">
+        <v>-137025491259</v>
+      </c>
+      <c r="U15">
+        <v>3014576074</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16">
+        <v>5150000</v>
+      </c>
+      <c r="G16">
+        <v>5150000</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>2000</v>
+      </c>
+      <c r="J16">
+        <v>2000</v>
+      </c>
+      <c r="K16">
+        <v>5510000</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>2000</v>
+      </c>
+      <c r="N16" t="s">
+        <v>100</v>
+      </c>
+      <c r="O16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17">
+        <v>3500000</v>
+      </c>
+      <c r="G17">
+        <v>3500000</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2000</v>
+      </c>
+      <c r="J17">
+        <v>2000</v>
+      </c>
+      <c r="K17">
+        <v>3700000</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>2000</v>
+      </c>
+      <c r="N17" t="s">
+        <v>101</v>
+      </c>
+      <c r="O17" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18">
+        <v>3000000</v>
+      </c>
+      <c r="G18">
+        <v>3000000</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>2000</v>
+      </c>
+      <c r="J18">
+        <v>2000</v>
+      </c>
+      <c r="K18">
         <v>3620000</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>2000</v>
-      </c>
-      <c r="N14" t="s">
-        <v>88</v>
-      </c>
-      <c r="O14" t="s">
-        <v>91</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>108</v>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>2000</v>
+      </c>
+      <c r="N18" t="s">
+        <v>102</v>
+      </c>
+      <c r="O18" t="s">
+        <v>103</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="123">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-06-04</t>
+  </si>
+  <si>
     <t>2024-06-03</t>
   </si>
   <si>
@@ -127,10 +130,7 @@
     <t>2024-04-08</t>
   </si>
   <si>
-    <t>2024-04-04</t>
-  </si>
-  <si>
-    <t>2024-06-04</t>
+    <t>2024-06-05</t>
   </si>
   <si>
     <t>2024-05-31</t>
@@ -160,7 +160,7 @@
     <t>2024-04-09</t>
   </si>
   <si>
-    <t>2024-04-05</t>
+    <t>2024-06-21</t>
   </si>
   <si>
     <t>2024-06-19</t>
@@ -187,7 +187,7 @@
     <t>2024-05-02</t>
   </si>
   <si>
-    <t>2024-04-22</t>
+    <t>KB</t>
   </si>
   <si>
     <t>한국</t>
@@ -205,9 +205,6 @@
     <t>삼성</t>
   </si>
   <si>
-    <t>KB</t>
-  </si>
-  <si>
     <t>NH</t>
   </si>
   <si>
@@ -220,7 +217,7 @@
     <t>하나</t>
   </si>
   <si>
-    <t>신한</t>
+    <t>KB제29호스팩</t>
   </si>
   <si>
     <t>한국제14호스팩</t>
@@ -271,7 +268,7 @@
     <t>하나33호스팩</t>
   </si>
   <si>
-    <t>신한제13호스팩</t>
+    <t>1100.48:1</t>
   </si>
   <si>
     <t>1302.62:1</t>
@@ -322,9 +319,6 @@
     <t>1277.22:1</t>
   </si>
   <si>
-    <t>1337.88:1</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -389,9 +383,6 @@
   </si>
   <si>
     <t>금융 지원 서비스(기업인수목적회사)</t>
-  </si>
-  <si>
-    <t>기타금융서비스(기업합병)</t>
   </si>
 </sst>
 </file>
@@ -840,19 +831,19 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F2">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="G2">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -864,7 +855,7 @@
         <v>2000</v>
       </c>
       <c r="K2">
-        <v>4810000</v>
+        <v>6220000</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -873,10 +864,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -906,30 +897,30 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F3">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="G3">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -941,7 +932,7 @@
         <v>2000</v>
       </c>
       <c r="K3">
-        <v>5480000</v>
+        <v>4810000</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -950,10 +941,10 @@
         <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -983,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -991,153 +982,153 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F4">
-        <v>1300000</v>
+        <v>4750000</v>
       </c>
       <c r="G4">
-        <v>1300000</v>
+        <v>4750000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K4">
-        <v>12293880</v>
+        <v>5480000</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P4">
-        <v>1386123525</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1152944128</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1885010467</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-4388824706</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>-7990287699</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>-9803411085</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>-4430563401</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>-7988275689</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-9916946238</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F5">
-        <v>1298000</v>
+        <v>1300000</v>
       </c>
       <c r="G5">
-        <v>1298000</v>
+        <v>1300000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="J5">
-        <v>12700</v>
+        <v>14000</v>
       </c>
       <c r="K5">
-        <v>8650735</v>
+        <v>12293880</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="N5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P5">
-        <v>2055746777</v>
+        <v>1386123525</v>
       </c>
       <c r="Q5">
-        <v>2918221978</v>
+        <v>1152944128</v>
       </c>
       <c r="R5">
-        <v>979078233</v>
+        <v>1885010467</v>
       </c>
       <c r="S5">
-        <v>-3343774083</v>
+        <v>-4388824706</v>
       </c>
       <c r="T5">
-        <v>-3525649863</v>
+        <v>-7990287699</v>
       </c>
       <c r="U5">
-        <v>-1713494359</v>
+        <v>-9803411085</v>
       </c>
       <c r="V5">
-        <v>-4430074915</v>
+        <v>-4430563401</v>
       </c>
       <c r="W5">
-        <v>-8304699942</v>
+        <v>-7988275689</v>
       </c>
       <c r="X5">
-        <v>-1627684107</v>
+        <v>-9916946238</v>
       </c>
       <c r="Y5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1145,76 +1136,76 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F6">
-        <v>5000000</v>
+        <v>1298000</v>
       </c>
       <c r="G6">
-        <v>5000000</v>
+        <v>1298000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>10400</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>12700</v>
       </c>
       <c r="K6">
-        <v>5840000</v>
+        <v>8650735</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
         <v>103</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>2055746777</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2918221978</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>979078233</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>-3343774083</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>-3525649863</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>-1713494359</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>-4430074915</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>-8304699942</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>-1627684107</v>
       </c>
       <c r="Y6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1225,43 +1216,43 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F7">
-        <v>1400000</v>
+        <v>5000000</v>
       </c>
       <c r="G7">
-        <v>1400000</v>
+        <v>5000000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>34000</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="K7">
-        <v>7942750</v>
+        <v>5840000</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1291,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1299,46 +1290,46 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F8">
-        <v>6650000</v>
+        <v>1400000</v>
       </c>
       <c r="G8">
-        <v>6650000</v>
+        <v>1400000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2000</v>
+        <v>34000</v>
       </c>
       <c r="J8">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="K8">
-        <v>8100000</v>
+        <v>7942750</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1368,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1376,76 +1367,76 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F9">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="G9">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>8700</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K9">
-        <v>7651263</v>
+        <v>8100000</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="P9">
-        <v>468321534076</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>555936831337</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>359249623614</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>22403886436</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>33386727728</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>10411712773</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>10859975142</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>29346086803</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>4820429371</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1453,76 +1444,76 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F10">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="G10">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>8700</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K10">
-        <v>5505000</v>
+        <v>7651263</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="N10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>468321534076</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>555936831337</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>359249623614</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>22403886436</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>33386727728</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>10411712773</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>10859975142</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>29346086803</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>4820429371</v>
       </c>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1530,46 +1521,46 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F11">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="G11">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J11">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K11">
-        <v>13124496</v>
+        <v>5505000</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1599,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1607,76 +1598,76 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F12">
-        <v>1500000</v>
+        <v>1970000</v>
       </c>
       <c r="G12">
-        <v>1500000</v>
+        <v>1970000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="J12">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="K12">
-        <v>8503460</v>
+        <v>13124496</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P12">
-        <v>47284698907</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>38750429966</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>25900014771</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>7595091433</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>5807002440</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>3668321605</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>5701880294</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>4780312126</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>4195570793</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1684,76 +1675,76 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F13">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="G13">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K13">
-        <v>3310000</v>
+        <v>8503460</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>47284698907</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>38750429966</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>25900014771</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>7595091433</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>5807002440</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>3668321605</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>5701880294</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>4780312126</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>4195570793</v>
       </c>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1764,13 +1755,13 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F14">
         <v>3000000</v>
@@ -1782,197 +1773,197 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="J14">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="K14">
-        <v>21945300</v>
+        <v>3310000</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="N14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O14" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="P14">
-        <v>9576212189</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>11914994171</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>7285537916</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>1172310325</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>-2762203259</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>-4737405164</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>-7460336546</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>-7104430732</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-7501425172</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F15">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="G15">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="J15">
-        <v>26000</v>
+        <v>8500</v>
       </c>
       <c r="K15">
-        <v>10429232</v>
+        <v>21945300</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>33000</v>
+        <v>10500</v>
       </c>
       <c r="N15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P15">
-        <v>-75676750274</v>
+        <v>9576212189</v>
       </c>
       <c r="Q15">
-        <v>-68652978862</v>
+        <v>11914994171</v>
       </c>
       <c r="R15">
-        <v>-9506668082</v>
+        <v>7285537916</v>
       </c>
       <c r="S15">
-        <v>-69862474811</v>
+        <v>1172310325</v>
       </c>
       <c r="T15">
-        <v>-137025491259</v>
+        <v>-2762203259</v>
       </c>
       <c r="U15">
-        <v>3014576074</v>
+        <v>-4737405164</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>-7460336546</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>-7104430732</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>-7501425172</v>
       </c>
       <c r="Y15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
         <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F16">
-        <v>5150000</v>
+        <v>1100000</v>
       </c>
       <c r="G16">
-        <v>5150000</v>
+        <v>1100000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K16">
-        <v>5510000</v>
+        <v>10429232</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2000</v>
+        <v>33000</v>
       </c>
       <c r="N16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O16" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>-75676750274</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-68652978862</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>-9506668082</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>-69862474811</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>-137025491259</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>3014576074</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -1984,30 +1975,30 @@
         <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F17">
-        <v>3500000</v>
+        <v>5150000</v>
       </c>
       <c r="G17">
-        <v>3500000</v>
+        <v>5150000</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2019,7 +2010,7 @@
         <v>2000</v>
       </c>
       <c r="K17">
-        <v>3700000</v>
+        <v>5510000</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2028,11 +2019,11 @@
         <v>2000</v>
       </c>
       <c r="N17" t="s">
+        <v>99</v>
+      </c>
+      <c r="O17" t="s">
         <v>101</v>
       </c>
-      <c r="O17" t="s">
-        <v>103</v>
-      </c>
       <c r="P17">
         <v>0</v>
       </c>
@@ -2061,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2069,22 +2060,22 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F18">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="G18">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2096,7 +2087,7 @@
         <v>2000</v>
       </c>
       <c r="K18">
-        <v>3620000</v>
+        <v>3700000</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2105,10 +2096,10 @@
         <v>2000</v>
       </c>
       <c r="N18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2138,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="127">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-06-05</t>
+  </si>
+  <si>
     <t>2024-06-04</t>
   </si>
   <si>
@@ -100,6 +103,9 @@
     <t>2024-05-27</t>
   </si>
   <si>
+    <t>2024-05-30</t>
+  </si>
+  <si>
     <t>2024-05-28</t>
   </si>
   <si>
@@ -127,10 +133,7 @@
     <t>2024-04-12</t>
   </si>
   <si>
-    <t>2024-04-08</t>
-  </si>
-  <si>
-    <t>2024-06-05</t>
+    <t>2024-06-07</t>
   </si>
   <si>
     <t>2024-05-31</t>
@@ -145,9 +148,6 @@
     <t>2024-05-08</t>
   </si>
   <si>
-    <t>2024-05-30</t>
-  </si>
-  <si>
     <t>2024-04-19</t>
   </si>
   <si>
@@ -157,7 +157,7 @@
     <t>2024-04-16</t>
   </si>
   <si>
-    <t>2024-04-09</t>
+    <t>2024-06-24</t>
   </si>
   <si>
     <t>2024-06-21</t>
@@ -187,13 +187,16 @@
     <t>2024-05-02</t>
   </si>
   <si>
+    <t>미래</t>
+  </si>
+  <si>
     <t>KB</t>
   </si>
   <si>
     <t>한국</t>
   </si>
   <si>
-    <t>미래</t>
+    <t>IBK</t>
   </si>
   <si>
     <t>대신</t>
@@ -214,7 +217,7 @@
     <t>유안타</t>
   </si>
   <si>
-    <t>하나</t>
+    <t>미래에셋비전스팩6호</t>
   </si>
   <si>
     <t>KB제29호스팩</t>
@@ -229,6 +232,9 @@
     <t>씨어스테크놀로지</t>
   </si>
   <si>
+    <t>한중엔시에스</t>
+  </si>
+  <si>
     <t>라메디텍</t>
   </si>
   <si>
@@ -265,7 +271,7 @@
     <t>유안타제16호스팩</t>
   </si>
   <si>
-    <t>하나33호스팩</t>
+    <t>1,107.2:1</t>
   </si>
   <si>
     <t>1100.48:1</t>
@@ -280,6 +286,9 @@
     <t>1084.39:1</t>
   </si>
   <si>
+    <t>725.94:1</t>
+  </si>
+  <si>
     <t>1115.44:1</t>
   </si>
   <si>
@@ -316,15 +325,15 @@
     <t>1,050.42:1</t>
   </si>
   <si>
-    <t>1277.22:1</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>2.06%</t>
   </si>
   <si>
+    <t>12.44%</t>
+  </si>
+  <si>
     <t>9.93%</t>
   </si>
   <si>
@@ -350,6 +359,9 @@
   </si>
   <si>
     <t>심전도검사솔루션 입원환자모니터링솔루션</t>
+  </si>
+  <si>
+    <t>수냉식 냉각시스템 ESS Parts, 공랭식 ESS Module Parts, EV Module 및 내연기관 Parts</t>
   </si>
   <si>
     <t>초소형 레이저 의료기기 및 미용기기</t>
@@ -740,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -828,10 +840,10 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>57</v>
@@ -840,10 +852,10 @@
         <v>67</v>
       </c>
       <c r="F2">
-        <v>6000000</v>
+        <v>6450000</v>
       </c>
       <c r="G2">
-        <v>6000000</v>
+        <v>6450000</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -855,7 +867,7 @@
         <v>2000</v>
       </c>
       <c r="K2">
-        <v>6220000</v>
+        <v>6930000</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -864,10 +876,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -897,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -908,7 +920,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
         <v>58</v>
@@ -917,10 +929,10 @@
         <v>68</v>
       </c>
       <c r="F3">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="G3">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -932,7 +944,7 @@
         <v>2000</v>
       </c>
       <c r="K3">
-        <v>4810000</v>
+        <v>6220000</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -941,10 +953,10 @@
         <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -974,15 +986,15 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
@@ -994,10 +1006,10 @@
         <v>69</v>
       </c>
       <c r="F4">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="G4">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1009,7 +1021,7 @@
         <v>2000</v>
       </c>
       <c r="K4">
-        <v>5480000</v>
+        <v>4810000</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1018,10 +1030,10 @@
         <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1051,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1059,200 +1071,200 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
         <v>70</v>
       </c>
       <c r="F5">
-        <v>1300000</v>
+        <v>4750000</v>
       </c>
       <c r="G5">
-        <v>1300000</v>
+        <v>4750000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K5">
-        <v>12293880</v>
+        <v>5480000</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P5">
-        <v>1386123525</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1152944128</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1885010467</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-4388824706</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>-7990287699</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>-9803411085</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>-4430563401</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>-7988275689</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-9916946238</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
         <v>71</v>
       </c>
       <c r="F6">
-        <v>1298000</v>
+        <v>1300000</v>
       </c>
       <c r="G6">
-        <v>1298000</v>
+        <v>1300000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="J6">
-        <v>12700</v>
+        <v>14000</v>
       </c>
       <c r="K6">
-        <v>8650735</v>
+        <v>12293880</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P6">
-        <v>2055746777</v>
+        <v>1386123525</v>
       </c>
       <c r="Q6">
-        <v>2918221978</v>
+        <v>1152944128</v>
       </c>
       <c r="R6">
-        <v>979078233</v>
+        <v>1885010467</v>
       </c>
       <c r="S6">
-        <v>-3343774083</v>
+        <v>-4388824706</v>
       </c>
       <c r="T6">
-        <v>-3525649863</v>
+        <v>-7990287699</v>
       </c>
       <c r="U6">
-        <v>-1713494359</v>
+        <v>-9803411085</v>
       </c>
       <c r="V6">
-        <v>-4430074915</v>
+        <v>-4430563401</v>
       </c>
       <c r="W6">
-        <v>-8304699942</v>
+        <v>-7988275689</v>
       </c>
       <c r="X6">
-        <v>-1627684107</v>
+        <v>-9916946238</v>
       </c>
       <c r="Y6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
         <v>72</v>
       </c>
       <c r="F7">
-        <v>5000000</v>
+        <v>1600000</v>
       </c>
       <c r="G7">
-        <v>5000000</v>
+        <v>1600000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="J7">
-        <v>2000</v>
+        <v>23500</v>
       </c>
       <c r="K7">
-        <v>5840000</v>
+        <v>8751446</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1282,84 +1294,84 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
         <v>73</v>
       </c>
       <c r="F8">
-        <v>1400000</v>
+        <v>1298000</v>
       </c>
       <c r="G8">
-        <v>1400000</v>
+        <v>1298000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>34000</v>
+        <v>10400</v>
       </c>
       <c r="J8">
-        <v>40000</v>
+        <v>12700</v>
       </c>
       <c r="K8">
-        <v>7942750</v>
+        <v>8650735</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>2055746777</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2918221978</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>979078233</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>-3343774083</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>-3525649863</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>-1713494359</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>-4430074915</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>-8304699942</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>-1627684107</v>
       </c>
       <c r="Y8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1370,19 +1382,19 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
         <v>74</v>
       </c>
       <c r="F9">
-        <v>6650000</v>
+        <v>5000000</v>
       </c>
       <c r="G9">
-        <v>6650000</v>
+        <v>5000000</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1394,7 +1406,7 @@
         <v>2000</v>
       </c>
       <c r="K9">
-        <v>8100000</v>
+        <v>5840000</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1403,10 +1415,10 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1436,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1444,76 +1456,76 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
         <v>75</v>
       </c>
       <c r="F10">
-        <v>1200000</v>
+        <v>1400000</v>
       </c>
       <c r="G10">
-        <v>1200000</v>
+        <v>1400000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>8700</v>
+        <v>34000</v>
       </c>
       <c r="J10">
-        <v>11000</v>
+        <v>40000</v>
       </c>
       <c r="K10">
-        <v>7651263</v>
+        <v>7942750</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P10">
-        <v>468321534076</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>555936831337</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>359249623614</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>22403886436</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>33386727728</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>10411712773</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>10859975142</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>29346086803</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>4820429371</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1521,10 +1533,10 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>57</v>
@@ -1533,10 +1545,10 @@
         <v>76</v>
       </c>
       <c r="F11">
-        <v>5000000</v>
+        <v>6650000</v>
       </c>
       <c r="G11">
-        <v>5000000</v>
+        <v>6650000</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1548,7 +1560,7 @@
         <v>2000</v>
       </c>
       <c r="K11">
-        <v>5505000</v>
+        <v>8100000</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1557,10 +1569,10 @@
         <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1590,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1601,7 +1613,7 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
         <v>63</v>
@@ -1610,64 +1622,64 @@
         <v>77</v>
       </c>
       <c r="F12">
-        <v>1970000</v>
+        <v>1200000</v>
       </c>
       <c r="G12">
-        <v>1970000</v>
+        <v>1200000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13000</v>
+        <v>8700</v>
       </c>
       <c r="J12">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="K12">
-        <v>13124496</v>
+        <v>7651263</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="N12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>468321534076</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>555936831337</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>359249623614</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>22403886436</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>33386727728</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>10411712773</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>10859975142</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>29346086803</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>4820429371</v>
       </c>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1675,10 +1687,10 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
         <v>58</v>
@@ -1687,64 +1699,64 @@
         <v>78</v>
       </c>
       <c r="F13">
-        <v>1500000</v>
+        <v>5000000</v>
       </c>
       <c r="G13">
-        <v>1500000</v>
+        <v>5000000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="J13">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K13">
-        <v>8503460</v>
+        <v>5505000</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P13">
-        <v>47284698907</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>38750429966</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>25900014771</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>7595091433</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>5807002440</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>3668321605</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>5701880294</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>4780312126</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>4195570793</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1752,10 +1764,10 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>64</v>
@@ -1764,34 +1776,34 @@
         <v>79</v>
       </c>
       <c r="F14">
-        <v>3000000</v>
+        <v>1970000</v>
       </c>
       <c r="G14">
-        <v>3000000</v>
+        <v>1970000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="K14">
-        <v>3310000</v>
+        <v>13124496</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="N14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1821,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1829,141 +1841,141 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
         <v>80</v>
       </c>
       <c r="F15">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="G15">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="J15">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="K15">
-        <v>21945300</v>
+        <v>8503460</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="N15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P15">
-        <v>9576212189</v>
+        <v>47284698907</v>
       </c>
       <c r="Q15">
-        <v>11914994171</v>
+        <v>38750429966</v>
       </c>
       <c r="R15">
-        <v>7285537916</v>
+        <v>25900014771</v>
       </c>
       <c r="S15">
-        <v>1172310325</v>
+        <v>7595091433</v>
       </c>
       <c r="T15">
-        <v>-2762203259</v>
+        <v>5807002440</v>
       </c>
       <c r="U15">
-        <v>-4737405164</v>
+        <v>3668321605</v>
       </c>
       <c r="V15">
-        <v>-7460336546</v>
+        <v>5701880294</v>
       </c>
       <c r="W15">
-        <v>-7104430732</v>
+        <v>4780312126</v>
       </c>
       <c r="X15">
-        <v>-7501425172</v>
+        <v>4195570793</v>
       </c>
       <c r="Y15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
         <v>81</v>
       </c>
       <c r="F16">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="G16">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="J16">
-        <v>26000</v>
+        <v>2000</v>
       </c>
       <c r="K16">
-        <v>10429232</v>
+        <v>3310000</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>33000</v>
+        <v>2000</v>
       </c>
       <c r="N16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P16">
-        <v>-75676750274</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>-68652978862</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>-9506668082</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>-69862474811</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>-137025491259</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>3014576074</v>
+        <v>0</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -1975,149 +1987,149 @@
         <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
         <v>82</v>
       </c>
       <c r="F17">
-        <v>5150000</v>
+        <v>3000000</v>
       </c>
       <c r="G17">
-        <v>5150000</v>
+        <v>3000000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="K17">
-        <v>5510000</v>
+        <v>21945300</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2000</v>
+        <v>10500</v>
       </c>
       <c r="N17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>9576212189</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>11914994171</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>7285537916</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1172310325</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>-2762203259</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>-4737405164</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>-7460336546</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>-7104430732</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>-7501425172</v>
       </c>
       <c r="Y17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
         <v>83</v>
       </c>
       <c r="F18">
-        <v>3500000</v>
+        <v>1100000</v>
       </c>
       <c r="G18">
-        <v>3500000</v>
+        <v>1100000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2000</v>
+        <v>22000</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>26000</v>
       </c>
       <c r="K18">
-        <v>3700000</v>
+        <v>10429232</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2000</v>
+        <v>33000</v>
       </c>
       <c r="N18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O18" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>-75676750274</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-68652978862</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>-9506668082</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>-69862474811</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>-137025491259</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>3014576074</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2129,7 +2141,84 @@
         <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>110</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19">
+        <v>5150000</v>
+      </c>
+      <c r="G19">
+        <v>5150000</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>2000</v>
+      </c>
+      <c r="J19">
+        <v>2000</v>
+      </c>
+      <c r="K19">
+        <v>5510000</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>2000</v>
+      </c>
+      <c r="N19" t="s">
+        <v>102</v>
+      </c>
+      <c r="O19" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="133">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,15 +91,15 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
     <t>2024-06-05</t>
   </si>
   <si>
     <t>2024-06-04</t>
   </si>
   <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
     <t>2024-05-27</t>
   </si>
   <si>
@@ -133,6 +133,9 @@
     <t>2024-04-12</t>
   </si>
   <si>
+    <t>2024-06-10</t>
+  </si>
+  <si>
     <t>2024-06-07</t>
   </si>
   <si>
@@ -157,6 +160,9 @@
     <t>2024-04-16</t>
   </si>
   <si>
+    <t>2024-06-25</t>
+  </si>
+  <si>
     <t>2024-06-24</t>
   </si>
   <si>
@@ -187,15 +193,15 @@
     <t>2024-05-02</t>
   </si>
   <si>
+    <t>한국</t>
+  </si>
+  <si>
     <t>미래</t>
   </si>
   <si>
     <t>KB</t>
   </si>
   <si>
-    <t>한국</t>
-  </si>
-  <si>
     <t>IBK</t>
   </si>
   <si>
@@ -217,6 +223,9 @@
     <t>유안타</t>
   </si>
   <si>
+    <t>에스오에스랩</t>
+  </si>
+  <si>
     <t>미래에셋비전스팩6호</t>
   </si>
   <si>
@@ -271,6 +280,9 @@
     <t>유안타제16호스팩</t>
   </si>
   <si>
+    <t>1072.30:1</t>
+  </si>
+  <si>
     <t>1,107.2:1</t>
   </si>
   <si>
@@ -325,6 +337,9 @@
     <t>1,050.42:1</t>
   </si>
   <si>
+    <t>4.19%</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -353,6 +368,9 @@
   </si>
   <si>
     <t>10.96%</t>
+  </si>
+  <si>
+    <t>산업용 및 차량용 라이다(LiDAR)</t>
   </si>
   <si>
     <t>기업인수합병</t>
@@ -752,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -843,43 +861,43 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F2">
-        <v>6450000</v>
+        <v>2000000</v>
       </c>
       <c r="G2">
-        <v>6450000</v>
+        <v>2000000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="J2">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="K2">
-        <v>6930000</v>
+        <v>17529140</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2000</v>
+        <v>11500</v>
       </c>
       <c r="N2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -909,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -917,22 +935,22 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F3">
-        <v>6000000</v>
+        <v>6450000</v>
       </c>
       <c r="G3">
-        <v>6000000</v>
+        <v>6450000</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -944,7 +962,7 @@
         <v>2000</v>
       </c>
       <c r="K3">
-        <v>6220000</v>
+        <v>6930000</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -953,10 +971,10 @@
         <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -986,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -997,19 +1015,19 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F4">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="G4">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1021,7 +1039,7 @@
         <v>2000</v>
       </c>
       <c r="K4">
-        <v>4810000</v>
+        <v>6220000</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1030,10 +1048,10 @@
         <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1063,30 +1081,30 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F5">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="G5">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1098,7 +1116,7 @@
         <v>2000</v>
       </c>
       <c r="K5">
-        <v>5480000</v>
+        <v>4810000</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1107,10 +1125,10 @@
         <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1140,362 +1158,362 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F6">
-        <v>1300000</v>
+        <v>4750000</v>
       </c>
       <c r="G6">
-        <v>1300000</v>
+        <v>4750000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="J6">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K6">
-        <v>12293880</v>
+        <v>5480000</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="P6">
-        <v>1386123525</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1152944128</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1885010467</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-4388824706</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>-7990287699</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>-9803411085</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>-4430563401</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>-7988275689</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-9916946238</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F7">
-        <v>1600000</v>
+        <v>1300000</v>
       </c>
       <c r="G7">
-        <v>1600000</v>
+        <v>1300000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J7">
-        <v>23500</v>
+        <v>14000</v>
       </c>
       <c r="K7">
-        <v>8751446</v>
+        <v>12293880</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1386123525</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1152944128</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1885010467</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>-4388824706</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>-7990287699</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>-9803411085</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>-4430563401</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>-7988275689</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>-9916946238</v>
       </c>
       <c r="Y7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F8">
-        <v>1298000</v>
+        <v>1600000</v>
       </c>
       <c r="G8">
-        <v>1298000</v>
+        <v>1600000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10400</v>
+        <v>20000</v>
       </c>
       <c r="J8">
-        <v>12700</v>
+        <v>23500</v>
       </c>
       <c r="K8">
-        <v>8650735</v>
+        <v>8751446</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P8">
-        <v>2055746777</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>2918221978</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>979078233</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>-3343774083</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>-3525649863</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>-1713494359</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>-4430074915</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>-8304699942</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-1627684107</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F9">
-        <v>5000000</v>
+        <v>1298000</v>
       </c>
       <c r="G9">
-        <v>5000000</v>
+        <v>1298000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2000</v>
+        <v>10400</v>
       </c>
       <c r="J9">
-        <v>2000</v>
+        <v>12700</v>
       </c>
       <c r="K9">
-        <v>5840000</v>
+        <v>8650735</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>2055746777</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2918221978</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>979078233</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>-3343774083</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>-3525649863</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>-1713494359</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>-4430074915</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>-8304699942</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>-1627684107</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F10">
-        <v>1400000</v>
+        <v>5000000</v>
       </c>
       <c r="G10">
-        <v>1400000</v>
+        <v>5000000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>34000</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="K10">
-        <v>7942750</v>
+        <v>5840000</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1525,54 +1543,54 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F11">
-        <v>6650000</v>
+        <v>1400000</v>
       </c>
       <c r="G11">
-        <v>6650000</v>
+        <v>1400000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>34000</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="K11">
-        <v>8100000</v>
+        <v>7942750</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="N11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1602,208 +1620,208 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="G12">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>8700</v>
+        <v>2000</v>
       </c>
       <c r="J12">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K12">
-        <v>7651263</v>
+        <v>8100000</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O12" t="s">
         <v>108</v>
       </c>
       <c r="P12">
-        <v>468321534076</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>555936831337</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>359249623614</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>22403886436</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>33386727728</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>10411712773</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>10859975142</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>29346086803</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>4820429371</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F13">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="G13">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>8700</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K13">
-        <v>5505000</v>
+        <v>7651263</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="N13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O13" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>468321534076</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>555936831337</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>359249623614</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>22403886436</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>33386727728</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>10411712773</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>10859975142</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>29346086803</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>4820429371</v>
       </c>
       <c r="Y13" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F14">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="G14">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J14">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K14">
-        <v>13124496</v>
+        <v>5505000</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="N14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1833,178 +1851,178 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F15">
-        <v>1500000</v>
+        <v>1970000</v>
       </c>
       <c r="G15">
-        <v>1500000</v>
+        <v>1970000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="J15">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="K15">
-        <v>8503460</v>
+        <v>13124496</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P15">
-        <v>47284698907</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>38750429966</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>25900014771</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>7595091433</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>5807002440</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>3668321605</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>5701880294</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>4780312126</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>4195570793</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F16">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="G16">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K16">
-        <v>3310000</v>
+        <v>8503460</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O16" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>47284698907</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>38750429966</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>25900014771</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>7595091433</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>5807002440</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>3668321605</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>5701880294</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>4780312126</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>4195570793</v>
       </c>
       <c r="Y16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F17">
         <v>3000000</v>
@@ -2016,55 +2034,55 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="J17">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="K17">
-        <v>21945300</v>
+        <v>3310000</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="N17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P17">
-        <v>9576212189</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>11914994171</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>7285537916</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>1172310325</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>-2762203259</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>-4737405164</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>-7460336546</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>-7104430732</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-7501425172</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2072,153 +2090,230 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F18">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="G18">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="J18">
-        <v>26000</v>
+        <v>8500</v>
       </c>
       <c r="K18">
-        <v>10429232</v>
+        <v>21945300</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>33000</v>
+        <v>10500</v>
       </c>
       <c r="N18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O18" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P18">
-        <v>-75676750274</v>
+        <v>9576212189</v>
       </c>
       <c r="Q18">
-        <v>-68652978862</v>
+        <v>11914994171</v>
       </c>
       <c r="R18">
-        <v>-9506668082</v>
+        <v>7285537916</v>
       </c>
       <c r="S18">
-        <v>-69862474811</v>
+        <v>1172310325</v>
       </c>
       <c r="T18">
-        <v>-137025491259</v>
+        <v>-2762203259</v>
       </c>
       <c r="U18">
-        <v>3014576074</v>
+        <v>-4737405164</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>-7460336546</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>-7104430732</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>-7501425172</v>
       </c>
       <c r="Y18" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F19">
+        <v>1100000</v>
+      </c>
+      <c r="G19">
+        <v>1100000</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>22000</v>
+      </c>
+      <c r="J19">
+        <v>26000</v>
+      </c>
+      <c r="K19">
+        <v>10429232</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>33000</v>
+      </c>
+      <c r="N19" t="s">
+        <v>105</v>
+      </c>
+      <c r="O19" t="s">
+        <v>117</v>
+      </c>
+      <c r="P19">
+        <v>-75676750274</v>
+      </c>
+      <c r="Q19">
+        <v>-68652978862</v>
+      </c>
+      <c r="R19">
+        <v>-9506668082</v>
+      </c>
+      <c r="S19">
+        <v>-69862474811</v>
+      </c>
+      <c r="T19">
+        <v>-137025491259</v>
+      </c>
+      <c r="U19">
+        <v>3014576074</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20">
         <v>5150000</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>5150000</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>2000</v>
-      </c>
-      <c r="J19">
-        <v>2000</v>
-      </c>
-      <c r="K19">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>2000</v>
+      </c>
+      <c r="J20">
+        <v>2000</v>
+      </c>
+      <c r="K20">
         <v>5510000</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>2000</v>
-      </c>
-      <c r="N19" t="s">
-        <v>102</v>
-      </c>
-      <c r="O19" t="s">
-        <v>103</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>126</v>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>2000</v>
+      </c>
+      <c r="N20" t="s">
+        <v>106</v>
+      </c>
+      <c r="O20" t="s">
+        <v>108</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -292,7 +292,7 @@
     <t>1302.62:1</t>
   </si>
   <si>
-    <t>1238.5 : 1</t>
+    <t>1238.5:1</t>
   </si>
   <si>
     <t>1084.39:1</t>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="139">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-06-07</t>
+  </si>
+  <si>
     <t>2024-06-03</t>
   </si>
   <si>
@@ -133,12 +136,12 @@
     <t>2024-04-12</t>
   </si>
   <si>
+    <t>2024-06-13</t>
+  </si>
+  <si>
     <t>2024-06-10</t>
   </si>
   <si>
-    <t>2024-06-07</t>
-  </si>
-  <si>
     <t>2024-05-31</t>
   </si>
   <si>
@@ -160,6 +163,9 @@
     <t>2024-04-16</t>
   </si>
   <si>
+    <t>2024-06-27</t>
+  </si>
+  <si>
     <t>2024-06-25</t>
   </si>
   <si>
@@ -223,6 +229,9 @@
     <t>유안타</t>
   </si>
   <si>
+    <t>하이젠알앤엠</t>
+  </si>
+  <si>
     <t>에스오에스랩</t>
   </si>
   <si>
@@ -280,6 +289,9 @@
     <t>유안타제16호스팩</t>
   </si>
   <si>
+    <t>1099.21:1</t>
+  </si>
+  <si>
     <t>1072.30:1</t>
   </si>
   <si>
@@ -337,6 +349,9 @@
     <t>1,050.42:1</t>
   </si>
   <si>
+    <t>11.80%</t>
+  </si>
+  <si>
     <t>4.19%</t>
   </si>
   <si>
@@ -368,6 +383,9 @@
   </si>
   <si>
     <t>10.96%</t>
+  </si>
+  <si>
+    <t>전동기 및 발전기 (범용모터, 서보모터)</t>
   </si>
   <si>
     <t>산업용 및 차량용 라이다(LiDAR)</t>
@@ -770,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -858,76 +876,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2">
-        <v>2000000</v>
+        <v>3400000</v>
       </c>
       <c r="G2">
-        <v>2000000</v>
+        <v>3400000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="J2">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="K2">
-        <v>17529140</v>
+        <v>30888000</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>85187882584</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>87525689695</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>77247394706</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>2205797752</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>4920387020</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>4336496285</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1613954566</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>3980493669</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>2646634321</v>
       </c>
       <c r="Y2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -935,46 +953,46 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F3">
-        <v>6450000</v>
+        <v>2000000</v>
       </c>
       <c r="G3">
-        <v>6450000</v>
+        <v>2000000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="K3">
-        <v>6930000</v>
+        <v>17529140</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2000</v>
+        <v>11500</v>
       </c>
       <c r="N3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1004,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1012,22 +1030,22 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F4">
-        <v>6000000</v>
+        <v>6450000</v>
       </c>
       <c r="G4">
-        <v>6000000</v>
+        <v>6450000</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1039,7 +1057,7 @@
         <v>2000</v>
       </c>
       <c r="K4">
-        <v>6220000</v>
+        <v>6930000</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1048,10 +1066,10 @@
         <v>2000</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1081,30 +1099,30 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F5">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="G5">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1116,7 +1134,7 @@
         <v>2000</v>
       </c>
       <c r="K5">
-        <v>4810000</v>
+        <v>6220000</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1125,10 +1143,10 @@
         <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1158,30 +1176,30 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F6">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="G6">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1193,7 +1211,7 @@
         <v>2000</v>
       </c>
       <c r="K6">
-        <v>5480000</v>
+        <v>4810000</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1202,10 +1220,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1235,84 +1253,84 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F7">
-        <v>1300000</v>
+        <v>4750000</v>
       </c>
       <c r="G7">
-        <v>1300000</v>
+        <v>4750000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K7">
-        <v>12293880</v>
+        <v>5480000</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P7">
-        <v>1386123525</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1152944128</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1885010467</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>-4388824706</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>-7990287699</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>-9803411085</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>-4430563401</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>-7988275689</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-9916946238</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1320,230 +1338,230 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F8">
-        <v>1600000</v>
+        <v>1300000</v>
       </c>
       <c r="G8">
-        <v>1600000</v>
+        <v>1300000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J8">
-        <v>23500</v>
+        <v>14000</v>
       </c>
       <c r="K8">
-        <v>8751446</v>
+        <v>12293880</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1386123525</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1152944128</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1885010467</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>-4388824706</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>-7990287699</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>-9803411085</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>-4430563401</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>-7988275689</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>-9916946238</v>
       </c>
       <c r="Y8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F9">
-        <v>1298000</v>
+        <v>1600000</v>
       </c>
       <c r="G9">
-        <v>1298000</v>
+        <v>1600000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10400</v>
+        <v>20000</v>
       </c>
       <c r="J9">
-        <v>12700</v>
+        <v>23500</v>
       </c>
       <c r="K9">
-        <v>8650735</v>
+        <v>8751446</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P9">
-        <v>2055746777</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>2918221978</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>979078233</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>-3343774083</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>-3525649863</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>-1713494359</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>-4430074915</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>-8304699942</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-1627684107</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F10">
-        <v>5000000</v>
+        <v>1298000</v>
       </c>
       <c r="G10">
-        <v>5000000</v>
+        <v>1298000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2000</v>
+        <v>10400</v>
       </c>
       <c r="J10">
-        <v>2000</v>
+        <v>12700</v>
       </c>
       <c r="K10">
-        <v>5840000</v>
+        <v>8650735</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>2055746777</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2918221978</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>979078233</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>-3343774083</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>-3525649863</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>-1713494359</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>-4430074915</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>-8304699942</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>-1627684107</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1551,46 +1569,46 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F11">
-        <v>1400000</v>
+        <v>5000000</v>
       </c>
       <c r="G11">
-        <v>1400000</v>
+        <v>5000000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>34000</v>
+        <v>2000</v>
       </c>
       <c r="J11">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="K11">
-        <v>7942750</v>
+        <v>5840000</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="N11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1620,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1631,43 +1649,43 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F12">
-        <v>6650000</v>
+        <v>1400000</v>
       </c>
       <c r="G12">
-        <v>6650000</v>
+        <v>1400000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>34000</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="K12">
-        <v>8100000</v>
+        <v>7942750</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="N12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O12" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1697,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1708,73 +1726,73 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F13">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="G13">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>8700</v>
+        <v>2000</v>
       </c>
       <c r="J13">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K13">
-        <v>7651263</v>
+        <v>8100000</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="N13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O13" t="s">
         <v>113</v>
       </c>
       <c r="P13">
-        <v>468321534076</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>555936831337</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>359249623614</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>22403886436</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>33386727728</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>10411712773</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>10859975142</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>29346086803</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>4820429371</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1782,76 +1800,76 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F14">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="G14">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2000</v>
+        <v>8700</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K14">
-        <v>5505000</v>
+        <v>7651263</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="N14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O14" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>468321534076</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>555936831337</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>359249623614</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>22403886436</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>33386727728</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>10411712773</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>10859975142</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>29346086803</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>4820429371</v>
       </c>
       <c r="Y14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1859,46 +1877,46 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F15">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="G15">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K15">
-        <v>13124496</v>
+        <v>5505000</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="N15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1928,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1936,76 +1954,76 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16">
-        <v>1500000</v>
+        <v>1970000</v>
       </c>
       <c r="G16">
-        <v>1500000</v>
+        <v>1970000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="J16">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="K16">
-        <v>8503460</v>
+        <v>13124496</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O16" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P16">
-        <v>47284698907</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>38750429966</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>25900014771</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>7595091433</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>5807002440</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>3668321605</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>5701880294</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>4780312126</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>4195570793</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2016,73 +2034,73 @@
         <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F17">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="G17">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K17">
-        <v>3310000</v>
+        <v>8503460</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O17" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>47284698907</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>38750429966</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>25900014771</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>7595091433</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>5807002440</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>3668321605</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>5701880294</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>4780312126</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>4195570793</v>
       </c>
       <c r="Y17" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2090,16 +2108,16 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F18">
         <v>3000000</v>
@@ -2111,209 +2129,286 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="J18">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="K18">
-        <v>21945300</v>
+        <v>3310000</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="N18" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P18">
-        <v>9576212189</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>11914994171</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>7285537916</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>1172310325</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>-2762203259</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>-4737405164</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>-7460336546</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>-7104430732</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-7501425172</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F19">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="G19">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="J19">
-        <v>26000</v>
+        <v>8500</v>
       </c>
       <c r="K19">
-        <v>10429232</v>
+        <v>21945300</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>33000</v>
+        <v>10500</v>
       </c>
       <c r="N19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O19" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P19">
-        <v>-75676750274</v>
+        <v>9576212189</v>
       </c>
       <c r="Q19">
-        <v>-68652978862</v>
+        <v>11914994171</v>
       </c>
       <c r="R19">
-        <v>-9506668082</v>
+        <v>7285537916</v>
       </c>
       <c r="S19">
-        <v>-69862474811</v>
+        <v>1172310325</v>
       </c>
       <c r="T19">
-        <v>-137025491259</v>
+        <v>-2762203259</v>
       </c>
       <c r="U19">
-        <v>3014576074</v>
+        <v>-4737405164</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>-7460336546</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>-7104430732</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>-7501425172</v>
       </c>
       <c r="Y19" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F20">
+        <v>1100000</v>
+      </c>
+      <c r="G20">
+        <v>1100000</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>22000</v>
+      </c>
+      <c r="J20">
+        <v>26000</v>
+      </c>
+      <c r="K20">
+        <v>10429232</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>33000</v>
+      </c>
+      <c r="N20" t="s">
+        <v>109</v>
+      </c>
+      <c r="O20" t="s">
+        <v>122</v>
+      </c>
+      <c r="P20">
+        <v>-75676750274</v>
+      </c>
+      <c r="Q20">
+        <v>-68652978862</v>
+      </c>
+      <c r="R20">
+        <v>-9506668082</v>
+      </c>
+      <c r="S20">
+        <v>-69862474811</v>
+      </c>
+      <c r="T20">
+        <v>-137025491259</v>
+      </c>
+      <c r="U20">
+        <v>3014576074</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21">
         <v>5150000</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>5150000</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>2000</v>
-      </c>
-      <c r="J20">
-        <v>2000</v>
-      </c>
-      <c r="K20">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>2000</v>
+      </c>
+      <c r="J21">
+        <v>2000</v>
+      </c>
+      <c r="K21">
         <v>5510000</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>2000</v>
-      </c>
-      <c r="N20" t="s">
-        <v>106</v>
-      </c>
-      <c r="O20" t="s">
-        <v>108</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>132</v>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>2000</v>
+      </c>
+      <c r="N21" t="s">
+        <v>110</v>
+      </c>
+      <c r="O21" t="s">
+        <v>113</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="143">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -94,6 +94,9 @@
     <t>2024-06-07</t>
   </si>
   <si>
+    <t>2024-06-10</t>
+  </si>
+  <si>
     <t>2024-06-03</t>
   </si>
   <si>
@@ -139,7 +142,7 @@
     <t>2024-06-13</t>
   </si>
   <si>
-    <t>2024-06-10</t>
+    <t>2024-06-11</t>
   </si>
   <si>
     <t>2024-05-31</t>
@@ -166,6 +169,9 @@
     <t>2024-06-27</t>
   </si>
   <si>
+    <t>2024-06-26</t>
+  </si>
+  <si>
     <t>2024-06-25</t>
   </si>
   <si>
@@ -232,6 +238,9 @@
     <t>하이젠알앤엠</t>
   </si>
   <si>
+    <t>한국제15호스팩</t>
+  </si>
+  <si>
     <t>에스오에스랩</t>
   </si>
   <si>
@@ -292,6 +301,9 @@
     <t>1099.21:1</t>
   </si>
   <si>
+    <t>1,073.31:1</t>
+  </si>
+  <si>
     <t>1072.30:1</t>
   </si>
   <si>
@@ -352,12 +364,12 @@
     <t>11.80%</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>4.19%</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>2.06%</t>
   </si>
   <si>
@@ -388,10 +400,10 @@
     <t>전동기 및 발전기 (범용모터, 서보모터)</t>
   </si>
   <si>
+    <t>기업인수합병</t>
+  </si>
+  <si>
     <t>산업용 및 차량용 라이다(LiDAR)</t>
-  </si>
-  <si>
-    <t>기업인수합병</t>
   </si>
   <si>
     <t>심전도검사솔루션 입원환자모니터링솔루션</t>
@@ -788,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -876,16 +888,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F2">
         <v>3400000</v>
@@ -912,10 +924,10 @@
         <v>7000</v>
       </c>
       <c r="N2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P2">
         <v>85187882584</v>
@@ -945,7 +957,7 @@
         <v>2646634321</v>
       </c>
       <c r="Y2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -953,46 +965,46 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3">
-        <v>2000000</v>
+        <v>6250000</v>
       </c>
       <c r="G3">
-        <v>2000000</v>
+        <v>6250000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="J3">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="K3">
-        <v>17529140</v>
+        <v>6870000</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11500</v>
+        <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1022,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1030,46 +1042,46 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F4">
-        <v>6450000</v>
+        <v>2000000</v>
       </c>
       <c r="G4">
-        <v>6450000</v>
+        <v>2000000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="K4">
-        <v>6930000</v>
+        <v>17529140</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2000</v>
+        <v>11500</v>
       </c>
       <c r="N4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1099,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1107,22 +1119,22 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F5">
-        <v>6000000</v>
+        <v>6450000</v>
       </c>
       <c r="G5">
-        <v>6000000</v>
+        <v>6450000</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1134,7 +1146,7 @@
         <v>2000</v>
       </c>
       <c r="K5">
-        <v>6220000</v>
+        <v>6930000</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1143,10 +1155,10 @@
         <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1176,30 +1188,30 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F6">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="G6">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1211,7 +1223,7 @@
         <v>2000</v>
       </c>
       <c r="K6">
-        <v>4810000</v>
+        <v>6220000</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1220,10 +1232,10 @@
         <v>2000</v>
       </c>
       <c r="N6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1253,30 +1265,30 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F7">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="G7">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1288,7 +1300,7 @@
         <v>2000</v>
       </c>
       <c r="K7">
-        <v>5480000</v>
+        <v>4810000</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1297,10 +1309,10 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1330,84 +1342,84 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F8">
-        <v>1300000</v>
+        <v>4750000</v>
       </c>
       <c r="G8">
-        <v>1300000</v>
+        <v>4750000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="J8">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K8">
-        <v>12293880</v>
+        <v>5480000</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P8">
-        <v>1386123525</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1152944128</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1885010467</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>-4388824706</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>-7990287699</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>-9803411085</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>-4430563401</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>-7988275689</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-9916946238</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1415,230 +1427,230 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F9">
-        <v>1600000</v>
+        <v>1300000</v>
       </c>
       <c r="G9">
-        <v>1600000</v>
+        <v>1300000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J9">
-        <v>23500</v>
+        <v>14000</v>
       </c>
       <c r="K9">
-        <v>8751446</v>
+        <v>12293880</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1386123525</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1152944128</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1885010467</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>-4388824706</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>-7990287699</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>-9803411085</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>-4430563401</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>-7988275689</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>-9916946238</v>
       </c>
       <c r="Y9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F10">
-        <v>1298000</v>
+        <v>1600000</v>
       </c>
       <c r="G10">
-        <v>1298000</v>
+        <v>1600000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10400</v>
+        <v>20000</v>
       </c>
       <c r="J10">
-        <v>12700</v>
+        <v>23500</v>
       </c>
       <c r="K10">
-        <v>8650735</v>
+        <v>8751446</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P10">
-        <v>2055746777</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>2918221978</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>979078233</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>-3343774083</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>-3525649863</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>-1713494359</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>-4430074915</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>-8304699942</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-1627684107</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F11">
-        <v>5000000</v>
+        <v>1298000</v>
       </c>
       <c r="G11">
-        <v>5000000</v>
+        <v>1298000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2000</v>
+        <v>10400</v>
       </c>
       <c r="J11">
-        <v>2000</v>
+        <v>12700</v>
       </c>
       <c r="K11">
-        <v>5840000</v>
+        <v>8650735</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="N11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O11" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>2055746777</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2918221978</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>979078233</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>-3343774083</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>-3525649863</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>-1713494359</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>-4430074915</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>-8304699942</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>-1627684107</v>
       </c>
       <c r="Y11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1646,46 +1658,46 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F12">
-        <v>1400000</v>
+        <v>5000000</v>
       </c>
       <c r="G12">
-        <v>1400000</v>
+        <v>5000000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>34000</v>
+        <v>2000</v>
       </c>
       <c r="J12">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="K12">
-        <v>7942750</v>
+        <v>5840000</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="N12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1715,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1726,43 +1738,43 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F13">
-        <v>6650000</v>
+        <v>1400000</v>
       </c>
       <c r="G13">
-        <v>6650000</v>
+        <v>1400000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>34000</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="K13">
-        <v>8100000</v>
+        <v>7942750</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="N13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O13" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1792,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1803,73 +1815,73 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F14">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="G14">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>8700</v>
+        <v>2000</v>
       </c>
       <c r="J14">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K14">
-        <v>7651263</v>
+        <v>8100000</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="N14" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P14">
-        <v>468321534076</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>555936831337</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>359249623614</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>22403886436</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>33386727728</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>10411712773</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>10859975142</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>29346086803</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>4820429371</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1877,76 +1889,76 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F15">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="G15">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>8700</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K15">
-        <v>5505000</v>
+        <v>7651263</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="N15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O15" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>468321534076</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>555936831337</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>359249623614</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>22403886436</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>33386727728</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>10411712773</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>10859975142</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>29346086803</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>4820429371</v>
       </c>
       <c r="Y15" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1954,46 +1966,46 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="G16">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J16">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K16">
-        <v>13124496</v>
+        <v>5505000</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="N16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2023,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2031,76 +2043,76 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F17">
-        <v>1500000</v>
+        <v>1970000</v>
       </c>
       <c r="G17">
-        <v>1500000</v>
+        <v>1970000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="J17">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="K17">
-        <v>8503460</v>
+        <v>13124496</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O17" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P17">
-        <v>47284698907</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>38750429966</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>25900014771</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>7595091433</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>5807002440</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>3668321605</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>5701880294</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>4780312126</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>4195570793</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2111,73 +2123,73 @@
         <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F18">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="G18">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="J18">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K18">
-        <v>3310000</v>
+        <v>8503460</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O18" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>47284698907</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>38750429966</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>25900014771</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>7595091433</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>5807002440</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>3668321605</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>5701880294</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>4780312126</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>4195570793</v>
       </c>
       <c r="Y18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2185,16 +2197,16 @@
         <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F19">
         <v>3000000</v>
@@ -2206,209 +2218,286 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="J19">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="K19">
-        <v>21945300</v>
+        <v>3310000</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="N19" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O19" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="P19">
-        <v>9576212189</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>11914994171</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>7285537916</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>1172310325</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>-2762203259</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>-4737405164</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>-7460336546</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>-7104430732</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-7501425172</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F20">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="G20">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="J20">
-        <v>26000</v>
+        <v>8500</v>
       </c>
       <c r="K20">
-        <v>10429232</v>
+        <v>21945300</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>33000</v>
+        <v>10500</v>
       </c>
       <c r="N20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O20" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P20">
-        <v>-75676750274</v>
+        <v>9576212189</v>
       </c>
       <c r="Q20">
-        <v>-68652978862</v>
+        <v>11914994171</v>
       </c>
       <c r="R20">
-        <v>-9506668082</v>
+        <v>7285537916</v>
       </c>
       <c r="S20">
-        <v>-69862474811</v>
+        <v>1172310325</v>
       </c>
       <c r="T20">
-        <v>-137025491259</v>
+        <v>-2762203259</v>
       </c>
       <c r="U20">
-        <v>3014576074</v>
+        <v>-4737405164</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>-7460336546</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>-7104430732</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>-7501425172</v>
       </c>
       <c r="Y20" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F21">
+        <v>1100000</v>
+      </c>
+      <c r="G21">
+        <v>1100000</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>22000</v>
+      </c>
+      <c r="J21">
+        <v>26000</v>
+      </c>
+      <c r="K21">
+        <v>10429232</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>33000</v>
+      </c>
+      <c r="N21" t="s">
+        <v>113</v>
+      </c>
+      <c r="O21" t="s">
+        <v>126</v>
+      </c>
+      <c r="P21">
+        <v>-75676750274</v>
+      </c>
+      <c r="Q21">
+        <v>-68652978862</v>
+      </c>
+      <c r="R21">
+        <v>-9506668082</v>
+      </c>
+      <c r="S21">
+        <v>-69862474811</v>
+      </c>
+      <c r="T21">
+        <v>-137025491259</v>
+      </c>
+      <c r="U21">
+        <v>3014576074</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22">
         <v>5150000</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>5150000</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>2000</v>
-      </c>
-      <c r="J21">
-        <v>2000</v>
-      </c>
-      <c r="K21">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>2000</v>
+      </c>
+      <c r="J22">
+        <v>2000</v>
+      </c>
+      <c r="K22">
         <v>5510000</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>2000</v>
-      </c>
-      <c r="N21" t="s">
-        <v>110</v>
-      </c>
-      <c r="O21" t="s">
-        <v>113</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>138</v>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>2000</v>
+      </c>
+      <c r="N22" t="s">
+        <v>114</v>
+      </c>
+      <c r="O22" t="s">
+        <v>116</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-06-11</t>
+  </si>
+  <si>
     <t>2024-06-07</t>
   </si>
   <si>
@@ -139,12 +142,12 @@
     <t>2024-04-12</t>
   </si>
   <si>
+    <t>2024-06-17</t>
+  </si>
+  <si>
     <t>2024-06-13</t>
   </si>
   <si>
-    <t>2024-06-11</t>
-  </si>
-  <si>
     <t>2024-05-31</t>
   </si>
   <si>
@@ -163,7 +166,7 @@
     <t>2024-04-18</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-02</t>
   </si>
   <si>
     <t>2024-06-27</t>
@@ -184,9 +187,6 @@
     <t>2024-06-19</t>
   </si>
   <si>
-    <t>2024-06-17</t>
-  </si>
-  <si>
     <t>2024-06-18</t>
   </si>
   <si>
@@ -202,15 +202,15 @@
     <t>2024-05-03</t>
   </si>
   <si>
-    <t>2024-05-02</t>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>미래</t>
   </si>
   <si>
     <t>한국</t>
   </si>
   <si>
-    <t>미래</t>
-  </si>
-  <si>
     <t>KB</t>
   </si>
   <si>
@@ -232,7 +232,10 @@
     <t>SK</t>
   </si>
   <si>
-    <t>유안타</t>
+    <t>신한, 한국</t>
+  </si>
+  <si>
+    <t>이노스페이스</t>
   </si>
   <si>
     <t>하이젠알앤엠</t>
@@ -292,10 +295,10 @@
     <t>민테크</t>
   </si>
   <si>
-    <t>디앤디파마텍</t>
-  </si>
-  <si>
-    <t>유안타제16호스팩</t>
+    <t>신한글로벌액티브리츠</t>
+  </si>
+  <si>
+    <t>598.87:1</t>
   </si>
   <si>
     <t>1099.21:1</t>
@@ -355,10 +358,10 @@
     <t>946.72:1</t>
   </si>
   <si>
-    <t>848.50:1</t>
-  </si>
-  <si>
-    <t>1,050.42:1</t>
+    <t>38.7:1</t>
+  </si>
+  <si>
+    <t>1.99%</t>
   </si>
   <si>
     <t>11.80%</t>
@@ -394,7 +397,7 @@
     <t>4.23%</t>
   </si>
   <si>
-    <t>10.96%</t>
+    <t>소형발사체, 로켓추진기관, 과학로켓, 시험평가용역</t>
   </si>
   <si>
     <t>전동기 및 발전기 (범용모터, 서보모터)</t>
@@ -439,10 +442,7 @@
     <t>배터리 진단시스템, 배터리 시스템, 충방전 검사장비</t>
   </si>
   <si>
-    <t>대사성질환 치료제 등</t>
-  </si>
-  <si>
-    <t>금융 지원 서비스(기업인수목적회사)</t>
+    <t>신탁 및 집합투자</t>
   </si>
 </sst>
 </file>
@@ -888,7 +888,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
@@ -900,28 +900,28 @@
         <v>73</v>
       </c>
       <c r="F2">
-        <v>3400000</v>
+        <v>1330000</v>
       </c>
       <c r="G2">
-        <v>3400000</v>
+        <v>1330000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4500</v>
+        <v>36400</v>
       </c>
       <c r="J2">
-        <v>5500</v>
+        <v>43300</v>
       </c>
       <c r="K2">
-        <v>30888000</v>
+        <v>9375694</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>7000</v>
+        <v>43300</v>
       </c>
       <c r="N2" t="s">
         <v>94</v>
@@ -930,31 +930,31 @@
         <v>115</v>
       </c>
       <c r="P2">
-        <v>85187882584</v>
+        <v>103267682</v>
       </c>
       <c r="Q2">
-        <v>87525689695</v>
+        <v>342201581</v>
       </c>
       <c r="R2">
-        <v>77247394706</v>
+        <v>231425455</v>
       </c>
       <c r="S2">
-        <v>2205797752</v>
+        <v>-7598692896</v>
       </c>
       <c r="T2">
-        <v>4920387020</v>
+        <v>-25822444575</v>
       </c>
       <c r="U2">
-        <v>4336496285</v>
+        <v>-15929213281</v>
       </c>
       <c r="V2">
-        <v>1613954566</v>
+        <v>-6973258680</v>
       </c>
       <c r="W2">
-        <v>3980493669</v>
+        <v>-48433907514</v>
       </c>
       <c r="X2">
-        <v>2646634321</v>
+        <v>-83246975113</v>
       </c>
       <c r="Y2" t="s">
         <v>127</v>
@@ -965,40 +965,40 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
         <v>74</v>
       </c>
       <c r="F3">
-        <v>6250000</v>
+        <v>3400000</v>
       </c>
       <c r="G3">
-        <v>6250000</v>
+        <v>3400000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="J3">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="K3">
-        <v>6870000</v>
+        <v>30888000</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="N3" t="s">
         <v>95</v>
@@ -1007,31 +1007,31 @@
         <v>116</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>85187882584</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>87525689695</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>77247394706</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2205797752</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>4920387020</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>4336496285</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1613954566</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>3980493669</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>2646634321</v>
       </c>
       <c r="Y3" t="s">
         <v>128</v>
@@ -1042,40 +1042,40 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
         <v>75</v>
       </c>
       <c r="F4">
-        <v>2000000</v>
+        <v>6250000</v>
       </c>
       <c r="G4">
-        <v>2000000</v>
+        <v>6250000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="J4">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="K4">
-        <v>17529140</v>
+        <v>6870000</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11500</v>
+        <v>2000</v>
       </c>
       <c r="N4" t="s">
         <v>96</v>
@@ -1119,7 +1119,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
@@ -1131,34 +1131,34 @@
         <v>76</v>
       </c>
       <c r="F5">
-        <v>6450000</v>
+        <v>2000000</v>
       </c>
       <c r="G5">
-        <v>6450000</v>
+        <v>2000000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="J5">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="K5">
-        <v>6930000</v>
+        <v>17529140</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2000</v>
+        <v>11500</v>
       </c>
       <c r="N5" t="s">
         <v>97</v>
       </c>
       <c r="O5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1196,22 +1196,22 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
         <v>77</v>
       </c>
       <c r="F6">
-        <v>6000000</v>
+        <v>6450000</v>
       </c>
       <c r="G6">
-        <v>6000000</v>
+        <v>6450000</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>2000</v>
       </c>
       <c r="K6">
-        <v>6220000</v>
+        <v>6930000</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>98</v>
       </c>
       <c r="O6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1265,12 +1265,12 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -1279,16 +1279,16 @@
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
         <v>78</v>
       </c>
       <c r="F7">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="G7">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>2000</v>
       </c>
       <c r="K7">
-        <v>4810000</v>
+        <v>6220000</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1342,18 +1342,18 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
         <v>64</v>
@@ -1362,10 +1362,10 @@
         <v>79</v>
       </c>
       <c r="F8">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="G8">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1377,7 +1377,7 @@
         <v>2000</v>
       </c>
       <c r="K8">
-        <v>5480000</v>
+        <v>4810000</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1389,7 +1389,7 @@
         <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1419,18 +1419,18 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
@@ -1439,64 +1439,64 @@
         <v>80</v>
       </c>
       <c r="F9">
-        <v>1300000</v>
+        <v>4750000</v>
       </c>
       <c r="G9">
-        <v>1300000</v>
+        <v>4750000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K9">
-        <v>12293880</v>
+        <v>5480000</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N9" t="s">
         <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P9">
-        <v>1386123525</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1152944128</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>1885010467</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>-4388824706</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>-7990287699</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>-9803411085</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>-4430563401</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>-7988275689</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-9916946238</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1504,40 +1504,40 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
         <v>81</v>
       </c>
       <c r="F10">
-        <v>1600000</v>
+        <v>1300000</v>
       </c>
       <c r="G10">
-        <v>1600000</v>
+        <v>1300000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J10">
-        <v>23500</v>
+        <v>14000</v>
       </c>
       <c r="K10">
-        <v>8751446</v>
+        <v>12293880</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="N10" t="s">
         <v>102</v>
@@ -1546,31 +1546,31 @@
         <v>119</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1386123525</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1152944128</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1885010467</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>-4388824706</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>-7990287699</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>-9803411085</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>-4430563401</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>-7988275689</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>-9916946238</v>
       </c>
       <c r="Y10" t="s">
         <v>131</v>
@@ -1578,43 +1578,43 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
         <v>82</v>
       </c>
       <c r="F11">
-        <v>1298000</v>
+        <v>1600000</v>
       </c>
       <c r="G11">
-        <v>1298000</v>
+        <v>1600000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10400</v>
+        <v>20000</v>
       </c>
       <c r="J11">
-        <v>12700</v>
+        <v>23500</v>
       </c>
       <c r="K11">
-        <v>8650735</v>
+        <v>8751446</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="N11" t="s">
         <v>103</v>
@@ -1623,31 +1623,31 @@
         <v>120</v>
       </c>
       <c r="P11">
-        <v>2055746777</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>2918221978</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>979078233</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>-3343774083</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>-3525649863</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>-1713494359</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>-4430074915</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>-8304699942</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-1627684107</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="s">
         <v>132</v>
@@ -1655,76 +1655,76 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
         <v>83</v>
       </c>
       <c r="F12">
-        <v>5000000</v>
+        <v>1298000</v>
       </c>
       <c r="G12">
-        <v>5000000</v>
+        <v>1298000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2000</v>
+        <v>10400</v>
       </c>
       <c r="J12">
-        <v>2000</v>
+        <v>12700</v>
       </c>
       <c r="K12">
-        <v>5840000</v>
+        <v>8650735</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="N12" t="s">
         <v>104</v>
       </c>
       <c r="O12" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>2055746777</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>2918221978</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>979078233</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>-3343774083</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>-3525649863</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>-1713494359</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>-4430074915</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>-8304699942</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>-1627684107</v>
       </c>
       <c r="Y12" t="s">
         <v>133</v>
@@ -1735,46 +1735,46 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
         <v>84</v>
       </c>
       <c r="F13">
-        <v>1400000</v>
+        <v>5000000</v>
       </c>
       <c r="G13">
-        <v>1400000</v>
+        <v>5000000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>34000</v>
+        <v>2000</v>
       </c>
       <c r="J13">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="K13">
-        <v>7942750</v>
+        <v>5840000</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="N13" t="s">
         <v>105</v>
       </c>
       <c r="O13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1815,43 +1815,43 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
         <v>85</v>
       </c>
       <c r="F14">
-        <v>6650000</v>
+        <v>1400000</v>
       </c>
       <c r="G14">
-        <v>6650000</v>
+        <v>1400000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2000</v>
+        <v>34000</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="K14">
-        <v>8100000</v>
+        <v>7942750</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="N14" t="s">
         <v>106</v>
       </c>
       <c r="O14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1892,70 +1892,70 @@
         <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
         <v>86</v>
       </c>
       <c r="F15">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="G15">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>8700</v>
+        <v>2000</v>
       </c>
       <c r="J15">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K15">
-        <v>7651263</v>
+        <v>8100000</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="N15" t="s">
         <v>107</v>
       </c>
       <c r="O15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="P15">
-        <v>468321534076</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>555936831337</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>359249623614</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>22403886436</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>33386727728</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>10411712773</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>10859975142</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>29346086803</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>4820429371</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="s">
         <v>136</v>
@@ -1966,76 +1966,76 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
         <v>87</v>
       </c>
       <c r="F16">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="G16">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2000</v>
+        <v>8700</v>
       </c>
       <c r="J16">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K16">
-        <v>5505000</v>
+        <v>7651263</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="N16" t="s">
         <v>108</v>
       </c>
       <c r="O16" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>468321534076</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>555936831337</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>359249623614</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>22403886436</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>33386727728</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>10411712773</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>10859975142</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>29346086803</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>4820429371</v>
       </c>
       <c r="Y16" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2043,46 +2043,46 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
         <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
         <v>88</v>
       </c>
       <c r="F17">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="G17">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J17">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K17">
-        <v>13124496</v>
+        <v>5505000</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="N17" t="s">
         <v>109</v>
       </c>
       <c r="O17" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2120,40 +2120,40 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
         <v>89</v>
       </c>
       <c r="F18">
-        <v>1500000</v>
+        <v>1970000</v>
       </c>
       <c r="G18">
-        <v>1500000</v>
+        <v>1970000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="J18">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="K18">
-        <v>8503460</v>
+        <v>13124496</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N18" t="s">
         <v>110</v>
@@ -2162,31 +2162,31 @@
         <v>124</v>
       </c>
       <c r="P18">
-        <v>47284698907</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>38750429966</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>25900014771</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>7595091433</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>5807002440</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>3668321605</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>5701880294</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>4780312126</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>4195570793</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="s">
         <v>138</v>
@@ -2203,67 +2203,67 @@
         <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
         <v>90</v>
       </c>
       <c r="F19">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="G19">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="J19">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K19">
-        <v>3310000</v>
+        <v>8503460</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N19" t="s">
         <v>111</v>
       </c>
       <c r="O19" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>47284698907</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>38750429966</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>25900014771</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>7595091433</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>5807002440</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>3668321605</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>5701880294</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>4780312126</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>4195570793</v>
       </c>
       <c r="Y19" t="s">
         <v>139</v>
@@ -2274,13 +2274,13 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
         <v>91</v>
@@ -2295,52 +2295,52 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="J20">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="K20">
-        <v>21945300</v>
+        <v>3310000</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="N20" t="s">
         <v>112</v>
       </c>
       <c r="O20" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P20">
-        <v>9576212189</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>11914994171</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>7285537916</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>1172310325</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>-2762203259</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>-4737405164</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>-7460336546</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>-7104430732</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-7501425172</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="s">
         <v>140</v>
@@ -2348,43 +2348,43 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
         <v>92</v>
       </c>
       <c r="F21">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="G21">
-        <v>1100000</v>
+        <v>3000000</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="J21">
-        <v>26000</v>
+        <v>8500</v>
       </c>
       <c r="K21">
-        <v>10429232</v>
+        <v>21945300</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>33000</v>
+        <v>10500</v>
       </c>
       <c r="N21" t="s">
         <v>113</v>
@@ -2393,31 +2393,31 @@
         <v>126</v>
       </c>
       <c r="P21">
-        <v>-75676750274</v>
+        <v>9576212189</v>
       </c>
       <c r="Q21">
-        <v>-68652978862</v>
+        <v>11914994171</v>
       </c>
       <c r="R21">
-        <v>-9506668082</v>
+        <v>7285537916</v>
       </c>
       <c r="S21">
-        <v>-69862474811</v>
+        <v>1172310325</v>
       </c>
       <c r="T21">
-        <v>-137025491259</v>
+        <v>-2762203259</v>
       </c>
       <c r="U21">
-        <v>3014576074</v>
+        <v>-4737405164</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>-7460336546</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>-7104430732</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>-7501425172</v>
       </c>
       <c r="Y21" t="s">
         <v>141</v>
@@ -2425,10 +2425,10 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>62</v>
@@ -2440,34 +2440,34 @@
         <v>93</v>
       </c>
       <c r="F22">
-        <v>5150000</v>
+        <v>23333334</v>
       </c>
       <c r="G22">
-        <v>5150000</v>
+        <v>23333334</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="J22">
-        <v>2000</v>
+        <v>3800</v>
       </c>
       <c r="K22">
-        <v>5510000</v>
+        <v>43477664</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N22" t="s">
         <v>114</v>
       </c>
       <c r="O22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P22">
         <v>0</v>

--- a/datasets/sheet1.xlsx
+++ b/datasets/sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="142">
   <si>
     <t>수요예측(시작일)</t>
   </si>
@@ -91,6 +91,9 @@
     <t>주요제품</t>
   </si>
   <si>
+    <t>2024-06-13</t>
+  </si>
+  <si>
     <t>2024-06-11</t>
   </si>
   <si>
@@ -139,15 +142,12 @@
     <t>2024-04-17</t>
   </si>
   <si>
-    <t>2024-04-12</t>
+    <t>2024-06-19</t>
   </si>
   <si>
     <t>2024-06-17</t>
   </si>
   <si>
-    <t>2024-06-13</t>
-  </si>
-  <si>
     <t>2024-05-31</t>
   </si>
   <si>
@@ -166,6 +166,9 @@
     <t>2024-04-18</t>
   </si>
   <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
     <t>2024-07-02</t>
   </si>
   <si>
@@ -184,9 +187,6 @@
     <t>2024-06-21</t>
   </si>
   <si>
-    <t>2024-06-19</t>
-  </si>
-  <si>
     <t>2024-06-18</t>
   </si>
   <si>
@@ -199,12 +199,12 @@
     <t>2024-05-07</t>
   </si>
   <si>
-    <t>2024-05-03</t>
-  </si>
-  <si>
     <t>2024-07-01</t>
   </si>
   <si>
+    <t>삼성</t>
+  </si>
+  <si>
     <t>미래</t>
   </si>
   <si>
@@ -223,9 +223,6 @@
     <t>DB</t>
   </si>
   <si>
-    <t>삼성</t>
-  </si>
-  <si>
     <t>NH</t>
   </si>
   <si>
@@ -235,6 +232,9 @@
     <t>신한, 한국</t>
   </si>
   <si>
+    <t>하스</t>
+  </si>
+  <si>
     <t>이노스페이스</t>
   </si>
   <si>
@@ -292,12 +292,12 @@
     <t>SK증권제12호스팩</t>
   </si>
   <si>
-    <t>민테크</t>
-  </si>
-  <si>
     <t>신한글로벌액티브리츠</t>
   </si>
   <si>
+    <t>946.40:1</t>
+  </si>
+  <si>
     <t>598.87:1</t>
   </si>
   <si>
@@ -355,12 +355,12 @@
     <t>1,189.41:1</t>
   </si>
   <si>
-    <t>946.72:1</t>
-  </si>
-  <si>
     <t>38.7:1</t>
   </si>
   <si>
+    <t>6.36%</t>
+  </si>
+  <si>
     <t>1.99%</t>
   </si>
   <si>
@@ -394,7 +394,7 @@
     <t>13.19%</t>
   </si>
   <si>
-    <t>4.23%</t>
+    <t>리튬디실리케이트 수복소재(Amber block, Amber Ingot 등), 지르코니아 유치관</t>
   </si>
   <si>
     <t>소형발사체, 로켓추진기관, 과학로켓, 시험평가용역</t>
@@ -437,9 +437,6 @@
   </si>
   <si>
     <t>기업인수목적 주식회사</t>
-  </si>
-  <si>
-    <t>배터리 진단시스템, 배터리 시스템, 충방전 검사장비</t>
   </si>
   <si>
     <t>신탁 및 집합투자</t>
@@ -894,70 +891,70 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2">
-        <v>1330000</v>
+        <v>1810000</v>
       </c>
       <c r="G2">
-        <v>1330000</v>
+        <v>1810000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36400</v>
+        <v>9000</v>
       </c>
       <c r="J2">
-        <v>43300</v>
+        <v>12000</v>
       </c>
       <c r="K2">
-        <v>9375694</v>
+        <v>7836009</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>43300</v>
+        <v>16000</v>
       </c>
       <c r="N2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P2">
-        <v>103267682</v>
+        <v>12596039842</v>
       </c>
       <c r="Q2">
-        <v>342201581</v>
+        <v>14910346438</v>
       </c>
       <c r="R2">
-        <v>231425455</v>
+        <v>16039074617</v>
       </c>
       <c r="S2">
-        <v>-7598692896</v>
+        <v>1732604466</v>
       </c>
       <c r="T2">
-        <v>-25822444575</v>
+        <v>2893667787</v>
       </c>
       <c r="U2">
-        <v>-15929213281</v>
+        <v>1613779678</v>
       </c>
       <c r="V2">
-        <v>-6973258680</v>
+        <v>1558081149</v>
       </c>
       <c r="W2">
-        <v>-48433907514</v>
+        <v>2643467726</v>
       </c>
       <c r="X2">
-        <v>-83246975113</v>
+        <v>1795726428</v>
       </c>
       <c r="Y2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -971,70 +968,70 @@
         <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3">
-        <v>3400000</v>
+        <v>1330000</v>
       </c>
       <c r="G3">
-        <v>3400000</v>
+        <v>1330000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>4500</v>
+        <v>36400</v>
       </c>
       <c r="J3">
-        <v>5500</v>
+        <v>43300</v>
       </c>
       <c r="K3">
-        <v>30888000</v>
+        <v>9375694</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>7000</v>
+        <v>43300</v>
       </c>
       <c r="N3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P3">
-        <v>85187882584</v>
+        <v>103267682</v>
       </c>
       <c r="Q3">
-        <v>87525689695</v>
+        <v>342201581</v>
       </c>
       <c r="R3">
-        <v>77247394706</v>
+        <v>231425455</v>
       </c>
       <c r="S3">
-        <v>2205797752</v>
+        <v>-7598692896</v>
       </c>
       <c r="T3">
-        <v>4920387020</v>
+        <v>-25822444575</v>
       </c>
       <c r="U3">
-        <v>4336496285</v>
+        <v>-15929213281</v>
       </c>
       <c r="V3">
-        <v>1613954566</v>
+        <v>-6973258680</v>
       </c>
       <c r="W3">
-        <v>3980493669</v>
+        <v>-48433907514</v>
       </c>
       <c r="X3">
-        <v>2646634321</v>
+        <v>-83246975113</v>
       </c>
       <c r="Y3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -1051,67 +1048,67 @@
         <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4">
-        <v>6250000</v>
+        <v>3400000</v>
       </c>
       <c r="G4">
-        <v>6250000</v>
+        <v>3400000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="J4">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="K4">
-        <v>6870000</v>
+        <v>30888000</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="N4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>85187882584</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>87525689695</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>77247394706</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2205797752</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>4920387020</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>4336496285</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1613954566</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>3980493669</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>2646634321</v>
       </c>
       <c r="Y4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1119,7 +1116,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
@@ -1128,37 +1125,37 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5">
-        <v>2000000</v>
+        <v>6250000</v>
       </c>
       <c r="G5">
-        <v>2000000</v>
+        <v>6250000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="J5">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="K5">
-        <v>17529140</v>
+        <v>6870000</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11500</v>
+        <v>2000</v>
       </c>
       <c r="N5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1188,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1196,46 +1193,46 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6">
-        <v>6450000</v>
+        <v>2000000</v>
       </c>
       <c r="G6">
-        <v>6450000</v>
+        <v>2000000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="J6">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="K6">
-        <v>6930000</v>
+        <v>17529140</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2000</v>
+        <v>11500</v>
       </c>
       <c r="N6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1265,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1273,22 +1270,22 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7">
-        <v>6000000</v>
+        <v>6450000</v>
       </c>
       <c r="G7">
-        <v>6000000</v>
+        <v>6450000</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1300,7 +1297,7 @@
         <v>2000</v>
       </c>
       <c r="K7">
-        <v>6220000</v>
+        <v>6930000</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1309,7 +1306,7 @@
         <v>2000</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
         <v>117</v>
@@ -1347,7 +1344,7 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -1356,16 +1353,16 @@
         <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="G8">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1377,7 +1374,7 @@
         <v>2000</v>
       </c>
       <c r="K8">
-        <v>4810000</v>
+        <v>6220000</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1386,7 +1383,7 @@
         <v>2000</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
         <v>117</v>
@@ -1424,25 +1421,25 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="G9">
-        <v>4750000</v>
+        <v>4000000</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1454,7 +1451,7 @@
         <v>2000</v>
       </c>
       <c r="K9">
-        <v>5480000</v>
+        <v>4810000</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1463,7 +1460,7 @@
         <v>2000</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
         <v>117</v>
@@ -1501,79 +1498,79 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10">
-        <v>1300000</v>
+        <v>4750000</v>
       </c>
       <c r="G10">
-        <v>1300000</v>
+        <v>4750000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10500</v>
+        <v>2000</v>
       </c>
       <c r="J10">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="K10">
-        <v>12293880</v>
+        <v>5480000</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P10">
-        <v>1386123525</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1152944128</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1885010467</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>-4388824706</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>-7990287699</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>-9803411085</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>-4430563401</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>-7988275689</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-9916946238</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1581,230 +1578,230 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11">
-        <v>1600000</v>
+        <v>1300000</v>
       </c>
       <c r="G11">
-        <v>1600000</v>
+        <v>1300000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="J11">
-        <v>23500</v>
+        <v>14000</v>
       </c>
       <c r="K11">
-        <v>8751446</v>
+        <v>12293880</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="N11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1386123525</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1152944128</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1885010467</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>-4388824706</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>-7990287699</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>-9803411085</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>-4430563401</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>-7988275689</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>-9916946238</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12">
-        <v>1298000</v>
+        <v>1600000</v>
       </c>
       <c r="G12">
-        <v>1298000</v>
+        <v>1600000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10400</v>
+        <v>20000</v>
       </c>
       <c r="J12">
-        <v>12700</v>
+        <v>23500</v>
       </c>
       <c r="K12">
-        <v>8650735</v>
+        <v>8751446</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="N12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P12">
-        <v>2055746777</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>2918221978</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>979078233</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>-3343774083</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>-3525649863</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>-1713494359</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>-4430074915</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>-8304699942</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-1627684107</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13">
-        <v>5000000</v>
+        <v>1298000</v>
       </c>
       <c r="G13">
-        <v>5000000</v>
+        <v>1298000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2000</v>
+        <v>10400</v>
       </c>
       <c r="J13">
-        <v>2000</v>
+        <v>12700</v>
       </c>
       <c r="K13">
-        <v>5840000</v>
+        <v>8650735</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="N13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>2055746777</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>2918221978</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>979078233</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>-3343774083</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>-3525649863</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>-1713494359</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>-4430074915</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>-8304699942</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>-1627684107</v>
       </c>
       <c r="Y13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1815,43 +1812,43 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14">
-        <v>1400000</v>
+        <v>5000000</v>
       </c>
       <c r="G14">
-        <v>1400000</v>
+        <v>5000000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>34000</v>
+        <v>2000</v>
       </c>
       <c r="J14">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="K14">
-        <v>7942750</v>
+        <v>5840000</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40000</v>
+        <v>2000</v>
       </c>
       <c r="N14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1881,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1889,46 +1886,46 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15">
-        <v>6650000</v>
+        <v>1400000</v>
       </c>
       <c r="G15">
-        <v>6650000</v>
+        <v>1400000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2000</v>
+        <v>34000</v>
       </c>
       <c r="J15">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="K15">
-        <v>8100000</v>
+        <v>7942750</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2000</v>
+        <v>40000</v>
       </c>
       <c r="N15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O15" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1958,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1966,76 +1963,76 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="G16">
-        <v>1200000</v>
+        <v>6650000</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>8700</v>
+        <v>2000</v>
       </c>
       <c r="J16">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="K16">
-        <v>7651263</v>
+        <v>8100000</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="N16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O16" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="P16">
-        <v>468321534076</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>555936831337</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>359249623614</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>22403886436</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>33386727728</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>10411712773</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>10859975142</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>29346086803</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>4820429371</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2043,76 +2040,76 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="G17">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2000</v>
+        <v>8700</v>
       </c>
       <c r="J17">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="K17">
-        <v>5505000</v>
+        <v>7651263</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="N17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O17" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>468321534076</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>555936831337</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>359249623614</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>22403886436</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>33386727728</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>10411712773</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>10859975142</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>29346086803</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>4820429371</v>
       </c>
       <c r="Y17" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2120,46 +2117,46 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
         <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="G18">
-        <v>1970000</v>
+        <v>5000000</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="J18">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="K18">
-        <v>13124496</v>
+        <v>5505000</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="N18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O18" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2189,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2197,76 +2194,76 @@
         <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F19">
-        <v>1500000</v>
+        <v>1970000</v>
       </c>
       <c r="G19">
-        <v>1500000</v>
+        <v>1970000</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="J19">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="K19">
-        <v>8503460</v>
+        <v>13124496</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P19">
-        <v>47284698907</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>38750429966</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>25900014771</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>7595091433</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>5807002440</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>3668321605</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>5701880294</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>4780312126</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>4195570793</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2274,76 +2271,76 @@
         <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
         <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F20">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="G20">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2000</v>
+        <v>11000</v>
       </c>
       <c r="J20">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="K20">
-        <v>3310000</v>
+        <v>8503460</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="N20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O20" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>47284698907</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>38750429966</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>25900014771</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>7595091433</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>5807002440</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>3668321605</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>5701880294</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>4780312126</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>4195570793</v>
       </c>
       <c r="Y20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2354,13 +2351,13 @@
         <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21">
         <v>3000000</v>
@@ -2372,72 +2369,72 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="J21">
-        <v>8500</v>
+        <v>2000</v>
       </c>
       <c r="K21">
-        <v>21945300</v>
+        <v>3310000</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>10500</v>
+  